--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13DE2BCE-37A0-40AC-9511-13C8D65CD53D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8F90E-D07C-47F5-892A-C61BC57BE0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -301,6 +301,18 @@
   </si>
   <si>
     <t>Análisis y actualización de Papers año 2024 en documentación</t>
+  </si>
+  <si>
+    <t>Entrenamiento del modelo multimodal</t>
+  </si>
+  <si>
+    <t>Obtención del dataset multimodal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparación del dataset multimodal </t>
+  </si>
+  <si>
+    <t>Experimentación y ajustes de modelo multimodal</t>
   </si>
 </sst>
 </file>
@@ -1252,13 +1264,37 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1273,36 +1309,6 @@
     <xf numFmtId="171" fontId="23" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1313,6 +1319,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1372,7 +1384,53 @@
     <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="34">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1706,15 +1764,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="29"/>
-      <tableStyleElement type="headerRow" dxfId="28"/>
-      <tableStyleElement type="totalRow" dxfId="27"/>
-      <tableStyleElement type="firstColumn" dxfId="26"/>
-      <tableStyleElement type="lastColumn" dxfId="25"/>
-      <tableStyleElement type="firstRowStripe" dxfId="24"/>
-      <tableStyleElement type="secondRowStripe" dxfId="23"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="22"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="21"/>
+      <tableStyleElement type="wholeTable" dxfId="33"/>
+      <tableStyleElement type="headerRow" dxfId="32"/>
+      <tableStyleElement type="totalRow" dxfId="31"/>
+      <tableStyleElement type="firstColumn" dxfId="30"/>
+      <tableStyleElement type="lastColumn" dxfId="29"/>
+      <tableStyleElement type="firstRowStripe" dxfId="28"/>
+      <tableStyleElement type="secondRowStripe" dxfId="27"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2073,11 +2131,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FM62"/>
+  <dimension ref="A1:FT66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M26" sqref="M26"/>
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J37" sqref="J36:J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2108,9 +2166,12 @@
     <col min="164" max="165" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="166" max="168" width="2.85546875" bestFit="1" customWidth="1"/>
     <col min="169" max="169" width="5.7109375" customWidth="1"/>
+    <col min="170" max="170" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="176" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2124,434 +2185,444 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="58">
+      <c r="D3" s="64"/>
+      <c r="E3" s="66">
         <v>45323</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="I3" s="70" t="s">
+      <c r="F3" s="66"/>
+      <c r="I3" s="68" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-      <c r="DE3" s="71"/>
-      <c r="DF3" s="71"/>
-      <c r="DG3" s="71"/>
-      <c r="DH3" s="71"/>
-      <c r="DI3" s="71"/>
-      <c r="DJ3" s="71"/>
-      <c r="DK3" s="71"/>
-      <c r="DL3" s="71"/>
-      <c r="DM3" s="71"/>
-      <c r="DN3" s="71"/>
-      <c r="DO3" s="71"/>
-      <c r="DP3" s="71"/>
-      <c r="DQ3" s="71"/>
-      <c r="DR3" s="71"/>
-      <c r="DS3" s="71"/>
-      <c r="DT3" s="71"/>
-      <c r="DU3" s="71"/>
-      <c r="DV3" s="71"/>
-      <c r="DW3" s="71"/>
-      <c r="DX3" s="71"/>
-      <c r="DY3" s="71"/>
-      <c r="DZ3" s="71"/>
-      <c r="EA3" s="71"/>
-      <c r="EB3" s="71"/>
-      <c r="EC3" s="71"/>
-      <c r="ED3" s="71"/>
-      <c r="EE3" s="71"/>
-      <c r="EF3" s="71"/>
-      <c r="EG3" s="71"/>
-      <c r="EH3" s="71"/>
-      <c r="EI3" s="71"/>
-      <c r="EJ3" s="71"/>
-      <c r="EK3" s="71"/>
-      <c r="EL3" s="71"/>
-      <c r="EM3" s="71"/>
-      <c r="EN3" s="71"/>
-      <c r="EO3" s="71"/>
-      <c r="EP3" s="71"/>
-      <c r="EQ3" s="71"/>
-      <c r="ER3" s="71"/>
-      <c r="ES3" s="71"/>
-      <c r="ET3" s="71"/>
-      <c r="EU3" s="71"/>
-      <c r="EV3" s="71"/>
-      <c r="EW3" s="71"/>
-      <c r="EX3" s="71"/>
-      <c r="EY3" s="71"/>
-      <c r="EZ3" s="71"/>
-      <c r="FA3" s="71"/>
-      <c r="FB3" s="71"/>
-      <c r="FC3" s="71"/>
-      <c r="FD3" s="71"/>
-      <c r="FE3" s="71"/>
-      <c r="FF3" s="71"/>
-      <c r="FG3" s="71"/>
-      <c r="FH3" s="71"/>
-      <c r="FI3" s="71"/>
-      <c r="FJ3" s="71"/>
-      <c r="FK3" s="71"/>
-      <c r="FL3" s="71"/>
-      <c r="FM3" s="71"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
+      <c r="BR3" s="69"/>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="69"/>
+      <c r="BV3" s="69"/>
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="69"/>
+      <c r="BY3" s="69"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="69"/>
+      <c r="CB3" s="69"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="69"/>
+      <c r="CE3" s="69"/>
+      <c r="CF3" s="69"/>
+      <c r="CG3" s="69"/>
+      <c r="CH3" s="69"/>
+      <c r="CI3" s="69"/>
+      <c r="CJ3" s="69"/>
+      <c r="CK3" s="69"/>
+      <c r="CL3" s="69"/>
+      <c r="CM3" s="69"/>
+      <c r="CN3" s="69"/>
+      <c r="CO3" s="69"/>
+      <c r="CP3" s="69"/>
+      <c r="CQ3" s="69"/>
+      <c r="CR3" s="69"/>
+      <c r="CS3" s="69"/>
+      <c r="CT3" s="69"/>
+      <c r="CU3" s="69"/>
+      <c r="CV3" s="69"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="69"/>
+      <c r="CY3" s="69"/>
+      <c r="CZ3" s="69"/>
+      <c r="DA3" s="69"/>
+      <c r="DB3" s="69"/>
+      <c r="DC3" s="69"/>
+      <c r="DD3" s="69"/>
+      <c r="DE3" s="69"/>
+      <c r="DF3" s="69"/>
+      <c r="DG3" s="69"/>
+      <c r="DH3" s="69"/>
+      <c r="DI3" s="69"/>
+      <c r="DJ3" s="69"/>
+      <c r="DK3" s="69"/>
+      <c r="DL3" s="69"/>
+      <c r="DM3" s="69"/>
+      <c r="DN3" s="69"/>
+      <c r="DO3" s="69"/>
+      <c r="DP3" s="69"/>
+      <c r="DQ3" s="69"/>
+      <c r="DR3" s="69"/>
+      <c r="DS3" s="69"/>
+      <c r="DT3" s="69"/>
+      <c r="DU3" s="69"/>
+      <c r="DV3" s="69"/>
+      <c r="DW3" s="69"/>
+      <c r="DX3" s="69"/>
+      <c r="DY3" s="69"/>
+      <c r="DZ3" s="69"/>
+      <c r="EA3" s="69"/>
+      <c r="EB3" s="69"/>
+      <c r="EC3" s="69"/>
+      <c r="ED3" s="69"/>
+      <c r="EE3" s="69"/>
+      <c r="EF3" s="69"/>
+      <c r="EG3" s="69"/>
+      <c r="EH3" s="69"/>
+      <c r="EI3" s="69"/>
+      <c r="EJ3" s="69"/>
+      <c r="EK3" s="69"/>
+      <c r="EL3" s="69"/>
+      <c r="EM3" s="69"/>
+      <c r="EN3" s="69"/>
+      <c r="EO3" s="69"/>
+      <c r="EP3" s="69"/>
+      <c r="EQ3" s="69"/>
+      <c r="ER3" s="69"/>
+      <c r="ES3" s="69"/>
+      <c r="ET3" s="69"/>
+      <c r="EU3" s="69"/>
+      <c r="EV3" s="69"/>
+      <c r="EW3" s="69"/>
+      <c r="EX3" s="69"/>
+      <c r="EY3" s="69"/>
+      <c r="EZ3" s="69"/>
+      <c r="FA3" s="69"/>
+      <c r="FB3" s="69"/>
+      <c r="FC3" s="69"/>
+      <c r="FD3" s="69"/>
+      <c r="FE3" s="69"/>
+      <c r="FF3" s="69"/>
+      <c r="FG3" s="69"/>
+      <c r="FH3" s="69"/>
+      <c r="FI3" s="69"/>
+      <c r="FJ3" s="69"/>
+      <c r="FK3" s="69"/>
+      <c r="FL3" s="69"/>
+      <c r="FM3" s="69"/>
     </row>
-    <row r="4" spans="1:169" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="53">
+      <c r="I4" s="59">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="53">
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="59">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="53">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="59">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="53">
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="59">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="53">
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="59">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="53">
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="59">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="53">
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="59">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="53">
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="59">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="53">
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="59">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="53">
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="59">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="53">
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="59">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="54"/>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="53">
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="59">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="54"/>
-      <c r="CM4" s="54"/>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="53">
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="60"/>
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="59">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="54"/>
-      <c r="CT4" s="54"/>
-      <c r="CU4" s="54"/>
-      <c r="CV4" s="53">
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="59">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="54"/>
-      <c r="CX4" s="54"/>
-      <c r="CY4" s="54"/>
-      <c r="CZ4" s="54"/>
-      <c r="DA4" s="54"/>
-      <c r="DB4" s="54"/>
-      <c r="DC4" s="53">
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="60"/>
+      <c r="DB4" s="60"/>
+      <c r="DC4" s="59">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="54"/>
-      <c r="DE4" s="54"/>
-      <c r="DF4" s="54"/>
-      <c r="DG4" s="54"/>
-      <c r="DH4" s="54"/>
-      <c r="DI4" s="54"/>
-      <c r="DJ4" s="53">
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="60"/>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="59">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="54"/>
-      <c r="DL4" s="54"/>
-      <c r="DM4" s="54"/>
-      <c r="DN4" s="54"/>
-      <c r="DO4" s="54"/>
-      <c r="DP4" s="54"/>
-      <c r="DQ4" s="53">
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="60"/>
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="59">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="54"/>
-      <c r="DS4" s="54"/>
-      <c r="DT4" s="54"/>
-      <c r="DU4" s="54"/>
-      <c r="DV4" s="54"/>
-      <c r="DW4" s="54"/>
-      <c r="DX4" s="53">
+      <c r="DR4" s="60"/>
+      <c r="DS4" s="60"/>
+      <c r="DT4" s="60"/>
+      <c r="DU4" s="60"/>
+      <c r="DV4" s="60"/>
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="59">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="54"/>
-      <c r="DZ4" s="54"/>
-      <c r="EA4" s="54"/>
-      <c r="EB4" s="54"/>
-      <c r="EC4" s="54"/>
-      <c r="ED4" s="54"/>
-      <c r="EE4" s="53">
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="60"/>
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="60"/>
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="59">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="54"/>
-      <c r="EG4" s="54"/>
-      <c r="EH4" s="54"/>
-      <c r="EI4" s="54"/>
-      <c r="EJ4" s="54"/>
-      <c r="EK4" s="54"/>
-      <c r="EL4" s="53">
+      <c r="EF4" s="60"/>
+      <c r="EG4" s="60"/>
+      <c r="EH4" s="60"/>
+      <c r="EI4" s="60"/>
+      <c r="EJ4" s="60"/>
+      <c r="EK4" s="60"/>
+      <c r="EL4" s="59">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="54"/>
-      <c r="EN4" s="54"/>
-      <c r="EO4" s="54"/>
-      <c r="EP4" s="54"/>
-      <c r="EQ4" s="54"/>
-      <c r="ER4" s="54"/>
-      <c r="ES4" s="53">
+      <c r="EM4" s="60"/>
+      <c r="EN4" s="60"/>
+      <c r="EO4" s="60"/>
+      <c r="EP4" s="60"/>
+      <c r="EQ4" s="60"/>
+      <c r="ER4" s="60"/>
+      <c r="ES4" s="59">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="54"/>
-      <c r="EU4" s="54"/>
-      <c r="EV4" s="54"/>
-      <c r="EW4" s="54"/>
-      <c r="EX4" s="54"/>
-      <c r="EY4" s="54"/>
-      <c r="EZ4" s="53">
+      <c r="ET4" s="60"/>
+      <c r="EU4" s="60"/>
+      <c r="EV4" s="60"/>
+      <c r="EW4" s="60"/>
+      <c r="EX4" s="60"/>
+      <c r="EY4" s="60"/>
+      <c r="EZ4" s="59">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="54"/>
-      <c r="FB4" s="54"/>
-      <c r="FC4" s="54"/>
-      <c r="FD4" s="54"/>
-      <c r="FE4" s="54"/>
-      <c r="FF4" s="54"/>
-      <c r="FG4" s="53">
+      <c r="FA4" s="60"/>
+      <c r="FB4" s="60"/>
+      <c r="FC4" s="60"/>
+      <c r="FD4" s="60"/>
+      <c r="FE4" s="60"/>
+      <c r="FF4" s="60"/>
+      <c r="FG4" s="59">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="54"/>
-      <c r="FI4" s="54"/>
-      <c r="FJ4" s="54"/>
-      <c r="FK4" s="54"/>
-      <c r="FL4" s="54"/>
-      <c r="FM4" s="54"/>
+      <c r="FH4" s="60"/>
+      <c r="FI4" s="60"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="60"/>
+      <c r="FL4" s="60"/>
+      <c r="FM4" s="60"/>
+      <c r="FN4" s="59">
+        <f>FN5</f>
+        <v>45481</v>
+      </c>
+      <c r="FO4" s="60"/>
+      <c r="FP4" s="60"/>
+      <c r="FQ4" s="60"/>
+      <c r="FR4" s="60"/>
+      <c r="FS4" s="60"/>
+      <c r="FT4" s="60"/>
     </row>
-    <row r="5" spans="1:169" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3206,15 +3277,43 @@
         <f t="shared" ref="FM5" si="100">FL5+1</f>
         <v>45480</v>
       </c>
+      <c r="FN5" s="16">
+        <f t="shared" ref="FN5" si="101">FM5+1</f>
+        <v>45481</v>
+      </c>
+      <c r="FO5" s="17">
+        <f t="shared" ref="FO5" si="102">FN5+1</f>
+        <v>45482</v>
+      </c>
+      <c r="FP5" s="17">
+        <f t="shared" ref="FP5" si="103">FO5+1</f>
+        <v>45483</v>
+      </c>
+      <c r="FQ5" s="17">
+        <f t="shared" ref="FQ5" si="104">FP5+1</f>
+        <v>45484</v>
+      </c>
+      <c r="FR5" s="17">
+        <f t="shared" ref="FR5" si="105">FQ5+1</f>
+        <v>45485</v>
+      </c>
+      <c r="FS5" s="17">
+        <f t="shared" ref="FS5" si="106">FR5+1</f>
+        <v>45486</v>
+      </c>
+      <c r="FT5" s="17">
+        <f t="shared" ref="FT5" si="107">FS5+1</f>
+        <v>45487</v>
+      </c>
     </row>
-    <row r="6" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -3229,651 +3328,679 @@
         <v>11</v>
       </c>
       <c r="I6" s="20" t="str">
-        <f t="shared" ref="I6" si="101">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="108">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="J6" s="20" t="str">
-        <f t="shared" ref="J6:AQ6" si="102">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AQ6" si="109">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>m</v>
       </c>
       <c r="K6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="L6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>j</v>
       </c>
       <c r="M6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>v</v>
       </c>
       <c r="N6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>s</v>
       </c>
       <c r="O6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>d</v>
       </c>
       <c r="P6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>l</v>
       </c>
       <c r="Q6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="R6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="S6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>j</v>
       </c>
       <c r="T6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>v</v>
       </c>
       <c r="U6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>s</v>
       </c>
       <c r="V6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>d</v>
       </c>
       <c r="W6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>l</v>
       </c>
       <c r="X6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="Y6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="Z6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>j</v>
       </c>
       <c r="AA6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>v</v>
       </c>
       <c r="AB6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>s</v>
       </c>
       <c r="AC6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>d</v>
       </c>
       <c r="AD6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>l</v>
       </c>
       <c r="AE6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="AF6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="AG6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>j</v>
       </c>
       <c r="AH6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>v</v>
       </c>
       <c r="AI6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>s</v>
       </c>
       <c r="AJ6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>d</v>
       </c>
       <c r="AK6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>l</v>
       </c>
       <c r="AL6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="AM6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>m</v>
       </c>
       <c r="AN6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>j</v>
       </c>
       <c r="AO6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>v</v>
       </c>
       <c r="AP6" s="20" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>s</v>
       </c>
       <c r="AQ6" s="21" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" si="109"/>
         <v>d</v>
       </c>
       <c r="AR6" s="20" t="str">
-        <f t="shared" ref="AR6:BL6" si="103">LEFT(TEXT(AR5,"ddd"),1)</f>
+        <f t="shared" ref="AR6:BL6" si="110">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="AS6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>m</v>
       </c>
       <c r="AT6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>m</v>
       </c>
       <c r="AU6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>j</v>
       </c>
       <c r="AV6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>v</v>
       </c>
       <c r="AW6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>s</v>
       </c>
       <c r="AX6" s="21" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>d</v>
       </c>
       <c r="AY6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>l</v>
       </c>
       <c r="AZ6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>m</v>
       </c>
       <c r="BA6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>m</v>
       </c>
       <c r="BB6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>j</v>
       </c>
       <c r="BC6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>v</v>
       </c>
       <c r="BD6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>s</v>
       </c>
       <c r="BE6" s="21" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>d</v>
       </c>
       <c r="BF6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>l</v>
       </c>
       <c r="BG6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>m</v>
       </c>
       <c r="BH6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>m</v>
       </c>
       <c r="BI6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>j</v>
       </c>
       <c r="BJ6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>v</v>
       </c>
       <c r="BK6" s="20" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>s</v>
       </c>
       <c r="BL6" s="21" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" si="110"/>
         <v>d</v>
       </c>
       <c r="BM6" s="20" t="str">
-        <f t="shared" ref="BM6:DI6" si="104">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <f t="shared" ref="BM6:DI6" si="111">LEFT(TEXT(BM5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="BN6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="BO6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="BP6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="BQ6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="BR6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="BS6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="BT6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>l</v>
       </c>
       <c r="BU6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="BV6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="BW6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="BX6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="BY6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="BZ6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="CA6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>l</v>
       </c>
       <c r="CB6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CC6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CD6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="CE6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="CF6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="CG6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="CH6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>l</v>
       </c>
       <c r="CI6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CJ6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CK6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="CL6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="CM6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="CN6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="CO6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>l</v>
       </c>
       <c r="CP6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CQ6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CR6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="CS6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="CT6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="CU6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="CV6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>l</v>
       </c>
       <c r="CW6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CX6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="CY6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="CZ6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="DA6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="DB6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="DC6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>l</v>
       </c>
       <c r="DD6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="DE6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>m</v>
       </c>
       <c r="DF6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>j</v>
       </c>
       <c r="DG6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>v</v>
       </c>
       <c r="DH6" s="20" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>s</v>
       </c>
       <c r="DI6" s="21" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" si="111"/>
         <v>d</v>
       </c>
       <c r="DJ6" s="20" t="str">
-        <f t="shared" ref="DJ6:DP6" si="105">LEFT(TEXT(DJ5,"ddd"),1)</f>
+        <f t="shared" ref="DJ6:DP6" si="112">LEFT(TEXT(DJ5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="DK6" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>m</v>
       </c>
       <c r="DL6" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>m</v>
       </c>
       <c r="DM6" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>j</v>
       </c>
       <c r="DN6" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>v</v>
       </c>
       <c r="DO6" s="20" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>s</v>
       </c>
       <c r="DP6" s="21" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" si="112"/>
         <v>d</v>
       </c>
       <c r="DQ6" s="20" t="str">
-        <f t="shared" ref="DQ6:EK6" si="106">LEFT(TEXT(DQ5,"ddd"),1)</f>
+        <f t="shared" ref="DQ6:EK6" si="113">LEFT(TEXT(DQ5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="DR6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>m</v>
       </c>
       <c r="DS6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>m</v>
       </c>
       <c r="DT6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>j</v>
       </c>
       <c r="DU6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>v</v>
       </c>
       <c r="DV6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>s</v>
       </c>
       <c r="DW6" s="21" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>d</v>
       </c>
       <c r="DX6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>l</v>
       </c>
       <c r="DY6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>m</v>
       </c>
       <c r="DZ6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>m</v>
       </c>
       <c r="EA6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>j</v>
       </c>
       <c r="EB6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>v</v>
       </c>
       <c r="EC6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>s</v>
       </c>
       <c r="ED6" s="21" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>d</v>
       </c>
       <c r="EE6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>l</v>
       </c>
       <c r="EF6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>m</v>
       </c>
       <c r="EG6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>m</v>
       </c>
       <c r="EH6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>j</v>
       </c>
       <c r="EI6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>v</v>
       </c>
       <c r="EJ6" s="20" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>s</v>
       </c>
       <c r="EK6" s="21" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" si="113"/>
         <v>d</v>
       </c>
       <c r="EL6" s="20" t="str">
-        <f t="shared" ref="EL6:FF6" si="107">LEFT(TEXT(EL5,"ddd"),1)</f>
+        <f t="shared" ref="EL6:FF6" si="114">LEFT(TEXT(EL5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="EM6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>m</v>
       </c>
       <c r="EN6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>m</v>
       </c>
       <c r="EO6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>j</v>
       </c>
       <c r="EP6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>v</v>
       </c>
       <c r="EQ6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>s</v>
       </c>
       <c r="ER6" s="21" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>d</v>
       </c>
       <c r="ES6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>l</v>
       </c>
       <c r="ET6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>m</v>
       </c>
       <c r="EU6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>m</v>
       </c>
       <c r="EV6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>j</v>
       </c>
       <c r="EW6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>v</v>
       </c>
       <c r="EX6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>s</v>
       </c>
       <c r="EY6" s="21" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>d</v>
       </c>
       <c r="EZ6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>l</v>
       </c>
       <c r="FA6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>m</v>
       </c>
       <c r="FB6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>m</v>
       </c>
       <c r="FC6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>j</v>
       </c>
       <c r="FD6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>v</v>
       </c>
       <c r="FE6" s="20" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>s</v>
       </c>
       <c r="FF6" s="21" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" si="114"/>
         <v>d</v>
       </c>
       <c r="FG6" s="20" t="str">
-        <f t="shared" ref="FG6:FM6" si="108">LEFT(TEXT(FG5,"ddd"),1)</f>
+        <f t="shared" ref="FG6:FM6" si="115">LEFT(TEXT(FG5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="FH6" s="20" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>m</v>
       </c>
       <c r="FI6" s="20" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>m</v>
       </c>
       <c r="FJ6" s="20" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>j</v>
       </c>
       <c r="FK6" s="20" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>v</v>
       </c>
       <c r="FL6" s="20" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>s</v>
       </c>
       <c r="FM6" s="21" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" si="115"/>
         <v>d</v>
       </c>
+      <c r="FN6" s="20" t="str">
+        <f t="shared" ref="FN6:FT6" si="116">LEFT(TEXT(FN5,"ddd"),1)</f>
+        <v>l</v>
+      </c>
+      <c r="FO6" s="20" t="str">
+        <f t="shared" si="116"/>
+        <v>m</v>
+      </c>
+      <c r="FP6" s="20" t="str">
+        <f t="shared" si="116"/>
+        <v>m</v>
+      </c>
+      <c r="FQ6" s="20" t="str">
+        <f t="shared" si="116"/>
+        <v>j</v>
+      </c>
+      <c r="FR6" s="20" t="str">
+        <f t="shared" si="116"/>
+        <v>v</v>
+      </c>
+      <c r="FS6" s="20" t="str">
+        <f t="shared" si="116"/>
+        <v>s</v>
+      </c>
+      <c r="FT6" s="21" t="str">
+        <f t="shared" si="116"/>
+        <v>d</v>
+      </c>
     </row>
-    <row r="7" spans="1:169" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:176" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -4048,21 +4175,28 @@
       <c r="FK7" s="23"/>
       <c r="FL7" s="23"/>
       <c r="FM7" s="24"/>
+      <c r="FN7" s="23"/>
+      <c r="FO7" s="23"/>
+      <c r="FP7" s="23"/>
+      <c r="FQ7" s="23"/>
+      <c r="FR7" s="23"/>
+      <c r="FS7" s="23"/>
+      <c r="FT7" s="24"/>
     </row>
-    <row r="8" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="65" t="s">
+      <c r="B8" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="65"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="str">
-        <f t="shared" ref="H8:H39" si="109">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H43" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -4226,8 +4360,15 @@
       <c r="FK8" s="23"/>
       <c r="FL8" s="23"/>
       <c r="FM8" s="24"/>
+      <c r="FN8" s="23"/>
+      <c r="FO8" s="23"/>
+      <c r="FP8" s="23"/>
+      <c r="FQ8" s="23"/>
+      <c r="FR8" s="23"/>
+      <c r="FS8" s="23"/>
+      <c r="FT8" s="24"/>
     </row>
-    <row r="9" spans="1:169" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:176" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
@@ -4248,7 +4389,7 @@
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>7</v>
       </c>
       <c r="I9" s="23"/>
@@ -4412,8 +4553,15 @@
       <c r="FK9" s="23"/>
       <c r="FL9" s="23"/>
       <c r="FM9" s="24"/>
+      <c r="FN9" s="23"/>
+      <c r="FO9" s="23"/>
+      <c r="FP9" s="23"/>
+      <c r="FQ9" s="23"/>
+      <c r="FR9" s="23"/>
+      <c r="FS9" s="23"/>
+      <c r="FT9" s="24"/>
     </row>
-    <row r="10" spans="1:169" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:176" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
@@ -4434,7 +4582,7 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>7</v>
       </c>
       <c r="I10" s="23"/>
@@ -4598,8 +4746,15 @@
       <c r="FK10" s="23"/>
       <c r="FL10" s="23"/>
       <c r="FM10" s="24"/>
+      <c r="FN10" s="23"/>
+      <c r="FO10" s="23"/>
+      <c r="FP10" s="23"/>
+      <c r="FQ10" s="23"/>
+      <c r="FR10" s="23"/>
+      <c r="FS10" s="23"/>
+      <c r="FT10" s="24"/>
     </row>
-    <row r="11" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -4619,7 +4774,7 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>15</v>
       </c>
       <c r="I11" s="23"/>
@@ -4783,8 +4938,15 @@
       <c r="FK11" s="23"/>
       <c r="FL11" s="23"/>
       <c r="FM11" s="24"/>
+      <c r="FN11" s="23"/>
+      <c r="FO11" s="23"/>
+      <c r="FP11" s="23"/>
+      <c r="FQ11" s="23"/>
+      <c r="FR11" s="23"/>
+      <c r="FS11" s="23"/>
+      <c r="FT11" s="24"/>
     </row>
-    <row r="12" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
       <c r="B12" s="62" t="s">
         <v>28</v>
@@ -4801,7 +4963,7 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>6</v>
       </c>
       <c r="I12" s="23"/>
@@ -4965,8 +5127,15 @@
       <c r="FK12" s="23"/>
       <c r="FL12" s="23"/>
       <c r="FM12" s="24"/>
+      <c r="FN12" s="23"/>
+      <c r="FO12" s="23"/>
+      <c r="FP12" s="23"/>
+      <c r="FQ12" s="23"/>
+      <c r="FR12" s="23"/>
+      <c r="FS12" s="23"/>
+      <c r="FT12" s="24"/>
     </row>
-    <row r="13" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
       <c r="B13" s="62" t="s">
         <v>70</v>
@@ -4983,7 +5152,7 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>7</v>
       </c>
       <c r="I13" s="23"/>
@@ -5147,8 +5316,15 @@
       <c r="FK13" s="23"/>
       <c r="FL13" s="23"/>
       <c r="FM13" s="24"/>
+      <c r="FN13" s="23"/>
+      <c r="FO13" s="23"/>
+      <c r="FP13" s="23"/>
+      <c r="FQ13" s="23"/>
+      <c r="FR13" s="23"/>
+      <c r="FS13" s="23"/>
+      <c r="FT13" s="24"/>
     </row>
-    <row r="14" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
       <c r="B14" s="62" t="s">
         <v>29</v>
@@ -5326,8 +5502,15 @@
       <c r="FK14" s="23"/>
       <c r="FL14" s="23"/>
       <c r="FM14" s="24"/>
+      <c r="FN14" s="23"/>
+      <c r="FO14" s="23"/>
+      <c r="FP14" s="23"/>
+      <c r="FQ14" s="23"/>
+      <c r="FR14" s="23"/>
+      <c r="FS14" s="23"/>
+      <c r="FT14" s="24"/>
     </row>
-    <row r="15" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
       <c r="B15" s="62" t="s">
         <v>30</v>
@@ -5344,7 +5527,7 @@
       </c>
       <c r="G15" s="28"/>
       <c r="H15" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>4</v>
       </c>
       <c r="I15" s="23"/>
@@ -5508,8 +5691,15 @@
       <c r="FK15" s="23"/>
       <c r="FL15" s="23"/>
       <c r="FM15" s="24"/>
+      <c r="FN15" s="23"/>
+      <c r="FO15" s="23"/>
+      <c r="FP15" s="23"/>
+      <c r="FQ15" s="23"/>
+      <c r="FR15" s="23"/>
+      <c r="FS15" s="23"/>
+      <c r="FT15" s="24"/>
     </row>
-    <row r="16" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
       <c r="B16" s="62" t="s">
         <v>33</v>
@@ -5526,7 +5716,7 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>5</v>
       </c>
       <c r="I16" s="23"/>
@@ -5690,21 +5880,28 @@
       <c r="FK16" s="23"/>
       <c r="FL16" s="23"/>
       <c r="FM16" s="24"/>
+      <c r="FN16" s="23"/>
+      <c r="FO16" s="23"/>
+      <c r="FP16" s="23"/>
+      <c r="FQ16" s="23"/>
+      <c r="FR16" s="23"/>
+      <c r="FS16" s="23"/>
+      <c r="FT16" s="24"/>
     </row>
-    <row r="17" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="72"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
       <c r="G17" s="28"/>
       <c r="H17" s="28" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="I17" s="23"/>
@@ -5868,8 +6065,15 @@
       <c r="FK17" s="23"/>
       <c r="FL17" s="23"/>
       <c r="FM17" s="24"/>
+      <c r="FN17" s="23"/>
+      <c r="FO17" s="23"/>
+      <c r="FP17" s="23"/>
+      <c r="FQ17" s="23"/>
+      <c r="FR17" s="23"/>
+      <c r="FS17" s="23"/>
+      <c r="FT17" s="24"/>
     </row>
-    <row r="18" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
       <c r="B18" s="63" t="s">
         <v>32</v>
@@ -5886,7 +6090,7 @@
       </c>
       <c r="G18" s="28"/>
       <c r="H18" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>2</v>
       </c>
       <c r="I18" s="23"/>
@@ -6050,8 +6254,15 @@
       <c r="FK18" s="23"/>
       <c r="FL18" s="23"/>
       <c r="FM18" s="24"/>
+      <c r="FN18" s="23"/>
+      <c r="FO18" s="23"/>
+      <c r="FP18" s="23"/>
+      <c r="FQ18" s="23"/>
+      <c r="FR18" s="23"/>
+      <c r="FS18" s="23"/>
+      <c r="FT18" s="24"/>
     </row>
-    <row r="19" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
       <c r="B19" s="63" t="s">
         <v>34</v>
@@ -6068,7 +6279,7 @@
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>2</v>
       </c>
       <c r="I19" s="23"/>
@@ -6232,8 +6443,15 @@
       <c r="FK19" s="23"/>
       <c r="FL19" s="23"/>
       <c r="FM19" s="24"/>
+      <c r="FN19" s="23"/>
+      <c r="FO19" s="23"/>
+      <c r="FP19" s="23"/>
+      <c r="FQ19" s="23"/>
+      <c r="FR19" s="23"/>
+      <c r="FS19" s="23"/>
+      <c r="FT19" s="24"/>
     </row>
-    <row r="20" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
       <c r="B20" s="63" t="s">
         <v>36</v>
@@ -6250,7 +6468,7 @@
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
       <c r="I20" s="23"/>
@@ -6414,8 +6632,15 @@
       <c r="FK20" s="23"/>
       <c r="FL20" s="23"/>
       <c r="FM20" s="24"/>
+      <c r="FN20" s="23"/>
+      <c r="FO20" s="23"/>
+      <c r="FP20" s="23"/>
+      <c r="FQ20" s="23"/>
+      <c r="FR20" s="23"/>
+      <c r="FS20" s="23"/>
+      <c r="FT20" s="24"/>
     </row>
-    <row r="21" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
       <c r="B21" s="63" t="s">
         <v>35</v>
@@ -6432,7 +6657,7 @@
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>1</v>
       </c>
       <c r="I21" s="23"/>
@@ -6596,21 +6821,28 @@
       <c r="FK21" s="23"/>
       <c r="FL21" s="23"/>
       <c r="FM21" s="24"/>
+      <c r="FN21" s="23"/>
+      <c r="FO21" s="23"/>
+      <c r="FP21" s="23"/>
+      <c r="FQ21" s="23"/>
+      <c r="FR21" s="23"/>
+      <c r="FS21" s="23"/>
+      <c r="FT21" s="24"/>
     </row>
-    <row r="22" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="71"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="39"/>
       <c r="G22" s="28"/>
       <c r="H22" s="28" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="I22" s="23"/>
@@ -6774,15 +7006,22 @@
       <c r="FK22" s="23"/>
       <c r="FL22" s="23"/>
       <c r="FM22" s="24"/>
+      <c r="FN22" s="23"/>
+      <c r="FO22" s="23"/>
+      <c r="FP22" s="23"/>
+      <c r="FQ22" s="23"/>
+      <c r="FR22" s="23"/>
+      <c r="FS22" s="23"/>
+      <c r="FT22" s="24"/>
     </row>
-    <row r="23" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="56"/>
       <c r="D23" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E23" s="41">
         <v>45364</v>
@@ -6792,7 +7031,7 @@
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>19</v>
       </c>
       <c r="I23" s="23"/>
@@ -6956,15 +7195,22 @@
       <c r="FK23" s="23"/>
       <c r="FL23" s="23"/>
       <c r="FM23" s="24"/>
+      <c r="FN23" s="23"/>
+      <c r="FO23" s="23"/>
+      <c r="FP23" s="23"/>
+      <c r="FQ23" s="23"/>
+      <c r="FR23" s="23"/>
+      <c r="FS23" s="23"/>
+      <c r="FT23" s="24"/>
     </row>
-    <row r="24" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="40">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E24" s="41">
         <v>45364</v>
@@ -6974,7 +7220,7 @@
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>21</v>
       </c>
       <c r="I24" s="23"/>
@@ -7138,15 +7384,22 @@
       <c r="FK24" s="23"/>
       <c r="FL24" s="23"/>
       <c r="FM24" s="24"/>
+      <c r="FN24" s="23"/>
+      <c r="FO24" s="23"/>
+      <c r="FP24" s="23"/>
+      <c r="FQ24" s="23"/>
+      <c r="FR24" s="23"/>
+      <c r="FS24" s="23"/>
+      <c r="FT24" s="24"/>
     </row>
-    <row r="25" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="55" t="s">
+      <c r="B25" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="55"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="41">
         <v>45379</v>
@@ -7156,7 +7409,7 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>6</v>
       </c>
       <c r="I25" s="23"/>
@@ -7320,15 +7573,22 @@
       <c r="FK25" s="23"/>
       <c r="FL25" s="23"/>
       <c r="FM25" s="24"/>
+      <c r="FN25" s="23"/>
+      <c r="FO25" s="23"/>
+      <c r="FP25" s="23"/>
+      <c r="FQ25" s="23"/>
+      <c r="FR25" s="23"/>
+      <c r="FS25" s="23"/>
+      <c r="FT25" s="24"/>
     </row>
-    <row r="26" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="55" t="s">
+      <c r="B26" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="55"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="41">
         <v>45384</v>
@@ -7338,7 +7598,7 @@
       </c>
       <c r="G26" s="28"/>
       <c r="H26" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>3</v>
       </c>
       <c r="I26" s="23"/>
@@ -7502,15 +7762,22 @@
       <c r="FK26" s="23"/>
       <c r="FL26" s="23"/>
       <c r="FM26" s="24"/>
+      <c r="FN26" s="23"/>
+      <c r="FO26" s="23"/>
+      <c r="FP26" s="23"/>
+      <c r="FQ26" s="23"/>
+      <c r="FR26" s="23"/>
+      <c r="FS26" s="23"/>
+      <c r="FT26" s="24"/>
     </row>
-    <row r="27" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="55" t="s">
+      <c r="B27" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="41">
         <v>45386</v>
@@ -7520,7 +7787,7 @@
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v>5</v>
       </c>
       <c r="I27" s="23"/>
@@ -7684,26 +7951,33 @@
       <c r="FK27" s="23"/>
       <c r="FL27" s="23"/>
       <c r="FM27" s="24"/>
+      <c r="FN27" s="23"/>
+      <c r="FO27" s="23"/>
+      <c r="FP27" s="23"/>
+      <c r="FQ27" s="23"/>
+      <c r="FR27" s="23"/>
+      <c r="FS27" s="23"/>
+      <c r="FT27" s="24"/>
     </row>
-    <row r="28" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="55" t="s">
+      <c r="B28" s="56" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E28" s="41">
         <v>45390</v>
       </c>
       <c r="F28" s="41">
-        <v>45394</v>
+        <v>45396</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28">
-        <f t="shared" si="109"/>
-        <v>5</v>
+        <f t="shared" si="117"/>
+        <v>7</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
@@ -7866,26 +8140,33 @@
       <c r="FK28" s="23"/>
       <c r="FL28" s="23"/>
       <c r="FM28" s="24"/>
+      <c r="FN28" s="23"/>
+      <c r="FO28" s="23"/>
+      <c r="FP28" s="23"/>
+      <c r="FQ28" s="23"/>
+      <c r="FR28" s="23"/>
+      <c r="FS28" s="23"/>
+      <c r="FT28" s="24"/>
     </row>
-    <row r="29" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="55" t="s">
+      <c r="B29" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E29" s="41">
-        <v>45394</v>
+        <v>45397</v>
       </c>
       <c r="F29" s="41">
-        <v>45397</v>
+        <v>45399</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28">
-        <f t="shared" si="109"/>
-        <v>4</v>
+        <f t="shared" si="117"/>
+        <v>3</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -8048,26 +8329,33 @@
       <c r="FK29" s="23"/>
       <c r="FL29" s="23"/>
       <c r="FM29" s="24"/>
+      <c r="FN29" s="23"/>
+      <c r="FO29" s="23"/>
+      <c r="FP29" s="23"/>
+      <c r="FQ29" s="23"/>
+      <c r="FR29" s="23"/>
+      <c r="FS29" s="23"/>
+      <c r="FT29" s="24"/>
     </row>
-    <row r="30" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="55" t="s">
+      <c r="B30" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="55"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E30" s="41">
-        <v>45397</v>
+        <v>45384</v>
       </c>
       <c r="F30" s="41">
-        <v>45399</v>
+        <v>45401</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28">
-        <f t="shared" si="109"/>
-        <v>3</v>
+        <f t="shared" si="117"/>
+        <v>18</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
@@ -8230,21 +8518,28 @@
       <c r="FK30" s="23"/>
       <c r="FL30" s="23"/>
       <c r="FM30" s="24"/>
+      <c r="FN30" s="23"/>
+      <c r="FO30" s="23"/>
+      <c r="FP30" s="23"/>
+      <c r="FQ30" s="23"/>
+      <c r="FR30" s="23"/>
+      <c r="FS30" s="23"/>
+      <c r="FT30" s="24"/>
     </row>
-    <row r="31" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="68" t="s">
+      <c r="B31" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="68"/>
+      <c r="C31" s="58"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
       <c r="G31" s="28"/>
       <c r="H31" s="28" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="I31" s="23"/>
@@ -8408,26 +8703,33 @@
       <c r="FK31" s="23"/>
       <c r="FL31" s="23"/>
       <c r="FM31" s="24"/>
+      <c r="FN31" s="23"/>
+      <c r="FO31" s="23"/>
+      <c r="FP31" s="23"/>
+      <c r="FQ31" s="23"/>
+      <c r="FR31" s="23"/>
+      <c r="FS31" s="23"/>
+      <c r="FT31" s="24"/>
     </row>
-    <row r="32" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="69" t="s">
+      <c r="B32" s="53" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="69"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="46">
-        <v>45399</v>
+        <v>45391</v>
       </c>
       <c r="F32" s="46">
-        <v>45402</v>
+        <v>45398</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28">
-        <f t="shared" si="109"/>
-        <v>4</v>
+        <f t="shared" si="117"/>
+        <v>8</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -8590,24 +8892,34 @@
       <c r="FK32" s="23"/>
       <c r="FL32" s="23"/>
       <c r="FM32" s="24"/>
+      <c r="FN32" s="23"/>
+      <c r="FO32" s="23"/>
+      <c r="FP32" s="23"/>
+      <c r="FQ32" s="23"/>
+      <c r="FR32" s="23"/>
+      <c r="FS32" s="23"/>
+      <c r="FT32" s="24"/>
     </row>
-    <row r="33" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="69" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" s="69"/>
+      <c r="B33" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="53"/>
       <c r="D33" s="45">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E33" s="46">
-        <v>45402</v>
+        <v>45390</v>
       </c>
       <c r="F33" s="46">
-        <v>45404</v>
+        <v>45394</v>
       </c>
       <c r="G33" s="28"/>
-      <c r="H33" s="28"/>
+      <c r="H33" s="28">
+        <f t="shared" si="117"/>
+        <v>5</v>
+      </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -8769,24 +9081,34 @@
       <c r="FK33" s="23"/>
       <c r="FL33" s="23"/>
       <c r="FM33" s="24"/>
+      <c r="FN33" s="23"/>
+      <c r="FO33" s="23"/>
+      <c r="FP33" s="23"/>
+      <c r="FQ33" s="23"/>
+      <c r="FR33" s="23"/>
+      <c r="FS33" s="23"/>
+      <c r="FT33" s="24"/>
     </row>
-    <row r="34" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="69" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" s="69"/>
+      <c r="B34" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="53"/>
       <c r="D34" s="45">
         <v>0</v>
       </c>
       <c r="E34" s="46">
-        <v>45404</v>
+        <v>45394</v>
       </c>
       <c r="F34" s="46">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="G34" s="28"/>
-      <c r="H34" s="28"/>
+      <c r="H34" s="28">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -8948,24 +9270,34 @@
       <c r="FK34" s="23"/>
       <c r="FL34" s="23"/>
       <c r="FM34" s="24"/>
+      <c r="FN34" s="23"/>
+      <c r="FO34" s="23"/>
+      <c r="FP34" s="23"/>
+      <c r="FQ34" s="23"/>
+      <c r="FR34" s="23"/>
+      <c r="FS34" s="23"/>
+      <c r="FT34" s="24"/>
     </row>
-    <row r="35" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="69" t="s">
-        <v>46</v>
-      </c>
-      <c r="C35" s="69"/>
+      <c r="B35" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="C35" s="53"/>
       <c r="D35" s="45">
         <v>0</v>
       </c>
       <c r="E35" s="46">
-        <v>45404</v>
+        <v>45401</v>
       </c>
       <c r="F35" s="46">
-        <v>45406</v>
+        <v>45408</v>
       </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="28">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -9127,22 +9459,33 @@
       <c r="FK35" s="23"/>
       <c r="FL35" s="23"/>
       <c r="FM35" s="24"/>
+      <c r="FN35" s="23"/>
+      <c r="FO35" s="23"/>
+      <c r="FP35" s="23"/>
+      <c r="FQ35" s="23"/>
+      <c r="FR35" s="23"/>
+      <c r="FS35" s="23"/>
+      <c r="FT35" s="24"/>
     </row>
-    <row r="36" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" s="66"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
+    <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="53"/>
+      <c r="D36" s="45">
+        <v>0</v>
+      </c>
+      <c r="E36" s="46">
+        <v>45408</v>
+      </c>
+      <c r="F36" s="46">
+        <v>45415</v>
+      </c>
       <c r="G36" s="28"/>
-      <c r="H36" s="28" t="str">
-        <f t="shared" si="109"/>
-        <v/>
+      <c r="H36" s="28">
+        <f t="shared" si="117"/>
+        <v>8</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -9305,27 +9648,31 @@
       <c r="FK36" s="23"/>
       <c r="FL36" s="23"/>
       <c r="FM36" s="24"/>
+      <c r="FN36" s="23"/>
+      <c r="FO36" s="23"/>
+      <c r="FP36" s="23"/>
+      <c r="FQ36" s="23"/>
+      <c r="FR36" s="23"/>
+      <c r="FS36" s="23"/>
+      <c r="FT36" s="24"/>
     </row>
-    <row r="37" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8"/>
-      <c r="B37" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="C37" s="60"/>
-      <c r="D37" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E37" s="36">
-        <v>45406</v>
-      </c>
-      <c r="F37" s="36">
-        <v>45408</v>
+    <row r="37" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="53"/>
+      <c r="D37" s="45">
+        <v>0</v>
+      </c>
+      <c r="E37" s="46">
+        <v>45415</v>
+      </c>
+      <c r="F37" s="46">
+        <v>45419</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28">
-        <f t="shared" si="109"/>
-        <v>3</v>
-      </c>
+      <c r="H37" s="28"/>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
@@ -9487,20 +9834,28 @@
       <c r="FK37" s="23"/>
       <c r="FL37" s="23"/>
       <c r="FM37" s="24"/>
+      <c r="FN37" s="23"/>
+      <c r="FO37" s="23"/>
+      <c r="FP37" s="23"/>
+      <c r="FQ37" s="23"/>
+      <c r="FR37" s="23"/>
+      <c r="FS37" s="23"/>
+      <c r="FT37" s="24"/>
     </row>
-    <row r="38" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="50">
+    <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="53"/>
+      <c r="D38" s="45">
         <v>0</v>
       </c>
-      <c r="E38" s="36">
-        <v>45408</v>
-      </c>
-      <c r="F38" s="36">
-        <v>45411</v>
+      <c r="E38" s="46">
+        <v>45419</v>
+      </c>
+      <c r="F38" s="46">
+        <v>45419</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -9665,23 +10020,31 @@
       <c r="FK38" s="23"/>
       <c r="FL38" s="23"/>
       <c r="FM38" s="24"/>
+      <c r="FN38" s="23"/>
+      <c r="FO38" s="23"/>
+      <c r="FP38" s="23"/>
+      <c r="FQ38" s="23"/>
+      <c r="FR38" s="23"/>
+      <c r="FS38" s="23"/>
+      <c r="FT38" s="24"/>
     </row>
-    <row r="39" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B39" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="47"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="49"/>
+    <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="53"/>
+      <c r="D39" s="45">
+        <v>0</v>
+      </c>
+      <c r="E39" s="46">
+        <v>45419</v>
+      </c>
+      <c r="F39" s="46">
+        <v>45422</v>
+      </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28" t="str">
-        <f t="shared" si="109"/>
-        <v/>
-      </c>
+      <c r="H39" s="28"/>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
@@ -9843,23 +10206,30 @@
       <c r="FK39" s="23"/>
       <c r="FL39" s="23"/>
       <c r="FM39" s="24"/>
+      <c r="FN39" s="23"/>
+      <c r="FO39" s="23"/>
+      <c r="FP39" s="23"/>
+      <c r="FQ39" s="23"/>
+      <c r="FR39" s="23"/>
+      <c r="FS39" s="23"/>
+      <c r="FT39" s="24"/>
     </row>
-    <row r="40" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E40" s="36">
-        <v>45411</v>
-      </c>
-      <c r="F40" s="36">
-        <v>45411</v>
-      </c>
+    <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="55"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="48"/>
+      <c r="F40" s="49"/>
       <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="28" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
@@ -10021,23 +10391,34 @@
       <c r="FK40" s="23"/>
       <c r="FL40" s="23"/>
       <c r="FM40" s="24"/>
+      <c r="FN40" s="23"/>
+      <c r="FO40" s="23"/>
+      <c r="FP40" s="23"/>
+      <c r="FQ40" s="23"/>
+      <c r="FR40" s="23"/>
+      <c r="FS40" s="23"/>
+      <c r="FT40" s="24"/>
     </row>
-    <row r="41" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="60" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" s="60"/>
+    <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="8"/>
+      <c r="B41" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" s="54"/>
       <c r="D41" s="50">
         <v>0.1</v>
       </c>
       <c r="E41" s="36">
-        <v>45411</v>
+        <v>45388</v>
       </c>
       <c r="F41" s="36">
-        <v>45413</v>
+        <v>45425</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="H41" s="28">
+        <f t="shared" si="117"/>
+        <v>38</v>
+      </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -10199,20 +10580,27 @@
       <c r="FK41" s="23"/>
       <c r="FL41" s="23"/>
       <c r="FM41" s="24"/>
+      <c r="FN41" s="23"/>
+      <c r="FO41" s="23"/>
+      <c r="FP41" s="23"/>
+      <c r="FQ41" s="23"/>
+      <c r="FR41" s="23"/>
+      <c r="FS41" s="23"/>
+      <c r="FT41" s="24"/>
     </row>
-    <row r="42" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="60"/>
+    <row r="42" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="54"/>
       <c r="D42" s="50">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E42" s="36">
-        <v>45413</v>
+        <v>45388</v>
       </c>
       <c r="F42" s="36">
-        <v>45417</v>
+        <v>45425</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
@@ -10377,23 +10765,30 @@
       <c r="FK42" s="23"/>
       <c r="FL42" s="23"/>
       <c r="FM42" s="24"/>
+      <c r="FN42" s="23"/>
+      <c r="FO42" s="23"/>
+      <c r="FP42" s="23"/>
+      <c r="FQ42" s="23"/>
+      <c r="FR42" s="23"/>
+      <c r="FS42" s="23"/>
+      <c r="FT42" s="24"/>
     </row>
-    <row r="43" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="60" t="s">
-        <v>51</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E43" s="36">
-        <v>45417</v>
-      </c>
-      <c r="F43" s="36">
-        <v>45420</v>
-      </c>
+    <row r="43" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C43" s="55"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="48"/>
+      <c r="F43" s="49"/>
       <c r="G43" s="28"/>
-      <c r="H43" s="28"/>
+      <c r="H43" s="28" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
@@ -10555,23 +10950,30 @@
       <c r="FK43" s="23"/>
       <c r="FL43" s="23"/>
       <c r="FM43" s="24"/>
+      <c r="FN43" s="23"/>
+      <c r="FO43" s="23"/>
+      <c r="FP43" s="23"/>
+      <c r="FQ43" s="23"/>
+      <c r="FR43" s="23"/>
+      <c r="FS43" s="23"/>
+      <c r="FT43" s="24"/>
     </row>
-    <row r="44" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="47"/>
-      <c r="E44" s="48"/>
-      <c r="F44" s="49"/>
+    <row r="44" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="54"/>
+      <c r="D44" s="50">
+        <v>1</v>
+      </c>
+      <c r="E44" s="36">
+        <v>45388</v>
+      </c>
+      <c r="F44" s="36">
+        <v>45411</v>
+      </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="28" t="str">
-        <f t="shared" ref="H44" si="110">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H44" s="28"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
@@ -10733,20 +11135,27 @@
       <c r="FK44" s="23"/>
       <c r="FL44" s="23"/>
       <c r="FM44" s="24"/>
+      <c r="FN44" s="23"/>
+      <c r="FO44" s="23"/>
+      <c r="FP44" s="23"/>
+      <c r="FQ44" s="23"/>
+      <c r="FR44" s="23"/>
+      <c r="FS44" s="23"/>
+      <c r="FT44" s="24"/>
     </row>
-    <row r="45" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="60" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="60"/>
+    <row r="45" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="54"/>
       <c r="D45" s="50">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="E45" s="36">
-        <v>45420</v>
+        <v>45388</v>
       </c>
       <c r="F45" s="36">
-        <v>45420</v>
+        <v>45427</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -10911,20 +11320,27 @@
       <c r="FK45" s="23"/>
       <c r="FL45" s="23"/>
       <c r="FM45" s="24"/>
+      <c r="FN45" s="23"/>
+      <c r="FO45" s="23"/>
+      <c r="FP45" s="23"/>
+      <c r="FQ45" s="23"/>
+      <c r="FR45" s="23"/>
+      <c r="FS45" s="23"/>
+      <c r="FT45" s="24"/>
     </row>
-    <row r="46" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="C46" s="60"/>
+    <row r="46" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C46" s="54"/>
       <c r="D46" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E46" s="36">
-        <v>45420</v>
+        <v>45388</v>
       </c>
       <c r="F46" s="36">
-        <v>45422</v>
+        <v>45429</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
@@ -11089,20 +11505,27 @@
       <c r="FK46" s="23"/>
       <c r="FL46" s="23"/>
       <c r="FM46" s="24"/>
+      <c r="FN46" s="23"/>
+      <c r="FO46" s="23"/>
+      <c r="FP46" s="23"/>
+      <c r="FQ46" s="23"/>
+      <c r="FR46" s="23"/>
+      <c r="FS46" s="23"/>
+      <c r="FT46" s="24"/>
     </row>
-    <row r="47" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="60"/>
+    <row r="47" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" s="54"/>
       <c r="D47" s="50">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="E47" s="36">
-        <v>45422</v>
+        <v>45388</v>
       </c>
       <c r="F47" s="36">
-        <v>45426</v>
+        <v>45429</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -11267,23 +11690,30 @@
       <c r="FK47" s="23"/>
       <c r="FL47" s="23"/>
       <c r="FM47" s="24"/>
+      <c r="FN47" s="23"/>
+      <c r="FO47" s="23"/>
+      <c r="FP47" s="23"/>
+      <c r="FQ47" s="23"/>
+      <c r="FR47" s="23"/>
+      <c r="FS47" s="23"/>
+      <c r="FT47" s="24"/>
     </row>
-    <row r="48" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="50">
-        <v>0</v>
-      </c>
-      <c r="E48" s="36">
-        <v>45426</v>
-      </c>
-      <c r="F48" s="36">
-        <v>45429</v>
-      </c>
+    <row r="48" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B48" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="55"/>
+      <c r="D48" s="47"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="49"/>
       <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="H48" s="28" t="str">
+        <f t="shared" ref="H48" si="118">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
@@ -11445,22 +11875,30 @@
       <c r="FK48" s="23"/>
       <c r="FL48" s="23"/>
       <c r="FM48" s="24"/>
+      <c r="FN48" s="23"/>
+      <c r="FO48" s="23"/>
+      <c r="FP48" s="23"/>
+      <c r="FQ48" s="23"/>
+      <c r="FR48" s="23"/>
+      <c r="FS48" s="23"/>
+      <c r="FT48" s="24"/>
     </row>
-    <row r="49" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B49" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="66"/>
-      <c r="D49" s="47"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="49"/>
+    <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C49" s="54"/>
+      <c r="D49" s="50">
+        <v>0</v>
+      </c>
+      <c r="E49" s="36">
+        <v>45432</v>
+      </c>
+      <c r="F49" s="36">
+        <v>45433</v>
+      </c>
       <c r="G49" s="28"/>
-      <c r="H49" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="H49" s="28"/>
       <c r="I49" s="23"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
@@ -11622,26 +12060,30 @@
       <c r="FK49" s="23"/>
       <c r="FL49" s="23"/>
       <c r="FM49" s="24"/>
+      <c r="FN49" s="23"/>
+      <c r="FO49" s="23"/>
+      <c r="FP49" s="23"/>
+      <c r="FQ49" s="23"/>
+      <c r="FR49" s="23"/>
+      <c r="FS49" s="23"/>
+      <c r="FT49" s="24"/>
     </row>
-    <row r="50" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="8"/>
-      <c r="B50" s="60" t="s">
-        <v>60</v>
-      </c>
-      <c r="C50" s="60"/>
+    <row r="50" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50" s="54"/>
       <c r="D50" s="50">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E50" s="36">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="F50" s="36">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="28">
-        <v>5</v>
-      </c>
+      <c r="H50" s="28"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -11803,20 +12245,27 @@
       <c r="FK50" s="23"/>
       <c r="FL50" s="23"/>
       <c r="FM50" s="24"/>
+      <c r="FN50" s="23"/>
+      <c r="FO50" s="23"/>
+      <c r="FP50" s="23"/>
+      <c r="FQ50" s="23"/>
+      <c r="FR50" s="23"/>
+      <c r="FS50" s="23"/>
+      <c r="FT50" s="24"/>
     </row>
-    <row r="51" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C51" s="60"/>
+    <row r="51" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C51" s="54"/>
       <c r="D51" s="50">
         <v>0</v>
       </c>
       <c r="E51" s="36">
-        <v>45429</v>
+        <v>45433</v>
       </c>
       <c r="F51" s="36">
-        <v>45431</v>
+        <v>45437</v>
       </c>
       <c r="G51" s="28"/>
       <c r="H51" s="28"/>
@@ -11981,20 +12430,27 @@
       <c r="FK51" s="23"/>
       <c r="FL51" s="23"/>
       <c r="FM51" s="24"/>
+      <c r="FN51" s="23"/>
+      <c r="FO51" s="23"/>
+      <c r="FP51" s="23"/>
+      <c r="FQ51" s="23"/>
+      <c r="FR51" s="23"/>
+      <c r="FS51" s="23"/>
+      <c r="FT51" s="24"/>
     </row>
-    <row r="52" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="C52" s="60"/>
+    <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="54"/>
       <c r="D52" s="50">
         <v>0</v>
       </c>
       <c r="E52" s="36">
-        <v>45431</v>
+        <v>45433</v>
       </c>
       <c r="F52" s="36">
-        <v>45436</v>
+        <v>45437</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -12159,23 +12615,29 @@
       <c r="FK52" s="23"/>
       <c r="FL52" s="23"/>
       <c r="FM52" s="24"/>
+      <c r="FN52" s="23"/>
+      <c r="FO52" s="23"/>
+      <c r="FP52" s="23"/>
+      <c r="FQ52" s="23"/>
+      <c r="FR52" s="23"/>
+      <c r="FS52" s="23"/>
+      <c r="FT52" s="24"/>
     </row>
-    <row r="53" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="C53" s="60"/>
-      <c r="D53" s="50">
-        <v>0</v>
-      </c>
-      <c r="E53" s="36">
-        <v>45436</v>
-      </c>
-      <c r="F53" s="36">
-        <v>45439</v>
-      </c>
+    <row r="53" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C53" s="55"/>
+      <c r="D53" s="47"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="49"/>
       <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
+      <c r="H53" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -12337,21 +12799,32 @@
       <c r="FK53" s="23"/>
       <c r="FL53" s="23"/>
       <c r="FM53" s="24"/>
+      <c r="FN53" s="23"/>
+      <c r="FO53" s="23"/>
+      <c r="FP53" s="23"/>
+      <c r="FQ53" s="23"/>
+      <c r="FR53" s="23"/>
+      <c r="FS53" s="23"/>
+      <c r="FT53" s="24"/>
     </row>
-    <row r="54" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B54" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="C54" s="66"/>
-      <c r="D54" s="47"/>
-      <c r="E54" s="48"/>
-      <c r="F54" s="49"/>
+    <row r="54" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8"/>
+      <c r="B54" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="36">
+        <v>45433</v>
+      </c>
+      <c r="F54" s="36">
+        <v>45433</v>
+      </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="28" t="s">
-        <v>21</v>
+      <c r="H54" s="28">
+        <v>5</v>
       </c>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
@@ -12514,26 +12987,30 @@
       <c r="FK54" s="23"/>
       <c r="FL54" s="23"/>
       <c r="FM54" s="24"/>
+      <c r="FN54" s="23"/>
+      <c r="FO54" s="23"/>
+      <c r="FP54" s="23"/>
+      <c r="FQ54" s="23"/>
+      <c r="FR54" s="23"/>
+      <c r="FS54" s="23"/>
+      <c r="FT54" s="24"/>
     </row>
-    <row r="55" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="8"/>
-      <c r="B55" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="60"/>
+    <row r="55" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C55" s="54"/>
       <c r="D55" s="50">
         <v>0</v>
       </c>
       <c r="E55" s="36">
+        <v>45433</v>
+      </c>
+      <c r="F55" s="36">
         <v>45439</v>
       </c>
-      <c r="F55" s="36">
-        <v>45442</v>
-      </c>
       <c r="G55" s="28"/>
-      <c r="H55" s="28">
-        <v>5</v>
-      </c>
+      <c r="H55" s="28"/>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
@@ -12695,20 +13172,27 @@
       <c r="FK55" s="23"/>
       <c r="FL55" s="23"/>
       <c r="FM55" s="24"/>
+      <c r="FN55" s="23"/>
+      <c r="FO55" s="23"/>
+      <c r="FP55" s="23"/>
+      <c r="FQ55" s="23"/>
+      <c r="FR55" s="23"/>
+      <c r="FS55" s="23"/>
+      <c r="FT55" s="24"/>
     </row>
-    <row r="56" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="60"/>
+    <row r="56" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="54" t="s">
+        <v>62</v>
+      </c>
+      <c r="C56" s="54"/>
       <c r="D56" s="50">
         <v>0</v>
       </c>
       <c r="E56" s="36">
-        <v>45442</v>
+        <v>45433</v>
       </c>
       <c r="F56" s="36">
-        <v>45446</v>
+        <v>45453</v>
       </c>
       <c r="G56" s="28"/>
       <c r="H56" s="28"/>
@@ -12873,20 +13357,27 @@
       <c r="FK56" s="23"/>
       <c r="FL56" s="23"/>
       <c r="FM56" s="24"/>
+      <c r="FN56" s="23"/>
+      <c r="FO56" s="23"/>
+      <c r="FP56" s="23"/>
+      <c r="FQ56" s="23"/>
+      <c r="FR56" s="23"/>
+      <c r="FS56" s="23"/>
+      <c r="FT56" s="24"/>
     </row>
-    <row r="57" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="C57" s="60"/>
+    <row r="57" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C57" s="54"/>
       <c r="D57" s="50">
         <v>0</v>
       </c>
       <c r="E57" s="36">
-        <v>45446</v>
+        <v>45433</v>
       </c>
       <c r="F57" s="36">
-        <v>45449</v>
+        <v>45453</v>
       </c>
       <c r="G57" s="28"/>
       <c r="H57" s="28"/>
@@ -13051,15 +13542,22 @@
       <c r="FK57" s="23"/>
       <c r="FL57" s="23"/>
       <c r="FM57" s="24"/>
+      <c r="FN57" s="23"/>
+      <c r="FO57" s="23"/>
+      <c r="FP57" s="23"/>
+      <c r="FQ57" s="23"/>
+      <c r="FR57" s="23"/>
+      <c r="FS57" s="23"/>
+      <c r="FT57" s="24"/>
     </row>
-    <row r="58" spans="1:169" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="66" t="s">
-        <v>67</v>
-      </c>
-      <c r="C58" s="66"/>
+      <c r="B58" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="C58" s="55"/>
       <c r="D58" s="47"/>
       <c r="E58" s="48"/>
       <c r="F58" s="49"/>
@@ -13228,21 +13726,28 @@
       <c r="FK58" s="23"/>
       <c r="FL58" s="23"/>
       <c r="FM58" s="24"/>
+      <c r="FN58" s="23"/>
+      <c r="FO58" s="23"/>
+      <c r="FP58" s="23"/>
+      <c r="FQ58" s="23"/>
+      <c r="FR58" s="23"/>
+      <c r="FS58" s="23"/>
+      <c r="FT58" s="24"/>
     </row>
-    <row r="59" spans="1:169" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
-      <c r="B59" s="67" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="67"/>
+      <c r="B59" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="54"/>
       <c r="D59" s="50">
         <v>0</v>
       </c>
       <c r="E59" s="36">
-        <v>45449</v>
+        <v>45453</v>
       </c>
       <c r="F59" s="36">
-        <v>45463</v>
+        <v>45458</v>
       </c>
       <c r="G59" s="28"/>
       <c r="H59" s="28">
@@ -13409,26 +13914,30 @@
       <c r="FK59" s="23"/>
       <c r="FL59" s="23"/>
       <c r="FM59" s="24"/>
+      <c r="FN59" s="23"/>
+      <c r="FO59" s="23"/>
+      <c r="FP59" s="23"/>
+      <c r="FQ59" s="23"/>
+      <c r="FR59" s="23"/>
+      <c r="FS59" s="23"/>
+      <c r="FT59" s="24"/>
     </row>
-    <row r="60" spans="1:169" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="8"/>
-      <c r="B60" s="67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" s="67"/>
+    <row r="60" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="54"/>
       <c r="D60" s="50">
         <v>0</v>
       </c>
       <c r="E60" s="36">
-        <v>45463</v>
+        <v>45458</v>
       </c>
       <c r="F60" s="36">
-        <v>45470</v>
+        <v>45465</v>
       </c>
       <c r="G60" s="28"/>
-      <c r="H60" s="28">
-        <v>5</v>
-      </c>
+      <c r="H60" s="28"/>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
@@ -13590,20 +14099,27 @@
       <c r="FK60" s="23"/>
       <c r="FL60" s="23"/>
       <c r="FM60" s="24"/>
+      <c r="FN60" s="23"/>
+      <c r="FO60" s="23"/>
+      <c r="FP60" s="23"/>
+      <c r="FQ60" s="23"/>
+      <c r="FR60" s="23"/>
+      <c r="FS60" s="23"/>
+      <c r="FT60" s="24"/>
     </row>
-    <row r="61" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C61" s="60"/>
+    <row r="61" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="54"/>
       <c r="D61" s="50">
         <v>0</v>
       </c>
       <c r="E61" s="36">
-        <v>45470</v>
+        <v>45465</v>
       </c>
       <c r="F61" s="36">
-        <v>45473</v>
+        <v>45468</v>
       </c>
       <c r="G61" s="28"/>
       <c r="H61" s="28"/>
@@ -13768,23 +14284,29 @@
       <c r="FK61" s="23"/>
       <c r="FL61" s="23"/>
       <c r="FM61" s="24"/>
+      <c r="FN61" s="23"/>
+      <c r="FO61" s="23"/>
+      <c r="FP61" s="23"/>
+      <c r="FQ61" s="23"/>
+      <c r="FR61" s="23"/>
+      <c r="FS61" s="23"/>
+      <c r="FT61" s="24"/>
     </row>
-    <row r="62" spans="1:169" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="60" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="60"/>
-      <c r="D62" s="50">
-        <v>0</v>
-      </c>
-      <c r="E62" s="36">
-        <v>45474</v>
-      </c>
-      <c r="F62" s="36">
-        <v>45474</v>
-      </c>
+    <row r="62" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="55"/>
+      <c r="D62" s="47"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="49"/>
       <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
+      <c r="H62" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
@@ -13946,63 +14468,796 @@
       <c r="FK62" s="23"/>
       <c r="FL62" s="23"/>
       <c r="FM62" s="24"/>
+      <c r="FN62" s="23"/>
+      <c r="FO62" s="23"/>
+      <c r="FP62" s="23"/>
+      <c r="FQ62" s="23"/>
+      <c r="FR62" s="23"/>
+      <c r="FS62" s="23"/>
+      <c r="FT62" s="24"/>
+    </row>
+    <row r="63" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="8"/>
+      <c r="B63" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="C63" s="57"/>
+      <c r="D63" s="50">
+        <v>0</v>
+      </c>
+      <c r="E63" s="36">
+        <v>45468</v>
+      </c>
+      <c r="F63" s="36">
+        <v>45482</v>
+      </c>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28">
+        <v>5</v>
+      </c>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="23"/>
+      <c r="L63" s="23"/>
+      <c r="M63" s="23"/>
+      <c r="N63" s="23"/>
+      <c r="O63" s="23"/>
+      <c r="P63" s="23"/>
+      <c r="Q63" s="23"/>
+      <c r="R63" s="23"/>
+      <c r="S63" s="23"/>
+      <c r="T63" s="23"/>
+      <c r="U63" s="23"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
+      <c r="X63" s="23"/>
+      <c r="Y63" s="23"/>
+      <c r="Z63" s="23"/>
+      <c r="AA63" s="23"/>
+      <c r="AB63" s="23"/>
+      <c r="AC63" s="23"/>
+      <c r="AD63" s="23"/>
+      <c r="AE63" s="23"/>
+      <c r="AF63" s="23"/>
+      <c r="AG63" s="23"/>
+      <c r="AH63" s="23"/>
+      <c r="AI63" s="23"/>
+      <c r="AJ63" s="23"/>
+      <c r="AK63" s="23"/>
+      <c r="AL63" s="23"/>
+      <c r="AM63" s="23"/>
+      <c r="AN63" s="23"/>
+      <c r="AO63" s="23"/>
+      <c r="AP63" s="23"/>
+      <c r="AQ63" s="24"/>
+      <c r="AR63" s="23"/>
+      <c r="AS63" s="23"/>
+      <c r="AT63" s="23"/>
+      <c r="AU63" s="23"/>
+      <c r="AV63" s="23"/>
+      <c r="AW63" s="23"/>
+      <c r="AX63" s="24"/>
+      <c r="AY63" s="23"/>
+      <c r="AZ63" s="23"/>
+      <c r="BA63" s="23"/>
+      <c r="BB63" s="23"/>
+      <c r="BC63" s="23"/>
+      <c r="BD63" s="23"/>
+      <c r="BE63" s="24"/>
+      <c r="BF63" s="23"/>
+      <c r="BG63" s="23"/>
+      <c r="BH63" s="23"/>
+      <c r="BI63" s="23"/>
+      <c r="BJ63" s="23"/>
+      <c r="BK63" s="23"/>
+      <c r="BL63" s="24"/>
+      <c r="BM63" s="23"/>
+      <c r="BN63" s="23"/>
+      <c r="BO63" s="23"/>
+      <c r="BP63" s="23"/>
+      <c r="BQ63" s="23"/>
+      <c r="BR63" s="23"/>
+      <c r="BS63" s="24"/>
+      <c r="BT63" s="23"/>
+      <c r="BU63" s="23"/>
+      <c r="BV63" s="23"/>
+      <c r="BW63" s="23"/>
+      <c r="BX63" s="23"/>
+      <c r="BY63" s="23"/>
+      <c r="BZ63" s="24"/>
+      <c r="CA63" s="23"/>
+      <c r="CB63" s="23"/>
+      <c r="CC63" s="23"/>
+      <c r="CD63" s="23"/>
+      <c r="CE63" s="23"/>
+      <c r="CF63" s="23"/>
+      <c r="CG63" s="24"/>
+      <c r="CH63" s="23"/>
+      <c r="CI63" s="23"/>
+      <c r="CJ63" s="23"/>
+      <c r="CK63" s="23"/>
+      <c r="CL63" s="23"/>
+      <c r="CM63" s="23"/>
+      <c r="CN63" s="24"/>
+      <c r="CO63" s="23"/>
+      <c r="CP63" s="23"/>
+      <c r="CQ63" s="23"/>
+      <c r="CR63" s="23"/>
+      <c r="CS63" s="23"/>
+      <c r="CT63" s="23"/>
+      <c r="CU63" s="24"/>
+      <c r="CV63" s="23"/>
+      <c r="CW63" s="23"/>
+      <c r="CX63" s="23"/>
+      <c r="CY63" s="23"/>
+      <c r="CZ63" s="23"/>
+      <c r="DA63" s="23"/>
+      <c r="DB63" s="24"/>
+      <c r="DC63" s="23"/>
+      <c r="DD63" s="23"/>
+      <c r="DE63" s="23"/>
+      <c r="DF63" s="23"/>
+      <c r="DG63" s="23"/>
+      <c r="DH63" s="23"/>
+      <c r="DI63" s="24"/>
+      <c r="DJ63" s="23"/>
+      <c r="DK63" s="23"/>
+      <c r="DL63" s="23"/>
+      <c r="DM63" s="23"/>
+      <c r="DN63" s="23"/>
+      <c r="DO63" s="23"/>
+      <c r="DP63" s="24"/>
+      <c r="DQ63" s="23"/>
+      <c r="DR63" s="23"/>
+      <c r="DS63" s="23"/>
+      <c r="DT63" s="23"/>
+      <c r="DU63" s="23"/>
+      <c r="DV63" s="23"/>
+      <c r="DW63" s="24"/>
+      <c r="DX63" s="23"/>
+      <c r="DY63" s="23"/>
+      <c r="DZ63" s="23"/>
+      <c r="EA63" s="23"/>
+      <c r="EB63" s="23"/>
+      <c r="EC63" s="23"/>
+      <c r="ED63" s="24"/>
+      <c r="EE63" s="23"/>
+      <c r="EF63" s="23"/>
+      <c r="EG63" s="23"/>
+      <c r="EH63" s="23"/>
+      <c r="EI63" s="23"/>
+      <c r="EJ63" s="23"/>
+      <c r="EK63" s="24"/>
+      <c r="EL63" s="23"/>
+      <c r="EM63" s="23"/>
+      <c r="EN63" s="23"/>
+      <c r="EO63" s="23"/>
+      <c r="EP63" s="23"/>
+      <c r="EQ63" s="23"/>
+      <c r="ER63" s="24"/>
+      <c r="ES63" s="23"/>
+      <c r="ET63" s="23"/>
+      <c r="EU63" s="23"/>
+      <c r="EV63" s="23"/>
+      <c r="EW63" s="23"/>
+      <c r="EX63" s="23"/>
+      <c r="EY63" s="24"/>
+      <c r="EZ63" s="23"/>
+      <c r="FA63" s="23"/>
+      <c r="FB63" s="23"/>
+      <c r="FC63" s="23"/>
+      <c r="FD63" s="23"/>
+      <c r="FE63" s="23"/>
+      <c r="FF63" s="24"/>
+      <c r="FG63" s="23"/>
+      <c r="FH63" s="23"/>
+      <c r="FI63" s="23"/>
+      <c r="FJ63" s="23"/>
+      <c r="FK63" s="23"/>
+      <c r="FL63" s="23"/>
+      <c r="FM63" s="24"/>
+      <c r="FN63" s="23"/>
+      <c r="FO63" s="23"/>
+      <c r="FP63" s="23"/>
+      <c r="FQ63" s="23"/>
+      <c r="FR63" s="23"/>
+      <c r="FS63" s="23"/>
+      <c r="FT63" s="24"/>
+    </row>
+    <row r="64" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="57" t="s">
+        <v>69</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="50">
+        <v>0</v>
+      </c>
+      <c r="E64" s="36">
+        <v>45482</v>
+      </c>
+      <c r="F64" s="36">
+        <v>45489</v>
+      </c>
+      <c r="G64" s="28"/>
+      <c r="H64" s="28">
+        <v>5</v>
+      </c>
+      <c r="I64" s="23"/>
+      <c r="J64" s="23"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
+      <c r="N64" s="23"/>
+      <c r="O64" s="23"/>
+      <c r="P64" s="23"/>
+      <c r="Q64" s="23"/>
+      <c r="R64" s="23"/>
+      <c r="S64" s="23"/>
+      <c r="T64" s="23"/>
+      <c r="U64" s="23"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
+      <c r="X64" s="23"/>
+      <c r="Y64" s="23"/>
+      <c r="Z64" s="23"/>
+      <c r="AA64" s="23"/>
+      <c r="AB64" s="23"/>
+      <c r="AC64" s="23"/>
+      <c r="AD64" s="23"/>
+      <c r="AE64" s="23"/>
+      <c r="AF64" s="23"/>
+      <c r="AG64" s="23"/>
+      <c r="AH64" s="23"/>
+      <c r="AI64" s="23"/>
+      <c r="AJ64" s="23"/>
+      <c r="AK64" s="23"/>
+      <c r="AL64" s="23"/>
+      <c r="AM64" s="23"/>
+      <c r="AN64" s="23"/>
+      <c r="AO64" s="23"/>
+      <c r="AP64" s="23"/>
+      <c r="AQ64" s="24"/>
+      <c r="AR64" s="23"/>
+      <c r="AS64" s="23"/>
+      <c r="AT64" s="23"/>
+      <c r="AU64" s="23"/>
+      <c r="AV64" s="23"/>
+      <c r="AW64" s="23"/>
+      <c r="AX64" s="24"/>
+      <c r="AY64" s="23"/>
+      <c r="AZ64" s="23"/>
+      <c r="BA64" s="23"/>
+      <c r="BB64" s="23"/>
+      <c r="BC64" s="23"/>
+      <c r="BD64" s="23"/>
+      <c r="BE64" s="24"/>
+      <c r="BF64" s="23"/>
+      <c r="BG64" s="23"/>
+      <c r="BH64" s="23"/>
+      <c r="BI64" s="23"/>
+      <c r="BJ64" s="23"/>
+      <c r="BK64" s="23"/>
+      <c r="BL64" s="24"/>
+      <c r="BM64" s="23"/>
+      <c r="BN64" s="23"/>
+      <c r="BO64" s="23"/>
+      <c r="BP64" s="23"/>
+      <c r="BQ64" s="23"/>
+      <c r="BR64" s="23"/>
+      <c r="BS64" s="24"/>
+      <c r="BT64" s="23"/>
+      <c r="BU64" s="23"/>
+      <c r="BV64" s="23"/>
+      <c r="BW64" s="23"/>
+      <c r="BX64" s="23"/>
+      <c r="BY64" s="23"/>
+      <c r="BZ64" s="24"/>
+      <c r="CA64" s="23"/>
+      <c r="CB64" s="23"/>
+      <c r="CC64" s="23"/>
+      <c r="CD64" s="23"/>
+      <c r="CE64" s="23"/>
+      <c r="CF64" s="23"/>
+      <c r="CG64" s="24"/>
+      <c r="CH64" s="23"/>
+      <c r="CI64" s="23"/>
+      <c r="CJ64" s="23"/>
+      <c r="CK64" s="23"/>
+      <c r="CL64" s="23"/>
+      <c r="CM64" s="23"/>
+      <c r="CN64" s="24"/>
+      <c r="CO64" s="23"/>
+      <c r="CP64" s="23"/>
+      <c r="CQ64" s="23"/>
+      <c r="CR64" s="23"/>
+      <c r="CS64" s="23"/>
+      <c r="CT64" s="23"/>
+      <c r="CU64" s="24"/>
+      <c r="CV64" s="23"/>
+      <c r="CW64" s="23"/>
+      <c r="CX64" s="23"/>
+      <c r="CY64" s="23"/>
+      <c r="CZ64" s="23"/>
+      <c r="DA64" s="23"/>
+      <c r="DB64" s="24"/>
+      <c r="DC64" s="23"/>
+      <c r="DD64" s="23"/>
+      <c r="DE64" s="23"/>
+      <c r="DF64" s="23"/>
+      <c r="DG64" s="23"/>
+      <c r="DH64" s="23"/>
+      <c r="DI64" s="24"/>
+      <c r="DJ64" s="23"/>
+      <c r="DK64" s="23"/>
+      <c r="DL64" s="23"/>
+      <c r="DM64" s="23"/>
+      <c r="DN64" s="23"/>
+      <c r="DO64" s="23"/>
+      <c r="DP64" s="24"/>
+      <c r="DQ64" s="23"/>
+      <c r="DR64" s="23"/>
+      <c r="DS64" s="23"/>
+      <c r="DT64" s="23"/>
+      <c r="DU64" s="23"/>
+      <c r="DV64" s="23"/>
+      <c r="DW64" s="24"/>
+      <c r="DX64" s="23"/>
+      <c r="DY64" s="23"/>
+      <c r="DZ64" s="23"/>
+      <c r="EA64" s="23"/>
+      <c r="EB64" s="23"/>
+      <c r="EC64" s="23"/>
+      <c r="ED64" s="24"/>
+      <c r="EE64" s="23"/>
+      <c r="EF64" s="23"/>
+      <c r="EG64" s="23"/>
+      <c r="EH64" s="23"/>
+      <c r="EI64" s="23"/>
+      <c r="EJ64" s="23"/>
+      <c r="EK64" s="24"/>
+      <c r="EL64" s="23"/>
+      <c r="EM64" s="23"/>
+      <c r="EN64" s="23"/>
+      <c r="EO64" s="23"/>
+      <c r="EP64" s="23"/>
+      <c r="EQ64" s="23"/>
+      <c r="ER64" s="24"/>
+      <c r="ES64" s="23"/>
+      <c r="ET64" s="23"/>
+      <c r="EU64" s="23"/>
+      <c r="EV64" s="23"/>
+      <c r="EW64" s="23"/>
+      <c r="EX64" s="23"/>
+      <c r="EY64" s="24"/>
+      <c r="EZ64" s="23"/>
+      <c r="FA64" s="23"/>
+      <c r="FB64" s="23"/>
+      <c r="FC64" s="23"/>
+      <c r="FD64" s="23"/>
+      <c r="FE64" s="23"/>
+      <c r="FF64" s="24"/>
+      <c r="FG64" s="23"/>
+      <c r="FH64" s="23"/>
+      <c r="FI64" s="23"/>
+      <c r="FJ64" s="23"/>
+      <c r="FK64" s="23"/>
+      <c r="FL64" s="23"/>
+      <c r="FM64" s="24"/>
+      <c r="FN64" s="23"/>
+      <c r="FO64" s="23"/>
+      <c r="FP64" s="23"/>
+      <c r="FQ64" s="23"/>
+      <c r="FR64" s="23"/>
+      <c r="FS64" s="23"/>
+      <c r="FT64" s="24"/>
+    </row>
+    <row r="65" spans="2:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C65" s="54"/>
+      <c r="D65" s="50">
+        <v>0</v>
+      </c>
+      <c r="E65" s="36">
+        <v>45489</v>
+      </c>
+      <c r="F65" s="36">
+        <v>45496</v>
+      </c>
+      <c r="G65" s="28"/>
+      <c r="H65" s="28"/>
+      <c r="I65" s="23"/>
+      <c r="J65" s="23"/>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
+      <c r="N65" s="23"/>
+      <c r="O65" s="23"/>
+      <c r="P65" s="23"/>
+      <c r="Q65" s="23"/>
+      <c r="R65" s="23"/>
+      <c r="S65" s="23"/>
+      <c r="T65" s="23"/>
+      <c r="U65" s="23"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
+      <c r="X65" s="23"/>
+      <c r="Y65" s="23"/>
+      <c r="Z65" s="23"/>
+      <c r="AA65" s="23"/>
+      <c r="AB65" s="23"/>
+      <c r="AC65" s="23"/>
+      <c r="AD65" s="23"/>
+      <c r="AE65" s="23"/>
+      <c r="AF65" s="23"/>
+      <c r="AG65" s="23"/>
+      <c r="AH65" s="23"/>
+      <c r="AI65" s="23"/>
+      <c r="AJ65" s="23"/>
+      <c r="AK65" s="23"/>
+      <c r="AL65" s="23"/>
+      <c r="AM65" s="23"/>
+      <c r="AN65" s="23"/>
+      <c r="AO65" s="23"/>
+      <c r="AP65" s="23"/>
+      <c r="AQ65" s="24"/>
+      <c r="AR65" s="23"/>
+      <c r="AS65" s="23"/>
+      <c r="AT65" s="23"/>
+      <c r="AU65" s="23"/>
+      <c r="AV65" s="23"/>
+      <c r="AW65" s="23"/>
+      <c r="AX65" s="24"/>
+      <c r="AY65" s="23"/>
+      <c r="AZ65" s="23"/>
+      <c r="BA65" s="23"/>
+      <c r="BB65" s="23"/>
+      <c r="BC65" s="23"/>
+      <c r="BD65" s="23"/>
+      <c r="BE65" s="24"/>
+      <c r="BF65" s="23"/>
+      <c r="BG65" s="23"/>
+      <c r="BH65" s="23"/>
+      <c r="BI65" s="23"/>
+      <c r="BJ65" s="23"/>
+      <c r="BK65" s="23"/>
+      <c r="BL65" s="24"/>
+      <c r="BM65" s="23"/>
+      <c r="BN65" s="23"/>
+      <c r="BO65" s="23"/>
+      <c r="BP65" s="23"/>
+      <c r="BQ65" s="23"/>
+      <c r="BR65" s="23"/>
+      <c r="BS65" s="24"/>
+      <c r="BT65" s="23"/>
+      <c r="BU65" s="23"/>
+      <c r="BV65" s="23"/>
+      <c r="BW65" s="23"/>
+      <c r="BX65" s="23"/>
+      <c r="BY65" s="23"/>
+      <c r="BZ65" s="24"/>
+      <c r="CA65" s="23"/>
+      <c r="CB65" s="23"/>
+      <c r="CC65" s="23"/>
+      <c r="CD65" s="23"/>
+      <c r="CE65" s="23"/>
+      <c r="CF65" s="23"/>
+      <c r="CG65" s="24"/>
+      <c r="CH65" s="23"/>
+      <c r="CI65" s="23"/>
+      <c r="CJ65" s="23"/>
+      <c r="CK65" s="23"/>
+      <c r="CL65" s="23"/>
+      <c r="CM65" s="23"/>
+      <c r="CN65" s="24"/>
+      <c r="CO65" s="23"/>
+      <c r="CP65" s="23"/>
+      <c r="CQ65" s="23"/>
+      <c r="CR65" s="23"/>
+      <c r="CS65" s="23"/>
+      <c r="CT65" s="23"/>
+      <c r="CU65" s="24"/>
+      <c r="CV65" s="23"/>
+      <c r="CW65" s="23"/>
+      <c r="CX65" s="23"/>
+      <c r="CY65" s="23"/>
+      <c r="CZ65" s="23"/>
+      <c r="DA65" s="23"/>
+      <c r="DB65" s="24"/>
+      <c r="DC65" s="23"/>
+      <c r="DD65" s="23"/>
+      <c r="DE65" s="23"/>
+      <c r="DF65" s="23"/>
+      <c r="DG65" s="23"/>
+      <c r="DH65" s="23"/>
+      <c r="DI65" s="24"/>
+      <c r="DJ65" s="23"/>
+      <c r="DK65" s="23"/>
+      <c r="DL65" s="23"/>
+      <c r="DM65" s="23"/>
+      <c r="DN65" s="23"/>
+      <c r="DO65" s="23"/>
+      <c r="DP65" s="24"/>
+      <c r="DQ65" s="23"/>
+      <c r="DR65" s="23"/>
+      <c r="DS65" s="23"/>
+      <c r="DT65" s="23"/>
+      <c r="DU65" s="23"/>
+      <c r="DV65" s="23"/>
+      <c r="DW65" s="24"/>
+      <c r="DX65" s="23"/>
+      <c r="DY65" s="23"/>
+      <c r="DZ65" s="23"/>
+      <c r="EA65" s="23"/>
+      <c r="EB65" s="23"/>
+      <c r="EC65" s="23"/>
+      <c r="ED65" s="24"/>
+      <c r="EE65" s="23"/>
+      <c r="EF65" s="23"/>
+      <c r="EG65" s="23"/>
+      <c r="EH65" s="23"/>
+      <c r="EI65" s="23"/>
+      <c r="EJ65" s="23"/>
+      <c r="EK65" s="24"/>
+      <c r="EL65" s="23"/>
+      <c r="EM65" s="23"/>
+      <c r="EN65" s="23"/>
+      <c r="EO65" s="23"/>
+      <c r="EP65" s="23"/>
+      <c r="EQ65" s="23"/>
+      <c r="ER65" s="24"/>
+      <c r="ES65" s="23"/>
+      <c r="ET65" s="23"/>
+      <c r="EU65" s="23"/>
+      <c r="EV65" s="23"/>
+      <c r="EW65" s="23"/>
+      <c r="EX65" s="23"/>
+      <c r="EY65" s="24"/>
+      <c r="EZ65" s="23"/>
+      <c r="FA65" s="23"/>
+      <c r="FB65" s="23"/>
+      <c r="FC65" s="23"/>
+      <c r="FD65" s="23"/>
+      <c r="FE65" s="23"/>
+      <c r="FF65" s="24"/>
+      <c r="FG65" s="23"/>
+      <c r="FH65" s="23"/>
+      <c r="FI65" s="23"/>
+      <c r="FJ65" s="23"/>
+      <c r="FK65" s="23"/>
+      <c r="FL65" s="23"/>
+      <c r="FM65" s="24"/>
+      <c r="FN65" s="23"/>
+      <c r="FO65" s="23"/>
+      <c r="FP65" s="23"/>
+      <c r="FQ65" s="23"/>
+      <c r="FR65" s="23"/>
+      <c r="FS65" s="23"/>
+      <c r="FT65" s="24"/>
+    </row>
+    <row r="66" spans="2:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="54"/>
+      <c r="D66" s="50">
+        <v>0</v>
+      </c>
+      <c r="E66" s="36">
+        <v>45497</v>
+      </c>
+      <c r="F66" s="36">
+        <v>45497</v>
+      </c>
+      <c r="G66" s="28"/>
+      <c r="H66" s="28"/>
+      <c r="I66" s="23"/>
+      <c r="J66" s="23"/>
+      <c r="K66" s="23"/>
+      <c r="L66" s="23"/>
+      <c r="M66" s="23"/>
+      <c r="N66" s="23"/>
+      <c r="O66" s="23"/>
+      <c r="P66" s="23"/>
+      <c r="Q66" s="23"/>
+      <c r="R66" s="23"/>
+      <c r="S66" s="23"/>
+      <c r="T66" s="23"/>
+      <c r="U66" s="23"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
+      <c r="X66" s="23"/>
+      <c r="Y66" s="23"/>
+      <c r="Z66" s="23"/>
+      <c r="AA66" s="23"/>
+      <c r="AB66" s="23"/>
+      <c r="AC66" s="23"/>
+      <c r="AD66" s="23"/>
+      <c r="AE66" s="23"/>
+      <c r="AF66" s="23"/>
+      <c r="AG66" s="23"/>
+      <c r="AH66" s="23"/>
+      <c r="AI66" s="23"/>
+      <c r="AJ66" s="23"/>
+      <c r="AK66" s="23"/>
+      <c r="AL66" s="23"/>
+      <c r="AM66" s="23"/>
+      <c r="AN66" s="23"/>
+      <c r="AO66" s="23"/>
+      <c r="AP66" s="23"/>
+      <c r="AQ66" s="24"/>
+      <c r="AR66" s="23"/>
+      <c r="AS66" s="23"/>
+      <c r="AT66" s="23"/>
+      <c r="AU66" s="23"/>
+      <c r="AV66" s="23"/>
+      <c r="AW66" s="23"/>
+      <c r="AX66" s="24"/>
+      <c r="AY66" s="23"/>
+      <c r="AZ66" s="23"/>
+      <c r="BA66" s="23"/>
+      <c r="BB66" s="23"/>
+      <c r="BC66" s="23"/>
+      <c r="BD66" s="23"/>
+      <c r="BE66" s="24"/>
+      <c r="BF66" s="23"/>
+      <c r="BG66" s="23"/>
+      <c r="BH66" s="23"/>
+      <c r="BI66" s="23"/>
+      <c r="BJ66" s="23"/>
+      <c r="BK66" s="23"/>
+      <c r="BL66" s="24"/>
+      <c r="BM66" s="23"/>
+      <c r="BN66" s="23"/>
+      <c r="BO66" s="23"/>
+      <c r="BP66" s="23"/>
+      <c r="BQ66" s="23"/>
+      <c r="BR66" s="23"/>
+      <c r="BS66" s="24"/>
+      <c r="BT66" s="23"/>
+      <c r="BU66" s="23"/>
+      <c r="BV66" s="23"/>
+      <c r="BW66" s="23"/>
+      <c r="BX66" s="23"/>
+      <c r="BY66" s="23"/>
+      <c r="BZ66" s="24"/>
+      <c r="CA66" s="23"/>
+      <c r="CB66" s="23"/>
+      <c r="CC66" s="23"/>
+      <c r="CD66" s="23"/>
+      <c r="CE66" s="23"/>
+      <c r="CF66" s="23"/>
+      <c r="CG66" s="24"/>
+      <c r="CH66" s="23"/>
+      <c r="CI66" s="23"/>
+      <c r="CJ66" s="23"/>
+      <c r="CK66" s="23"/>
+      <c r="CL66" s="23"/>
+      <c r="CM66" s="23"/>
+      <c r="CN66" s="24"/>
+      <c r="CO66" s="23"/>
+      <c r="CP66" s="23"/>
+      <c r="CQ66" s="23"/>
+      <c r="CR66" s="23"/>
+      <c r="CS66" s="23"/>
+      <c r="CT66" s="23"/>
+      <c r="CU66" s="24"/>
+      <c r="CV66" s="23"/>
+      <c r="CW66" s="23"/>
+      <c r="CX66" s="23"/>
+      <c r="CY66" s="23"/>
+      <c r="CZ66" s="23"/>
+      <c r="DA66" s="23"/>
+      <c r="DB66" s="24"/>
+      <c r="DC66" s="23"/>
+      <c r="DD66" s="23"/>
+      <c r="DE66" s="23"/>
+      <c r="DF66" s="23"/>
+      <c r="DG66" s="23"/>
+      <c r="DH66" s="23"/>
+      <c r="DI66" s="24"/>
+      <c r="DJ66" s="23"/>
+      <c r="DK66" s="23"/>
+      <c r="DL66" s="23"/>
+      <c r="DM66" s="23"/>
+      <c r="DN66" s="23"/>
+      <c r="DO66" s="23"/>
+      <c r="DP66" s="24"/>
+      <c r="DQ66" s="23"/>
+      <c r="DR66" s="23"/>
+      <c r="DS66" s="23"/>
+      <c r="DT66" s="23"/>
+      <c r="DU66" s="23"/>
+      <c r="DV66" s="23"/>
+      <c r="DW66" s="24"/>
+      <c r="DX66" s="23"/>
+      <c r="DY66" s="23"/>
+      <c r="DZ66" s="23"/>
+      <c r="EA66" s="23"/>
+      <c r="EB66" s="23"/>
+      <c r="EC66" s="23"/>
+      <c r="ED66" s="24"/>
+      <c r="EE66" s="23"/>
+      <c r="EF66" s="23"/>
+      <c r="EG66" s="23"/>
+      <c r="EH66" s="23"/>
+      <c r="EI66" s="23"/>
+      <c r="EJ66" s="23"/>
+      <c r="EK66" s="24"/>
+      <c r="EL66" s="23"/>
+      <c r="EM66" s="23"/>
+      <c r="EN66" s="23"/>
+      <c r="EO66" s="23"/>
+      <c r="EP66" s="23"/>
+      <c r="EQ66" s="23"/>
+      <c r="ER66" s="24"/>
+      <c r="ES66" s="23"/>
+      <c r="ET66" s="23"/>
+      <c r="EU66" s="23"/>
+      <c r="EV66" s="23"/>
+      <c r="EW66" s="23"/>
+      <c r="EX66" s="23"/>
+      <c r="EY66" s="24"/>
+      <c r="EZ66" s="23"/>
+      <c r="FA66" s="23"/>
+      <c r="FB66" s="23"/>
+      <c r="FC66" s="23"/>
+      <c r="FD66" s="23"/>
+      <c r="FE66" s="23"/>
+      <c r="FF66" s="24"/>
+      <c r="FG66" s="23"/>
+      <c r="FH66" s="23"/>
+      <c r="FI66" s="23"/>
+      <c r="FJ66" s="23"/>
+      <c r="FK66" s="23"/>
+      <c r="FL66" s="23"/>
+      <c r="FM66" s="24"/>
+      <c r="FN66" s="23"/>
+      <c r="FO66" s="23"/>
+      <c r="FP66" s="23"/>
+      <c r="FQ66" s="23"/>
+      <c r="FR66" s="23"/>
+      <c r="FS66" s="23"/>
+      <c r="FT66" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="83">
-    <mergeCell ref="B34:C34"/>
+  <mergeCells count="88">
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
     <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B57:C57"/>
     <mergeCell ref="DQ4:DW4"/>
     <mergeCell ref="DX4:ED4"/>
     <mergeCell ref="B11:C11"/>
@@ -14017,24 +15272,49 @@
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D62">
-    <cfRule type="dataBar" priority="225">
+  <conditionalFormatting sqref="D7:D66">
+    <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -14047,109 +15327,129 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO62">
-    <cfRule type="expression" dxfId="20" priority="154">
+  <conditionalFormatting sqref="I5:DO66">
+    <cfRule type="expression" dxfId="24" priority="159">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO62">
-    <cfRule type="expression" dxfId="19" priority="153" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:DO66">
+    <cfRule type="expression" dxfId="23" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:FM62">
-    <cfRule type="expression" dxfId="18" priority="1">
+  <conditionalFormatting sqref="I7:FT66">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP62 DW5:DW62 ED5:ED62 EK5:EK62 ER5:ER62 EY5:EY62 FF5:FF62">
-    <cfRule type="expression" dxfId="17" priority="246">
+  <conditionalFormatting sqref="DP5:DP66 DW5:DW66 ED5:ED66 EK5:EK66 ER5:ER66 EY5:EY66 FF5:FF66">
+    <cfRule type="expression" dxfId="21" priority="251">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP62 DW7:DW62 ED7:ED62 EK7:EK62 ER7:ER62 EY7:EY62 FF7:FF62">
-    <cfRule type="expression" dxfId="16" priority="250" stopIfTrue="1">
+  <conditionalFormatting sqref="DP7:DP66 DW7:DW66 ED7:ED66 EK7:EK66 ER7:ER66 EY7:EY66 FF7:FF66">
+    <cfRule type="expression" dxfId="20" priority="255" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DQ5:DV62">
-    <cfRule type="expression" dxfId="15" priority="125">
+  <conditionalFormatting sqref="DQ5:DV66">
+    <cfRule type="expression" dxfId="19" priority="130">
       <formula>AND(TODAY()&gt;=DQ$5,TODAY()&lt;DR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DQ7:DV62">
-    <cfRule type="expression" dxfId="14" priority="124" stopIfTrue="1">
+  <conditionalFormatting sqref="DQ7:DV66">
+    <cfRule type="expression" dxfId="18" priority="129" stopIfTrue="1">
       <formula>AND(task_end&gt;=DQ$5,task_start&lt;DR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DX5:EC62">
-    <cfRule type="expression" dxfId="13" priority="99">
+  <conditionalFormatting sqref="DX5:EC66">
+    <cfRule type="expression" dxfId="17" priority="104">
       <formula>AND(TODAY()&gt;=DX$5,TODAY()&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DX7:EC62">
-    <cfRule type="expression" dxfId="12" priority="98" stopIfTrue="1">
+  <conditionalFormatting sqref="DX7:EC66">
+    <cfRule type="expression" dxfId="16" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EE5:EJ62">
-    <cfRule type="expression" dxfId="11" priority="73">
+  <conditionalFormatting sqref="EE5:EJ66">
+    <cfRule type="expression" dxfId="15" priority="78">
       <formula>AND(TODAY()&gt;=EE$5,TODAY()&lt;EF$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EE7:EJ62">
-    <cfRule type="expression" dxfId="10" priority="72" stopIfTrue="1">
+  <conditionalFormatting sqref="EE7:EJ66">
+    <cfRule type="expression" dxfId="14" priority="77" stopIfTrue="1">
       <formula>AND(task_end&gt;=EE$5,task_start&lt;EF$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EL5:EQ62">
-    <cfRule type="expression" dxfId="9" priority="59">
+  <conditionalFormatting sqref="EL5:EQ66">
+    <cfRule type="expression" dxfId="13" priority="64">
       <formula>AND(TODAY()&gt;=EL$5,TODAY()&lt;EM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EL7:EQ62">
-    <cfRule type="expression" dxfId="8" priority="58" stopIfTrue="1">
+  <conditionalFormatting sqref="EL7:EQ66">
+    <cfRule type="expression" dxfId="12" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=EL$5,task_start&lt;EM$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ES5:EX62">
-    <cfRule type="expression" dxfId="7" priority="45">
+  <conditionalFormatting sqref="ES5:EX66">
+    <cfRule type="expression" dxfId="11" priority="50">
       <formula>AND(TODAY()&gt;=ES$5,TODAY()&lt;ET$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="ES7:EX62">
-    <cfRule type="expression" dxfId="6" priority="44" stopIfTrue="1">
+  <conditionalFormatting sqref="ES7:EX66">
+    <cfRule type="expression" dxfId="10" priority="49" stopIfTrue="1">
       <formula>AND(task_end&gt;=ES$5,task_start&lt;ET$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EZ5:FE62">
-    <cfRule type="expression" dxfId="5" priority="31">
+  <conditionalFormatting sqref="EZ5:FE66">
+    <cfRule type="expression" dxfId="9" priority="36">
       <formula>AND(TODAY()&gt;=EZ$5,TODAY()&lt;FA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="EZ7:FE62">
-    <cfRule type="expression" dxfId="4" priority="30" stopIfTrue="1">
+  <conditionalFormatting sqref="EZ7:FE66">
+    <cfRule type="expression" dxfId="8" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=EZ$5,task_start&lt;FA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FG5:FL62">
-    <cfRule type="expression" dxfId="3" priority="3">
+  <conditionalFormatting sqref="FG5:FL66">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>AND(TODAY()&gt;=FG$5,TODAY()&lt;FH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FG7:FL62">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="FG7:FL66">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>AND(task_end&gt;=FG$5,task_start&lt;FH$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM5:FM62">
-    <cfRule type="expression" dxfId="1" priority="13">
+  <conditionalFormatting sqref="FM5:FM66">
+    <cfRule type="expression" dxfId="5" priority="18">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM7:FM62">
-    <cfRule type="expression" dxfId="0" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="FM7:FM66">
+    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FN5:FS66">
+    <cfRule type="expression" dxfId="3" priority="3">
+      <formula>AND(TODAY()&gt;=FN$5,TODAY()&lt;FO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FN7:FS66">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=FN$5,task_start&lt;FO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FT5:FT66">
+    <cfRule type="expression" dxfId="1" priority="4">
+      <formula>AND(TODAY()&gt;=FT$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="FT7:FT66">
+    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=FT$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -14179,7 +15479,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D62</xm:sqref>
+          <xm:sqref>D7:D66</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -14188,6 +15488,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14475,36 +15804,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14523,24 +15843,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55A8F90E-D07C-47F5-892A-C61BC57BE0B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F490E6-79AD-47DC-B380-76829138B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1267,34 +1267,28 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1315,16 +1309,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2134,8 +2134,8 @@
   <dimension ref="A1:FT66"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J37" sqref="J36:J37"/>
+      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2194,433 +2194,433 @@
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="66">
+      <c r="D3" s="62"/>
+      <c r="E3" s="64">
         <v>45323</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="I3" s="68" t="s">
+      <c r="F3" s="64"/>
+      <c r="I3" s="66" t="s">
         <v>74</v>
       </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="69"/>
-      <c r="DE3" s="69"/>
-      <c r="DF3" s="69"/>
-      <c r="DG3" s="69"/>
-      <c r="DH3" s="69"/>
-      <c r="DI3" s="69"/>
-      <c r="DJ3" s="69"/>
-      <c r="DK3" s="69"/>
-      <c r="DL3" s="69"/>
-      <c r="DM3" s="69"/>
-      <c r="DN3" s="69"/>
-      <c r="DO3" s="69"/>
-      <c r="DP3" s="69"/>
-      <c r="DQ3" s="69"/>
-      <c r="DR3" s="69"/>
-      <c r="DS3" s="69"/>
-      <c r="DT3" s="69"/>
-      <c r="DU3" s="69"/>
-      <c r="DV3" s="69"/>
-      <c r="DW3" s="69"/>
-      <c r="DX3" s="69"/>
-      <c r="DY3" s="69"/>
-      <c r="DZ3" s="69"/>
-      <c r="EA3" s="69"/>
-      <c r="EB3" s="69"/>
-      <c r="EC3" s="69"/>
-      <c r="ED3" s="69"/>
-      <c r="EE3" s="69"/>
-      <c r="EF3" s="69"/>
-      <c r="EG3" s="69"/>
-      <c r="EH3" s="69"/>
-      <c r="EI3" s="69"/>
-      <c r="EJ3" s="69"/>
-      <c r="EK3" s="69"/>
-      <c r="EL3" s="69"/>
-      <c r="EM3" s="69"/>
-      <c r="EN3" s="69"/>
-      <c r="EO3" s="69"/>
-      <c r="EP3" s="69"/>
-      <c r="EQ3" s="69"/>
-      <c r="ER3" s="69"/>
-      <c r="ES3" s="69"/>
-      <c r="ET3" s="69"/>
-      <c r="EU3" s="69"/>
-      <c r="EV3" s="69"/>
-      <c r="EW3" s="69"/>
-      <c r="EX3" s="69"/>
-      <c r="EY3" s="69"/>
-      <c r="EZ3" s="69"/>
-      <c r="FA3" s="69"/>
-      <c r="FB3" s="69"/>
-      <c r="FC3" s="69"/>
-      <c r="FD3" s="69"/>
-      <c r="FE3" s="69"/>
-      <c r="FF3" s="69"/>
-      <c r="FG3" s="69"/>
-      <c r="FH3" s="69"/>
-      <c r="FI3" s="69"/>
-      <c r="FJ3" s="69"/>
-      <c r="FK3" s="69"/>
-      <c r="FL3" s="69"/>
-      <c r="FM3" s="69"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="67"/>
+      <c r="DN3" s="67"/>
+      <c r="DO3" s="67"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="67"/>
+      <c r="DX3" s="67"/>
+      <c r="DY3" s="67"/>
+      <c r="DZ3" s="67"/>
+      <c r="EA3" s="67"/>
+      <c r="EB3" s="67"/>
+      <c r="EC3" s="67"/>
+      <c r="ED3" s="67"/>
+      <c r="EE3" s="67"/>
+      <c r="EF3" s="67"/>
+      <c r="EG3" s="67"/>
+      <c r="EH3" s="67"/>
+      <c r="EI3" s="67"/>
+      <c r="EJ3" s="67"/>
+      <c r="EK3" s="67"/>
+      <c r="EL3" s="67"/>
+      <c r="EM3" s="67"/>
+      <c r="EN3" s="67"/>
+      <c r="EO3" s="67"/>
+      <c r="EP3" s="67"/>
+      <c r="EQ3" s="67"/>
+      <c r="ER3" s="67"/>
+      <c r="ES3" s="67"/>
+      <c r="ET3" s="67"/>
+      <c r="EU3" s="67"/>
+      <c r="EV3" s="67"/>
+      <c r="EW3" s="67"/>
+      <c r="EX3" s="67"/>
+      <c r="EY3" s="67"/>
+      <c r="EZ3" s="67"/>
+      <c r="FA3" s="67"/>
+      <c r="FB3" s="67"/>
+      <c r="FC3" s="67"/>
+      <c r="FD3" s="67"/>
+      <c r="FE3" s="67"/>
+      <c r="FF3" s="67"/>
+      <c r="FG3" s="67"/>
+      <c r="FH3" s="67"/>
+      <c r="FI3" s="67"/>
+      <c r="FJ3" s="67"/>
+      <c r="FK3" s="67"/>
+      <c r="FL3" s="67"/>
+      <c r="FM3" s="67"/>
     </row>
     <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="59">
+      <c r="I4" s="54">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="59">
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="54">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="59">
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="54">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="59">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="54">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="59">
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="54">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="59">
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="54">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="59">
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="54">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="59">
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="54">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="59">
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="54">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="59">
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="54">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="59">
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="54">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="59">
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="54">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="60"/>
-      <c r="CL4" s="60"/>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="59">
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="55"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="54">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="59">
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="54">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="60"/>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="59">
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="55"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="54">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="59">
+      <c r="DD4" s="55"/>
+      <c r="DE4" s="55"/>
+      <c r="DF4" s="55"/>
+      <c r="DG4" s="55"/>
+      <c r="DH4" s="55"/>
+      <c r="DI4" s="55"/>
+      <c r="DJ4" s="54">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="60"/>
-      <c r="DL4" s="60"/>
-      <c r="DM4" s="60"/>
-      <c r="DN4" s="60"/>
-      <c r="DO4" s="60"/>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="59">
+      <c r="DK4" s="55"/>
+      <c r="DL4" s="55"/>
+      <c r="DM4" s="55"/>
+      <c r="DN4" s="55"/>
+      <c r="DO4" s="55"/>
+      <c r="DP4" s="55"/>
+      <c r="DQ4" s="54">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="60"/>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="60"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="59">
+      <c r="DR4" s="55"/>
+      <c r="DS4" s="55"/>
+      <c r="DT4" s="55"/>
+      <c r="DU4" s="55"/>
+      <c r="DV4" s="55"/>
+      <c r="DW4" s="55"/>
+      <c r="DX4" s="54">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="60"/>
-      <c r="EA4" s="60"/>
-      <c r="EB4" s="60"/>
-      <c r="EC4" s="60"/>
-      <c r="ED4" s="60"/>
-      <c r="EE4" s="59">
+      <c r="DY4" s="55"/>
+      <c r="DZ4" s="55"/>
+      <c r="EA4" s="55"/>
+      <c r="EB4" s="55"/>
+      <c r="EC4" s="55"/>
+      <c r="ED4" s="55"/>
+      <c r="EE4" s="54">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="60"/>
-      <c r="EG4" s="60"/>
-      <c r="EH4" s="60"/>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="60"/>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="59">
+      <c r="EF4" s="55"/>
+      <c r="EG4" s="55"/>
+      <c r="EH4" s="55"/>
+      <c r="EI4" s="55"/>
+      <c r="EJ4" s="55"/>
+      <c r="EK4" s="55"/>
+      <c r="EL4" s="54">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="60"/>
-      <c r="EP4" s="60"/>
-      <c r="EQ4" s="60"/>
-      <c r="ER4" s="60"/>
-      <c r="ES4" s="59">
+      <c r="EM4" s="55"/>
+      <c r="EN4" s="55"/>
+      <c r="EO4" s="55"/>
+      <c r="EP4" s="55"/>
+      <c r="EQ4" s="55"/>
+      <c r="ER4" s="55"/>
+      <c r="ES4" s="54">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="60"/>
-      <c r="EU4" s="60"/>
-      <c r="EV4" s="60"/>
-      <c r="EW4" s="60"/>
-      <c r="EX4" s="60"/>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="59">
+      <c r="ET4" s="55"/>
+      <c r="EU4" s="55"/>
+      <c r="EV4" s="55"/>
+      <c r="EW4" s="55"/>
+      <c r="EX4" s="55"/>
+      <c r="EY4" s="55"/>
+      <c r="EZ4" s="54">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="60"/>
-      <c r="FF4" s="60"/>
-      <c r="FG4" s="59">
+      <c r="FA4" s="55"/>
+      <c r="FB4" s="55"/>
+      <c r="FC4" s="55"/>
+      <c r="FD4" s="55"/>
+      <c r="FE4" s="55"/>
+      <c r="FF4" s="55"/>
+      <c r="FG4" s="54">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="60"/>
-      <c r="FI4" s="60"/>
-      <c r="FJ4" s="60"/>
-      <c r="FK4" s="60"/>
-      <c r="FL4" s="60"/>
-      <c r="FM4" s="60"/>
-      <c r="FN4" s="59">
+      <c r="FH4" s="55"/>
+      <c r="FI4" s="55"/>
+      <c r="FJ4" s="55"/>
+      <c r="FK4" s="55"/>
+      <c r="FL4" s="55"/>
+      <c r="FM4" s="55"/>
+      <c r="FN4" s="54">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="60"/>
-      <c r="FT4" s="60"/>
+      <c r="FO4" s="55"/>
+      <c r="FP4" s="55"/>
+      <c r="FQ4" s="55"/>
+      <c r="FR4" s="55"/>
+      <c r="FS4" s="55"/>
+      <c r="FT4" s="55"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -3310,10 +3310,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -4187,10 +4187,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -4372,10 +4372,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -4565,10 +4565,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -4758,10 +4758,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -4948,10 +4948,10 @@
     </row>
     <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -5137,10 +5137,10 @@
     </row>
     <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="62" t="s">
+      <c r="B13" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="C13" s="62"/>
+      <c r="C13" s="69"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -5326,10 +5326,10 @@
     </row>
     <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -5512,10 +5512,10 @@
     </row>
     <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="29">
         <v>1</v>
       </c>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="29">
         <v>1</v>
       </c>
@@ -5892,10 +5892,10 @@
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
@@ -6075,10 +6075,10 @@
     </row>
     <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="63" t="s">
+      <c r="B19" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="63"/>
+      <c r="C19" s="70"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -6453,10 +6453,10 @@
     </row>
     <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="70" t="s">
         <v>36</v>
       </c>
-      <c r="C20" s="63"/>
+      <c r="C20" s="70"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -6642,10 +6642,10 @@
     </row>
     <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="63" t="s">
+      <c r="B21" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="63"/>
+      <c r="C21" s="70"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -6833,10 +6833,10 @@
       <c r="A22" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="71"/>
+      <c r="C22" s="58"/>
       <c r="D22" s="37"/>
       <c r="E22" s="38"/>
       <c r="F22" s="39"/>
@@ -7966,18 +7966,18 @@
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="40">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E28" s="41">
         <v>45390</v>
       </c>
       <c r="F28" s="41">
-        <v>45396</v>
+        <v>45401</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28">
         <f t="shared" si="117"/>
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
@@ -8155,18 +8155,18 @@
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="40">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="E29" s="41">
         <v>45397</v>
       </c>
       <c r="F29" s="41">
-        <v>45399</v>
+        <v>45402</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28">
         <f t="shared" si="117"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -8350,12 +8350,12 @@
         <v>45384</v>
       </c>
       <c r="F30" s="41">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28">
         <f t="shared" si="117"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
@@ -8530,10 +8530,10 @@
       <c r="A31" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B31" s="58" t="s">
+      <c r="B31" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="58"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="42"/>
       <c r="E31" s="43"/>
       <c r="F31" s="44"/>
@@ -8907,18 +8907,18 @@
       </c>
       <c r="C33" s="53"/>
       <c r="D33" s="45">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="46">
         <v>45390</v>
       </c>
       <c r="F33" s="46">
-        <v>45394</v>
+        <v>45393</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28">
         <f t="shared" si="117"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -9102,12 +9102,12 @@
         <v>45394</v>
       </c>
       <c r="F34" s="46">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28">
         <f t="shared" si="117"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -9288,10 +9288,10 @@
         <v>0</v>
       </c>
       <c r="E35" s="46">
-        <v>45401</v>
+        <v>45402</v>
       </c>
       <c r="F35" s="46">
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28">
@@ -9477,10 +9477,10 @@
         <v>0</v>
       </c>
       <c r="E36" s="46">
-        <v>45408</v>
+        <v>45409</v>
       </c>
       <c r="F36" s="46">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28">
@@ -9666,10 +9666,10 @@
         <v>0</v>
       </c>
       <c r="E37" s="46">
-        <v>45415</v>
+        <v>45416</v>
       </c>
       <c r="F37" s="46">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28"/>
@@ -9852,10 +9852,10 @@
         <v>0</v>
       </c>
       <c r="E38" s="46">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="F38" s="46">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28"/>
@@ -10038,10 +10038,10 @@
         <v>0</v>
       </c>
       <c r="E39" s="46">
-        <v>45419</v>
+        <v>45420</v>
       </c>
       <c r="F39" s="46">
-        <v>45422</v>
+        <v>45423</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28"/>
@@ -10218,10 +10218,10 @@
       <c r="A40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="71" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="55"/>
+      <c r="C40" s="71"/>
       <c r="D40" s="47"/>
       <c r="E40" s="48"/>
       <c r="F40" s="49"/>
@@ -10401,10 +10401,10 @@
     </row>
     <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="8"/>
-      <c r="B41" s="54" t="s">
+      <c r="B41" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C41" s="54"/>
+      <c r="C41" s="68"/>
       <c r="D41" s="50">
         <v>0.1</v>
       </c>
@@ -10589,10 +10589,10 @@
       <c r="FT41" s="24"/>
     </row>
     <row r="42" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="54" t="s">
+      <c r="B42" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C42" s="54"/>
+      <c r="C42" s="68"/>
       <c r="D42" s="50">
         <v>1</v>
       </c>
@@ -10777,10 +10777,10 @@
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="55" t="s">
+      <c r="B43" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="C43" s="55"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="47"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -10959,10 +10959,10 @@
       <c r="FT43" s="24"/>
     </row>
     <row r="44" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="54" t="s">
+      <c r="B44" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C44" s="54"/>
+      <c r="C44" s="68"/>
       <c r="D44" s="50">
         <v>1</v>
       </c>
@@ -11144,10 +11144,10 @@
       <c r="FT44" s="24"/>
     </row>
     <row r="45" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="54" t="s">
+      <c r="B45" s="68" t="s">
         <v>50</v>
       </c>
-      <c r="C45" s="54"/>
+      <c r="C45" s="68"/>
       <c r="D45" s="50">
         <v>0.5</v>
       </c>
@@ -11329,10 +11329,10 @@
       <c r="FT45" s="24"/>
     </row>
     <row r="46" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="54" t="s">
+      <c r="B46" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="54"/>
+      <c r="C46" s="68"/>
       <c r="D46" s="50">
         <v>0.5</v>
       </c>
@@ -11514,10 +11514,10 @@
       <c r="FT46" s="24"/>
     </row>
     <row r="47" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="54" t="s">
+      <c r="B47" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="C47" s="54"/>
+      <c r="C47" s="68"/>
       <c r="D47" s="50">
         <v>0.5</v>
       </c>
@@ -11702,10 +11702,10 @@
       <c r="A48" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B48" s="55" t="s">
+      <c r="B48" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C48" s="55"/>
+      <c r="C48" s="71"/>
       <c r="D48" s="47"/>
       <c r="E48" s="48"/>
       <c r="F48" s="49"/>
@@ -11884,10 +11884,10 @@
       <c r="FT48" s="24"/>
     </row>
     <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="54" t="s">
+      <c r="B49" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="54"/>
+      <c r="C49" s="68"/>
       <c r="D49" s="50">
         <v>0</v>
       </c>
@@ -12069,10 +12069,10 @@
       <c r="FT49" s="24"/>
     </row>
     <row r="50" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="54" t="s">
+      <c r="B50" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="C50" s="54"/>
+      <c r="C50" s="68"/>
       <c r="D50" s="50">
         <v>0</v>
       </c>
@@ -12254,10 +12254,10 @@
       <c r="FT50" s="24"/>
     </row>
     <row r="51" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="54" t="s">
+      <c r="B51" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="C51" s="54"/>
+      <c r="C51" s="68"/>
       <c r="D51" s="50">
         <v>0</v>
       </c>
@@ -12439,10 +12439,10 @@
       <c r="FT51" s="24"/>
     </row>
     <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="54" t="s">
+      <c r="B52" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="54"/>
+      <c r="C52" s="68"/>
       <c r="D52" s="50">
         <v>0</v>
       </c>
@@ -12627,10 +12627,10 @@
       <c r="A53" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B53" s="55" t="s">
+      <c r="B53" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="C53" s="55"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="47"/>
       <c r="E53" s="48"/>
       <c r="F53" s="49"/>
@@ -12809,10 +12809,10 @@
     </row>
     <row r="54" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="8"/>
-      <c r="B54" s="54" t="s">
+      <c r="B54" s="68" t="s">
         <v>60</v>
       </c>
-      <c r="C54" s="54"/>
+      <c r="C54" s="68"/>
       <c r="D54" s="50">
         <v>0.1</v>
       </c>
@@ -12996,10 +12996,10 @@
       <c r="FT54" s="24"/>
     </row>
     <row r="55" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="54" t="s">
+      <c r="B55" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="C55" s="54"/>
+      <c r="C55" s="68"/>
       <c r="D55" s="50">
         <v>0</v>
       </c>
@@ -13181,10 +13181,10 @@
       <c r="FT55" s="24"/>
     </row>
     <row r="56" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="54" t="s">
+      <c r="B56" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="C56" s="54"/>
+      <c r="C56" s="68"/>
       <c r="D56" s="50">
         <v>0</v>
       </c>
@@ -13366,10 +13366,10 @@
       <c r="FT56" s="24"/>
     </row>
     <row r="57" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="54" t="s">
+      <c r="B57" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="54"/>
+      <c r="C57" s="68"/>
       <c r="D57" s="50">
         <v>0</v>
       </c>
@@ -13554,10 +13554,10 @@
       <c r="A58" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B58" s="55" t="s">
+      <c r="B58" s="71" t="s">
         <v>64</v>
       </c>
-      <c r="C58" s="55"/>
+      <c r="C58" s="71"/>
       <c r="D58" s="47"/>
       <c r="E58" s="48"/>
       <c r="F58" s="49"/>
@@ -13736,10 +13736,10 @@
     </row>
     <row r="59" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="8"/>
-      <c r="B59" s="54" t="s">
+      <c r="B59" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="54"/>
+      <c r="C59" s="68"/>
       <c r="D59" s="50">
         <v>0</v>
       </c>
@@ -13923,10 +13923,10 @@
       <c r="FT59" s="24"/>
     </row>
     <row r="60" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="54" t="s">
+      <c r="B60" s="68" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="54"/>
+      <c r="C60" s="68"/>
       <c r="D60" s="50">
         <v>0</v>
       </c>
@@ -14108,10 +14108,10 @@
       <c r="FT60" s="24"/>
     </row>
     <row r="61" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="54" t="s">
+      <c r="B61" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="C61" s="54"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="50">
         <v>0</v>
       </c>
@@ -14296,10 +14296,10 @@
       <c r="A62" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B62" s="55" t="s">
+      <c r="B62" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="55"/>
+      <c r="C62" s="71"/>
       <c r="D62" s="47"/>
       <c r="E62" s="48"/>
       <c r="F62" s="49"/>
@@ -14478,10 +14478,10 @@
     </row>
     <row r="63" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="8"/>
-      <c r="B63" s="57" t="s">
+      <c r="B63" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="C63" s="57"/>
+      <c r="C63" s="72"/>
       <c r="D63" s="50">
         <v>0</v>
       </c>
@@ -14666,10 +14666,10 @@
     </row>
     <row r="64" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="8"/>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="C64" s="57"/>
+      <c r="C64" s="72"/>
       <c r="D64" s="50">
         <v>0</v>
       </c>
@@ -14853,10 +14853,10 @@
       <c r="FT64" s="24"/>
     </row>
     <row r="65" spans="2:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="54" t="s">
+      <c r="B65" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="C65" s="54"/>
+      <c r="C65" s="68"/>
       <c r="D65" s="50">
         <v>0</v>
       </c>
@@ -15038,10 +15038,10 @@
       <c r="FT65" s="24"/>
     </row>
     <row r="66" spans="2:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="54" t="s">
+      <c r="B66" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C66" s="54"/>
+      <c r="C66" s="68"/>
       <c r="D66" s="50">
         <v>0</v>
       </c>
@@ -15224,6 +15224,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="B35:C35"/>
     <mergeCell ref="FN4:FT4"/>
@@ -15240,78 +15312,6 @@
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D66">
     <cfRule type="dataBar" priority="230">
@@ -15488,35 +15488,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15804,27 +15775,36 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15843,4 +15823,24 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F490E6-79AD-47DC-B380-76829138B9B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A699A8-DD1A-46D5-9CDF-68B7B7E01BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -13,11 +13,11 @@
   <definedNames>
     <definedName name="hoy" localSheetId="0">TODAY()</definedName>
     <definedName name="Inicio_del_proyecto">ProjectSchedule!$E$3</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Semana_para_mostrar">ProjectSchedule!$E$4</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -180,9 +180,6 @@
     <t>Generación de iteradores para textos equilibrados</t>
   </si>
   <si>
-    <t>División y creación de los conjuntos train, validation y test</t>
-  </si>
-  <si>
     <t>Aplicación de padding y agrupamiento por lotes</t>
   </si>
   <si>
@@ -193,9 +190,6 @@
   </si>
   <si>
     <t>Desarrollo y creación de modelo multimodal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replicación modelos unimodales de revisiones bibliograficas </t>
   </si>
   <si>
     <t>Creación de modelo multimodal mediante modelos unimodales</t>
@@ -313,6 +307,21 @@
   </si>
   <si>
     <t>Experimentación y ajustes de modelo multimodal</t>
+  </si>
+  <si>
+    <t>Experimentar/optimizar modelo facial con diferentes parametros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicación modelos facial de revisiones bibliograficas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicación modelos de texto de revisiones bibliograficas </t>
+  </si>
+  <si>
+    <t>División y creación de los conjuntos train, validation y test facial</t>
+  </si>
+  <si>
+    <t>División y creación de los conjuntos train, validation y test texto</t>
   </si>
 </sst>
 </file>
@@ -1267,28 +1276,34 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1309,289 +1324,76 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="30" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="46" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="19" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="25" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Énfasis6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Énfasis6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Énfasis6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bueno" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Celda de comprobación" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Celda vinculada" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Encabezado 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Encabezado 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Énfasis1" xfId="30" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Énfasis2" xfId="34" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Énfasis3" xfId="38" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Énfasis4" xfId="42" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Énfasis5" xfId="46" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Énfasis6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="21" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Fecha" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="17" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Incorrecto" xfId="19" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Inicio del proyecto" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Millares" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Millares [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Moneda" xfId="15" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Moneda [0]" xfId="16" builtinId="7" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Nombre" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Notas" xfId="27" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5" customBuiltin="1"/>
+    <cellStyle name="Salida" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Tarea" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Texto de advertencia" xfId="26" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto explicativo" xfId="28" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1764,15 +1566,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="33"/>
-      <tableStyleElement type="headerRow" dxfId="32"/>
-      <tableStyleElement type="totalRow" dxfId="31"/>
-      <tableStyleElement type="firstColumn" dxfId="30"/>
-      <tableStyleElement type="lastColumn" dxfId="29"/>
-      <tableStyleElement type="firstRowStripe" dxfId="28"/>
-      <tableStyleElement type="secondRowStripe" dxfId="27"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="26"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="25"/>
+      <tableStyleElement type="wholeTable" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="totalRow" dxfId="13"/>
+      <tableStyleElement type="firstColumn" dxfId="12"/>
+      <tableStyleElement type="lastColumn" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="8"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2131,47 +1933,47 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FT66"/>
+  <dimension ref="A1:FT69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M30" sqref="M30"/>
+      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1"/>
-    <col min="3" max="3" width="64.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
-    <col min="7" max="7" width="3.140625" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.28515625" customWidth="1"/>
-    <col min="22" max="70" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.5703125" customWidth="1"/>
-    <col min="72" max="91" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.26953125" customWidth="1"/>
+    <col min="3" max="3" width="64.54296875" customWidth="1"/>
+    <col min="4" max="4" width="15.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="13.7265625" customWidth="1"/>
+    <col min="7" max="7" width="3.1796875" customWidth="1"/>
+    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.26953125" customWidth="1"/>
+    <col min="22" max="70" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.54296875" customWidth="1"/>
+    <col min="72" max="91" width="4.453125" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="105" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="6.5703125" customWidth="1"/>
-    <col min="107" max="134" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="138" max="140" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="6.28515625" customWidth="1"/>
-    <col min="142" max="162" width="4.42578125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="166" max="168" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="5.7109375" customWidth="1"/>
-    <col min="170" max="170" width="2.85546875" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="3.85546875" bestFit="1" customWidth="1"/>
-    <col min="172" max="176" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="93" max="105" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.54296875" customWidth="1"/>
+    <col min="107" max="134" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="138" max="140" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="6.26953125" customWidth="1"/>
+    <col min="142" max="162" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="168" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="5.7265625" customWidth="1"/>
+    <col min="170" max="170" width="2.81640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="3.81640625" bestFit="1" customWidth="1"/>
+    <col min="172" max="176" width="4.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2185,444 +1987,444 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="B2" s="12"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="64">
+      <c r="D3" s="64"/>
+      <c r="E3" s="66">
         <v>45323</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="I3" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="67"/>
-      <c r="BS3" s="67"/>
-      <c r="BT3" s="67"/>
-      <c r="BU3" s="67"/>
-      <c r="BV3" s="67"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="67"/>
-      <c r="BY3" s="67"/>
-      <c r="BZ3" s="67"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="67"/>
-      <c r="CC3" s="67"/>
-      <c r="CD3" s="67"/>
-      <c r="CE3" s="67"/>
-      <c r="CF3" s="67"/>
-      <c r="CG3" s="67"/>
-      <c r="CH3" s="67"/>
-      <c r="CI3" s="67"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="67"/>
-      <c r="CM3" s="67"/>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CV3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="67"/>
-      <c r="DD3" s="67"/>
-      <c r="DE3" s="67"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="67"/>
-      <c r="DH3" s="67"/>
-      <c r="DI3" s="67"/>
-      <c r="DJ3" s="67"/>
-      <c r="DK3" s="67"/>
-      <c r="DL3" s="67"/>
-      <c r="DM3" s="67"/>
-      <c r="DN3" s="67"/>
-      <c r="DO3" s="67"/>
-      <c r="DP3" s="67"/>
-      <c r="DQ3" s="67"/>
-      <c r="DR3" s="67"/>
-      <c r="DS3" s="67"/>
-      <c r="DT3" s="67"/>
-      <c r="DU3" s="67"/>
-      <c r="DV3" s="67"/>
-      <c r="DW3" s="67"/>
-      <c r="DX3" s="67"/>
-      <c r="DY3" s="67"/>
-      <c r="DZ3" s="67"/>
-      <c r="EA3" s="67"/>
-      <c r="EB3" s="67"/>
-      <c r="EC3" s="67"/>
-      <c r="ED3" s="67"/>
-      <c r="EE3" s="67"/>
-      <c r="EF3" s="67"/>
-      <c r="EG3" s="67"/>
-      <c r="EH3" s="67"/>
-      <c r="EI3" s="67"/>
-      <c r="EJ3" s="67"/>
-      <c r="EK3" s="67"/>
-      <c r="EL3" s="67"/>
-      <c r="EM3" s="67"/>
-      <c r="EN3" s="67"/>
-      <c r="EO3" s="67"/>
-      <c r="EP3" s="67"/>
-      <c r="EQ3" s="67"/>
-      <c r="ER3" s="67"/>
-      <c r="ES3" s="67"/>
-      <c r="ET3" s="67"/>
-      <c r="EU3" s="67"/>
-      <c r="EV3" s="67"/>
-      <c r="EW3" s="67"/>
-      <c r="EX3" s="67"/>
-      <c r="EY3" s="67"/>
-      <c r="EZ3" s="67"/>
-      <c r="FA3" s="67"/>
-      <c r="FB3" s="67"/>
-      <c r="FC3" s="67"/>
-      <c r="FD3" s="67"/>
-      <c r="FE3" s="67"/>
-      <c r="FF3" s="67"/>
-      <c r="FG3" s="67"/>
-      <c r="FH3" s="67"/>
-      <c r="FI3" s="67"/>
-      <c r="FJ3" s="67"/>
-      <c r="FK3" s="67"/>
-      <c r="FL3" s="67"/>
-      <c r="FM3" s="67"/>
+      <c r="F3" s="66"/>
+      <c r="I3" s="68" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
+      <c r="AO3" s="69"/>
+      <c r="AP3" s="69"/>
+      <c r="AQ3" s="69"/>
+      <c r="AR3" s="69"/>
+      <c r="AS3" s="69"/>
+      <c r="AT3" s="69"/>
+      <c r="AU3" s="69"/>
+      <c r="AV3" s="69"/>
+      <c r="AW3" s="69"/>
+      <c r="AX3" s="69"/>
+      <c r="AY3" s="69"/>
+      <c r="AZ3" s="69"/>
+      <c r="BA3" s="69"/>
+      <c r="BB3" s="69"/>
+      <c r="BC3" s="69"/>
+      <c r="BD3" s="69"/>
+      <c r="BE3" s="69"/>
+      <c r="BF3" s="69"/>
+      <c r="BG3" s="69"/>
+      <c r="BH3" s="69"/>
+      <c r="BI3" s="69"/>
+      <c r="BJ3" s="69"/>
+      <c r="BK3" s="69"/>
+      <c r="BL3" s="69"/>
+      <c r="BM3" s="69"/>
+      <c r="BN3" s="69"/>
+      <c r="BO3" s="69"/>
+      <c r="BP3" s="69"/>
+      <c r="BQ3" s="69"/>
+      <c r="BR3" s="69"/>
+      <c r="BS3" s="69"/>
+      <c r="BT3" s="69"/>
+      <c r="BU3" s="69"/>
+      <c r="BV3" s="69"/>
+      <c r="BW3" s="69"/>
+      <c r="BX3" s="69"/>
+      <c r="BY3" s="69"/>
+      <c r="BZ3" s="69"/>
+      <c r="CA3" s="69"/>
+      <c r="CB3" s="69"/>
+      <c r="CC3" s="69"/>
+      <c r="CD3" s="69"/>
+      <c r="CE3" s="69"/>
+      <c r="CF3" s="69"/>
+      <c r="CG3" s="69"/>
+      <c r="CH3" s="69"/>
+      <c r="CI3" s="69"/>
+      <c r="CJ3" s="69"/>
+      <c r="CK3" s="69"/>
+      <c r="CL3" s="69"/>
+      <c r="CM3" s="69"/>
+      <c r="CN3" s="69"/>
+      <c r="CO3" s="69"/>
+      <c r="CP3" s="69"/>
+      <c r="CQ3" s="69"/>
+      <c r="CR3" s="69"/>
+      <c r="CS3" s="69"/>
+      <c r="CT3" s="69"/>
+      <c r="CU3" s="69"/>
+      <c r="CV3" s="69"/>
+      <c r="CW3" s="69"/>
+      <c r="CX3" s="69"/>
+      <c r="CY3" s="69"/>
+      <c r="CZ3" s="69"/>
+      <c r="DA3" s="69"/>
+      <c r="DB3" s="69"/>
+      <c r="DC3" s="69"/>
+      <c r="DD3" s="69"/>
+      <c r="DE3" s="69"/>
+      <c r="DF3" s="69"/>
+      <c r="DG3" s="69"/>
+      <c r="DH3" s="69"/>
+      <c r="DI3" s="69"/>
+      <c r="DJ3" s="69"/>
+      <c r="DK3" s="69"/>
+      <c r="DL3" s="69"/>
+      <c r="DM3" s="69"/>
+      <c r="DN3" s="69"/>
+      <c r="DO3" s="69"/>
+      <c r="DP3" s="69"/>
+      <c r="DQ3" s="69"/>
+      <c r="DR3" s="69"/>
+      <c r="DS3" s="69"/>
+      <c r="DT3" s="69"/>
+      <c r="DU3" s="69"/>
+      <c r="DV3" s="69"/>
+      <c r="DW3" s="69"/>
+      <c r="DX3" s="69"/>
+      <c r="DY3" s="69"/>
+      <c r="DZ3" s="69"/>
+      <c r="EA3" s="69"/>
+      <c r="EB3" s="69"/>
+      <c r="EC3" s="69"/>
+      <c r="ED3" s="69"/>
+      <c r="EE3" s="69"/>
+      <c r="EF3" s="69"/>
+      <c r="EG3" s="69"/>
+      <c r="EH3" s="69"/>
+      <c r="EI3" s="69"/>
+      <c r="EJ3" s="69"/>
+      <c r="EK3" s="69"/>
+      <c r="EL3" s="69"/>
+      <c r="EM3" s="69"/>
+      <c r="EN3" s="69"/>
+      <c r="EO3" s="69"/>
+      <c r="EP3" s="69"/>
+      <c r="EQ3" s="69"/>
+      <c r="ER3" s="69"/>
+      <c r="ES3" s="69"/>
+      <c r="ET3" s="69"/>
+      <c r="EU3" s="69"/>
+      <c r="EV3" s="69"/>
+      <c r="EW3" s="69"/>
+      <c r="EX3" s="69"/>
+      <c r="EY3" s="69"/>
+      <c r="EZ3" s="69"/>
+      <c r="FA3" s="69"/>
+      <c r="FB3" s="69"/>
+      <c r="FC3" s="69"/>
+      <c r="FD3" s="69"/>
+      <c r="FE3" s="69"/>
+      <c r="FF3" s="69"/>
+      <c r="FG3" s="69"/>
+      <c r="FH3" s="69"/>
+      <c r="FI3" s="69"/>
+      <c r="FJ3" s="69"/>
+      <c r="FK3" s="69"/>
+      <c r="FL3" s="69"/>
+      <c r="FM3" s="69"/>
     </row>
-    <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="63" t="s">
+      <c r="C4" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="65"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="54">
+      <c r="I4" s="59">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="54">
+      <c r="J4" s="60"/>
+      <c r="K4" s="60"/>
+      <c r="L4" s="60"/>
+      <c r="M4" s="60"/>
+      <c r="N4" s="60"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="59">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="54">
+      <c r="Q4" s="60"/>
+      <c r="R4" s="60"/>
+      <c r="S4" s="60"/>
+      <c r="T4" s="60"/>
+      <c r="U4" s="60"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="59">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="54">
+      <c r="X4" s="60"/>
+      <c r="Y4" s="60"/>
+      <c r="Z4" s="60"/>
+      <c r="AA4" s="60"/>
+      <c r="AB4" s="60"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="59">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="54">
+      <c r="AE4" s="60"/>
+      <c r="AF4" s="60"/>
+      <c r="AG4" s="60"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="59">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="54">
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="59">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="54">
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="60"/>
+      <c r="AU4" s="60"/>
+      <c r="AV4" s="60"/>
+      <c r="AW4" s="60"/>
+      <c r="AX4" s="60"/>
+      <c r="AY4" s="59">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="54">
+      <c r="AZ4" s="60"/>
+      <c r="BA4" s="60"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="60"/>
+      <c r="BD4" s="60"/>
+      <c r="BE4" s="60"/>
+      <c r="BF4" s="59">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="54">
+      <c r="BG4" s="60"/>
+      <c r="BH4" s="60"/>
+      <c r="BI4" s="60"/>
+      <c r="BJ4" s="60"/>
+      <c r="BK4" s="60"/>
+      <c r="BL4" s="60"/>
+      <c r="BM4" s="59">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="54">
+      <c r="BN4" s="60"/>
+      <c r="BO4" s="60"/>
+      <c r="BP4" s="60"/>
+      <c r="BQ4" s="60"/>
+      <c r="BR4" s="60"/>
+      <c r="BS4" s="60"/>
+      <c r="BT4" s="59">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="55"/>
-      <c r="BV4" s="55"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="55"/>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="54">
+      <c r="BU4" s="60"/>
+      <c r="BV4" s="60"/>
+      <c r="BW4" s="60"/>
+      <c r="BX4" s="60"/>
+      <c r="BY4" s="60"/>
+      <c r="BZ4" s="60"/>
+      <c r="CA4" s="59">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="55"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="54">
+      <c r="CB4" s="60"/>
+      <c r="CC4" s="60"/>
+      <c r="CD4" s="60"/>
+      <c r="CE4" s="60"/>
+      <c r="CF4" s="60"/>
+      <c r="CG4" s="60"/>
+      <c r="CH4" s="59">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="55"/>
-      <c r="CJ4" s="55"/>
-      <c r="CK4" s="55"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="55"/>
-      <c r="CN4" s="55"/>
-      <c r="CO4" s="54">
+      <c r="CI4" s="60"/>
+      <c r="CJ4" s="60"/>
+      <c r="CK4" s="60"/>
+      <c r="CL4" s="60"/>
+      <c r="CM4" s="60"/>
+      <c r="CN4" s="60"/>
+      <c r="CO4" s="59">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="55"/>
-      <c r="CQ4" s="55"/>
-      <c r="CR4" s="55"/>
-      <c r="CS4" s="55"/>
-      <c r="CT4" s="55"/>
-      <c r="CU4" s="55"/>
-      <c r="CV4" s="54">
+      <c r="CP4" s="60"/>
+      <c r="CQ4" s="60"/>
+      <c r="CR4" s="60"/>
+      <c r="CS4" s="60"/>
+      <c r="CT4" s="60"/>
+      <c r="CU4" s="60"/>
+      <c r="CV4" s="59">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="55"/>
-      <c r="CX4" s="55"/>
-      <c r="CY4" s="55"/>
-      <c r="CZ4" s="55"/>
-      <c r="DA4" s="55"/>
-      <c r="DB4" s="55"/>
-      <c r="DC4" s="54">
+      <c r="CW4" s="60"/>
+      <c r="CX4" s="60"/>
+      <c r="CY4" s="60"/>
+      <c r="CZ4" s="60"/>
+      <c r="DA4" s="60"/>
+      <c r="DB4" s="60"/>
+      <c r="DC4" s="59">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="55"/>
-      <c r="DE4" s="55"/>
-      <c r="DF4" s="55"/>
-      <c r="DG4" s="55"/>
-      <c r="DH4" s="55"/>
-      <c r="DI4" s="55"/>
-      <c r="DJ4" s="54">
+      <c r="DD4" s="60"/>
+      <c r="DE4" s="60"/>
+      <c r="DF4" s="60"/>
+      <c r="DG4" s="60"/>
+      <c r="DH4" s="60"/>
+      <c r="DI4" s="60"/>
+      <c r="DJ4" s="59">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="55"/>
-      <c r="DL4" s="55"/>
-      <c r="DM4" s="55"/>
-      <c r="DN4" s="55"/>
-      <c r="DO4" s="55"/>
-      <c r="DP4" s="55"/>
-      <c r="DQ4" s="54">
+      <c r="DK4" s="60"/>
+      <c r="DL4" s="60"/>
+      <c r="DM4" s="60"/>
+      <c r="DN4" s="60"/>
+      <c r="DO4" s="60"/>
+      <c r="DP4" s="60"/>
+      <c r="DQ4" s="59">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="55"/>
-      <c r="DS4" s="55"/>
-      <c r="DT4" s="55"/>
-      <c r="DU4" s="55"/>
-      <c r="DV4" s="55"/>
-      <c r="DW4" s="55"/>
-      <c r="DX4" s="54">
+      <c r="DR4" s="60"/>
+      <c r="DS4" s="60"/>
+      <c r="DT4" s="60"/>
+      <c r="DU4" s="60"/>
+      <c r="DV4" s="60"/>
+      <c r="DW4" s="60"/>
+      <c r="DX4" s="59">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="55"/>
-      <c r="DZ4" s="55"/>
-      <c r="EA4" s="55"/>
-      <c r="EB4" s="55"/>
-      <c r="EC4" s="55"/>
-      <c r="ED4" s="55"/>
-      <c r="EE4" s="54">
+      <c r="DY4" s="60"/>
+      <c r="DZ4" s="60"/>
+      <c r="EA4" s="60"/>
+      <c r="EB4" s="60"/>
+      <c r="EC4" s="60"/>
+      <c r="ED4" s="60"/>
+      <c r="EE4" s="59">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="55"/>
-      <c r="EG4" s="55"/>
-      <c r="EH4" s="55"/>
-      <c r="EI4" s="55"/>
-      <c r="EJ4" s="55"/>
-      <c r="EK4" s="55"/>
-      <c r="EL4" s="54">
+      <c r="EF4" s="60"/>
+      <c r="EG4" s="60"/>
+      <c r="EH4" s="60"/>
+      <c r="EI4" s="60"/>
+      <c r="EJ4" s="60"/>
+      <c r="EK4" s="60"/>
+      <c r="EL4" s="59">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="55"/>
-      <c r="EN4" s="55"/>
-      <c r="EO4" s="55"/>
-      <c r="EP4" s="55"/>
-      <c r="EQ4" s="55"/>
-      <c r="ER4" s="55"/>
-      <c r="ES4" s="54">
+      <c r="EM4" s="60"/>
+      <c r="EN4" s="60"/>
+      <c r="EO4" s="60"/>
+      <c r="EP4" s="60"/>
+      <c r="EQ4" s="60"/>
+      <c r="ER4" s="60"/>
+      <c r="ES4" s="59">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="55"/>
-      <c r="EU4" s="55"/>
-      <c r="EV4" s="55"/>
-      <c r="EW4" s="55"/>
-      <c r="EX4" s="55"/>
-      <c r="EY4" s="55"/>
-      <c r="EZ4" s="54">
+      <c r="ET4" s="60"/>
+      <c r="EU4" s="60"/>
+      <c r="EV4" s="60"/>
+      <c r="EW4" s="60"/>
+      <c r="EX4" s="60"/>
+      <c r="EY4" s="60"/>
+      <c r="EZ4" s="59">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="55"/>
-      <c r="FB4" s="55"/>
-      <c r="FC4" s="55"/>
-      <c r="FD4" s="55"/>
-      <c r="FE4" s="55"/>
-      <c r="FF4" s="55"/>
-      <c r="FG4" s="54">
+      <c r="FA4" s="60"/>
+      <c r="FB4" s="60"/>
+      <c r="FC4" s="60"/>
+      <c r="FD4" s="60"/>
+      <c r="FE4" s="60"/>
+      <c r="FF4" s="60"/>
+      <c r="FG4" s="59">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="55"/>
-      <c r="FI4" s="55"/>
-      <c r="FJ4" s="55"/>
-      <c r="FK4" s="55"/>
-      <c r="FL4" s="55"/>
-      <c r="FM4" s="55"/>
-      <c r="FN4" s="54">
+      <c r="FH4" s="60"/>
+      <c r="FI4" s="60"/>
+      <c r="FJ4" s="60"/>
+      <c r="FK4" s="60"/>
+      <c r="FL4" s="60"/>
+      <c r="FM4" s="60"/>
+      <c r="FN4" s="59">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="55"/>
-      <c r="FP4" s="55"/>
-      <c r="FQ4" s="55"/>
-      <c r="FR4" s="55"/>
-      <c r="FS4" s="55"/>
-      <c r="FT4" s="55"/>
+      <c r="FO4" s="60"/>
+      <c r="FP4" s="60"/>
+      <c r="FQ4" s="60"/>
+      <c r="FR4" s="60"/>
+      <c r="FS4" s="60"/>
+      <c r="FT4" s="60"/>
     </row>
-    <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3306,14 +3108,14 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="6" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="72" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="72"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -4000,7 +3802,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:176" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:176" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -4183,20 +3985,20 @@
       <c r="FS7" s="23"/>
       <c r="FT7" s="24"/>
     </row>
-    <row r="8" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="61"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="str">
-        <f t="shared" ref="H8:H43" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H46" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -4368,14 +4170,14 @@
       <c r="FS8" s="23"/>
       <c r="FT8" s="24"/>
     </row>
-    <row r="9" spans="1:176" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:176" s="3" customFormat="1" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -4561,14 +4363,14 @@
       <c r="FS9" s="23"/>
       <c r="FT9" s="24"/>
     </row>
-    <row r="10" spans="1:176" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:176" s="3" customFormat="1" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="60"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -4754,14 +4556,14 @@
       <c r="FS10" s="23"/>
       <c r="FT10" s="24"/>
     </row>
-    <row r="11" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="60" t="s">
+      <c r="B11" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="60"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -4946,12 +4748,12 @@
       <c r="FS11" s="23"/>
       <c r="FT11" s="24"/>
     </row>
-    <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
-      <c r="B12" s="69" t="s">
+      <c r="B12" s="62" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="69"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -5135,12 +4937,12 @@
       <c r="FS12" s="23"/>
       <c r="FT12" s="24"/>
     </row>
-    <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
-      <c r="B13" s="69" t="s">
-        <v>70</v>
-      </c>
-      <c r="C13" s="69"/>
+      <c r="B13" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="62"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -5324,12 +5126,12 @@
       <c r="FS13" s="23"/>
       <c r="FT13" s="24"/>
     </row>
-    <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="69"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -5510,12 +5312,12 @@
       <c r="FS14" s="23"/>
       <c r="FT14" s="24"/>
     </row>
-    <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
-      <c r="B15" s="69" t="s">
+      <c r="B15" s="62" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="69"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="29">
         <v>1</v>
       </c>
@@ -5699,12 +5501,12 @@
       <c r="FS15" s="23"/>
       <c r="FT15" s="24"/>
     </row>
-    <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
-      <c r="B16" s="69" t="s">
+      <c r="B16" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="29">
         <v>1</v>
       </c>
@@ -5888,14 +5690,14 @@
       <c r="FS16" s="23"/>
       <c r="FT16" s="24"/>
     </row>
-    <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="57"/>
+      <c r="C17" s="70"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
@@ -6073,12 +5875,12 @@
       <c r="FS17" s="23"/>
       <c r="FT17" s="24"/>
     </row>
-    <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8"/>
-      <c r="B18" s="70" t="s">
+      <c r="B18" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="70"/>
+      <c r="C18" s="63"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -6262,12 +6064,12 @@
       <c r="FS18" s="23"/>
       <c r="FT18" s="24"/>
     </row>
-    <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="70" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="70"/>
+    <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="8"/>
+      <c r="B19" s="63" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="63"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -6278,10 +6080,7 @@
         <v>45363</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="28">
-        <f t="shared" si="117"/>
-        <v>2</v>
-      </c>
+      <c r="H19" s="28"/>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
@@ -6294,8 +6093,8 @@
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
+      <c r="U19" s="23"/>
+      <c r="V19" s="23"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
@@ -6451,25 +6250,25 @@
       <c r="FS19" s="23"/>
       <c r="FT19" s="24"/>
     </row>
-    <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
-      <c r="B20" s="70" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="70"/>
+      <c r="B20" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="63"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
       <c r="E20" s="36">
-        <v>45363</v>
+        <v>45362</v>
       </c>
       <c r="F20" s="36">
-        <v>45363</v>
+        <v>45412</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28">
         <f t="shared" si="117"/>
-        <v>1</v>
+        <v>51</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -6640,12 +6439,12 @@
       <c r="FS20" s="23"/>
       <c r="FT20" s="24"/>
     </row>
-    <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="70"/>
+      <c r="C21" s="63"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -6653,12 +6452,12 @@
         <v>45363</v>
       </c>
       <c r="F21" s="36">
-        <v>45363</v>
+        <v>45412</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28">
         <f t="shared" si="117"/>
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -6829,21 +6628,25 @@
       <c r="FS21" s="23"/>
       <c r="FT21" s="24"/>
     </row>
-    <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="58"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
+    <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="7"/>
+      <c r="B22" s="63" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="63"/>
+      <c r="D22" s="35">
+        <v>1</v>
+      </c>
+      <c r="E22" s="36">
+        <v>45363</v>
+      </c>
+      <c r="F22" s="36">
+        <v>45412</v>
+      </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="28" t="str">
+      <c r="H22" s="28">
         <f t="shared" si="117"/>
-        <v/>
+        <v>50</v>
       </c>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
@@ -6857,8 +6660,8 @@
       <c r="R22" s="23"/>
       <c r="S22" s="23"/>
       <c r="T22" s="23"/>
-      <c r="U22" s="23"/>
-      <c r="V22" s="23"/>
+      <c r="U22" s="31"/>
+      <c r="V22" s="31"/>
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
       <c r="Y22" s="23"/>
@@ -7014,25 +6817,21 @@
       <c r="FS22" s="23"/>
       <c r="FT22" s="24"/>
     </row>
-    <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="40">
-        <v>1</v>
-      </c>
-      <c r="E23" s="41">
-        <v>45364</v>
-      </c>
-      <c r="F23" s="41">
-        <v>45382</v>
-      </c>
+    <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="71"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
       <c r="G23" s="28"/>
-      <c r="H23" s="28">
+      <c r="H23" s="28" t="str">
         <f t="shared" si="117"/>
-        <v>19</v>
+        <v/>
       </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
@@ -7203,10 +7002,10 @@
       <c r="FS23" s="23"/>
       <c r="FT23" s="24"/>
     </row>
-    <row r="24" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="56" t="s">
-        <v>44</v>
+        <v>79</v>
       </c>
       <c r="C24" s="56"/>
       <c r="D24" s="40">
@@ -7216,12 +7015,12 @@
         <v>45364</v>
       </c>
       <c r="F24" s="41">
-        <v>45384</v>
+        <v>45382</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28">
         <f t="shared" si="117"/>
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -7392,26 +7191,23 @@
       <c r="FS24" s="23"/>
       <c r="FT24" s="24"/>
     </row>
-    <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="56" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C25" s="56"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
       <c r="E25" s="41">
-        <v>45379</v>
+        <v>45364</v>
       </c>
       <c r="F25" s="41">
         <v>45384</v>
       </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="28">
-        <f t="shared" si="117"/>
-        <v>6</v>
-      </c>
+      <c r="H25" s="28"/>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -7581,26 +7377,23 @@
       <c r="FS25" s="23"/>
       <c r="FT25" s="24"/>
     </row>
-    <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="56" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="40">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="E26" s="41">
         <v>45384</v>
       </c>
       <c r="F26" s="41">
-        <v>45386</v>
+        <v>45425</v>
       </c>
       <c r="G26" s="28"/>
-      <c r="H26" s="28">
-        <f t="shared" si="117"/>
-        <v>3</v>
-      </c>
+      <c r="H26" s="28"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -7770,25 +7563,25 @@
       <c r="FS26" s="23"/>
       <c r="FT26" s="24"/>
     </row>
-    <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="56" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="40">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="41">
-        <v>45386</v>
+        <v>45384</v>
       </c>
       <c r="F27" s="41">
-        <v>45390</v>
+        <v>45425</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28">
         <f t="shared" si="117"/>
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
@@ -7959,25 +7752,25 @@
       <c r="FS27" s="23"/>
       <c r="FT27" s="24"/>
     </row>
-    <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="56" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="40">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E28" s="41">
-        <v>45390</v>
+        <v>45379</v>
       </c>
       <c r="F28" s="41">
-        <v>45401</v>
+        <v>45384</v>
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28">
         <f t="shared" si="117"/>
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
@@ -8148,25 +7941,25 @@
       <c r="FS28" s="23"/>
       <c r="FT28" s="24"/>
     </row>
-    <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="56" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="40">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="E29" s="41">
-        <v>45397</v>
+        <v>45384</v>
       </c>
       <c r="F29" s="41">
-        <v>45402</v>
+        <v>45386</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28">
         <f t="shared" si="117"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -8337,25 +8130,25 @@
       <c r="FS29" s="23"/>
       <c r="FT29" s="24"/>
     </row>
-    <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="56" t="s">
-        <v>46</v>
+        <v>70</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E30" s="41">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="F30" s="41">
-        <v>45402</v>
+        <v>45390</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28">
         <f t="shared" si="117"/>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
@@ -8526,21 +8319,25 @@
       <c r="FS30" s="23"/>
       <c r="FT30" s="24"/>
     </row>
-    <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B31" s="73" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="44"/>
+    <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="7"/>
+      <c r="B31" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" s="56"/>
+      <c r="D31" s="40">
+        <v>1</v>
+      </c>
+      <c r="E31" s="41">
+        <v>45390</v>
+      </c>
+      <c r="F31" s="41">
+        <v>45401</v>
+      </c>
       <c r="G31" s="28"/>
-      <c r="H31" s="28" t="str">
+      <c r="H31" s="28">
         <f t="shared" si="117"/>
-        <v/>
+        <v>12</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -8711,25 +8508,25 @@
       <c r="FS31" s="23"/>
       <c r="FT31" s="24"/>
     </row>
-    <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
-      <c r="B32" s="53" t="s">
-        <v>41</v>
-      </c>
-      <c r="C32" s="53"/>
-      <c r="D32" s="45">
-        <v>1</v>
-      </c>
-      <c r="E32" s="46">
-        <v>45391</v>
-      </c>
-      <c r="F32" s="46">
-        <v>45398</v>
+      <c r="B32" s="56" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="56"/>
+      <c r="D32" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="41">
+        <v>45397</v>
+      </c>
+      <c r="F32" s="41">
+        <v>45425</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28">
         <f t="shared" si="117"/>
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -8900,25 +8697,25 @@
       <c r="FS32" s="23"/>
       <c r="FT32" s="24"/>
     </row>
-    <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
-      <c r="B33" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="53"/>
-      <c r="D33" s="45">
-        <v>1</v>
-      </c>
-      <c r="E33" s="46">
-        <v>45390</v>
-      </c>
-      <c r="F33" s="46">
-        <v>45393</v>
+      <c r="B33" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="56"/>
+      <c r="D33" s="40">
+        <v>0.5</v>
+      </c>
+      <c r="E33" s="41">
+        <v>45384</v>
+      </c>
+      <c r="F33" s="41">
+        <v>45425</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28">
         <f t="shared" si="117"/>
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -9089,25 +8886,21 @@
       <c r="FS33" s="23"/>
       <c r="FT33" s="24"/>
     </row>
-    <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="53"/>
-      <c r="D34" s="45">
-        <v>0</v>
-      </c>
-      <c r="E34" s="46">
-        <v>45394</v>
-      </c>
-      <c r="F34" s="46">
-        <v>45402</v>
-      </c>
+    <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="44"/>
       <c r="G34" s="28"/>
-      <c r="H34" s="28">
+      <c r="H34" s="28" t="str">
         <f t="shared" si="117"/>
-        <v>9</v>
+        <v/>
       </c>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
@@ -9278,20 +9071,20 @@
       <c r="FS34" s="23"/>
       <c r="FT34" s="24"/>
     </row>
-    <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="53" t="s">
-        <v>76</v>
+        <v>39</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="46">
-        <v>45402</v>
+        <v>45391</v>
       </c>
       <c r="F35" s="46">
-        <v>45409</v>
+        <v>45398</v>
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28">
@@ -9467,25 +9260,25 @@
       <c r="FS35" s="23"/>
       <c r="FT35" s="24"/>
     </row>
-    <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C36" s="53"/>
       <c r="D36" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="46">
-        <v>45409</v>
+        <v>45390</v>
       </c>
       <c r="F36" s="46">
-        <v>45416</v>
+        <v>45393</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28">
         <f t="shared" si="117"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -9656,23 +9449,26 @@
       <c r="FS36" s="23"/>
       <c r="FT36" s="24"/>
     </row>
-    <row r="37" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="53" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C37" s="53"/>
       <c r="D37" s="45">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E37" s="46">
-        <v>45416</v>
+        <v>45394</v>
       </c>
       <c r="F37" s="46">
-        <v>45420</v>
+        <v>45431</v>
       </c>
       <c r="G37" s="28"/>
-      <c r="H37" s="28"/>
+      <c r="H37" s="28">
+        <f t="shared" si="117"/>
+        <v>38</v>
+      </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
       <c r="K37" s="23"/>
@@ -9842,23 +9638,26 @@
       <c r="FS37" s="23"/>
       <c r="FT37" s="24"/>
     </row>
-    <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="53" t="s">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="C38" s="53"/>
       <c r="D38" s="45">
         <v>0</v>
       </c>
       <c r="E38" s="46">
-        <v>45420</v>
+        <v>45431</v>
       </c>
       <c r="F38" s="46">
-        <v>45420</v>
+        <v>45438</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28"/>
+      <c r="H38" s="28">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
@@ -10028,23 +9827,26 @@
       <c r="FS38" s="23"/>
       <c r="FT38" s="24"/>
     </row>
-    <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="53" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
       <c r="C39" s="53"/>
       <c r="D39" s="45">
         <v>0</v>
       </c>
       <c r="E39" s="46">
-        <v>45420</v>
+        <v>45438</v>
       </c>
       <c r="F39" s="46">
-        <v>45423</v>
+        <v>45443</v>
       </c>
       <c r="G39" s="28"/>
-      <c r="H39" s="28"/>
+      <c r="H39" s="28">
+        <f t="shared" si="117"/>
+        <v>6</v>
+      </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
       <c r="K39" s="23"/>
@@ -10214,22 +10016,23 @@
       <c r="FS39" s="23"/>
       <c r="FT39" s="24"/>
     </row>
-    <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="71"/>
-      <c r="D40" s="47"/>
-      <c r="E40" s="48"/>
-      <c r="F40" s="49"/>
+    <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="7"/>
+      <c r="B40" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" s="53"/>
+      <c r="D40" s="45">
+        <v>0</v>
+      </c>
+      <c r="E40" s="46">
+        <v>45443</v>
+      </c>
+      <c r="F40" s="46">
+        <v>45444</v>
+      </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
+      <c r="H40" s="28"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
@@ -10399,26 +10202,23 @@
       <c r="FS40" s="23"/>
       <c r="FT40" s="24"/>
     </row>
-    <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="8"/>
-      <c r="B41" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E41" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F41" s="36">
-        <v>45425</v>
+    <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="7"/>
+      <c r="B41" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="53"/>
+      <c r="D41" s="45">
+        <v>0</v>
+      </c>
+      <c r="E41" s="46">
+        <v>45444</v>
+      </c>
+      <c r="F41" s="46">
+        <v>45444</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28">
-        <f t="shared" si="117"/>
-        <v>38</v>
-      </c>
+      <c r="H41" s="28"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -10588,19 +10388,20 @@
       <c r="FS41" s="23"/>
       <c r="FT41" s="24"/>
     </row>
-    <row r="42" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="50">
-        <v>1</v>
-      </c>
-      <c r="E42" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F42" s="36">
-        <v>45425</v>
+    <row r="42" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A42" s="7"/>
+      <c r="B42" s="53" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="53"/>
+      <c r="D42" s="45">
+        <v>0</v>
+      </c>
+      <c r="E42" s="46">
+        <v>45444</v>
+      </c>
+      <c r="F42" s="46">
+        <v>45446</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28"/>
@@ -10773,14 +10574,14 @@
       <c r="FS42" s="23"/>
       <c r="FT42" s="24"/>
     </row>
-    <row r="43" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B43" s="71" t="s">
-        <v>54</v>
-      </c>
-      <c r="C43" s="71"/>
+      <c r="B43" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="C43" s="55"/>
       <c r="D43" s="47"/>
       <c r="E43" s="48"/>
       <c r="F43" s="49"/>
@@ -10958,22 +10759,26 @@
       <c r="FS43" s="23"/>
       <c r="FT43" s="24"/>
     </row>
-    <row r="44" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C44" s="68"/>
+    <row r="44" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="8"/>
+      <c r="B44" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44" s="54"/>
       <c r="D44" s="50">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="E44" s="36">
         <v>45388</v>
       </c>
       <c r="F44" s="36">
-        <v>45411</v>
+        <v>45446</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
+      <c r="H44" s="28">
+        <f t="shared" si="117"/>
+        <v>59</v>
+      </c>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
@@ -11143,19 +10948,19 @@
       <c r="FS44" s="23"/>
       <c r="FT44" s="24"/>
     </row>
-    <row r="45" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="68" t="s">
-        <v>50</v>
-      </c>
-      <c r="C45" s="68"/>
+    <row r="45" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B45" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" s="54"/>
       <c r="D45" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E45" s="36">
         <v>45388</v>
       </c>
       <c r="F45" s="36">
-        <v>45427</v>
+        <v>45425</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -11328,22 +11133,22 @@
       <c r="FS45" s="23"/>
       <c r="FT45" s="24"/>
     </row>
-    <row r="46" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E46" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F46" s="36">
-        <v>45429</v>
-      </c>
+    <row r="46" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A46" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B46" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C46" s="55"/>
+      <c r="D46" s="47"/>
+      <c r="E46" s="48"/>
+      <c r="F46" s="49"/>
       <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
+      <c r="H46" s="28" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
@@ -11513,19 +11318,19 @@
       <c r="FS46" s="23"/>
       <c r="FT46" s="24"/>
     </row>
-    <row r="47" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C47" s="68"/>
+    <row r="47" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B47" s="54" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="54"/>
       <c r="D47" s="50">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E47" s="36">
         <v>45388</v>
       </c>
       <c r="F47" s="36">
-        <v>45429</v>
+        <v>45411</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -11698,22 +11503,22 @@
       <c r="FS47" s="23"/>
       <c r="FT47" s="24"/>
     </row>
-    <row r="48" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B48" s="71" t="s">
-        <v>53</v>
-      </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="47"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="49"/>
+    <row r="48" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B48" s="54" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="54"/>
+      <c r="D48" s="50">
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="36">
+        <v>45388</v>
+      </c>
+      <c r="F48" s="36">
+        <v>45446</v>
+      </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="28" t="str">
-        <f t="shared" ref="H48" si="118">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H48" s="28"/>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
@@ -11883,19 +11688,19 @@
       <c r="FS48" s="23"/>
       <c r="FT48" s="24"/>
     </row>
-    <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C49" s="68"/>
+    <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B49" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C49" s="54"/>
       <c r="D49" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E49" s="36">
-        <v>45432</v>
+        <v>45388</v>
       </c>
       <c r="F49" s="36">
-        <v>45433</v>
+        <v>45448</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -12068,19 +11873,19 @@
       <c r="FS49" s="23"/>
       <c r="FT49" s="24"/>
     </row>
-    <row r="50" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="C50" s="68"/>
+    <row r="50" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B50" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C50" s="54"/>
       <c r="D50" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E50" s="36">
-        <v>45433</v>
+        <v>45388</v>
       </c>
       <c r="F50" s="36">
-        <v>45433</v>
+        <v>45452</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="28"/>
@@ -12253,22 +12058,22 @@
       <c r="FS50" s="23"/>
       <c r="FT50" s="24"/>
     </row>
-    <row r="51" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="50">
-        <v>0</v>
-      </c>
-      <c r="E51" s="36">
-        <v>45433</v>
-      </c>
-      <c r="F51" s="36">
-        <v>45437</v>
-      </c>
+    <row r="51" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A51" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="47"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="49"/>
       <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28" t="str">
+        <f t="shared" ref="H51" si="118">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
@@ -12438,19 +12243,19 @@
       <c r="FS51" s="23"/>
       <c r="FT51" s="24"/>
     </row>
-    <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" s="68"/>
+    <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B52" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C52" s="54"/>
       <c r="D52" s="50">
         <v>0</v>
       </c>
       <c r="E52" s="36">
-        <v>45433</v>
+        <v>45452</v>
       </c>
       <c r="F52" s="36">
-        <v>45437</v>
+        <v>45452</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -12623,21 +12428,22 @@
       <c r="FS52" s="23"/>
       <c r="FT52" s="24"/>
     </row>
-    <row r="53" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B53" s="71" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="71"/>
-      <c r="D53" s="47"/>
-      <c r="E53" s="48"/>
-      <c r="F53" s="49"/>
+    <row r="53" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B53" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C53" s="54"/>
+      <c r="D53" s="50">
+        <v>0</v>
+      </c>
+      <c r="E53" s="36">
+        <v>45452</v>
+      </c>
+      <c r="F53" s="36">
+        <v>45452</v>
+      </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="H53" s="28"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -12807,25 +12613,22 @@
       <c r="FS53" s="23"/>
       <c r="FT53" s="24"/>
     </row>
-    <row r="54" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="8"/>
-      <c r="B54" s="68" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54" s="68"/>
+    <row r="54" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B54" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" s="54"/>
       <c r="D54" s="50">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E54" s="36">
-        <v>45433</v>
+        <v>45452</v>
       </c>
       <c r="F54" s="36">
-        <v>45433</v>
+        <v>45457</v>
       </c>
       <c r="G54" s="28"/>
-      <c r="H54" s="28">
-        <v>5</v>
-      </c>
+      <c r="H54" s="28"/>
       <c r="I54" s="23"/>
       <c r="J54" s="23"/>
       <c r="K54" s="23"/>
@@ -12995,19 +12798,19 @@
       <c r="FS54" s="23"/>
       <c r="FT54" s="24"/>
     </row>
-    <row r="55" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="68"/>
+    <row r="55" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B55" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" s="54"/>
       <c r="D55" s="50">
         <v>0</v>
       </c>
       <c r="E55" s="36">
-        <v>45433</v>
+        <v>45457</v>
       </c>
       <c r="F55" s="36">
-        <v>45439</v>
+        <v>45457</v>
       </c>
       <c r="G55" s="28"/>
       <c r="H55" s="28"/>
@@ -13180,22 +12983,21 @@
       <c r="FS55" s="23"/>
       <c r="FT55" s="24"/>
     </row>
-    <row r="56" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="50">
-        <v>0</v>
-      </c>
-      <c r="E56" s="36">
-        <v>45433</v>
-      </c>
-      <c r="F56" s="36">
-        <v>45453</v>
-      </c>
+    <row r="56" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A56" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B56" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="55"/>
+      <c r="D56" s="47"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="49"/>
       <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
+      <c r="H56" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
@@ -13365,22 +13167,25 @@
       <c r="FS56" s="23"/>
       <c r="FT56" s="24"/>
     </row>
-    <row r="57" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57" s="68"/>
+    <row r="57" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A57" s="8"/>
+      <c r="B57" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" s="54"/>
       <c r="D57" s="50">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E57" s="36">
-        <v>45433</v>
+        <v>45457</v>
       </c>
       <c r="F57" s="36">
-        <v>45453</v>
+        <v>45457</v>
       </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
+      <c r="H57" s="28">
+        <v>5</v>
+      </c>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
@@ -13550,21 +13355,22 @@
       <c r="FS57" s="23"/>
       <c r="FT57" s="24"/>
     </row>
-    <row r="58" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B58" s="71" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58" s="71"/>
-      <c r="D58" s="47"/>
-      <c r="E58" s="48"/>
-      <c r="F58" s="49"/>
+    <row r="58" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B58" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" s="54"/>
+      <c r="D58" s="50">
+        <v>0</v>
+      </c>
+      <c r="E58" s="36">
+        <v>45457</v>
+      </c>
+      <c r="F58" s="36">
+        <v>45457</v>
+      </c>
       <c r="G58" s="28"/>
-      <c r="H58" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="H58" s="28"/>
       <c r="I58" s="23"/>
       <c r="J58" s="23"/>
       <c r="K58" s="23"/>
@@ -13734,25 +13540,22 @@
       <c r="FS58" s="23"/>
       <c r="FT58" s="24"/>
     </row>
-    <row r="59" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="8"/>
-      <c r="B59" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59" s="68"/>
+    <row r="59" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B59" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" s="54"/>
       <c r="D59" s="50">
         <v>0</v>
       </c>
       <c r="E59" s="36">
-        <v>45453</v>
+        <v>45457</v>
       </c>
       <c r="F59" s="36">
-        <v>45458</v>
+        <v>45457</v>
       </c>
       <c r="G59" s="28"/>
-      <c r="H59" s="28">
-        <v>5</v>
-      </c>
+      <c r="H59" s="28"/>
       <c r="I59" s="23"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
@@ -13922,19 +13725,19 @@
       <c r="FS59" s="23"/>
       <c r="FT59" s="24"/>
     </row>
-    <row r="60" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="68" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="68"/>
+    <row r="60" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B60" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" s="54"/>
       <c r="D60" s="50">
         <v>0</v>
       </c>
       <c r="E60" s="36">
-        <v>45458</v>
+        <v>45457</v>
       </c>
       <c r="F60" s="36">
-        <v>45465</v>
+        <v>45457</v>
       </c>
       <c r="G60" s="28"/>
       <c r="H60" s="28"/>
@@ -14107,22 +13910,21 @@
       <c r="FS60" s="23"/>
       <c r="FT60" s="24"/>
     </row>
-    <row r="61" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="50">
-        <v>0</v>
-      </c>
-      <c r="E61" s="36">
-        <v>45465</v>
-      </c>
-      <c r="F61" s="36">
-        <v>45468</v>
-      </c>
+    <row r="61" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A61" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B61" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" s="55"/>
+      <c r="D61" s="47"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="49"/>
       <c r="G61" s="28"/>
-      <c r="H61" s="28"/>
+      <c r="H61" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
@@ -14292,20 +14094,24 @@
       <c r="FS61" s="23"/>
       <c r="FT61" s="24"/>
     </row>
-    <row r="62" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B62" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C62" s="71"/>
-      <c r="D62" s="47"/>
-      <c r="E62" s="48"/>
-      <c r="F62" s="49"/>
+    <row r="62" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A62" s="8"/>
+      <c r="B62" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" s="54"/>
+      <c r="D62" s="50">
+        <v>0</v>
+      </c>
+      <c r="E62" s="36">
+        <v>45457</v>
+      </c>
+      <c r="F62" s="36">
+        <v>45458</v>
+      </c>
       <c r="G62" s="28"/>
-      <c r="H62" s="28" t="s">
-        <v>21</v>
+      <c r="H62" s="28">
+        <v>5</v>
       </c>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
@@ -14476,25 +14282,22 @@
       <c r="FS62" s="23"/>
       <c r="FT62" s="24"/>
     </row>
-    <row r="63" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="8"/>
-      <c r="B63" s="72" t="s">
-        <v>68</v>
-      </c>
-      <c r="C63" s="72"/>
+    <row r="63" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B63" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="54"/>
       <c r="D63" s="50">
         <v>0</v>
       </c>
       <c r="E63" s="36">
-        <v>45468</v>
+        <v>45458</v>
       </c>
       <c r="F63" s="36">
-        <v>45482</v>
+        <v>45465</v>
       </c>
       <c r="G63" s="28"/>
-      <c r="H63" s="28">
-        <v>5</v>
-      </c>
+      <c r="H63" s="28"/>
       <c r="I63" s="23"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
@@ -14664,25 +14467,22 @@
       <c r="FS63" s="23"/>
       <c r="FT63" s="24"/>
     </row>
-    <row r="64" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="8"/>
-      <c r="B64" s="72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" s="72"/>
+    <row r="64" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B64" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C64" s="54"/>
       <c r="D64" s="50">
         <v>0</v>
       </c>
       <c r="E64" s="36">
-        <v>45482</v>
+        <v>45465</v>
       </c>
       <c r="F64" s="36">
-        <v>45489</v>
+        <v>45468</v>
       </c>
       <c r="G64" s="28"/>
-      <c r="H64" s="28">
-        <v>5</v>
-      </c>
+      <c r="H64" s="28"/>
       <c r="I64" s="23"/>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
@@ -14852,22 +14652,21 @@
       <c r="FS64" s="23"/>
       <c r="FT64" s="24"/>
     </row>
-    <row r="65" spans="2:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C65" s="68"/>
-      <c r="D65" s="50">
-        <v>0</v>
-      </c>
-      <c r="E65" s="36">
-        <v>45489</v>
-      </c>
-      <c r="F65" s="36">
-        <v>45496</v>
-      </c>
+    <row r="65" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A65" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B65" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" s="55"/>
+      <c r="D65" s="47"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="49"/>
       <c r="G65" s="28"/>
-      <c r="H65" s="28"/>
+      <c r="H65" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I65" s="23"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
@@ -15037,22 +14836,25 @@
       <c r="FS65" s="23"/>
       <c r="FT65" s="24"/>
     </row>
-    <row r="66" spans="2:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="68"/>
+    <row r="66" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="8"/>
+      <c r="B66" s="57" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="57"/>
       <c r="D66" s="50">
         <v>0</v>
       </c>
       <c r="E66" s="36">
-        <v>45497</v>
+        <v>45468</v>
       </c>
       <c r="F66" s="36">
-        <v>45497</v>
+        <v>45482</v>
       </c>
       <c r="G66" s="28"/>
-      <c r="H66" s="28"/>
+      <c r="H66" s="28">
+        <v>5</v>
+      </c>
       <c r="I66" s="23"/>
       <c r="J66" s="23"/>
       <c r="K66" s="23"/>
@@ -15222,64 +15024,582 @@
       <c r="FS66" s="23"/>
       <c r="FT66" s="24"/>
     </row>
+    <row r="67" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A67" s="8"/>
+      <c r="B67" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="C67" s="57"/>
+      <c r="D67" s="50">
+        <v>0</v>
+      </c>
+      <c r="E67" s="36">
+        <v>45482</v>
+      </c>
+      <c r="F67" s="36">
+        <v>45489</v>
+      </c>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28">
+        <v>5</v>
+      </c>
+      <c r="I67" s="23"/>
+      <c r="J67" s="23"/>
+      <c r="K67" s="23"/>
+      <c r="L67" s="23"/>
+      <c r="M67" s="23"/>
+      <c r="N67" s="23"/>
+      <c r="O67" s="23"/>
+      <c r="P67" s="23"/>
+      <c r="Q67" s="23"/>
+      <c r="R67" s="23"/>
+      <c r="S67" s="23"/>
+      <c r="T67" s="23"/>
+      <c r="U67" s="23"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
+      <c r="X67" s="23"/>
+      <c r="Y67" s="23"/>
+      <c r="Z67" s="23"/>
+      <c r="AA67" s="23"/>
+      <c r="AB67" s="23"/>
+      <c r="AC67" s="23"/>
+      <c r="AD67" s="23"/>
+      <c r="AE67" s="23"/>
+      <c r="AF67" s="23"/>
+      <c r="AG67" s="23"/>
+      <c r="AH67" s="23"/>
+      <c r="AI67" s="23"/>
+      <c r="AJ67" s="23"/>
+      <c r="AK67" s="23"/>
+      <c r="AL67" s="23"/>
+      <c r="AM67" s="23"/>
+      <c r="AN67" s="23"/>
+      <c r="AO67" s="23"/>
+      <c r="AP67" s="23"/>
+      <c r="AQ67" s="24"/>
+      <c r="AR67" s="23"/>
+      <c r="AS67" s="23"/>
+      <c r="AT67" s="23"/>
+      <c r="AU67" s="23"/>
+      <c r="AV67" s="23"/>
+      <c r="AW67" s="23"/>
+      <c r="AX67" s="24"/>
+      <c r="AY67" s="23"/>
+      <c r="AZ67" s="23"/>
+      <c r="BA67" s="23"/>
+      <c r="BB67" s="23"/>
+      <c r="BC67" s="23"/>
+      <c r="BD67" s="23"/>
+      <c r="BE67" s="24"/>
+      <c r="BF67" s="23"/>
+      <c r="BG67" s="23"/>
+      <c r="BH67" s="23"/>
+      <c r="BI67" s="23"/>
+      <c r="BJ67" s="23"/>
+      <c r="BK67" s="23"/>
+      <c r="BL67" s="24"/>
+      <c r="BM67" s="23"/>
+      <c r="BN67" s="23"/>
+      <c r="BO67" s="23"/>
+      <c r="BP67" s="23"/>
+      <c r="BQ67" s="23"/>
+      <c r="BR67" s="23"/>
+      <c r="BS67" s="24"/>
+      <c r="BT67" s="23"/>
+      <c r="BU67" s="23"/>
+      <c r="BV67" s="23"/>
+      <c r="BW67" s="23"/>
+      <c r="BX67" s="23"/>
+      <c r="BY67" s="23"/>
+      <c r="BZ67" s="24"/>
+      <c r="CA67" s="23"/>
+      <c r="CB67" s="23"/>
+      <c r="CC67" s="23"/>
+      <c r="CD67" s="23"/>
+      <c r="CE67" s="23"/>
+      <c r="CF67" s="23"/>
+      <c r="CG67" s="24"/>
+      <c r="CH67" s="23"/>
+      <c r="CI67" s="23"/>
+      <c r="CJ67" s="23"/>
+      <c r="CK67" s="23"/>
+      <c r="CL67" s="23"/>
+      <c r="CM67" s="23"/>
+      <c r="CN67" s="24"/>
+      <c r="CO67" s="23"/>
+      <c r="CP67" s="23"/>
+      <c r="CQ67" s="23"/>
+      <c r="CR67" s="23"/>
+      <c r="CS67" s="23"/>
+      <c r="CT67" s="23"/>
+      <c r="CU67" s="24"/>
+      <c r="CV67" s="23"/>
+      <c r="CW67" s="23"/>
+      <c r="CX67" s="23"/>
+      <c r="CY67" s="23"/>
+      <c r="CZ67" s="23"/>
+      <c r="DA67" s="23"/>
+      <c r="DB67" s="24"/>
+      <c r="DC67" s="23"/>
+      <c r="DD67" s="23"/>
+      <c r="DE67" s="23"/>
+      <c r="DF67" s="23"/>
+      <c r="DG67" s="23"/>
+      <c r="DH67" s="23"/>
+      <c r="DI67" s="24"/>
+      <c r="DJ67" s="23"/>
+      <c r="DK67" s="23"/>
+      <c r="DL67" s="23"/>
+      <c r="DM67" s="23"/>
+      <c r="DN67" s="23"/>
+      <c r="DO67" s="23"/>
+      <c r="DP67" s="24"/>
+      <c r="DQ67" s="23"/>
+      <c r="DR67" s="23"/>
+      <c r="DS67" s="23"/>
+      <c r="DT67" s="23"/>
+      <c r="DU67" s="23"/>
+      <c r="DV67" s="23"/>
+      <c r="DW67" s="24"/>
+      <c r="DX67" s="23"/>
+      <c r="DY67" s="23"/>
+      <c r="DZ67" s="23"/>
+      <c r="EA67" s="23"/>
+      <c r="EB67" s="23"/>
+      <c r="EC67" s="23"/>
+      <c r="ED67" s="24"/>
+      <c r="EE67" s="23"/>
+      <c r="EF67" s="23"/>
+      <c r="EG67" s="23"/>
+      <c r="EH67" s="23"/>
+      <c r="EI67" s="23"/>
+      <c r="EJ67" s="23"/>
+      <c r="EK67" s="24"/>
+      <c r="EL67" s="23"/>
+      <c r="EM67" s="23"/>
+      <c r="EN67" s="23"/>
+      <c r="EO67" s="23"/>
+      <c r="EP67" s="23"/>
+      <c r="EQ67" s="23"/>
+      <c r="ER67" s="24"/>
+      <c r="ES67" s="23"/>
+      <c r="ET67" s="23"/>
+      <c r="EU67" s="23"/>
+      <c r="EV67" s="23"/>
+      <c r="EW67" s="23"/>
+      <c r="EX67" s="23"/>
+      <c r="EY67" s="24"/>
+      <c r="EZ67" s="23"/>
+      <c r="FA67" s="23"/>
+      <c r="FB67" s="23"/>
+      <c r="FC67" s="23"/>
+      <c r="FD67" s="23"/>
+      <c r="FE67" s="23"/>
+      <c r="FF67" s="24"/>
+      <c r="FG67" s="23"/>
+      <c r="FH67" s="23"/>
+      <c r="FI67" s="23"/>
+      <c r="FJ67" s="23"/>
+      <c r="FK67" s="23"/>
+      <c r="FL67" s="23"/>
+      <c r="FM67" s="24"/>
+      <c r="FN67" s="23"/>
+      <c r="FO67" s="23"/>
+      <c r="FP67" s="23"/>
+      <c r="FQ67" s="23"/>
+      <c r="FR67" s="23"/>
+      <c r="FS67" s="23"/>
+      <c r="FT67" s="24"/>
+    </row>
+    <row r="68" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B68" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68" s="54"/>
+      <c r="D68" s="50">
+        <v>0</v>
+      </c>
+      <c r="E68" s="36">
+        <v>45489</v>
+      </c>
+      <c r="F68" s="36">
+        <v>45496</v>
+      </c>
+      <c r="G68" s="28"/>
+      <c r="H68" s="28"/>
+      <c r="I68" s="23"/>
+      <c r="J68" s="23"/>
+      <c r="K68" s="23"/>
+      <c r="L68" s="23"/>
+      <c r="M68" s="23"/>
+      <c r="N68" s="23"/>
+      <c r="O68" s="23"/>
+      <c r="P68" s="23"/>
+      <c r="Q68" s="23"/>
+      <c r="R68" s="23"/>
+      <c r="S68" s="23"/>
+      <c r="T68" s="23"/>
+      <c r="U68" s="23"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
+      <c r="X68" s="23"/>
+      <c r="Y68" s="23"/>
+      <c r="Z68" s="23"/>
+      <c r="AA68" s="23"/>
+      <c r="AB68" s="23"/>
+      <c r="AC68" s="23"/>
+      <c r="AD68" s="23"/>
+      <c r="AE68" s="23"/>
+      <c r="AF68" s="23"/>
+      <c r="AG68" s="23"/>
+      <c r="AH68" s="23"/>
+      <c r="AI68" s="23"/>
+      <c r="AJ68" s="23"/>
+      <c r="AK68" s="23"/>
+      <c r="AL68" s="23"/>
+      <c r="AM68" s="23"/>
+      <c r="AN68" s="23"/>
+      <c r="AO68" s="23"/>
+      <c r="AP68" s="23"/>
+      <c r="AQ68" s="24"/>
+      <c r="AR68" s="23"/>
+      <c r="AS68" s="23"/>
+      <c r="AT68" s="23"/>
+      <c r="AU68" s="23"/>
+      <c r="AV68" s="23"/>
+      <c r="AW68" s="23"/>
+      <c r="AX68" s="24"/>
+      <c r="AY68" s="23"/>
+      <c r="AZ68" s="23"/>
+      <c r="BA68" s="23"/>
+      <c r="BB68" s="23"/>
+      <c r="BC68" s="23"/>
+      <c r="BD68" s="23"/>
+      <c r="BE68" s="24"/>
+      <c r="BF68" s="23"/>
+      <c r="BG68" s="23"/>
+      <c r="BH68" s="23"/>
+      <c r="BI68" s="23"/>
+      <c r="BJ68" s="23"/>
+      <c r="BK68" s="23"/>
+      <c r="BL68" s="24"/>
+      <c r="BM68" s="23"/>
+      <c r="BN68" s="23"/>
+      <c r="BO68" s="23"/>
+      <c r="BP68" s="23"/>
+      <c r="BQ68" s="23"/>
+      <c r="BR68" s="23"/>
+      <c r="BS68" s="24"/>
+      <c r="BT68" s="23"/>
+      <c r="BU68" s="23"/>
+      <c r="BV68" s="23"/>
+      <c r="BW68" s="23"/>
+      <c r="BX68" s="23"/>
+      <c r="BY68" s="23"/>
+      <c r="BZ68" s="24"/>
+      <c r="CA68" s="23"/>
+      <c r="CB68" s="23"/>
+      <c r="CC68" s="23"/>
+      <c r="CD68" s="23"/>
+      <c r="CE68" s="23"/>
+      <c r="CF68" s="23"/>
+      <c r="CG68" s="24"/>
+      <c r="CH68" s="23"/>
+      <c r="CI68" s="23"/>
+      <c r="CJ68" s="23"/>
+      <c r="CK68" s="23"/>
+      <c r="CL68" s="23"/>
+      <c r="CM68" s="23"/>
+      <c r="CN68" s="24"/>
+      <c r="CO68" s="23"/>
+      <c r="CP68" s="23"/>
+      <c r="CQ68" s="23"/>
+      <c r="CR68" s="23"/>
+      <c r="CS68" s="23"/>
+      <c r="CT68" s="23"/>
+      <c r="CU68" s="24"/>
+      <c r="CV68" s="23"/>
+      <c r="CW68" s="23"/>
+      <c r="CX68" s="23"/>
+      <c r="CY68" s="23"/>
+      <c r="CZ68" s="23"/>
+      <c r="DA68" s="23"/>
+      <c r="DB68" s="24"/>
+      <c r="DC68" s="23"/>
+      <c r="DD68" s="23"/>
+      <c r="DE68" s="23"/>
+      <c r="DF68" s="23"/>
+      <c r="DG68" s="23"/>
+      <c r="DH68" s="23"/>
+      <c r="DI68" s="24"/>
+      <c r="DJ68" s="23"/>
+      <c r="DK68" s="23"/>
+      <c r="DL68" s="23"/>
+      <c r="DM68" s="23"/>
+      <c r="DN68" s="23"/>
+      <c r="DO68" s="23"/>
+      <c r="DP68" s="24"/>
+      <c r="DQ68" s="23"/>
+      <c r="DR68" s="23"/>
+      <c r="DS68" s="23"/>
+      <c r="DT68" s="23"/>
+      <c r="DU68" s="23"/>
+      <c r="DV68" s="23"/>
+      <c r="DW68" s="24"/>
+      <c r="DX68" s="23"/>
+      <c r="DY68" s="23"/>
+      <c r="DZ68" s="23"/>
+      <c r="EA68" s="23"/>
+      <c r="EB68" s="23"/>
+      <c r="EC68" s="23"/>
+      <c r="ED68" s="24"/>
+      <c r="EE68" s="23"/>
+      <c r="EF68" s="23"/>
+      <c r="EG68" s="23"/>
+      <c r="EH68" s="23"/>
+      <c r="EI68" s="23"/>
+      <c r="EJ68" s="23"/>
+      <c r="EK68" s="24"/>
+      <c r="EL68" s="23"/>
+      <c r="EM68" s="23"/>
+      <c r="EN68" s="23"/>
+      <c r="EO68" s="23"/>
+      <c r="EP68" s="23"/>
+      <c r="EQ68" s="23"/>
+      <c r="ER68" s="24"/>
+      <c r="ES68" s="23"/>
+      <c r="ET68" s="23"/>
+      <c r="EU68" s="23"/>
+      <c r="EV68" s="23"/>
+      <c r="EW68" s="23"/>
+      <c r="EX68" s="23"/>
+      <c r="EY68" s="24"/>
+      <c r="EZ68" s="23"/>
+      <c r="FA68" s="23"/>
+      <c r="FB68" s="23"/>
+      <c r="FC68" s="23"/>
+      <c r="FD68" s="23"/>
+      <c r="FE68" s="23"/>
+      <c r="FF68" s="24"/>
+      <c r="FG68" s="23"/>
+      <c r="FH68" s="23"/>
+      <c r="FI68" s="23"/>
+      <c r="FJ68" s="23"/>
+      <c r="FK68" s="23"/>
+      <c r="FL68" s="23"/>
+      <c r="FM68" s="24"/>
+      <c r="FN68" s="23"/>
+      <c r="FO68" s="23"/>
+      <c r="FP68" s="23"/>
+      <c r="FQ68" s="23"/>
+      <c r="FR68" s="23"/>
+      <c r="FS68" s="23"/>
+      <c r="FT68" s="24"/>
+    </row>
+    <row r="69" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B69" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="54"/>
+      <c r="D69" s="50">
+        <v>0</v>
+      </c>
+      <c r="E69" s="36">
+        <v>45497</v>
+      </c>
+      <c r="F69" s="36">
+        <v>45497</v>
+      </c>
+      <c r="G69" s="28"/>
+      <c r="H69" s="28"/>
+      <c r="I69" s="23"/>
+      <c r="J69" s="23"/>
+      <c r="K69" s="23"/>
+      <c r="L69" s="23"/>
+      <c r="M69" s="23"/>
+      <c r="N69" s="23"/>
+      <c r="O69" s="23"/>
+      <c r="P69" s="23"/>
+      <c r="Q69" s="23"/>
+      <c r="R69" s="23"/>
+      <c r="S69" s="23"/>
+      <c r="T69" s="23"/>
+      <c r="U69" s="23"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
+      <c r="X69" s="23"/>
+      <c r="Y69" s="23"/>
+      <c r="Z69" s="23"/>
+      <c r="AA69" s="23"/>
+      <c r="AB69" s="23"/>
+      <c r="AC69" s="23"/>
+      <c r="AD69" s="23"/>
+      <c r="AE69" s="23"/>
+      <c r="AF69" s="23"/>
+      <c r="AG69" s="23"/>
+      <c r="AH69" s="23"/>
+      <c r="AI69" s="23"/>
+      <c r="AJ69" s="23"/>
+      <c r="AK69" s="23"/>
+      <c r="AL69" s="23"/>
+      <c r="AM69" s="23"/>
+      <c r="AN69" s="23"/>
+      <c r="AO69" s="23"/>
+      <c r="AP69" s="23"/>
+      <c r="AQ69" s="24"/>
+      <c r="AR69" s="23"/>
+      <c r="AS69" s="23"/>
+      <c r="AT69" s="23"/>
+      <c r="AU69" s="23"/>
+      <c r="AV69" s="23"/>
+      <c r="AW69" s="23"/>
+      <c r="AX69" s="24"/>
+      <c r="AY69" s="23"/>
+      <c r="AZ69" s="23"/>
+      <c r="BA69" s="23"/>
+      <c r="BB69" s="23"/>
+      <c r="BC69" s="23"/>
+      <c r="BD69" s="23"/>
+      <c r="BE69" s="24"/>
+      <c r="BF69" s="23"/>
+      <c r="BG69" s="23"/>
+      <c r="BH69" s="23"/>
+      <c r="BI69" s="23"/>
+      <c r="BJ69" s="23"/>
+      <c r="BK69" s="23"/>
+      <c r="BL69" s="24"/>
+      <c r="BM69" s="23"/>
+      <c r="BN69" s="23"/>
+      <c r="BO69" s="23"/>
+      <c r="BP69" s="23"/>
+      <c r="BQ69" s="23"/>
+      <c r="BR69" s="23"/>
+      <c r="BS69" s="24"/>
+      <c r="BT69" s="23"/>
+      <c r="BU69" s="23"/>
+      <c r="BV69" s="23"/>
+      <c r="BW69" s="23"/>
+      <c r="BX69" s="23"/>
+      <c r="BY69" s="23"/>
+      <c r="BZ69" s="24"/>
+      <c r="CA69" s="23"/>
+      <c r="CB69" s="23"/>
+      <c r="CC69" s="23"/>
+      <c r="CD69" s="23"/>
+      <c r="CE69" s="23"/>
+      <c r="CF69" s="23"/>
+      <c r="CG69" s="24"/>
+      <c r="CH69" s="23"/>
+      <c r="CI69" s="23"/>
+      <c r="CJ69" s="23"/>
+      <c r="CK69" s="23"/>
+      <c r="CL69" s="23"/>
+      <c r="CM69" s="23"/>
+      <c r="CN69" s="24"/>
+      <c r="CO69" s="23"/>
+      <c r="CP69" s="23"/>
+      <c r="CQ69" s="23"/>
+      <c r="CR69" s="23"/>
+      <c r="CS69" s="23"/>
+      <c r="CT69" s="23"/>
+      <c r="CU69" s="24"/>
+      <c r="CV69" s="23"/>
+      <c r="CW69" s="23"/>
+      <c r="CX69" s="23"/>
+      <c r="CY69" s="23"/>
+      <c r="CZ69" s="23"/>
+      <c r="DA69" s="23"/>
+      <c r="DB69" s="24"/>
+      <c r="DC69" s="23"/>
+      <c r="DD69" s="23"/>
+      <c r="DE69" s="23"/>
+      <c r="DF69" s="23"/>
+      <c r="DG69" s="23"/>
+      <c r="DH69" s="23"/>
+      <c r="DI69" s="24"/>
+      <c r="DJ69" s="23"/>
+      <c r="DK69" s="23"/>
+      <c r="DL69" s="23"/>
+      <c r="DM69" s="23"/>
+      <c r="DN69" s="23"/>
+      <c r="DO69" s="23"/>
+      <c r="DP69" s="24"/>
+      <c r="DQ69" s="23"/>
+      <c r="DR69" s="23"/>
+      <c r="DS69" s="23"/>
+      <c r="DT69" s="23"/>
+      <c r="DU69" s="23"/>
+      <c r="DV69" s="23"/>
+      <c r="DW69" s="24"/>
+      <c r="DX69" s="23"/>
+      <c r="DY69" s="23"/>
+      <c r="DZ69" s="23"/>
+      <c r="EA69" s="23"/>
+      <c r="EB69" s="23"/>
+      <c r="EC69" s="23"/>
+      <c r="ED69" s="24"/>
+      <c r="EE69" s="23"/>
+      <c r="EF69" s="23"/>
+      <c r="EG69" s="23"/>
+      <c r="EH69" s="23"/>
+      <c r="EI69" s="23"/>
+      <c r="EJ69" s="23"/>
+      <c r="EK69" s="24"/>
+      <c r="EL69" s="23"/>
+      <c r="EM69" s="23"/>
+      <c r="EN69" s="23"/>
+      <c r="EO69" s="23"/>
+      <c r="EP69" s="23"/>
+      <c r="EQ69" s="23"/>
+      <c r="ER69" s="24"/>
+      <c r="ES69" s="23"/>
+      <c r="ET69" s="23"/>
+      <c r="EU69" s="23"/>
+      <c r="EV69" s="23"/>
+      <c r="EW69" s="23"/>
+      <c r="EX69" s="23"/>
+      <c r="EY69" s="24"/>
+      <c r="EZ69" s="23"/>
+      <c r="FA69" s="23"/>
+      <c r="FB69" s="23"/>
+      <c r="FC69" s="23"/>
+      <c r="FD69" s="23"/>
+      <c r="FE69" s="23"/>
+      <c r="FF69" s="24"/>
+      <c r="FG69" s="23"/>
+      <c r="FH69" s="23"/>
+      <c r="FI69" s="23"/>
+      <c r="FJ69" s="23"/>
+      <c r="FK69" s="23"/>
+      <c r="FL69" s="23"/>
+      <c r="FM69" s="24"/>
+      <c r="FN69" s="23"/>
+      <c r="FO69" s="23"/>
+      <c r="FP69" s="23"/>
+      <c r="FQ69" s="23"/>
+      <c r="FR69" s="23"/>
+      <c r="FS69" s="23"/>
+      <c r="FT69" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
+  <mergeCells count="91">
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:C23"/>
-    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -15296,24 +15616,67 @@
     <mergeCell ref="EL4:ER4"/>
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B60:C60"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B40:C40"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D66">
+  <conditionalFormatting sqref="D7:D69">
     <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15327,129 +15690,39 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO66">
-    <cfRule type="expression" dxfId="24" priority="159">
+  <conditionalFormatting sqref="I5:DO69 DQ5:DV69 DX5:EC69 EE5:EJ69 EL5:EQ69 ES5:EX69 EZ5:FE69 FG5:FL69 FN5:FS69">
+    <cfRule type="expression" dxfId="6" priority="159">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO66">
-    <cfRule type="expression" dxfId="23" priority="158" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:DO69 DQ7:DV69 DX7:EC69 EE7:EJ69 EL7:EQ69 ES7:EX69 EZ7:FE69 FG7:FL69 FN7:FS69">
+    <cfRule type="expression" dxfId="5" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:FT66">
-    <cfRule type="expression" dxfId="22" priority="1">
+  <conditionalFormatting sqref="I7:FT69">
+    <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP66 DW5:DW66 ED5:ED66 EK5:EK66 ER5:ER66 EY5:EY66 FF5:FF66">
-    <cfRule type="expression" dxfId="21" priority="251">
+  <conditionalFormatting sqref="DP5:DP69 DW5:DW69 ED5:ED69 EK5:EK69 ER5:ER69 EY5:EY69 FF5:FF69">
+    <cfRule type="expression" dxfId="3" priority="251">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP66 DW7:DW66 ED7:ED66 EK7:EK66 ER7:ER66 EY7:EY66 FF7:FF66">
-    <cfRule type="expression" dxfId="20" priority="255" stopIfTrue="1">
+  <conditionalFormatting sqref="DP7:DP69 DW7:DW69 ED7:ED69 EK7:EK69 ER7:ER69 EY7:EY69 FF7:FF69">
+    <cfRule type="expression" dxfId="2" priority="255" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DQ5:DV66">
-    <cfRule type="expression" dxfId="19" priority="130">
-      <formula>AND(TODAY()&gt;=DQ$5,TODAY()&lt;DR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DQ7:DV66">
-    <cfRule type="expression" dxfId="18" priority="129" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DQ$5,task_start&lt;DR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DX5:EC66">
-    <cfRule type="expression" dxfId="17" priority="104">
-      <formula>AND(TODAY()&gt;=DX$5,TODAY()&lt;DY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DX7:EC66">
-    <cfRule type="expression" dxfId="16" priority="103" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DX$5,task_start&lt;DY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EE5:EJ66">
-    <cfRule type="expression" dxfId="15" priority="78">
-      <formula>AND(TODAY()&gt;=EE$5,TODAY()&lt;EF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EE7:EJ66">
-    <cfRule type="expression" dxfId="14" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=EE$5,task_start&lt;EF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EL5:EQ66">
-    <cfRule type="expression" dxfId="13" priority="64">
-      <formula>AND(TODAY()&gt;=EL$5,TODAY()&lt;EM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EL7:EQ66">
-    <cfRule type="expression" dxfId="12" priority="63" stopIfTrue="1">
-      <formula>AND(task_end&gt;=EL$5,task_start&lt;EM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ES5:EX66">
-    <cfRule type="expression" dxfId="11" priority="50">
-      <formula>AND(TODAY()&gt;=ES$5,TODAY()&lt;ET$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ES7:EX66">
-    <cfRule type="expression" dxfId="10" priority="49" stopIfTrue="1">
-      <formula>AND(task_end&gt;=ES$5,task_start&lt;ET$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EZ5:FE66">
-    <cfRule type="expression" dxfId="9" priority="36">
-      <formula>AND(TODAY()&gt;=EZ$5,TODAY()&lt;FA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="EZ7:FE66">
-    <cfRule type="expression" dxfId="8" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=EZ$5,task_start&lt;FA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FG5:FL66">
-    <cfRule type="expression" dxfId="7" priority="8">
-      <formula>AND(TODAY()&gt;=FG$5,TODAY()&lt;FH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FG7:FL66">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FG$5,task_start&lt;FH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FM5:FM66">
-    <cfRule type="expression" dxfId="5" priority="18">
+  <conditionalFormatting sqref="FM5:FM69 FT5:FT69">
+    <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM7:FM66">
-    <cfRule type="expression" dxfId="4" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="FM7:FM69 FT7:FT69">
+    <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FN5:FS66">
-    <cfRule type="expression" dxfId="3" priority="3">
-      <formula>AND(TODAY()&gt;=FN$5,TODAY()&lt;FO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FN7:FS66">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FN$5,task_start&lt;FO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FT5:FT66">
-    <cfRule type="expression" dxfId="1" priority="4">
-      <formula>AND(TODAY()&gt;=FT$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FT7:FT66">
-    <cfRule type="expression" dxfId="0" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FT$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -15479,7 +15752,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D66</xm:sqref>
+          <xm:sqref>D7:D69</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15488,6 +15761,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -15775,36 +16077,27 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15823,24 +16116,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41A699A8-DD1A-46D5-9CDF-68B7B7E01BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966A496-7D5D-426F-A998-2B2B238D735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -175,12 +175,6 @@
   </si>
   <si>
     <t>Preprocesamiento de tokens para datasets texto</t>
-  </si>
-  <si>
-    <t>Generación de iteradores para textos equilibrados</t>
-  </si>
-  <si>
-    <t>Aplicación de padding y agrupamiento por lotes</t>
   </si>
   <si>
     <t>Creación de modelo ensemble facial</t>
@@ -322,6 +316,24 @@
   </si>
   <si>
     <t>División y creación de los conjuntos train, validation y test texto</t>
+  </si>
+  <si>
+    <t>Preparación para la limpieza de datos de texto</t>
+  </si>
+  <si>
+    <t>Creación de data augmentation textual</t>
+  </si>
+  <si>
+    <t>Aplicación de padding y obtención de tokens para modelos pre-entrenados</t>
+  </si>
+  <si>
+    <t>Creación de entrada para modelos pre-entrenados Bert and RoBERTa</t>
+  </si>
+  <si>
+    <t>Creación modelos pre-entrenados textuales</t>
+  </si>
+  <si>
+    <t>Busqueda y optimización de modelos textuales</t>
   </si>
 </sst>
 </file>
@@ -1276,34 +1288,28 @@
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1324,16 +1330,22 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1933,47 +1945,47 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FT69"/>
+  <dimension ref="A1:FT73"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="40" zoomScaleNormal="40" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N27" sqref="N27"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7265625" style="7" customWidth="1"/>
-    <col min="2" max="2" width="40.26953125" customWidth="1"/>
-    <col min="3" max="3" width="64.54296875" customWidth="1"/>
-    <col min="4" max="4" width="15.54296875" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.7265625" customWidth="1"/>
-    <col min="7" max="7" width="3.1796875" customWidth="1"/>
-    <col min="8" max="8" width="6.1796875" hidden="1" customWidth="1"/>
-    <col min="9" max="20" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.26953125" customWidth="1"/>
-    <col min="22" max="70" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="6.54296875" customWidth="1"/>
-    <col min="72" max="91" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="64.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" customWidth="1"/>
+    <col min="5" max="5" width="12.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" customWidth="1"/>
+    <col min="8" max="8" width="6.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="20" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.28515625" customWidth="1"/>
+    <col min="22" max="70" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.5703125" customWidth="1"/>
+    <col min="72" max="91" width="4.42578125" bestFit="1" customWidth="1"/>
     <col min="92" max="92" width="3" bestFit="1" customWidth="1"/>
-    <col min="93" max="105" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="6.54296875" customWidth="1"/>
-    <col min="107" max="134" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="136" max="137" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="138" max="140" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="6.26953125" customWidth="1"/>
-    <col min="142" max="162" width="4.453125" bestFit="1" customWidth="1"/>
-    <col min="163" max="163" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="164" max="165" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="166" max="168" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="169" max="169" width="5.7265625" customWidth="1"/>
-    <col min="170" max="170" width="2.81640625" bestFit="1" customWidth="1"/>
-    <col min="171" max="171" width="3.81640625" bestFit="1" customWidth="1"/>
-    <col min="172" max="176" width="4.453125" bestFit="1" customWidth="1"/>
+    <col min="93" max="105" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="6.5703125" customWidth="1"/>
+    <col min="107" max="134" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="136" max="137" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="138" max="140" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="6.28515625" customWidth="1"/>
+    <col min="142" max="162" width="4.42578125" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="164" max="165" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="166" max="168" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="5.7109375" customWidth="1"/>
+    <col min="170" max="170" width="2.85546875" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="3.85546875" bestFit="1" customWidth="1"/>
+    <col min="172" max="176" width="4.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="1" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1987,444 +1999,444 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="52"/>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="64"/>
-      <c r="E3" s="66">
+      <c r="D3" s="62"/>
+      <c r="E3" s="64">
         <v>45323</v>
       </c>
-      <c r="F3" s="66"/>
-      <c r="I3" s="68" t="s">
-        <v>72</v>
-      </c>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
-      <c r="O3" s="69"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
-      <c r="AO3" s="69"/>
-      <c r="AP3" s="69"/>
-      <c r="AQ3" s="69"/>
-      <c r="AR3" s="69"/>
-      <c r="AS3" s="69"/>
-      <c r="AT3" s="69"/>
-      <c r="AU3" s="69"/>
-      <c r="AV3" s="69"/>
-      <c r="AW3" s="69"/>
-      <c r="AX3" s="69"/>
-      <c r="AY3" s="69"/>
-      <c r="AZ3" s="69"/>
-      <c r="BA3" s="69"/>
-      <c r="BB3" s="69"/>
-      <c r="BC3" s="69"/>
-      <c r="BD3" s="69"/>
-      <c r="BE3" s="69"/>
-      <c r="BF3" s="69"/>
-      <c r="BG3" s="69"/>
-      <c r="BH3" s="69"/>
-      <c r="BI3" s="69"/>
-      <c r="BJ3" s="69"/>
-      <c r="BK3" s="69"/>
-      <c r="BL3" s="69"/>
-      <c r="BM3" s="69"/>
-      <c r="BN3" s="69"/>
-      <c r="BO3" s="69"/>
-      <c r="BP3" s="69"/>
-      <c r="BQ3" s="69"/>
-      <c r="BR3" s="69"/>
-      <c r="BS3" s="69"/>
-      <c r="BT3" s="69"/>
-      <c r="BU3" s="69"/>
-      <c r="BV3" s="69"/>
-      <c r="BW3" s="69"/>
-      <c r="BX3" s="69"/>
-      <c r="BY3" s="69"/>
-      <c r="BZ3" s="69"/>
-      <c r="CA3" s="69"/>
-      <c r="CB3" s="69"/>
-      <c r="CC3" s="69"/>
-      <c r="CD3" s="69"/>
-      <c r="CE3" s="69"/>
-      <c r="CF3" s="69"/>
-      <c r="CG3" s="69"/>
-      <c r="CH3" s="69"/>
-      <c r="CI3" s="69"/>
-      <c r="CJ3" s="69"/>
-      <c r="CK3" s="69"/>
-      <c r="CL3" s="69"/>
-      <c r="CM3" s="69"/>
-      <c r="CN3" s="69"/>
-      <c r="CO3" s="69"/>
-      <c r="CP3" s="69"/>
-      <c r="CQ3" s="69"/>
-      <c r="CR3" s="69"/>
-      <c r="CS3" s="69"/>
-      <c r="CT3" s="69"/>
-      <c r="CU3" s="69"/>
-      <c r="CV3" s="69"/>
-      <c r="CW3" s="69"/>
-      <c r="CX3" s="69"/>
-      <c r="CY3" s="69"/>
-      <c r="CZ3" s="69"/>
-      <c r="DA3" s="69"/>
-      <c r="DB3" s="69"/>
-      <c r="DC3" s="69"/>
-      <c r="DD3" s="69"/>
-      <c r="DE3" s="69"/>
-      <c r="DF3" s="69"/>
-      <c r="DG3" s="69"/>
-      <c r="DH3" s="69"/>
-      <c r="DI3" s="69"/>
-      <c r="DJ3" s="69"/>
-      <c r="DK3" s="69"/>
-      <c r="DL3" s="69"/>
-      <c r="DM3" s="69"/>
-      <c r="DN3" s="69"/>
-      <c r="DO3" s="69"/>
-      <c r="DP3" s="69"/>
-      <c r="DQ3" s="69"/>
-      <c r="DR3" s="69"/>
-      <c r="DS3" s="69"/>
-      <c r="DT3" s="69"/>
-      <c r="DU3" s="69"/>
-      <c r="DV3" s="69"/>
-      <c r="DW3" s="69"/>
-      <c r="DX3" s="69"/>
-      <c r="DY3" s="69"/>
-      <c r="DZ3" s="69"/>
-      <c r="EA3" s="69"/>
-      <c r="EB3" s="69"/>
-      <c r="EC3" s="69"/>
-      <c r="ED3" s="69"/>
-      <c r="EE3" s="69"/>
-      <c r="EF3" s="69"/>
-      <c r="EG3" s="69"/>
-      <c r="EH3" s="69"/>
-      <c r="EI3" s="69"/>
-      <c r="EJ3" s="69"/>
-      <c r="EK3" s="69"/>
-      <c r="EL3" s="69"/>
-      <c r="EM3" s="69"/>
-      <c r="EN3" s="69"/>
-      <c r="EO3" s="69"/>
-      <c r="EP3" s="69"/>
-      <c r="EQ3" s="69"/>
-      <c r="ER3" s="69"/>
-      <c r="ES3" s="69"/>
-      <c r="ET3" s="69"/>
-      <c r="EU3" s="69"/>
-      <c r="EV3" s="69"/>
-      <c r="EW3" s="69"/>
-      <c r="EX3" s="69"/>
-      <c r="EY3" s="69"/>
-      <c r="EZ3" s="69"/>
-      <c r="FA3" s="69"/>
-      <c r="FB3" s="69"/>
-      <c r="FC3" s="69"/>
-      <c r="FD3" s="69"/>
-      <c r="FE3" s="69"/>
-      <c r="FF3" s="69"/>
-      <c r="FG3" s="69"/>
-      <c r="FH3" s="69"/>
-      <c r="FI3" s="69"/>
-      <c r="FJ3" s="69"/>
-      <c r="FK3" s="69"/>
-      <c r="FL3" s="69"/>
-      <c r="FM3" s="69"/>
+      <c r="F3" s="64"/>
+      <c r="I3" s="66" t="s">
+        <v>70</v>
+      </c>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="67"/>
+      <c r="DN3" s="67"/>
+      <c r="DO3" s="67"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="67"/>
+      <c r="DX3" s="67"/>
+      <c r="DY3" s="67"/>
+      <c r="DZ3" s="67"/>
+      <c r="EA3" s="67"/>
+      <c r="EB3" s="67"/>
+      <c r="EC3" s="67"/>
+      <c r="ED3" s="67"/>
+      <c r="EE3" s="67"/>
+      <c r="EF3" s="67"/>
+      <c r="EG3" s="67"/>
+      <c r="EH3" s="67"/>
+      <c r="EI3" s="67"/>
+      <c r="EJ3" s="67"/>
+      <c r="EK3" s="67"/>
+      <c r="EL3" s="67"/>
+      <c r="EM3" s="67"/>
+      <c r="EN3" s="67"/>
+      <c r="EO3" s="67"/>
+      <c r="EP3" s="67"/>
+      <c r="EQ3" s="67"/>
+      <c r="ER3" s="67"/>
+      <c r="ES3" s="67"/>
+      <c r="ET3" s="67"/>
+      <c r="EU3" s="67"/>
+      <c r="EV3" s="67"/>
+      <c r="EW3" s="67"/>
+      <c r="EX3" s="67"/>
+      <c r="EY3" s="67"/>
+      <c r="EZ3" s="67"/>
+      <c r="FA3" s="67"/>
+      <c r="FB3" s="67"/>
+      <c r="FC3" s="67"/>
+      <c r="FD3" s="67"/>
+      <c r="FE3" s="67"/>
+      <c r="FF3" s="67"/>
+      <c r="FG3" s="67"/>
+      <c r="FH3" s="67"/>
+      <c r="FI3" s="67"/>
+      <c r="FJ3" s="67"/>
+      <c r="FK3" s="67"/>
+      <c r="FL3" s="67"/>
+      <c r="FM3" s="67"/>
     </row>
-    <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="51"/>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="65"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="59">
+      <c r="I4" s="54">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="60"/>
-      <c r="K4" s="60"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="59">
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="54">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="60"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="59">
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="54">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="60"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="59">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="54">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="60"/>
-      <c r="AF4" s="60"/>
-      <c r="AG4" s="60"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="59">
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="54">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="59">
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="54">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="60"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="59">
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="54">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="60"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="59">
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="54">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="60"/>
-      <c r="BH4" s="60"/>
-      <c r="BI4" s="60"/>
-      <c r="BJ4" s="60"/>
-      <c r="BK4" s="60"/>
-      <c r="BL4" s="60"/>
-      <c r="BM4" s="59">
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="54">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="60"/>
-      <c r="BO4" s="60"/>
-      <c r="BP4" s="60"/>
-      <c r="BQ4" s="60"/>
-      <c r="BR4" s="60"/>
-      <c r="BS4" s="60"/>
-      <c r="BT4" s="59">
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="54">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="60"/>
-      <c r="BV4" s="60"/>
-      <c r="BW4" s="60"/>
-      <c r="BX4" s="60"/>
-      <c r="BY4" s="60"/>
-      <c r="BZ4" s="60"/>
-      <c r="CA4" s="59">
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="54">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="60"/>
-      <c r="CC4" s="60"/>
-      <c r="CD4" s="60"/>
-      <c r="CE4" s="60"/>
-      <c r="CF4" s="60"/>
-      <c r="CG4" s="60"/>
-      <c r="CH4" s="59">
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="54">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="60"/>
-      <c r="CJ4" s="60"/>
-      <c r="CK4" s="60"/>
-      <c r="CL4" s="60"/>
-      <c r="CM4" s="60"/>
-      <c r="CN4" s="60"/>
-      <c r="CO4" s="59">
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="55"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="54">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="60"/>
-      <c r="CQ4" s="60"/>
-      <c r="CR4" s="60"/>
-      <c r="CS4" s="60"/>
-      <c r="CT4" s="60"/>
-      <c r="CU4" s="60"/>
-      <c r="CV4" s="59">
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="54">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="60"/>
-      <c r="CX4" s="60"/>
-      <c r="CY4" s="60"/>
-      <c r="CZ4" s="60"/>
-      <c r="DA4" s="60"/>
-      <c r="DB4" s="60"/>
-      <c r="DC4" s="59">
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="55"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="54">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="60"/>
-      <c r="DE4" s="60"/>
-      <c r="DF4" s="60"/>
-      <c r="DG4" s="60"/>
-      <c r="DH4" s="60"/>
-      <c r="DI4" s="60"/>
-      <c r="DJ4" s="59">
+      <c r="DD4" s="55"/>
+      <c r="DE4" s="55"/>
+      <c r="DF4" s="55"/>
+      <c r="DG4" s="55"/>
+      <c r="DH4" s="55"/>
+      <c r="DI4" s="55"/>
+      <c r="DJ4" s="54">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="60"/>
-      <c r="DL4" s="60"/>
-      <c r="DM4" s="60"/>
-      <c r="DN4" s="60"/>
-      <c r="DO4" s="60"/>
-      <c r="DP4" s="60"/>
-      <c r="DQ4" s="59">
+      <c r="DK4" s="55"/>
+      <c r="DL4" s="55"/>
+      <c r="DM4" s="55"/>
+      <c r="DN4" s="55"/>
+      <c r="DO4" s="55"/>
+      <c r="DP4" s="55"/>
+      <c r="DQ4" s="54">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="60"/>
-      <c r="DS4" s="60"/>
-      <c r="DT4" s="60"/>
-      <c r="DU4" s="60"/>
-      <c r="DV4" s="60"/>
-      <c r="DW4" s="60"/>
-      <c r="DX4" s="59">
+      <c r="DR4" s="55"/>
+      <c r="DS4" s="55"/>
+      <c r="DT4" s="55"/>
+      <c r="DU4" s="55"/>
+      <c r="DV4" s="55"/>
+      <c r="DW4" s="55"/>
+      <c r="DX4" s="54">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="60"/>
-      <c r="DZ4" s="60"/>
-      <c r="EA4" s="60"/>
-      <c r="EB4" s="60"/>
-      <c r="EC4" s="60"/>
-      <c r="ED4" s="60"/>
-      <c r="EE4" s="59">
+      <c r="DY4" s="55"/>
+      <c r="DZ4" s="55"/>
+      <c r="EA4" s="55"/>
+      <c r="EB4" s="55"/>
+      <c r="EC4" s="55"/>
+      <c r="ED4" s="55"/>
+      <c r="EE4" s="54">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="60"/>
-      <c r="EG4" s="60"/>
-      <c r="EH4" s="60"/>
-      <c r="EI4" s="60"/>
-      <c r="EJ4" s="60"/>
-      <c r="EK4" s="60"/>
-      <c r="EL4" s="59">
+      <c r="EF4" s="55"/>
+      <c r="EG4" s="55"/>
+      <c r="EH4" s="55"/>
+      <c r="EI4" s="55"/>
+      <c r="EJ4" s="55"/>
+      <c r="EK4" s="55"/>
+      <c r="EL4" s="54">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="60"/>
-      <c r="EN4" s="60"/>
-      <c r="EO4" s="60"/>
-      <c r="EP4" s="60"/>
-      <c r="EQ4" s="60"/>
-      <c r="ER4" s="60"/>
-      <c r="ES4" s="59">
+      <c r="EM4" s="55"/>
+      <c r="EN4" s="55"/>
+      <c r="EO4" s="55"/>
+      <c r="EP4" s="55"/>
+      <c r="EQ4" s="55"/>
+      <c r="ER4" s="55"/>
+      <c r="ES4" s="54">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="60"/>
-      <c r="EU4" s="60"/>
-      <c r="EV4" s="60"/>
-      <c r="EW4" s="60"/>
-      <c r="EX4" s="60"/>
-      <c r="EY4" s="60"/>
-      <c r="EZ4" s="59">
+      <c r="ET4" s="55"/>
+      <c r="EU4" s="55"/>
+      <c r="EV4" s="55"/>
+      <c r="EW4" s="55"/>
+      <c r="EX4" s="55"/>
+      <c r="EY4" s="55"/>
+      <c r="EZ4" s="54">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="60"/>
-      <c r="FB4" s="60"/>
-      <c r="FC4" s="60"/>
-      <c r="FD4" s="60"/>
-      <c r="FE4" s="60"/>
-      <c r="FF4" s="60"/>
-      <c r="FG4" s="59">
+      <c r="FA4" s="55"/>
+      <c r="FB4" s="55"/>
+      <c r="FC4" s="55"/>
+      <c r="FD4" s="55"/>
+      <c r="FE4" s="55"/>
+      <c r="FF4" s="55"/>
+      <c r="FG4" s="54">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="60"/>
-      <c r="FI4" s="60"/>
-      <c r="FJ4" s="60"/>
-      <c r="FK4" s="60"/>
-      <c r="FL4" s="60"/>
-      <c r="FM4" s="60"/>
-      <c r="FN4" s="59">
+      <c r="FH4" s="55"/>
+      <c r="FI4" s="55"/>
+      <c r="FJ4" s="55"/>
+      <c r="FK4" s="55"/>
+      <c r="FL4" s="55"/>
+      <c r="FM4" s="55"/>
+      <c r="FN4" s="54">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="60"/>
-      <c r="FP4" s="60"/>
-      <c r="FQ4" s="60"/>
-      <c r="FR4" s="60"/>
-      <c r="FS4" s="60"/>
-      <c r="FT4" s="60"/>
+      <c r="FO4" s="55"/>
+      <c r="FP4" s="55"/>
+      <c r="FQ4" s="55"/>
+      <c r="FR4" s="55"/>
+      <c r="FS4" s="55"/>
+      <c r="FT4" s="55"/>
     </row>
-    <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -3108,14 +3120,14 @@
         <v>45487</v>
       </c>
     </row>
-    <row r="6" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="72" t="s">
+      <c r="B6" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -3802,7 +3814,7 @@
         <v>d</v>
       </c>
     </row>
-    <row r="7" spans="1:176" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:176" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -3985,20 +3997,20 @@
       <c r="FS7" s="23"/>
       <c r="FT7" s="24"/>
     </row>
-    <row r="8" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="str">
-        <f t="shared" ref="H8:H46" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H50" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -4170,14 +4182,14 @@
       <c r="FS8" s="23"/>
       <c r="FT8" s="24"/>
     </row>
-    <row r="9" spans="1:176" s="3" customFormat="1" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:176" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -4363,14 +4375,14 @@
       <c r="FS9" s="23"/>
       <c r="FT9" s="24"/>
     </row>
-    <row r="10" spans="1:176" s="3" customFormat="1" ht="30.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:176" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -4556,14 +4568,14 @@
       <c r="FS10" s="23"/>
       <c r="FT10" s="24"/>
     </row>
-    <row r="11" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -4748,12 +4760,12 @@
       <c r="FS11" s="23"/>
       <c r="FT11" s="24"/>
     </row>
-    <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="62"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -4937,12 +4949,12 @@
       <c r="FS12" s="23"/>
       <c r="FT12" s="24"/>
     </row>
-    <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="62"/>
+      <c r="B13" s="69" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="69"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -5126,12 +5138,12 @@
       <c r="FS13" s="23"/>
       <c r="FT13" s="24"/>
     </row>
-    <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -5312,12 +5324,12 @@
       <c r="FS14" s="23"/>
       <c r="FT14" s="24"/>
     </row>
-    <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7"/>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="29">
         <v>1</v>
       </c>
@@ -5501,12 +5513,12 @@
       <c r="FS15" s="23"/>
       <c r="FT15" s="24"/>
     </row>
-    <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="62"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="29">
         <v>1</v>
       </c>
@@ -5514,12 +5526,12 @@
         <v>45358</v>
       </c>
       <c r="F16" s="30">
-        <v>45362</v>
+        <v>45440</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28">
         <f t="shared" si="117"/>
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -5690,14 +5702,14 @@
       <c r="FS16" s="23"/>
       <c r="FT16" s="24"/>
     </row>
-    <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="70"/>
+      <c r="C17" s="57"/>
       <c r="D17" s="32"/>
       <c r="E17" s="33"/>
       <c r="F17" s="34"/>
@@ -5875,12 +5887,12 @@
       <c r="FS17" s="23"/>
       <c r="FT17" s="24"/>
     </row>
-    <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="63" t="s">
+      <c r="B18" s="70" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="63"/>
+      <c r="C18" s="70"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -6064,12 +6076,12 @@
       <c r="FS18" s="23"/>
       <c r="FT18" s="24"/>
     </row>
-    <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8"/>
-      <c r="B19" s="63" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="63"/>
+      <c r="B19" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="70"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -6250,12 +6262,12 @@
       <c r="FS19" s="23"/>
       <c r="FT19" s="24"/>
     </row>
-    <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="63"/>
+      <c r="B20" s="70" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="70"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -6263,12 +6275,12 @@
         <v>45362</v>
       </c>
       <c r="F20" s="36">
-        <v>45412</v>
+        <v>45438</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28">
         <f t="shared" si="117"/>
-        <v>51</v>
+        <v>77</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -6439,12 +6451,12 @@
       <c r="FS20" s="23"/>
       <c r="FT20" s="24"/>
     </row>
-    <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="63"/>
+      <c r="B21" s="70" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="70"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -6452,12 +6464,12 @@
         <v>45363</v>
       </c>
       <c r="F21" s="36">
-        <v>45412</v>
+        <v>45438</v>
       </c>
       <c r="G21" s="28"/>
       <c r="H21" s="28">
         <f t="shared" si="117"/>
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
@@ -6628,12 +6640,12 @@
       <c r="FS21" s="23"/>
       <c r="FT21" s="24"/>
     </row>
-    <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="63"/>
+      <c r="B22" s="70" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="70"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -6641,13 +6653,10 @@
         <v>45363</v>
       </c>
       <c r="F22" s="36">
-        <v>45412</v>
+        <v>45438</v>
       </c>
       <c r="G22" s="28"/>
-      <c r="H22" s="28">
-        <f t="shared" si="117"/>
-        <v>50</v>
-      </c>
+      <c r="H22" s="28"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
       <c r="K22" s="23"/>
@@ -6817,22 +6826,23 @@
       <c r="FS22" s="23"/>
       <c r="FT22" s="24"/>
     </row>
-    <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="71"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="38"/>
-      <c r="F23" s="39"/>
+    <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="70" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="70"/>
+      <c r="D23" s="35">
+        <v>1</v>
+      </c>
+      <c r="E23" s="36">
+        <v>45363</v>
+      </c>
+      <c r="F23" s="36">
+        <v>45440</v>
+      </c>
       <c r="G23" s="28"/>
-      <c r="H23" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
+      <c r="H23" s="28"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -6845,8 +6855,8 @@
       <c r="R23" s="23"/>
       <c r="S23" s="23"/>
       <c r="T23" s="23"/>
-      <c r="U23" s="23"/>
-      <c r="V23" s="23"/>
+      <c r="U23" s="31"/>
+      <c r="V23" s="31"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
       <c r="Y23" s="23"/>
@@ -7002,25 +7012,25 @@
       <c r="FS23" s="23"/>
       <c r="FT23" s="24"/>
     </row>
-    <row r="24" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7"/>
-      <c r="B24" s="56" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="56"/>
-      <c r="D24" s="40">
+      <c r="B24" s="70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="70"/>
+      <c r="D24" s="35">
         <v>1</v>
       </c>
-      <c r="E24" s="41">
-        <v>45364</v>
-      </c>
-      <c r="F24" s="41">
-        <v>45382</v>
+      <c r="E24" s="36">
+        <v>45363</v>
+      </c>
+      <c r="F24" s="36">
+        <v>45442</v>
       </c>
       <c r="G24" s="28"/>
       <c r="H24" s="28">
         <f t="shared" si="117"/>
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -7034,8 +7044,8 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="23"/>
-      <c r="V24" s="23"/>
+      <c r="U24" s="31"/>
+      <c r="V24" s="31"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
@@ -7191,23 +7201,22 @@
       <c r="FS24" s="23"/>
       <c r="FT24" s="24"/>
     </row>
-    <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="7"/>
-      <c r="B25" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" s="56"/>
-      <c r="D25" s="40">
-        <v>1</v>
-      </c>
-      <c r="E25" s="41">
-        <v>45364</v>
-      </c>
-      <c r="F25" s="41">
-        <v>45384</v>
-      </c>
+    <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="58"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="39"/>
       <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
+      <c r="H25" s="28" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
@@ -7377,23 +7386,26 @@
       <c r="FS25" s="23"/>
       <c r="FT25" s="24"/>
     </row>
-    <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
       <c r="B26" s="56" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C26" s="56"/>
       <c r="D26" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E26" s="41">
-        <v>45384</v>
+        <v>45364</v>
       </c>
       <c r="F26" s="41">
-        <v>45425</v>
+        <v>45382</v>
       </c>
       <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
+      <c r="H26" s="28">
+        <f t="shared" si="117"/>
+        <v>19</v>
+      </c>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -7563,26 +7575,23 @@
       <c r="FS26" s="23"/>
       <c r="FT26" s="24"/>
     </row>
-    <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
       <c r="B27" s="56" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C27" s="56"/>
       <c r="D27" s="40">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="E27" s="41">
+        <v>45364</v>
+      </c>
+      <c r="F27" s="41">
         <v>45384</v>
       </c>
-      <c r="F27" s="41">
-        <v>45425</v>
-      </c>
       <c r="G27" s="28"/>
-      <c r="H27" s="28">
-        <f t="shared" si="117"/>
-        <v>42</v>
-      </c>
+      <c r="H27" s="28"/>
       <c r="I27" s="23"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
@@ -7752,26 +7761,23 @@
       <c r="FS27" s="23"/>
       <c r="FT27" s="24"/>
     </row>
-    <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
       <c r="B28" s="56" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="C28" s="56"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
       <c r="E28" s="41">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="F28" s="41">
-        <v>45384</v>
+        <v>45425</v>
       </c>
       <c r="G28" s="28"/>
-      <c r="H28" s="28">
-        <f t="shared" si="117"/>
-        <v>6</v>
-      </c>
+      <c r="H28" s="28"/>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -7941,10 +7947,10 @@
       <c r="FS28" s="23"/>
       <c r="FT28" s="24"/>
     </row>
-    <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
       <c r="B29" s="56" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C29" s="56"/>
       <c r="D29" s="40">
@@ -7954,12 +7960,12 @@
         <v>45384</v>
       </c>
       <c r="F29" s="41">
-        <v>45386</v>
+        <v>45425</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28">
         <f t="shared" si="117"/>
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -8130,25 +8136,25 @@
       <c r="FS29" s="23"/>
       <c r="FT29" s="24"/>
     </row>
-    <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="56" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="56"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
       <c r="E30" s="41">
-        <v>45386</v>
+        <v>45379</v>
       </c>
       <c r="F30" s="41">
-        <v>45390</v>
+        <v>45384</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28">
         <f t="shared" si="117"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
@@ -8319,25 +8325,25 @@
       <c r="FS30" s="23"/>
       <c r="FT30" s="24"/>
     </row>
-    <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
       <c r="B31" s="56" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="C31" s="56"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
       <c r="E31" s="41">
-        <v>45390</v>
+        <v>45384</v>
       </c>
       <c r="F31" s="41">
-        <v>45401</v>
+        <v>45386</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28">
         <f t="shared" si="117"/>
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -8508,25 +8514,25 @@
       <c r="FS31" s="23"/>
       <c r="FT31" s="24"/>
     </row>
-    <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
       <c r="B32" s="56" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C32" s="56"/>
       <c r="D32" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E32" s="41">
-        <v>45397</v>
+        <v>45386</v>
       </c>
       <c r="F32" s="41">
-        <v>45425</v>
+        <v>45390</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28">
         <f t="shared" si="117"/>
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -8697,25 +8703,25 @@
       <c r="FS32" s="23"/>
       <c r="FT32" s="24"/>
     </row>
-    <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
       <c r="B33" s="56" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="C33" s="56"/>
       <c r="D33" s="40">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E33" s="41">
-        <v>45384</v>
+        <v>45390</v>
       </c>
       <c r="F33" s="41">
-        <v>45425</v>
+        <v>45401</v>
       </c>
       <c r="G33" s="28"/>
       <c r="H33" s="28">
         <f t="shared" si="117"/>
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
@@ -8886,22 +8892,23 @@
       <c r="FS33" s="23"/>
       <c r="FT33" s="24"/>
     </row>
-    <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A34" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B34" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="58"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
+    <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="40">
+        <v>1</v>
+      </c>
+      <c r="E34" s="41">
+        <v>45390</v>
+      </c>
+      <c r="F34" s="41">
+        <v>45446</v>
+      </c>
       <c r="G34" s="28"/>
-      <c r="H34" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
+      <c r="H34" s="28"/>
       <c r="I34" s="23"/>
       <c r="J34" s="23"/>
       <c r="K34" s="23"/>
@@ -9071,26 +9078,23 @@
       <c r="FS34" s="23"/>
       <c r="FT34" s="24"/>
     </row>
-    <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="45">
+      <c r="B35" s="56" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="56"/>
+      <c r="D35" s="40">
         <v>1</v>
       </c>
-      <c r="E35" s="46">
-        <v>45391</v>
-      </c>
-      <c r="F35" s="46">
-        <v>45398</v>
+      <c r="E35" s="41">
+        <v>45390</v>
+      </c>
+      <c r="F35" s="41">
+        <v>45446</v>
       </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="28">
-        <f t="shared" si="117"/>
-        <v>8</v>
-      </c>
+      <c r="H35" s="28"/>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -9260,25 +9264,25 @@
       <c r="FS35" s="23"/>
       <c r="FT35" s="24"/>
     </row>
-    <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="53"/>
-      <c r="D36" s="45">
+      <c r="B36" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="56"/>
+      <c r="D36" s="40">
         <v>1</v>
       </c>
-      <c r="E36" s="46">
-        <v>45390</v>
-      </c>
-      <c r="F36" s="46">
-        <v>45393</v>
+      <c r="E36" s="41">
+        <v>45397</v>
+      </c>
+      <c r="F36" s="41">
+        <v>45447</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28">
         <f t="shared" si="117"/>
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -9449,25 +9453,25 @@
       <c r="FS36" s="23"/>
       <c r="FT36" s="24"/>
     </row>
-    <row r="37" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7"/>
-      <c r="B37" s="53" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="45">
-        <v>0.3</v>
-      </c>
-      <c r="E37" s="46">
-        <v>45394</v>
-      </c>
-      <c r="F37" s="46">
-        <v>45431</v>
+      <c r="B37" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="56"/>
+      <c r="D37" s="40">
+        <v>0.9</v>
+      </c>
+      <c r="E37" s="41">
+        <v>45384</v>
+      </c>
+      <c r="F37" s="41">
+        <v>45451</v>
       </c>
       <c r="G37" s="28"/>
       <c r="H37" s="28">
         <f t="shared" si="117"/>
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -9638,25 +9642,21 @@
       <c r="FS37" s="23"/>
       <c r="FT37" s="24"/>
     </row>
-    <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A38" s="7"/>
-      <c r="B38" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C38" s="53"/>
-      <c r="D38" s="45">
-        <v>0</v>
-      </c>
-      <c r="E38" s="46">
-        <v>45431</v>
-      </c>
-      <c r="F38" s="46">
-        <v>45438</v>
-      </c>
+    <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38" s="73"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="44"/>
       <c r="G38" s="28"/>
-      <c r="H38" s="28">
+      <c r="H38" s="28" t="str">
         <f t="shared" si="117"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -9827,25 +9827,25 @@
       <c r="FS38" s="23"/>
       <c r="FT38" s="24"/>
     </row>
-    <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
       <c r="B39" s="53" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="C39" s="53"/>
       <c r="D39" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="46">
-        <v>45438</v>
+        <v>45391</v>
       </c>
       <c r="F39" s="46">
-        <v>45443</v>
+        <v>45398</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28">
         <f t="shared" si="117"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
@@ -10016,23 +10016,26 @@
       <c r="FS39" s="23"/>
       <c r="FT39" s="24"/>
     </row>
-    <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
       <c r="B40" s="53" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C40" s="53"/>
       <c r="D40" s="45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="46">
-        <v>45443</v>
+        <v>45390</v>
       </c>
       <c r="F40" s="46">
-        <v>45444</v>
+        <v>45393</v>
       </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28"/>
+      <c r="H40" s="28">
+        <f t="shared" si="117"/>
+        <v>4</v>
+      </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
@@ -10202,23 +10205,26 @@
       <c r="FS40" s="23"/>
       <c r="FT40" s="24"/>
     </row>
-    <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
       <c r="B41" s="53" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C41" s="53"/>
       <c r="D41" s="45">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E41" s="46">
-        <v>45444</v>
+        <v>45394</v>
       </c>
       <c r="F41" s="46">
-        <v>45444</v>
+        <v>45454</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28"/>
+      <c r="H41" s="28">
+        <f t="shared" si="117"/>
+        <v>61</v>
+      </c>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -10388,23 +10394,26 @@
       <c r="FS41" s="23"/>
       <c r="FT41" s="24"/>
     </row>
-    <row r="42" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
       <c r="B42" s="53" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C42" s="53"/>
       <c r="D42" s="45">
         <v>0</v>
       </c>
       <c r="E42" s="46">
-        <v>45444</v>
+        <v>45454</v>
       </c>
       <c r="F42" s="46">
-        <v>45446</v>
+        <v>45461</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="28"/>
+      <c r="H42" s="28">
+        <f t="shared" si="117"/>
+        <v>8</v>
+      </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
@@ -10574,21 +10583,25 @@
       <c r="FS42" s="23"/>
       <c r="FT42" s="24"/>
     </row>
-    <row r="43" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B43" s="55" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" s="55"/>
-      <c r="D43" s="47"/>
-      <c r="E43" s="48"/>
-      <c r="F43" s="49"/>
+    <row r="43" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="53"/>
+      <c r="D43" s="45">
+        <v>0</v>
+      </c>
+      <c r="E43" s="46">
+        <v>45461</v>
+      </c>
+      <c r="F43" s="46">
+        <v>45468</v>
+      </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="28" t="str">
+      <c r="H43" s="28">
         <f t="shared" si="117"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
@@ -10759,26 +10772,23 @@
       <c r="FS43" s="23"/>
       <c r="FT43" s="24"/>
     </row>
-    <row r="44" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="8"/>
-      <c r="B44" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" s="54"/>
-      <c r="D44" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E44" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F44" s="36">
-        <v>45446</v>
+    <row r="44" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44" s="53"/>
+      <c r="D44" s="45">
+        <v>0</v>
+      </c>
+      <c r="E44" s="46">
+        <v>45468</v>
+      </c>
+      <c r="F44" s="46">
+        <v>45473</v>
       </c>
       <c r="G44" s="28"/>
-      <c r="H44" s="28">
-        <f t="shared" si="117"/>
-        <v>59</v>
-      </c>
+      <c r="H44" s="28"/>
       <c r="I44" s="23"/>
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
@@ -10948,19 +10958,20 @@
       <c r="FS44" s="23"/>
       <c r="FT44" s="24"/>
     </row>
-    <row r="45" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B45" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="50">
-        <v>1</v>
-      </c>
-      <c r="E45" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F45" s="36">
-        <v>45425</v>
+    <row r="45" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="53"/>
+      <c r="D45" s="45">
+        <v>0</v>
+      </c>
+      <c r="E45" s="46">
+        <v>45468</v>
+      </c>
+      <c r="F45" s="46">
+        <v>45473</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28"/>
@@ -11133,22 +11144,23 @@
       <c r="FS45" s="23"/>
       <c r="FT45" s="24"/>
     </row>
-    <row r="46" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B46" s="55" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="55"/>
-      <c r="D46" s="47"/>
-      <c r="E46" s="48"/>
-      <c r="F46" s="49"/>
+    <row r="46" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="53" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="53"/>
+      <c r="D46" s="45">
+        <v>0</v>
+      </c>
+      <c r="E46" s="46">
+        <v>45473</v>
+      </c>
+      <c r="F46" s="46">
+        <v>45476</v>
+      </c>
       <c r="G46" s="28"/>
-      <c r="H46" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
+      <c r="H46" s="28"/>
       <c r="I46" s="23"/>
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
@@ -11318,22 +11330,22 @@
       <c r="FS46" s="23"/>
       <c r="FT46" s="24"/>
     </row>
-    <row r="47" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B47" s="54" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="50">
-        <v>1</v>
-      </c>
-      <c r="E47" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F47" s="36">
-        <v>45411</v>
-      </c>
+    <row r="47" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47" s="71" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="71"/>
+      <c r="D47" s="47"/>
+      <c r="E47" s="48"/>
+      <c r="F47" s="49"/>
       <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
+      <c r="H47" s="28" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
       <c r="I47" s="23"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
@@ -11503,22 +11515,26 @@
       <c r="FS47" s="23"/>
       <c r="FT47" s="24"/>
     </row>
-    <row r="48" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B48" s="54" t="s">
-        <v>48</v>
-      </c>
-      <c r="C48" s="54"/>
+    <row r="48" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="8"/>
+      <c r="B48" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C48" s="68"/>
       <c r="D48" s="50">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="E48" s="36">
         <v>45388</v>
       </c>
       <c r="F48" s="36">
-        <v>45446</v>
+        <v>45479</v>
       </c>
       <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
+      <c r="H48" s="28">
+        <f t="shared" si="117"/>
+        <v>92</v>
+      </c>
       <c r="I48" s="23"/>
       <c r="J48" s="23"/>
       <c r="K48" s="23"/>
@@ -11688,11 +11704,11 @@
       <c r="FS48" s="23"/>
       <c r="FT48" s="24"/>
     </row>
-    <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B49" s="54" t="s">
-        <v>47</v>
-      </c>
-      <c r="C49" s="54"/>
+    <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="68"/>
       <c r="D49" s="50">
         <v>0.5</v>
       </c>
@@ -11700,7 +11716,7 @@
         <v>45388</v>
       </c>
       <c r="F49" s="36">
-        <v>45448</v>
+        <v>45483</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -11873,22 +11889,22 @@
       <c r="FS49" s="23"/>
       <c r="FT49" s="24"/>
     </row>
-    <row r="50" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="54" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E50" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F50" s="36">
-        <v>45452</v>
-      </c>
+    <row r="50" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" s="71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="71"/>
+      <c r="D50" s="47"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="49"/>
       <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="H50" s="28" t="str">
+        <f t="shared" si="117"/>
+        <v/>
+      </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -12058,22 +12074,22 @@
       <c r="FS50" s="23"/>
       <c r="FT50" s="24"/>
     </row>
-    <row r="51" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B51" s="55" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="55"/>
-      <c r="D51" s="47"/>
-      <c r="E51" s="48"/>
-      <c r="F51" s="49"/>
+    <row r="51" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" s="68"/>
+      <c r="D51" s="50">
+        <v>1</v>
+      </c>
+      <c r="E51" s="36">
+        <v>45388</v>
+      </c>
+      <c r="F51" s="36">
+        <v>45411</v>
+      </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="28" t="str">
-        <f t="shared" ref="H51" si="118">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
+      <c r="H51" s="28"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
@@ -12243,19 +12259,19 @@
       <c r="FS51" s="23"/>
       <c r="FT51" s="24"/>
     </row>
-    <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B52" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="C52" s="54"/>
+    <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="68" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="68"/>
       <c r="D52" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E52" s="36">
-        <v>45452</v>
+        <v>45388</v>
       </c>
       <c r="F52" s="36">
-        <v>45452</v>
+        <v>45488</v>
       </c>
       <c r="G52" s="28"/>
       <c r="H52" s="28"/>
@@ -12428,19 +12444,19 @@
       <c r="FS52" s="23"/>
       <c r="FT52" s="24"/>
     </row>
-    <row r="53" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B53" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="C53" s="54"/>
+    <row r="53" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="68" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53" s="68"/>
       <c r="D53" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E53" s="36">
-        <v>45452</v>
+        <v>45488</v>
       </c>
       <c r="F53" s="36">
-        <v>45452</v>
+        <v>45493</v>
       </c>
       <c r="G53" s="28"/>
       <c r="H53" s="28"/>
@@ -12613,19 +12629,19 @@
       <c r="FS53" s="23"/>
       <c r="FT53" s="24"/>
     </row>
-    <row r="54" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B54" s="54" t="s">
-        <v>55</v>
-      </c>
-      <c r="C54" s="54"/>
+    <row r="54" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="68"/>
       <c r="D54" s="50">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E54" s="36">
-        <v>45452</v>
+        <v>45493</v>
       </c>
       <c r="F54" s="36">
-        <v>45457</v>
+        <v>45499</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="28"/>
@@ -12798,22 +12814,22 @@
       <c r="FS54" s="23"/>
       <c r="FT54" s="24"/>
     </row>
-    <row r="55" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B55" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="50">
-        <v>0</v>
-      </c>
-      <c r="E55" s="36">
-        <v>45457</v>
-      </c>
-      <c r="F55" s="36">
-        <v>45457</v>
-      </c>
+    <row r="55" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B55" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="71"/>
+      <c r="D55" s="47"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="49"/>
       <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
+      <c r="H55" s="28" t="str">
+        <f t="shared" ref="H55" si="118">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <v/>
+      </c>
       <c r="I55" s="23"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
@@ -12983,21 +12999,22 @@
       <c r="FS55" s="23"/>
       <c r="FT55" s="24"/>
     </row>
-    <row r="56" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A56" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B56" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="C56" s="55"/>
-      <c r="D56" s="47"/>
-      <c r="E56" s="48"/>
-      <c r="F56" s="49"/>
+    <row r="56" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="C56" s="68"/>
+      <c r="D56" s="50">
+        <v>0</v>
+      </c>
+      <c r="E56" s="36">
+        <v>45499</v>
+      </c>
+      <c r="F56" s="36">
+        <v>45499</v>
+      </c>
       <c r="G56" s="28"/>
-      <c r="H56" s="28" t="s">
-        <v>21</v>
-      </c>
+      <c r="H56" s="28"/>
       <c r="I56" s="23"/>
       <c r="J56" s="23"/>
       <c r="K56" s="23"/>
@@ -13167,25 +13184,22 @@
       <c r="FS56" s="23"/>
       <c r="FT56" s="24"/>
     </row>
-    <row r="57" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="8"/>
-      <c r="B57" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C57" s="54"/>
+    <row r="57" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C57" s="68"/>
       <c r="D57" s="50">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E57" s="36">
-        <v>45457</v>
+        <v>45499</v>
       </c>
       <c r="F57" s="36">
-        <v>45457</v>
+        <v>45499</v>
       </c>
       <c r="G57" s="28"/>
-      <c r="H57" s="28">
-        <v>5</v>
-      </c>
+      <c r="H57" s="28"/>
       <c r="I57" s="23"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
@@ -13355,19 +13369,19 @@
       <c r="FS57" s="23"/>
       <c r="FT57" s="24"/>
     </row>
-    <row r="58" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B58" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="54"/>
+    <row r="58" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="68"/>
       <c r="D58" s="50">
         <v>0</v>
       </c>
       <c r="E58" s="36">
-        <v>45457</v>
+        <v>45499</v>
       </c>
       <c r="F58" s="36">
-        <v>45457</v>
+        <v>45504</v>
       </c>
       <c r="G58" s="28"/>
       <c r="H58" s="28"/>
@@ -13540,19 +13554,19 @@
       <c r="FS58" s="23"/>
       <c r="FT58" s="24"/>
     </row>
-    <row r="59" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B59" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="54"/>
+    <row r="59" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="68"/>
       <c r="D59" s="50">
         <v>0</v>
       </c>
       <c r="E59" s="36">
-        <v>45457</v>
+        <v>45504</v>
       </c>
       <c r="F59" s="36">
-        <v>45457</v>
+        <v>45514</v>
       </c>
       <c r="G59" s="28"/>
       <c r="H59" s="28"/>
@@ -13725,22 +13739,21 @@
       <c r="FS59" s="23"/>
       <c r="FT59" s="24"/>
     </row>
-    <row r="60" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B60" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C60" s="54"/>
-      <c r="D60" s="50">
-        <v>0</v>
-      </c>
-      <c r="E60" s="36">
-        <v>45457</v>
-      </c>
-      <c r="F60" s="36">
-        <v>45457</v>
-      </c>
+    <row r="60" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B60" s="71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C60" s="71"/>
+      <c r="D60" s="47"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="49"/>
       <c r="G60" s="28"/>
-      <c r="H60" s="28"/>
+      <c r="H60" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I60" s="23"/>
       <c r="J60" s="23"/>
       <c r="K60" s="23"/>
@@ -13910,20 +13923,24 @@
       <c r="FS60" s="23"/>
       <c r="FT60" s="24"/>
     </row>
-    <row r="61" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A61" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B61" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="55"/>
-      <c r="D61" s="47"/>
-      <c r="E61" s="48"/>
-      <c r="F61" s="49"/>
+    <row r="61" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="8"/>
+      <c r="B61" s="68" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="68"/>
+      <c r="D61" s="50">
+        <v>0.1</v>
+      </c>
+      <c r="E61" s="36">
+        <v>45514</v>
+      </c>
+      <c r="F61" s="36">
+        <v>45514</v>
+      </c>
       <c r="G61" s="28"/>
-      <c r="H61" s="28" t="s">
-        <v>21</v>
+      <c r="H61" s="28">
+        <v>5</v>
       </c>
       <c r="I61" s="23"/>
       <c r="J61" s="23"/>
@@ -14094,25 +14111,22 @@
       <c r="FS61" s="23"/>
       <c r="FT61" s="24"/>
     </row>
-    <row r="62" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A62" s="8"/>
-      <c r="B62" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C62" s="54"/>
+    <row r="62" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="68" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="68"/>
       <c r="D62" s="50">
         <v>0</v>
       </c>
       <c r="E62" s="36">
-        <v>45457</v>
+        <v>45514</v>
       </c>
       <c r="F62" s="36">
-        <v>45458</v>
+        <v>45519</v>
       </c>
       <c r="G62" s="28"/>
-      <c r="H62" s="28">
-        <v>5</v>
-      </c>
+      <c r="H62" s="28"/>
       <c r="I62" s="23"/>
       <c r="J62" s="23"/>
       <c r="K62" s="23"/>
@@ -14282,19 +14296,19 @@
       <c r="FS62" s="23"/>
       <c r="FT62" s="24"/>
     </row>
-    <row r="63" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B63" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C63" s="54"/>
+    <row r="63" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="68" t="s">
+        <v>58</v>
+      </c>
+      <c r="C63" s="68"/>
       <c r="D63" s="50">
         <v>0</v>
       </c>
       <c r="E63" s="36">
-        <v>45458</v>
+        <v>45519</v>
       </c>
       <c r="F63" s="36">
-        <v>45465</v>
+        <v>45529</v>
       </c>
       <c r="G63" s="28"/>
       <c r="H63" s="28"/>
@@ -14467,19 +14481,19 @@
       <c r="FS63" s="23"/>
       <c r="FT63" s="24"/>
     </row>
-    <row r="64" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B64" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="C64" s="54"/>
+    <row r="64" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="68" t="s">
+        <v>59</v>
+      </c>
+      <c r="C64" s="68"/>
       <c r="D64" s="50">
         <v>0</v>
       </c>
       <c r="E64" s="36">
-        <v>45465</v>
+        <v>45529</v>
       </c>
       <c r="F64" s="36">
-        <v>45468</v>
+        <v>45535</v>
       </c>
       <c r="G64" s="28"/>
       <c r="H64" s="28"/>
@@ -14652,14 +14666,14 @@
       <c r="FS64" s="23"/>
       <c r="FT64" s="24"/>
     </row>
-    <row r="65" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C65" s="55"/>
+      <c r="B65" s="71" t="s">
+        <v>60</v>
+      </c>
+      <c r="C65" s="71"/>
       <c r="D65" s="47"/>
       <c r="E65" s="48"/>
       <c r="F65" s="49"/>
@@ -14836,20 +14850,20 @@
       <c r="FS65" s="23"/>
       <c r="FT65" s="24"/>
     </row>
-    <row r="66" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="8"/>
-      <c r="B66" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="C66" s="57"/>
+      <c r="B66" s="68" t="s">
+        <v>61</v>
+      </c>
+      <c r="C66" s="68"/>
       <c r="D66" s="50">
         <v>0</v>
       </c>
       <c r="E66" s="36">
-        <v>45468</v>
+        <v>45540</v>
       </c>
       <c r="F66" s="36">
-        <v>45482</v>
+        <v>45545</v>
       </c>
       <c r="G66" s="28"/>
       <c r="H66" s="28">
@@ -15024,25 +15038,22 @@
       <c r="FS66" s="23"/>
       <c r="FT66" s="24"/>
     </row>
-    <row r="67" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="8"/>
-      <c r="B67" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="C67" s="57"/>
+    <row r="67" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C67" s="68"/>
       <c r="D67" s="50">
         <v>0</v>
       </c>
       <c r="E67" s="36">
-        <v>45482</v>
+        <v>45545</v>
       </c>
       <c r="F67" s="36">
-        <v>45489</v>
+        <v>45550</v>
       </c>
       <c r="G67" s="28"/>
-      <c r="H67" s="28">
-        <v>5</v>
-      </c>
+      <c r="H67" s="28"/>
       <c r="I67" s="23"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
@@ -15212,19 +15223,19 @@
       <c r="FS67" s="23"/>
       <c r="FT67" s="24"/>
     </row>
-    <row r="68" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B68" s="54" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68" s="54"/>
+    <row r="68" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" s="68"/>
       <c r="D68" s="50">
         <v>0</v>
       </c>
       <c r="E68" s="36">
-        <v>45489</v>
+        <v>45550</v>
       </c>
       <c r="F68" s="36">
-        <v>45496</v>
+        <v>45553</v>
       </c>
       <c r="G68" s="28"/>
       <c r="H68" s="28"/>
@@ -15397,22 +15408,21 @@
       <c r="FS68" s="23"/>
       <c r="FT68" s="24"/>
     </row>
-    <row r="69" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B69" s="54" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="54"/>
-      <c r="D69" s="50">
-        <v>0</v>
-      </c>
-      <c r="E69" s="36">
-        <v>45497</v>
-      </c>
-      <c r="F69" s="36">
-        <v>45497</v>
-      </c>
+    <row r="69" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B69" s="71" t="s">
+        <v>63</v>
+      </c>
+      <c r="C69" s="71"/>
+      <c r="D69" s="47"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="49"/>
       <c r="G69" s="28"/>
-      <c r="H69" s="28"/>
+      <c r="H69" s="28" t="s">
+        <v>21</v>
+      </c>
       <c r="I69" s="23"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
@@ -15582,24 +15592,817 @@
       <c r="FS69" s="23"/>
       <c r="FT69" s="24"/>
     </row>
+    <row r="70" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="72" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" s="72"/>
+      <c r="D70" s="50">
+        <v>0</v>
+      </c>
+      <c r="E70" s="36">
+        <v>45553</v>
+      </c>
+      <c r="F70" s="36">
+        <v>45563</v>
+      </c>
+      <c r="G70" s="28"/>
+      <c r="H70" s="28">
+        <v>5</v>
+      </c>
+      <c r="I70" s="23"/>
+      <c r="J70" s="23"/>
+      <c r="K70" s="23"/>
+      <c r="L70" s="23"/>
+      <c r="M70" s="23"/>
+      <c r="N70" s="23"/>
+      <c r="O70" s="23"/>
+      <c r="P70" s="23"/>
+      <c r="Q70" s="23"/>
+      <c r="R70" s="23"/>
+      <c r="S70" s="23"/>
+      <c r="T70" s="23"/>
+      <c r="U70" s="23"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
+      <c r="X70" s="23"/>
+      <c r="Y70" s="23"/>
+      <c r="Z70" s="23"/>
+      <c r="AA70" s="23"/>
+      <c r="AB70" s="23"/>
+      <c r="AC70" s="23"/>
+      <c r="AD70" s="23"/>
+      <c r="AE70" s="23"/>
+      <c r="AF70" s="23"/>
+      <c r="AG70" s="23"/>
+      <c r="AH70" s="23"/>
+      <c r="AI70" s="23"/>
+      <c r="AJ70" s="23"/>
+      <c r="AK70" s="23"/>
+      <c r="AL70" s="23"/>
+      <c r="AM70" s="23"/>
+      <c r="AN70" s="23"/>
+      <c r="AO70" s="23"/>
+      <c r="AP70" s="23"/>
+      <c r="AQ70" s="24"/>
+      <c r="AR70" s="23"/>
+      <c r="AS70" s="23"/>
+      <c r="AT70" s="23"/>
+      <c r="AU70" s="23"/>
+      <c r="AV70" s="23"/>
+      <c r="AW70" s="23"/>
+      <c r="AX70" s="24"/>
+      <c r="AY70" s="23"/>
+      <c r="AZ70" s="23"/>
+      <c r="BA70" s="23"/>
+      <c r="BB70" s="23"/>
+      <c r="BC70" s="23"/>
+      <c r="BD70" s="23"/>
+      <c r="BE70" s="24"/>
+      <c r="BF70" s="23"/>
+      <c r="BG70" s="23"/>
+      <c r="BH70" s="23"/>
+      <c r="BI70" s="23"/>
+      <c r="BJ70" s="23"/>
+      <c r="BK70" s="23"/>
+      <c r="BL70" s="24"/>
+      <c r="BM70" s="23"/>
+      <c r="BN70" s="23"/>
+      <c r="BO70" s="23"/>
+      <c r="BP70" s="23"/>
+      <c r="BQ70" s="23"/>
+      <c r="BR70" s="23"/>
+      <c r="BS70" s="24"/>
+      <c r="BT70" s="23"/>
+      <c r="BU70" s="23"/>
+      <c r="BV70" s="23"/>
+      <c r="BW70" s="23"/>
+      <c r="BX70" s="23"/>
+      <c r="BY70" s="23"/>
+      <c r="BZ70" s="24"/>
+      <c r="CA70" s="23"/>
+      <c r="CB70" s="23"/>
+      <c r="CC70" s="23"/>
+      <c r="CD70" s="23"/>
+      <c r="CE70" s="23"/>
+      <c r="CF70" s="23"/>
+      <c r="CG70" s="24"/>
+      <c r="CH70" s="23"/>
+      <c r="CI70" s="23"/>
+      <c r="CJ70" s="23"/>
+      <c r="CK70" s="23"/>
+      <c r="CL70" s="23"/>
+      <c r="CM70" s="23"/>
+      <c r="CN70" s="24"/>
+      <c r="CO70" s="23"/>
+      <c r="CP70" s="23"/>
+      <c r="CQ70" s="23"/>
+      <c r="CR70" s="23"/>
+      <c r="CS70" s="23"/>
+      <c r="CT70" s="23"/>
+      <c r="CU70" s="24"/>
+      <c r="CV70" s="23"/>
+      <c r="CW70" s="23"/>
+      <c r="CX70" s="23"/>
+      <c r="CY70" s="23"/>
+      <c r="CZ70" s="23"/>
+      <c r="DA70" s="23"/>
+      <c r="DB70" s="24"/>
+      <c r="DC70" s="23"/>
+      <c r="DD70" s="23"/>
+      <c r="DE70" s="23"/>
+      <c r="DF70" s="23"/>
+      <c r="DG70" s="23"/>
+      <c r="DH70" s="23"/>
+      <c r="DI70" s="24"/>
+      <c r="DJ70" s="23"/>
+      <c r="DK70" s="23"/>
+      <c r="DL70" s="23"/>
+      <c r="DM70" s="23"/>
+      <c r="DN70" s="23"/>
+      <c r="DO70" s="23"/>
+      <c r="DP70" s="24"/>
+      <c r="DQ70" s="23"/>
+      <c r="DR70" s="23"/>
+      <c r="DS70" s="23"/>
+      <c r="DT70" s="23"/>
+      <c r="DU70" s="23"/>
+      <c r="DV70" s="23"/>
+      <c r="DW70" s="24"/>
+      <c r="DX70" s="23"/>
+      <c r="DY70" s="23"/>
+      <c r="DZ70" s="23"/>
+      <c r="EA70" s="23"/>
+      <c r="EB70" s="23"/>
+      <c r="EC70" s="23"/>
+      <c r="ED70" s="24"/>
+      <c r="EE70" s="23"/>
+      <c r="EF70" s="23"/>
+      <c r="EG70" s="23"/>
+      <c r="EH70" s="23"/>
+      <c r="EI70" s="23"/>
+      <c r="EJ70" s="23"/>
+      <c r="EK70" s="24"/>
+      <c r="EL70" s="23"/>
+      <c r="EM70" s="23"/>
+      <c r="EN70" s="23"/>
+      <c r="EO70" s="23"/>
+      <c r="EP70" s="23"/>
+      <c r="EQ70" s="23"/>
+      <c r="ER70" s="24"/>
+      <c r="ES70" s="23"/>
+      <c r="ET70" s="23"/>
+      <c r="EU70" s="23"/>
+      <c r="EV70" s="23"/>
+      <c r="EW70" s="23"/>
+      <c r="EX70" s="23"/>
+      <c r="EY70" s="24"/>
+      <c r="EZ70" s="23"/>
+      <c r="FA70" s="23"/>
+      <c r="FB70" s="23"/>
+      <c r="FC70" s="23"/>
+      <c r="FD70" s="23"/>
+      <c r="FE70" s="23"/>
+      <c r="FF70" s="24"/>
+      <c r="FG70" s="23"/>
+      <c r="FH70" s="23"/>
+      <c r="FI70" s="23"/>
+      <c r="FJ70" s="23"/>
+      <c r="FK70" s="23"/>
+      <c r="FL70" s="23"/>
+      <c r="FM70" s="24"/>
+      <c r="FN70" s="23"/>
+      <c r="FO70" s="23"/>
+      <c r="FP70" s="23"/>
+      <c r="FQ70" s="23"/>
+      <c r="FR70" s="23"/>
+      <c r="FS70" s="23"/>
+      <c r="FT70" s="24"/>
+    </row>
+    <row r="71" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="72"/>
+      <c r="D71" s="50">
+        <v>0</v>
+      </c>
+      <c r="E71" s="36">
+        <v>45563</v>
+      </c>
+      <c r="F71" s="36">
+        <v>45565</v>
+      </c>
+      <c r="G71" s="28"/>
+      <c r="H71" s="28">
+        <v>5</v>
+      </c>
+      <c r="I71" s="23"/>
+      <c r="J71" s="23"/>
+      <c r="K71" s="23"/>
+      <c r="L71" s="23"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
+      <c r="AD71" s="23"/>
+      <c r="AE71" s="23"/>
+      <c r="AF71" s="23"/>
+      <c r="AG71" s="23"/>
+      <c r="AH71" s="23"/>
+      <c r="AI71" s="23"/>
+      <c r="AJ71" s="23"/>
+      <c r="AK71" s="23"/>
+      <c r="AL71" s="23"/>
+      <c r="AM71" s="23"/>
+      <c r="AN71" s="23"/>
+      <c r="AO71" s="23"/>
+      <c r="AP71" s="23"/>
+      <c r="AQ71" s="24"/>
+      <c r="AR71" s="23"/>
+      <c r="AS71" s="23"/>
+      <c r="AT71" s="23"/>
+      <c r="AU71" s="23"/>
+      <c r="AV71" s="23"/>
+      <c r="AW71" s="23"/>
+      <c r="AX71" s="24"/>
+      <c r="AY71" s="23"/>
+      <c r="AZ71" s="23"/>
+      <c r="BA71" s="23"/>
+      <c r="BB71" s="23"/>
+      <c r="BC71" s="23"/>
+      <c r="BD71" s="23"/>
+      <c r="BE71" s="24"/>
+      <c r="BF71" s="23"/>
+      <c r="BG71" s="23"/>
+      <c r="BH71" s="23"/>
+      <c r="BI71" s="23"/>
+      <c r="BJ71" s="23"/>
+      <c r="BK71" s="23"/>
+      <c r="BL71" s="24"/>
+      <c r="BM71" s="23"/>
+      <c r="BN71" s="23"/>
+      <c r="BO71" s="23"/>
+      <c r="BP71" s="23"/>
+      <c r="BQ71" s="23"/>
+      <c r="BR71" s="23"/>
+      <c r="BS71" s="24"/>
+      <c r="BT71" s="23"/>
+      <c r="BU71" s="23"/>
+      <c r="BV71" s="23"/>
+      <c r="BW71" s="23"/>
+      <c r="BX71" s="23"/>
+      <c r="BY71" s="23"/>
+      <c r="BZ71" s="24"/>
+      <c r="CA71" s="23"/>
+      <c r="CB71" s="23"/>
+      <c r="CC71" s="23"/>
+      <c r="CD71" s="23"/>
+      <c r="CE71" s="23"/>
+      <c r="CF71" s="23"/>
+      <c r="CG71" s="24"/>
+      <c r="CH71" s="23"/>
+      <c r="CI71" s="23"/>
+      <c r="CJ71" s="23"/>
+      <c r="CK71" s="23"/>
+      <c r="CL71" s="23"/>
+      <c r="CM71" s="23"/>
+      <c r="CN71" s="24"/>
+      <c r="CO71" s="23"/>
+      <c r="CP71" s="23"/>
+      <c r="CQ71" s="23"/>
+      <c r="CR71" s="23"/>
+      <c r="CS71" s="23"/>
+      <c r="CT71" s="23"/>
+      <c r="CU71" s="24"/>
+      <c r="CV71" s="23"/>
+      <c r="CW71" s="23"/>
+      <c r="CX71" s="23"/>
+      <c r="CY71" s="23"/>
+      <c r="CZ71" s="23"/>
+      <c r="DA71" s="23"/>
+      <c r="DB71" s="24"/>
+      <c r="DC71" s="23"/>
+      <c r="DD71" s="23"/>
+      <c r="DE71" s="23"/>
+      <c r="DF71" s="23"/>
+      <c r="DG71" s="23"/>
+      <c r="DH71" s="23"/>
+      <c r="DI71" s="24"/>
+      <c r="DJ71" s="23"/>
+      <c r="DK71" s="23"/>
+      <c r="DL71" s="23"/>
+      <c r="DM71" s="23"/>
+      <c r="DN71" s="23"/>
+      <c r="DO71" s="23"/>
+      <c r="DP71" s="24"/>
+      <c r="DQ71" s="23"/>
+      <c r="DR71" s="23"/>
+      <c r="DS71" s="23"/>
+      <c r="DT71" s="23"/>
+      <c r="DU71" s="23"/>
+      <c r="DV71" s="23"/>
+      <c r="DW71" s="24"/>
+      <c r="DX71" s="23"/>
+      <c r="DY71" s="23"/>
+      <c r="DZ71" s="23"/>
+      <c r="EA71" s="23"/>
+      <c r="EB71" s="23"/>
+      <c r="EC71" s="23"/>
+      <c r="ED71" s="24"/>
+      <c r="EE71" s="23"/>
+      <c r="EF71" s="23"/>
+      <c r="EG71" s="23"/>
+      <c r="EH71" s="23"/>
+      <c r="EI71" s="23"/>
+      <c r="EJ71" s="23"/>
+      <c r="EK71" s="24"/>
+      <c r="EL71" s="23"/>
+      <c r="EM71" s="23"/>
+      <c r="EN71" s="23"/>
+      <c r="EO71" s="23"/>
+      <c r="EP71" s="23"/>
+      <c r="EQ71" s="23"/>
+      <c r="ER71" s="24"/>
+      <c r="ES71" s="23"/>
+      <c r="ET71" s="23"/>
+      <c r="EU71" s="23"/>
+      <c r="EV71" s="23"/>
+      <c r="EW71" s="23"/>
+      <c r="EX71" s="23"/>
+      <c r="EY71" s="24"/>
+      <c r="EZ71" s="23"/>
+      <c r="FA71" s="23"/>
+      <c r="FB71" s="23"/>
+      <c r="FC71" s="23"/>
+      <c r="FD71" s="23"/>
+      <c r="FE71" s="23"/>
+      <c r="FF71" s="24"/>
+      <c r="FG71" s="23"/>
+      <c r="FH71" s="23"/>
+      <c r="FI71" s="23"/>
+      <c r="FJ71" s="23"/>
+      <c r="FK71" s="23"/>
+      <c r="FL71" s="23"/>
+      <c r="FM71" s="24"/>
+      <c r="FN71" s="23"/>
+      <c r="FO71" s="23"/>
+      <c r="FP71" s="23"/>
+      <c r="FQ71" s="23"/>
+      <c r="FR71" s="23"/>
+      <c r="FS71" s="23"/>
+      <c r="FT71" s="24"/>
+    </row>
+    <row r="72" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" s="68"/>
+      <c r="D72" s="50">
+        <v>0</v>
+      </c>
+      <c r="E72" s="36">
+        <v>45565</v>
+      </c>
+      <c r="F72" s="36">
+        <v>45569</v>
+      </c>
+      <c r="G72" s="28"/>
+      <c r="H72" s="28"/>
+      <c r="I72" s="23"/>
+      <c r="J72" s="23"/>
+      <c r="K72" s="23"/>
+      <c r="L72" s="23"/>
+      <c r="M72" s="23"/>
+      <c r="N72" s="23"/>
+      <c r="O72" s="23"/>
+      <c r="P72" s="23"/>
+      <c r="Q72" s="23"/>
+      <c r="R72" s="23"/>
+      <c r="S72" s="23"/>
+      <c r="T72" s="23"/>
+      <c r="U72" s="23"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
+      <c r="X72" s="23"/>
+      <c r="Y72" s="23"/>
+      <c r="Z72" s="23"/>
+      <c r="AA72" s="23"/>
+      <c r="AB72" s="23"/>
+      <c r="AC72" s="23"/>
+      <c r="AD72" s="23"/>
+      <c r="AE72" s="23"/>
+      <c r="AF72" s="23"/>
+      <c r="AG72" s="23"/>
+      <c r="AH72" s="23"/>
+      <c r="AI72" s="23"/>
+      <c r="AJ72" s="23"/>
+      <c r="AK72" s="23"/>
+      <c r="AL72" s="23"/>
+      <c r="AM72" s="23"/>
+      <c r="AN72" s="23"/>
+      <c r="AO72" s="23"/>
+      <c r="AP72" s="23"/>
+      <c r="AQ72" s="24"/>
+      <c r="AR72" s="23"/>
+      <c r="AS72" s="23"/>
+      <c r="AT72" s="23"/>
+      <c r="AU72" s="23"/>
+      <c r="AV72" s="23"/>
+      <c r="AW72" s="23"/>
+      <c r="AX72" s="24"/>
+      <c r="AY72" s="23"/>
+      <c r="AZ72" s="23"/>
+      <c r="BA72" s="23"/>
+      <c r="BB72" s="23"/>
+      <c r="BC72" s="23"/>
+      <c r="BD72" s="23"/>
+      <c r="BE72" s="24"/>
+      <c r="BF72" s="23"/>
+      <c r="BG72" s="23"/>
+      <c r="BH72" s="23"/>
+      <c r="BI72" s="23"/>
+      <c r="BJ72" s="23"/>
+      <c r="BK72" s="23"/>
+      <c r="BL72" s="24"/>
+      <c r="BM72" s="23"/>
+      <c r="BN72" s="23"/>
+      <c r="BO72" s="23"/>
+      <c r="BP72" s="23"/>
+      <c r="BQ72" s="23"/>
+      <c r="BR72" s="23"/>
+      <c r="BS72" s="24"/>
+      <c r="BT72" s="23"/>
+      <c r="BU72" s="23"/>
+      <c r="BV72" s="23"/>
+      <c r="BW72" s="23"/>
+      <c r="BX72" s="23"/>
+      <c r="BY72" s="23"/>
+      <c r="BZ72" s="24"/>
+      <c r="CA72" s="23"/>
+      <c r="CB72" s="23"/>
+      <c r="CC72" s="23"/>
+      <c r="CD72" s="23"/>
+      <c r="CE72" s="23"/>
+      <c r="CF72" s="23"/>
+      <c r="CG72" s="24"/>
+      <c r="CH72" s="23"/>
+      <c r="CI72" s="23"/>
+      <c r="CJ72" s="23"/>
+      <c r="CK72" s="23"/>
+      <c r="CL72" s="23"/>
+      <c r="CM72" s="23"/>
+      <c r="CN72" s="24"/>
+      <c r="CO72" s="23"/>
+      <c r="CP72" s="23"/>
+      <c r="CQ72" s="23"/>
+      <c r="CR72" s="23"/>
+      <c r="CS72" s="23"/>
+      <c r="CT72" s="23"/>
+      <c r="CU72" s="24"/>
+      <c r="CV72" s="23"/>
+      <c r="CW72" s="23"/>
+      <c r="CX72" s="23"/>
+      <c r="CY72" s="23"/>
+      <c r="CZ72" s="23"/>
+      <c r="DA72" s="23"/>
+      <c r="DB72" s="24"/>
+      <c r="DC72" s="23"/>
+      <c r="DD72" s="23"/>
+      <c r="DE72" s="23"/>
+      <c r="DF72" s="23"/>
+      <c r="DG72" s="23"/>
+      <c r="DH72" s="23"/>
+      <c r="DI72" s="24"/>
+      <c r="DJ72" s="23"/>
+      <c r="DK72" s="23"/>
+      <c r="DL72" s="23"/>
+      <c r="DM72" s="23"/>
+      <c r="DN72" s="23"/>
+      <c r="DO72" s="23"/>
+      <c r="DP72" s="24"/>
+      <c r="DQ72" s="23"/>
+      <c r="DR72" s="23"/>
+      <c r="DS72" s="23"/>
+      <c r="DT72" s="23"/>
+      <c r="DU72" s="23"/>
+      <c r="DV72" s="23"/>
+      <c r="DW72" s="24"/>
+      <c r="DX72" s="23"/>
+      <c r="DY72" s="23"/>
+      <c r="DZ72" s="23"/>
+      <c r="EA72" s="23"/>
+      <c r="EB72" s="23"/>
+      <c r="EC72" s="23"/>
+      <c r="ED72" s="24"/>
+      <c r="EE72" s="23"/>
+      <c r="EF72" s="23"/>
+      <c r="EG72" s="23"/>
+      <c r="EH72" s="23"/>
+      <c r="EI72" s="23"/>
+      <c r="EJ72" s="23"/>
+      <c r="EK72" s="24"/>
+      <c r="EL72" s="23"/>
+      <c r="EM72" s="23"/>
+      <c r="EN72" s="23"/>
+      <c r="EO72" s="23"/>
+      <c r="EP72" s="23"/>
+      <c r="EQ72" s="23"/>
+      <c r="ER72" s="24"/>
+      <c r="ES72" s="23"/>
+      <c r="ET72" s="23"/>
+      <c r="EU72" s="23"/>
+      <c r="EV72" s="23"/>
+      <c r="EW72" s="23"/>
+      <c r="EX72" s="23"/>
+      <c r="EY72" s="24"/>
+      <c r="EZ72" s="23"/>
+      <c r="FA72" s="23"/>
+      <c r="FB72" s="23"/>
+      <c r="FC72" s="23"/>
+      <c r="FD72" s="23"/>
+      <c r="FE72" s="23"/>
+      <c r="FF72" s="24"/>
+      <c r="FG72" s="23"/>
+      <c r="FH72" s="23"/>
+      <c r="FI72" s="23"/>
+      <c r="FJ72" s="23"/>
+      <c r="FK72" s="23"/>
+      <c r="FL72" s="23"/>
+      <c r="FM72" s="24"/>
+      <c r="FN72" s="23"/>
+      <c r="FO72" s="23"/>
+      <c r="FP72" s="23"/>
+      <c r="FQ72" s="23"/>
+      <c r="FR72" s="23"/>
+      <c r="FS72" s="23"/>
+      <c r="FT72" s="24"/>
+    </row>
+    <row r="73" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="68" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="68"/>
+      <c r="D73" s="50">
+        <v>0</v>
+      </c>
+      <c r="E73" s="36">
+        <v>45569</v>
+      </c>
+      <c r="F73" s="36">
+        <v>45569</v>
+      </c>
+      <c r="G73" s="28"/>
+      <c r="H73" s="28"/>
+      <c r="I73" s="23"/>
+      <c r="J73" s="23"/>
+      <c r="K73" s="23"/>
+      <c r="L73" s="23"/>
+      <c r="M73" s="23"/>
+      <c r="N73" s="23"/>
+      <c r="O73" s="23"/>
+      <c r="P73" s="23"/>
+      <c r="Q73" s="23"/>
+      <c r="R73" s="23"/>
+      <c r="S73" s="23"/>
+      <c r="T73" s="23"/>
+      <c r="U73" s="23"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
+      <c r="X73" s="23"/>
+      <c r="Y73" s="23"/>
+      <c r="Z73" s="23"/>
+      <c r="AA73" s="23"/>
+      <c r="AB73" s="23"/>
+      <c r="AC73" s="23"/>
+      <c r="AD73" s="23"/>
+      <c r="AE73" s="23"/>
+      <c r="AF73" s="23"/>
+      <c r="AG73" s="23"/>
+      <c r="AH73" s="23"/>
+      <c r="AI73" s="23"/>
+      <c r="AJ73" s="23"/>
+      <c r="AK73" s="23"/>
+      <c r="AL73" s="23"/>
+      <c r="AM73" s="23"/>
+      <c r="AN73" s="23"/>
+      <c r="AO73" s="23"/>
+      <c r="AP73" s="23"/>
+      <c r="AQ73" s="24"/>
+      <c r="AR73" s="23"/>
+      <c r="AS73" s="23"/>
+      <c r="AT73" s="23"/>
+      <c r="AU73" s="23"/>
+      <c r="AV73" s="23"/>
+      <c r="AW73" s="23"/>
+      <c r="AX73" s="24"/>
+      <c r="AY73" s="23"/>
+      <c r="AZ73" s="23"/>
+      <c r="BA73" s="23"/>
+      <c r="BB73" s="23"/>
+      <c r="BC73" s="23"/>
+      <c r="BD73" s="23"/>
+      <c r="BE73" s="24"/>
+      <c r="BF73" s="23"/>
+      <c r="BG73" s="23"/>
+      <c r="BH73" s="23"/>
+      <c r="BI73" s="23"/>
+      <c r="BJ73" s="23"/>
+      <c r="BK73" s="23"/>
+      <c r="BL73" s="24"/>
+      <c r="BM73" s="23"/>
+      <c r="BN73" s="23"/>
+      <c r="BO73" s="23"/>
+      <c r="BP73" s="23"/>
+      <c r="BQ73" s="23"/>
+      <c r="BR73" s="23"/>
+      <c r="BS73" s="24"/>
+      <c r="BT73" s="23"/>
+      <c r="BU73" s="23"/>
+      <c r="BV73" s="23"/>
+      <c r="BW73" s="23"/>
+      <c r="BX73" s="23"/>
+      <c r="BY73" s="23"/>
+      <c r="BZ73" s="24"/>
+      <c r="CA73" s="23"/>
+      <c r="CB73" s="23"/>
+      <c r="CC73" s="23"/>
+      <c r="CD73" s="23"/>
+      <c r="CE73" s="23"/>
+      <c r="CF73" s="23"/>
+      <c r="CG73" s="24"/>
+      <c r="CH73" s="23"/>
+      <c r="CI73" s="23"/>
+      <c r="CJ73" s="23"/>
+      <c r="CK73" s="23"/>
+      <c r="CL73" s="23"/>
+      <c r="CM73" s="23"/>
+      <c r="CN73" s="24"/>
+      <c r="CO73" s="23"/>
+      <c r="CP73" s="23"/>
+      <c r="CQ73" s="23"/>
+      <c r="CR73" s="23"/>
+      <c r="CS73" s="23"/>
+      <c r="CT73" s="23"/>
+      <c r="CU73" s="24"/>
+      <c r="CV73" s="23"/>
+      <c r="CW73" s="23"/>
+      <c r="CX73" s="23"/>
+      <c r="CY73" s="23"/>
+      <c r="CZ73" s="23"/>
+      <c r="DA73" s="23"/>
+      <c r="DB73" s="24"/>
+      <c r="DC73" s="23"/>
+      <c r="DD73" s="23"/>
+      <c r="DE73" s="23"/>
+      <c r="DF73" s="23"/>
+      <c r="DG73" s="23"/>
+      <c r="DH73" s="23"/>
+      <c r="DI73" s="24"/>
+      <c r="DJ73" s="23"/>
+      <c r="DK73" s="23"/>
+      <c r="DL73" s="23"/>
+      <c r="DM73" s="23"/>
+      <c r="DN73" s="23"/>
+      <c r="DO73" s="23"/>
+      <c r="DP73" s="24"/>
+      <c r="DQ73" s="23"/>
+      <c r="DR73" s="23"/>
+      <c r="DS73" s="23"/>
+      <c r="DT73" s="23"/>
+      <c r="DU73" s="23"/>
+      <c r="DV73" s="23"/>
+      <c r="DW73" s="24"/>
+      <c r="DX73" s="23"/>
+      <c r="DY73" s="23"/>
+      <c r="DZ73" s="23"/>
+      <c r="EA73" s="23"/>
+      <c r="EB73" s="23"/>
+      <c r="EC73" s="23"/>
+      <c r="ED73" s="24"/>
+      <c r="EE73" s="23"/>
+      <c r="EF73" s="23"/>
+      <c r="EG73" s="23"/>
+      <c r="EH73" s="23"/>
+      <c r="EI73" s="23"/>
+      <c r="EJ73" s="23"/>
+      <c r="EK73" s="24"/>
+      <c r="EL73" s="23"/>
+      <c r="EM73" s="23"/>
+      <c r="EN73" s="23"/>
+      <c r="EO73" s="23"/>
+      <c r="EP73" s="23"/>
+      <c r="EQ73" s="23"/>
+      <c r="ER73" s="24"/>
+      <c r="ES73" s="23"/>
+      <c r="ET73" s="23"/>
+      <c r="EU73" s="23"/>
+      <c r="EV73" s="23"/>
+      <c r="EW73" s="23"/>
+      <c r="EX73" s="23"/>
+      <c r="EY73" s="24"/>
+      <c r="EZ73" s="23"/>
+      <c r="FA73" s="23"/>
+      <c r="FB73" s="23"/>
+      <c r="FC73" s="23"/>
+      <c r="FD73" s="23"/>
+      <c r="FE73" s="23"/>
+      <c r="FF73" s="24"/>
+      <c r="FG73" s="23"/>
+      <c r="FH73" s="23"/>
+      <c r="FI73" s="23"/>
+      <c r="FJ73" s="23"/>
+      <c r="FK73" s="23"/>
+      <c r="FL73" s="23"/>
+      <c r="FM73" s="24"/>
+      <c r="FN73" s="23"/>
+      <c r="FO73" s="23"/>
+      <c r="FP73" s="23"/>
+      <c r="FQ73" s="23"/>
+      <c r="FR73" s="23"/>
+      <c r="FS73" s="23"/>
+      <c r="FT73" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="91">
+  <mergeCells count="95">
     <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="B66:C66"/>
+    <mergeCell ref="B67:C67"/>
+    <mergeCell ref="B68:C68"/>
+    <mergeCell ref="B69:C69"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B70:C70"/>
+    <mergeCell ref="B71:C71"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B63:C63"/>
+    <mergeCell ref="B62:C62"/>
+    <mergeCell ref="B61:C61"/>
+    <mergeCell ref="B60:C60"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B73:C73"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -15616,67 +16419,24 @@
     <mergeCell ref="EL4:ER4"/>
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D69">
+  <conditionalFormatting sqref="D7:D73">
     <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -15690,37 +16450,37 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO69 DQ5:DV69 DX5:EC69 EE5:EJ69 EL5:EQ69 ES5:EX69 EZ5:FE69 FG5:FL69 FN5:FS69">
+  <conditionalFormatting sqref="I5:DO73 DQ5:DV73 DX5:EC73 EE5:EJ73 EL5:EQ73 ES5:EX73 EZ5:FE73 FG5:FL73 FN5:FS73">
     <cfRule type="expression" dxfId="6" priority="159">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO69 DQ7:DV69 DX7:EC69 EE7:EJ69 EL7:EQ69 ES7:EX69 EZ7:FE69 FG7:FL69 FN7:FS69">
+  <conditionalFormatting sqref="I7:DO73 DQ7:DV73 DX7:EC73 EE7:EJ73 EL7:EQ73 ES7:EX73 EZ7:FE73 FG7:FL73 FN7:FS73">
     <cfRule type="expression" dxfId="5" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:FT69">
+  <conditionalFormatting sqref="I7:FT73">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP69 DW5:DW69 ED5:ED69 EK5:EK69 ER5:ER69 EY5:EY69 FF5:FF69">
+  <conditionalFormatting sqref="DP5:DP73 DW5:DW73 ED5:ED73 EK5:EK73 ER5:ER73 EY5:EY73 FF5:FF73">
     <cfRule type="expression" dxfId="3" priority="251">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP69 DW7:DW69 ED7:ED69 EK7:EK69 ER7:ER69 EY7:EY69 FF7:FF69">
+  <conditionalFormatting sqref="DP7:DP73 DW7:DW73 ED7:ED73 EK7:EK73 ER7:ER73 EY7:EY73 FF7:FF73">
     <cfRule type="expression" dxfId="2" priority="255" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM5:FM69 FT5:FT69">
+  <conditionalFormatting sqref="FM5:FM73 FT5:FT73">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM7:FM69 FT7:FT69">
+  <conditionalFormatting sqref="FM7:FM73 FT7:FT73">
     <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
@@ -15752,7 +16512,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D69</xm:sqref>
+          <xm:sqref>D7:D73</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -15761,15 +16521,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -15787,6 +16538,15 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16078,14 +16838,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16093,6 +16845,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C966A496-7D5D-426F-A998-2B2B238D735A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18AE7F-0990-49A0-AAA5-2296994266F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="54">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -129,22 +129,7 @@
     <t>Bloque de título fase de ejemplo</t>
   </si>
   <si>
-    <t>Esta es una fila vacía.</t>
-  </si>
-  <si>
-    <t>Rendimiento del proyecto</t>
-  </si>
-  <si>
     <t>Diseño y recopilación de datos</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Análisis y ajustes al sistema</t>
-  </si>
-  <si>
-    <t>Entrega final de sistema</t>
   </si>
   <si>
     <t>Proyecto de titulo: Reconocimiento de emociones mediante Deep Learning</t>
@@ -162,19 +147,10 @@
     <t>Limpieza de datos</t>
   </si>
   <si>
-    <t>Concadenar los datasets</t>
-  </si>
-  <si>
-    <t>Balancear de datos para ambas modalidades</t>
-  </si>
-  <si>
     <t>Preparación para ingreso de modelos</t>
   </si>
   <si>
     <t>Generación de iteraciones de datos mediante ImageGenerator</t>
-  </si>
-  <si>
-    <t>Preprocesamiento de tokens para datasets texto</t>
   </si>
   <si>
     <t>Creación de modelo ensemble facial</t>
@@ -186,91 +162,10 @@
     <t>Desarrollo y creación de modelo multimodal</t>
   </si>
   <si>
-    <t>Creación de modelo multimodal mediante modelos unimodales</t>
-  </si>
-  <si>
-    <t>Analisis de resultados mediante datos de testeo</t>
-  </si>
-  <si>
-    <t>Guardar modelo</t>
-  </si>
-  <si>
     <t>Experimentar/optimizar con diferentes parametros</t>
   </si>
   <si>
-    <t>Analisis de requisitos y objetivos del sistema</t>
-  </si>
-  <si>
     <t>Actualización de documentación</t>
-  </si>
-  <si>
-    <t>Desarrollo diagramas de funcionalidad sistema</t>
-  </si>
-  <si>
-    <t>Creación de backend mediante framework Django</t>
-  </si>
-  <si>
-    <t>Creación de la lógica de los modelos de la base de datos</t>
-  </si>
-  <si>
-    <t>Actualización de configuraciones backend y creación de aplicaciones</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desarrollo operaciones basicas en las vista de Django </t>
-  </si>
-  <si>
-    <t>Analizar diseño del sistema</t>
-  </si>
-  <si>
-    <t>Implementación de modelo multimodal en el Backend</t>
-  </si>
-  <si>
-    <t>Creación y diseño del Backend</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Importar modelo multimodal en las vista de operaciones </t>
-  </si>
-  <si>
-    <t>Cargar librerias necesarias para hacer uso de Tensorflow</t>
-  </si>
-  <si>
-    <t>Desarrollo de la lógica de predicción del modelo</t>
-  </si>
-  <si>
-    <t>Desarrollo de la lógica de almacenamiento y devolución de la emoción al usuario</t>
-  </si>
-  <si>
-    <t>Creación y diseño del Frontend</t>
-  </si>
-  <si>
-    <t>Creación de proyecto haciendo uso de React</t>
-  </si>
-  <si>
-    <t>Desarrollo de la conexión entre Django y React</t>
-  </si>
-  <si>
-    <t>Creación y diseño vista del usuario</t>
-  </si>
-  <si>
-    <t>Configuración de captura de pantalla y lectura de texto</t>
-  </si>
-  <si>
-    <t>Pruebas y despliegue</t>
-  </si>
-  <si>
-    <t>Desarrollo de pruebas para testear el sistema</t>
-  </si>
-  <si>
-    <t>Despliegue del sistema mediante AWS</t>
-  </si>
-  <si>
-    <t>Desarrollo y evaluación del sistema en ambiente real</t>
-  </si>
-  <si>
-    <t>Desarrollo de pruebas pilotos del sistema con usuarios reales</t>
-  </si>
-  <si>
-    <t>Evaluación de pruebas pilotos en ambiente real</t>
   </si>
   <si>
     <t>Aplicación de transformaciones de los datos</t>
@@ -289,18 +184,6 @@
   </si>
   <si>
     <t>Análisis y actualización de Papers año 2024 en documentación</t>
-  </si>
-  <si>
-    <t>Entrenamiento del modelo multimodal</t>
-  </si>
-  <si>
-    <t>Obtención del dataset multimodal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Preparación del dataset multimodal </t>
-  </si>
-  <si>
-    <t>Experimentación y ajustes de modelo multimodal</t>
   </si>
   <si>
     <t>Experimentar/optimizar modelo facial con diferentes parametros</t>
@@ -334,6 +217,24 @@
   </si>
   <si>
     <t>Busqueda y optimización de modelos textuales</t>
+  </si>
+  <si>
+    <t>Concadenar datasets textuales</t>
+  </si>
+  <si>
+    <t>Preprocesamiento para texto</t>
+  </si>
+  <si>
+    <t>Preprocesamiento para imagen</t>
+  </si>
+  <si>
+    <t>Creación modelo multimodal</t>
+  </si>
+  <si>
+    <t>Balanceo de datos conjunto de entrenamiento facial</t>
+  </si>
+  <si>
+    <t>Actualización código</t>
   </si>
 </sst>
 </file>
@@ -563,7 +464,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -807,18 +708,6 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1139,7 +1028,7 @@
     <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1170,7 +1059,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1267,25 +1156,22 @@
     <xf numFmtId="168" fontId="23" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="44" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1294,22 +1180,10 @@
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1330,22 +1204,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="45" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1945,11 +1813,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:FT73"/>
+  <dimension ref="A1:FT42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P71" sqref="P71"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB48" sqref="AB48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1990,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -2007,434 +1875,434 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="52"/>
-      <c r="C3" s="62" t="s">
+      <c r="B3" s="48"/>
+      <c r="C3" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="64">
+      <c r="D3" s="57"/>
+      <c r="E3" s="59">
         <v>45323</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="I3" s="66" t="s">
-        <v>70</v>
-      </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="67"/>
-      <c r="BS3" s="67"/>
-      <c r="BT3" s="67"/>
-      <c r="BU3" s="67"/>
-      <c r="BV3" s="67"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="67"/>
-      <c r="BY3" s="67"/>
-      <c r="BZ3" s="67"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="67"/>
-      <c r="CC3" s="67"/>
-      <c r="CD3" s="67"/>
-      <c r="CE3" s="67"/>
-      <c r="CF3" s="67"/>
-      <c r="CG3" s="67"/>
-      <c r="CH3" s="67"/>
-      <c r="CI3" s="67"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="67"/>
-      <c r="CM3" s="67"/>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CV3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="67"/>
-      <c r="DD3" s="67"/>
-      <c r="DE3" s="67"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="67"/>
-      <c r="DH3" s="67"/>
-      <c r="DI3" s="67"/>
-      <c r="DJ3" s="67"/>
-      <c r="DK3" s="67"/>
-      <c r="DL3" s="67"/>
-      <c r="DM3" s="67"/>
-      <c r="DN3" s="67"/>
-      <c r="DO3" s="67"/>
-      <c r="DP3" s="67"/>
-      <c r="DQ3" s="67"/>
-      <c r="DR3" s="67"/>
-      <c r="DS3" s="67"/>
-      <c r="DT3" s="67"/>
-      <c r="DU3" s="67"/>
-      <c r="DV3" s="67"/>
-      <c r="DW3" s="67"/>
-      <c r="DX3" s="67"/>
-      <c r="DY3" s="67"/>
-      <c r="DZ3" s="67"/>
-      <c r="EA3" s="67"/>
-      <c r="EB3" s="67"/>
-      <c r="EC3" s="67"/>
-      <c r="ED3" s="67"/>
-      <c r="EE3" s="67"/>
-      <c r="EF3" s="67"/>
-      <c r="EG3" s="67"/>
-      <c r="EH3" s="67"/>
-      <c r="EI3" s="67"/>
-      <c r="EJ3" s="67"/>
-      <c r="EK3" s="67"/>
-      <c r="EL3" s="67"/>
-      <c r="EM3" s="67"/>
-      <c r="EN3" s="67"/>
-      <c r="EO3" s="67"/>
-      <c r="EP3" s="67"/>
-      <c r="EQ3" s="67"/>
-      <c r="ER3" s="67"/>
-      <c r="ES3" s="67"/>
-      <c r="ET3" s="67"/>
-      <c r="EU3" s="67"/>
-      <c r="EV3" s="67"/>
-      <c r="EW3" s="67"/>
-      <c r="EX3" s="67"/>
-      <c r="EY3" s="67"/>
-      <c r="EZ3" s="67"/>
-      <c r="FA3" s="67"/>
-      <c r="FB3" s="67"/>
-      <c r="FC3" s="67"/>
-      <c r="FD3" s="67"/>
-      <c r="FE3" s="67"/>
-      <c r="FF3" s="67"/>
-      <c r="FG3" s="67"/>
-      <c r="FH3" s="67"/>
-      <c r="FI3" s="67"/>
-      <c r="FJ3" s="67"/>
-      <c r="FK3" s="67"/>
-      <c r="FL3" s="67"/>
-      <c r="FM3" s="67"/>
+      <c r="F3" s="59"/>
+      <c r="I3" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="62"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="62"/>
+      <c r="CD3" s="62"/>
+      <c r="CE3" s="62"/>
+      <c r="CF3" s="62"/>
+      <c r="CG3" s="62"/>
+      <c r="CH3" s="62"/>
+      <c r="CI3" s="62"/>
+      <c r="CJ3" s="62"/>
+      <c r="CK3" s="62"/>
+      <c r="CL3" s="62"/>
+      <c r="CM3" s="62"/>
+      <c r="CN3" s="62"/>
+      <c r="CO3" s="62"/>
+      <c r="CP3" s="62"/>
+      <c r="CQ3" s="62"/>
+      <c r="CR3" s="62"/>
+      <c r="CS3" s="62"/>
+      <c r="CT3" s="62"/>
+      <c r="CU3" s="62"/>
+      <c r="CV3" s="62"/>
+      <c r="CW3" s="62"/>
+      <c r="CX3" s="62"/>
+      <c r="CY3" s="62"/>
+      <c r="CZ3" s="62"/>
+      <c r="DA3" s="62"/>
+      <c r="DB3" s="62"/>
+      <c r="DC3" s="62"/>
+      <c r="DD3" s="62"/>
+      <c r="DE3" s="62"/>
+      <c r="DF3" s="62"/>
+      <c r="DG3" s="62"/>
+      <c r="DH3" s="62"/>
+      <c r="DI3" s="62"/>
+      <c r="DJ3" s="62"/>
+      <c r="DK3" s="62"/>
+      <c r="DL3" s="62"/>
+      <c r="DM3" s="62"/>
+      <c r="DN3" s="62"/>
+      <c r="DO3" s="62"/>
+      <c r="DP3" s="62"/>
+      <c r="DQ3" s="62"/>
+      <c r="DR3" s="62"/>
+      <c r="DS3" s="62"/>
+      <c r="DT3" s="62"/>
+      <c r="DU3" s="62"/>
+      <c r="DV3" s="62"/>
+      <c r="DW3" s="62"/>
+      <c r="DX3" s="62"/>
+      <c r="DY3" s="62"/>
+      <c r="DZ3" s="62"/>
+      <c r="EA3" s="62"/>
+      <c r="EB3" s="62"/>
+      <c r="EC3" s="62"/>
+      <c r="ED3" s="62"/>
+      <c r="EE3" s="62"/>
+      <c r="EF3" s="62"/>
+      <c r="EG3" s="62"/>
+      <c r="EH3" s="62"/>
+      <c r="EI3" s="62"/>
+      <c r="EJ3" s="62"/>
+      <c r="EK3" s="62"/>
+      <c r="EL3" s="62"/>
+      <c r="EM3" s="62"/>
+      <c r="EN3" s="62"/>
+      <c r="EO3" s="62"/>
+      <c r="EP3" s="62"/>
+      <c r="EQ3" s="62"/>
+      <c r="ER3" s="62"/>
+      <c r="ES3" s="62"/>
+      <c r="ET3" s="62"/>
+      <c r="EU3" s="62"/>
+      <c r="EV3" s="62"/>
+      <c r="EW3" s="62"/>
+      <c r="EX3" s="62"/>
+      <c r="EY3" s="62"/>
+      <c r="EZ3" s="62"/>
+      <c r="FA3" s="62"/>
+      <c r="FB3" s="62"/>
+      <c r="FC3" s="62"/>
+      <c r="FD3" s="62"/>
+      <c r="FE3" s="62"/>
+      <c r="FF3" s="62"/>
+      <c r="FG3" s="62"/>
+      <c r="FH3" s="62"/>
+      <c r="FI3" s="62"/>
+      <c r="FJ3" s="62"/>
+      <c r="FK3" s="62"/>
+      <c r="FL3" s="62"/>
+      <c r="FM3" s="62"/>
     </row>
     <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="51"/>
-      <c r="C4" s="63" t="s">
+      <c r="B4" s="47"/>
+      <c r="C4" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="63"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="54">
+      <c r="I4" s="53">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="54">
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="53">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="54">
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="53">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="54">
+      <c r="X4" s="54"/>
+      <c r="Y4" s="54"/>
+      <c r="Z4" s="54"/>
+      <c r="AA4" s="54"/>
+      <c r="AB4" s="54"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="53">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="54">
+      <c r="AE4" s="54"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="54"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="53">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="54">
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="54"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="54"/>
+      <c r="AR4" s="53">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="54">
+      <c r="AS4" s="54"/>
+      <c r="AT4" s="54"/>
+      <c r="AU4" s="54"/>
+      <c r="AV4" s="54"/>
+      <c r="AW4" s="54"/>
+      <c r="AX4" s="54"/>
+      <c r="AY4" s="53">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="54">
+      <c r="AZ4" s="54"/>
+      <c r="BA4" s="54"/>
+      <c r="BB4" s="54"/>
+      <c r="BC4" s="54"/>
+      <c r="BD4" s="54"/>
+      <c r="BE4" s="54"/>
+      <c r="BF4" s="53">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="54">
+      <c r="BG4" s="54"/>
+      <c r="BH4" s="54"/>
+      <c r="BI4" s="54"/>
+      <c r="BJ4" s="54"/>
+      <c r="BK4" s="54"/>
+      <c r="BL4" s="54"/>
+      <c r="BM4" s="53">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="54">
+      <c r="BN4" s="54"/>
+      <c r="BO4" s="54"/>
+      <c r="BP4" s="54"/>
+      <c r="BQ4" s="54"/>
+      <c r="BR4" s="54"/>
+      <c r="BS4" s="54"/>
+      <c r="BT4" s="53">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="55"/>
-      <c r="BV4" s="55"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="55"/>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="54">
+      <c r="BU4" s="54"/>
+      <c r="BV4" s="54"/>
+      <c r="BW4" s="54"/>
+      <c r="BX4" s="54"/>
+      <c r="BY4" s="54"/>
+      <c r="BZ4" s="54"/>
+      <c r="CA4" s="53">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="55"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="54">
+      <c r="CB4" s="54"/>
+      <c r="CC4" s="54"/>
+      <c r="CD4" s="54"/>
+      <c r="CE4" s="54"/>
+      <c r="CF4" s="54"/>
+      <c r="CG4" s="54"/>
+      <c r="CH4" s="53">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="55"/>
-      <c r="CJ4" s="55"/>
-      <c r="CK4" s="55"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="55"/>
-      <c r="CN4" s="55"/>
-      <c r="CO4" s="54">
+      <c r="CI4" s="54"/>
+      <c r="CJ4" s="54"/>
+      <c r="CK4" s="54"/>
+      <c r="CL4" s="54"/>
+      <c r="CM4" s="54"/>
+      <c r="CN4" s="54"/>
+      <c r="CO4" s="53">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="55"/>
-      <c r="CQ4" s="55"/>
-      <c r="CR4" s="55"/>
-      <c r="CS4" s="55"/>
-      <c r="CT4" s="55"/>
-      <c r="CU4" s="55"/>
-      <c r="CV4" s="54">
+      <c r="CP4" s="54"/>
+      <c r="CQ4" s="54"/>
+      <c r="CR4" s="54"/>
+      <c r="CS4" s="54"/>
+      <c r="CT4" s="54"/>
+      <c r="CU4" s="54"/>
+      <c r="CV4" s="53">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="55"/>
-      <c r="CX4" s="55"/>
-      <c r="CY4" s="55"/>
-      <c r="CZ4" s="55"/>
-      <c r="DA4" s="55"/>
-      <c r="DB4" s="55"/>
-      <c r="DC4" s="54">
+      <c r="CW4" s="54"/>
+      <c r="CX4" s="54"/>
+      <c r="CY4" s="54"/>
+      <c r="CZ4" s="54"/>
+      <c r="DA4" s="54"/>
+      <c r="DB4" s="54"/>
+      <c r="DC4" s="53">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="55"/>
-      <c r="DE4" s="55"/>
-      <c r="DF4" s="55"/>
-      <c r="DG4" s="55"/>
-      <c r="DH4" s="55"/>
-      <c r="DI4" s="55"/>
-      <c r="DJ4" s="54">
+      <c r="DD4" s="54"/>
+      <c r="DE4" s="54"/>
+      <c r="DF4" s="54"/>
+      <c r="DG4" s="54"/>
+      <c r="DH4" s="54"/>
+      <c r="DI4" s="54"/>
+      <c r="DJ4" s="53">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="55"/>
-      <c r="DL4" s="55"/>
-      <c r="DM4" s="55"/>
-      <c r="DN4" s="55"/>
-      <c r="DO4" s="55"/>
-      <c r="DP4" s="55"/>
-      <c r="DQ4" s="54">
+      <c r="DK4" s="54"/>
+      <c r="DL4" s="54"/>
+      <c r="DM4" s="54"/>
+      <c r="DN4" s="54"/>
+      <c r="DO4" s="54"/>
+      <c r="DP4" s="54"/>
+      <c r="DQ4" s="53">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="55"/>
-      <c r="DS4" s="55"/>
-      <c r="DT4" s="55"/>
-      <c r="DU4" s="55"/>
-      <c r="DV4" s="55"/>
-      <c r="DW4" s="55"/>
-      <c r="DX4" s="54">
+      <c r="DR4" s="54"/>
+      <c r="DS4" s="54"/>
+      <c r="DT4" s="54"/>
+      <c r="DU4" s="54"/>
+      <c r="DV4" s="54"/>
+      <c r="DW4" s="54"/>
+      <c r="DX4" s="53">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="55"/>
-      <c r="DZ4" s="55"/>
-      <c r="EA4" s="55"/>
-      <c r="EB4" s="55"/>
-      <c r="EC4" s="55"/>
-      <c r="ED4" s="55"/>
-      <c r="EE4" s="54">
+      <c r="DY4" s="54"/>
+      <c r="DZ4" s="54"/>
+      <c r="EA4" s="54"/>
+      <c r="EB4" s="54"/>
+      <c r="EC4" s="54"/>
+      <c r="ED4" s="54"/>
+      <c r="EE4" s="53">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="55"/>
-      <c r="EG4" s="55"/>
-      <c r="EH4" s="55"/>
-      <c r="EI4" s="55"/>
-      <c r="EJ4" s="55"/>
-      <c r="EK4" s="55"/>
-      <c r="EL4" s="54">
+      <c r="EF4" s="54"/>
+      <c r="EG4" s="54"/>
+      <c r="EH4" s="54"/>
+      <c r="EI4" s="54"/>
+      <c r="EJ4" s="54"/>
+      <c r="EK4" s="54"/>
+      <c r="EL4" s="53">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="55"/>
-      <c r="EN4" s="55"/>
-      <c r="EO4" s="55"/>
-      <c r="EP4" s="55"/>
-      <c r="EQ4" s="55"/>
-      <c r="ER4" s="55"/>
-      <c r="ES4" s="54">
+      <c r="EM4" s="54"/>
+      <c r="EN4" s="54"/>
+      <c r="EO4" s="54"/>
+      <c r="EP4" s="54"/>
+      <c r="EQ4" s="54"/>
+      <c r="ER4" s="54"/>
+      <c r="ES4" s="53">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="55"/>
-      <c r="EU4" s="55"/>
-      <c r="EV4" s="55"/>
-      <c r="EW4" s="55"/>
-      <c r="EX4" s="55"/>
-      <c r="EY4" s="55"/>
-      <c r="EZ4" s="54">
+      <c r="ET4" s="54"/>
+      <c r="EU4" s="54"/>
+      <c r="EV4" s="54"/>
+      <c r="EW4" s="54"/>
+      <c r="EX4" s="54"/>
+      <c r="EY4" s="54"/>
+      <c r="EZ4" s="53">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="55"/>
-      <c r="FB4" s="55"/>
-      <c r="FC4" s="55"/>
-      <c r="FD4" s="55"/>
-      <c r="FE4" s="55"/>
-      <c r="FF4" s="55"/>
-      <c r="FG4" s="54">
+      <c r="FA4" s="54"/>
+      <c r="FB4" s="54"/>
+      <c r="FC4" s="54"/>
+      <c r="FD4" s="54"/>
+      <c r="FE4" s="54"/>
+      <c r="FF4" s="54"/>
+      <c r="FG4" s="53">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="55"/>
-      <c r="FI4" s="55"/>
-      <c r="FJ4" s="55"/>
-      <c r="FK4" s="55"/>
-      <c r="FL4" s="55"/>
-      <c r="FM4" s="55"/>
-      <c r="FN4" s="54">
+      <c r="FH4" s="54"/>
+      <c r="FI4" s="54"/>
+      <c r="FJ4" s="54"/>
+      <c r="FK4" s="54"/>
+      <c r="FL4" s="54"/>
+      <c r="FM4" s="54"/>
+      <c r="FN4" s="53">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="55"/>
-      <c r="FP4" s="55"/>
-      <c r="FQ4" s="55"/>
-      <c r="FR4" s="55"/>
-      <c r="FS4" s="55"/>
-      <c r="FT4" s="55"/>
+      <c r="FO4" s="54"/>
+      <c r="FP4" s="54"/>
+      <c r="FQ4" s="54"/>
+      <c r="FR4" s="54"/>
+      <c r="FS4" s="54"/>
+      <c r="FT4" s="54"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -3124,10 +2992,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="59"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -4001,16 +3869,16 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="61" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="61"/>
+      <c r="B8" s="66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="66"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="str">
-        <f t="shared" ref="H8:H50" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" si="117">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -4186,10 +4054,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="60" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="60"/>
+      <c r="B9" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="55"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -4379,10 +4247,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="60" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="60"/>
+      <c r="B10" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="55"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -4572,10 +4440,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="60" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="60"/>
+      <c r="B11" s="55" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="55"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -4762,10 +4630,10 @@
     </row>
     <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="69" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="69"/>
+      <c r="B12" s="56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="56"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -4951,10 +4819,10 @@
     </row>
     <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="69" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="69"/>
+      <c r="B13" s="56" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="56"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -5140,10 +5008,10 @@
     </row>
     <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="69"/>
+      <c r="B14" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="56"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -5151,7 +5019,7 @@
         <v>45355</v>
       </c>
       <c r="F14" s="30">
-        <v>45355</v>
+        <v>45432</v>
       </c>
       <c r="G14" s="28"/>
       <c r="H14" s="28"/>
@@ -5325,24 +5193,20 @@
       <c r="FT14" s="24"/>
     </row>
     <row r="15" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="69"/>
-      <c r="D15" s="29">
-        <v>1</v>
-      </c>
-      <c r="E15" s="30">
-        <v>45355</v>
-      </c>
-      <c r="F15" s="30">
-        <v>45358</v>
-      </c>
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="63" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="63"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="28"/>
-      <c r="H15" s="28">
+      <c r="H15" s="28" t="str">
         <f t="shared" si="117"/>
-        <v>4</v>
+        <v/>
       </c>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -5514,24 +5378,24 @@
       <c r="FT15" s="24"/>
     </row>
     <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="69" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="69"/>
-      <c r="D16" s="29">
+      <c r="A16" s="8"/>
+      <c r="B16" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="50"/>
+      <c r="D16" s="35">
         <v>1</v>
       </c>
-      <c r="E16" s="30">
-        <v>45358</v>
-      </c>
-      <c r="F16" s="30">
-        <v>45440</v>
+      <c r="E16" s="36">
+        <v>45362</v>
+      </c>
+      <c r="F16" s="36">
+        <v>45432</v>
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28">
         <f t="shared" si="117"/>
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="I16" s="23"/>
       <c r="J16" s="23"/>
@@ -5703,21 +5567,22 @@
       <c r="FT16" s="24"/>
     </row>
     <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="34"/>
+      <c r="A17" s="8"/>
+      <c r="B17" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="35">
+        <v>1</v>
+      </c>
+      <c r="E17" s="36">
+        <v>45362</v>
+      </c>
+      <c r="F17" s="36">
+        <v>45432</v>
+      </c>
       <c r="G17" s="28"/>
-      <c r="H17" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
+      <c r="H17" s="28"/>
       <c r="I17" s="23"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
@@ -5889,10 +5754,10 @@
     </row>
     <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="70" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="70"/>
+      <c r="B18" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="50"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -5900,13 +5765,10 @@
         <v>45362</v>
       </c>
       <c r="F18" s="36">
-        <v>45363</v>
+        <v>45432</v>
       </c>
       <c r="G18" s="28"/>
-      <c r="H18" s="28">
-        <f t="shared" si="117"/>
-        <v>2</v>
-      </c>
+      <c r="H18" s="28"/>
       <c r="I18" s="23"/>
       <c r="J18" s="23"/>
       <c r="K18" s="23"/>
@@ -6077,11 +5939,11 @@
       <c r="FT18" s="24"/>
     </row>
     <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="70"/>
+      <c r="A19" s="7"/>
+      <c r="B19" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" s="50"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -6089,10 +5951,13 @@
         <v>45362</v>
       </c>
       <c r="F19" s="36">
-        <v>45363</v>
+        <v>45437</v>
       </c>
       <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
+      <c r="H19" s="28">
+        <f t="shared" si="117"/>
+        <v>76</v>
+      </c>
       <c r="I19" s="23"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
@@ -6105,8 +5970,8 @@
       <c r="R19" s="23"/>
       <c r="S19" s="23"/>
       <c r="T19" s="23"/>
-      <c r="U19" s="23"/>
-      <c r="V19" s="23"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
       <c r="W19" s="23"/>
       <c r="X19" s="23"/>
       <c r="Y19" s="23"/>
@@ -6264,23 +6129,23 @@
     </row>
     <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="70" t="s">
-        <v>81</v>
-      </c>
-      <c r="C20" s="70"/>
+      <c r="B20" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="50"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
       <c r="E20" s="36">
-        <v>45362</v>
+        <v>45363</v>
       </c>
       <c r="F20" s="36">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28">
         <f t="shared" si="117"/>
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I20" s="23"/>
       <c r="J20" s="23"/>
@@ -6453,10 +6318,10 @@
     </row>
     <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="70" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="70"/>
+      <c r="B21" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="50"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -6464,13 +6329,10 @@
         <v>45363</v>
       </c>
       <c r="F21" s="36">
-        <v>45438</v>
+        <v>45437</v>
       </c>
       <c r="G21" s="28"/>
-      <c r="H21" s="28">
-        <f t="shared" si="117"/>
-        <v>76</v>
-      </c>
+      <c r="H21" s="28"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
@@ -6642,10 +6504,10 @@
     </row>
     <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="70"/>
+      <c r="B22" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="50"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -6653,7 +6515,7 @@
         <v>45363</v>
       </c>
       <c r="F22" s="36">
-        <v>45438</v>
+        <v>45440</v>
       </c>
       <c r="G22" s="28"/>
       <c r="H22" s="28"/>
@@ -6828,10 +6690,10 @@
     </row>
     <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="70" t="s">
-        <v>82</v>
-      </c>
-      <c r="C23" s="70"/>
+      <c r="B23" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="50"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -6842,7 +6704,10 @@
         <v>45440</v>
       </c>
       <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="H23" s="28">
+        <f t="shared" si="117"/>
+        <v>78</v>
+      </c>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
@@ -7013,24 +6878,20 @@
       <c r="FT23" s="24"/>
     </row>
     <row r="24" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="70" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="70"/>
-      <c r="D24" s="35">
-        <v>1</v>
-      </c>
-      <c r="E24" s="36">
-        <v>45363</v>
-      </c>
-      <c r="F24" s="36">
-        <v>45442</v>
-      </c>
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="64"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="39"/>
       <c r="G24" s="28"/>
-      <c r="H24" s="28">
+      <c r="H24" s="28" t="str">
         <f t="shared" si="117"/>
-        <v>80</v>
+        <v/>
       </c>
       <c r="I24" s="23"/>
       <c r="J24" s="23"/>
@@ -7044,8 +6905,8 @@
       <c r="R24" s="23"/>
       <c r="S24" s="23"/>
       <c r="T24" s="23"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
+      <c r="U24" s="23"/>
+      <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
       <c r="Y24" s="23"/>
@@ -7202,20 +7063,24 @@
       <c r="FT24" s="24"/>
     </row>
     <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" s="58" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25" s="58"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="39"/>
+      <c r="A25" s="7"/>
+      <c r="B25" s="49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="49"/>
+      <c r="D25" s="40">
+        <v>1</v>
+      </c>
+      <c r="E25" s="41">
+        <v>45364</v>
+      </c>
+      <c r="F25" s="41">
+        <v>45442</v>
+      </c>
       <c r="G25" s="28"/>
-      <c r="H25" s="28" t="str">
+      <c r="H25" s="28">
         <f t="shared" si="117"/>
-        <v/>
+        <v>79</v>
       </c>
       <c r="I25" s="23"/>
       <c r="J25" s="23"/>
@@ -7388,10 +7253,10 @@
     </row>
     <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="56" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" s="56"/>
+      <c r="B26" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" s="49"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -7399,13 +7264,10 @@
         <v>45364</v>
       </c>
       <c r="F26" s="41">
-        <v>45382</v>
+        <v>45469</v>
       </c>
       <c r="G26" s="28"/>
-      <c r="H26" s="28">
-        <f t="shared" si="117"/>
-        <v>19</v>
-      </c>
+      <c r="H26" s="28"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
       <c r="K26" s="23"/>
@@ -7577,18 +7439,18 @@
     </row>
     <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="C27" s="56"/>
+      <c r="B27" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="49"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
       <c r="E27" s="41">
-        <v>45364</v>
+        <v>45384</v>
       </c>
       <c r="F27" s="41">
-        <v>45384</v>
+        <v>45458</v>
       </c>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
@@ -7763,10 +7625,10 @@
     </row>
     <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="56"/>
+      <c r="B28" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="49"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -7774,10 +7636,13 @@
         <v>45384</v>
       </c>
       <c r="F28" s="41">
-        <v>45425</v>
+        <v>45458</v>
       </c>
       <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
+      <c r="H28" s="28">
+        <f t="shared" si="117"/>
+        <v>75</v>
+      </c>
       <c r="I28" s="23"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
@@ -7949,23 +7814,23 @@
     </row>
     <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="56" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" s="56"/>
+      <c r="B29" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="49"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
       <c r="E29" s="41">
+        <v>45379</v>
+      </c>
+      <c r="F29" s="41">
         <v>45384</v>
-      </c>
-      <c r="F29" s="41">
-        <v>45425</v>
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28">
         <f t="shared" si="117"/>
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
@@ -8138,23 +8003,23 @@
     </row>
     <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C30" s="56"/>
+      <c r="B30" s="49" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="49"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
       <c r="E30" s="41">
-        <v>45379</v>
+        <v>45384</v>
       </c>
       <c r="F30" s="41">
-        <v>45384</v>
+        <v>45469</v>
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28">
         <f t="shared" si="117"/>
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="I30" s="23"/>
       <c r="J30" s="23"/>
@@ -8327,23 +8192,23 @@
     </row>
     <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="56"/>
+      <c r="B31" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="49"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
       <c r="E31" s="41">
-        <v>45384</v>
+        <v>45386</v>
       </c>
       <c r="F31" s="41">
-        <v>45386</v>
+        <v>45469</v>
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28">
         <f t="shared" si="117"/>
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="I31" s="23"/>
       <c r="J31" s="23"/>
@@ -8516,23 +8381,23 @@
     </row>
     <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="C32" s="56"/>
+      <c r="B32" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="49"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
       <c r="E32" s="41">
-        <v>45386</v>
+        <v>45390</v>
       </c>
       <c r="F32" s="41">
-        <v>45390</v>
+        <v>45469</v>
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28">
         <f t="shared" si="117"/>
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="I32" s="23"/>
       <c r="J32" s="23"/>
@@ -8705,10 +8570,10 @@
     </row>
     <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="56" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" s="56"/>
+      <c r="B33" s="49" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="49"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -8716,13 +8581,10 @@
         <v>45390</v>
       </c>
       <c r="F33" s="41">
-        <v>45401</v>
+        <v>45458</v>
       </c>
       <c r="G33" s="28"/>
-      <c r="H33" s="28">
-        <f t="shared" si="117"/>
-        <v>12</v>
-      </c>
+      <c r="H33" s="28"/>
       <c r="I33" s="23"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
@@ -8894,10 +8756,10 @@
     </row>
     <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="56"/>
+      <c r="B34" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" s="49"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -8905,7 +8767,7 @@
         <v>45390</v>
       </c>
       <c r="F34" s="41">
-        <v>45446</v>
+        <v>45458</v>
       </c>
       <c r="G34" s="28"/>
       <c r="H34" s="28"/>
@@ -9080,21 +8942,24 @@
     </row>
     <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" s="56"/>
+      <c r="B35" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" s="49"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
       <c r="E35" s="41">
-        <v>45390</v>
+        <v>45397</v>
       </c>
       <c r="F35" s="41">
-        <v>45446</v>
+        <v>45478</v>
       </c>
       <c r="G35" s="28"/>
-      <c r="H35" s="28"/>
+      <c r="H35" s="28">
+        <f t="shared" si="117"/>
+        <v>82</v>
+      </c>
       <c r="I35" s="23"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
@@ -9266,23 +9131,23 @@
     </row>
     <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" s="56"/>
+      <c r="B36" s="49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36" s="49"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
       <c r="E36" s="41">
-        <v>45397</v>
+        <v>45384</v>
       </c>
       <c r="F36" s="41">
-        <v>45447</v>
+        <v>45482</v>
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28">
         <f t="shared" si="117"/>
-        <v>51</v>
+        <v>99</v>
       </c>
       <c r="I36" s="23"/>
       <c r="J36" s="23"/>
@@ -9454,24 +9319,20 @@
       <c r="FT36" s="24"/>
     </row>
     <row r="37" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="56"/>
-      <c r="D37" s="40">
-        <v>0.9</v>
-      </c>
-      <c r="E37" s="41">
-        <v>45384</v>
-      </c>
-      <c r="F37" s="41">
-        <v>45451</v>
-      </c>
+      <c r="A37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="52" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37" s="52"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="28">
+      <c r="H37" s="28" t="str">
         <f t="shared" si="117"/>
-        <v>68</v>
+        <v/>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -9643,20 +9504,24 @@
       <c r="FT37" s="24"/>
     </row>
     <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="73" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="73"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="43"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="7"/>
+      <c r="B38" s="51" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="45">
+        <v>1</v>
+      </c>
+      <c r="E38" s="46">
+        <v>45391</v>
+      </c>
+      <c r="F38" s="46">
+        <v>45476</v>
+      </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28" t="str">
+      <c r="H38" s="28">
         <f t="shared" si="117"/>
-        <v/>
+        <v>86</v>
       </c>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
@@ -9829,23 +9694,23 @@
     </row>
     <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="C39" s="53"/>
+      <c r="B39" s="51" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" s="51"/>
       <c r="D39" s="45">
         <v>1</v>
       </c>
       <c r="E39" s="46">
-        <v>45391</v>
+        <v>45390</v>
       </c>
       <c r="F39" s="46">
-        <v>45398</v>
+        <v>45476</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28">
         <f t="shared" si="117"/>
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
@@ -10018,23 +9883,23 @@
     </row>
     <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="53" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="53"/>
+      <c r="B40" s="51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C40" s="51"/>
       <c r="D40" s="45">
         <v>1</v>
       </c>
       <c r="E40" s="46">
-        <v>45390</v>
+        <v>45394</v>
       </c>
       <c r="F40" s="46">
-        <v>45393</v>
+        <v>45476</v>
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28">
         <f t="shared" si="117"/>
-        <v>4</v>
+        <v>83</v>
       </c>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
@@ -10207,24 +10072,21 @@
     </row>
     <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="53" t="s">
-        <v>74</v>
-      </c>
-      <c r="C41" s="53"/>
+      <c r="B41" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41" s="51"/>
       <c r="D41" s="45">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="E41" s="46">
         <v>45394</v>
       </c>
       <c r="F41" s="46">
-        <v>45454</v>
+        <v>45482</v>
       </c>
       <c r="G41" s="28"/>
-      <c r="H41" s="28">
-        <f t="shared" si="117"/>
-        <v>61</v>
-      </c>
+      <c r="H41" s="28"/>
       <c r="I41" s="23"/>
       <c r="J41" s="23"/>
       <c r="K41" s="23"/>
@@ -10396,23 +10258,23 @@
     </row>
     <row r="42" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="53"/>
+      <c r="B42" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C42" s="51"/>
       <c r="D42" s="45">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E42" s="46">
-        <v>45454</v>
+        <v>45394</v>
       </c>
       <c r="F42" s="46">
-        <v>45461</v>
+        <v>45483</v>
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28">
         <f t="shared" si="117"/>
-        <v>8</v>
+        <v>90</v>
       </c>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
@@ -10583,5826 +10445,25 @@
       <c r="FS42" s="23"/>
       <c r="FT42" s="24"/>
     </row>
-    <row r="43" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="45">
-        <v>0</v>
-      </c>
-      <c r="E43" s="46">
-        <v>45461</v>
-      </c>
-      <c r="F43" s="46">
-        <v>45468</v>
-      </c>
-      <c r="G43" s="28"/>
-      <c r="H43" s="28">
-        <f t="shared" si="117"/>
-        <v>8</v>
-      </c>
-      <c r="I43" s="23"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="23"/>
-      <c r="L43" s="23"/>
-      <c r="M43" s="23"/>
-      <c r="N43" s="23"/>
-      <c r="O43" s="23"/>
-      <c r="P43" s="23"/>
-      <c r="Q43" s="23"/>
-      <c r="R43" s="23"/>
-      <c r="S43" s="23"/>
-      <c r="T43" s="23"/>
-      <c r="U43" s="23"/>
-      <c r="V43" s="23"/>
-      <c r="W43" s="23"/>
-      <c r="X43" s="23"/>
-      <c r="Y43" s="23"/>
-      <c r="Z43" s="23"/>
-      <c r="AA43" s="23"/>
-      <c r="AB43" s="23"/>
-      <c r="AC43" s="23"/>
-      <c r="AD43" s="23"/>
-      <c r="AE43" s="23"/>
-      <c r="AF43" s="23"/>
-      <c r="AG43" s="23"/>
-      <c r="AH43" s="23"/>
-      <c r="AI43" s="23"/>
-      <c r="AJ43" s="23"/>
-      <c r="AK43" s="23"/>
-      <c r="AL43" s="23"/>
-      <c r="AM43" s="23"/>
-      <c r="AN43" s="23"/>
-      <c r="AO43" s="23"/>
-      <c r="AP43" s="23"/>
-      <c r="AQ43" s="24"/>
-      <c r="AR43" s="23"/>
-      <c r="AS43" s="23"/>
-      <c r="AT43" s="23"/>
-      <c r="AU43" s="23"/>
-      <c r="AV43" s="23"/>
-      <c r="AW43" s="23"/>
-      <c r="AX43" s="24"/>
-      <c r="AY43" s="23"/>
-      <c r="AZ43" s="23"/>
-      <c r="BA43" s="23"/>
-      <c r="BB43" s="23"/>
-      <c r="BC43" s="23"/>
-      <c r="BD43" s="23"/>
-      <c r="BE43" s="24"/>
-      <c r="BF43" s="23"/>
-      <c r="BG43" s="23"/>
-      <c r="BH43" s="23"/>
-      <c r="BI43" s="23"/>
-      <c r="BJ43" s="23"/>
-      <c r="BK43" s="23"/>
-      <c r="BL43" s="24"/>
-      <c r="BM43" s="23"/>
-      <c r="BN43" s="23"/>
-      <c r="BO43" s="23"/>
-      <c r="BP43" s="23"/>
-      <c r="BQ43" s="23"/>
-      <c r="BR43" s="23"/>
-      <c r="BS43" s="24"/>
-      <c r="BT43" s="23"/>
-      <c r="BU43" s="23"/>
-      <c r="BV43" s="23"/>
-      <c r="BW43" s="23"/>
-      <c r="BX43" s="23"/>
-      <c r="BY43" s="23"/>
-      <c r="BZ43" s="24"/>
-      <c r="CA43" s="23"/>
-      <c r="CB43" s="23"/>
-      <c r="CC43" s="23"/>
-      <c r="CD43" s="23"/>
-      <c r="CE43" s="23"/>
-      <c r="CF43" s="23"/>
-      <c r="CG43" s="24"/>
-      <c r="CH43" s="23"/>
-      <c r="CI43" s="23"/>
-      <c r="CJ43" s="23"/>
-      <c r="CK43" s="23"/>
-      <c r="CL43" s="23"/>
-      <c r="CM43" s="23"/>
-      <c r="CN43" s="24"/>
-      <c r="CO43" s="23"/>
-      <c r="CP43" s="23"/>
-      <c r="CQ43" s="23"/>
-      <c r="CR43" s="23"/>
-      <c r="CS43" s="23"/>
-      <c r="CT43" s="23"/>
-      <c r="CU43" s="24"/>
-      <c r="CV43" s="23"/>
-      <c r="CW43" s="23"/>
-      <c r="CX43" s="23"/>
-      <c r="CY43" s="23"/>
-      <c r="CZ43" s="23"/>
-      <c r="DA43" s="23"/>
-      <c r="DB43" s="24"/>
-      <c r="DC43" s="23"/>
-      <c r="DD43" s="23"/>
-      <c r="DE43" s="23"/>
-      <c r="DF43" s="23"/>
-      <c r="DG43" s="23"/>
-      <c r="DH43" s="23"/>
-      <c r="DI43" s="24"/>
-      <c r="DJ43" s="23"/>
-      <c r="DK43" s="23"/>
-      <c r="DL43" s="23"/>
-      <c r="DM43" s="23"/>
-      <c r="DN43" s="23"/>
-      <c r="DO43" s="23"/>
-      <c r="DP43" s="24"/>
-      <c r="DQ43" s="23"/>
-      <c r="DR43" s="23"/>
-      <c r="DS43" s="23"/>
-      <c r="DT43" s="23"/>
-      <c r="DU43" s="23"/>
-      <c r="DV43" s="23"/>
-      <c r="DW43" s="24"/>
-      <c r="DX43" s="23"/>
-      <c r="DY43" s="23"/>
-      <c r="DZ43" s="23"/>
-      <c r="EA43" s="23"/>
-      <c r="EB43" s="23"/>
-      <c r="EC43" s="23"/>
-      <c r="ED43" s="24"/>
-      <c r="EE43" s="23"/>
-      <c r="EF43" s="23"/>
-      <c r="EG43" s="23"/>
-      <c r="EH43" s="23"/>
-      <c r="EI43" s="23"/>
-      <c r="EJ43" s="23"/>
-      <c r="EK43" s="24"/>
-      <c r="EL43" s="23"/>
-      <c r="EM43" s="23"/>
-      <c r="EN43" s="23"/>
-      <c r="EO43" s="23"/>
-      <c r="EP43" s="23"/>
-      <c r="EQ43" s="23"/>
-      <c r="ER43" s="24"/>
-      <c r="ES43" s="23"/>
-      <c r="ET43" s="23"/>
-      <c r="EU43" s="23"/>
-      <c r="EV43" s="23"/>
-      <c r="EW43" s="23"/>
-      <c r="EX43" s="23"/>
-      <c r="EY43" s="24"/>
-      <c r="EZ43" s="23"/>
-      <c r="FA43" s="23"/>
-      <c r="FB43" s="23"/>
-      <c r="FC43" s="23"/>
-      <c r="FD43" s="23"/>
-      <c r="FE43" s="23"/>
-      <c r="FF43" s="24"/>
-      <c r="FG43" s="23"/>
-      <c r="FH43" s="23"/>
-      <c r="FI43" s="23"/>
-      <c r="FJ43" s="23"/>
-      <c r="FK43" s="23"/>
-      <c r="FL43" s="23"/>
-      <c r="FM43" s="24"/>
-      <c r="FN43" s="23"/>
-      <c r="FO43" s="23"/>
-      <c r="FP43" s="23"/>
-      <c r="FQ43" s="23"/>
-      <c r="FR43" s="23"/>
-      <c r="FS43" s="23"/>
-      <c r="FT43" s="24"/>
-    </row>
-    <row r="44" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="7"/>
-      <c r="B44" s="53" t="s">
-        <v>38</v>
-      </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="45">
-        <v>0</v>
-      </c>
-      <c r="E44" s="46">
-        <v>45468</v>
-      </c>
-      <c r="F44" s="46">
-        <v>45473</v>
-      </c>
-      <c r="G44" s="28"/>
-      <c r="H44" s="28"/>
-      <c r="I44" s="23"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="23"/>
-      <c r="L44" s="23"/>
-      <c r="M44" s="23"/>
-      <c r="N44" s="23"/>
-      <c r="O44" s="23"/>
-      <c r="P44" s="23"/>
-      <c r="Q44" s="23"/>
-      <c r="R44" s="23"/>
-      <c r="S44" s="23"/>
-      <c r="T44" s="23"/>
-      <c r="U44" s="23"/>
-      <c r="V44" s="23"/>
-      <c r="W44" s="23"/>
-      <c r="X44" s="23"/>
-      <c r="Y44" s="23"/>
-      <c r="Z44" s="23"/>
-      <c r="AA44" s="23"/>
-      <c r="AB44" s="23"/>
-      <c r="AC44" s="23"/>
-      <c r="AD44" s="23"/>
-      <c r="AE44" s="23"/>
-      <c r="AF44" s="23"/>
-      <c r="AG44" s="23"/>
-      <c r="AH44" s="23"/>
-      <c r="AI44" s="23"/>
-      <c r="AJ44" s="23"/>
-      <c r="AK44" s="23"/>
-      <c r="AL44" s="23"/>
-      <c r="AM44" s="23"/>
-      <c r="AN44" s="23"/>
-      <c r="AO44" s="23"/>
-      <c r="AP44" s="23"/>
-      <c r="AQ44" s="24"/>
-      <c r="AR44" s="23"/>
-      <c r="AS44" s="23"/>
-      <c r="AT44" s="23"/>
-      <c r="AU44" s="23"/>
-      <c r="AV44" s="23"/>
-      <c r="AW44" s="23"/>
-      <c r="AX44" s="24"/>
-      <c r="AY44" s="23"/>
-      <c r="AZ44" s="23"/>
-      <c r="BA44" s="23"/>
-      <c r="BB44" s="23"/>
-      <c r="BC44" s="23"/>
-      <c r="BD44" s="23"/>
-      <c r="BE44" s="24"/>
-      <c r="BF44" s="23"/>
-      <c r="BG44" s="23"/>
-      <c r="BH44" s="23"/>
-      <c r="BI44" s="23"/>
-      <c r="BJ44" s="23"/>
-      <c r="BK44" s="23"/>
-      <c r="BL44" s="24"/>
-      <c r="BM44" s="23"/>
-      <c r="BN44" s="23"/>
-      <c r="BO44" s="23"/>
-      <c r="BP44" s="23"/>
-      <c r="BQ44" s="23"/>
-      <c r="BR44" s="23"/>
-      <c r="BS44" s="24"/>
-      <c r="BT44" s="23"/>
-      <c r="BU44" s="23"/>
-      <c r="BV44" s="23"/>
-      <c r="BW44" s="23"/>
-      <c r="BX44" s="23"/>
-      <c r="BY44" s="23"/>
-      <c r="BZ44" s="24"/>
-      <c r="CA44" s="23"/>
-      <c r="CB44" s="23"/>
-      <c r="CC44" s="23"/>
-      <c r="CD44" s="23"/>
-      <c r="CE44" s="23"/>
-      <c r="CF44" s="23"/>
-      <c r="CG44" s="24"/>
-      <c r="CH44" s="23"/>
-      <c r="CI44" s="23"/>
-      <c r="CJ44" s="23"/>
-      <c r="CK44" s="23"/>
-      <c r="CL44" s="23"/>
-      <c r="CM44" s="23"/>
-      <c r="CN44" s="24"/>
-      <c r="CO44" s="23"/>
-      <c r="CP44" s="23"/>
-      <c r="CQ44" s="23"/>
-      <c r="CR44" s="23"/>
-      <c r="CS44" s="23"/>
-      <c r="CT44" s="23"/>
-      <c r="CU44" s="24"/>
-      <c r="CV44" s="23"/>
-      <c r="CW44" s="23"/>
-      <c r="CX44" s="23"/>
-      <c r="CY44" s="23"/>
-      <c r="CZ44" s="23"/>
-      <c r="DA44" s="23"/>
-      <c r="DB44" s="24"/>
-      <c r="DC44" s="23"/>
-      <c r="DD44" s="23"/>
-      <c r="DE44" s="23"/>
-      <c r="DF44" s="23"/>
-      <c r="DG44" s="23"/>
-      <c r="DH44" s="23"/>
-      <c r="DI44" s="24"/>
-      <c r="DJ44" s="23"/>
-      <c r="DK44" s="23"/>
-      <c r="DL44" s="23"/>
-      <c r="DM44" s="23"/>
-      <c r="DN44" s="23"/>
-      <c r="DO44" s="23"/>
-      <c r="DP44" s="24"/>
-      <c r="DQ44" s="23"/>
-      <c r="DR44" s="23"/>
-      <c r="DS44" s="23"/>
-      <c r="DT44" s="23"/>
-      <c r="DU44" s="23"/>
-      <c r="DV44" s="23"/>
-      <c r="DW44" s="24"/>
-      <c r="DX44" s="23"/>
-      <c r="DY44" s="23"/>
-      <c r="DZ44" s="23"/>
-      <c r="EA44" s="23"/>
-      <c r="EB44" s="23"/>
-      <c r="EC44" s="23"/>
-      <c r="ED44" s="24"/>
-      <c r="EE44" s="23"/>
-      <c r="EF44" s="23"/>
-      <c r="EG44" s="23"/>
-      <c r="EH44" s="23"/>
-      <c r="EI44" s="23"/>
-      <c r="EJ44" s="23"/>
-      <c r="EK44" s="24"/>
-      <c r="EL44" s="23"/>
-      <c r="EM44" s="23"/>
-      <c r="EN44" s="23"/>
-      <c r="EO44" s="23"/>
-      <c r="EP44" s="23"/>
-      <c r="EQ44" s="23"/>
-      <c r="ER44" s="24"/>
-      <c r="ES44" s="23"/>
-      <c r="ET44" s="23"/>
-      <c r="EU44" s="23"/>
-      <c r="EV44" s="23"/>
-      <c r="EW44" s="23"/>
-      <c r="EX44" s="23"/>
-      <c r="EY44" s="24"/>
-      <c r="EZ44" s="23"/>
-      <c r="FA44" s="23"/>
-      <c r="FB44" s="23"/>
-      <c r="FC44" s="23"/>
-      <c r="FD44" s="23"/>
-      <c r="FE44" s="23"/>
-      <c r="FF44" s="24"/>
-      <c r="FG44" s="23"/>
-      <c r="FH44" s="23"/>
-      <c r="FI44" s="23"/>
-      <c r="FJ44" s="23"/>
-      <c r="FK44" s="23"/>
-      <c r="FL44" s="23"/>
-      <c r="FM44" s="24"/>
-      <c r="FN44" s="23"/>
-      <c r="FO44" s="23"/>
-      <c r="FP44" s="23"/>
-      <c r="FQ44" s="23"/>
-      <c r="FR44" s="23"/>
-      <c r="FS44" s="23"/>
-      <c r="FT44" s="24"/>
-    </row>
-    <row r="45" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="7"/>
-      <c r="B45" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="45">
-        <v>0</v>
-      </c>
-      <c r="E45" s="46">
-        <v>45468</v>
-      </c>
-      <c r="F45" s="46">
-        <v>45473</v>
-      </c>
-      <c r="G45" s="28"/>
-      <c r="H45" s="28"/>
-      <c r="I45" s="23"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="23"/>
-      <c r="L45" s="23"/>
-      <c r="M45" s="23"/>
-      <c r="N45" s="23"/>
-      <c r="O45" s="23"/>
-      <c r="P45" s="23"/>
-      <c r="Q45" s="23"/>
-      <c r="R45" s="23"/>
-      <c r="S45" s="23"/>
-      <c r="T45" s="23"/>
-      <c r="U45" s="23"/>
-      <c r="V45" s="23"/>
-      <c r="W45" s="23"/>
-      <c r="X45" s="23"/>
-      <c r="Y45" s="23"/>
-      <c r="Z45" s="23"/>
-      <c r="AA45" s="23"/>
-      <c r="AB45" s="23"/>
-      <c r="AC45" s="23"/>
-      <c r="AD45" s="23"/>
-      <c r="AE45" s="23"/>
-      <c r="AF45" s="23"/>
-      <c r="AG45" s="23"/>
-      <c r="AH45" s="23"/>
-      <c r="AI45" s="23"/>
-      <c r="AJ45" s="23"/>
-      <c r="AK45" s="23"/>
-      <c r="AL45" s="23"/>
-      <c r="AM45" s="23"/>
-      <c r="AN45" s="23"/>
-      <c r="AO45" s="23"/>
-      <c r="AP45" s="23"/>
-      <c r="AQ45" s="24"/>
-      <c r="AR45" s="23"/>
-      <c r="AS45" s="23"/>
-      <c r="AT45" s="23"/>
-      <c r="AU45" s="23"/>
-      <c r="AV45" s="23"/>
-      <c r="AW45" s="23"/>
-      <c r="AX45" s="24"/>
-      <c r="AY45" s="23"/>
-      <c r="AZ45" s="23"/>
-      <c r="BA45" s="23"/>
-      <c r="BB45" s="23"/>
-      <c r="BC45" s="23"/>
-      <c r="BD45" s="23"/>
-      <c r="BE45" s="24"/>
-      <c r="BF45" s="23"/>
-      <c r="BG45" s="23"/>
-      <c r="BH45" s="23"/>
-      <c r="BI45" s="23"/>
-      <c r="BJ45" s="23"/>
-      <c r="BK45" s="23"/>
-      <c r="BL45" s="24"/>
-      <c r="BM45" s="23"/>
-      <c r="BN45" s="23"/>
-      <c r="BO45" s="23"/>
-      <c r="BP45" s="23"/>
-      <c r="BQ45" s="23"/>
-      <c r="BR45" s="23"/>
-      <c r="BS45" s="24"/>
-      <c r="BT45" s="23"/>
-      <c r="BU45" s="23"/>
-      <c r="BV45" s="23"/>
-      <c r="BW45" s="23"/>
-      <c r="BX45" s="23"/>
-      <c r="BY45" s="23"/>
-      <c r="BZ45" s="24"/>
-      <c r="CA45" s="23"/>
-      <c r="CB45" s="23"/>
-      <c r="CC45" s="23"/>
-      <c r="CD45" s="23"/>
-      <c r="CE45" s="23"/>
-      <c r="CF45" s="23"/>
-      <c r="CG45" s="24"/>
-      <c r="CH45" s="23"/>
-      <c r="CI45" s="23"/>
-      <c r="CJ45" s="23"/>
-      <c r="CK45" s="23"/>
-      <c r="CL45" s="23"/>
-      <c r="CM45" s="23"/>
-      <c r="CN45" s="24"/>
-      <c r="CO45" s="23"/>
-      <c r="CP45" s="23"/>
-      <c r="CQ45" s="23"/>
-      <c r="CR45" s="23"/>
-      <c r="CS45" s="23"/>
-      <c r="CT45" s="23"/>
-      <c r="CU45" s="24"/>
-      <c r="CV45" s="23"/>
-      <c r="CW45" s="23"/>
-      <c r="CX45" s="23"/>
-      <c r="CY45" s="23"/>
-      <c r="CZ45" s="23"/>
-      <c r="DA45" s="23"/>
-      <c r="DB45" s="24"/>
-      <c r="DC45" s="23"/>
-      <c r="DD45" s="23"/>
-      <c r="DE45" s="23"/>
-      <c r="DF45" s="23"/>
-      <c r="DG45" s="23"/>
-      <c r="DH45" s="23"/>
-      <c r="DI45" s="24"/>
-      <c r="DJ45" s="23"/>
-      <c r="DK45" s="23"/>
-      <c r="DL45" s="23"/>
-      <c r="DM45" s="23"/>
-      <c r="DN45" s="23"/>
-      <c r="DO45" s="23"/>
-      <c r="DP45" s="24"/>
-      <c r="DQ45" s="23"/>
-      <c r="DR45" s="23"/>
-      <c r="DS45" s="23"/>
-      <c r="DT45" s="23"/>
-      <c r="DU45" s="23"/>
-      <c r="DV45" s="23"/>
-      <c r="DW45" s="24"/>
-      <c r="DX45" s="23"/>
-      <c r="DY45" s="23"/>
-      <c r="DZ45" s="23"/>
-      <c r="EA45" s="23"/>
-      <c r="EB45" s="23"/>
-      <c r="EC45" s="23"/>
-      <c r="ED45" s="24"/>
-      <c r="EE45" s="23"/>
-      <c r="EF45" s="23"/>
-      <c r="EG45" s="23"/>
-      <c r="EH45" s="23"/>
-      <c r="EI45" s="23"/>
-      <c r="EJ45" s="23"/>
-      <c r="EK45" s="24"/>
-      <c r="EL45" s="23"/>
-      <c r="EM45" s="23"/>
-      <c r="EN45" s="23"/>
-      <c r="EO45" s="23"/>
-      <c r="EP45" s="23"/>
-      <c r="EQ45" s="23"/>
-      <c r="ER45" s="24"/>
-      <c r="ES45" s="23"/>
-      <c r="ET45" s="23"/>
-      <c r="EU45" s="23"/>
-      <c r="EV45" s="23"/>
-      <c r="EW45" s="23"/>
-      <c r="EX45" s="23"/>
-      <c r="EY45" s="24"/>
-      <c r="EZ45" s="23"/>
-      <c r="FA45" s="23"/>
-      <c r="FB45" s="23"/>
-      <c r="FC45" s="23"/>
-      <c r="FD45" s="23"/>
-      <c r="FE45" s="23"/>
-      <c r="FF45" s="24"/>
-      <c r="FG45" s="23"/>
-      <c r="FH45" s="23"/>
-      <c r="FI45" s="23"/>
-      <c r="FJ45" s="23"/>
-      <c r="FK45" s="23"/>
-      <c r="FL45" s="23"/>
-      <c r="FM45" s="24"/>
-      <c r="FN45" s="23"/>
-      <c r="FO45" s="23"/>
-      <c r="FP45" s="23"/>
-      <c r="FQ45" s="23"/>
-      <c r="FR45" s="23"/>
-      <c r="FS45" s="23"/>
-      <c r="FT45" s="24"/>
-    </row>
-    <row r="46" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="7"/>
-      <c r="B46" s="53" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="45">
-        <v>0</v>
-      </c>
-      <c r="E46" s="46">
-        <v>45473</v>
-      </c>
-      <c r="F46" s="46">
-        <v>45476</v>
-      </c>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="23"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="23"/>
-      <c r="L46" s="23"/>
-      <c r="M46" s="23"/>
-      <c r="N46" s="23"/>
-      <c r="O46" s="23"/>
-      <c r="P46" s="23"/>
-      <c r="Q46" s="23"/>
-      <c r="R46" s="23"/>
-      <c r="S46" s="23"/>
-      <c r="T46" s="23"/>
-      <c r="U46" s="23"/>
-      <c r="V46" s="23"/>
-      <c r="W46" s="23"/>
-      <c r="X46" s="23"/>
-      <c r="Y46" s="23"/>
-      <c r="Z46" s="23"/>
-      <c r="AA46" s="23"/>
-      <c r="AB46" s="23"/>
-      <c r="AC46" s="23"/>
-      <c r="AD46" s="23"/>
-      <c r="AE46" s="23"/>
-      <c r="AF46" s="23"/>
-      <c r="AG46" s="23"/>
-      <c r="AH46" s="23"/>
-      <c r="AI46" s="23"/>
-      <c r="AJ46" s="23"/>
-      <c r="AK46" s="23"/>
-      <c r="AL46" s="23"/>
-      <c r="AM46" s="23"/>
-      <c r="AN46" s="23"/>
-      <c r="AO46" s="23"/>
-      <c r="AP46" s="23"/>
-      <c r="AQ46" s="24"/>
-      <c r="AR46" s="23"/>
-      <c r="AS46" s="23"/>
-      <c r="AT46" s="23"/>
-      <c r="AU46" s="23"/>
-      <c r="AV46" s="23"/>
-      <c r="AW46" s="23"/>
-      <c r="AX46" s="24"/>
-      <c r="AY46" s="23"/>
-      <c r="AZ46" s="23"/>
-      <c r="BA46" s="23"/>
-      <c r="BB46" s="23"/>
-      <c r="BC46" s="23"/>
-      <c r="BD46" s="23"/>
-      <c r="BE46" s="24"/>
-      <c r="BF46" s="23"/>
-      <c r="BG46" s="23"/>
-      <c r="BH46" s="23"/>
-      <c r="BI46" s="23"/>
-      <c r="BJ46" s="23"/>
-      <c r="BK46" s="23"/>
-      <c r="BL46" s="24"/>
-      <c r="BM46" s="23"/>
-      <c r="BN46" s="23"/>
-      <c r="BO46" s="23"/>
-      <c r="BP46" s="23"/>
-      <c r="BQ46" s="23"/>
-      <c r="BR46" s="23"/>
-      <c r="BS46" s="24"/>
-      <c r="BT46" s="23"/>
-      <c r="BU46" s="23"/>
-      <c r="BV46" s="23"/>
-      <c r="BW46" s="23"/>
-      <c r="BX46" s="23"/>
-      <c r="BY46" s="23"/>
-      <c r="BZ46" s="24"/>
-      <c r="CA46" s="23"/>
-      <c r="CB46" s="23"/>
-      <c r="CC46" s="23"/>
-      <c r="CD46" s="23"/>
-      <c r="CE46" s="23"/>
-      <c r="CF46" s="23"/>
-      <c r="CG46" s="24"/>
-      <c r="CH46" s="23"/>
-      <c r="CI46" s="23"/>
-      <c r="CJ46" s="23"/>
-      <c r="CK46" s="23"/>
-      <c r="CL46" s="23"/>
-      <c r="CM46" s="23"/>
-      <c r="CN46" s="24"/>
-      <c r="CO46" s="23"/>
-      <c r="CP46" s="23"/>
-      <c r="CQ46" s="23"/>
-      <c r="CR46" s="23"/>
-      <c r="CS46" s="23"/>
-      <c r="CT46" s="23"/>
-      <c r="CU46" s="24"/>
-      <c r="CV46" s="23"/>
-      <c r="CW46" s="23"/>
-      <c r="CX46" s="23"/>
-      <c r="CY46" s="23"/>
-      <c r="CZ46" s="23"/>
-      <c r="DA46" s="23"/>
-      <c r="DB46" s="24"/>
-      <c r="DC46" s="23"/>
-      <c r="DD46" s="23"/>
-      <c r="DE46" s="23"/>
-      <c r="DF46" s="23"/>
-      <c r="DG46" s="23"/>
-      <c r="DH46" s="23"/>
-      <c r="DI46" s="24"/>
-      <c r="DJ46" s="23"/>
-      <c r="DK46" s="23"/>
-      <c r="DL46" s="23"/>
-      <c r="DM46" s="23"/>
-      <c r="DN46" s="23"/>
-      <c r="DO46" s="23"/>
-      <c r="DP46" s="24"/>
-      <c r="DQ46" s="23"/>
-      <c r="DR46" s="23"/>
-      <c r="DS46" s="23"/>
-      <c r="DT46" s="23"/>
-      <c r="DU46" s="23"/>
-      <c r="DV46" s="23"/>
-      <c r="DW46" s="24"/>
-      <c r="DX46" s="23"/>
-      <c r="DY46" s="23"/>
-      <c r="DZ46" s="23"/>
-      <c r="EA46" s="23"/>
-      <c r="EB46" s="23"/>
-      <c r="EC46" s="23"/>
-      <c r="ED46" s="24"/>
-      <c r="EE46" s="23"/>
-      <c r="EF46" s="23"/>
-      <c r="EG46" s="23"/>
-      <c r="EH46" s="23"/>
-      <c r="EI46" s="23"/>
-      <c r="EJ46" s="23"/>
-      <c r="EK46" s="24"/>
-      <c r="EL46" s="23"/>
-      <c r="EM46" s="23"/>
-      <c r="EN46" s="23"/>
-      <c r="EO46" s="23"/>
-      <c r="EP46" s="23"/>
-      <c r="EQ46" s="23"/>
-      <c r="ER46" s="24"/>
-      <c r="ES46" s="23"/>
-      <c r="ET46" s="23"/>
-      <c r="EU46" s="23"/>
-      <c r="EV46" s="23"/>
-      <c r="EW46" s="23"/>
-      <c r="EX46" s="23"/>
-      <c r="EY46" s="24"/>
-      <c r="EZ46" s="23"/>
-      <c r="FA46" s="23"/>
-      <c r="FB46" s="23"/>
-      <c r="FC46" s="23"/>
-      <c r="FD46" s="23"/>
-      <c r="FE46" s="23"/>
-      <c r="FF46" s="24"/>
-      <c r="FG46" s="23"/>
-      <c r="FH46" s="23"/>
-      <c r="FI46" s="23"/>
-      <c r="FJ46" s="23"/>
-      <c r="FK46" s="23"/>
-      <c r="FL46" s="23"/>
-      <c r="FM46" s="24"/>
-      <c r="FN46" s="23"/>
-      <c r="FO46" s="23"/>
-      <c r="FP46" s="23"/>
-      <c r="FQ46" s="23"/>
-      <c r="FR46" s="23"/>
-      <c r="FS46" s="23"/>
-      <c r="FT46" s="24"/>
-    </row>
-    <row r="47" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47" s="71" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="47"/>
-      <c r="E47" s="48"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="I47" s="23"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
-      <c r="N47" s="23"/>
-      <c r="O47" s="23"/>
-      <c r="P47" s="23"/>
-      <c r="Q47" s="23"/>
-      <c r="R47" s="23"/>
-      <c r="S47" s="23"/>
-      <c r="T47" s="23"/>
-      <c r="U47" s="23"/>
-      <c r="V47" s="23"/>
-      <c r="W47" s="23"/>
-      <c r="X47" s="23"/>
-      <c r="Y47" s="23"/>
-      <c r="Z47" s="23"/>
-      <c r="AA47" s="23"/>
-      <c r="AB47" s="23"/>
-      <c r="AC47" s="23"/>
-      <c r="AD47" s="23"/>
-      <c r="AE47" s="23"/>
-      <c r="AF47" s="23"/>
-      <c r="AG47" s="23"/>
-      <c r="AH47" s="23"/>
-      <c r="AI47" s="23"/>
-      <c r="AJ47" s="23"/>
-      <c r="AK47" s="23"/>
-      <c r="AL47" s="23"/>
-      <c r="AM47" s="23"/>
-      <c r="AN47" s="23"/>
-      <c r="AO47" s="23"/>
-      <c r="AP47" s="23"/>
-      <c r="AQ47" s="24"/>
-      <c r="AR47" s="23"/>
-      <c r="AS47" s="23"/>
-      <c r="AT47" s="23"/>
-      <c r="AU47" s="23"/>
-      <c r="AV47" s="23"/>
-      <c r="AW47" s="23"/>
-      <c r="AX47" s="24"/>
-      <c r="AY47" s="23"/>
-      <c r="AZ47" s="23"/>
-      <c r="BA47" s="23"/>
-      <c r="BB47" s="23"/>
-      <c r="BC47" s="23"/>
-      <c r="BD47" s="23"/>
-      <c r="BE47" s="24"/>
-      <c r="BF47" s="23"/>
-      <c r="BG47" s="23"/>
-      <c r="BH47" s="23"/>
-      <c r="BI47" s="23"/>
-      <c r="BJ47" s="23"/>
-      <c r="BK47" s="23"/>
-      <c r="BL47" s="24"/>
-      <c r="BM47" s="23"/>
-      <c r="BN47" s="23"/>
-      <c r="BO47" s="23"/>
-      <c r="BP47" s="23"/>
-      <c r="BQ47" s="23"/>
-      <c r="BR47" s="23"/>
-      <c r="BS47" s="24"/>
-      <c r="BT47" s="23"/>
-      <c r="BU47" s="23"/>
-      <c r="BV47" s="23"/>
-      <c r="BW47" s="23"/>
-      <c r="BX47" s="23"/>
-      <c r="BY47" s="23"/>
-      <c r="BZ47" s="24"/>
-      <c r="CA47" s="23"/>
-      <c r="CB47" s="23"/>
-      <c r="CC47" s="23"/>
-      <c r="CD47" s="23"/>
-      <c r="CE47" s="23"/>
-      <c r="CF47" s="23"/>
-      <c r="CG47" s="24"/>
-      <c r="CH47" s="23"/>
-      <c r="CI47" s="23"/>
-      <c r="CJ47" s="23"/>
-      <c r="CK47" s="23"/>
-      <c r="CL47" s="23"/>
-      <c r="CM47" s="23"/>
-      <c r="CN47" s="24"/>
-      <c r="CO47" s="23"/>
-      <c r="CP47" s="23"/>
-      <c r="CQ47" s="23"/>
-      <c r="CR47" s="23"/>
-      <c r="CS47" s="23"/>
-      <c r="CT47" s="23"/>
-      <c r="CU47" s="24"/>
-      <c r="CV47" s="23"/>
-      <c r="CW47" s="23"/>
-      <c r="CX47" s="23"/>
-      <c r="CY47" s="23"/>
-      <c r="CZ47" s="23"/>
-      <c r="DA47" s="23"/>
-      <c r="DB47" s="24"/>
-      <c r="DC47" s="23"/>
-      <c r="DD47" s="23"/>
-      <c r="DE47" s="23"/>
-      <c r="DF47" s="23"/>
-      <c r="DG47" s="23"/>
-      <c r="DH47" s="23"/>
-      <c r="DI47" s="24"/>
-      <c r="DJ47" s="23"/>
-      <c r="DK47" s="23"/>
-      <c r="DL47" s="23"/>
-      <c r="DM47" s="23"/>
-      <c r="DN47" s="23"/>
-      <c r="DO47" s="23"/>
-      <c r="DP47" s="24"/>
-      <c r="DQ47" s="23"/>
-      <c r="DR47" s="23"/>
-      <c r="DS47" s="23"/>
-      <c r="DT47" s="23"/>
-      <c r="DU47" s="23"/>
-      <c r="DV47" s="23"/>
-      <c r="DW47" s="24"/>
-      <c r="DX47" s="23"/>
-      <c r="DY47" s="23"/>
-      <c r="DZ47" s="23"/>
-      <c r="EA47" s="23"/>
-      <c r="EB47" s="23"/>
-      <c r="EC47" s="23"/>
-      <c r="ED47" s="24"/>
-      <c r="EE47" s="23"/>
-      <c r="EF47" s="23"/>
-      <c r="EG47" s="23"/>
-      <c r="EH47" s="23"/>
-      <c r="EI47" s="23"/>
-      <c r="EJ47" s="23"/>
-      <c r="EK47" s="24"/>
-      <c r="EL47" s="23"/>
-      <c r="EM47" s="23"/>
-      <c r="EN47" s="23"/>
-      <c r="EO47" s="23"/>
-      <c r="EP47" s="23"/>
-      <c r="EQ47" s="23"/>
-      <c r="ER47" s="24"/>
-      <c r="ES47" s="23"/>
-      <c r="ET47" s="23"/>
-      <c r="EU47" s="23"/>
-      <c r="EV47" s="23"/>
-      <c r="EW47" s="23"/>
-      <c r="EX47" s="23"/>
-      <c r="EY47" s="24"/>
-      <c r="EZ47" s="23"/>
-      <c r="FA47" s="23"/>
-      <c r="FB47" s="23"/>
-      <c r="FC47" s="23"/>
-      <c r="FD47" s="23"/>
-      <c r="FE47" s="23"/>
-      <c r="FF47" s="24"/>
-      <c r="FG47" s="23"/>
-      <c r="FH47" s="23"/>
-      <c r="FI47" s="23"/>
-      <c r="FJ47" s="23"/>
-      <c r="FK47" s="23"/>
-      <c r="FL47" s="23"/>
-      <c r="FM47" s="24"/>
-      <c r="FN47" s="23"/>
-      <c r="FO47" s="23"/>
-      <c r="FP47" s="23"/>
-      <c r="FQ47" s="23"/>
-      <c r="FR47" s="23"/>
-      <c r="FS47" s="23"/>
-      <c r="FT47" s="24"/>
-    </row>
-    <row r="48" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="8"/>
-      <c r="B48" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F48" s="36">
-        <v>45479</v>
-      </c>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28">
-        <f t="shared" si="117"/>
-        <v>92</v>
-      </c>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="23"/>
-      <c r="Q48" s="23"/>
-      <c r="R48" s="23"/>
-      <c r="S48" s="23"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
-      <c r="AE48" s="23"/>
-      <c r="AF48" s="23"/>
-      <c r="AG48" s="23"/>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="23"/>
-      <c r="AJ48" s="23"/>
-      <c r="AK48" s="23"/>
-      <c r="AL48" s="23"/>
-      <c r="AM48" s="23"/>
-      <c r="AN48" s="23"/>
-      <c r="AO48" s="23"/>
-      <c r="AP48" s="23"/>
-      <c r="AQ48" s="24"/>
-      <c r="AR48" s="23"/>
-      <c r="AS48" s="23"/>
-      <c r="AT48" s="23"/>
-      <c r="AU48" s="23"/>
-      <c r="AV48" s="23"/>
-      <c r="AW48" s="23"/>
-      <c r="AX48" s="24"/>
-      <c r="AY48" s="23"/>
-      <c r="AZ48" s="23"/>
-      <c r="BA48" s="23"/>
-      <c r="BB48" s="23"/>
-      <c r="BC48" s="23"/>
-      <c r="BD48" s="23"/>
-      <c r="BE48" s="24"/>
-      <c r="BF48" s="23"/>
-      <c r="BG48" s="23"/>
-      <c r="BH48" s="23"/>
-      <c r="BI48" s="23"/>
-      <c r="BJ48" s="23"/>
-      <c r="BK48" s="23"/>
-      <c r="BL48" s="24"/>
-      <c r="BM48" s="23"/>
-      <c r="BN48" s="23"/>
-      <c r="BO48" s="23"/>
-      <c r="BP48" s="23"/>
-      <c r="BQ48" s="23"/>
-      <c r="BR48" s="23"/>
-      <c r="BS48" s="24"/>
-      <c r="BT48" s="23"/>
-      <c r="BU48" s="23"/>
-      <c r="BV48" s="23"/>
-      <c r="BW48" s="23"/>
-      <c r="BX48" s="23"/>
-      <c r="BY48" s="23"/>
-      <c r="BZ48" s="24"/>
-      <c r="CA48" s="23"/>
-      <c r="CB48" s="23"/>
-      <c r="CC48" s="23"/>
-      <c r="CD48" s="23"/>
-      <c r="CE48" s="23"/>
-      <c r="CF48" s="23"/>
-      <c r="CG48" s="24"/>
-      <c r="CH48" s="23"/>
-      <c r="CI48" s="23"/>
-      <c r="CJ48" s="23"/>
-      <c r="CK48" s="23"/>
-      <c r="CL48" s="23"/>
-      <c r="CM48" s="23"/>
-      <c r="CN48" s="24"/>
-      <c r="CO48" s="23"/>
-      <c r="CP48" s="23"/>
-      <c r="CQ48" s="23"/>
-      <c r="CR48" s="23"/>
-      <c r="CS48" s="23"/>
-      <c r="CT48" s="23"/>
-      <c r="CU48" s="24"/>
-      <c r="CV48" s="23"/>
-      <c r="CW48" s="23"/>
-      <c r="CX48" s="23"/>
-      <c r="CY48" s="23"/>
-      <c r="CZ48" s="23"/>
-      <c r="DA48" s="23"/>
-      <c r="DB48" s="24"/>
-      <c r="DC48" s="23"/>
-      <c r="DD48" s="23"/>
-      <c r="DE48" s="23"/>
-      <c r="DF48" s="23"/>
-      <c r="DG48" s="23"/>
-      <c r="DH48" s="23"/>
-      <c r="DI48" s="24"/>
-      <c r="DJ48" s="23"/>
-      <c r="DK48" s="23"/>
-      <c r="DL48" s="23"/>
-      <c r="DM48" s="23"/>
-      <c r="DN48" s="23"/>
-      <c r="DO48" s="23"/>
-      <c r="DP48" s="24"/>
-      <c r="DQ48" s="23"/>
-      <c r="DR48" s="23"/>
-      <c r="DS48" s="23"/>
-      <c r="DT48" s="23"/>
-      <c r="DU48" s="23"/>
-      <c r="DV48" s="23"/>
-      <c r="DW48" s="24"/>
-      <c r="DX48" s="23"/>
-      <c r="DY48" s="23"/>
-      <c r="DZ48" s="23"/>
-      <c r="EA48" s="23"/>
-      <c r="EB48" s="23"/>
-      <c r="EC48" s="23"/>
-      <c r="ED48" s="24"/>
-      <c r="EE48" s="23"/>
-      <c r="EF48" s="23"/>
-      <c r="EG48" s="23"/>
-      <c r="EH48" s="23"/>
-      <c r="EI48" s="23"/>
-      <c r="EJ48" s="23"/>
-      <c r="EK48" s="24"/>
-      <c r="EL48" s="23"/>
-      <c r="EM48" s="23"/>
-      <c r="EN48" s="23"/>
-      <c r="EO48" s="23"/>
-      <c r="EP48" s="23"/>
-      <c r="EQ48" s="23"/>
-      <c r="ER48" s="24"/>
-      <c r="ES48" s="23"/>
-      <c r="ET48" s="23"/>
-      <c r="EU48" s="23"/>
-      <c r="EV48" s="23"/>
-      <c r="EW48" s="23"/>
-      <c r="EX48" s="23"/>
-      <c r="EY48" s="24"/>
-      <c r="EZ48" s="23"/>
-      <c r="FA48" s="23"/>
-      <c r="FB48" s="23"/>
-      <c r="FC48" s="23"/>
-      <c r="FD48" s="23"/>
-      <c r="FE48" s="23"/>
-      <c r="FF48" s="24"/>
-      <c r="FG48" s="23"/>
-      <c r="FH48" s="23"/>
-      <c r="FI48" s="23"/>
-      <c r="FJ48" s="23"/>
-      <c r="FK48" s="23"/>
-      <c r="FL48" s="23"/>
-      <c r="FM48" s="24"/>
-      <c r="FN48" s="23"/>
-      <c r="FO48" s="23"/>
-      <c r="FP48" s="23"/>
-      <c r="FQ48" s="23"/>
-      <c r="FR48" s="23"/>
-      <c r="FS48" s="23"/>
-      <c r="FT48" s="24"/>
-    </row>
-    <row r="49" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="68"/>
-      <c r="D49" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E49" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F49" s="36">
-        <v>45483</v>
-      </c>
-      <c r="G49" s="28"/>
-      <c r="H49" s="28"/>
-      <c r="I49" s="23"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="23"/>
-      <c r="L49" s="23"/>
-      <c r="M49" s="23"/>
-      <c r="N49" s="23"/>
-      <c r="O49" s="23"/>
-      <c r="P49" s="23"/>
-      <c r="Q49" s="23"/>
-      <c r="R49" s="23"/>
-      <c r="S49" s="23"/>
-      <c r="T49" s="23"/>
-      <c r="U49" s="23"/>
-      <c r="V49" s="23"/>
-      <c r="W49" s="23"/>
-      <c r="X49" s="23"/>
-      <c r="Y49" s="23"/>
-      <c r="Z49" s="23"/>
-      <c r="AA49" s="23"/>
-      <c r="AB49" s="23"/>
-      <c r="AC49" s="23"/>
-      <c r="AD49" s="23"/>
-      <c r="AE49" s="23"/>
-      <c r="AF49" s="23"/>
-      <c r="AG49" s="23"/>
-      <c r="AH49" s="23"/>
-      <c r="AI49" s="23"/>
-      <c r="AJ49" s="23"/>
-      <c r="AK49" s="23"/>
-      <c r="AL49" s="23"/>
-      <c r="AM49" s="23"/>
-      <c r="AN49" s="23"/>
-      <c r="AO49" s="23"/>
-      <c r="AP49" s="23"/>
-      <c r="AQ49" s="24"/>
-      <c r="AR49" s="23"/>
-      <c r="AS49" s="23"/>
-      <c r="AT49" s="23"/>
-      <c r="AU49" s="23"/>
-      <c r="AV49" s="23"/>
-      <c r="AW49" s="23"/>
-      <c r="AX49" s="24"/>
-      <c r="AY49" s="23"/>
-      <c r="AZ49" s="23"/>
-      <c r="BA49" s="23"/>
-      <c r="BB49" s="23"/>
-      <c r="BC49" s="23"/>
-      <c r="BD49" s="23"/>
-      <c r="BE49" s="24"/>
-      <c r="BF49" s="23"/>
-      <c r="BG49" s="23"/>
-      <c r="BH49" s="23"/>
-      <c r="BI49" s="23"/>
-      <c r="BJ49" s="23"/>
-      <c r="BK49" s="23"/>
-      <c r="BL49" s="24"/>
-      <c r="BM49" s="23"/>
-      <c r="BN49" s="23"/>
-      <c r="BO49" s="23"/>
-      <c r="BP49" s="23"/>
-      <c r="BQ49" s="23"/>
-      <c r="BR49" s="23"/>
-      <c r="BS49" s="24"/>
-      <c r="BT49" s="23"/>
-      <c r="BU49" s="23"/>
-      <c r="BV49" s="23"/>
-      <c r="BW49" s="23"/>
-      <c r="BX49" s="23"/>
-      <c r="BY49" s="23"/>
-      <c r="BZ49" s="24"/>
-      <c r="CA49" s="23"/>
-      <c r="CB49" s="23"/>
-      <c r="CC49" s="23"/>
-      <c r="CD49" s="23"/>
-      <c r="CE49" s="23"/>
-      <c r="CF49" s="23"/>
-      <c r="CG49" s="24"/>
-      <c r="CH49" s="23"/>
-      <c r="CI49" s="23"/>
-      <c r="CJ49" s="23"/>
-      <c r="CK49" s="23"/>
-      <c r="CL49" s="23"/>
-      <c r="CM49" s="23"/>
-      <c r="CN49" s="24"/>
-      <c r="CO49" s="23"/>
-      <c r="CP49" s="23"/>
-      <c r="CQ49" s="23"/>
-      <c r="CR49" s="23"/>
-      <c r="CS49" s="23"/>
-      <c r="CT49" s="23"/>
-      <c r="CU49" s="24"/>
-      <c r="CV49" s="23"/>
-      <c r="CW49" s="23"/>
-      <c r="CX49" s="23"/>
-      <c r="CY49" s="23"/>
-      <c r="CZ49" s="23"/>
-      <c r="DA49" s="23"/>
-      <c r="DB49" s="24"/>
-      <c r="DC49" s="23"/>
-      <c r="DD49" s="23"/>
-      <c r="DE49" s="23"/>
-      <c r="DF49" s="23"/>
-      <c r="DG49" s="23"/>
-      <c r="DH49" s="23"/>
-      <c r="DI49" s="24"/>
-      <c r="DJ49" s="23"/>
-      <c r="DK49" s="23"/>
-      <c r="DL49" s="23"/>
-      <c r="DM49" s="23"/>
-      <c r="DN49" s="23"/>
-      <c r="DO49" s="23"/>
-      <c r="DP49" s="24"/>
-      <c r="DQ49" s="23"/>
-      <c r="DR49" s="23"/>
-      <c r="DS49" s="23"/>
-      <c r="DT49" s="23"/>
-      <c r="DU49" s="23"/>
-      <c r="DV49" s="23"/>
-      <c r="DW49" s="24"/>
-      <c r="DX49" s="23"/>
-      <c r="DY49" s="23"/>
-      <c r="DZ49" s="23"/>
-      <c r="EA49" s="23"/>
-      <c r="EB49" s="23"/>
-      <c r="EC49" s="23"/>
-      <c r="ED49" s="24"/>
-      <c r="EE49" s="23"/>
-      <c r="EF49" s="23"/>
-      <c r="EG49" s="23"/>
-      <c r="EH49" s="23"/>
-      <c r="EI49" s="23"/>
-      <c r="EJ49" s="23"/>
-      <c r="EK49" s="24"/>
-      <c r="EL49" s="23"/>
-      <c r="EM49" s="23"/>
-      <c r="EN49" s="23"/>
-      <c r="EO49" s="23"/>
-      <c r="EP49" s="23"/>
-      <c r="EQ49" s="23"/>
-      <c r="ER49" s="24"/>
-      <c r="ES49" s="23"/>
-      <c r="ET49" s="23"/>
-      <c r="EU49" s="23"/>
-      <c r="EV49" s="23"/>
-      <c r="EW49" s="23"/>
-      <c r="EX49" s="23"/>
-      <c r="EY49" s="24"/>
-      <c r="EZ49" s="23"/>
-      <c r="FA49" s="23"/>
-      <c r="FB49" s="23"/>
-      <c r="FC49" s="23"/>
-      <c r="FD49" s="23"/>
-      <c r="FE49" s="23"/>
-      <c r="FF49" s="24"/>
-      <c r="FG49" s="23"/>
-      <c r="FH49" s="23"/>
-      <c r="FI49" s="23"/>
-      <c r="FJ49" s="23"/>
-      <c r="FK49" s="23"/>
-      <c r="FL49" s="23"/>
-      <c r="FM49" s="24"/>
-      <c r="FN49" s="23"/>
-      <c r="FO49" s="23"/>
-      <c r="FP49" s="23"/>
-      <c r="FQ49" s="23"/>
-      <c r="FR49" s="23"/>
-      <c r="FS49" s="23"/>
-      <c r="FT49" s="24"/>
-    </row>
-    <row r="50" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B50" s="71" t="s">
-        <v>50</v>
-      </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="47"/>
-      <c r="E50" s="48"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="28"/>
-      <c r="H50" s="28" t="str">
-        <f t="shared" si="117"/>
-        <v/>
-      </c>
-      <c r="I50" s="23"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="23"/>
-      <c r="L50" s="23"/>
-      <c r="M50" s="23"/>
-      <c r="N50" s="23"/>
-      <c r="O50" s="23"/>
-      <c r="P50" s="23"/>
-      <c r="Q50" s="23"/>
-      <c r="R50" s="23"/>
-      <c r="S50" s="23"/>
-      <c r="T50" s="23"/>
-      <c r="U50" s="23"/>
-      <c r="V50" s="23"/>
-      <c r="W50" s="23"/>
-      <c r="X50" s="23"/>
-      <c r="Y50" s="23"/>
-      <c r="Z50" s="23"/>
-      <c r="AA50" s="23"/>
-      <c r="AB50" s="23"/>
-      <c r="AC50" s="23"/>
-      <c r="AD50" s="23"/>
-      <c r="AE50" s="23"/>
-      <c r="AF50" s="23"/>
-      <c r="AG50" s="23"/>
-      <c r="AH50" s="23"/>
-      <c r="AI50" s="23"/>
-      <c r="AJ50" s="23"/>
-      <c r="AK50" s="23"/>
-      <c r="AL50" s="23"/>
-      <c r="AM50" s="23"/>
-      <c r="AN50" s="23"/>
-      <c r="AO50" s="23"/>
-      <c r="AP50" s="23"/>
-      <c r="AQ50" s="24"/>
-      <c r="AR50" s="23"/>
-      <c r="AS50" s="23"/>
-      <c r="AT50" s="23"/>
-      <c r="AU50" s="23"/>
-      <c r="AV50" s="23"/>
-      <c r="AW50" s="23"/>
-      <c r="AX50" s="24"/>
-      <c r="AY50" s="23"/>
-      <c r="AZ50" s="23"/>
-      <c r="BA50" s="23"/>
-      <c r="BB50" s="23"/>
-      <c r="BC50" s="23"/>
-      <c r="BD50" s="23"/>
-      <c r="BE50" s="24"/>
-      <c r="BF50" s="23"/>
-      <c r="BG50" s="23"/>
-      <c r="BH50" s="23"/>
-      <c r="BI50" s="23"/>
-      <c r="BJ50" s="23"/>
-      <c r="BK50" s="23"/>
-      <c r="BL50" s="24"/>
-      <c r="BM50" s="23"/>
-      <c r="BN50" s="23"/>
-      <c r="BO50" s="23"/>
-      <c r="BP50" s="23"/>
-      <c r="BQ50" s="23"/>
-      <c r="BR50" s="23"/>
-      <c r="BS50" s="24"/>
-      <c r="BT50" s="23"/>
-      <c r="BU50" s="23"/>
-      <c r="BV50" s="23"/>
-      <c r="BW50" s="23"/>
-      <c r="BX50" s="23"/>
-      <c r="BY50" s="23"/>
-      <c r="BZ50" s="24"/>
-      <c r="CA50" s="23"/>
-      <c r="CB50" s="23"/>
-      <c r="CC50" s="23"/>
-      <c r="CD50" s="23"/>
-      <c r="CE50" s="23"/>
-      <c r="CF50" s="23"/>
-      <c r="CG50" s="24"/>
-      <c r="CH50" s="23"/>
-      <c r="CI50" s="23"/>
-      <c r="CJ50" s="23"/>
-      <c r="CK50" s="23"/>
-      <c r="CL50" s="23"/>
-      <c r="CM50" s="23"/>
-      <c r="CN50" s="24"/>
-      <c r="CO50" s="23"/>
-      <c r="CP50" s="23"/>
-      <c r="CQ50" s="23"/>
-      <c r="CR50" s="23"/>
-      <c r="CS50" s="23"/>
-      <c r="CT50" s="23"/>
-      <c r="CU50" s="24"/>
-      <c r="CV50" s="23"/>
-      <c r="CW50" s="23"/>
-      <c r="CX50" s="23"/>
-      <c r="CY50" s="23"/>
-      <c r="CZ50" s="23"/>
-      <c r="DA50" s="23"/>
-      <c r="DB50" s="24"/>
-      <c r="DC50" s="23"/>
-      <c r="DD50" s="23"/>
-      <c r="DE50" s="23"/>
-      <c r="DF50" s="23"/>
-      <c r="DG50" s="23"/>
-      <c r="DH50" s="23"/>
-      <c r="DI50" s="24"/>
-      <c r="DJ50" s="23"/>
-      <c r="DK50" s="23"/>
-      <c r="DL50" s="23"/>
-      <c r="DM50" s="23"/>
-      <c r="DN50" s="23"/>
-      <c r="DO50" s="23"/>
-      <c r="DP50" s="24"/>
-      <c r="DQ50" s="23"/>
-      <c r="DR50" s="23"/>
-      <c r="DS50" s="23"/>
-      <c r="DT50" s="23"/>
-      <c r="DU50" s="23"/>
-      <c r="DV50" s="23"/>
-      <c r="DW50" s="24"/>
-      <c r="DX50" s="23"/>
-      <c r="DY50" s="23"/>
-      <c r="DZ50" s="23"/>
-      <c r="EA50" s="23"/>
-      <c r="EB50" s="23"/>
-      <c r="EC50" s="23"/>
-      <c r="ED50" s="24"/>
-      <c r="EE50" s="23"/>
-      <c r="EF50" s="23"/>
-      <c r="EG50" s="23"/>
-      <c r="EH50" s="23"/>
-      <c r="EI50" s="23"/>
-      <c r="EJ50" s="23"/>
-      <c r="EK50" s="24"/>
-      <c r="EL50" s="23"/>
-      <c r="EM50" s="23"/>
-      <c r="EN50" s="23"/>
-      <c r="EO50" s="23"/>
-      <c r="EP50" s="23"/>
-      <c r="EQ50" s="23"/>
-      <c r="ER50" s="24"/>
-      <c r="ES50" s="23"/>
-      <c r="ET50" s="23"/>
-      <c r="EU50" s="23"/>
-      <c r="EV50" s="23"/>
-      <c r="EW50" s="23"/>
-      <c r="EX50" s="23"/>
-      <c r="EY50" s="24"/>
-      <c r="EZ50" s="23"/>
-      <c r="FA50" s="23"/>
-      <c r="FB50" s="23"/>
-      <c r="FC50" s="23"/>
-      <c r="FD50" s="23"/>
-      <c r="FE50" s="23"/>
-      <c r="FF50" s="24"/>
-      <c r="FG50" s="23"/>
-      <c r="FH50" s="23"/>
-      <c r="FI50" s="23"/>
-      <c r="FJ50" s="23"/>
-      <c r="FK50" s="23"/>
-      <c r="FL50" s="23"/>
-      <c r="FM50" s="24"/>
-      <c r="FN50" s="23"/>
-      <c r="FO50" s="23"/>
-      <c r="FP50" s="23"/>
-      <c r="FQ50" s="23"/>
-      <c r="FR50" s="23"/>
-      <c r="FS50" s="23"/>
-      <c r="FT50" s="24"/>
-    </row>
-    <row r="51" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="68" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="68"/>
-      <c r="D51" s="50">
-        <v>1</v>
-      </c>
-      <c r="E51" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F51" s="36">
-        <v>45411</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="23"/>
-      <c r="AF51" s="23"/>
-      <c r="AG51" s="23"/>
-      <c r="AH51" s="23"/>
-      <c r="AI51" s="23"/>
-      <c r="AJ51" s="23"/>
-      <c r="AK51" s="23"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="23"/>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="24"/>
-      <c r="AR51" s="23"/>
-      <c r="AS51" s="23"/>
-      <c r="AT51" s="23"/>
-      <c r="AU51" s="23"/>
-      <c r="AV51" s="23"/>
-      <c r="AW51" s="23"/>
-      <c r="AX51" s="24"/>
-      <c r="AY51" s="23"/>
-      <c r="AZ51" s="23"/>
-      <c r="BA51" s="23"/>
-      <c r="BB51" s="23"/>
-      <c r="BC51" s="23"/>
-      <c r="BD51" s="23"/>
-      <c r="BE51" s="24"/>
-      <c r="BF51" s="23"/>
-      <c r="BG51" s="23"/>
-      <c r="BH51" s="23"/>
-      <c r="BI51" s="23"/>
-      <c r="BJ51" s="23"/>
-      <c r="BK51" s="23"/>
-      <c r="BL51" s="24"/>
-      <c r="BM51" s="23"/>
-      <c r="BN51" s="23"/>
-      <c r="BO51" s="23"/>
-      <c r="BP51" s="23"/>
-      <c r="BQ51" s="23"/>
-      <c r="BR51" s="23"/>
-      <c r="BS51" s="24"/>
-      <c r="BT51" s="23"/>
-      <c r="BU51" s="23"/>
-      <c r="BV51" s="23"/>
-      <c r="BW51" s="23"/>
-      <c r="BX51" s="23"/>
-      <c r="BY51" s="23"/>
-      <c r="BZ51" s="24"/>
-      <c r="CA51" s="23"/>
-      <c r="CB51" s="23"/>
-      <c r="CC51" s="23"/>
-      <c r="CD51" s="23"/>
-      <c r="CE51" s="23"/>
-      <c r="CF51" s="23"/>
-      <c r="CG51" s="24"/>
-      <c r="CH51" s="23"/>
-      <c r="CI51" s="23"/>
-      <c r="CJ51" s="23"/>
-      <c r="CK51" s="23"/>
-      <c r="CL51" s="23"/>
-      <c r="CM51" s="23"/>
-      <c r="CN51" s="24"/>
-      <c r="CO51" s="23"/>
-      <c r="CP51" s="23"/>
-      <c r="CQ51" s="23"/>
-      <c r="CR51" s="23"/>
-      <c r="CS51" s="23"/>
-      <c r="CT51" s="23"/>
-      <c r="CU51" s="24"/>
-      <c r="CV51" s="23"/>
-      <c r="CW51" s="23"/>
-      <c r="CX51" s="23"/>
-      <c r="CY51" s="23"/>
-      <c r="CZ51" s="23"/>
-      <c r="DA51" s="23"/>
-      <c r="DB51" s="24"/>
-      <c r="DC51" s="23"/>
-      <c r="DD51" s="23"/>
-      <c r="DE51" s="23"/>
-      <c r="DF51" s="23"/>
-      <c r="DG51" s="23"/>
-      <c r="DH51" s="23"/>
-      <c r="DI51" s="24"/>
-      <c r="DJ51" s="23"/>
-      <c r="DK51" s="23"/>
-      <c r="DL51" s="23"/>
-      <c r="DM51" s="23"/>
-      <c r="DN51" s="23"/>
-      <c r="DO51" s="23"/>
-      <c r="DP51" s="24"/>
-      <c r="DQ51" s="23"/>
-      <c r="DR51" s="23"/>
-      <c r="DS51" s="23"/>
-      <c r="DT51" s="23"/>
-      <c r="DU51" s="23"/>
-      <c r="DV51" s="23"/>
-      <c r="DW51" s="24"/>
-      <c r="DX51" s="23"/>
-      <c r="DY51" s="23"/>
-      <c r="DZ51" s="23"/>
-      <c r="EA51" s="23"/>
-      <c r="EB51" s="23"/>
-      <c r="EC51" s="23"/>
-      <c r="ED51" s="24"/>
-      <c r="EE51" s="23"/>
-      <c r="EF51" s="23"/>
-      <c r="EG51" s="23"/>
-      <c r="EH51" s="23"/>
-      <c r="EI51" s="23"/>
-      <c r="EJ51" s="23"/>
-      <c r="EK51" s="24"/>
-      <c r="EL51" s="23"/>
-      <c r="EM51" s="23"/>
-      <c r="EN51" s="23"/>
-      <c r="EO51" s="23"/>
-      <c r="EP51" s="23"/>
-      <c r="EQ51" s="23"/>
-      <c r="ER51" s="24"/>
-      <c r="ES51" s="23"/>
-      <c r="ET51" s="23"/>
-      <c r="EU51" s="23"/>
-      <c r="EV51" s="23"/>
-      <c r="EW51" s="23"/>
-      <c r="EX51" s="23"/>
-      <c r="EY51" s="24"/>
-      <c r="EZ51" s="23"/>
-      <c r="FA51" s="23"/>
-      <c r="FB51" s="23"/>
-      <c r="FC51" s="23"/>
-      <c r="FD51" s="23"/>
-      <c r="FE51" s="23"/>
-      <c r="FF51" s="24"/>
-      <c r="FG51" s="23"/>
-      <c r="FH51" s="23"/>
-      <c r="FI51" s="23"/>
-      <c r="FJ51" s="23"/>
-      <c r="FK51" s="23"/>
-      <c r="FL51" s="23"/>
-      <c r="FM51" s="24"/>
-      <c r="FN51" s="23"/>
-      <c r="FO51" s="23"/>
-      <c r="FP51" s="23"/>
-      <c r="FQ51" s="23"/>
-      <c r="FR51" s="23"/>
-      <c r="FS51" s="23"/>
-      <c r="FT51" s="24"/>
-    </row>
-    <row r="52" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E52" s="36">
-        <v>45388</v>
-      </c>
-      <c r="F52" s="36">
-        <v>45488</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="23"/>
-      <c r="AG52" s="23"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
-      <c r="AJ52" s="23"/>
-      <c r="AK52" s="23"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="23"/>
-      <c r="AO52" s="23"/>
-      <c r="AP52" s="23"/>
-      <c r="AQ52" s="24"/>
-      <c r="AR52" s="23"/>
-      <c r="AS52" s="23"/>
-      <c r="AT52" s="23"/>
-      <c r="AU52" s="23"/>
-      <c r="AV52" s="23"/>
-      <c r="AW52" s="23"/>
-      <c r="AX52" s="24"/>
-      <c r="AY52" s="23"/>
-      <c r="AZ52" s="23"/>
-      <c r="BA52" s="23"/>
-      <c r="BB52" s="23"/>
-      <c r="BC52" s="23"/>
-      <c r="BD52" s="23"/>
-      <c r="BE52" s="24"/>
-      <c r="BF52" s="23"/>
-      <c r="BG52" s="23"/>
-      <c r="BH52" s="23"/>
-      <c r="BI52" s="23"/>
-      <c r="BJ52" s="23"/>
-      <c r="BK52" s="23"/>
-      <c r="BL52" s="24"/>
-      <c r="BM52" s="23"/>
-      <c r="BN52" s="23"/>
-      <c r="BO52" s="23"/>
-      <c r="BP52" s="23"/>
-      <c r="BQ52" s="23"/>
-      <c r="BR52" s="23"/>
-      <c r="BS52" s="24"/>
-      <c r="BT52" s="23"/>
-      <c r="BU52" s="23"/>
-      <c r="BV52" s="23"/>
-      <c r="BW52" s="23"/>
-      <c r="BX52" s="23"/>
-      <c r="BY52" s="23"/>
-      <c r="BZ52" s="24"/>
-      <c r="CA52" s="23"/>
-      <c r="CB52" s="23"/>
-      <c r="CC52" s="23"/>
-      <c r="CD52" s="23"/>
-      <c r="CE52" s="23"/>
-      <c r="CF52" s="23"/>
-      <c r="CG52" s="24"/>
-      <c r="CH52" s="23"/>
-      <c r="CI52" s="23"/>
-      <c r="CJ52" s="23"/>
-      <c r="CK52" s="23"/>
-      <c r="CL52" s="23"/>
-      <c r="CM52" s="23"/>
-      <c r="CN52" s="24"/>
-      <c r="CO52" s="23"/>
-      <c r="CP52" s="23"/>
-      <c r="CQ52" s="23"/>
-      <c r="CR52" s="23"/>
-      <c r="CS52" s="23"/>
-      <c r="CT52" s="23"/>
-      <c r="CU52" s="24"/>
-      <c r="CV52" s="23"/>
-      <c r="CW52" s="23"/>
-      <c r="CX52" s="23"/>
-      <c r="CY52" s="23"/>
-      <c r="CZ52" s="23"/>
-      <c r="DA52" s="23"/>
-      <c r="DB52" s="24"/>
-      <c r="DC52" s="23"/>
-      <c r="DD52" s="23"/>
-      <c r="DE52" s="23"/>
-      <c r="DF52" s="23"/>
-      <c r="DG52" s="23"/>
-      <c r="DH52" s="23"/>
-      <c r="DI52" s="24"/>
-      <c r="DJ52" s="23"/>
-      <c r="DK52" s="23"/>
-      <c r="DL52" s="23"/>
-      <c r="DM52" s="23"/>
-      <c r="DN52" s="23"/>
-      <c r="DO52" s="23"/>
-      <c r="DP52" s="24"/>
-      <c r="DQ52" s="23"/>
-      <c r="DR52" s="23"/>
-      <c r="DS52" s="23"/>
-      <c r="DT52" s="23"/>
-      <c r="DU52" s="23"/>
-      <c r="DV52" s="23"/>
-      <c r="DW52" s="24"/>
-      <c r="DX52" s="23"/>
-      <c r="DY52" s="23"/>
-      <c r="DZ52" s="23"/>
-      <c r="EA52" s="23"/>
-      <c r="EB52" s="23"/>
-      <c r="EC52" s="23"/>
-      <c r="ED52" s="24"/>
-      <c r="EE52" s="23"/>
-      <c r="EF52" s="23"/>
-      <c r="EG52" s="23"/>
-      <c r="EH52" s="23"/>
-      <c r="EI52" s="23"/>
-      <c r="EJ52" s="23"/>
-      <c r="EK52" s="24"/>
-      <c r="EL52" s="23"/>
-      <c r="EM52" s="23"/>
-      <c r="EN52" s="23"/>
-      <c r="EO52" s="23"/>
-      <c r="EP52" s="23"/>
-      <c r="EQ52" s="23"/>
-      <c r="ER52" s="24"/>
-      <c r="ES52" s="23"/>
-      <c r="ET52" s="23"/>
-      <c r="EU52" s="23"/>
-      <c r="EV52" s="23"/>
-      <c r="EW52" s="23"/>
-      <c r="EX52" s="23"/>
-      <c r="EY52" s="24"/>
-      <c r="EZ52" s="23"/>
-      <c r="FA52" s="23"/>
-      <c r="FB52" s="23"/>
-      <c r="FC52" s="23"/>
-      <c r="FD52" s="23"/>
-      <c r="FE52" s="23"/>
-      <c r="FF52" s="24"/>
-      <c r="FG52" s="23"/>
-      <c r="FH52" s="23"/>
-      <c r="FI52" s="23"/>
-      <c r="FJ52" s="23"/>
-      <c r="FK52" s="23"/>
-      <c r="FL52" s="23"/>
-      <c r="FM52" s="24"/>
-      <c r="FN52" s="23"/>
-      <c r="FO52" s="23"/>
-      <c r="FP52" s="23"/>
-      <c r="FQ52" s="23"/>
-      <c r="FR52" s="23"/>
-      <c r="FS52" s="23"/>
-      <c r="FT52" s="24"/>
-    </row>
-    <row r="53" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="68" t="s">
-        <v>45</v>
-      </c>
-      <c r="C53" s="68"/>
-      <c r="D53" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E53" s="36">
-        <v>45488</v>
-      </c>
-      <c r="F53" s="36">
-        <v>45493</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23"/>
-      <c r="AQ53" s="24"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23"/>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="23"/>
-      <c r="AW53" s="23"/>
-      <c r="AX53" s="24"/>
-      <c r="AY53" s="23"/>
-      <c r="AZ53" s="23"/>
-      <c r="BA53" s="23"/>
-      <c r="BB53" s="23"/>
-      <c r="BC53" s="23"/>
-      <c r="BD53" s="23"/>
-      <c r="BE53" s="24"/>
-      <c r="BF53" s="23"/>
-      <c r="BG53" s="23"/>
-      <c r="BH53" s="23"/>
-      <c r="BI53" s="23"/>
-      <c r="BJ53" s="23"/>
-      <c r="BK53" s="23"/>
-      <c r="BL53" s="24"/>
-      <c r="BM53" s="23"/>
-      <c r="BN53" s="23"/>
-      <c r="BO53" s="23"/>
-      <c r="BP53" s="23"/>
-      <c r="BQ53" s="23"/>
-      <c r="BR53" s="23"/>
-      <c r="BS53" s="24"/>
-      <c r="BT53" s="23"/>
-      <c r="BU53" s="23"/>
-      <c r="BV53" s="23"/>
-      <c r="BW53" s="23"/>
-      <c r="BX53" s="23"/>
-      <c r="BY53" s="23"/>
-      <c r="BZ53" s="24"/>
-      <c r="CA53" s="23"/>
-      <c r="CB53" s="23"/>
-      <c r="CC53" s="23"/>
-      <c r="CD53" s="23"/>
-      <c r="CE53" s="23"/>
-      <c r="CF53" s="23"/>
-      <c r="CG53" s="24"/>
-      <c r="CH53" s="23"/>
-      <c r="CI53" s="23"/>
-      <c r="CJ53" s="23"/>
-      <c r="CK53" s="23"/>
-      <c r="CL53" s="23"/>
-      <c r="CM53" s="23"/>
-      <c r="CN53" s="24"/>
-      <c r="CO53" s="23"/>
-      <c r="CP53" s="23"/>
-      <c r="CQ53" s="23"/>
-      <c r="CR53" s="23"/>
-      <c r="CS53" s="23"/>
-      <c r="CT53" s="23"/>
-      <c r="CU53" s="24"/>
-      <c r="CV53" s="23"/>
-      <c r="CW53" s="23"/>
-      <c r="CX53" s="23"/>
-      <c r="CY53" s="23"/>
-      <c r="CZ53" s="23"/>
-      <c r="DA53" s="23"/>
-      <c r="DB53" s="24"/>
-      <c r="DC53" s="23"/>
-      <c r="DD53" s="23"/>
-      <c r="DE53" s="23"/>
-      <c r="DF53" s="23"/>
-      <c r="DG53" s="23"/>
-      <c r="DH53" s="23"/>
-      <c r="DI53" s="24"/>
-      <c r="DJ53" s="23"/>
-      <c r="DK53" s="23"/>
-      <c r="DL53" s="23"/>
-      <c r="DM53" s="23"/>
-      <c r="DN53" s="23"/>
-      <c r="DO53" s="23"/>
-      <c r="DP53" s="24"/>
-      <c r="DQ53" s="23"/>
-      <c r="DR53" s="23"/>
-      <c r="DS53" s="23"/>
-      <c r="DT53" s="23"/>
-      <c r="DU53" s="23"/>
-      <c r="DV53" s="23"/>
-      <c r="DW53" s="24"/>
-      <c r="DX53" s="23"/>
-      <c r="DY53" s="23"/>
-      <c r="DZ53" s="23"/>
-      <c r="EA53" s="23"/>
-      <c r="EB53" s="23"/>
-      <c r="EC53" s="23"/>
-      <c r="ED53" s="24"/>
-      <c r="EE53" s="23"/>
-      <c r="EF53" s="23"/>
-      <c r="EG53" s="23"/>
-      <c r="EH53" s="23"/>
-      <c r="EI53" s="23"/>
-      <c r="EJ53" s="23"/>
-      <c r="EK53" s="24"/>
-      <c r="EL53" s="23"/>
-      <c r="EM53" s="23"/>
-      <c r="EN53" s="23"/>
-      <c r="EO53" s="23"/>
-      <c r="EP53" s="23"/>
-      <c r="EQ53" s="23"/>
-      <c r="ER53" s="24"/>
-      <c r="ES53" s="23"/>
-      <c r="ET53" s="23"/>
-      <c r="EU53" s="23"/>
-      <c r="EV53" s="23"/>
-      <c r="EW53" s="23"/>
-      <c r="EX53" s="23"/>
-      <c r="EY53" s="24"/>
-      <c r="EZ53" s="23"/>
-      <c r="FA53" s="23"/>
-      <c r="FB53" s="23"/>
-      <c r="FC53" s="23"/>
-      <c r="FD53" s="23"/>
-      <c r="FE53" s="23"/>
-      <c r="FF53" s="24"/>
-      <c r="FG53" s="23"/>
-      <c r="FH53" s="23"/>
-      <c r="FI53" s="23"/>
-      <c r="FJ53" s="23"/>
-      <c r="FK53" s="23"/>
-      <c r="FL53" s="23"/>
-      <c r="FM53" s="24"/>
-      <c r="FN53" s="23"/>
-      <c r="FO53" s="23"/>
-      <c r="FP53" s="23"/>
-      <c r="FQ53" s="23"/>
-      <c r="FR53" s="23"/>
-      <c r="FS53" s="23"/>
-      <c r="FT53" s="24"/>
-    </row>
-    <row r="54" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="50">
-        <v>0.5</v>
-      </c>
-      <c r="E54" s="36">
-        <v>45493</v>
-      </c>
-      <c r="F54" s="36">
-        <v>45499</v>
-      </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="23"/>
-      <c r="AK54" s="23"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-      <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="24"/>
-      <c r="AR54" s="23"/>
-      <c r="AS54" s="23"/>
-      <c r="AT54" s="23"/>
-      <c r="AU54" s="23"/>
-      <c r="AV54" s="23"/>
-      <c r="AW54" s="23"/>
-      <c r="AX54" s="24"/>
-      <c r="AY54" s="23"/>
-      <c r="AZ54" s="23"/>
-      <c r="BA54" s="23"/>
-      <c r="BB54" s="23"/>
-      <c r="BC54" s="23"/>
-      <c r="BD54" s="23"/>
-      <c r="BE54" s="24"/>
-      <c r="BF54" s="23"/>
-      <c r="BG54" s="23"/>
-      <c r="BH54" s="23"/>
-      <c r="BI54" s="23"/>
-      <c r="BJ54" s="23"/>
-      <c r="BK54" s="23"/>
-      <c r="BL54" s="24"/>
-      <c r="BM54" s="23"/>
-      <c r="BN54" s="23"/>
-      <c r="BO54" s="23"/>
-      <c r="BP54" s="23"/>
-      <c r="BQ54" s="23"/>
-      <c r="BR54" s="23"/>
-      <c r="BS54" s="24"/>
-      <c r="BT54" s="23"/>
-      <c r="BU54" s="23"/>
-      <c r="BV54" s="23"/>
-      <c r="BW54" s="23"/>
-      <c r="BX54" s="23"/>
-      <c r="BY54" s="23"/>
-      <c r="BZ54" s="24"/>
-      <c r="CA54" s="23"/>
-      <c r="CB54" s="23"/>
-      <c r="CC54" s="23"/>
-      <c r="CD54" s="23"/>
-      <c r="CE54" s="23"/>
-      <c r="CF54" s="23"/>
-      <c r="CG54" s="24"/>
-      <c r="CH54" s="23"/>
-      <c r="CI54" s="23"/>
-      <c r="CJ54" s="23"/>
-      <c r="CK54" s="23"/>
-      <c r="CL54" s="23"/>
-      <c r="CM54" s="23"/>
-      <c r="CN54" s="24"/>
-      <c r="CO54" s="23"/>
-      <c r="CP54" s="23"/>
-      <c r="CQ54" s="23"/>
-      <c r="CR54" s="23"/>
-      <c r="CS54" s="23"/>
-      <c r="CT54" s="23"/>
-      <c r="CU54" s="24"/>
-      <c r="CV54" s="23"/>
-      <c r="CW54" s="23"/>
-      <c r="CX54" s="23"/>
-      <c r="CY54" s="23"/>
-      <c r="CZ54" s="23"/>
-      <c r="DA54" s="23"/>
-      <c r="DB54" s="24"/>
-      <c r="DC54" s="23"/>
-      <c r="DD54" s="23"/>
-      <c r="DE54" s="23"/>
-      <c r="DF54" s="23"/>
-      <c r="DG54" s="23"/>
-      <c r="DH54" s="23"/>
-      <c r="DI54" s="24"/>
-      <c r="DJ54" s="23"/>
-      <c r="DK54" s="23"/>
-      <c r="DL54" s="23"/>
-      <c r="DM54" s="23"/>
-      <c r="DN54" s="23"/>
-      <c r="DO54" s="23"/>
-      <c r="DP54" s="24"/>
-      <c r="DQ54" s="23"/>
-      <c r="DR54" s="23"/>
-      <c r="DS54" s="23"/>
-      <c r="DT54" s="23"/>
-      <c r="DU54" s="23"/>
-      <c r="DV54" s="23"/>
-      <c r="DW54" s="24"/>
-      <c r="DX54" s="23"/>
-      <c r="DY54" s="23"/>
-      <c r="DZ54" s="23"/>
-      <c r="EA54" s="23"/>
-      <c r="EB54" s="23"/>
-      <c r="EC54" s="23"/>
-      <c r="ED54" s="24"/>
-      <c r="EE54" s="23"/>
-      <c r="EF54" s="23"/>
-      <c r="EG54" s="23"/>
-      <c r="EH54" s="23"/>
-      <c r="EI54" s="23"/>
-      <c r="EJ54" s="23"/>
-      <c r="EK54" s="24"/>
-      <c r="EL54" s="23"/>
-      <c r="EM54" s="23"/>
-      <c r="EN54" s="23"/>
-      <c r="EO54" s="23"/>
-      <c r="EP54" s="23"/>
-      <c r="EQ54" s="23"/>
-      <c r="ER54" s="24"/>
-      <c r="ES54" s="23"/>
-      <c r="ET54" s="23"/>
-      <c r="EU54" s="23"/>
-      <c r="EV54" s="23"/>
-      <c r="EW54" s="23"/>
-      <c r="EX54" s="23"/>
-      <c r="EY54" s="24"/>
-      <c r="EZ54" s="23"/>
-      <c r="FA54" s="23"/>
-      <c r="FB54" s="23"/>
-      <c r="FC54" s="23"/>
-      <c r="FD54" s="23"/>
-      <c r="FE54" s="23"/>
-      <c r="FF54" s="24"/>
-      <c r="FG54" s="23"/>
-      <c r="FH54" s="23"/>
-      <c r="FI54" s="23"/>
-      <c r="FJ54" s="23"/>
-      <c r="FK54" s="23"/>
-      <c r="FL54" s="23"/>
-      <c r="FM54" s="24"/>
-      <c r="FN54" s="23"/>
-      <c r="FO54" s="23"/>
-      <c r="FP54" s="23"/>
-      <c r="FQ54" s="23"/>
-      <c r="FR54" s="23"/>
-      <c r="FS54" s="23"/>
-      <c r="FT54" s="24"/>
-    </row>
-    <row r="55" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B55" s="71" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="71"/>
-      <c r="D55" s="47"/>
-      <c r="E55" s="48"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28" t="str">
-        <f t="shared" ref="H55" si="118">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
-        <v/>
-      </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="24"/>
-      <c r="AR55" s="23"/>
-      <c r="AS55" s="23"/>
-      <c r="AT55" s="23"/>
-      <c r="AU55" s="23"/>
-      <c r="AV55" s="23"/>
-      <c r="AW55" s="23"/>
-      <c r="AX55" s="24"/>
-      <c r="AY55" s="23"/>
-      <c r="AZ55" s="23"/>
-      <c r="BA55" s="23"/>
-      <c r="BB55" s="23"/>
-      <c r="BC55" s="23"/>
-      <c r="BD55" s="23"/>
-      <c r="BE55" s="24"/>
-      <c r="BF55" s="23"/>
-      <c r="BG55" s="23"/>
-      <c r="BH55" s="23"/>
-      <c r="BI55" s="23"/>
-      <c r="BJ55" s="23"/>
-      <c r="BK55" s="23"/>
-      <c r="BL55" s="24"/>
-      <c r="BM55" s="23"/>
-      <c r="BN55" s="23"/>
-      <c r="BO55" s="23"/>
-      <c r="BP55" s="23"/>
-      <c r="BQ55" s="23"/>
-      <c r="BR55" s="23"/>
-      <c r="BS55" s="24"/>
-      <c r="BT55" s="23"/>
-      <c r="BU55" s="23"/>
-      <c r="BV55" s="23"/>
-      <c r="BW55" s="23"/>
-      <c r="BX55" s="23"/>
-      <c r="BY55" s="23"/>
-      <c r="BZ55" s="24"/>
-      <c r="CA55" s="23"/>
-      <c r="CB55" s="23"/>
-      <c r="CC55" s="23"/>
-      <c r="CD55" s="23"/>
-      <c r="CE55" s="23"/>
-      <c r="CF55" s="23"/>
-      <c r="CG55" s="24"/>
-      <c r="CH55" s="23"/>
-      <c r="CI55" s="23"/>
-      <c r="CJ55" s="23"/>
-      <c r="CK55" s="23"/>
-      <c r="CL55" s="23"/>
-      <c r="CM55" s="23"/>
-      <c r="CN55" s="24"/>
-      <c r="CO55" s="23"/>
-      <c r="CP55" s="23"/>
-      <c r="CQ55" s="23"/>
-      <c r="CR55" s="23"/>
-      <c r="CS55" s="23"/>
-      <c r="CT55" s="23"/>
-      <c r="CU55" s="24"/>
-      <c r="CV55" s="23"/>
-      <c r="CW55" s="23"/>
-      <c r="CX55" s="23"/>
-      <c r="CY55" s="23"/>
-      <c r="CZ55" s="23"/>
-      <c r="DA55" s="23"/>
-      <c r="DB55" s="24"/>
-      <c r="DC55" s="23"/>
-      <c r="DD55" s="23"/>
-      <c r="DE55" s="23"/>
-      <c r="DF55" s="23"/>
-      <c r="DG55" s="23"/>
-      <c r="DH55" s="23"/>
-      <c r="DI55" s="24"/>
-      <c r="DJ55" s="23"/>
-      <c r="DK55" s="23"/>
-      <c r="DL55" s="23"/>
-      <c r="DM55" s="23"/>
-      <c r="DN55" s="23"/>
-      <c r="DO55" s="23"/>
-      <c r="DP55" s="24"/>
-      <c r="DQ55" s="23"/>
-      <c r="DR55" s="23"/>
-      <c r="DS55" s="23"/>
-      <c r="DT55" s="23"/>
-      <c r="DU55" s="23"/>
-      <c r="DV55" s="23"/>
-      <c r="DW55" s="24"/>
-      <c r="DX55" s="23"/>
-      <c r="DY55" s="23"/>
-      <c r="DZ55" s="23"/>
-      <c r="EA55" s="23"/>
-      <c r="EB55" s="23"/>
-      <c r="EC55" s="23"/>
-      <c r="ED55" s="24"/>
-      <c r="EE55" s="23"/>
-      <c r="EF55" s="23"/>
-      <c r="EG55" s="23"/>
-      <c r="EH55" s="23"/>
-      <c r="EI55" s="23"/>
-      <c r="EJ55" s="23"/>
-      <c r="EK55" s="24"/>
-      <c r="EL55" s="23"/>
-      <c r="EM55" s="23"/>
-      <c r="EN55" s="23"/>
-      <c r="EO55" s="23"/>
-      <c r="EP55" s="23"/>
-      <c r="EQ55" s="23"/>
-      <c r="ER55" s="24"/>
-      <c r="ES55" s="23"/>
-      <c r="ET55" s="23"/>
-      <c r="EU55" s="23"/>
-      <c r="EV55" s="23"/>
-      <c r="EW55" s="23"/>
-      <c r="EX55" s="23"/>
-      <c r="EY55" s="24"/>
-      <c r="EZ55" s="23"/>
-      <c r="FA55" s="23"/>
-      <c r="FB55" s="23"/>
-      <c r="FC55" s="23"/>
-      <c r="FD55" s="23"/>
-      <c r="FE55" s="23"/>
-      <c r="FF55" s="24"/>
-      <c r="FG55" s="23"/>
-      <c r="FH55" s="23"/>
-      <c r="FI55" s="23"/>
-      <c r="FJ55" s="23"/>
-      <c r="FK55" s="23"/>
-      <c r="FL55" s="23"/>
-      <c r="FM55" s="24"/>
-      <c r="FN55" s="23"/>
-      <c r="FO55" s="23"/>
-      <c r="FP55" s="23"/>
-      <c r="FQ55" s="23"/>
-      <c r="FR55" s="23"/>
-      <c r="FS55" s="23"/>
-      <c r="FT55" s="24"/>
-    </row>
-    <row r="56" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="50">
-        <v>0</v>
-      </c>
-      <c r="E56" s="36">
-        <v>45499</v>
-      </c>
-      <c r="F56" s="36">
-        <v>45499</v>
-      </c>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
-      <c r="AG56" s="23"/>
-      <c r="AH56" s="23"/>
-      <c r="AI56" s="23"/>
-      <c r="AJ56" s="23"/>
-      <c r="AK56" s="23"/>
-      <c r="AL56" s="23"/>
-      <c r="AM56" s="23"/>
-      <c r="AN56" s="23"/>
-      <c r="AO56" s="23"/>
-      <c r="AP56" s="23"/>
-      <c r="AQ56" s="24"/>
-      <c r="AR56" s="23"/>
-      <c r="AS56" s="23"/>
-      <c r="AT56" s="23"/>
-      <c r="AU56" s="23"/>
-      <c r="AV56" s="23"/>
-      <c r="AW56" s="23"/>
-      <c r="AX56" s="24"/>
-      <c r="AY56" s="23"/>
-      <c r="AZ56" s="23"/>
-      <c r="BA56" s="23"/>
-      <c r="BB56" s="23"/>
-      <c r="BC56" s="23"/>
-      <c r="BD56" s="23"/>
-      <c r="BE56" s="24"/>
-      <c r="BF56" s="23"/>
-      <c r="BG56" s="23"/>
-      <c r="BH56" s="23"/>
-      <c r="BI56" s="23"/>
-      <c r="BJ56" s="23"/>
-      <c r="BK56" s="23"/>
-      <c r="BL56" s="24"/>
-      <c r="BM56" s="23"/>
-      <c r="BN56" s="23"/>
-      <c r="BO56" s="23"/>
-      <c r="BP56" s="23"/>
-      <c r="BQ56" s="23"/>
-      <c r="BR56" s="23"/>
-      <c r="BS56" s="24"/>
-      <c r="BT56" s="23"/>
-      <c r="BU56" s="23"/>
-      <c r="BV56" s="23"/>
-      <c r="BW56" s="23"/>
-      <c r="BX56" s="23"/>
-      <c r="BY56" s="23"/>
-      <c r="BZ56" s="24"/>
-      <c r="CA56" s="23"/>
-      <c r="CB56" s="23"/>
-      <c r="CC56" s="23"/>
-      <c r="CD56" s="23"/>
-      <c r="CE56" s="23"/>
-      <c r="CF56" s="23"/>
-      <c r="CG56" s="24"/>
-      <c r="CH56" s="23"/>
-      <c r="CI56" s="23"/>
-      <c r="CJ56" s="23"/>
-      <c r="CK56" s="23"/>
-      <c r="CL56" s="23"/>
-      <c r="CM56" s="23"/>
-      <c r="CN56" s="24"/>
-      <c r="CO56" s="23"/>
-      <c r="CP56" s="23"/>
-      <c r="CQ56" s="23"/>
-      <c r="CR56" s="23"/>
-      <c r="CS56" s="23"/>
-      <c r="CT56" s="23"/>
-      <c r="CU56" s="24"/>
-      <c r="CV56" s="23"/>
-      <c r="CW56" s="23"/>
-      <c r="CX56" s="23"/>
-      <c r="CY56" s="23"/>
-      <c r="CZ56" s="23"/>
-      <c r="DA56" s="23"/>
-      <c r="DB56" s="24"/>
-      <c r="DC56" s="23"/>
-      <c r="DD56" s="23"/>
-      <c r="DE56" s="23"/>
-      <c r="DF56" s="23"/>
-      <c r="DG56" s="23"/>
-      <c r="DH56" s="23"/>
-      <c r="DI56" s="24"/>
-      <c r="DJ56" s="23"/>
-      <c r="DK56" s="23"/>
-      <c r="DL56" s="23"/>
-      <c r="DM56" s="23"/>
-      <c r="DN56" s="23"/>
-      <c r="DO56" s="23"/>
-      <c r="DP56" s="24"/>
-      <c r="DQ56" s="23"/>
-      <c r="DR56" s="23"/>
-      <c r="DS56" s="23"/>
-      <c r="DT56" s="23"/>
-      <c r="DU56" s="23"/>
-      <c r="DV56" s="23"/>
-      <c r="DW56" s="24"/>
-      <c r="DX56" s="23"/>
-      <c r="DY56" s="23"/>
-      <c r="DZ56" s="23"/>
-      <c r="EA56" s="23"/>
-      <c r="EB56" s="23"/>
-      <c r="EC56" s="23"/>
-      <c r="ED56" s="24"/>
-      <c r="EE56" s="23"/>
-      <c r="EF56" s="23"/>
-      <c r="EG56" s="23"/>
-      <c r="EH56" s="23"/>
-      <c r="EI56" s="23"/>
-      <c r="EJ56" s="23"/>
-      <c r="EK56" s="24"/>
-      <c r="EL56" s="23"/>
-      <c r="EM56" s="23"/>
-      <c r="EN56" s="23"/>
-      <c r="EO56" s="23"/>
-      <c r="EP56" s="23"/>
-      <c r="EQ56" s="23"/>
-      <c r="ER56" s="24"/>
-      <c r="ES56" s="23"/>
-      <c r="ET56" s="23"/>
-      <c r="EU56" s="23"/>
-      <c r="EV56" s="23"/>
-      <c r="EW56" s="23"/>
-      <c r="EX56" s="23"/>
-      <c r="EY56" s="24"/>
-      <c r="EZ56" s="23"/>
-      <c r="FA56" s="23"/>
-      <c r="FB56" s="23"/>
-      <c r="FC56" s="23"/>
-      <c r="FD56" s="23"/>
-      <c r="FE56" s="23"/>
-      <c r="FF56" s="24"/>
-      <c r="FG56" s="23"/>
-      <c r="FH56" s="23"/>
-      <c r="FI56" s="23"/>
-      <c r="FJ56" s="23"/>
-      <c r="FK56" s="23"/>
-      <c r="FL56" s="23"/>
-      <c r="FM56" s="24"/>
-      <c r="FN56" s="23"/>
-      <c r="FO56" s="23"/>
-      <c r="FP56" s="23"/>
-      <c r="FQ56" s="23"/>
-      <c r="FR56" s="23"/>
-      <c r="FS56" s="23"/>
-      <c r="FT56" s="24"/>
-    </row>
-    <row r="57" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="68"/>
-      <c r="D57" s="50">
-        <v>0</v>
-      </c>
-      <c r="E57" s="36">
-        <v>45499</v>
-      </c>
-      <c r="F57" s="36">
-        <v>45499</v>
-      </c>
-      <c r="G57" s="28"/>
-      <c r="H57" s="28"/>
-      <c r="I57" s="23"/>
-      <c r="J57" s="23"/>
-      <c r="K57" s="23"/>
-      <c r="L57" s="23"/>
-      <c r="M57" s="23"/>
-      <c r="N57" s="23"/>
-      <c r="O57" s="23"/>
-      <c r="P57" s="23"/>
-      <c r="Q57" s="23"/>
-      <c r="R57" s="23"/>
-      <c r="S57" s="23"/>
-      <c r="T57" s="23"/>
-      <c r="U57" s="23"/>
-      <c r="V57" s="23"/>
-      <c r="W57" s="23"/>
-      <c r="X57" s="23"/>
-      <c r="Y57" s="23"/>
-      <c r="Z57" s="23"/>
-      <c r="AA57" s="23"/>
-      <c r="AB57" s="23"/>
-      <c r="AC57" s="23"/>
-      <c r="AD57" s="23"/>
-      <c r="AE57" s="23"/>
-      <c r="AF57" s="23"/>
-      <c r="AG57" s="23"/>
-      <c r="AH57" s="23"/>
-      <c r="AI57" s="23"/>
-      <c r="AJ57" s="23"/>
-      <c r="AK57" s="23"/>
-      <c r="AL57" s="23"/>
-      <c r="AM57" s="23"/>
-      <c r="AN57" s="23"/>
-      <c r="AO57" s="23"/>
-      <c r="AP57" s="23"/>
-      <c r="AQ57" s="24"/>
-      <c r="AR57" s="23"/>
-      <c r="AS57" s="23"/>
-      <c r="AT57" s="23"/>
-      <c r="AU57" s="23"/>
-      <c r="AV57" s="23"/>
-      <c r="AW57" s="23"/>
-      <c r="AX57" s="24"/>
-      <c r="AY57" s="23"/>
-      <c r="AZ57" s="23"/>
-      <c r="BA57" s="23"/>
-      <c r="BB57" s="23"/>
-      <c r="BC57" s="23"/>
-      <c r="BD57" s="23"/>
-      <c r="BE57" s="24"/>
-      <c r="BF57" s="23"/>
-      <c r="BG57" s="23"/>
-      <c r="BH57" s="23"/>
-      <c r="BI57" s="23"/>
-      <c r="BJ57" s="23"/>
-      <c r="BK57" s="23"/>
-      <c r="BL57" s="24"/>
-      <c r="BM57" s="23"/>
-      <c r="BN57" s="23"/>
-      <c r="BO57" s="23"/>
-      <c r="BP57" s="23"/>
-      <c r="BQ57" s="23"/>
-      <c r="BR57" s="23"/>
-      <c r="BS57" s="24"/>
-      <c r="BT57" s="23"/>
-      <c r="BU57" s="23"/>
-      <c r="BV57" s="23"/>
-      <c r="BW57" s="23"/>
-      <c r="BX57" s="23"/>
-      <c r="BY57" s="23"/>
-      <c r="BZ57" s="24"/>
-      <c r="CA57" s="23"/>
-      <c r="CB57" s="23"/>
-      <c r="CC57" s="23"/>
-      <c r="CD57" s="23"/>
-      <c r="CE57" s="23"/>
-      <c r="CF57" s="23"/>
-      <c r="CG57" s="24"/>
-      <c r="CH57" s="23"/>
-      <c r="CI57" s="23"/>
-      <c r="CJ57" s="23"/>
-      <c r="CK57" s="23"/>
-      <c r="CL57" s="23"/>
-      <c r="CM57" s="23"/>
-      <c r="CN57" s="24"/>
-      <c r="CO57" s="23"/>
-      <c r="CP57" s="23"/>
-      <c r="CQ57" s="23"/>
-      <c r="CR57" s="23"/>
-      <c r="CS57" s="23"/>
-      <c r="CT57" s="23"/>
-      <c r="CU57" s="24"/>
-      <c r="CV57" s="23"/>
-      <c r="CW57" s="23"/>
-      <c r="CX57" s="23"/>
-      <c r="CY57" s="23"/>
-      <c r="CZ57" s="23"/>
-      <c r="DA57" s="23"/>
-      <c r="DB57" s="24"/>
-      <c r="DC57" s="23"/>
-      <c r="DD57" s="23"/>
-      <c r="DE57" s="23"/>
-      <c r="DF57" s="23"/>
-      <c r="DG57" s="23"/>
-      <c r="DH57" s="23"/>
-      <c r="DI57" s="24"/>
-      <c r="DJ57" s="23"/>
-      <c r="DK57" s="23"/>
-      <c r="DL57" s="23"/>
-      <c r="DM57" s="23"/>
-      <c r="DN57" s="23"/>
-      <c r="DO57" s="23"/>
-      <c r="DP57" s="24"/>
-      <c r="DQ57" s="23"/>
-      <c r="DR57" s="23"/>
-      <c r="DS57" s="23"/>
-      <c r="DT57" s="23"/>
-      <c r="DU57" s="23"/>
-      <c r="DV57" s="23"/>
-      <c r="DW57" s="24"/>
-      <c r="DX57" s="23"/>
-      <c r="DY57" s="23"/>
-      <c r="DZ57" s="23"/>
-      <c r="EA57" s="23"/>
-      <c r="EB57" s="23"/>
-      <c r="EC57" s="23"/>
-      <c r="ED57" s="24"/>
-      <c r="EE57" s="23"/>
-      <c r="EF57" s="23"/>
-      <c r="EG57" s="23"/>
-      <c r="EH57" s="23"/>
-      <c r="EI57" s="23"/>
-      <c r="EJ57" s="23"/>
-      <c r="EK57" s="24"/>
-      <c r="EL57" s="23"/>
-      <c r="EM57" s="23"/>
-      <c r="EN57" s="23"/>
-      <c r="EO57" s="23"/>
-      <c r="EP57" s="23"/>
-      <c r="EQ57" s="23"/>
-      <c r="ER57" s="24"/>
-      <c r="ES57" s="23"/>
-      <c r="ET57" s="23"/>
-      <c r="EU57" s="23"/>
-      <c r="EV57" s="23"/>
-      <c r="EW57" s="23"/>
-      <c r="EX57" s="23"/>
-      <c r="EY57" s="24"/>
-      <c r="EZ57" s="23"/>
-      <c r="FA57" s="23"/>
-      <c r="FB57" s="23"/>
-      <c r="FC57" s="23"/>
-      <c r="FD57" s="23"/>
-      <c r="FE57" s="23"/>
-      <c r="FF57" s="24"/>
-      <c r="FG57" s="23"/>
-      <c r="FH57" s="23"/>
-      <c r="FI57" s="23"/>
-      <c r="FJ57" s="23"/>
-      <c r="FK57" s="23"/>
-      <c r="FL57" s="23"/>
-      <c r="FM57" s="24"/>
-      <c r="FN57" s="23"/>
-      <c r="FO57" s="23"/>
-      <c r="FP57" s="23"/>
-      <c r="FQ57" s="23"/>
-      <c r="FR57" s="23"/>
-      <c r="FS57" s="23"/>
-      <c r="FT57" s="24"/>
-    </row>
-    <row r="58" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="50">
-        <v>0</v>
-      </c>
-      <c r="E58" s="36">
-        <v>45499</v>
-      </c>
-      <c r="F58" s="36">
-        <v>45504</v>
-      </c>
-      <c r="G58" s="28"/>
-      <c r="H58" s="28"/>
-      <c r="I58" s="23"/>
-      <c r="J58" s="23"/>
-      <c r="K58" s="23"/>
-      <c r="L58" s="23"/>
-      <c r="M58" s="23"/>
-      <c r="N58" s="23"/>
-      <c r="O58" s="23"/>
-      <c r="P58" s="23"/>
-      <c r="Q58" s="23"/>
-      <c r="R58" s="23"/>
-      <c r="S58" s="23"/>
-      <c r="T58" s="23"/>
-      <c r="U58" s="23"/>
-      <c r="V58" s="23"/>
-      <c r="W58" s="23"/>
-      <c r="X58" s="23"/>
-      <c r="Y58" s="23"/>
-      <c r="Z58" s="23"/>
-      <c r="AA58" s="23"/>
-      <c r="AB58" s="23"/>
-      <c r="AC58" s="23"/>
-      <c r="AD58" s="23"/>
-      <c r="AE58" s="23"/>
-      <c r="AF58" s="23"/>
-      <c r="AG58" s="23"/>
-      <c r="AH58" s="23"/>
-      <c r="AI58" s="23"/>
-      <c r="AJ58" s="23"/>
-      <c r="AK58" s="23"/>
-      <c r="AL58" s="23"/>
-      <c r="AM58" s="23"/>
-      <c r="AN58" s="23"/>
-      <c r="AO58" s="23"/>
-      <c r="AP58" s="23"/>
-      <c r="AQ58" s="24"/>
-      <c r="AR58" s="23"/>
-      <c r="AS58" s="23"/>
-      <c r="AT58" s="23"/>
-      <c r="AU58" s="23"/>
-      <c r="AV58" s="23"/>
-      <c r="AW58" s="23"/>
-      <c r="AX58" s="24"/>
-      <c r="AY58" s="23"/>
-      <c r="AZ58" s="23"/>
-      <c r="BA58" s="23"/>
-      <c r="BB58" s="23"/>
-      <c r="BC58" s="23"/>
-      <c r="BD58" s="23"/>
-      <c r="BE58" s="24"/>
-      <c r="BF58" s="23"/>
-      <c r="BG58" s="23"/>
-      <c r="BH58" s="23"/>
-      <c r="BI58" s="23"/>
-      <c r="BJ58" s="23"/>
-      <c r="BK58" s="23"/>
-      <c r="BL58" s="24"/>
-      <c r="BM58" s="23"/>
-      <c r="BN58" s="23"/>
-      <c r="BO58" s="23"/>
-      <c r="BP58" s="23"/>
-      <c r="BQ58" s="23"/>
-      <c r="BR58" s="23"/>
-      <c r="BS58" s="24"/>
-      <c r="BT58" s="23"/>
-      <c r="BU58" s="23"/>
-      <c r="BV58" s="23"/>
-      <c r="BW58" s="23"/>
-      <c r="BX58" s="23"/>
-      <c r="BY58" s="23"/>
-      <c r="BZ58" s="24"/>
-      <c r="CA58" s="23"/>
-      <c r="CB58" s="23"/>
-      <c r="CC58" s="23"/>
-      <c r="CD58" s="23"/>
-      <c r="CE58" s="23"/>
-      <c r="CF58" s="23"/>
-      <c r="CG58" s="24"/>
-      <c r="CH58" s="23"/>
-      <c r="CI58" s="23"/>
-      <c r="CJ58" s="23"/>
-      <c r="CK58" s="23"/>
-      <c r="CL58" s="23"/>
-      <c r="CM58" s="23"/>
-      <c r="CN58" s="24"/>
-      <c r="CO58" s="23"/>
-      <c r="CP58" s="23"/>
-      <c r="CQ58" s="23"/>
-      <c r="CR58" s="23"/>
-      <c r="CS58" s="23"/>
-      <c r="CT58" s="23"/>
-      <c r="CU58" s="24"/>
-      <c r="CV58" s="23"/>
-      <c r="CW58" s="23"/>
-      <c r="CX58" s="23"/>
-      <c r="CY58" s="23"/>
-      <c r="CZ58" s="23"/>
-      <c r="DA58" s="23"/>
-      <c r="DB58" s="24"/>
-      <c r="DC58" s="23"/>
-      <c r="DD58" s="23"/>
-      <c r="DE58" s="23"/>
-      <c r="DF58" s="23"/>
-      <c r="DG58" s="23"/>
-      <c r="DH58" s="23"/>
-      <c r="DI58" s="24"/>
-      <c r="DJ58" s="23"/>
-      <c r="DK58" s="23"/>
-      <c r="DL58" s="23"/>
-      <c r="DM58" s="23"/>
-      <c r="DN58" s="23"/>
-      <c r="DO58" s="23"/>
-      <c r="DP58" s="24"/>
-      <c r="DQ58" s="23"/>
-      <c r="DR58" s="23"/>
-      <c r="DS58" s="23"/>
-      <c r="DT58" s="23"/>
-      <c r="DU58" s="23"/>
-      <c r="DV58" s="23"/>
-      <c r="DW58" s="24"/>
-      <c r="DX58" s="23"/>
-      <c r="DY58" s="23"/>
-      <c r="DZ58" s="23"/>
-      <c r="EA58" s="23"/>
-      <c r="EB58" s="23"/>
-      <c r="EC58" s="23"/>
-      <c r="ED58" s="24"/>
-      <c r="EE58" s="23"/>
-      <c r="EF58" s="23"/>
-      <c r="EG58" s="23"/>
-      <c r="EH58" s="23"/>
-      <c r="EI58" s="23"/>
-      <c r="EJ58" s="23"/>
-      <c r="EK58" s="24"/>
-      <c r="EL58" s="23"/>
-      <c r="EM58" s="23"/>
-      <c r="EN58" s="23"/>
-      <c r="EO58" s="23"/>
-      <c r="EP58" s="23"/>
-      <c r="EQ58" s="23"/>
-      <c r="ER58" s="24"/>
-      <c r="ES58" s="23"/>
-      <c r="ET58" s="23"/>
-      <c r="EU58" s="23"/>
-      <c r="EV58" s="23"/>
-      <c r="EW58" s="23"/>
-      <c r="EX58" s="23"/>
-      <c r="EY58" s="24"/>
-      <c r="EZ58" s="23"/>
-      <c r="FA58" s="23"/>
-      <c r="FB58" s="23"/>
-      <c r="FC58" s="23"/>
-      <c r="FD58" s="23"/>
-      <c r="FE58" s="23"/>
-      <c r="FF58" s="24"/>
-      <c r="FG58" s="23"/>
-      <c r="FH58" s="23"/>
-      <c r="FI58" s="23"/>
-      <c r="FJ58" s="23"/>
-      <c r="FK58" s="23"/>
-      <c r="FL58" s="23"/>
-      <c r="FM58" s="24"/>
-      <c r="FN58" s="23"/>
-      <c r="FO58" s="23"/>
-      <c r="FP58" s="23"/>
-      <c r="FQ58" s="23"/>
-      <c r="FR58" s="23"/>
-      <c r="FS58" s="23"/>
-      <c r="FT58" s="24"/>
-    </row>
-    <row r="59" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="68"/>
-      <c r="D59" s="50">
-        <v>0</v>
-      </c>
-      <c r="E59" s="36">
-        <v>45504</v>
-      </c>
-      <c r="F59" s="36">
-        <v>45514</v>
-      </c>
-      <c r="G59" s="28"/>
-      <c r="H59" s="28"/>
-      <c r="I59" s="23"/>
-      <c r="J59" s="23"/>
-      <c r="K59" s="23"/>
-      <c r="L59" s="23"/>
-      <c r="M59" s="23"/>
-      <c r="N59" s="23"/>
-      <c r="O59" s="23"/>
-      <c r="P59" s="23"/>
-      <c r="Q59" s="23"/>
-      <c r="R59" s="23"/>
-      <c r="S59" s="23"/>
-      <c r="T59" s="23"/>
-      <c r="U59" s="23"/>
-      <c r="V59" s="23"/>
-      <c r="W59" s="23"/>
-      <c r="X59" s="23"/>
-      <c r="Y59" s="23"/>
-      <c r="Z59" s="23"/>
-      <c r="AA59" s="23"/>
-      <c r="AB59" s="23"/>
-      <c r="AC59" s="23"/>
-      <c r="AD59" s="23"/>
-      <c r="AE59" s="23"/>
-      <c r="AF59" s="23"/>
-      <c r="AG59" s="23"/>
-      <c r="AH59" s="23"/>
-      <c r="AI59" s="23"/>
-      <c r="AJ59" s="23"/>
-      <c r="AK59" s="23"/>
-      <c r="AL59" s="23"/>
-      <c r="AM59" s="23"/>
-      <c r="AN59" s="23"/>
-      <c r="AO59" s="23"/>
-      <c r="AP59" s="23"/>
-      <c r="AQ59" s="24"/>
-      <c r="AR59" s="23"/>
-      <c r="AS59" s="23"/>
-      <c r="AT59" s="23"/>
-      <c r="AU59" s="23"/>
-      <c r="AV59" s="23"/>
-      <c r="AW59" s="23"/>
-      <c r="AX59" s="24"/>
-      <c r="AY59" s="23"/>
-      <c r="AZ59" s="23"/>
-      <c r="BA59" s="23"/>
-      <c r="BB59" s="23"/>
-      <c r="BC59" s="23"/>
-      <c r="BD59" s="23"/>
-      <c r="BE59" s="24"/>
-      <c r="BF59" s="23"/>
-      <c r="BG59" s="23"/>
-      <c r="BH59" s="23"/>
-      <c r="BI59" s="23"/>
-      <c r="BJ59" s="23"/>
-      <c r="BK59" s="23"/>
-      <c r="BL59" s="24"/>
-      <c r="BM59" s="23"/>
-      <c r="BN59" s="23"/>
-      <c r="BO59" s="23"/>
-      <c r="BP59" s="23"/>
-      <c r="BQ59" s="23"/>
-      <c r="BR59" s="23"/>
-      <c r="BS59" s="24"/>
-      <c r="BT59" s="23"/>
-      <c r="BU59" s="23"/>
-      <c r="BV59" s="23"/>
-      <c r="BW59" s="23"/>
-      <c r="BX59" s="23"/>
-      <c r="BY59" s="23"/>
-      <c r="BZ59" s="24"/>
-      <c r="CA59" s="23"/>
-      <c r="CB59" s="23"/>
-      <c r="CC59" s="23"/>
-      <c r="CD59" s="23"/>
-      <c r="CE59" s="23"/>
-      <c r="CF59" s="23"/>
-      <c r="CG59" s="24"/>
-      <c r="CH59" s="23"/>
-      <c r="CI59" s="23"/>
-      <c r="CJ59" s="23"/>
-      <c r="CK59" s="23"/>
-      <c r="CL59" s="23"/>
-      <c r="CM59" s="23"/>
-      <c r="CN59" s="24"/>
-      <c r="CO59" s="23"/>
-      <c r="CP59" s="23"/>
-      <c r="CQ59" s="23"/>
-      <c r="CR59" s="23"/>
-      <c r="CS59" s="23"/>
-      <c r="CT59" s="23"/>
-      <c r="CU59" s="24"/>
-      <c r="CV59" s="23"/>
-      <c r="CW59" s="23"/>
-      <c r="CX59" s="23"/>
-      <c r="CY59" s="23"/>
-      <c r="CZ59" s="23"/>
-      <c r="DA59" s="23"/>
-      <c r="DB59" s="24"/>
-      <c r="DC59" s="23"/>
-      <c r="DD59" s="23"/>
-      <c r="DE59" s="23"/>
-      <c r="DF59" s="23"/>
-      <c r="DG59" s="23"/>
-      <c r="DH59" s="23"/>
-      <c r="DI59" s="24"/>
-      <c r="DJ59" s="23"/>
-      <c r="DK59" s="23"/>
-      <c r="DL59" s="23"/>
-      <c r="DM59" s="23"/>
-      <c r="DN59" s="23"/>
-      <c r="DO59" s="23"/>
-      <c r="DP59" s="24"/>
-      <c r="DQ59" s="23"/>
-      <c r="DR59" s="23"/>
-      <c r="DS59" s="23"/>
-      <c r="DT59" s="23"/>
-      <c r="DU59" s="23"/>
-      <c r="DV59" s="23"/>
-      <c r="DW59" s="24"/>
-      <c r="DX59" s="23"/>
-      <c r="DY59" s="23"/>
-      <c r="DZ59" s="23"/>
-      <c r="EA59" s="23"/>
-      <c r="EB59" s="23"/>
-      <c r="EC59" s="23"/>
-      <c r="ED59" s="24"/>
-      <c r="EE59" s="23"/>
-      <c r="EF59" s="23"/>
-      <c r="EG59" s="23"/>
-      <c r="EH59" s="23"/>
-      <c r="EI59" s="23"/>
-      <c r="EJ59" s="23"/>
-      <c r="EK59" s="24"/>
-      <c r="EL59" s="23"/>
-      <c r="EM59" s="23"/>
-      <c r="EN59" s="23"/>
-      <c r="EO59" s="23"/>
-      <c r="EP59" s="23"/>
-      <c r="EQ59" s="23"/>
-      <c r="ER59" s="24"/>
-      <c r="ES59" s="23"/>
-      <c r="ET59" s="23"/>
-      <c r="EU59" s="23"/>
-      <c r="EV59" s="23"/>
-      <c r="EW59" s="23"/>
-      <c r="EX59" s="23"/>
-      <c r="EY59" s="24"/>
-      <c r="EZ59" s="23"/>
-      <c r="FA59" s="23"/>
-      <c r="FB59" s="23"/>
-      <c r="FC59" s="23"/>
-      <c r="FD59" s="23"/>
-      <c r="FE59" s="23"/>
-      <c r="FF59" s="24"/>
-      <c r="FG59" s="23"/>
-      <c r="FH59" s="23"/>
-      <c r="FI59" s="23"/>
-      <c r="FJ59" s="23"/>
-      <c r="FK59" s="23"/>
-      <c r="FL59" s="23"/>
-      <c r="FM59" s="24"/>
-      <c r="FN59" s="23"/>
-      <c r="FO59" s="23"/>
-      <c r="FP59" s="23"/>
-      <c r="FQ59" s="23"/>
-      <c r="FR59" s="23"/>
-      <c r="FS59" s="23"/>
-      <c r="FT59" s="24"/>
-    </row>
-    <row r="60" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B60" s="71" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="71"/>
-      <c r="D60" s="47"/>
-      <c r="E60" s="48"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="28"/>
-      <c r="H60" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I60" s="23"/>
-      <c r="J60" s="23"/>
-      <c r="K60" s="23"/>
-      <c r="L60" s="23"/>
-      <c r="M60" s="23"/>
-      <c r="N60" s="23"/>
-      <c r="O60" s="23"/>
-      <c r="P60" s="23"/>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="23"/>
-      <c r="S60" s="23"/>
-      <c r="T60" s="23"/>
-      <c r="U60" s="23"/>
-      <c r="V60" s="23"/>
-      <c r="W60" s="23"/>
-      <c r="X60" s="23"/>
-      <c r="Y60" s="23"/>
-      <c r="Z60" s="23"/>
-      <c r="AA60" s="23"/>
-      <c r="AB60" s="23"/>
-      <c r="AC60" s="23"/>
-      <c r="AD60" s="23"/>
-      <c r="AE60" s="23"/>
-      <c r="AF60" s="23"/>
-      <c r="AG60" s="23"/>
-      <c r="AH60" s="23"/>
-      <c r="AI60" s="23"/>
-      <c r="AJ60" s="23"/>
-      <c r="AK60" s="23"/>
-      <c r="AL60" s="23"/>
-      <c r="AM60" s="23"/>
-      <c r="AN60" s="23"/>
-      <c r="AO60" s="23"/>
-      <c r="AP60" s="23"/>
-      <c r="AQ60" s="24"/>
-      <c r="AR60" s="23"/>
-      <c r="AS60" s="23"/>
-      <c r="AT60" s="23"/>
-      <c r="AU60" s="23"/>
-      <c r="AV60" s="23"/>
-      <c r="AW60" s="23"/>
-      <c r="AX60" s="24"/>
-      <c r="AY60" s="23"/>
-      <c r="AZ60" s="23"/>
-      <c r="BA60" s="23"/>
-      <c r="BB60" s="23"/>
-      <c r="BC60" s="23"/>
-      <c r="BD60" s="23"/>
-      <c r="BE60" s="24"/>
-      <c r="BF60" s="23"/>
-      <c r="BG60" s="23"/>
-      <c r="BH60" s="23"/>
-      <c r="BI60" s="23"/>
-      <c r="BJ60" s="23"/>
-      <c r="BK60" s="23"/>
-      <c r="BL60" s="24"/>
-      <c r="BM60" s="23"/>
-      <c r="BN60" s="23"/>
-      <c r="BO60" s="23"/>
-      <c r="BP60" s="23"/>
-      <c r="BQ60" s="23"/>
-      <c r="BR60" s="23"/>
-      <c r="BS60" s="24"/>
-      <c r="BT60" s="23"/>
-      <c r="BU60" s="23"/>
-      <c r="BV60" s="23"/>
-      <c r="BW60" s="23"/>
-      <c r="BX60" s="23"/>
-      <c r="BY60" s="23"/>
-      <c r="BZ60" s="24"/>
-      <c r="CA60" s="23"/>
-      <c r="CB60" s="23"/>
-      <c r="CC60" s="23"/>
-      <c r="CD60" s="23"/>
-      <c r="CE60" s="23"/>
-      <c r="CF60" s="23"/>
-      <c r="CG60" s="24"/>
-      <c r="CH60" s="23"/>
-      <c r="CI60" s="23"/>
-      <c r="CJ60" s="23"/>
-      <c r="CK60" s="23"/>
-      <c r="CL60" s="23"/>
-      <c r="CM60" s="23"/>
-      <c r="CN60" s="24"/>
-      <c r="CO60" s="23"/>
-      <c r="CP60" s="23"/>
-      <c r="CQ60" s="23"/>
-      <c r="CR60" s="23"/>
-      <c r="CS60" s="23"/>
-      <c r="CT60" s="23"/>
-      <c r="CU60" s="24"/>
-      <c r="CV60" s="23"/>
-      <c r="CW60" s="23"/>
-      <c r="CX60" s="23"/>
-      <c r="CY60" s="23"/>
-      <c r="CZ60" s="23"/>
-      <c r="DA60" s="23"/>
-      <c r="DB60" s="24"/>
-      <c r="DC60" s="23"/>
-      <c r="DD60" s="23"/>
-      <c r="DE60" s="23"/>
-      <c r="DF60" s="23"/>
-      <c r="DG60" s="23"/>
-      <c r="DH60" s="23"/>
-      <c r="DI60" s="24"/>
-      <c r="DJ60" s="23"/>
-      <c r="DK60" s="23"/>
-      <c r="DL60" s="23"/>
-      <c r="DM60" s="23"/>
-      <c r="DN60" s="23"/>
-      <c r="DO60" s="23"/>
-      <c r="DP60" s="24"/>
-      <c r="DQ60" s="23"/>
-      <c r="DR60" s="23"/>
-      <c r="DS60" s="23"/>
-      <c r="DT60" s="23"/>
-      <c r="DU60" s="23"/>
-      <c r="DV60" s="23"/>
-      <c r="DW60" s="24"/>
-      <c r="DX60" s="23"/>
-      <c r="DY60" s="23"/>
-      <c r="DZ60" s="23"/>
-      <c r="EA60" s="23"/>
-      <c r="EB60" s="23"/>
-      <c r="EC60" s="23"/>
-      <c r="ED60" s="24"/>
-      <c r="EE60" s="23"/>
-      <c r="EF60" s="23"/>
-      <c r="EG60" s="23"/>
-      <c r="EH60" s="23"/>
-      <c r="EI60" s="23"/>
-      <c r="EJ60" s="23"/>
-      <c r="EK60" s="24"/>
-      <c r="EL60" s="23"/>
-      <c r="EM60" s="23"/>
-      <c r="EN60" s="23"/>
-      <c r="EO60" s="23"/>
-      <c r="EP60" s="23"/>
-      <c r="EQ60" s="23"/>
-      <c r="ER60" s="24"/>
-      <c r="ES60" s="23"/>
-      <c r="ET60" s="23"/>
-      <c r="EU60" s="23"/>
-      <c r="EV60" s="23"/>
-      <c r="EW60" s="23"/>
-      <c r="EX60" s="23"/>
-      <c r="EY60" s="24"/>
-      <c r="EZ60" s="23"/>
-      <c r="FA60" s="23"/>
-      <c r="FB60" s="23"/>
-      <c r="FC60" s="23"/>
-      <c r="FD60" s="23"/>
-      <c r="FE60" s="23"/>
-      <c r="FF60" s="24"/>
-      <c r="FG60" s="23"/>
-      <c r="FH60" s="23"/>
-      <c r="FI60" s="23"/>
-      <c r="FJ60" s="23"/>
-      <c r="FK60" s="23"/>
-      <c r="FL60" s="23"/>
-      <c r="FM60" s="24"/>
-      <c r="FN60" s="23"/>
-      <c r="FO60" s="23"/>
-      <c r="FP60" s="23"/>
-      <c r="FQ60" s="23"/>
-      <c r="FR60" s="23"/>
-      <c r="FS60" s="23"/>
-      <c r="FT60" s="24"/>
-    </row>
-    <row r="61" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="8"/>
-      <c r="B61" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="68"/>
-      <c r="D61" s="50">
-        <v>0.1</v>
-      </c>
-      <c r="E61" s="36">
-        <v>45514</v>
-      </c>
-      <c r="F61" s="36">
-        <v>45514</v>
-      </c>
-      <c r="G61" s="28"/>
-      <c r="H61" s="28">
-        <v>5</v>
-      </c>
-      <c r="I61" s="23"/>
-      <c r="J61" s="23"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="23"/>
-      <c r="O61" s="23"/>
-      <c r="P61" s="23"/>
-      <c r="Q61" s="23"/>
-      <c r="R61" s="23"/>
-      <c r="S61" s="23"/>
-      <c r="T61" s="23"/>
-      <c r="U61" s="23"/>
-      <c r="V61" s="23"/>
-      <c r="W61" s="23"/>
-      <c r="X61" s="23"/>
-      <c r="Y61" s="23"/>
-      <c r="Z61" s="23"/>
-      <c r="AA61" s="23"/>
-      <c r="AB61" s="23"/>
-      <c r="AC61" s="23"/>
-      <c r="AD61" s="23"/>
-      <c r="AE61" s="23"/>
-      <c r="AF61" s="23"/>
-      <c r="AG61" s="23"/>
-      <c r="AH61" s="23"/>
-      <c r="AI61" s="23"/>
-      <c r="AJ61" s="23"/>
-      <c r="AK61" s="23"/>
-      <c r="AL61" s="23"/>
-      <c r="AM61" s="23"/>
-      <c r="AN61" s="23"/>
-      <c r="AO61" s="23"/>
-      <c r="AP61" s="23"/>
-      <c r="AQ61" s="24"/>
-      <c r="AR61" s="23"/>
-      <c r="AS61" s="23"/>
-      <c r="AT61" s="23"/>
-      <c r="AU61" s="23"/>
-      <c r="AV61" s="23"/>
-      <c r="AW61" s="23"/>
-      <c r="AX61" s="24"/>
-      <c r="AY61" s="23"/>
-      <c r="AZ61" s="23"/>
-      <c r="BA61" s="23"/>
-      <c r="BB61" s="23"/>
-      <c r="BC61" s="23"/>
-      <c r="BD61" s="23"/>
-      <c r="BE61" s="24"/>
-      <c r="BF61" s="23"/>
-      <c r="BG61" s="23"/>
-      <c r="BH61" s="23"/>
-      <c r="BI61" s="23"/>
-      <c r="BJ61" s="23"/>
-      <c r="BK61" s="23"/>
-      <c r="BL61" s="24"/>
-      <c r="BM61" s="23"/>
-      <c r="BN61" s="23"/>
-      <c r="BO61" s="23"/>
-      <c r="BP61" s="23"/>
-      <c r="BQ61" s="23"/>
-      <c r="BR61" s="23"/>
-      <c r="BS61" s="24"/>
-      <c r="BT61" s="23"/>
-      <c r="BU61" s="23"/>
-      <c r="BV61" s="23"/>
-      <c r="BW61" s="23"/>
-      <c r="BX61" s="23"/>
-      <c r="BY61" s="23"/>
-      <c r="BZ61" s="24"/>
-      <c r="CA61" s="23"/>
-      <c r="CB61" s="23"/>
-      <c r="CC61" s="23"/>
-      <c r="CD61" s="23"/>
-      <c r="CE61" s="23"/>
-      <c r="CF61" s="23"/>
-      <c r="CG61" s="24"/>
-      <c r="CH61" s="23"/>
-      <c r="CI61" s="23"/>
-      <c r="CJ61" s="23"/>
-      <c r="CK61" s="23"/>
-      <c r="CL61" s="23"/>
-      <c r="CM61" s="23"/>
-      <c r="CN61" s="24"/>
-      <c r="CO61" s="23"/>
-      <c r="CP61" s="23"/>
-      <c r="CQ61" s="23"/>
-      <c r="CR61" s="23"/>
-      <c r="CS61" s="23"/>
-      <c r="CT61" s="23"/>
-      <c r="CU61" s="24"/>
-      <c r="CV61" s="23"/>
-      <c r="CW61" s="23"/>
-      <c r="CX61" s="23"/>
-      <c r="CY61" s="23"/>
-      <c r="CZ61" s="23"/>
-      <c r="DA61" s="23"/>
-      <c r="DB61" s="24"/>
-      <c r="DC61" s="23"/>
-      <c r="DD61" s="23"/>
-      <c r="DE61" s="23"/>
-      <c r="DF61" s="23"/>
-      <c r="DG61" s="23"/>
-      <c r="DH61" s="23"/>
-      <c r="DI61" s="24"/>
-      <c r="DJ61" s="23"/>
-      <c r="DK61" s="23"/>
-      <c r="DL61" s="23"/>
-      <c r="DM61" s="23"/>
-      <c r="DN61" s="23"/>
-      <c r="DO61" s="23"/>
-      <c r="DP61" s="24"/>
-      <c r="DQ61" s="23"/>
-      <c r="DR61" s="23"/>
-      <c r="DS61" s="23"/>
-      <c r="DT61" s="23"/>
-      <c r="DU61" s="23"/>
-      <c r="DV61" s="23"/>
-      <c r="DW61" s="24"/>
-      <c r="DX61" s="23"/>
-      <c r="DY61" s="23"/>
-      <c r="DZ61" s="23"/>
-      <c r="EA61" s="23"/>
-      <c r="EB61" s="23"/>
-      <c r="EC61" s="23"/>
-      <c r="ED61" s="24"/>
-      <c r="EE61" s="23"/>
-      <c r="EF61" s="23"/>
-      <c r="EG61" s="23"/>
-      <c r="EH61" s="23"/>
-      <c r="EI61" s="23"/>
-      <c r="EJ61" s="23"/>
-      <c r="EK61" s="24"/>
-      <c r="EL61" s="23"/>
-      <c r="EM61" s="23"/>
-      <c r="EN61" s="23"/>
-      <c r="EO61" s="23"/>
-      <c r="EP61" s="23"/>
-      <c r="EQ61" s="23"/>
-      <c r="ER61" s="24"/>
-      <c r="ES61" s="23"/>
-      <c r="ET61" s="23"/>
-      <c r="EU61" s="23"/>
-      <c r="EV61" s="23"/>
-      <c r="EW61" s="23"/>
-      <c r="EX61" s="23"/>
-      <c r="EY61" s="24"/>
-      <c r="EZ61" s="23"/>
-      <c r="FA61" s="23"/>
-      <c r="FB61" s="23"/>
-      <c r="FC61" s="23"/>
-      <c r="FD61" s="23"/>
-      <c r="FE61" s="23"/>
-      <c r="FF61" s="24"/>
-      <c r="FG61" s="23"/>
-      <c r="FH61" s="23"/>
-      <c r="FI61" s="23"/>
-      <c r="FJ61" s="23"/>
-      <c r="FK61" s="23"/>
-      <c r="FL61" s="23"/>
-      <c r="FM61" s="24"/>
-      <c r="FN61" s="23"/>
-      <c r="FO61" s="23"/>
-      <c r="FP61" s="23"/>
-      <c r="FQ61" s="23"/>
-      <c r="FR61" s="23"/>
-      <c r="FS61" s="23"/>
-      <c r="FT61" s="24"/>
-    </row>
-    <row r="62" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="50">
-        <v>0</v>
-      </c>
-      <c r="E62" s="36">
-        <v>45514</v>
-      </c>
-      <c r="F62" s="36">
-        <v>45519</v>
-      </c>
-      <c r="G62" s="28"/>
-      <c r="H62" s="28"/>
-      <c r="I62" s="23"/>
-      <c r="J62" s="23"/>
-      <c r="K62" s="23"/>
-      <c r="L62" s="23"/>
-      <c r="M62" s="23"/>
-      <c r="N62" s="23"/>
-      <c r="O62" s="23"/>
-      <c r="P62" s="23"/>
-      <c r="Q62" s="23"/>
-      <c r="R62" s="23"/>
-      <c r="S62" s="23"/>
-      <c r="T62" s="23"/>
-      <c r="U62" s="23"/>
-      <c r="V62" s="23"/>
-      <c r="W62" s="23"/>
-      <c r="X62" s="23"/>
-      <c r="Y62" s="23"/>
-      <c r="Z62" s="23"/>
-      <c r="AA62" s="23"/>
-      <c r="AB62" s="23"/>
-      <c r="AC62" s="23"/>
-      <c r="AD62" s="23"/>
-      <c r="AE62" s="23"/>
-      <c r="AF62" s="23"/>
-      <c r="AG62" s="23"/>
-      <c r="AH62" s="23"/>
-      <c r="AI62" s="23"/>
-      <c r="AJ62" s="23"/>
-      <c r="AK62" s="23"/>
-      <c r="AL62" s="23"/>
-      <c r="AM62" s="23"/>
-      <c r="AN62" s="23"/>
-      <c r="AO62" s="23"/>
-      <c r="AP62" s="23"/>
-      <c r="AQ62" s="24"/>
-      <c r="AR62" s="23"/>
-      <c r="AS62" s="23"/>
-      <c r="AT62" s="23"/>
-      <c r="AU62" s="23"/>
-      <c r="AV62" s="23"/>
-      <c r="AW62" s="23"/>
-      <c r="AX62" s="24"/>
-      <c r="AY62" s="23"/>
-      <c r="AZ62" s="23"/>
-      <c r="BA62" s="23"/>
-      <c r="BB62" s="23"/>
-      <c r="BC62" s="23"/>
-      <c r="BD62" s="23"/>
-      <c r="BE62" s="24"/>
-      <c r="BF62" s="23"/>
-      <c r="BG62" s="23"/>
-      <c r="BH62" s="23"/>
-      <c r="BI62" s="23"/>
-      <c r="BJ62" s="23"/>
-      <c r="BK62" s="23"/>
-      <c r="BL62" s="24"/>
-      <c r="BM62" s="23"/>
-      <c r="BN62" s="23"/>
-      <c r="BO62" s="23"/>
-      <c r="BP62" s="23"/>
-      <c r="BQ62" s="23"/>
-      <c r="BR62" s="23"/>
-      <c r="BS62" s="24"/>
-      <c r="BT62" s="23"/>
-      <c r="BU62" s="23"/>
-      <c r="BV62" s="23"/>
-      <c r="BW62" s="23"/>
-      <c r="BX62" s="23"/>
-      <c r="BY62" s="23"/>
-      <c r="BZ62" s="24"/>
-      <c r="CA62" s="23"/>
-      <c r="CB62" s="23"/>
-      <c r="CC62" s="23"/>
-      <c r="CD62" s="23"/>
-      <c r="CE62" s="23"/>
-      <c r="CF62" s="23"/>
-      <c r="CG62" s="24"/>
-      <c r="CH62" s="23"/>
-      <c r="CI62" s="23"/>
-      <c r="CJ62" s="23"/>
-      <c r="CK62" s="23"/>
-      <c r="CL62" s="23"/>
-      <c r="CM62" s="23"/>
-      <c r="CN62" s="24"/>
-      <c r="CO62" s="23"/>
-      <c r="CP62" s="23"/>
-      <c r="CQ62" s="23"/>
-      <c r="CR62" s="23"/>
-      <c r="CS62" s="23"/>
-      <c r="CT62" s="23"/>
-      <c r="CU62" s="24"/>
-      <c r="CV62" s="23"/>
-      <c r="CW62" s="23"/>
-      <c r="CX62" s="23"/>
-      <c r="CY62" s="23"/>
-      <c r="CZ62" s="23"/>
-      <c r="DA62" s="23"/>
-      <c r="DB62" s="24"/>
-      <c r="DC62" s="23"/>
-      <c r="DD62" s="23"/>
-      <c r="DE62" s="23"/>
-      <c r="DF62" s="23"/>
-      <c r="DG62" s="23"/>
-      <c r="DH62" s="23"/>
-      <c r="DI62" s="24"/>
-      <c r="DJ62" s="23"/>
-      <c r="DK62" s="23"/>
-      <c r="DL62" s="23"/>
-      <c r="DM62" s="23"/>
-      <c r="DN62" s="23"/>
-      <c r="DO62" s="23"/>
-      <c r="DP62" s="24"/>
-      <c r="DQ62" s="23"/>
-      <c r="DR62" s="23"/>
-      <c r="DS62" s="23"/>
-      <c r="DT62" s="23"/>
-      <c r="DU62" s="23"/>
-      <c r="DV62" s="23"/>
-      <c r="DW62" s="24"/>
-      <c r="DX62" s="23"/>
-      <c r="DY62" s="23"/>
-      <c r="DZ62" s="23"/>
-      <c r="EA62" s="23"/>
-      <c r="EB62" s="23"/>
-      <c r="EC62" s="23"/>
-      <c r="ED62" s="24"/>
-      <c r="EE62" s="23"/>
-      <c r="EF62" s="23"/>
-      <c r="EG62" s="23"/>
-      <c r="EH62" s="23"/>
-      <c r="EI62" s="23"/>
-      <c r="EJ62" s="23"/>
-      <c r="EK62" s="24"/>
-      <c r="EL62" s="23"/>
-      <c r="EM62" s="23"/>
-      <c r="EN62" s="23"/>
-      <c r="EO62" s="23"/>
-      <c r="EP62" s="23"/>
-      <c r="EQ62" s="23"/>
-      <c r="ER62" s="24"/>
-      <c r="ES62" s="23"/>
-      <c r="ET62" s="23"/>
-      <c r="EU62" s="23"/>
-      <c r="EV62" s="23"/>
-      <c r="EW62" s="23"/>
-      <c r="EX62" s="23"/>
-      <c r="EY62" s="24"/>
-      <c r="EZ62" s="23"/>
-      <c r="FA62" s="23"/>
-      <c r="FB62" s="23"/>
-      <c r="FC62" s="23"/>
-      <c r="FD62" s="23"/>
-      <c r="FE62" s="23"/>
-      <c r="FF62" s="24"/>
-      <c r="FG62" s="23"/>
-      <c r="FH62" s="23"/>
-      <c r="FI62" s="23"/>
-      <c r="FJ62" s="23"/>
-      <c r="FK62" s="23"/>
-      <c r="FL62" s="23"/>
-      <c r="FM62" s="24"/>
-      <c r="FN62" s="23"/>
-      <c r="FO62" s="23"/>
-      <c r="FP62" s="23"/>
-      <c r="FQ62" s="23"/>
-      <c r="FR62" s="23"/>
-      <c r="FS62" s="23"/>
-      <c r="FT62" s="24"/>
-    </row>
-    <row r="63" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="68" t="s">
-        <v>58</v>
-      </c>
-      <c r="C63" s="68"/>
-      <c r="D63" s="50">
-        <v>0</v>
-      </c>
-      <c r="E63" s="36">
-        <v>45519</v>
-      </c>
-      <c r="F63" s="36">
-        <v>45529</v>
-      </c>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="23"/>
-      <c r="J63" s="23"/>
-      <c r="K63" s="23"/>
-      <c r="L63" s="23"/>
-      <c r="M63" s="23"/>
-      <c r="N63" s="23"/>
-      <c r="O63" s="23"/>
-      <c r="P63" s="23"/>
-      <c r="Q63" s="23"/>
-      <c r="R63" s="23"/>
-      <c r="S63" s="23"/>
-      <c r="T63" s="23"/>
-      <c r="U63" s="23"/>
-      <c r="V63" s="23"/>
-      <c r="W63" s="23"/>
-      <c r="X63" s="23"/>
-      <c r="Y63" s="23"/>
-      <c r="Z63" s="23"/>
-      <c r="AA63" s="23"/>
-      <c r="AB63" s="23"/>
-      <c r="AC63" s="23"/>
-      <c r="AD63" s="23"/>
-      <c r="AE63" s="23"/>
-      <c r="AF63" s="23"/>
-      <c r="AG63" s="23"/>
-      <c r="AH63" s="23"/>
-      <c r="AI63" s="23"/>
-      <c r="AJ63" s="23"/>
-      <c r="AK63" s="23"/>
-      <c r="AL63" s="23"/>
-      <c r="AM63" s="23"/>
-      <c r="AN63" s="23"/>
-      <c r="AO63" s="23"/>
-      <c r="AP63" s="23"/>
-      <c r="AQ63" s="24"/>
-      <c r="AR63" s="23"/>
-      <c r="AS63" s="23"/>
-      <c r="AT63" s="23"/>
-      <c r="AU63" s="23"/>
-      <c r="AV63" s="23"/>
-      <c r="AW63" s="23"/>
-      <c r="AX63" s="24"/>
-      <c r="AY63" s="23"/>
-      <c r="AZ63" s="23"/>
-      <c r="BA63" s="23"/>
-      <c r="BB63" s="23"/>
-      <c r="BC63" s="23"/>
-      <c r="BD63" s="23"/>
-      <c r="BE63" s="24"/>
-      <c r="BF63" s="23"/>
-      <c r="BG63" s="23"/>
-      <c r="BH63" s="23"/>
-      <c r="BI63" s="23"/>
-      <c r="BJ63" s="23"/>
-      <c r="BK63" s="23"/>
-      <c r="BL63" s="24"/>
-      <c r="BM63" s="23"/>
-      <c r="BN63" s="23"/>
-      <c r="BO63" s="23"/>
-      <c r="BP63" s="23"/>
-      <c r="BQ63" s="23"/>
-      <c r="BR63" s="23"/>
-      <c r="BS63" s="24"/>
-      <c r="BT63" s="23"/>
-      <c r="BU63" s="23"/>
-      <c r="BV63" s="23"/>
-      <c r="BW63" s="23"/>
-      <c r="BX63" s="23"/>
-      <c r="BY63" s="23"/>
-      <c r="BZ63" s="24"/>
-      <c r="CA63" s="23"/>
-      <c r="CB63" s="23"/>
-      <c r="CC63" s="23"/>
-      <c r="CD63" s="23"/>
-      <c r="CE63" s="23"/>
-      <c r="CF63" s="23"/>
-      <c r="CG63" s="24"/>
-      <c r="CH63" s="23"/>
-      <c r="CI63" s="23"/>
-      <c r="CJ63" s="23"/>
-      <c r="CK63" s="23"/>
-      <c r="CL63" s="23"/>
-      <c r="CM63" s="23"/>
-      <c r="CN63" s="24"/>
-      <c r="CO63" s="23"/>
-      <c r="CP63" s="23"/>
-      <c r="CQ63" s="23"/>
-      <c r="CR63" s="23"/>
-      <c r="CS63" s="23"/>
-      <c r="CT63" s="23"/>
-      <c r="CU63" s="24"/>
-      <c r="CV63" s="23"/>
-      <c r="CW63" s="23"/>
-      <c r="CX63" s="23"/>
-      <c r="CY63" s="23"/>
-      <c r="CZ63" s="23"/>
-      <c r="DA63" s="23"/>
-      <c r="DB63" s="24"/>
-      <c r="DC63" s="23"/>
-      <c r="DD63" s="23"/>
-      <c r="DE63" s="23"/>
-      <c r="DF63" s="23"/>
-      <c r="DG63" s="23"/>
-      <c r="DH63" s="23"/>
-      <c r="DI63" s="24"/>
-      <c r="DJ63" s="23"/>
-      <c r="DK63" s="23"/>
-      <c r="DL63" s="23"/>
-      <c r="DM63" s="23"/>
-      <c r="DN63" s="23"/>
-      <c r="DO63" s="23"/>
-      <c r="DP63" s="24"/>
-      <c r="DQ63" s="23"/>
-      <c r="DR63" s="23"/>
-      <c r="DS63" s="23"/>
-      <c r="DT63" s="23"/>
-      <c r="DU63" s="23"/>
-      <c r="DV63" s="23"/>
-      <c r="DW63" s="24"/>
-      <c r="DX63" s="23"/>
-      <c r="DY63" s="23"/>
-      <c r="DZ63" s="23"/>
-      <c r="EA63" s="23"/>
-      <c r="EB63" s="23"/>
-      <c r="EC63" s="23"/>
-      <c r="ED63" s="24"/>
-      <c r="EE63" s="23"/>
-      <c r="EF63" s="23"/>
-      <c r="EG63" s="23"/>
-      <c r="EH63" s="23"/>
-      <c r="EI63" s="23"/>
-      <c r="EJ63" s="23"/>
-      <c r="EK63" s="24"/>
-      <c r="EL63" s="23"/>
-      <c r="EM63" s="23"/>
-      <c r="EN63" s="23"/>
-      <c r="EO63" s="23"/>
-      <c r="EP63" s="23"/>
-      <c r="EQ63" s="23"/>
-      <c r="ER63" s="24"/>
-      <c r="ES63" s="23"/>
-      <c r="ET63" s="23"/>
-      <c r="EU63" s="23"/>
-      <c r="EV63" s="23"/>
-      <c r="EW63" s="23"/>
-      <c r="EX63" s="23"/>
-      <c r="EY63" s="24"/>
-      <c r="EZ63" s="23"/>
-      <c r="FA63" s="23"/>
-      <c r="FB63" s="23"/>
-      <c r="FC63" s="23"/>
-      <c r="FD63" s="23"/>
-      <c r="FE63" s="23"/>
-      <c r="FF63" s="24"/>
-      <c r="FG63" s="23"/>
-      <c r="FH63" s="23"/>
-      <c r="FI63" s="23"/>
-      <c r="FJ63" s="23"/>
-      <c r="FK63" s="23"/>
-      <c r="FL63" s="23"/>
-      <c r="FM63" s="24"/>
-      <c r="FN63" s="23"/>
-      <c r="FO63" s="23"/>
-      <c r="FP63" s="23"/>
-      <c r="FQ63" s="23"/>
-      <c r="FR63" s="23"/>
-      <c r="FS63" s="23"/>
-      <c r="FT63" s="24"/>
-    </row>
-    <row r="64" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="68" t="s">
-        <v>59</v>
-      </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="50">
-        <v>0</v>
-      </c>
-      <c r="E64" s="36">
-        <v>45529</v>
-      </c>
-      <c r="F64" s="36">
-        <v>45535</v>
-      </c>
-      <c r="G64" s="28"/>
-      <c r="H64" s="28"/>
-      <c r="I64" s="23"/>
-      <c r="J64" s="23"/>
-      <c r="K64" s="23"/>
-      <c r="L64" s="23"/>
-      <c r="M64" s="23"/>
-      <c r="N64" s="23"/>
-      <c r="O64" s="23"/>
-      <c r="P64" s="23"/>
-      <c r="Q64" s="23"/>
-      <c r="R64" s="23"/>
-      <c r="S64" s="23"/>
-      <c r="T64" s="23"/>
-      <c r="U64" s="23"/>
-      <c r="V64" s="23"/>
-      <c r="W64" s="23"/>
-      <c r="X64" s="23"/>
-      <c r="Y64" s="23"/>
-      <c r="Z64" s="23"/>
-      <c r="AA64" s="23"/>
-      <c r="AB64" s="23"/>
-      <c r="AC64" s="23"/>
-      <c r="AD64" s="23"/>
-      <c r="AE64" s="23"/>
-      <c r="AF64" s="23"/>
-      <c r="AG64" s="23"/>
-      <c r="AH64" s="23"/>
-      <c r="AI64" s="23"/>
-      <c r="AJ64" s="23"/>
-      <c r="AK64" s="23"/>
-      <c r="AL64" s="23"/>
-      <c r="AM64" s="23"/>
-      <c r="AN64" s="23"/>
-      <c r="AO64" s="23"/>
-      <c r="AP64" s="23"/>
-      <c r="AQ64" s="24"/>
-      <c r="AR64" s="23"/>
-      <c r="AS64" s="23"/>
-      <c r="AT64" s="23"/>
-      <c r="AU64" s="23"/>
-      <c r="AV64" s="23"/>
-      <c r="AW64" s="23"/>
-      <c r="AX64" s="24"/>
-      <c r="AY64" s="23"/>
-      <c r="AZ64" s="23"/>
-      <c r="BA64" s="23"/>
-      <c r="BB64" s="23"/>
-      <c r="BC64" s="23"/>
-      <c r="BD64" s="23"/>
-      <c r="BE64" s="24"/>
-      <c r="BF64" s="23"/>
-      <c r="BG64" s="23"/>
-      <c r="BH64" s="23"/>
-      <c r="BI64" s="23"/>
-      <c r="BJ64" s="23"/>
-      <c r="BK64" s="23"/>
-      <c r="BL64" s="24"/>
-      <c r="BM64" s="23"/>
-      <c r="BN64" s="23"/>
-      <c r="BO64" s="23"/>
-      <c r="BP64" s="23"/>
-      <c r="BQ64" s="23"/>
-      <c r="BR64" s="23"/>
-      <c r="BS64" s="24"/>
-      <c r="BT64" s="23"/>
-      <c r="BU64" s="23"/>
-      <c r="BV64" s="23"/>
-      <c r="BW64" s="23"/>
-      <c r="BX64" s="23"/>
-      <c r="BY64" s="23"/>
-      <c r="BZ64" s="24"/>
-      <c r="CA64" s="23"/>
-      <c r="CB64" s="23"/>
-      <c r="CC64" s="23"/>
-      <c r="CD64" s="23"/>
-      <c r="CE64" s="23"/>
-      <c r="CF64" s="23"/>
-      <c r="CG64" s="24"/>
-      <c r="CH64" s="23"/>
-      <c r="CI64" s="23"/>
-      <c r="CJ64" s="23"/>
-      <c r="CK64" s="23"/>
-      <c r="CL64" s="23"/>
-      <c r="CM64" s="23"/>
-      <c r="CN64" s="24"/>
-      <c r="CO64" s="23"/>
-      <c r="CP64" s="23"/>
-      <c r="CQ64" s="23"/>
-      <c r="CR64" s="23"/>
-      <c r="CS64" s="23"/>
-      <c r="CT64" s="23"/>
-      <c r="CU64" s="24"/>
-      <c r="CV64" s="23"/>
-      <c r="CW64" s="23"/>
-      <c r="CX64" s="23"/>
-      <c r="CY64" s="23"/>
-      <c r="CZ64" s="23"/>
-      <c r="DA64" s="23"/>
-      <c r="DB64" s="24"/>
-      <c r="DC64" s="23"/>
-      <c r="DD64" s="23"/>
-      <c r="DE64" s="23"/>
-      <c r="DF64" s="23"/>
-      <c r="DG64" s="23"/>
-      <c r="DH64" s="23"/>
-      <c r="DI64" s="24"/>
-      <c r="DJ64" s="23"/>
-      <c r="DK64" s="23"/>
-      <c r="DL64" s="23"/>
-      <c r="DM64" s="23"/>
-      <c r="DN64" s="23"/>
-      <c r="DO64" s="23"/>
-      <c r="DP64" s="24"/>
-      <c r="DQ64" s="23"/>
-      <c r="DR64" s="23"/>
-      <c r="DS64" s="23"/>
-      <c r="DT64" s="23"/>
-      <c r="DU64" s="23"/>
-      <c r="DV64" s="23"/>
-      <c r="DW64" s="24"/>
-      <c r="DX64" s="23"/>
-      <c r="DY64" s="23"/>
-      <c r="DZ64" s="23"/>
-      <c r="EA64" s="23"/>
-      <c r="EB64" s="23"/>
-      <c r="EC64" s="23"/>
-      <c r="ED64" s="24"/>
-      <c r="EE64" s="23"/>
-      <c r="EF64" s="23"/>
-      <c r="EG64" s="23"/>
-      <c r="EH64" s="23"/>
-      <c r="EI64" s="23"/>
-      <c r="EJ64" s="23"/>
-      <c r="EK64" s="24"/>
-      <c r="EL64" s="23"/>
-      <c r="EM64" s="23"/>
-      <c r="EN64" s="23"/>
-      <c r="EO64" s="23"/>
-      <c r="EP64" s="23"/>
-      <c r="EQ64" s="23"/>
-      <c r="ER64" s="24"/>
-      <c r="ES64" s="23"/>
-      <c r="ET64" s="23"/>
-      <c r="EU64" s="23"/>
-      <c r="EV64" s="23"/>
-      <c r="EW64" s="23"/>
-      <c r="EX64" s="23"/>
-      <c r="EY64" s="24"/>
-      <c r="EZ64" s="23"/>
-      <c r="FA64" s="23"/>
-      <c r="FB64" s="23"/>
-      <c r="FC64" s="23"/>
-      <c r="FD64" s="23"/>
-      <c r="FE64" s="23"/>
-      <c r="FF64" s="24"/>
-      <c r="FG64" s="23"/>
-      <c r="FH64" s="23"/>
-      <c r="FI64" s="23"/>
-      <c r="FJ64" s="23"/>
-      <c r="FK64" s="23"/>
-      <c r="FL64" s="23"/>
-      <c r="FM64" s="24"/>
-      <c r="FN64" s="23"/>
-      <c r="FO64" s="23"/>
-      <c r="FP64" s="23"/>
-      <c r="FQ64" s="23"/>
-      <c r="FR64" s="23"/>
-      <c r="FS64" s="23"/>
-      <c r="FT64" s="24"/>
-    </row>
-    <row r="65" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B65" s="71" t="s">
-        <v>60</v>
-      </c>
-      <c r="C65" s="71"/>
-      <c r="D65" s="47"/>
-      <c r="E65" s="48"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="28"/>
-      <c r="H65" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I65" s="23"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
-      <c r="N65" s="23"/>
-      <c r="O65" s="23"/>
-      <c r="P65" s="23"/>
-      <c r="Q65" s="23"/>
-      <c r="R65" s="23"/>
-      <c r="S65" s="23"/>
-      <c r="T65" s="23"/>
-      <c r="U65" s="23"/>
-      <c r="V65" s="23"/>
-      <c r="W65" s="23"/>
-      <c r="X65" s="23"/>
-      <c r="Y65" s="23"/>
-      <c r="Z65" s="23"/>
-      <c r="AA65" s="23"/>
-      <c r="AB65" s="23"/>
-      <c r="AC65" s="23"/>
-      <c r="AD65" s="23"/>
-      <c r="AE65" s="23"/>
-      <c r="AF65" s="23"/>
-      <c r="AG65" s="23"/>
-      <c r="AH65" s="23"/>
-      <c r="AI65" s="23"/>
-      <c r="AJ65" s="23"/>
-      <c r="AK65" s="23"/>
-      <c r="AL65" s="23"/>
-      <c r="AM65" s="23"/>
-      <c r="AN65" s="23"/>
-      <c r="AO65" s="23"/>
-      <c r="AP65" s="23"/>
-      <c r="AQ65" s="24"/>
-      <c r="AR65" s="23"/>
-      <c r="AS65" s="23"/>
-      <c r="AT65" s="23"/>
-      <c r="AU65" s="23"/>
-      <c r="AV65" s="23"/>
-      <c r="AW65" s="23"/>
-      <c r="AX65" s="24"/>
-      <c r="AY65" s="23"/>
-      <c r="AZ65" s="23"/>
-      <c r="BA65" s="23"/>
-      <c r="BB65" s="23"/>
-      <c r="BC65" s="23"/>
-      <c r="BD65" s="23"/>
-      <c r="BE65" s="24"/>
-      <c r="BF65" s="23"/>
-      <c r="BG65" s="23"/>
-      <c r="BH65" s="23"/>
-      <c r="BI65" s="23"/>
-      <c r="BJ65" s="23"/>
-      <c r="BK65" s="23"/>
-      <c r="BL65" s="24"/>
-      <c r="BM65" s="23"/>
-      <c r="BN65" s="23"/>
-      <c r="BO65" s="23"/>
-      <c r="BP65" s="23"/>
-      <c r="BQ65" s="23"/>
-      <c r="BR65" s="23"/>
-      <c r="BS65" s="24"/>
-      <c r="BT65" s="23"/>
-      <c r="BU65" s="23"/>
-      <c r="BV65" s="23"/>
-      <c r="BW65" s="23"/>
-      <c r="BX65" s="23"/>
-      <c r="BY65" s="23"/>
-      <c r="BZ65" s="24"/>
-      <c r="CA65" s="23"/>
-      <c r="CB65" s="23"/>
-      <c r="CC65" s="23"/>
-      <c r="CD65" s="23"/>
-      <c r="CE65" s="23"/>
-      <c r="CF65" s="23"/>
-      <c r="CG65" s="24"/>
-      <c r="CH65" s="23"/>
-      <c r="CI65" s="23"/>
-      <c r="CJ65" s="23"/>
-      <c r="CK65" s="23"/>
-      <c r="CL65" s="23"/>
-      <c r="CM65" s="23"/>
-      <c r="CN65" s="24"/>
-      <c r="CO65" s="23"/>
-      <c r="CP65" s="23"/>
-      <c r="CQ65" s="23"/>
-      <c r="CR65" s="23"/>
-      <c r="CS65" s="23"/>
-      <c r="CT65" s="23"/>
-      <c r="CU65" s="24"/>
-      <c r="CV65" s="23"/>
-      <c r="CW65" s="23"/>
-      <c r="CX65" s="23"/>
-      <c r="CY65" s="23"/>
-      <c r="CZ65" s="23"/>
-      <c r="DA65" s="23"/>
-      <c r="DB65" s="24"/>
-      <c r="DC65" s="23"/>
-      <c r="DD65" s="23"/>
-      <c r="DE65" s="23"/>
-      <c r="DF65" s="23"/>
-      <c r="DG65" s="23"/>
-      <c r="DH65" s="23"/>
-      <c r="DI65" s="24"/>
-      <c r="DJ65" s="23"/>
-      <c r="DK65" s="23"/>
-      <c r="DL65" s="23"/>
-      <c r="DM65" s="23"/>
-      <c r="DN65" s="23"/>
-      <c r="DO65" s="23"/>
-      <c r="DP65" s="24"/>
-      <c r="DQ65" s="23"/>
-      <c r="DR65" s="23"/>
-      <c r="DS65" s="23"/>
-      <c r="DT65" s="23"/>
-      <c r="DU65" s="23"/>
-      <c r="DV65" s="23"/>
-      <c r="DW65" s="24"/>
-      <c r="DX65" s="23"/>
-      <c r="DY65" s="23"/>
-      <c r="DZ65" s="23"/>
-      <c r="EA65" s="23"/>
-      <c r="EB65" s="23"/>
-      <c r="EC65" s="23"/>
-      <c r="ED65" s="24"/>
-      <c r="EE65" s="23"/>
-      <c r="EF65" s="23"/>
-      <c r="EG65" s="23"/>
-      <c r="EH65" s="23"/>
-      <c r="EI65" s="23"/>
-      <c r="EJ65" s="23"/>
-      <c r="EK65" s="24"/>
-      <c r="EL65" s="23"/>
-      <c r="EM65" s="23"/>
-      <c r="EN65" s="23"/>
-      <c r="EO65" s="23"/>
-      <c r="EP65" s="23"/>
-      <c r="EQ65" s="23"/>
-      <c r="ER65" s="24"/>
-      <c r="ES65" s="23"/>
-      <c r="ET65" s="23"/>
-      <c r="EU65" s="23"/>
-      <c r="EV65" s="23"/>
-      <c r="EW65" s="23"/>
-      <c r="EX65" s="23"/>
-      <c r="EY65" s="24"/>
-      <c r="EZ65" s="23"/>
-      <c r="FA65" s="23"/>
-      <c r="FB65" s="23"/>
-      <c r="FC65" s="23"/>
-      <c r="FD65" s="23"/>
-      <c r="FE65" s="23"/>
-      <c r="FF65" s="24"/>
-      <c r="FG65" s="23"/>
-      <c r="FH65" s="23"/>
-      <c r="FI65" s="23"/>
-      <c r="FJ65" s="23"/>
-      <c r="FK65" s="23"/>
-      <c r="FL65" s="23"/>
-      <c r="FM65" s="24"/>
-      <c r="FN65" s="23"/>
-      <c r="FO65" s="23"/>
-      <c r="FP65" s="23"/>
-      <c r="FQ65" s="23"/>
-      <c r="FR65" s="23"/>
-      <c r="FS65" s="23"/>
-      <c r="FT65" s="24"/>
-    </row>
-    <row r="66" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="8"/>
-      <c r="B66" s="68" t="s">
-        <v>61</v>
-      </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="50">
-        <v>0</v>
-      </c>
-      <c r="E66" s="36">
-        <v>45540</v>
-      </c>
-      <c r="F66" s="36">
-        <v>45545</v>
-      </c>
-      <c r="G66" s="28"/>
-      <c r="H66" s="28">
-        <v>5</v>
-      </c>
-      <c r="I66" s="23"/>
-      <c r="J66" s="23"/>
-      <c r="K66" s="23"/>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="23"/>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="23"/>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="23"/>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="23"/>
-      <c r="AO66" s="23"/>
-      <c r="AP66" s="23"/>
-      <c r="AQ66" s="24"/>
-      <c r="AR66" s="23"/>
-      <c r="AS66" s="23"/>
-      <c r="AT66" s="23"/>
-      <c r="AU66" s="23"/>
-      <c r="AV66" s="23"/>
-      <c r="AW66" s="23"/>
-      <c r="AX66" s="24"/>
-      <c r="AY66" s="23"/>
-      <c r="AZ66" s="23"/>
-      <c r="BA66" s="23"/>
-      <c r="BB66" s="23"/>
-      <c r="BC66" s="23"/>
-      <c r="BD66" s="23"/>
-      <c r="BE66" s="24"/>
-      <c r="BF66" s="23"/>
-      <c r="BG66" s="23"/>
-      <c r="BH66" s="23"/>
-      <c r="BI66" s="23"/>
-      <c r="BJ66" s="23"/>
-      <c r="BK66" s="23"/>
-      <c r="BL66" s="24"/>
-      <c r="BM66" s="23"/>
-      <c r="BN66" s="23"/>
-      <c r="BO66" s="23"/>
-      <c r="BP66" s="23"/>
-      <c r="BQ66" s="23"/>
-      <c r="BR66" s="23"/>
-      <c r="BS66" s="24"/>
-      <c r="BT66" s="23"/>
-      <c r="BU66" s="23"/>
-      <c r="BV66" s="23"/>
-      <c r="BW66" s="23"/>
-      <c r="BX66" s="23"/>
-      <c r="BY66" s="23"/>
-      <c r="BZ66" s="24"/>
-      <c r="CA66" s="23"/>
-      <c r="CB66" s="23"/>
-      <c r="CC66" s="23"/>
-      <c r="CD66" s="23"/>
-      <c r="CE66" s="23"/>
-      <c r="CF66" s="23"/>
-      <c r="CG66" s="24"/>
-      <c r="CH66" s="23"/>
-      <c r="CI66" s="23"/>
-      <c r="CJ66" s="23"/>
-      <c r="CK66" s="23"/>
-      <c r="CL66" s="23"/>
-      <c r="CM66" s="23"/>
-      <c r="CN66" s="24"/>
-      <c r="CO66" s="23"/>
-      <c r="CP66" s="23"/>
-      <c r="CQ66" s="23"/>
-      <c r="CR66" s="23"/>
-      <c r="CS66" s="23"/>
-      <c r="CT66" s="23"/>
-      <c r="CU66" s="24"/>
-      <c r="CV66" s="23"/>
-      <c r="CW66" s="23"/>
-      <c r="CX66" s="23"/>
-      <c r="CY66" s="23"/>
-      <c r="CZ66" s="23"/>
-      <c r="DA66" s="23"/>
-      <c r="DB66" s="24"/>
-      <c r="DC66" s="23"/>
-      <c r="DD66" s="23"/>
-      <c r="DE66" s="23"/>
-      <c r="DF66" s="23"/>
-      <c r="DG66" s="23"/>
-      <c r="DH66" s="23"/>
-      <c r="DI66" s="24"/>
-      <c r="DJ66" s="23"/>
-      <c r="DK66" s="23"/>
-      <c r="DL66" s="23"/>
-      <c r="DM66" s="23"/>
-      <c r="DN66" s="23"/>
-      <c r="DO66" s="23"/>
-      <c r="DP66" s="24"/>
-      <c r="DQ66" s="23"/>
-      <c r="DR66" s="23"/>
-      <c r="DS66" s="23"/>
-      <c r="DT66" s="23"/>
-      <c r="DU66" s="23"/>
-      <c r="DV66" s="23"/>
-      <c r="DW66" s="24"/>
-      <c r="DX66" s="23"/>
-      <c r="DY66" s="23"/>
-      <c r="DZ66" s="23"/>
-      <c r="EA66" s="23"/>
-      <c r="EB66" s="23"/>
-      <c r="EC66" s="23"/>
-      <c r="ED66" s="24"/>
-      <c r="EE66" s="23"/>
-      <c r="EF66" s="23"/>
-      <c r="EG66" s="23"/>
-      <c r="EH66" s="23"/>
-      <c r="EI66" s="23"/>
-      <c r="EJ66" s="23"/>
-      <c r="EK66" s="24"/>
-      <c r="EL66" s="23"/>
-      <c r="EM66" s="23"/>
-      <c r="EN66" s="23"/>
-      <c r="EO66" s="23"/>
-      <c r="EP66" s="23"/>
-      <c r="EQ66" s="23"/>
-      <c r="ER66" s="24"/>
-      <c r="ES66" s="23"/>
-      <c r="ET66" s="23"/>
-      <c r="EU66" s="23"/>
-      <c r="EV66" s="23"/>
-      <c r="EW66" s="23"/>
-      <c r="EX66" s="23"/>
-      <c r="EY66" s="24"/>
-      <c r="EZ66" s="23"/>
-      <c r="FA66" s="23"/>
-      <c r="FB66" s="23"/>
-      <c r="FC66" s="23"/>
-      <c r="FD66" s="23"/>
-      <c r="FE66" s="23"/>
-      <c r="FF66" s="24"/>
-      <c r="FG66" s="23"/>
-      <c r="FH66" s="23"/>
-      <c r="FI66" s="23"/>
-      <c r="FJ66" s="23"/>
-      <c r="FK66" s="23"/>
-      <c r="FL66" s="23"/>
-      <c r="FM66" s="24"/>
-      <c r="FN66" s="23"/>
-      <c r="FO66" s="23"/>
-      <c r="FP66" s="23"/>
-      <c r="FQ66" s="23"/>
-      <c r="FR66" s="23"/>
-      <c r="FS66" s="23"/>
-      <c r="FT66" s="24"/>
-    </row>
-    <row r="67" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="68" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="68"/>
-      <c r="D67" s="50">
-        <v>0</v>
-      </c>
-      <c r="E67" s="36">
-        <v>45545</v>
-      </c>
-      <c r="F67" s="36">
-        <v>45550</v>
-      </c>
-      <c r="G67" s="28"/>
-      <c r="H67" s="28"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="23"/>
-      <c r="L67" s="23"/>
-      <c r="M67" s="23"/>
-      <c r="N67" s="23"/>
-      <c r="O67" s="23"/>
-      <c r="P67" s="23"/>
-      <c r="Q67" s="23"/>
-      <c r="R67" s="23"/>
-      <c r="S67" s="23"/>
-      <c r="T67" s="23"/>
-      <c r="U67" s="23"/>
-      <c r="V67" s="23"/>
-      <c r="W67" s="23"/>
-      <c r="X67" s="23"/>
-      <c r="Y67" s="23"/>
-      <c r="Z67" s="23"/>
-      <c r="AA67" s="23"/>
-      <c r="AB67" s="23"/>
-      <c r="AC67" s="23"/>
-      <c r="AD67" s="23"/>
-      <c r="AE67" s="23"/>
-      <c r="AF67" s="23"/>
-      <c r="AG67" s="23"/>
-      <c r="AH67" s="23"/>
-      <c r="AI67" s="23"/>
-      <c r="AJ67" s="23"/>
-      <c r="AK67" s="23"/>
-      <c r="AL67" s="23"/>
-      <c r="AM67" s="23"/>
-      <c r="AN67" s="23"/>
-      <c r="AO67" s="23"/>
-      <c r="AP67" s="23"/>
-      <c r="AQ67" s="24"/>
-      <c r="AR67" s="23"/>
-      <c r="AS67" s="23"/>
-      <c r="AT67" s="23"/>
-      <c r="AU67" s="23"/>
-      <c r="AV67" s="23"/>
-      <c r="AW67" s="23"/>
-      <c r="AX67" s="24"/>
-      <c r="AY67" s="23"/>
-      <c r="AZ67" s="23"/>
-      <c r="BA67" s="23"/>
-      <c r="BB67" s="23"/>
-      <c r="BC67" s="23"/>
-      <c r="BD67" s="23"/>
-      <c r="BE67" s="24"/>
-      <c r="BF67" s="23"/>
-      <c r="BG67" s="23"/>
-      <c r="BH67" s="23"/>
-      <c r="BI67" s="23"/>
-      <c r="BJ67" s="23"/>
-      <c r="BK67" s="23"/>
-      <c r="BL67" s="24"/>
-      <c r="BM67" s="23"/>
-      <c r="BN67" s="23"/>
-      <c r="BO67" s="23"/>
-      <c r="BP67" s="23"/>
-      <c r="BQ67" s="23"/>
-      <c r="BR67" s="23"/>
-      <c r="BS67" s="24"/>
-      <c r="BT67" s="23"/>
-      <c r="BU67" s="23"/>
-      <c r="BV67" s="23"/>
-      <c r="BW67" s="23"/>
-      <c r="BX67" s="23"/>
-      <c r="BY67" s="23"/>
-      <c r="BZ67" s="24"/>
-      <c r="CA67" s="23"/>
-      <c r="CB67" s="23"/>
-      <c r="CC67" s="23"/>
-      <c r="CD67" s="23"/>
-      <c r="CE67" s="23"/>
-      <c r="CF67" s="23"/>
-      <c r="CG67" s="24"/>
-      <c r="CH67" s="23"/>
-      <c r="CI67" s="23"/>
-      <c r="CJ67" s="23"/>
-      <c r="CK67" s="23"/>
-      <c r="CL67" s="23"/>
-      <c r="CM67" s="23"/>
-      <c r="CN67" s="24"/>
-      <c r="CO67" s="23"/>
-      <c r="CP67" s="23"/>
-      <c r="CQ67" s="23"/>
-      <c r="CR67" s="23"/>
-      <c r="CS67" s="23"/>
-      <c r="CT67" s="23"/>
-      <c r="CU67" s="24"/>
-      <c r="CV67" s="23"/>
-      <c r="CW67" s="23"/>
-      <c r="CX67" s="23"/>
-      <c r="CY67" s="23"/>
-      <c r="CZ67" s="23"/>
-      <c r="DA67" s="23"/>
-      <c r="DB67" s="24"/>
-      <c r="DC67" s="23"/>
-      <c r="DD67" s="23"/>
-      <c r="DE67" s="23"/>
-      <c r="DF67" s="23"/>
-      <c r="DG67" s="23"/>
-      <c r="DH67" s="23"/>
-      <c r="DI67" s="24"/>
-      <c r="DJ67" s="23"/>
-      <c r="DK67" s="23"/>
-      <c r="DL67" s="23"/>
-      <c r="DM67" s="23"/>
-      <c r="DN67" s="23"/>
-      <c r="DO67" s="23"/>
-      <c r="DP67" s="24"/>
-      <c r="DQ67" s="23"/>
-      <c r="DR67" s="23"/>
-      <c r="DS67" s="23"/>
-      <c r="DT67" s="23"/>
-      <c r="DU67" s="23"/>
-      <c r="DV67" s="23"/>
-      <c r="DW67" s="24"/>
-      <c r="DX67" s="23"/>
-      <c r="DY67" s="23"/>
-      <c r="DZ67" s="23"/>
-      <c r="EA67" s="23"/>
-      <c r="EB67" s="23"/>
-      <c r="EC67" s="23"/>
-      <c r="ED67" s="24"/>
-      <c r="EE67" s="23"/>
-      <c r="EF67" s="23"/>
-      <c r="EG67" s="23"/>
-      <c r="EH67" s="23"/>
-      <c r="EI67" s="23"/>
-      <c r="EJ67" s="23"/>
-      <c r="EK67" s="24"/>
-      <c r="EL67" s="23"/>
-      <c r="EM67" s="23"/>
-      <c r="EN67" s="23"/>
-      <c r="EO67" s="23"/>
-      <c r="EP67" s="23"/>
-      <c r="EQ67" s="23"/>
-      <c r="ER67" s="24"/>
-      <c r="ES67" s="23"/>
-      <c r="ET67" s="23"/>
-      <c r="EU67" s="23"/>
-      <c r="EV67" s="23"/>
-      <c r="EW67" s="23"/>
-      <c r="EX67" s="23"/>
-      <c r="EY67" s="24"/>
-      <c r="EZ67" s="23"/>
-      <c r="FA67" s="23"/>
-      <c r="FB67" s="23"/>
-      <c r="FC67" s="23"/>
-      <c r="FD67" s="23"/>
-      <c r="FE67" s="23"/>
-      <c r="FF67" s="24"/>
-      <c r="FG67" s="23"/>
-      <c r="FH67" s="23"/>
-      <c r="FI67" s="23"/>
-      <c r="FJ67" s="23"/>
-      <c r="FK67" s="23"/>
-      <c r="FL67" s="23"/>
-      <c r="FM67" s="24"/>
-      <c r="FN67" s="23"/>
-      <c r="FO67" s="23"/>
-      <c r="FP67" s="23"/>
-      <c r="FQ67" s="23"/>
-      <c r="FR67" s="23"/>
-      <c r="FS67" s="23"/>
-      <c r="FT67" s="24"/>
-    </row>
-    <row r="68" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="68" t="s">
-        <v>19</v>
-      </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="50">
-        <v>0</v>
-      </c>
-      <c r="E68" s="36">
-        <v>45550</v>
-      </c>
-      <c r="F68" s="36">
-        <v>45553</v>
-      </c>
-      <c r="G68" s="28"/>
-      <c r="H68" s="28"/>
-      <c r="I68" s="23"/>
-      <c r="J68" s="23"/>
-      <c r="K68" s="23"/>
-      <c r="L68" s="23"/>
-      <c r="M68" s="23"/>
-      <c r="N68" s="23"/>
-      <c r="O68" s="23"/>
-      <c r="P68" s="23"/>
-      <c r="Q68" s="23"/>
-      <c r="R68" s="23"/>
-      <c r="S68" s="23"/>
-      <c r="T68" s="23"/>
-      <c r="U68" s="23"/>
-      <c r="V68" s="23"/>
-      <c r="W68" s="23"/>
-      <c r="X68" s="23"/>
-      <c r="Y68" s="23"/>
-      <c r="Z68" s="23"/>
-      <c r="AA68" s="23"/>
-      <c r="AB68" s="23"/>
-      <c r="AC68" s="23"/>
-      <c r="AD68" s="23"/>
-      <c r="AE68" s="23"/>
-      <c r="AF68" s="23"/>
-      <c r="AG68" s="23"/>
-      <c r="AH68" s="23"/>
-      <c r="AI68" s="23"/>
-      <c r="AJ68" s="23"/>
-      <c r="AK68" s="23"/>
-      <c r="AL68" s="23"/>
-      <c r="AM68" s="23"/>
-      <c r="AN68" s="23"/>
-      <c r="AO68" s="23"/>
-      <c r="AP68" s="23"/>
-      <c r="AQ68" s="24"/>
-      <c r="AR68" s="23"/>
-      <c r="AS68" s="23"/>
-      <c r="AT68" s="23"/>
-      <c r="AU68" s="23"/>
-      <c r="AV68" s="23"/>
-      <c r="AW68" s="23"/>
-      <c r="AX68" s="24"/>
-      <c r="AY68" s="23"/>
-      <c r="AZ68" s="23"/>
-      <c r="BA68" s="23"/>
-      <c r="BB68" s="23"/>
-      <c r="BC68" s="23"/>
-      <c r="BD68" s="23"/>
-      <c r="BE68" s="24"/>
-      <c r="BF68" s="23"/>
-      <c r="BG68" s="23"/>
-      <c r="BH68" s="23"/>
-      <c r="BI68" s="23"/>
-      <c r="BJ68" s="23"/>
-      <c r="BK68" s="23"/>
-      <c r="BL68" s="24"/>
-      <c r="BM68" s="23"/>
-      <c r="BN68" s="23"/>
-      <c r="BO68" s="23"/>
-      <c r="BP68" s="23"/>
-      <c r="BQ68" s="23"/>
-      <c r="BR68" s="23"/>
-      <c r="BS68" s="24"/>
-      <c r="BT68" s="23"/>
-      <c r="BU68" s="23"/>
-      <c r="BV68" s="23"/>
-      <c r="BW68" s="23"/>
-      <c r="BX68" s="23"/>
-      <c r="BY68" s="23"/>
-      <c r="BZ68" s="24"/>
-      <c r="CA68" s="23"/>
-      <c r="CB68" s="23"/>
-      <c r="CC68" s="23"/>
-      <c r="CD68" s="23"/>
-      <c r="CE68" s="23"/>
-      <c r="CF68" s="23"/>
-      <c r="CG68" s="24"/>
-      <c r="CH68" s="23"/>
-      <c r="CI68" s="23"/>
-      <c r="CJ68" s="23"/>
-      <c r="CK68" s="23"/>
-      <c r="CL68" s="23"/>
-      <c r="CM68" s="23"/>
-      <c r="CN68" s="24"/>
-      <c r="CO68" s="23"/>
-      <c r="CP68" s="23"/>
-      <c r="CQ68" s="23"/>
-      <c r="CR68" s="23"/>
-      <c r="CS68" s="23"/>
-      <c r="CT68" s="23"/>
-      <c r="CU68" s="24"/>
-      <c r="CV68" s="23"/>
-      <c r="CW68" s="23"/>
-      <c r="CX68" s="23"/>
-      <c r="CY68" s="23"/>
-      <c r="CZ68" s="23"/>
-      <c r="DA68" s="23"/>
-      <c r="DB68" s="24"/>
-      <c r="DC68" s="23"/>
-      <c r="DD68" s="23"/>
-      <c r="DE68" s="23"/>
-      <c r="DF68" s="23"/>
-      <c r="DG68" s="23"/>
-      <c r="DH68" s="23"/>
-      <c r="DI68" s="24"/>
-      <c r="DJ68" s="23"/>
-      <c r="DK68" s="23"/>
-      <c r="DL68" s="23"/>
-      <c r="DM68" s="23"/>
-      <c r="DN68" s="23"/>
-      <c r="DO68" s="23"/>
-      <c r="DP68" s="24"/>
-      <c r="DQ68" s="23"/>
-      <c r="DR68" s="23"/>
-      <c r="DS68" s="23"/>
-      <c r="DT68" s="23"/>
-      <c r="DU68" s="23"/>
-      <c r="DV68" s="23"/>
-      <c r="DW68" s="24"/>
-      <c r="DX68" s="23"/>
-      <c r="DY68" s="23"/>
-      <c r="DZ68" s="23"/>
-      <c r="EA68" s="23"/>
-      <c r="EB68" s="23"/>
-      <c r="EC68" s="23"/>
-      <c r="ED68" s="24"/>
-      <c r="EE68" s="23"/>
-      <c r="EF68" s="23"/>
-      <c r="EG68" s="23"/>
-      <c r="EH68" s="23"/>
-      <c r="EI68" s="23"/>
-      <c r="EJ68" s="23"/>
-      <c r="EK68" s="24"/>
-      <c r="EL68" s="23"/>
-      <c r="EM68" s="23"/>
-      <c r="EN68" s="23"/>
-      <c r="EO68" s="23"/>
-      <c r="EP68" s="23"/>
-      <c r="EQ68" s="23"/>
-      <c r="ER68" s="24"/>
-      <c r="ES68" s="23"/>
-      <c r="ET68" s="23"/>
-      <c r="EU68" s="23"/>
-      <c r="EV68" s="23"/>
-      <c r="EW68" s="23"/>
-      <c r="EX68" s="23"/>
-      <c r="EY68" s="24"/>
-      <c r="EZ68" s="23"/>
-      <c r="FA68" s="23"/>
-      <c r="FB68" s="23"/>
-      <c r="FC68" s="23"/>
-      <c r="FD68" s="23"/>
-      <c r="FE68" s="23"/>
-      <c r="FF68" s="24"/>
-      <c r="FG68" s="23"/>
-      <c r="FH68" s="23"/>
-      <c r="FI68" s="23"/>
-      <c r="FJ68" s="23"/>
-      <c r="FK68" s="23"/>
-      <c r="FL68" s="23"/>
-      <c r="FM68" s="24"/>
-      <c r="FN68" s="23"/>
-      <c r="FO68" s="23"/>
-      <c r="FP68" s="23"/>
-      <c r="FQ68" s="23"/>
-      <c r="FR68" s="23"/>
-      <c r="FS68" s="23"/>
-      <c r="FT68" s="24"/>
-    </row>
-    <row r="69" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B69" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" s="71"/>
-      <c r="D69" s="47"/>
-      <c r="E69" s="48"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="28"/>
-      <c r="H69" s="28" t="s">
-        <v>21</v>
-      </c>
-      <c r="I69" s="23"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="23"/>
-      <c r="L69" s="23"/>
-      <c r="M69" s="23"/>
-      <c r="N69" s="23"/>
-      <c r="O69" s="23"/>
-      <c r="P69" s="23"/>
-      <c r="Q69" s="23"/>
-      <c r="R69" s="23"/>
-      <c r="S69" s="23"/>
-      <c r="T69" s="23"/>
-      <c r="U69" s="23"/>
-      <c r="V69" s="23"/>
-      <c r="W69" s="23"/>
-      <c r="X69" s="23"/>
-      <c r="Y69" s="23"/>
-      <c r="Z69" s="23"/>
-      <c r="AA69" s="23"/>
-      <c r="AB69" s="23"/>
-      <c r="AC69" s="23"/>
-      <c r="AD69" s="23"/>
-      <c r="AE69" s="23"/>
-      <c r="AF69" s="23"/>
-      <c r="AG69" s="23"/>
-      <c r="AH69" s="23"/>
-      <c r="AI69" s="23"/>
-      <c r="AJ69" s="23"/>
-      <c r="AK69" s="23"/>
-      <c r="AL69" s="23"/>
-      <c r="AM69" s="23"/>
-      <c r="AN69" s="23"/>
-      <c r="AO69" s="23"/>
-      <c r="AP69" s="23"/>
-      <c r="AQ69" s="24"/>
-      <c r="AR69" s="23"/>
-      <c r="AS69" s="23"/>
-      <c r="AT69" s="23"/>
-      <c r="AU69" s="23"/>
-      <c r="AV69" s="23"/>
-      <c r="AW69" s="23"/>
-      <c r="AX69" s="24"/>
-      <c r="AY69" s="23"/>
-      <c r="AZ69" s="23"/>
-      <c r="BA69" s="23"/>
-      <c r="BB69" s="23"/>
-      <c r="BC69" s="23"/>
-      <c r="BD69" s="23"/>
-      <c r="BE69" s="24"/>
-      <c r="BF69" s="23"/>
-      <c r="BG69" s="23"/>
-      <c r="BH69" s="23"/>
-      <c r="BI69" s="23"/>
-      <c r="BJ69" s="23"/>
-      <c r="BK69" s="23"/>
-      <c r="BL69" s="24"/>
-      <c r="BM69" s="23"/>
-      <c r="BN69" s="23"/>
-      <c r="BO69" s="23"/>
-      <c r="BP69" s="23"/>
-      <c r="BQ69" s="23"/>
-      <c r="BR69" s="23"/>
-      <c r="BS69" s="24"/>
-      <c r="BT69" s="23"/>
-      <c r="BU69" s="23"/>
-      <c r="BV69" s="23"/>
-      <c r="BW69" s="23"/>
-      <c r="BX69" s="23"/>
-      <c r="BY69" s="23"/>
-      <c r="BZ69" s="24"/>
-      <c r="CA69" s="23"/>
-      <c r="CB69" s="23"/>
-      <c r="CC69" s="23"/>
-      <c r="CD69" s="23"/>
-      <c r="CE69" s="23"/>
-      <c r="CF69" s="23"/>
-      <c r="CG69" s="24"/>
-      <c r="CH69" s="23"/>
-      <c r="CI69" s="23"/>
-      <c r="CJ69" s="23"/>
-      <c r="CK69" s="23"/>
-      <c r="CL69" s="23"/>
-      <c r="CM69" s="23"/>
-      <c r="CN69" s="24"/>
-      <c r="CO69" s="23"/>
-      <c r="CP69" s="23"/>
-      <c r="CQ69" s="23"/>
-      <c r="CR69" s="23"/>
-      <c r="CS69" s="23"/>
-      <c r="CT69" s="23"/>
-      <c r="CU69" s="24"/>
-      <c r="CV69" s="23"/>
-      <c r="CW69" s="23"/>
-      <c r="CX69" s="23"/>
-      <c r="CY69" s="23"/>
-      <c r="CZ69" s="23"/>
-      <c r="DA69" s="23"/>
-      <c r="DB69" s="24"/>
-      <c r="DC69" s="23"/>
-      <c r="DD69" s="23"/>
-      <c r="DE69" s="23"/>
-      <c r="DF69" s="23"/>
-      <c r="DG69" s="23"/>
-      <c r="DH69" s="23"/>
-      <c r="DI69" s="24"/>
-      <c r="DJ69" s="23"/>
-      <c r="DK69" s="23"/>
-      <c r="DL69" s="23"/>
-      <c r="DM69" s="23"/>
-      <c r="DN69" s="23"/>
-      <c r="DO69" s="23"/>
-      <c r="DP69" s="24"/>
-      <c r="DQ69" s="23"/>
-      <c r="DR69" s="23"/>
-      <c r="DS69" s="23"/>
-      <c r="DT69" s="23"/>
-      <c r="DU69" s="23"/>
-      <c r="DV69" s="23"/>
-      <c r="DW69" s="24"/>
-      <c r="DX69" s="23"/>
-      <c r="DY69" s="23"/>
-      <c r="DZ69" s="23"/>
-      <c r="EA69" s="23"/>
-      <c r="EB69" s="23"/>
-      <c r="EC69" s="23"/>
-      <c r="ED69" s="24"/>
-      <c r="EE69" s="23"/>
-      <c r="EF69" s="23"/>
-      <c r="EG69" s="23"/>
-      <c r="EH69" s="23"/>
-      <c r="EI69" s="23"/>
-      <c r="EJ69" s="23"/>
-      <c r="EK69" s="24"/>
-      <c r="EL69" s="23"/>
-      <c r="EM69" s="23"/>
-      <c r="EN69" s="23"/>
-      <c r="EO69" s="23"/>
-      <c r="EP69" s="23"/>
-      <c r="EQ69" s="23"/>
-      <c r="ER69" s="24"/>
-      <c r="ES69" s="23"/>
-      <c r="ET69" s="23"/>
-      <c r="EU69" s="23"/>
-      <c r="EV69" s="23"/>
-      <c r="EW69" s="23"/>
-      <c r="EX69" s="23"/>
-      <c r="EY69" s="24"/>
-      <c r="EZ69" s="23"/>
-      <c r="FA69" s="23"/>
-      <c r="FB69" s="23"/>
-      <c r="FC69" s="23"/>
-      <c r="FD69" s="23"/>
-      <c r="FE69" s="23"/>
-      <c r="FF69" s="24"/>
-      <c r="FG69" s="23"/>
-      <c r="FH69" s="23"/>
-      <c r="FI69" s="23"/>
-      <c r="FJ69" s="23"/>
-      <c r="FK69" s="23"/>
-      <c r="FL69" s="23"/>
-      <c r="FM69" s="24"/>
-      <c r="FN69" s="23"/>
-      <c r="FO69" s="23"/>
-      <c r="FP69" s="23"/>
-      <c r="FQ69" s="23"/>
-      <c r="FR69" s="23"/>
-      <c r="FS69" s="23"/>
-      <c r="FT69" s="24"/>
-    </row>
-    <row r="70" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="8"/>
-      <c r="B70" s="72" t="s">
-        <v>64</v>
-      </c>
-      <c r="C70" s="72"/>
-      <c r="D70" s="50">
-        <v>0</v>
-      </c>
-      <c r="E70" s="36">
-        <v>45553</v>
-      </c>
-      <c r="F70" s="36">
-        <v>45563</v>
-      </c>
-      <c r="G70" s="28"/>
-      <c r="H70" s="28">
-        <v>5</v>
-      </c>
-      <c r="I70" s="23"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="23"/>
-      <c r="L70" s="23"/>
-      <c r="M70" s="23"/>
-      <c r="N70" s="23"/>
-      <c r="O70" s="23"/>
-      <c r="P70" s="23"/>
-      <c r="Q70" s="23"/>
-      <c r="R70" s="23"/>
-      <c r="S70" s="23"/>
-      <c r="T70" s="23"/>
-      <c r="U70" s="23"/>
-      <c r="V70" s="23"/>
-      <c r="W70" s="23"/>
-      <c r="X70" s="23"/>
-      <c r="Y70" s="23"/>
-      <c r="Z70" s="23"/>
-      <c r="AA70" s="23"/>
-      <c r="AB70" s="23"/>
-      <c r="AC70" s="23"/>
-      <c r="AD70" s="23"/>
-      <c r="AE70" s="23"/>
-      <c r="AF70" s="23"/>
-      <c r="AG70" s="23"/>
-      <c r="AH70" s="23"/>
-      <c r="AI70" s="23"/>
-      <c r="AJ70" s="23"/>
-      <c r="AK70" s="23"/>
-      <c r="AL70" s="23"/>
-      <c r="AM70" s="23"/>
-      <c r="AN70" s="23"/>
-      <c r="AO70" s="23"/>
-      <c r="AP70" s="23"/>
-      <c r="AQ70" s="24"/>
-      <c r="AR70" s="23"/>
-      <c r="AS70" s="23"/>
-      <c r="AT70" s="23"/>
-      <c r="AU70" s="23"/>
-      <c r="AV70" s="23"/>
-      <c r="AW70" s="23"/>
-      <c r="AX70" s="24"/>
-      <c r="AY70" s="23"/>
-      <c r="AZ70" s="23"/>
-      <c r="BA70" s="23"/>
-      <c r="BB70" s="23"/>
-      <c r="BC70" s="23"/>
-      <c r="BD70" s="23"/>
-      <c r="BE70" s="24"/>
-      <c r="BF70" s="23"/>
-      <c r="BG70" s="23"/>
-      <c r="BH70" s="23"/>
-      <c r="BI70" s="23"/>
-      <c r="BJ70" s="23"/>
-      <c r="BK70" s="23"/>
-      <c r="BL70" s="24"/>
-      <c r="BM70" s="23"/>
-      <c r="BN70" s="23"/>
-      <c r="BO70" s="23"/>
-      <c r="BP70" s="23"/>
-      <c r="BQ70" s="23"/>
-      <c r="BR70" s="23"/>
-      <c r="BS70" s="24"/>
-      <c r="BT70" s="23"/>
-      <c r="BU70" s="23"/>
-      <c r="BV70" s="23"/>
-      <c r="BW70" s="23"/>
-      <c r="BX70" s="23"/>
-      <c r="BY70" s="23"/>
-      <c r="BZ70" s="24"/>
-      <c r="CA70" s="23"/>
-      <c r="CB70" s="23"/>
-      <c r="CC70" s="23"/>
-      <c r="CD70" s="23"/>
-      <c r="CE70" s="23"/>
-      <c r="CF70" s="23"/>
-      <c r="CG70" s="24"/>
-      <c r="CH70" s="23"/>
-      <c r="CI70" s="23"/>
-      <c r="CJ70" s="23"/>
-      <c r="CK70" s="23"/>
-      <c r="CL70" s="23"/>
-      <c r="CM70" s="23"/>
-      <c r="CN70" s="24"/>
-      <c r="CO70" s="23"/>
-      <c r="CP70" s="23"/>
-      <c r="CQ70" s="23"/>
-      <c r="CR70" s="23"/>
-      <c r="CS70" s="23"/>
-      <c r="CT70" s="23"/>
-      <c r="CU70" s="24"/>
-      <c r="CV70" s="23"/>
-      <c r="CW70" s="23"/>
-      <c r="CX70" s="23"/>
-      <c r="CY70" s="23"/>
-      <c r="CZ70" s="23"/>
-      <c r="DA70" s="23"/>
-      <c r="DB70" s="24"/>
-      <c r="DC70" s="23"/>
-      <c r="DD70" s="23"/>
-      <c r="DE70" s="23"/>
-      <c r="DF70" s="23"/>
-      <c r="DG70" s="23"/>
-      <c r="DH70" s="23"/>
-      <c r="DI70" s="24"/>
-      <c r="DJ70" s="23"/>
-      <c r="DK70" s="23"/>
-      <c r="DL70" s="23"/>
-      <c r="DM70" s="23"/>
-      <c r="DN70" s="23"/>
-      <c r="DO70" s="23"/>
-      <c r="DP70" s="24"/>
-      <c r="DQ70" s="23"/>
-      <c r="DR70" s="23"/>
-      <c r="DS70" s="23"/>
-      <c r="DT70" s="23"/>
-      <c r="DU70" s="23"/>
-      <c r="DV70" s="23"/>
-      <c r="DW70" s="24"/>
-      <c r="DX70" s="23"/>
-      <c r="DY70" s="23"/>
-      <c r="DZ70" s="23"/>
-      <c r="EA70" s="23"/>
-      <c r="EB70" s="23"/>
-      <c r="EC70" s="23"/>
-      <c r="ED70" s="24"/>
-      <c r="EE70" s="23"/>
-      <c r="EF70" s="23"/>
-      <c r="EG70" s="23"/>
-      <c r="EH70" s="23"/>
-      <c r="EI70" s="23"/>
-      <c r="EJ70" s="23"/>
-      <c r="EK70" s="24"/>
-      <c r="EL70" s="23"/>
-      <c r="EM70" s="23"/>
-      <c r="EN70" s="23"/>
-      <c r="EO70" s="23"/>
-      <c r="EP70" s="23"/>
-      <c r="EQ70" s="23"/>
-      <c r="ER70" s="24"/>
-      <c r="ES70" s="23"/>
-      <c r="ET70" s="23"/>
-      <c r="EU70" s="23"/>
-      <c r="EV70" s="23"/>
-      <c r="EW70" s="23"/>
-      <c r="EX70" s="23"/>
-      <c r="EY70" s="24"/>
-      <c r="EZ70" s="23"/>
-      <c r="FA70" s="23"/>
-      <c r="FB70" s="23"/>
-      <c r="FC70" s="23"/>
-      <c r="FD70" s="23"/>
-      <c r="FE70" s="23"/>
-      <c r="FF70" s="24"/>
-      <c r="FG70" s="23"/>
-      <c r="FH70" s="23"/>
-      <c r="FI70" s="23"/>
-      <c r="FJ70" s="23"/>
-      <c r="FK70" s="23"/>
-      <c r="FL70" s="23"/>
-      <c r="FM70" s="24"/>
-      <c r="FN70" s="23"/>
-      <c r="FO70" s="23"/>
-      <c r="FP70" s="23"/>
-      <c r="FQ70" s="23"/>
-      <c r="FR70" s="23"/>
-      <c r="FS70" s="23"/>
-      <c r="FT70" s="24"/>
-    </row>
-    <row r="71" spans="1:176" s="3" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="8"/>
-      <c r="B71" s="72" t="s">
-        <v>65</v>
-      </c>
-      <c r="C71" s="72"/>
-      <c r="D71" s="50">
-        <v>0</v>
-      </c>
-      <c r="E71" s="36">
-        <v>45563</v>
-      </c>
-      <c r="F71" s="36">
-        <v>45565</v>
-      </c>
-      <c r="G71" s="28"/>
-      <c r="H71" s="28">
-        <v>5</v>
-      </c>
-      <c r="I71" s="23"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="23"/>
-      <c r="L71" s="23"/>
-      <c r="M71" s="23"/>
-      <c r="N71" s="23"/>
-      <c r="O71" s="23"/>
-      <c r="P71" s="23"/>
-      <c r="Q71" s="23"/>
-      <c r="R71" s="23"/>
-      <c r="S71" s="23"/>
-      <c r="T71" s="23"/>
-      <c r="U71" s="23"/>
-      <c r="V71" s="23"/>
-      <c r="W71" s="23"/>
-      <c r="X71" s="23"/>
-      <c r="Y71" s="23"/>
-      <c r="Z71" s="23"/>
-      <c r="AA71" s="23"/>
-      <c r="AB71" s="23"/>
-      <c r="AC71" s="23"/>
-      <c r="AD71" s="23"/>
-      <c r="AE71" s="23"/>
-      <c r="AF71" s="23"/>
-      <c r="AG71" s="23"/>
-      <c r="AH71" s="23"/>
-      <c r="AI71" s="23"/>
-      <c r="AJ71" s="23"/>
-      <c r="AK71" s="23"/>
-      <c r="AL71" s="23"/>
-      <c r="AM71" s="23"/>
-      <c r="AN71" s="23"/>
-      <c r="AO71" s="23"/>
-      <c r="AP71" s="23"/>
-      <c r="AQ71" s="24"/>
-      <c r="AR71" s="23"/>
-      <c r="AS71" s="23"/>
-      <c r="AT71" s="23"/>
-      <c r="AU71" s="23"/>
-      <c r="AV71" s="23"/>
-      <c r="AW71" s="23"/>
-      <c r="AX71" s="24"/>
-      <c r="AY71" s="23"/>
-      <c r="AZ71" s="23"/>
-      <c r="BA71" s="23"/>
-      <c r="BB71" s="23"/>
-      <c r="BC71" s="23"/>
-      <c r="BD71" s="23"/>
-      <c r="BE71" s="24"/>
-      <c r="BF71" s="23"/>
-      <c r="BG71" s="23"/>
-      <c r="BH71" s="23"/>
-      <c r="BI71" s="23"/>
-      <c r="BJ71" s="23"/>
-      <c r="BK71" s="23"/>
-      <c r="BL71" s="24"/>
-      <c r="BM71" s="23"/>
-      <c r="BN71" s="23"/>
-      <c r="BO71" s="23"/>
-      <c r="BP71" s="23"/>
-      <c r="BQ71" s="23"/>
-      <c r="BR71" s="23"/>
-      <c r="BS71" s="24"/>
-      <c r="BT71" s="23"/>
-      <c r="BU71" s="23"/>
-      <c r="BV71" s="23"/>
-      <c r="BW71" s="23"/>
-      <c r="BX71" s="23"/>
-      <c r="BY71" s="23"/>
-      <c r="BZ71" s="24"/>
-      <c r="CA71" s="23"/>
-      <c r="CB71" s="23"/>
-      <c r="CC71" s="23"/>
-      <c r="CD71" s="23"/>
-      <c r="CE71" s="23"/>
-      <c r="CF71" s="23"/>
-      <c r="CG71" s="24"/>
-      <c r="CH71" s="23"/>
-      <c r="CI71" s="23"/>
-      <c r="CJ71" s="23"/>
-      <c r="CK71" s="23"/>
-      <c r="CL71" s="23"/>
-      <c r="CM71" s="23"/>
-      <c r="CN71" s="24"/>
-      <c r="CO71" s="23"/>
-      <c r="CP71" s="23"/>
-      <c r="CQ71" s="23"/>
-      <c r="CR71" s="23"/>
-      <c r="CS71" s="23"/>
-      <c r="CT71" s="23"/>
-      <c r="CU71" s="24"/>
-      <c r="CV71" s="23"/>
-      <c r="CW71" s="23"/>
-      <c r="CX71" s="23"/>
-      <c r="CY71" s="23"/>
-      <c r="CZ71" s="23"/>
-      <c r="DA71" s="23"/>
-      <c r="DB71" s="24"/>
-      <c r="DC71" s="23"/>
-      <c r="DD71" s="23"/>
-      <c r="DE71" s="23"/>
-      <c r="DF71" s="23"/>
-      <c r="DG71" s="23"/>
-      <c r="DH71" s="23"/>
-      <c r="DI71" s="24"/>
-      <c r="DJ71" s="23"/>
-      <c r="DK71" s="23"/>
-      <c r="DL71" s="23"/>
-      <c r="DM71" s="23"/>
-      <c r="DN71" s="23"/>
-      <c r="DO71" s="23"/>
-      <c r="DP71" s="24"/>
-      <c r="DQ71" s="23"/>
-      <c r="DR71" s="23"/>
-      <c r="DS71" s="23"/>
-      <c r="DT71" s="23"/>
-      <c r="DU71" s="23"/>
-      <c r="DV71" s="23"/>
-      <c r="DW71" s="24"/>
-      <c r="DX71" s="23"/>
-      <c r="DY71" s="23"/>
-      <c r="DZ71" s="23"/>
-      <c r="EA71" s="23"/>
-      <c r="EB71" s="23"/>
-      <c r="EC71" s="23"/>
-      <c r="ED71" s="24"/>
-      <c r="EE71" s="23"/>
-      <c r="EF71" s="23"/>
-      <c r="EG71" s="23"/>
-      <c r="EH71" s="23"/>
-      <c r="EI71" s="23"/>
-      <c r="EJ71" s="23"/>
-      <c r="EK71" s="24"/>
-      <c r="EL71" s="23"/>
-      <c r="EM71" s="23"/>
-      <c r="EN71" s="23"/>
-      <c r="EO71" s="23"/>
-      <c r="EP71" s="23"/>
-      <c r="EQ71" s="23"/>
-      <c r="ER71" s="24"/>
-      <c r="ES71" s="23"/>
-      <c r="ET71" s="23"/>
-      <c r="EU71" s="23"/>
-      <c r="EV71" s="23"/>
-      <c r="EW71" s="23"/>
-      <c r="EX71" s="23"/>
-      <c r="EY71" s="24"/>
-      <c r="EZ71" s="23"/>
-      <c r="FA71" s="23"/>
-      <c r="FB71" s="23"/>
-      <c r="FC71" s="23"/>
-      <c r="FD71" s="23"/>
-      <c r="FE71" s="23"/>
-      <c r="FF71" s="24"/>
-      <c r="FG71" s="23"/>
-      <c r="FH71" s="23"/>
-      <c r="FI71" s="23"/>
-      <c r="FJ71" s="23"/>
-      <c r="FK71" s="23"/>
-      <c r="FL71" s="23"/>
-      <c r="FM71" s="24"/>
-      <c r="FN71" s="23"/>
-      <c r="FO71" s="23"/>
-      <c r="FP71" s="23"/>
-      <c r="FQ71" s="23"/>
-      <c r="FR71" s="23"/>
-      <c r="FS71" s="23"/>
-      <c r="FT71" s="24"/>
-    </row>
-    <row r="72" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="50">
-        <v>0</v>
-      </c>
-      <c r="E72" s="36">
-        <v>45565</v>
-      </c>
-      <c r="F72" s="36">
-        <v>45569</v>
-      </c>
-      <c r="G72" s="28"/>
-      <c r="H72" s="28"/>
-      <c r="I72" s="23"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="23"/>
-      <c r="L72" s="23"/>
-      <c r="M72" s="23"/>
-      <c r="N72" s="23"/>
-      <c r="O72" s="23"/>
-      <c r="P72" s="23"/>
-      <c r="Q72" s="23"/>
-      <c r="R72" s="23"/>
-      <c r="S72" s="23"/>
-      <c r="T72" s="23"/>
-      <c r="U72" s="23"/>
-      <c r="V72" s="23"/>
-      <c r="W72" s="23"/>
-      <c r="X72" s="23"/>
-      <c r="Y72" s="23"/>
-      <c r="Z72" s="23"/>
-      <c r="AA72" s="23"/>
-      <c r="AB72" s="23"/>
-      <c r="AC72" s="23"/>
-      <c r="AD72" s="23"/>
-      <c r="AE72" s="23"/>
-      <c r="AF72" s="23"/>
-      <c r="AG72" s="23"/>
-      <c r="AH72" s="23"/>
-      <c r="AI72" s="23"/>
-      <c r="AJ72" s="23"/>
-      <c r="AK72" s="23"/>
-      <c r="AL72" s="23"/>
-      <c r="AM72" s="23"/>
-      <c r="AN72" s="23"/>
-      <c r="AO72" s="23"/>
-      <c r="AP72" s="23"/>
-      <c r="AQ72" s="24"/>
-      <c r="AR72" s="23"/>
-      <c r="AS72" s="23"/>
-      <c r="AT72" s="23"/>
-      <c r="AU72" s="23"/>
-      <c r="AV72" s="23"/>
-      <c r="AW72" s="23"/>
-      <c r="AX72" s="24"/>
-      <c r="AY72" s="23"/>
-      <c r="AZ72" s="23"/>
-      <c r="BA72" s="23"/>
-      <c r="BB72" s="23"/>
-      <c r="BC72" s="23"/>
-      <c r="BD72" s="23"/>
-      <c r="BE72" s="24"/>
-      <c r="BF72" s="23"/>
-      <c r="BG72" s="23"/>
-      <c r="BH72" s="23"/>
-      <c r="BI72" s="23"/>
-      <c r="BJ72" s="23"/>
-      <c r="BK72" s="23"/>
-      <c r="BL72" s="24"/>
-      <c r="BM72" s="23"/>
-      <c r="BN72" s="23"/>
-      <c r="BO72" s="23"/>
-      <c r="BP72" s="23"/>
-      <c r="BQ72" s="23"/>
-      <c r="BR72" s="23"/>
-      <c r="BS72" s="24"/>
-      <c r="BT72" s="23"/>
-      <c r="BU72" s="23"/>
-      <c r="BV72" s="23"/>
-      <c r="BW72" s="23"/>
-      <c r="BX72" s="23"/>
-      <c r="BY72" s="23"/>
-      <c r="BZ72" s="24"/>
-      <c r="CA72" s="23"/>
-      <c r="CB72" s="23"/>
-      <c r="CC72" s="23"/>
-      <c r="CD72" s="23"/>
-      <c r="CE72" s="23"/>
-      <c r="CF72" s="23"/>
-      <c r="CG72" s="24"/>
-      <c r="CH72" s="23"/>
-      <c r="CI72" s="23"/>
-      <c r="CJ72" s="23"/>
-      <c r="CK72" s="23"/>
-      <c r="CL72" s="23"/>
-      <c r="CM72" s="23"/>
-      <c r="CN72" s="24"/>
-      <c r="CO72" s="23"/>
-      <c r="CP72" s="23"/>
-      <c r="CQ72" s="23"/>
-      <c r="CR72" s="23"/>
-      <c r="CS72" s="23"/>
-      <c r="CT72" s="23"/>
-      <c r="CU72" s="24"/>
-      <c r="CV72" s="23"/>
-      <c r="CW72" s="23"/>
-      <c r="CX72" s="23"/>
-      <c r="CY72" s="23"/>
-      <c r="CZ72" s="23"/>
-      <c r="DA72" s="23"/>
-      <c r="DB72" s="24"/>
-      <c r="DC72" s="23"/>
-      <c r="DD72" s="23"/>
-      <c r="DE72" s="23"/>
-      <c r="DF72" s="23"/>
-      <c r="DG72" s="23"/>
-      <c r="DH72" s="23"/>
-      <c r="DI72" s="24"/>
-      <c r="DJ72" s="23"/>
-      <c r="DK72" s="23"/>
-      <c r="DL72" s="23"/>
-      <c r="DM72" s="23"/>
-      <c r="DN72" s="23"/>
-      <c r="DO72" s="23"/>
-      <c r="DP72" s="24"/>
-      <c r="DQ72" s="23"/>
-      <c r="DR72" s="23"/>
-      <c r="DS72" s="23"/>
-      <c r="DT72" s="23"/>
-      <c r="DU72" s="23"/>
-      <c r="DV72" s="23"/>
-      <c r="DW72" s="24"/>
-      <c r="DX72" s="23"/>
-      <c r="DY72" s="23"/>
-      <c r="DZ72" s="23"/>
-      <c r="EA72" s="23"/>
-      <c r="EB72" s="23"/>
-      <c r="EC72" s="23"/>
-      <c r="ED72" s="24"/>
-      <c r="EE72" s="23"/>
-      <c r="EF72" s="23"/>
-      <c r="EG72" s="23"/>
-      <c r="EH72" s="23"/>
-      <c r="EI72" s="23"/>
-      <c r="EJ72" s="23"/>
-      <c r="EK72" s="24"/>
-      <c r="EL72" s="23"/>
-      <c r="EM72" s="23"/>
-      <c r="EN72" s="23"/>
-      <c r="EO72" s="23"/>
-      <c r="EP72" s="23"/>
-      <c r="EQ72" s="23"/>
-      <c r="ER72" s="24"/>
-      <c r="ES72" s="23"/>
-      <c r="ET72" s="23"/>
-      <c r="EU72" s="23"/>
-      <c r="EV72" s="23"/>
-      <c r="EW72" s="23"/>
-      <c r="EX72" s="23"/>
-      <c r="EY72" s="24"/>
-      <c r="EZ72" s="23"/>
-      <c r="FA72" s="23"/>
-      <c r="FB72" s="23"/>
-      <c r="FC72" s="23"/>
-      <c r="FD72" s="23"/>
-      <c r="FE72" s="23"/>
-      <c r="FF72" s="24"/>
-      <c r="FG72" s="23"/>
-      <c r="FH72" s="23"/>
-      <c r="FI72" s="23"/>
-      <c r="FJ72" s="23"/>
-      <c r="FK72" s="23"/>
-      <c r="FL72" s="23"/>
-      <c r="FM72" s="24"/>
-      <c r="FN72" s="23"/>
-      <c r="FO72" s="23"/>
-      <c r="FP72" s="23"/>
-      <c r="FQ72" s="23"/>
-      <c r="FR72" s="23"/>
-      <c r="FS72" s="23"/>
-      <c r="FT72" s="24"/>
-    </row>
-    <row r="73" spans="1:176" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="68" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73" s="68"/>
-      <c r="D73" s="50">
-        <v>0</v>
-      </c>
-      <c r="E73" s="36">
-        <v>45569</v>
-      </c>
-      <c r="F73" s="36">
-        <v>45569</v>
-      </c>
-      <c r="G73" s="28"/>
-      <c r="H73" s="28"/>
-      <c r="I73" s="23"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="23"/>
-      <c r="L73" s="23"/>
-      <c r="M73" s="23"/>
-      <c r="N73" s="23"/>
-      <c r="O73" s="23"/>
-      <c r="P73" s="23"/>
-      <c r="Q73" s="23"/>
-      <c r="R73" s="23"/>
-      <c r="S73" s="23"/>
-      <c r="T73" s="23"/>
-      <c r="U73" s="23"/>
-      <c r="V73" s="23"/>
-      <c r="W73" s="23"/>
-      <c r="X73" s="23"/>
-      <c r="Y73" s="23"/>
-      <c r="Z73" s="23"/>
-      <c r="AA73" s="23"/>
-      <c r="AB73" s="23"/>
-      <c r="AC73" s="23"/>
-      <c r="AD73" s="23"/>
-      <c r="AE73" s="23"/>
-      <c r="AF73" s="23"/>
-      <c r="AG73" s="23"/>
-      <c r="AH73" s="23"/>
-      <c r="AI73" s="23"/>
-      <c r="AJ73" s="23"/>
-      <c r="AK73" s="23"/>
-      <c r="AL73" s="23"/>
-      <c r="AM73" s="23"/>
-      <c r="AN73" s="23"/>
-      <c r="AO73" s="23"/>
-      <c r="AP73" s="23"/>
-      <c r="AQ73" s="24"/>
-      <c r="AR73" s="23"/>
-      <c r="AS73" s="23"/>
-      <c r="AT73" s="23"/>
-      <c r="AU73" s="23"/>
-      <c r="AV73" s="23"/>
-      <c r="AW73" s="23"/>
-      <c r="AX73" s="24"/>
-      <c r="AY73" s="23"/>
-      <c r="AZ73" s="23"/>
-      <c r="BA73" s="23"/>
-      <c r="BB73" s="23"/>
-      <c r="BC73" s="23"/>
-      <c r="BD73" s="23"/>
-      <c r="BE73" s="24"/>
-      <c r="BF73" s="23"/>
-      <c r="BG73" s="23"/>
-      <c r="BH73" s="23"/>
-      <c r="BI73" s="23"/>
-      <c r="BJ73" s="23"/>
-      <c r="BK73" s="23"/>
-      <c r="BL73" s="24"/>
-      <c r="BM73" s="23"/>
-      <c r="BN73" s="23"/>
-      <c r="BO73" s="23"/>
-      <c r="BP73" s="23"/>
-      <c r="BQ73" s="23"/>
-      <c r="BR73" s="23"/>
-      <c r="BS73" s="24"/>
-      <c r="BT73" s="23"/>
-      <c r="BU73" s="23"/>
-      <c r="BV73" s="23"/>
-      <c r="BW73" s="23"/>
-      <c r="BX73" s="23"/>
-      <c r="BY73" s="23"/>
-      <c r="BZ73" s="24"/>
-      <c r="CA73" s="23"/>
-      <c r="CB73" s="23"/>
-      <c r="CC73" s="23"/>
-      <c r="CD73" s="23"/>
-      <c r="CE73" s="23"/>
-      <c r="CF73" s="23"/>
-      <c r="CG73" s="24"/>
-      <c r="CH73" s="23"/>
-      <c r="CI73" s="23"/>
-      <c r="CJ73" s="23"/>
-      <c r="CK73" s="23"/>
-      <c r="CL73" s="23"/>
-      <c r="CM73" s="23"/>
-      <c r="CN73" s="24"/>
-      <c r="CO73" s="23"/>
-      <c r="CP73" s="23"/>
-      <c r="CQ73" s="23"/>
-      <c r="CR73" s="23"/>
-      <c r="CS73" s="23"/>
-      <c r="CT73" s="23"/>
-      <c r="CU73" s="24"/>
-      <c r="CV73" s="23"/>
-      <c r="CW73" s="23"/>
-      <c r="CX73" s="23"/>
-      <c r="CY73" s="23"/>
-      <c r="CZ73" s="23"/>
-      <c r="DA73" s="23"/>
-      <c r="DB73" s="24"/>
-      <c r="DC73" s="23"/>
-      <c r="DD73" s="23"/>
-      <c r="DE73" s="23"/>
-      <c r="DF73" s="23"/>
-      <c r="DG73" s="23"/>
-      <c r="DH73" s="23"/>
-      <c r="DI73" s="24"/>
-      <c r="DJ73" s="23"/>
-      <c r="DK73" s="23"/>
-      <c r="DL73" s="23"/>
-      <c r="DM73" s="23"/>
-      <c r="DN73" s="23"/>
-      <c r="DO73" s="23"/>
-      <c r="DP73" s="24"/>
-      <c r="DQ73" s="23"/>
-      <c r="DR73" s="23"/>
-      <c r="DS73" s="23"/>
-      <c r="DT73" s="23"/>
-      <c r="DU73" s="23"/>
-      <c r="DV73" s="23"/>
-      <c r="DW73" s="24"/>
-      <c r="DX73" s="23"/>
-      <c r="DY73" s="23"/>
-      <c r="DZ73" s="23"/>
-      <c r="EA73" s="23"/>
-      <c r="EB73" s="23"/>
-      <c r="EC73" s="23"/>
-      <c r="ED73" s="24"/>
-      <c r="EE73" s="23"/>
-      <c r="EF73" s="23"/>
-      <c r="EG73" s="23"/>
-      <c r="EH73" s="23"/>
-      <c r="EI73" s="23"/>
-      <c r="EJ73" s="23"/>
-      <c r="EK73" s="24"/>
-      <c r="EL73" s="23"/>
-      <c r="EM73" s="23"/>
-      <c r="EN73" s="23"/>
-      <c r="EO73" s="23"/>
-      <c r="EP73" s="23"/>
-      <c r="EQ73" s="23"/>
-      <c r="ER73" s="24"/>
-      <c r="ES73" s="23"/>
-      <c r="ET73" s="23"/>
-      <c r="EU73" s="23"/>
-      <c r="EV73" s="23"/>
-      <c r="EW73" s="23"/>
-      <c r="EX73" s="23"/>
-      <c r="EY73" s="24"/>
-      <c r="EZ73" s="23"/>
-      <c r="FA73" s="23"/>
-      <c r="FB73" s="23"/>
-      <c r="FC73" s="23"/>
-      <c r="FD73" s="23"/>
-      <c r="FE73" s="23"/>
-      <c r="FF73" s="24"/>
-      <c r="FG73" s="23"/>
-      <c r="FH73" s="23"/>
-      <c r="FI73" s="23"/>
-      <c r="FJ73" s="23"/>
-      <c r="FK73" s="23"/>
-      <c r="FL73" s="23"/>
-      <c r="FM73" s="24"/>
-      <c r="FN73" s="23"/>
-      <c r="FO73" s="23"/>
-      <c r="FP73" s="23"/>
-      <c r="FQ73" s="23"/>
-      <c r="FR73" s="23"/>
-      <c r="FS73" s="23"/>
-      <c r="FT73" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="95">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
+  <mergeCells count="64">
     <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="B66:C66"/>
-    <mergeCell ref="B67:C67"/>
-    <mergeCell ref="B68:C68"/>
-    <mergeCell ref="B69:C69"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B70:C70"/>
-    <mergeCell ref="B71:C71"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B63:C63"/>
-    <mergeCell ref="B62:C62"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B73:C73"/>
-    <mergeCell ref="B64:C64"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -16419,24 +10480,39 @@
     <mergeCell ref="EL4:ER4"/>
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D73">
+  <conditionalFormatting sqref="D7:D42">
     <cfRule type="dataBar" priority="230">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -16450,37 +10526,37 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO73 DQ5:DV73 DX5:EC73 EE5:EJ73 EL5:EQ73 ES5:EX73 EZ5:FE73 FG5:FL73 FN5:FS73">
+  <conditionalFormatting sqref="I5:DO42 DQ5:DV42 DX5:EC42 EE5:EJ42 EL5:EQ42 ES5:EX42 EZ5:FE42 FG5:FL42 FN5:FS42">
     <cfRule type="expression" dxfId="6" priority="159">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO73 DQ7:DV73 DX7:EC73 EE7:EJ73 EL7:EQ73 ES7:EX73 EZ7:FE73 FG7:FL73 FN7:FS73">
+  <conditionalFormatting sqref="I7:DO42 DQ7:DV42 DX7:EC42 EE7:EJ42 EL7:EQ42 ES7:EX42 EZ7:FE42 FG7:FL42 FN7:FS42">
     <cfRule type="expression" dxfId="5" priority="158" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:FT73">
+  <conditionalFormatting sqref="I7:FT42">
     <cfRule type="expression" dxfId="4" priority="1">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP73 DW5:DW73 ED5:ED73 EK5:EK73 ER5:ER73 EY5:EY73 FF5:FF73">
+  <conditionalFormatting sqref="DP5:DP42 DW5:DW42 ED5:ED42 EK5:EK42 ER5:ER42 EY5:EY42 FF5:FF42">
     <cfRule type="expression" dxfId="3" priority="251">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP73 DW7:DW73 ED7:ED73 EK7:EK73 ER7:ER73 EY7:EY73 FF7:FF73">
+  <conditionalFormatting sqref="DP7:DP42 DW7:DW42 ED7:ED42 EK7:EK42 ER7:ER42 EY7:EY42 FF7:FF42">
     <cfRule type="expression" dxfId="2" priority="255" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM5:FM73 FT5:FT73">
+  <conditionalFormatting sqref="FM5:FM42 FT5:FT42">
     <cfRule type="expression" dxfId="1" priority="18">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM7:FM73 FT7:FT73">
+  <conditionalFormatting sqref="FM7:FM42 FT7:FT42">
     <cfRule type="expression" dxfId="0" priority="19" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
@@ -16512,7 +10588,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D73</xm:sqref>
+          <xm:sqref>D7:D42</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -16521,6 +10597,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -16538,15 +10623,6 @@
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -16838,6 +10914,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -16845,14 +10929,6 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
     <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18AE7F-0990-49A0-AAA5-2296994266F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AA2F619-7398-4EEA-AC0E-2E064D82647E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1162,16 +1162,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1180,7 +1171,22 @@
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
@@ -1204,16 +1210,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1817,7 +1817,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB48" sqref="AB48"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1876,433 +1876,433 @@
         <v>1</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="57" t="s">
+      <c r="C3" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="57"/>
-      <c r="E3" s="59">
+      <c r="D3" s="59"/>
+      <c r="E3" s="61">
         <v>45323</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="I3" s="61" t="s">
+      <c r="F3" s="61"/>
+      <c r="I3" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="62"/>
-      <c r="CE3" s="62"/>
-      <c r="CF3" s="62"/>
-      <c r="CG3" s="62"/>
-      <c r="CH3" s="62"/>
-      <c r="CI3" s="62"/>
-      <c r="CJ3" s="62"/>
-      <c r="CK3" s="62"/>
-      <c r="CL3" s="62"/>
-      <c r="CM3" s="62"/>
-      <c r="CN3" s="62"/>
-      <c r="CO3" s="62"/>
-      <c r="CP3" s="62"/>
-      <c r="CQ3" s="62"/>
-      <c r="CR3" s="62"/>
-      <c r="CS3" s="62"/>
-      <c r="CT3" s="62"/>
-      <c r="CU3" s="62"/>
-      <c r="CV3" s="62"/>
-      <c r="CW3" s="62"/>
-      <c r="CX3" s="62"/>
-      <c r="CY3" s="62"/>
-      <c r="CZ3" s="62"/>
-      <c r="DA3" s="62"/>
-      <c r="DB3" s="62"/>
-      <c r="DC3" s="62"/>
-      <c r="DD3" s="62"/>
-      <c r="DE3" s="62"/>
-      <c r="DF3" s="62"/>
-      <c r="DG3" s="62"/>
-      <c r="DH3" s="62"/>
-      <c r="DI3" s="62"/>
-      <c r="DJ3" s="62"/>
-      <c r="DK3" s="62"/>
-      <c r="DL3" s="62"/>
-      <c r="DM3" s="62"/>
-      <c r="DN3" s="62"/>
-      <c r="DO3" s="62"/>
-      <c r="DP3" s="62"/>
-      <c r="DQ3" s="62"/>
-      <c r="DR3" s="62"/>
-      <c r="DS3" s="62"/>
-      <c r="DT3" s="62"/>
-      <c r="DU3" s="62"/>
-      <c r="DV3" s="62"/>
-      <c r="DW3" s="62"/>
-      <c r="DX3" s="62"/>
-      <c r="DY3" s="62"/>
-      <c r="DZ3" s="62"/>
-      <c r="EA3" s="62"/>
-      <c r="EB3" s="62"/>
-      <c r="EC3" s="62"/>
-      <c r="ED3" s="62"/>
-      <c r="EE3" s="62"/>
-      <c r="EF3" s="62"/>
-      <c r="EG3" s="62"/>
-      <c r="EH3" s="62"/>
-      <c r="EI3" s="62"/>
-      <c r="EJ3" s="62"/>
-      <c r="EK3" s="62"/>
-      <c r="EL3" s="62"/>
-      <c r="EM3" s="62"/>
-      <c r="EN3" s="62"/>
-      <c r="EO3" s="62"/>
-      <c r="EP3" s="62"/>
-      <c r="EQ3" s="62"/>
-      <c r="ER3" s="62"/>
-      <c r="ES3" s="62"/>
-      <c r="ET3" s="62"/>
-      <c r="EU3" s="62"/>
-      <c r="EV3" s="62"/>
-      <c r="EW3" s="62"/>
-      <c r="EX3" s="62"/>
-      <c r="EY3" s="62"/>
-      <c r="EZ3" s="62"/>
-      <c r="FA3" s="62"/>
-      <c r="FB3" s="62"/>
-      <c r="FC3" s="62"/>
-      <c r="FD3" s="62"/>
-      <c r="FE3" s="62"/>
-      <c r="FF3" s="62"/>
-      <c r="FG3" s="62"/>
-      <c r="FH3" s="62"/>
-      <c r="FI3" s="62"/>
-      <c r="FJ3" s="62"/>
-      <c r="FK3" s="62"/>
-      <c r="FL3" s="62"/>
-      <c r="FM3" s="62"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="64"/>
+      <c r="CJ3" s="64"/>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="CY3" s="64"/>
+      <c r="CZ3" s="64"/>
+      <c r="DA3" s="64"/>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="64"/>
+      <c r="DG3" s="64"/>
+      <c r="DH3" s="64"/>
+      <c r="DI3" s="64"/>
+      <c r="DJ3" s="64"/>
+      <c r="DK3" s="64"/>
+      <c r="DL3" s="64"/>
+      <c r="DM3" s="64"/>
+      <c r="DN3" s="64"/>
+      <c r="DO3" s="64"/>
+      <c r="DP3" s="64"/>
+      <c r="DQ3" s="64"/>
+      <c r="DR3" s="64"/>
+      <c r="DS3" s="64"/>
+      <c r="DT3" s="64"/>
+      <c r="DU3" s="64"/>
+      <c r="DV3" s="64"/>
+      <c r="DW3" s="64"/>
+      <c r="DX3" s="64"/>
+      <c r="DY3" s="64"/>
+      <c r="DZ3" s="64"/>
+      <c r="EA3" s="64"/>
+      <c r="EB3" s="64"/>
+      <c r="EC3" s="64"/>
+      <c r="ED3" s="64"/>
+      <c r="EE3" s="64"/>
+      <c r="EF3" s="64"/>
+      <c r="EG3" s="64"/>
+      <c r="EH3" s="64"/>
+      <c r="EI3" s="64"/>
+      <c r="EJ3" s="64"/>
+      <c r="EK3" s="64"/>
+      <c r="EL3" s="64"/>
+      <c r="EM3" s="64"/>
+      <c r="EN3" s="64"/>
+      <c r="EO3" s="64"/>
+      <c r="EP3" s="64"/>
+      <c r="EQ3" s="64"/>
+      <c r="ER3" s="64"/>
+      <c r="ES3" s="64"/>
+      <c r="ET3" s="64"/>
+      <c r="EU3" s="64"/>
+      <c r="EV3" s="64"/>
+      <c r="EW3" s="64"/>
+      <c r="EX3" s="64"/>
+      <c r="EY3" s="64"/>
+      <c r="EZ3" s="64"/>
+      <c r="FA3" s="64"/>
+      <c r="FB3" s="64"/>
+      <c r="FC3" s="64"/>
+      <c r="FD3" s="64"/>
+      <c r="FE3" s="64"/>
+      <c r="FF3" s="64"/>
+      <c r="FG3" s="64"/>
+      <c r="FH3" s="64"/>
+      <c r="FI3" s="64"/>
+      <c r="FJ3" s="64"/>
+      <c r="FK3" s="64"/>
+      <c r="FL3" s="64"/>
+      <c r="FM3" s="64"/>
     </row>
     <row r="4" spans="1:176" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="47"/>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="60"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="53">
+      <c r="I4" s="50">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="53">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="50">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="53">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="50">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="53">
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="50">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="53">
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="50">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="53">
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="50">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="53">
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="50">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="53">
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="50">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="53">
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="50">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="53">
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="50">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="53">
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="50">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="54"/>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="53">
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="51"/>
+      <c r="CE4" s="51"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="50">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="54"/>
-      <c r="CM4" s="54"/>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="53">
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="51"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="51"/>
+      <c r="CO4" s="50">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="54"/>
-      <c r="CT4" s="54"/>
-      <c r="CU4" s="54"/>
-      <c r="CV4" s="53">
+      <c r="CP4" s="51"/>
+      <c r="CQ4" s="51"/>
+      <c r="CR4" s="51"/>
+      <c r="CS4" s="51"/>
+      <c r="CT4" s="51"/>
+      <c r="CU4" s="51"/>
+      <c r="CV4" s="50">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="54"/>
-      <c r="CX4" s="54"/>
-      <c r="CY4" s="54"/>
-      <c r="CZ4" s="54"/>
-      <c r="DA4" s="54"/>
-      <c r="DB4" s="54"/>
-      <c r="DC4" s="53">
+      <c r="CW4" s="51"/>
+      <c r="CX4" s="51"/>
+      <c r="CY4" s="51"/>
+      <c r="CZ4" s="51"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="51"/>
+      <c r="DC4" s="50">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="54"/>
-      <c r="DE4" s="54"/>
-      <c r="DF4" s="54"/>
-      <c r="DG4" s="54"/>
-      <c r="DH4" s="54"/>
-      <c r="DI4" s="54"/>
-      <c r="DJ4" s="53">
+      <c r="DD4" s="51"/>
+      <c r="DE4" s="51"/>
+      <c r="DF4" s="51"/>
+      <c r="DG4" s="51"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="51"/>
+      <c r="DJ4" s="50">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="54"/>
-      <c r="DL4" s="54"/>
-      <c r="DM4" s="54"/>
-      <c r="DN4" s="54"/>
-      <c r="DO4" s="54"/>
-      <c r="DP4" s="54"/>
-      <c r="DQ4" s="53">
+      <c r="DK4" s="51"/>
+      <c r="DL4" s="51"/>
+      <c r="DM4" s="51"/>
+      <c r="DN4" s="51"/>
+      <c r="DO4" s="51"/>
+      <c r="DP4" s="51"/>
+      <c r="DQ4" s="50">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="54"/>
-      <c r="DS4" s="54"/>
-      <c r="DT4" s="54"/>
-      <c r="DU4" s="54"/>
-      <c r="DV4" s="54"/>
-      <c r="DW4" s="54"/>
-      <c r="DX4" s="53">
+      <c r="DR4" s="51"/>
+      <c r="DS4" s="51"/>
+      <c r="DT4" s="51"/>
+      <c r="DU4" s="51"/>
+      <c r="DV4" s="51"/>
+      <c r="DW4" s="51"/>
+      <c r="DX4" s="50">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="54"/>
-      <c r="DZ4" s="54"/>
-      <c r="EA4" s="54"/>
-      <c r="EB4" s="54"/>
-      <c r="EC4" s="54"/>
-      <c r="ED4" s="54"/>
-      <c r="EE4" s="53">
+      <c r="DY4" s="51"/>
+      <c r="DZ4" s="51"/>
+      <c r="EA4" s="51"/>
+      <c r="EB4" s="51"/>
+      <c r="EC4" s="51"/>
+      <c r="ED4" s="51"/>
+      <c r="EE4" s="50">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="54"/>
-      <c r="EG4" s="54"/>
-      <c r="EH4" s="54"/>
-      <c r="EI4" s="54"/>
-      <c r="EJ4" s="54"/>
-      <c r="EK4" s="54"/>
-      <c r="EL4" s="53">
+      <c r="EF4" s="51"/>
+      <c r="EG4" s="51"/>
+      <c r="EH4" s="51"/>
+      <c r="EI4" s="51"/>
+      <c r="EJ4" s="51"/>
+      <c r="EK4" s="51"/>
+      <c r="EL4" s="50">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="54"/>
-      <c r="EN4" s="54"/>
-      <c r="EO4" s="54"/>
-      <c r="EP4" s="54"/>
-      <c r="EQ4" s="54"/>
-      <c r="ER4" s="54"/>
-      <c r="ES4" s="53">
+      <c r="EM4" s="51"/>
+      <c r="EN4" s="51"/>
+      <c r="EO4" s="51"/>
+      <c r="EP4" s="51"/>
+      <c r="EQ4" s="51"/>
+      <c r="ER4" s="51"/>
+      <c r="ES4" s="50">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="54"/>
-      <c r="EU4" s="54"/>
-      <c r="EV4" s="54"/>
-      <c r="EW4" s="54"/>
-      <c r="EX4" s="54"/>
-      <c r="EY4" s="54"/>
-      <c r="EZ4" s="53">
+      <c r="ET4" s="51"/>
+      <c r="EU4" s="51"/>
+      <c r="EV4" s="51"/>
+      <c r="EW4" s="51"/>
+      <c r="EX4" s="51"/>
+      <c r="EY4" s="51"/>
+      <c r="EZ4" s="50">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="54"/>
-      <c r="FB4" s="54"/>
-      <c r="FC4" s="54"/>
-      <c r="FD4" s="54"/>
-      <c r="FE4" s="54"/>
-      <c r="FF4" s="54"/>
-      <c r="FG4" s="53">
+      <c r="FA4" s="51"/>
+      <c r="FB4" s="51"/>
+      <c r="FC4" s="51"/>
+      <c r="FD4" s="51"/>
+      <c r="FE4" s="51"/>
+      <c r="FF4" s="51"/>
+      <c r="FG4" s="50">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="54"/>
-      <c r="FI4" s="54"/>
-      <c r="FJ4" s="54"/>
-      <c r="FK4" s="54"/>
-      <c r="FL4" s="54"/>
-      <c r="FM4" s="54"/>
-      <c r="FN4" s="53">
+      <c r="FH4" s="51"/>
+      <c r="FI4" s="51"/>
+      <c r="FJ4" s="51"/>
+      <c r="FK4" s="51"/>
+      <c r="FL4" s="51"/>
+      <c r="FM4" s="51"/>
+      <c r="FN4" s="50">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="54"/>
-      <c r="FP4" s="54"/>
-      <c r="FQ4" s="54"/>
-      <c r="FR4" s="54"/>
-      <c r="FS4" s="54"/>
-      <c r="FT4" s="54"/>
+      <c r="FO4" s="51"/>
+      <c r="FP4" s="51"/>
+      <c r="FQ4" s="51"/>
+      <c r="FR4" s="51"/>
+      <c r="FS4" s="51"/>
+      <c r="FT4" s="51"/>
     </row>
     <row r="5" spans="1:176" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -2992,10 +2992,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -3869,10 +3869,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -4054,10 +4054,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="55" t="s">
+      <c r="B9" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="56"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -4247,10 +4247,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="56" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="55"/>
+      <c r="C10" s="56"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -4440,10 +4440,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="55"/>
+      <c r="C11" s="56"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -4630,10 +4630,10 @@
     </row>
     <row r="12" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="13" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="56"/>
+      <c r="C13" s="58"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -5008,10 +5008,10 @@
     </row>
     <row r="14" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="56"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -5196,10 +5196,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="53"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -5379,10 +5379,10 @@
     </row>
     <row r="16" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -5568,10 +5568,10 @@
     </row>
     <row r="17" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="65"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -5754,10 +5754,10 @@
     </row>
     <row r="18" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="65"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -5940,10 +5940,10 @@
     </row>
     <row r="19" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="65"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -6129,10 +6129,10 @@
     </row>
     <row r="20" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -6318,10 +6318,10 @@
     </row>
     <row r="21" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -6504,10 +6504,10 @@
     </row>
     <row r="22" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -6690,10 +6690,10 @@
     </row>
     <row r="23" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -6881,10 +6881,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="54"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -7064,10 +7064,10 @@
     </row>
     <row r="25" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="52"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -7253,10 +7253,10 @@
     </row>
     <row r="26" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="52" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="52"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -7439,10 +7439,10 @@
     </row>
     <row r="27" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -7625,10 +7625,10 @@
     </row>
     <row r="28" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="52"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -7814,10 +7814,10 @@
     </row>
     <row r="29" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="52"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -8003,10 +8003,10 @@
     </row>
     <row r="30" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="49"/>
+      <c r="C30" s="52"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -8192,10 +8192,10 @@
     </row>
     <row r="31" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="32" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="52"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -8570,10 +8570,10 @@
     </row>
     <row r="33" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="52"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -8756,10 +8756,10 @@
     </row>
     <row r="34" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="52"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="35" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="52"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -9131,10 +9131,10 @@
     </row>
     <row r="36" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="52"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -9322,10 +9322,10 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="66" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="66"/>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
@@ -9505,10 +9505,10 @@
     </row>
     <row r="38" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="45">
         <v>1</v>
       </c>
@@ -9694,10 +9694,10 @@
     </row>
     <row r="39" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="45">
         <v>1</v>
       </c>
@@ -9883,10 +9883,10 @@
     </row>
     <row r="40" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="45">
         <v>1</v>
       </c>
@@ -10072,10 +10072,10 @@
     </row>
     <row r="41" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="45">
         <v>1</v>
       </c>
@@ -10258,12 +10258,12 @@
     </row>
     <row r="42" spans="1:176" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="45">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E42" s="46">
         <v>45394</v>
@@ -10447,6 +10447,54 @@
     </row>
   </sheetData>
   <mergeCells count="64">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="FN4:FT4"/>
@@ -10463,54 +10511,6 @@
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D42">
     <cfRule type="dataBar" priority="230">
@@ -10606,26 +10606,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -10913,6 +10893,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -10922,18 +10922,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10952,4 +10940,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7267148A-D8D7-49E8-BC47-2C51355338B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1D185-2E0F-4A04-8228-5F934C97F1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2490" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -1204,16 +1204,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="23" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1221,6 +1224,45 @@
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1234,52 +1276,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1339,13 +1339,29 @@
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="132">
+  <dxfs count="75">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1396,13 +1412,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -1445,384 +1454,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -1954,6 +1585,18 @@
       </fill>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1963,6 +1606,20 @@
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2002,13 +1659,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -2016,532 +1666,6 @@
         <left/>
         <right/>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2611,6 +1735,312 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2738,15 +2168,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="131"/>
-      <tableStyleElement type="headerRow" dxfId="130"/>
-      <tableStyleElement type="totalRow" dxfId="129"/>
-      <tableStyleElement type="firstColumn" dxfId="128"/>
-      <tableStyleElement type="lastColumn" dxfId="127"/>
-      <tableStyleElement type="firstRowStripe" dxfId="126"/>
-      <tableStyleElement type="secondRowStripe" dxfId="125"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="124"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="123"/>
+      <tableStyleElement type="wholeTable" dxfId="74"/>
+      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="totalRow" dxfId="72"/>
+      <tableStyleElement type="firstColumn" dxfId="71"/>
+      <tableStyleElement type="lastColumn" dxfId="70"/>
+      <tableStyleElement type="firstRowStripe" dxfId="69"/>
+      <tableStyleElement type="secondRowStripe" dxfId="68"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="66"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3108,8 +2538,8 @@
   <dimension ref="A1:IS52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E55" sqref="E55"/>
+      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3194,543 +2624,543 @@
         <v>1</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="55">
+      <c r="D3" s="67"/>
+      <c r="E3" s="69">
         <v>45323</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="I3" s="57" t="s">
+      <c r="F3" s="69"/>
+      <c r="I3" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="58"/>
-      <c r="K3" s="58"/>
-      <c r="L3" s="58"/>
-      <c r="M3" s="58"/>
-      <c r="N3" s="58"/>
-      <c r="O3" s="58"/>
-      <c r="P3" s="58"/>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="58"/>
-      <c r="S3" s="58"/>
-      <c r="T3" s="58"/>
-      <c r="U3" s="58"/>
-      <c r="V3" s="58"/>
-      <c r="W3" s="58"/>
-      <c r="X3" s="58"/>
-      <c r="Y3" s="58"/>
-      <c r="Z3" s="58"/>
-      <c r="AA3" s="58"/>
-      <c r="AB3" s="58"/>
-      <c r="AC3" s="58"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="58"/>
-      <c r="AF3" s="58"/>
-      <c r="AG3" s="58"/>
-      <c r="AH3" s="58"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="58"/>
-      <c r="AK3" s="58"/>
-      <c r="AL3" s="58"/>
-      <c r="AM3" s="58"/>
-      <c r="AN3" s="58"/>
-      <c r="AO3" s="58"/>
-      <c r="AP3" s="58"/>
-      <c r="AQ3" s="58"/>
-      <c r="AR3" s="58"/>
-      <c r="AS3" s="58"/>
-      <c r="AT3" s="58"/>
-      <c r="AU3" s="58"/>
-      <c r="AV3" s="58"/>
-      <c r="AW3" s="58"/>
-      <c r="AX3" s="58"/>
-      <c r="AY3" s="58"/>
-      <c r="AZ3" s="58"/>
-      <c r="BA3" s="58"/>
-      <c r="BB3" s="58"/>
-      <c r="BC3" s="58"/>
-      <c r="BD3" s="58"/>
-      <c r="BE3" s="58"/>
-      <c r="BF3" s="58"/>
-      <c r="BG3" s="58"/>
-      <c r="BH3" s="58"/>
-      <c r="BI3" s="58"/>
-      <c r="BJ3" s="58"/>
-      <c r="BK3" s="58"/>
-      <c r="BL3" s="58"/>
-      <c r="BM3" s="58"/>
-      <c r="BN3" s="58"/>
-      <c r="BO3" s="58"/>
-      <c r="BP3" s="58"/>
-      <c r="BQ3" s="58"/>
-      <c r="BR3" s="58"/>
-      <c r="BS3" s="58"/>
-      <c r="BT3" s="58"/>
-      <c r="BU3" s="58"/>
-      <c r="BV3" s="58"/>
-      <c r="BW3" s="58"/>
-      <c r="BX3" s="58"/>
-      <c r="BY3" s="58"/>
-      <c r="BZ3" s="58"/>
-      <c r="CA3" s="58"/>
-      <c r="CB3" s="58"/>
-      <c r="CC3" s="58"/>
-      <c r="CD3" s="58"/>
-      <c r="CE3" s="58"/>
-      <c r="CF3" s="58"/>
-      <c r="CG3" s="58"/>
-      <c r="CH3" s="58"/>
-      <c r="CI3" s="58"/>
-      <c r="CJ3" s="58"/>
-      <c r="CK3" s="58"/>
-      <c r="CL3" s="58"/>
-      <c r="CM3" s="58"/>
-      <c r="CN3" s="58"/>
-      <c r="CO3" s="58"/>
-      <c r="CP3" s="58"/>
-      <c r="CQ3" s="58"/>
-      <c r="CR3" s="58"/>
-      <c r="CS3" s="58"/>
-      <c r="CT3" s="58"/>
-      <c r="CU3" s="58"/>
-      <c r="CV3" s="58"/>
-      <c r="CW3" s="58"/>
-      <c r="CX3" s="58"/>
-      <c r="CY3" s="58"/>
-      <c r="CZ3" s="58"/>
-      <c r="DA3" s="58"/>
-      <c r="DB3" s="58"/>
-      <c r="DC3" s="58"/>
-      <c r="DD3" s="58"/>
-      <c r="DE3" s="58"/>
-      <c r="DF3" s="58"/>
-      <c r="DG3" s="58"/>
-      <c r="DH3" s="58"/>
-      <c r="DI3" s="58"/>
-      <c r="DJ3" s="58"/>
-      <c r="DK3" s="58"/>
-      <c r="DL3" s="58"/>
-      <c r="DM3" s="58"/>
-      <c r="DN3" s="58"/>
-      <c r="DO3" s="58"/>
-      <c r="DP3" s="58"/>
-      <c r="DQ3" s="58"/>
-      <c r="DR3" s="58"/>
-      <c r="DS3" s="58"/>
-      <c r="DT3" s="58"/>
-      <c r="DU3" s="58"/>
-      <c r="DV3" s="58"/>
-      <c r="DW3" s="58"/>
-      <c r="DX3" s="58"/>
-      <c r="DY3" s="58"/>
-      <c r="DZ3" s="58"/>
-      <c r="EA3" s="58"/>
-      <c r="EB3" s="58"/>
-      <c r="EC3" s="58"/>
-      <c r="ED3" s="58"/>
-      <c r="EE3" s="58"/>
-      <c r="EF3" s="58"/>
-      <c r="EG3" s="58"/>
-      <c r="EH3" s="58"/>
-      <c r="EI3" s="58"/>
-      <c r="EJ3" s="58"/>
-      <c r="EK3" s="58"/>
-      <c r="EL3" s="58"/>
-      <c r="EM3" s="58"/>
-      <c r="EN3" s="58"/>
-      <c r="EO3" s="58"/>
-      <c r="EP3" s="58"/>
-      <c r="EQ3" s="58"/>
-      <c r="ER3" s="58"/>
-      <c r="ES3" s="58"/>
-      <c r="ET3" s="58"/>
-      <c r="EU3" s="58"/>
-      <c r="EV3" s="58"/>
-      <c r="EW3" s="58"/>
-      <c r="EX3" s="58"/>
-      <c r="EY3" s="58"/>
-      <c r="EZ3" s="58"/>
-      <c r="FA3" s="58"/>
-      <c r="FB3" s="58"/>
-      <c r="FC3" s="58"/>
-      <c r="FD3" s="58"/>
-      <c r="FE3" s="58"/>
-      <c r="FF3" s="58"/>
-      <c r="FG3" s="58"/>
-      <c r="FH3" s="58"/>
-      <c r="FI3" s="58"/>
-      <c r="FJ3" s="58"/>
-      <c r="FK3" s="58"/>
-      <c r="FL3" s="58"/>
-      <c r="FM3" s="58"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="72"/>
+      <c r="R3" s="72"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="72"/>
+      <c r="U3" s="72"/>
+      <c r="V3" s="72"/>
+      <c r="W3" s="72"/>
+      <c r="X3" s="72"/>
+      <c r="Y3" s="72"/>
+      <c r="Z3" s="72"/>
+      <c r="AA3" s="72"/>
+      <c r="AB3" s="72"/>
+      <c r="AC3" s="72"/>
+      <c r="AD3" s="72"/>
+      <c r="AE3" s="72"/>
+      <c r="AF3" s="72"/>
+      <c r="AG3" s="72"/>
+      <c r="AH3" s="72"/>
+      <c r="AI3" s="72"/>
+      <c r="AJ3" s="72"/>
+      <c r="AK3" s="72"/>
+      <c r="AL3" s="72"/>
+      <c r="AM3" s="72"/>
+      <c r="AN3" s="72"/>
+      <c r="AO3" s="72"/>
+      <c r="AP3" s="72"/>
+      <c r="AQ3" s="72"/>
+      <c r="AR3" s="72"/>
+      <c r="AS3" s="72"/>
+      <c r="AT3" s="72"/>
+      <c r="AU3" s="72"/>
+      <c r="AV3" s="72"/>
+      <c r="AW3" s="72"/>
+      <c r="AX3" s="72"/>
+      <c r="AY3" s="72"/>
+      <c r="AZ3" s="72"/>
+      <c r="BA3" s="72"/>
+      <c r="BB3" s="72"/>
+      <c r="BC3" s="72"/>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+      <c r="BI3" s="72"/>
+      <c r="BJ3" s="72"/>
+      <c r="BK3" s="72"/>
+      <c r="BL3" s="72"/>
+      <c r="BM3" s="72"/>
+      <c r="BN3" s="72"/>
+      <c r="BO3" s="72"/>
+      <c r="BP3" s="72"/>
+      <c r="BQ3" s="72"/>
+      <c r="BR3" s="72"/>
+      <c r="BS3" s="72"/>
+      <c r="BT3" s="72"/>
+      <c r="BU3" s="72"/>
+      <c r="BV3" s="72"/>
+      <c r="BW3" s="72"/>
+      <c r="BX3" s="72"/>
+      <c r="BY3" s="72"/>
+      <c r="BZ3" s="72"/>
+      <c r="CA3" s="72"/>
+      <c r="CB3" s="72"/>
+      <c r="CC3" s="72"/>
+      <c r="CD3" s="72"/>
+      <c r="CE3" s="72"/>
+      <c r="CF3" s="72"/>
+      <c r="CG3" s="72"/>
+      <c r="CH3" s="72"/>
+      <c r="CI3" s="72"/>
+      <c r="CJ3" s="72"/>
+      <c r="CK3" s="72"/>
+      <c r="CL3" s="72"/>
+      <c r="CM3" s="72"/>
+      <c r="CN3" s="72"/>
+      <c r="CO3" s="72"/>
+      <c r="CP3" s="72"/>
+      <c r="CQ3" s="72"/>
+      <c r="CR3" s="72"/>
+      <c r="CS3" s="72"/>
+      <c r="CT3" s="72"/>
+      <c r="CU3" s="72"/>
+      <c r="CV3" s="72"/>
+      <c r="CW3" s="72"/>
+      <c r="CX3" s="72"/>
+      <c r="CY3" s="72"/>
+      <c r="CZ3" s="72"/>
+      <c r="DA3" s="72"/>
+      <c r="DB3" s="72"/>
+      <c r="DC3" s="72"/>
+      <c r="DD3" s="72"/>
+      <c r="DE3" s="72"/>
+      <c r="DF3" s="72"/>
+      <c r="DG3" s="72"/>
+      <c r="DH3" s="72"/>
+      <c r="DI3" s="72"/>
+      <c r="DJ3" s="72"/>
+      <c r="DK3" s="72"/>
+      <c r="DL3" s="72"/>
+      <c r="DM3" s="72"/>
+      <c r="DN3" s="72"/>
+      <c r="DO3" s="72"/>
+      <c r="DP3" s="72"/>
+      <c r="DQ3" s="72"/>
+      <c r="DR3" s="72"/>
+      <c r="DS3" s="72"/>
+      <c r="DT3" s="72"/>
+      <c r="DU3" s="72"/>
+      <c r="DV3" s="72"/>
+      <c r="DW3" s="72"/>
+      <c r="DX3" s="72"/>
+      <c r="DY3" s="72"/>
+      <c r="DZ3" s="72"/>
+      <c r="EA3" s="72"/>
+      <c r="EB3" s="72"/>
+      <c r="EC3" s="72"/>
+      <c r="ED3" s="72"/>
+      <c r="EE3" s="72"/>
+      <c r="EF3" s="72"/>
+      <c r="EG3" s="72"/>
+      <c r="EH3" s="72"/>
+      <c r="EI3" s="72"/>
+      <c r="EJ3" s="72"/>
+      <c r="EK3" s="72"/>
+      <c r="EL3" s="72"/>
+      <c r="EM3" s="72"/>
+      <c r="EN3" s="72"/>
+      <c r="EO3" s="72"/>
+      <c r="EP3" s="72"/>
+      <c r="EQ3" s="72"/>
+      <c r="ER3" s="72"/>
+      <c r="ES3" s="72"/>
+      <c r="ET3" s="72"/>
+      <c r="EU3" s="72"/>
+      <c r="EV3" s="72"/>
+      <c r="EW3" s="72"/>
+      <c r="EX3" s="72"/>
+      <c r="EY3" s="72"/>
+      <c r="EZ3" s="72"/>
+      <c r="FA3" s="72"/>
+      <c r="FB3" s="72"/>
+      <c r="FC3" s="72"/>
+      <c r="FD3" s="72"/>
+      <c r="FE3" s="72"/>
+      <c r="FF3" s="72"/>
+      <c r="FG3" s="72"/>
+      <c r="FH3" s="72"/>
+      <c r="FI3" s="72"/>
+      <c r="FJ3" s="72"/>
+      <c r="FK3" s="72"/>
+      <c r="FL3" s="72"/>
+      <c r="FM3" s="72"/>
     </row>
     <row r="4" spans="1:253" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="47"/>
-      <c r="C4" s="61" t="s">
+      <c r="C4" s="68" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="61"/>
+      <c r="D4" s="68"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="53">
+      <c r="I4" s="54">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="54"/>
-      <c r="N4" s="54"/>
-      <c r="O4" s="56"/>
-      <c r="P4" s="53">
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="70"/>
+      <c r="P4" s="54">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="54"/>
-      <c r="R4" s="54"/>
-      <c r="S4" s="54"/>
-      <c r="T4" s="54"/>
-      <c r="U4" s="54"/>
-      <c r="V4" s="56"/>
-      <c r="W4" s="53">
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="54">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="54"/>
-      <c r="Y4" s="54"/>
-      <c r="Z4" s="54"/>
-      <c r="AA4" s="54"/>
-      <c r="AB4" s="54"/>
-      <c r="AC4" s="56"/>
-      <c r="AD4" s="53">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="54">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="54"/>
-      <c r="AF4" s="54"/>
-      <c r="AG4" s="54"/>
-      <c r="AH4" s="54"/>
-      <c r="AI4" s="54"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="53">
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="54">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="54"/>
-      <c r="AM4" s="54"/>
-      <c r="AN4" s="54"/>
-      <c r="AO4" s="54"/>
-      <c r="AP4" s="54"/>
-      <c r="AQ4" s="54"/>
-      <c r="AR4" s="53">
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="54">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="54"/>
-      <c r="AT4" s="54"/>
-      <c r="AU4" s="54"/>
-      <c r="AV4" s="54"/>
-      <c r="AW4" s="54"/>
-      <c r="AX4" s="54"/>
-      <c r="AY4" s="53">
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="54">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="54"/>
-      <c r="BA4" s="54"/>
-      <c r="BB4" s="54"/>
-      <c r="BC4" s="54"/>
-      <c r="BD4" s="54"/>
-      <c r="BE4" s="54"/>
-      <c r="BF4" s="53">
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="54">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="54"/>
-      <c r="BH4" s="54"/>
-      <c r="BI4" s="54"/>
-      <c r="BJ4" s="54"/>
-      <c r="BK4" s="54"/>
-      <c r="BL4" s="54"/>
-      <c r="BM4" s="53">
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="54">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="54"/>
-      <c r="BO4" s="54"/>
-      <c r="BP4" s="54"/>
-      <c r="BQ4" s="54"/>
-      <c r="BR4" s="54"/>
-      <c r="BS4" s="54"/>
-      <c r="BT4" s="53">
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="54">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="54"/>
-      <c r="BV4" s="54"/>
-      <c r="BW4" s="54"/>
-      <c r="BX4" s="54"/>
-      <c r="BY4" s="54"/>
-      <c r="BZ4" s="54"/>
-      <c r="CA4" s="53">
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="54">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="54"/>
-      <c r="CC4" s="54"/>
-      <c r="CD4" s="54"/>
-      <c r="CE4" s="54"/>
-      <c r="CF4" s="54"/>
-      <c r="CG4" s="54"/>
-      <c r="CH4" s="53">
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="54">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="54"/>
-      <c r="CJ4" s="54"/>
-      <c r="CK4" s="54"/>
-      <c r="CL4" s="54"/>
-      <c r="CM4" s="54"/>
-      <c r="CN4" s="54"/>
-      <c r="CO4" s="53">
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="55"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="54">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="54"/>
-      <c r="CQ4" s="54"/>
-      <c r="CR4" s="54"/>
-      <c r="CS4" s="54"/>
-      <c r="CT4" s="54"/>
-      <c r="CU4" s="54"/>
-      <c r="CV4" s="53">
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="54">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="54"/>
-      <c r="CX4" s="54"/>
-      <c r="CY4" s="54"/>
-      <c r="CZ4" s="54"/>
-      <c r="DA4" s="54"/>
-      <c r="DB4" s="54"/>
-      <c r="DC4" s="53">
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="55"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="54">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="54"/>
-      <c r="DE4" s="54"/>
-      <c r="DF4" s="54"/>
-      <c r="DG4" s="54"/>
-      <c r="DH4" s="54"/>
-      <c r="DI4" s="54"/>
-      <c r="DJ4" s="53">
+      <c r="DD4" s="55"/>
+      <c r="DE4" s="55"/>
+      <c r="DF4" s="55"/>
+      <c r="DG4" s="55"/>
+      <c r="DH4" s="55"/>
+      <c r="DI4" s="55"/>
+      <c r="DJ4" s="54">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="54"/>
-      <c r="DL4" s="54"/>
-      <c r="DM4" s="54"/>
-      <c r="DN4" s="54"/>
-      <c r="DO4" s="54"/>
-      <c r="DP4" s="54"/>
-      <c r="DQ4" s="53">
+      <c r="DK4" s="55"/>
+      <c r="DL4" s="55"/>
+      <c r="DM4" s="55"/>
+      <c r="DN4" s="55"/>
+      <c r="DO4" s="55"/>
+      <c r="DP4" s="55"/>
+      <c r="DQ4" s="54">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="54"/>
-      <c r="DS4" s="54"/>
-      <c r="DT4" s="54"/>
-      <c r="DU4" s="54"/>
-      <c r="DV4" s="54"/>
-      <c r="DW4" s="54"/>
-      <c r="DX4" s="53">
+      <c r="DR4" s="55"/>
+      <c r="DS4" s="55"/>
+      <c r="DT4" s="55"/>
+      <c r="DU4" s="55"/>
+      <c r="DV4" s="55"/>
+      <c r="DW4" s="55"/>
+      <c r="DX4" s="54">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="54"/>
-      <c r="DZ4" s="54"/>
-      <c r="EA4" s="54"/>
-      <c r="EB4" s="54"/>
-      <c r="EC4" s="54"/>
-      <c r="ED4" s="54"/>
-      <c r="EE4" s="53">
+      <c r="DY4" s="55"/>
+      <c r="DZ4" s="55"/>
+      <c r="EA4" s="55"/>
+      <c r="EB4" s="55"/>
+      <c r="EC4" s="55"/>
+      <c r="ED4" s="55"/>
+      <c r="EE4" s="54">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="54"/>
-      <c r="EG4" s="54"/>
-      <c r="EH4" s="54"/>
-      <c r="EI4" s="54"/>
-      <c r="EJ4" s="54"/>
-      <c r="EK4" s="54"/>
-      <c r="EL4" s="53">
+      <c r="EF4" s="55"/>
+      <c r="EG4" s="55"/>
+      <c r="EH4" s="55"/>
+      <c r="EI4" s="55"/>
+      <c r="EJ4" s="55"/>
+      <c r="EK4" s="55"/>
+      <c r="EL4" s="54">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="54"/>
-      <c r="EN4" s="54"/>
-      <c r="EO4" s="54"/>
-      <c r="EP4" s="54"/>
-      <c r="EQ4" s="54"/>
-      <c r="ER4" s="54"/>
-      <c r="ES4" s="53">
+      <c r="EM4" s="55"/>
+      <c r="EN4" s="55"/>
+      <c r="EO4" s="55"/>
+      <c r="EP4" s="55"/>
+      <c r="EQ4" s="55"/>
+      <c r="ER4" s="55"/>
+      <c r="ES4" s="54">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="54"/>
-      <c r="EU4" s="54"/>
-      <c r="EV4" s="54"/>
-      <c r="EW4" s="54"/>
-      <c r="EX4" s="54"/>
-      <c r="EY4" s="54"/>
-      <c r="EZ4" s="53">
+      <c r="ET4" s="55"/>
+      <c r="EU4" s="55"/>
+      <c r="EV4" s="55"/>
+      <c r="EW4" s="55"/>
+      <c r="EX4" s="55"/>
+      <c r="EY4" s="55"/>
+      <c r="EZ4" s="54">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="54"/>
-      <c r="FB4" s="54"/>
-      <c r="FC4" s="54"/>
-      <c r="FD4" s="54"/>
-      <c r="FE4" s="54"/>
-      <c r="FF4" s="54"/>
-      <c r="FG4" s="53">
+      <c r="FA4" s="55"/>
+      <c r="FB4" s="55"/>
+      <c r="FC4" s="55"/>
+      <c r="FD4" s="55"/>
+      <c r="FE4" s="55"/>
+      <c r="FF4" s="55"/>
+      <c r="FG4" s="54">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="54"/>
-      <c r="FI4" s="54"/>
-      <c r="FJ4" s="54"/>
-      <c r="FK4" s="54"/>
-      <c r="FL4" s="54"/>
-      <c r="FM4" s="54"/>
-      <c r="FN4" s="53">
+      <c r="FH4" s="55"/>
+      <c r="FI4" s="55"/>
+      <c r="FJ4" s="55"/>
+      <c r="FK4" s="55"/>
+      <c r="FL4" s="55"/>
+      <c r="FM4" s="55"/>
+      <c r="FN4" s="54">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="54"/>
-      <c r="FP4" s="54"/>
-      <c r="FQ4" s="54"/>
-      <c r="FR4" s="54"/>
-      <c r="FS4" s="54"/>
-      <c r="FT4" s="54"/>
-      <c r="FU4" s="53">
+      <c r="FO4" s="55"/>
+      <c r="FP4" s="55"/>
+      <c r="FQ4" s="55"/>
+      <c r="FR4" s="55"/>
+      <c r="FS4" s="55"/>
+      <c r="FT4" s="55"/>
+      <c r="FU4" s="54">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="54"/>
-      <c r="FW4" s="54"/>
-      <c r="FX4" s="54"/>
-      <c r="FY4" s="54"/>
-      <c r="FZ4" s="54"/>
-      <c r="GA4" s="54"/>
-      <c r="GB4" s="53">
+      <c r="FV4" s="55"/>
+      <c r="FW4" s="55"/>
+      <c r="FX4" s="55"/>
+      <c r="FY4" s="55"/>
+      <c r="FZ4" s="55"/>
+      <c r="GA4" s="55"/>
+      <c r="GB4" s="54">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="54"/>
-      <c r="GD4" s="54"/>
-      <c r="GE4" s="54"/>
-      <c r="GF4" s="54"/>
-      <c r="GG4" s="54"/>
-      <c r="GH4" s="54"/>
-      <c r="GI4" s="53">
+      <c r="GC4" s="55"/>
+      <c r="GD4" s="55"/>
+      <c r="GE4" s="55"/>
+      <c r="GF4" s="55"/>
+      <c r="GG4" s="55"/>
+      <c r="GH4" s="55"/>
+      <c r="GI4" s="54">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="54"/>
-      <c r="GK4" s="54"/>
-      <c r="GL4" s="54"/>
-      <c r="GM4" s="54"/>
-      <c r="GN4" s="54"/>
-      <c r="GO4" s="54"/>
-      <c r="GP4" s="53">
+      <c r="GJ4" s="55"/>
+      <c r="GK4" s="55"/>
+      <c r="GL4" s="55"/>
+      <c r="GM4" s="55"/>
+      <c r="GN4" s="55"/>
+      <c r="GO4" s="55"/>
+      <c r="GP4" s="54">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="54"/>
-      <c r="GR4" s="54"/>
-      <c r="GS4" s="54"/>
-      <c r="GT4" s="54"/>
-      <c r="GU4" s="54"/>
-      <c r="GV4" s="54"/>
-      <c r="GW4" s="53">
+      <c r="GQ4" s="55"/>
+      <c r="GR4" s="55"/>
+      <c r="GS4" s="55"/>
+      <c r="GT4" s="55"/>
+      <c r="GU4" s="55"/>
+      <c r="GV4" s="55"/>
+      <c r="GW4" s="54">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="54"/>
-      <c r="GY4" s="54"/>
-      <c r="GZ4" s="54"/>
-      <c r="HA4" s="54"/>
-      <c r="HB4" s="54"/>
-      <c r="HC4" s="54"/>
-      <c r="HD4" s="53">
+      <c r="GX4" s="55"/>
+      <c r="GY4" s="55"/>
+      <c r="GZ4" s="55"/>
+      <c r="HA4" s="55"/>
+      <c r="HB4" s="55"/>
+      <c r="HC4" s="55"/>
+      <c r="HD4" s="54">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="54"/>
-      <c r="HF4" s="54"/>
-      <c r="HG4" s="54"/>
-      <c r="HH4" s="54"/>
-      <c r="HI4" s="54"/>
-      <c r="HJ4" s="54"/>
-      <c r="HK4" s="53">
+      <c r="HE4" s="55"/>
+      <c r="HF4" s="55"/>
+      <c r="HG4" s="55"/>
+      <c r="HH4" s="55"/>
+      <c r="HI4" s="55"/>
+      <c r="HJ4" s="55"/>
+      <c r="HK4" s="54">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="54"/>
-      <c r="HM4" s="54"/>
-      <c r="HN4" s="54"/>
-      <c r="HO4" s="54"/>
-      <c r="HP4" s="54"/>
-      <c r="HQ4" s="54"/>
-      <c r="HR4" s="53">
+      <c r="HL4" s="55"/>
+      <c r="HM4" s="55"/>
+      <c r="HN4" s="55"/>
+      <c r="HO4" s="55"/>
+      <c r="HP4" s="55"/>
+      <c r="HQ4" s="55"/>
+      <c r="HR4" s="54">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="54"/>
-      <c r="HT4" s="54"/>
-      <c r="HU4" s="54"/>
-      <c r="HV4" s="54"/>
-      <c r="HW4" s="54"/>
-      <c r="HX4" s="54"/>
-      <c r="HY4" s="53">
+      <c r="HS4" s="55"/>
+      <c r="HT4" s="55"/>
+      <c r="HU4" s="55"/>
+      <c r="HV4" s="55"/>
+      <c r="HW4" s="55"/>
+      <c r="HX4" s="55"/>
+      <c r="HY4" s="54">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="54"/>
-      <c r="IA4" s="54"/>
-      <c r="IB4" s="54"/>
-      <c r="IC4" s="54"/>
-      <c r="ID4" s="54"/>
-      <c r="IE4" s="54"/>
-      <c r="IF4" s="53">
+      <c r="HZ4" s="55"/>
+      <c r="IA4" s="55"/>
+      <c r="IB4" s="55"/>
+      <c r="IC4" s="55"/>
+      <c r="ID4" s="55"/>
+      <c r="IE4" s="55"/>
+      <c r="IF4" s="54">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="54"/>
-      <c r="IH4" s="54"/>
-      <c r="II4" s="54"/>
-      <c r="IJ4" s="54"/>
-      <c r="IK4" s="54"/>
-      <c r="IL4" s="54"/>
-      <c r="IM4" s="53">
+      <c r="IG4" s="55"/>
+      <c r="IH4" s="55"/>
+      <c r="II4" s="55"/>
+      <c r="IJ4" s="55"/>
+      <c r="IK4" s="55"/>
+      <c r="IL4" s="55"/>
+      <c r="IM4" s="54">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="54"/>
-      <c r="IO4" s="54"/>
-      <c r="IP4" s="54"/>
-      <c r="IQ4" s="54"/>
-      <c r="IR4" s="54"/>
-      <c r="IS4" s="54"/>
+      <c r="IN4" s="55"/>
+      <c r="IO4" s="55"/>
+      <c r="IP4" s="55"/>
+      <c r="IQ4" s="55"/>
+      <c r="IR4" s="55"/>
+      <c r="IS4" s="55"/>
     </row>
     <row r="5" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -4728,10 +4158,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="65" t="s">
+      <c r="B6" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="65"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -6252,10 +5682,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="62" t="s">
+      <c r="B9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="62"/>
+      <c r="C9" s="65"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -6522,10 +5952,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="62"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -6792,10 +6222,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="65" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="62"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -7855,10 +7285,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="62" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="63"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -8115,10 +7545,10 @@
     </row>
     <row r="16" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="73" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="50"/>
+      <c r="C16" s="73"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -8381,10 +7811,10 @@
     </row>
     <row r="17" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="73" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="50"/>
+      <c r="C17" s="73"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8644,10 +8074,10 @@
     </row>
     <row r="18" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="50"/>
+      <c r="C18" s="73"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8907,10 +8337,10 @@
     </row>
     <row r="19" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="50"/>
+      <c r="C19" s="73"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -9173,10 +8603,10 @@
     </row>
     <row r="20" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="50"/>
+      <c r="C20" s="73"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -9439,10 +8869,10 @@
     </row>
     <row r="21" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="50"/>
+      <c r="C21" s="73"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9702,10 +9132,10 @@
     </row>
     <row r="22" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="73" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="50"/>
+      <c r="C22" s="73"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -9965,10 +9395,10 @@
     </row>
     <row r="23" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="50"/>
+      <c r="C23" s="73"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -10233,10 +9663,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="64"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -10493,10 +9923,10 @@
     </row>
     <row r="25" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="49" t="s">
+      <c r="B25" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="61"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -10759,10 +10189,10 @@
     </row>
     <row r="26" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="49"/>
+      <c r="C26" s="61"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -11022,10 +10452,10 @@
     </row>
     <row r="27" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="49" t="s">
+      <c r="B27" s="61" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="49"/>
+      <c r="C27" s="61"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -11285,10 +10715,10 @@
     </row>
     <row r="28" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="49" t="s">
+      <c r="B28" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="49"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -11551,10 +10981,10 @@
     </row>
     <row r="29" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="49" t="s">
+      <c r="B29" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="61"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -11817,10 +11247,10 @@
     </row>
     <row r="30" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="49" t="s">
+      <c r="B30" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="49"/>
+      <c r="C30" s="61"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -12083,10 +11513,10 @@
     </row>
     <row r="31" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="49"/>
+      <c r="C31" s="61"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -12349,10 +11779,10 @@
     </row>
     <row r="32" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="49"/>
+      <c r="C32" s="61"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -12615,10 +12045,10 @@
     </row>
     <row r="33" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="49" t="s">
+      <c r="B33" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="49"/>
+      <c r="C33" s="61"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -12878,10 +12308,10 @@
     </row>
     <row r="34" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="49" t="s">
+      <c r="B34" s="61" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="49"/>
+      <c r="C34" s="61"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -13141,10 +12571,10 @@
     </row>
     <row r="35" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="49" t="s">
+      <c r="B35" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="49"/>
+      <c r="C35" s="61"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -13407,10 +12837,10 @@
     </row>
     <row r="36" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="49" t="s">
+      <c r="B36" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="49"/>
+      <c r="C36" s="61"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -13675,10 +13105,10 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="52"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
@@ -13935,10 +13365,10 @@
     </row>
     <row r="38" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="51" t="s">
+      <c r="B38" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="51"/>
+      <c r="C38" s="60"/>
       <c r="D38" s="45">
         <v>1</v>
       </c>
@@ -14201,10 +13631,10 @@
     </row>
     <row r="39" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="51"/>
+      <c r="C39" s="60"/>
       <c r="D39" s="45">
         <v>1</v>
       </c>
@@ -14467,10 +13897,10 @@
     </row>
     <row r="40" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="51"/>
+      <c r="C40" s="60"/>
       <c r="D40" s="45">
         <v>1</v>
       </c>
@@ -14733,10 +14163,10 @@
     </row>
     <row r="41" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="51"/>
+      <c r="C41" s="60"/>
       <c r="D41" s="45">
         <v>1</v>
       </c>
@@ -14996,10 +14426,10 @@
     </row>
     <row r="42" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="51" t="s">
+      <c r="B42" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="51"/>
+      <c r="C42" s="60"/>
       <c r="D42" s="45">
         <v>1</v>
       </c>
@@ -15264,13 +14694,13 @@
       <c r="A43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="67" t="s">
+      <c r="B43" s="58" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="68"/>
-      <c r="E43" s="69"/>
-      <c r="F43" s="70"/>
+      <c r="C43" s="58"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="50"/>
+      <c r="F43" s="51"/>
       <c r="G43" s="28"/>
       <c r="H43" s="28" t="s">
         <v>54</v>
@@ -15523,17 +14953,17 @@
     </row>
     <row r="44" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="72">
+      <c r="C44" s="57"/>
+      <c r="D44" s="52">
         <v>1</v>
       </c>
-      <c r="E44" s="73">
+      <c r="E44" s="53">
         <v>45484</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="53">
         <v>45491</v>
       </c>
       <c r="G44" s="28"/>
@@ -15786,17 +15216,17 @@
     </row>
     <row r="45" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="71" t="s">
+      <c r="B45" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="71"/>
-      <c r="D45" s="72">
+      <c r="C45" s="56"/>
+      <c r="D45" s="52">
         <v>1</v>
       </c>
-      <c r="E45" s="73">
+      <c r="E45" s="53">
         <v>45491</v>
       </c>
-      <c r="F45" s="73">
+      <c r="F45" s="53">
         <v>45495</v>
       </c>
       <c r="G45" s="28"/>
@@ -16051,17 +15481,17 @@
     </row>
     <row r="46" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="71"/>
-      <c r="D46" s="72">
+      <c r="C46" s="56"/>
+      <c r="D46" s="52">
         <v>1</v>
       </c>
-      <c r="E46" s="73">
+      <c r="E46" s="53">
         <v>45495</v>
       </c>
-      <c r="F46" s="73">
+      <c r="F46" s="53">
         <v>45525</v>
       </c>
       <c r="G46" s="28"/>
@@ -16314,17 +15744,17 @@
     </row>
     <row r="47" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="71" t="s">
+      <c r="B47" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="71"/>
-      <c r="D47" s="72">
+      <c r="C47" s="56"/>
+      <c r="D47" s="52">
         <v>1</v>
       </c>
-      <c r="E47" s="73">
+      <c r="E47" s="53">
         <v>45501</v>
       </c>
-      <c r="F47" s="73">
+      <c r="F47" s="53">
         <v>45525</v>
       </c>
       <c r="G47" s="28"/>
@@ -16577,17 +16007,17 @@
     </row>
     <row r="48" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="71"/>
-      <c r="D48" s="72">
+      <c r="C48" s="56"/>
+      <c r="D48" s="52">
         <v>1</v>
       </c>
-      <c r="E48" s="73">
+      <c r="E48" s="53">
         <v>45504</v>
       </c>
-      <c r="F48" s="73">
+      <c r="F48" s="53">
         <v>45506</v>
       </c>
       <c r="G48" s="28"/>
@@ -16840,17 +16270,17 @@
     </row>
     <row r="49" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="71" t="s">
+      <c r="B49" s="56" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="71"/>
-      <c r="D49" s="72">
+      <c r="C49" s="56"/>
+      <c r="D49" s="52">
         <v>1</v>
       </c>
-      <c r="E49" s="73">
+      <c r="E49" s="53">
         <v>45506</v>
       </c>
-      <c r="F49" s="73">
+      <c r="F49" s="53">
         <v>45525</v>
       </c>
       <c r="G49" s="28"/>
@@ -17103,17 +16533,17 @@
     </row>
     <row r="50" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="71"/>
-      <c r="D50" s="72">
+      <c r="C50" s="56"/>
+      <c r="D50" s="52">
         <v>1</v>
       </c>
-      <c r="E50" s="73">
+      <c r="E50" s="53">
         <v>45512</v>
       </c>
-      <c r="F50" s="73">
+      <c r="F50" s="53">
         <v>45525</v>
       </c>
       <c r="G50" s="28"/>
@@ -17368,17 +16798,17 @@
     </row>
     <row r="51" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="71" t="s">
+      <c r="B51" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="71"/>
-      <c r="D51" s="72">
+      <c r="C51" s="56"/>
+      <c r="D51" s="52">
         <v>1</v>
       </c>
-      <c r="E51" s="73">
+      <c r="E51" s="53">
         <v>45525</v>
       </c>
-      <c r="F51" s="73">
+      <c r="F51" s="53">
         <v>45531</v>
       </c>
       <c r="G51" s="28"/>
@@ -17631,17 +17061,17 @@
     </row>
     <row r="52" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="71"/>
-      <c r="D52" s="72">
-        <v>0</v>
-      </c>
-      <c r="E52" s="73">
+      <c r="C52" s="56"/>
+      <c r="D52" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E52" s="53">
         <v>45531</v>
       </c>
-      <c r="F52" s="73">
+      <c r="F52" s="53">
         <v>45550</v>
       </c>
       <c r="G52" s="28"/>
@@ -17896,15 +17326,59 @@
     </row>
   </sheetData>
   <mergeCells count="85">
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="B52:C52"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="FU4:GA4"/>
@@ -17921,6 +17395,15 @@
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="HR4:HX4"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B15:C15"/>
@@ -17928,59 +17411,6 @@
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D52">
     <cfRule type="dataBar" priority="346">
@@ -17996,619 +17426,322 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO42 DQ5:DV42 DX5:EC42 EE5:EJ42 EL5:EQ42 ES5:EX42 EZ5:FE42 FG5:FL42 FN5:FS42 HK5:HP13 HK15:HP42 HM14:HP14">
-    <cfRule type="expression" dxfId="122" priority="275">
+  <conditionalFormatting sqref="I5:DO52 DQ5:DV52 DX5:EC52 EE5:EJ52 EL5:EQ52 ES5:EX52 EZ5:FE52 FG5:FL52 FN5:FS52">
+    <cfRule type="expression" dxfId="65" priority="113">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO42 DQ7:DV42 DX7:EC42 EE7:EJ42 EL7:EQ42 ES7:EX42 EZ7:FE42 FG7:FL42 FN7:FS42 HK7:HP13 HK15:HP42 HM14:HP14">
-    <cfRule type="expression" dxfId="121" priority="274" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:DO52 DQ7:DV52 DX7:EC52 EE7:EJ52 EL7:EQ52 ES7:EX52 EZ7:FE52 FG7:FL52 FN7:FS52">
+    <cfRule type="expression" dxfId="64" priority="112" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:FT42 HK7:HQ13 HK15:HQ42 HM14:HQ14">
-    <cfRule type="expression" dxfId="120" priority="117">
+  <conditionalFormatting sqref="I7:HJ51">
+    <cfRule type="expression" dxfId="63" priority="53">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:IS52">
+    <cfRule type="expression" dxfId="62" priority="111">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DP5:DP52 DW5:DW52 ED5:ED52 EK5:EK52 ER5:ER52 EY5:EY52 FF5:FF52">
-    <cfRule type="expression" dxfId="119" priority="367">
+    <cfRule type="expression" dxfId="61" priority="367">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="DP7:DP52 DW7:DW52 ED7:ED52 EK7:EK52 ER7:ER52 EY7:EY52 FF7:FF52">
-    <cfRule type="expression" dxfId="118" priority="371" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="371" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM5:FM52 FT5:FT52">
-    <cfRule type="expression" dxfId="117" priority="134">
+    <cfRule type="expression" dxfId="59" priority="134">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="FM7:FM52 FT7:FT52">
-    <cfRule type="expression" dxfId="116" priority="135" stopIfTrue="1">
+    <cfRule type="expression" dxfId="58" priority="135" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43:DO51 DQ43:DV51 DX43:EC51 EE43:EJ51 EL43:EQ51 ES43:EX51 EZ43:FE51 FG43:FL51 FN43:FS51">
-    <cfRule type="expression" dxfId="115" priority="116">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:DO51 DQ43:DV51 DX43:EC51 EE43:EJ51 EL43:EQ51 ES43:EX51 EZ43:FE51 FG43:FL51 FN43:FS51">
-    <cfRule type="expression" dxfId="114" priority="115" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I43:FT51">
-    <cfRule type="expression" dxfId="113" priority="114">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:DO52 DQ52:DV52 DX52:EC52 EE52:EJ52 EL52:EQ52 ES52:EX52 EZ52:FE52 FG52:FL52 FN52:FS52">
-    <cfRule type="expression" dxfId="112" priority="113">
-      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:DO52 DQ52:DV52 DX52:EC52 EE52:EJ52 EL52:EQ52 ES52:EX52 EZ52:FE52 FG52:FL52 FN52:FS52">
-    <cfRule type="expression" dxfId="111" priority="112" stopIfTrue="1">
-      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I52:IS52">
-    <cfRule type="expression" dxfId="110" priority="111">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU5:FZ42">
-    <cfRule type="expression" dxfId="109" priority="110">
+  <conditionalFormatting sqref="FU5:FZ52">
+    <cfRule type="expression" dxfId="57" priority="102">
       <formula>AND(TODAY()&gt;=FU$5,TODAY()&lt;FV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU7:FZ42">
-    <cfRule type="expression" dxfId="108" priority="109" stopIfTrue="1">
+  <conditionalFormatting sqref="FU7:FZ52">
+    <cfRule type="expression" dxfId="56" priority="101" stopIfTrue="1">
       <formula>AND(task_end&gt;=FU$5,task_start&lt;FV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU7:GA42">
-    <cfRule type="expression" dxfId="107" priority="106">
-      <formula>AND(task_start&lt;=FU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="GA5:GA52">
-    <cfRule type="expression" dxfId="106" priority="107">
+    <cfRule type="expression" dxfId="55" priority="107">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GA7:GA52">
-    <cfRule type="expression" dxfId="105" priority="108" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU43:FZ51">
-    <cfRule type="expression" dxfId="104" priority="105">
-      <formula>AND(TODAY()&gt;=FU$5,TODAY()&lt;FV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU43:FZ51">
-    <cfRule type="expression" dxfId="103" priority="104" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FU$5,task_start&lt;FV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU43:GA51">
-    <cfRule type="expression" dxfId="102" priority="103">
-      <formula>AND(task_start&lt;=FU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=FU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU52:FZ52">
-    <cfRule type="expression" dxfId="101" priority="102">
-      <formula>AND(TODAY()&gt;=FU$5,TODAY()&lt;FV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU52:FZ52">
-    <cfRule type="expression" dxfId="100" priority="101" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FU$5,task_start&lt;FV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GB5:GG42">
-    <cfRule type="expression" dxfId="99" priority="100">
+  <conditionalFormatting sqref="GB5:GG52">
+    <cfRule type="expression" dxfId="53" priority="92">
       <formula>AND(TODAY()&gt;=GB$5,TODAY()&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB7:GG42">
-    <cfRule type="expression" dxfId="98" priority="99" stopIfTrue="1">
+  <conditionalFormatting sqref="GB7:GG52">
+    <cfRule type="expression" dxfId="52" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB7:GH42">
-    <cfRule type="expression" dxfId="97" priority="96">
-      <formula>AND(task_start&lt;=GB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="GH5:GH52">
-    <cfRule type="expression" dxfId="96" priority="97">
+    <cfRule type="expression" dxfId="51" priority="97">
       <formula>AND(TODAY()&gt;=GH$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GH7:GH52">
-    <cfRule type="expression" dxfId="95" priority="98" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="98" stopIfTrue="1">
       <formula>AND(task_end&gt;=GH$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB43:GG51">
-    <cfRule type="expression" dxfId="94" priority="95">
-      <formula>AND(TODAY()&gt;=GB$5,TODAY()&lt;GC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GB43:GG51">
-    <cfRule type="expression" dxfId="93" priority="94" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GB43:GH51">
-    <cfRule type="expression" dxfId="92" priority="93">
-      <formula>AND(task_start&lt;=GB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GB52:GG52">
-    <cfRule type="expression" dxfId="91" priority="92">
-      <formula>AND(TODAY()&gt;=GB$5,TODAY()&lt;GC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GB52:GG52">
-    <cfRule type="expression" dxfId="90" priority="91" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI5:GN42">
-    <cfRule type="expression" dxfId="89" priority="90">
+  <conditionalFormatting sqref="GI5:GN52">
+    <cfRule type="expression" dxfId="49" priority="82">
       <formula>AND(TODAY()&gt;=GI$5,TODAY()&lt;GJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI7:GN42">
-    <cfRule type="expression" dxfId="88" priority="89" stopIfTrue="1">
+  <conditionalFormatting sqref="GI7:GN52">
+    <cfRule type="expression" dxfId="48" priority="81" stopIfTrue="1">
       <formula>AND(task_end&gt;=GI$5,task_start&lt;GJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI7:GO42">
-    <cfRule type="expression" dxfId="87" priority="86">
-      <formula>AND(task_start&lt;=GI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="GO5:GO52">
-    <cfRule type="expression" dxfId="86" priority="87">
+    <cfRule type="expression" dxfId="47" priority="87">
       <formula>AND(TODAY()&gt;=GO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GO7:GO52">
-    <cfRule type="expression" dxfId="85" priority="88" stopIfTrue="1">
+    <cfRule type="expression" dxfId="46" priority="88" stopIfTrue="1">
       <formula>AND(task_end&gt;=GO$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI43:GN51">
-    <cfRule type="expression" dxfId="84" priority="85">
-      <formula>AND(TODAY()&gt;=GI$5,TODAY()&lt;GJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI43:GN51">
-    <cfRule type="expression" dxfId="83" priority="84" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GI$5,task_start&lt;GJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI43:GO51">
-    <cfRule type="expression" dxfId="82" priority="83">
-      <formula>AND(task_start&lt;=GI$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI52:GN52">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>AND(TODAY()&gt;=GI$5,TODAY()&lt;GJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI52:GN52">
-    <cfRule type="expression" dxfId="80" priority="81" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GI$5,task_start&lt;GJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP5:GU42">
-    <cfRule type="expression" dxfId="79" priority="80">
+  <conditionalFormatting sqref="GP5:GU52">
+    <cfRule type="expression" dxfId="45" priority="72">
       <formula>AND(TODAY()&gt;=GP$5,TODAY()&lt;GQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP7:GU42">
-    <cfRule type="expression" dxfId="78" priority="79" stopIfTrue="1">
+  <conditionalFormatting sqref="GP7:GU52">
+    <cfRule type="expression" dxfId="44" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=GP$5,task_start&lt;GQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP7:GV42">
-    <cfRule type="expression" dxfId="77" priority="76">
-      <formula>AND(task_start&lt;=GP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="GV5:GV52">
-    <cfRule type="expression" dxfId="76" priority="77">
+    <cfRule type="expression" dxfId="43" priority="77">
       <formula>AND(TODAY()&gt;=GV$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="GV7:GV52">
-    <cfRule type="expression" dxfId="75" priority="78" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="78" stopIfTrue="1">
       <formula>AND(task_end&gt;=GV$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP43:GU51">
-    <cfRule type="expression" dxfId="74" priority="75">
-      <formula>AND(TODAY()&gt;=GP$5,TODAY()&lt;GQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP43:GU51">
-    <cfRule type="expression" dxfId="73" priority="74" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GP$5,task_start&lt;GQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP43:GV51">
-    <cfRule type="expression" dxfId="72" priority="73">
-      <formula>AND(task_start&lt;=GP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP52:GU52">
-    <cfRule type="expression" dxfId="71" priority="72">
-      <formula>AND(TODAY()&gt;=GP$5,TODAY()&lt;GQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP52:GU52">
-    <cfRule type="expression" dxfId="70" priority="71" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GP$5,task_start&lt;GQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW5:HB42">
-    <cfRule type="expression" dxfId="69" priority="70">
+  <conditionalFormatting sqref="GW5:HB52">
+    <cfRule type="expression" dxfId="41" priority="62">
       <formula>AND(TODAY()&gt;=GW$5,TODAY()&lt;GX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW7:HB42">
-    <cfRule type="expression" dxfId="68" priority="69" stopIfTrue="1">
+  <conditionalFormatting sqref="GW7:HB52">
+    <cfRule type="expression" dxfId="40" priority="61" stopIfTrue="1">
       <formula>AND(task_end&gt;=GW$5,task_start&lt;GX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW7:HC42">
-    <cfRule type="expression" dxfId="67" priority="66">
-      <formula>AND(task_start&lt;=GW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="HC5:HC52">
-    <cfRule type="expression" dxfId="66" priority="67">
+    <cfRule type="expression" dxfId="39" priority="67">
       <formula>AND(TODAY()&gt;=HC$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HC7:HC52">
-    <cfRule type="expression" dxfId="65" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="68" stopIfTrue="1">
       <formula>AND(task_end&gt;=HC$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW43:HB51">
-    <cfRule type="expression" dxfId="64" priority="65">
-      <formula>AND(TODAY()&gt;=GW$5,TODAY()&lt;GX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW43:HB51">
-    <cfRule type="expression" dxfId="63" priority="64" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GW$5,task_start&lt;GX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW43:HC51">
-    <cfRule type="expression" dxfId="62" priority="63">
-      <formula>AND(task_start&lt;=GW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=GW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW52:HB52">
-    <cfRule type="expression" dxfId="61" priority="62">
-      <formula>AND(TODAY()&gt;=GW$5,TODAY()&lt;GX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW52:HB52">
-    <cfRule type="expression" dxfId="60" priority="61" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GW$5,task_start&lt;GX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI42">
-    <cfRule type="expression" dxfId="59" priority="60">
+  <conditionalFormatting sqref="HD5:HI51">
+    <cfRule type="expression" dxfId="37" priority="55">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI42">
-    <cfRule type="expression" dxfId="58" priority="59" stopIfTrue="1">
+  <conditionalFormatting sqref="HD7:HI51">
+    <cfRule type="expression" dxfId="36" priority="54" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HJ42">
-    <cfRule type="expression" dxfId="57" priority="56">
-      <formula>AND(task_start&lt;=HD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HD$5)</formula>
+  <conditionalFormatting sqref="HD52:HI52">
+    <cfRule type="expression" dxfId="35" priority="52">
+      <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="51" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ5:HJ52">
-    <cfRule type="expression" dxfId="56" priority="57">
+    <cfRule type="expression" dxfId="33" priority="57">
       <formula>AND(TODAY()&gt;=HJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HJ7:HJ52">
-    <cfRule type="expression" dxfId="55" priority="58" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
       <formula>AND(task_end&gt;=HJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD43:HI51">
-    <cfRule type="expression" dxfId="54" priority="55">
-      <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
+  <conditionalFormatting sqref="HK5:HP13 HM14:HP14 HK15:HP42">
+    <cfRule type="expression" dxfId="31" priority="275">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD43:HI51">
-    <cfRule type="expression" dxfId="53" priority="54" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
+  <conditionalFormatting sqref="HK7:HP13 HM14:HP14 HK15:HP42">
+    <cfRule type="expression" dxfId="30" priority="274" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD43:HJ51">
-    <cfRule type="expression" dxfId="52" priority="53">
-      <formula>AND(task_start&lt;=HD$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HD$5)</formula>
+  <conditionalFormatting sqref="HK43:HP51">
+    <cfRule type="expression" dxfId="29" priority="44" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="45">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD52:HI52">
-    <cfRule type="expression" dxfId="51" priority="52">
-      <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
+  <conditionalFormatting sqref="HK52:HP52">
+    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="26" priority="42">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD52:HI52">
-    <cfRule type="expression" dxfId="50" priority="51" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
+  <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14 HK15:HQ42">
+    <cfRule type="expression" dxfId="25" priority="117">
+      <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HK43:HQ51">
+    <cfRule type="expression" dxfId="24" priority="43">
+      <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HL14">
+    <cfRule type="expression" dxfId="23" priority="375" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="373">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="21" priority="377">
+      <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ5:HQ52">
-    <cfRule type="expression" dxfId="49" priority="47">
+    <cfRule type="expression" dxfId="20" priority="47">
       <formula>AND(TODAY()&gt;=HQ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ7:HQ52">
-    <cfRule type="expression" dxfId="48" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="48" stopIfTrue="1">
       <formula>AND(task_end&gt;=HQ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HP51">
-    <cfRule type="expression" dxfId="47" priority="45">
-      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HP51">
-    <cfRule type="expression" dxfId="46" priority="44" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HQ51">
-    <cfRule type="expression" dxfId="45" priority="43">
-      <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK52:HP52">
-    <cfRule type="expression" dxfId="44" priority="42">
-      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK52:HP52">
-    <cfRule type="expression" dxfId="43" priority="41" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR5:HW42">
-    <cfRule type="expression" dxfId="42" priority="40">
+  <conditionalFormatting sqref="HR5:HW52">
+    <cfRule type="expression" dxfId="18" priority="32">
       <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:HW42">
-    <cfRule type="expression" dxfId="41" priority="39" stopIfTrue="1">
+  <conditionalFormatting sqref="HR7:HW52">
+    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:HX42">
-    <cfRule type="expression" dxfId="40" priority="36">
+  <conditionalFormatting sqref="HR7:IS51">
+    <cfRule type="expression" dxfId="16" priority="3">
       <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HX5:HX52">
-    <cfRule type="expression" dxfId="39" priority="37">
+    <cfRule type="expression" dxfId="15" priority="37">
       <formula>AND(TODAY()&gt;=HX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HX7:HX52">
-    <cfRule type="expression" dxfId="38" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
       <formula>AND(task_end&gt;=HX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR43:HW51">
-    <cfRule type="expression" dxfId="37" priority="35">
-      <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR43:HW51">
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR43:HX51">
-    <cfRule type="expression" dxfId="35" priority="33">
-      <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR52:HW52">
-    <cfRule type="expression" dxfId="34" priority="32">
-      <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR52:HW52">
-    <cfRule type="expression" dxfId="33" priority="31" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY5:ID42">
-    <cfRule type="expression" dxfId="32" priority="30">
+  <conditionalFormatting sqref="HY5:ID52">
+    <cfRule type="expression" dxfId="13" priority="22">
       <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HY7:ID42">
-    <cfRule type="expression" dxfId="31" priority="29" stopIfTrue="1">
+  <conditionalFormatting sqref="HY7:ID52">
+    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
       <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HY7:IE42">
-    <cfRule type="expression" dxfId="30" priority="26">
-      <formula>AND(task_start&lt;=HY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="IE5:IE52">
-    <cfRule type="expression" dxfId="29" priority="27">
+    <cfRule type="expression" dxfId="11" priority="27">
       <formula>AND(TODAY()&gt;=IE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IE7:IE52">
-    <cfRule type="expression" dxfId="28" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
       <formula>AND(task_end&gt;=IE$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HY43:ID51">
-    <cfRule type="expression" dxfId="27" priority="25">
-      <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY43:ID51">
-    <cfRule type="expression" dxfId="26" priority="24" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY43:IE51">
-    <cfRule type="expression" dxfId="25" priority="23">
-      <formula>AND(task_start&lt;=HY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY52:ID52">
-    <cfRule type="expression" dxfId="24" priority="22">
-      <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY52:ID52">
-    <cfRule type="expression" dxfId="23" priority="21" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF5:IK42">
-    <cfRule type="expression" dxfId="22" priority="20">
+  <conditionalFormatting sqref="IF5:IK52">
+    <cfRule type="expression" dxfId="9" priority="12">
       <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IF7:IK42">
-    <cfRule type="expression" dxfId="21" priority="19" stopIfTrue="1">
+  <conditionalFormatting sqref="IF7:IK52">
+    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
       <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IF7:IL42">
-    <cfRule type="expression" dxfId="20" priority="16">
-      <formula>AND(task_start&lt;=IF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="IL5:IL52">
-    <cfRule type="expression" dxfId="19" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>AND(TODAY()&gt;=IL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IL7:IL52">
-    <cfRule type="expression" dxfId="18" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
       <formula>AND(task_end&gt;=IL$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IF43:IK51">
-    <cfRule type="expression" dxfId="17" priority="15">
-      <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF43:IK51">
-    <cfRule type="expression" dxfId="16" priority="14" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF43:IL51">
-    <cfRule type="expression" dxfId="15" priority="13">
-      <formula>AND(task_start&lt;=IF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF52:IK52">
-    <cfRule type="expression" dxfId="14" priority="12">
-      <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF52:IK52">
-    <cfRule type="expression" dxfId="13" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM5:IR42">
-    <cfRule type="expression" dxfId="12" priority="10">
+  <conditionalFormatting sqref="IM5:IR51">
+    <cfRule type="expression" dxfId="5" priority="5">
       <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM7:IR42">
-    <cfRule type="expression" dxfId="11" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="IM7:IR51">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM7:IS42">
-    <cfRule type="expression" dxfId="10" priority="6">
-      <formula>AND(task_start&lt;=IM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IM$5)</formula>
+  <conditionalFormatting sqref="IM52:IR52">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IS5:IS52">
-    <cfRule type="expression" dxfId="9" priority="7">
+    <cfRule type="expression" dxfId="1" priority="7">
       <formula>AND(TODAY()&gt;=IS$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IS7:IS52">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
       <formula>AND(task_end&gt;=IS$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM43:IR51">
-    <cfRule type="expression" dxfId="7" priority="5">
-      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM43:IR51">
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM43:IS51">
-    <cfRule type="expression" dxfId="5" priority="3">
-      <formula>AND(task_start&lt;=IM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM52:IR52">
-    <cfRule type="expression" dxfId="4" priority="2">
-      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM52:IR52">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="2" priority="373">
-      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="1" priority="375" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="0" priority="377">
-      <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -18656,26 +17789,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18963,6 +18076,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -18972,18 +18105,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19002,4 +18123,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66B1D185-2E0F-4A04-8228-5F934C97F1B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF254400-EF62-421D-A464-FEA2D59F73A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2490" yWindow="4185" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -265,6 +265,9 @@
   </si>
   <si>
     <t>Actualización de github</t>
+  </si>
+  <si>
+    <t>Experimentación con metodologías extras</t>
   </si>
 </sst>
 </file>
@@ -1219,43 +1222,25 @@
     <xf numFmtId="168" fontId="23" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1263,6 +1248,9 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1276,10 +1264,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1339,7 +1342,967 @@
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="75">
+  <dxfs count="200">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1384,6 +2347,326 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1585,6 +2868,17 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1594,17 +2888,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1714,17 +2997,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1734,6 +3006,17 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -2168,15 +3451,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="74"/>
-      <tableStyleElement type="headerRow" dxfId="73"/>
-      <tableStyleElement type="totalRow" dxfId="72"/>
-      <tableStyleElement type="firstColumn" dxfId="71"/>
-      <tableStyleElement type="lastColumn" dxfId="70"/>
-      <tableStyleElement type="firstRowStripe" dxfId="69"/>
-      <tableStyleElement type="secondRowStripe" dxfId="68"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="67"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="66"/>
+      <tableStyleElement type="wholeTable" dxfId="199"/>
+      <tableStyleElement type="headerRow" dxfId="198"/>
+      <tableStyleElement type="totalRow" dxfId="197"/>
+      <tableStyleElement type="firstColumn" dxfId="196"/>
+      <tableStyleElement type="lastColumn" dxfId="195"/>
+      <tableStyleElement type="firstRowStripe" dxfId="194"/>
+      <tableStyleElement type="secondRowStripe" dxfId="193"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="192"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="191"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2535,11 +3818,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IS52"/>
+  <dimension ref="A1:JN53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="55" zoomScaleNormal="55" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BC75" sqref="BC75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2596,12 +3879,14 @@
     <col min="240" max="244" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="245" max="245" width="7.7109375" customWidth="1"/>
     <col min="246" max="246" width="7.140625" customWidth="1"/>
-    <col min="247" max="251" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="247" max="247" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="248" max="249" width="4.85546875" customWidth="1"/>
+    <col min="250" max="251" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="252" max="252" width="7.42578125" customWidth="1"/>
     <col min="253" max="253" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:253" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2615,554 +3900,584 @@
       <c r="H1" s="2"/>
       <c r="I1" s="10"/>
     </row>
-    <row r="2" spans="1:253" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
       <c r="I2" s="11"/>
     </row>
-    <row r="3" spans="1:253" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="67" t="s">
+      <c r="C3" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="67"/>
-      <c r="E3" s="69">
+      <c r="D3" s="61"/>
+      <c r="E3" s="64">
         <v>45323</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="I3" s="71" t="s">
+      <c r="F3" s="64"/>
+      <c r="I3" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
-      <c r="T3" s="72"/>
-      <c r="U3" s="72"/>
-      <c r="V3" s="72"/>
-      <c r="W3" s="72"/>
-      <c r="X3" s="72"/>
-      <c r="Y3" s="72"/>
-      <c r="Z3" s="72"/>
-      <c r="AA3" s="72"/>
-      <c r="AB3" s="72"/>
-      <c r="AC3" s="72"/>
-      <c r="AD3" s="72"/>
-      <c r="AE3" s="72"/>
-      <c r="AF3" s="72"/>
-      <c r="AG3" s="72"/>
-      <c r="AH3" s="72"/>
-      <c r="AI3" s="72"/>
-      <c r="AJ3" s="72"/>
-      <c r="AK3" s="72"/>
-      <c r="AL3" s="72"/>
-      <c r="AM3" s="72"/>
-      <c r="AN3" s="72"/>
-      <c r="AO3" s="72"/>
-      <c r="AP3" s="72"/>
-      <c r="AQ3" s="72"/>
-      <c r="AR3" s="72"/>
-      <c r="AS3" s="72"/>
-      <c r="AT3" s="72"/>
-      <c r="AU3" s="72"/>
-      <c r="AV3" s="72"/>
-      <c r="AW3" s="72"/>
-      <c r="AX3" s="72"/>
-      <c r="AY3" s="72"/>
-      <c r="AZ3" s="72"/>
-      <c r="BA3" s="72"/>
-      <c r="BB3" s="72"/>
-      <c r="BC3" s="72"/>
-      <c r="BD3" s="72"/>
-      <c r="BE3" s="72"/>
-      <c r="BF3" s="72"/>
-      <c r="BG3" s="72"/>
-      <c r="BH3" s="72"/>
-      <c r="BI3" s="72"/>
-      <c r="BJ3" s="72"/>
-      <c r="BK3" s="72"/>
-      <c r="BL3" s="72"/>
-      <c r="BM3" s="72"/>
-      <c r="BN3" s="72"/>
-      <c r="BO3" s="72"/>
-      <c r="BP3" s="72"/>
-      <c r="BQ3" s="72"/>
-      <c r="BR3" s="72"/>
-      <c r="BS3" s="72"/>
-      <c r="BT3" s="72"/>
-      <c r="BU3" s="72"/>
-      <c r="BV3" s="72"/>
-      <c r="BW3" s="72"/>
-      <c r="BX3" s="72"/>
-      <c r="BY3" s="72"/>
-      <c r="BZ3" s="72"/>
-      <c r="CA3" s="72"/>
-      <c r="CB3" s="72"/>
-      <c r="CC3" s="72"/>
-      <c r="CD3" s="72"/>
-      <c r="CE3" s="72"/>
-      <c r="CF3" s="72"/>
-      <c r="CG3" s="72"/>
-      <c r="CH3" s="72"/>
-      <c r="CI3" s="72"/>
-      <c r="CJ3" s="72"/>
-      <c r="CK3" s="72"/>
-      <c r="CL3" s="72"/>
-      <c r="CM3" s="72"/>
-      <c r="CN3" s="72"/>
-      <c r="CO3" s="72"/>
-      <c r="CP3" s="72"/>
-      <c r="CQ3" s="72"/>
-      <c r="CR3" s="72"/>
-      <c r="CS3" s="72"/>
-      <c r="CT3" s="72"/>
-      <c r="CU3" s="72"/>
-      <c r="CV3" s="72"/>
-      <c r="CW3" s="72"/>
-      <c r="CX3" s="72"/>
-      <c r="CY3" s="72"/>
-      <c r="CZ3" s="72"/>
-      <c r="DA3" s="72"/>
-      <c r="DB3" s="72"/>
-      <c r="DC3" s="72"/>
-      <c r="DD3" s="72"/>
-      <c r="DE3" s="72"/>
-      <c r="DF3" s="72"/>
-      <c r="DG3" s="72"/>
-      <c r="DH3" s="72"/>
-      <c r="DI3" s="72"/>
-      <c r="DJ3" s="72"/>
-      <c r="DK3" s="72"/>
-      <c r="DL3" s="72"/>
-      <c r="DM3" s="72"/>
-      <c r="DN3" s="72"/>
-      <c r="DO3" s="72"/>
-      <c r="DP3" s="72"/>
-      <c r="DQ3" s="72"/>
-      <c r="DR3" s="72"/>
-      <c r="DS3" s="72"/>
-      <c r="DT3" s="72"/>
-      <c r="DU3" s="72"/>
-      <c r="DV3" s="72"/>
-      <c r="DW3" s="72"/>
-      <c r="DX3" s="72"/>
-      <c r="DY3" s="72"/>
-      <c r="DZ3" s="72"/>
-      <c r="EA3" s="72"/>
-      <c r="EB3" s="72"/>
-      <c r="EC3" s="72"/>
-      <c r="ED3" s="72"/>
-      <c r="EE3" s="72"/>
-      <c r="EF3" s="72"/>
-      <c r="EG3" s="72"/>
-      <c r="EH3" s="72"/>
-      <c r="EI3" s="72"/>
-      <c r="EJ3" s="72"/>
-      <c r="EK3" s="72"/>
-      <c r="EL3" s="72"/>
-      <c r="EM3" s="72"/>
-      <c r="EN3" s="72"/>
-      <c r="EO3" s="72"/>
-      <c r="EP3" s="72"/>
-      <c r="EQ3" s="72"/>
-      <c r="ER3" s="72"/>
-      <c r="ES3" s="72"/>
-      <c r="ET3" s="72"/>
-      <c r="EU3" s="72"/>
-      <c r="EV3" s="72"/>
-      <c r="EW3" s="72"/>
-      <c r="EX3" s="72"/>
-      <c r="EY3" s="72"/>
-      <c r="EZ3" s="72"/>
-      <c r="FA3" s="72"/>
-      <c r="FB3" s="72"/>
-      <c r="FC3" s="72"/>
-      <c r="FD3" s="72"/>
-      <c r="FE3" s="72"/>
-      <c r="FF3" s="72"/>
-      <c r="FG3" s="72"/>
-      <c r="FH3" s="72"/>
-      <c r="FI3" s="72"/>
-      <c r="FJ3" s="72"/>
-      <c r="FK3" s="72"/>
-      <c r="FL3" s="72"/>
-      <c r="FM3" s="72"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
+      <c r="AB3" s="67"/>
+      <c r="AC3" s="67"/>
+      <c r="AD3" s="67"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
+      <c r="AK3" s="67"/>
+      <c r="AL3" s="67"/>
+      <c r="AM3" s="67"/>
+      <c r="AN3" s="67"/>
+      <c r="AO3" s="67"/>
+      <c r="AP3" s="67"/>
+      <c r="AQ3" s="67"/>
+      <c r="AR3" s="67"/>
+      <c r="AS3" s="67"/>
+      <c r="AT3" s="67"/>
+      <c r="AU3" s="67"/>
+      <c r="AV3" s="67"/>
+      <c r="AW3" s="67"/>
+      <c r="AX3" s="67"/>
+      <c r="AY3" s="67"/>
+      <c r="AZ3" s="67"/>
+      <c r="BA3" s="67"/>
+      <c r="BB3" s="67"/>
+      <c r="BC3" s="67"/>
+      <c r="BD3" s="67"/>
+      <c r="BE3" s="67"/>
+      <c r="BF3" s="67"/>
+      <c r="BG3" s="67"/>
+      <c r="BH3" s="67"/>
+      <c r="BI3" s="67"/>
+      <c r="BJ3" s="67"/>
+      <c r="BK3" s="67"/>
+      <c r="BL3" s="67"/>
+      <c r="BM3" s="67"/>
+      <c r="BN3" s="67"/>
+      <c r="BO3" s="67"/>
+      <c r="BP3" s="67"/>
+      <c r="BQ3" s="67"/>
+      <c r="BR3" s="67"/>
+      <c r="BS3" s="67"/>
+      <c r="BT3" s="67"/>
+      <c r="BU3" s="67"/>
+      <c r="BV3" s="67"/>
+      <c r="BW3" s="67"/>
+      <c r="BX3" s="67"/>
+      <c r="BY3" s="67"/>
+      <c r="BZ3" s="67"/>
+      <c r="CA3" s="67"/>
+      <c r="CB3" s="67"/>
+      <c r="CC3" s="67"/>
+      <c r="CD3" s="67"/>
+      <c r="CE3" s="67"/>
+      <c r="CF3" s="67"/>
+      <c r="CG3" s="67"/>
+      <c r="CH3" s="67"/>
+      <c r="CI3" s="67"/>
+      <c r="CJ3" s="67"/>
+      <c r="CK3" s="67"/>
+      <c r="CL3" s="67"/>
+      <c r="CM3" s="67"/>
+      <c r="CN3" s="67"/>
+      <c r="CO3" s="67"/>
+      <c r="CP3" s="67"/>
+      <c r="CQ3" s="67"/>
+      <c r="CR3" s="67"/>
+      <c r="CS3" s="67"/>
+      <c r="CT3" s="67"/>
+      <c r="CU3" s="67"/>
+      <c r="CV3" s="67"/>
+      <c r="CW3" s="67"/>
+      <c r="CX3" s="67"/>
+      <c r="CY3" s="67"/>
+      <c r="CZ3" s="67"/>
+      <c r="DA3" s="67"/>
+      <c r="DB3" s="67"/>
+      <c r="DC3" s="67"/>
+      <c r="DD3" s="67"/>
+      <c r="DE3" s="67"/>
+      <c r="DF3" s="67"/>
+      <c r="DG3" s="67"/>
+      <c r="DH3" s="67"/>
+      <c r="DI3" s="67"/>
+      <c r="DJ3" s="67"/>
+      <c r="DK3" s="67"/>
+      <c r="DL3" s="67"/>
+      <c r="DM3" s="67"/>
+      <c r="DN3" s="67"/>
+      <c r="DO3" s="67"/>
+      <c r="DP3" s="67"/>
+      <c r="DQ3" s="67"/>
+      <c r="DR3" s="67"/>
+      <c r="DS3" s="67"/>
+      <c r="DT3" s="67"/>
+      <c r="DU3" s="67"/>
+      <c r="DV3" s="67"/>
+      <c r="DW3" s="67"/>
+      <c r="DX3" s="67"/>
+      <c r="DY3" s="67"/>
+      <c r="DZ3" s="67"/>
+      <c r="EA3" s="67"/>
+      <c r="EB3" s="67"/>
+      <c r="EC3" s="67"/>
+      <c r="ED3" s="67"/>
+      <c r="EE3" s="67"/>
+      <c r="EF3" s="67"/>
+      <c r="EG3" s="67"/>
+      <c r="EH3" s="67"/>
+      <c r="EI3" s="67"/>
+      <c r="EJ3" s="67"/>
+      <c r="EK3" s="67"/>
+      <c r="EL3" s="67"/>
+      <c r="EM3" s="67"/>
+      <c r="EN3" s="67"/>
+      <c r="EO3" s="67"/>
+      <c r="EP3" s="67"/>
+      <c r="EQ3" s="67"/>
+      <c r="ER3" s="67"/>
+      <c r="ES3" s="67"/>
+      <c r="ET3" s="67"/>
+      <c r="EU3" s="67"/>
+      <c r="EV3" s="67"/>
+      <c r="EW3" s="67"/>
+      <c r="EX3" s="67"/>
+      <c r="EY3" s="67"/>
+      <c r="EZ3" s="67"/>
+      <c r="FA3" s="67"/>
+      <c r="FB3" s="67"/>
+      <c r="FC3" s="67"/>
+      <c r="FD3" s="67"/>
+      <c r="FE3" s="67"/>
+      <c r="FF3" s="67"/>
+      <c r="FG3" s="67"/>
+      <c r="FH3" s="67"/>
+      <c r="FI3" s="67"/>
+      <c r="FJ3" s="67"/>
+      <c r="FK3" s="67"/>
+      <c r="FL3" s="67"/>
+      <c r="FM3" s="67"/>
     </row>
-    <row r="4" spans="1:253" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="47"/>
-      <c r="C4" s="68" t="s">
+      <c r="C4" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="68"/>
+      <c r="D4" s="62"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="54">
+      <c r="I4" s="58">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="70"/>
-      <c r="P4" s="54">
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="58">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="54">
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
+      <c r="S4" s="59"/>
+      <c r="T4" s="59"/>
+      <c r="U4" s="59"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="58">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="54">
+      <c r="X4" s="59"/>
+      <c r="Y4" s="59"/>
+      <c r="Z4" s="59"/>
+      <c r="AA4" s="59"/>
+      <c r="AB4" s="59"/>
+      <c r="AC4" s="65"/>
+      <c r="AD4" s="58">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="54">
+      <c r="AE4" s="59"/>
+      <c r="AF4" s="59"/>
+      <c r="AG4" s="59"/>
+      <c r="AH4" s="59"/>
+      <c r="AI4" s="59"/>
+      <c r="AJ4" s="65"/>
+      <c r="AK4" s="58">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="54">
+      <c r="AL4" s="59"/>
+      <c r="AM4" s="59"/>
+      <c r="AN4" s="59"/>
+      <c r="AO4" s="59"/>
+      <c r="AP4" s="59"/>
+      <c r="AQ4" s="59"/>
+      <c r="AR4" s="58">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="54">
+      <c r="AS4" s="59"/>
+      <c r="AT4" s="59"/>
+      <c r="AU4" s="59"/>
+      <c r="AV4" s="59"/>
+      <c r="AW4" s="59"/>
+      <c r="AX4" s="59"/>
+      <c r="AY4" s="58">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="54">
+      <c r="AZ4" s="59"/>
+      <c r="BA4" s="59"/>
+      <c r="BB4" s="59"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="59"/>
+      <c r="BE4" s="59"/>
+      <c r="BF4" s="58">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="54">
+      <c r="BG4" s="59"/>
+      <c r="BH4" s="59"/>
+      <c r="BI4" s="59"/>
+      <c r="BJ4" s="59"/>
+      <c r="BK4" s="59"/>
+      <c r="BL4" s="59"/>
+      <c r="BM4" s="58">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="54">
+      <c r="BN4" s="59"/>
+      <c r="BO4" s="59"/>
+      <c r="BP4" s="59"/>
+      <c r="BQ4" s="59"/>
+      <c r="BR4" s="59"/>
+      <c r="BS4" s="59"/>
+      <c r="BT4" s="58">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="55"/>
-      <c r="BV4" s="55"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="55"/>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="54">
+      <c r="BU4" s="59"/>
+      <c r="BV4" s="59"/>
+      <c r="BW4" s="59"/>
+      <c r="BX4" s="59"/>
+      <c r="BY4" s="59"/>
+      <c r="BZ4" s="59"/>
+      <c r="CA4" s="58">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="55"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="54">
+      <c r="CB4" s="59"/>
+      <c r="CC4" s="59"/>
+      <c r="CD4" s="59"/>
+      <c r="CE4" s="59"/>
+      <c r="CF4" s="59"/>
+      <c r="CG4" s="59"/>
+      <c r="CH4" s="58">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="55"/>
-      <c r="CJ4" s="55"/>
-      <c r="CK4" s="55"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="55"/>
-      <c r="CN4" s="55"/>
-      <c r="CO4" s="54">
+      <c r="CI4" s="59"/>
+      <c r="CJ4" s="59"/>
+      <c r="CK4" s="59"/>
+      <c r="CL4" s="59"/>
+      <c r="CM4" s="59"/>
+      <c r="CN4" s="59"/>
+      <c r="CO4" s="58">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="55"/>
-      <c r="CQ4" s="55"/>
-      <c r="CR4" s="55"/>
-      <c r="CS4" s="55"/>
-      <c r="CT4" s="55"/>
-      <c r="CU4" s="55"/>
-      <c r="CV4" s="54">
+      <c r="CP4" s="59"/>
+      <c r="CQ4" s="59"/>
+      <c r="CR4" s="59"/>
+      <c r="CS4" s="59"/>
+      <c r="CT4" s="59"/>
+      <c r="CU4" s="59"/>
+      <c r="CV4" s="58">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="55"/>
-      <c r="CX4" s="55"/>
-      <c r="CY4" s="55"/>
-      <c r="CZ4" s="55"/>
-      <c r="DA4" s="55"/>
-      <c r="DB4" s="55"/>
-      <c r="DC4" s="54">
+      <c r="CW4" s="59"/>
+      <c r="CX4" s="59"/>
+      <c r="CY4" s="59"/>
+      <c r="CZ4" s="59"/>
+      <c r="DA4" s="59"/>
+      <c r="DB4" s="59"/>
+      <c r="DC4" s="58">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="55"/>
-      <c r="DE4" s="55"/>
-      <c r="DF4" s="55"/>
-      <c r="DG4" s="55"/>
-      <c r="DH4" s="55"/>
-      <c r="DI4" s="55"/>
-      <c r="DJ4" s="54">
+      <c r="DD4" s="59"/>
+      <c r="DE4" s="59"/>
+      <c r="DF4" s="59"/>
+      <c r="DG4" s="59"/>
+      <c r="DH4" s="59"/>
+      <c r="DI4" s="59"/>
+      <c r="DJ4" s="58">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="55"/>
-      <c r="DL4" s="55"/>
-      <c r="DM4" s="55"/>
-      <c r="DN4" s="55"/>
-      <c r="DO4" s="55"/>
-      <c r="DP4" s="55"/>
-      <c r="DQ4" s="54">
+      <c r="DK4" s="59"/>
+      <c r="DL4" s="59"/>
+      <c r="DM4" s="59"/>
+      <c r="DN4" s="59"/>
+      <c r="DO4" s="59"/>
+      <c r="DP4" s="59"/>
+      <c r="DQ4" s="58">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="55"/>
-      <c r="DS4" s="55"/>
-      <c r="DT4" s="55"/>
-      <c r="DU4" s="55"/>
-      <c r="DV4" s="55"/>
-      <c r="DW4" s="55"/>
-      <c r="DX4" s="54">
+      <c r="DR4" s="59"/>
+      <c r="DS4" s="59"/>
+      <c r="DT4" s="59"/>
+      <c r="DU4" s="59"/>
+      <c r="DV4" s="59"/>
+      <c r="DW4" s="59"/>
+      <c r="DX4" s="58">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="55"/>
-      <c r="DZ4" s="55"/>
-      <c r="EA4" s="55"/>
-      <c r="EB4" s="55"/>
-      <c r="EC4" s="55"/>
-      <c r="ED4" s="55"/>
-      <c r="EE4" s="54">
+      <c r="DY4" s="59"/>
+      <c r="DZ4" s="59"/>
+      <c r="EA4" s="59"/>
+      <c r="EB4" s="59"/>
+      <c r="EC4" s="59"/>
+      <c r="ED4" s="59"/>
+      <c r="EE4" s="58">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="55"/>
-      <c r="EG4" s="55"/>
-      <c r="EH4" s="55"/>
-      <c r="EI4" s="55"/>
-      <c r="EJ4" s="55"/>
-      <c r="EK4" s="55"/>
-      <c r="EL4" s="54">
+      <c r="EF4" s="59"/>
+      <c r="EG4" s="59"/>
+      <c r="EH4" s="59"/>
+      <c r="EI4" s="59"/>
+      <c r="EJ4" s="59"/>
+      <c r="EK4" s="59"/>
+      <c r="EL4" s="58">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="55"/>
-      <c r="EN4" s="55"/>
-      <c r="EO4" s="55"/>
-      <c r="EP4" s="55"/>
-      <c r="EQ4" s="55"/>
-      <c r="ER4" s="55"/>
-      <c r="ES4" s="54">
+      <c r="EM4" s="59"/>
+      <c r="EN4" s="59"/>
+      <c r="EO4" s="59"/>
+      <c r="EP4" s="59"/>
+      <c r="EQ4" s="59"/>
+      <c r="ER4" s="59"/>
+      <c r="ES4" s="58">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="55"/>
-      <c r="EU4" s="55"/>
-      <c r="EV4" s="55"/>
-      <c r="EW4" s="55"/>
-      <c r="EX4" s="55"/>
-      <c r="EY4" s="55"/>
-      <c r="EZ4" s="54">
+      <c r="ET4" s="59"/>
+      <c r="EU4" s="59"/>
+      <c r="EV4" s="59"/>
+      <c r="EW4" s="59"/>
+      <c r="EX4" s="59"/>
+      <c r="EY4" s="59"/>
+      <c r="EZ4" s="58">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="55"/>
-      <c r="FB4" s="55"/>
-      <c r="FC4" s="55"/>
-      <c r="FD4" s="55"/>
-      <c r="FE4" s="55"/>
-      <c r="FF4" s="55"/>
-      <c r="FG4" s="54">
+      <c r="FA4" s="59"/>
+      <c r="FB4" s="59"/>
+      <c r="FC4" s="59"/>
+      <c r="FD4" s="59"/>
+      <c r="FE4" s="59"/>
+      <c r="FF4" s="59"/>
+      <c r="FG4" s="58">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="55"/>
-      <c r="FI4" s="55"/>
-      <c r="FJ4" s="55"/>
-      <c r="FK4" s="55"/>
-      <c r="FL4" s="55"/>
-      <c r="FM4" s="55"/>
-      <c r="FN4" s="54">
+      <c r="FH4" s="59"/>
+      <c r="FI4" s="59"/>
+      <c r="FJ4" s="59"/>
+      <c r="FK4" s="59"/>
+      <c r="FL4" s="59"/>
+      <c r="FM4" s="59"/>
+      <c r="FN4" s="58">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="55"/>
-      <c r="FP4" s="55"/>
-      <c r="FQ4" s="55"/>
-      <c r="FR4" s="55"/>
-      <c r="FS4" s="55"/>
-      <c r="FT4" s="55"/>
-      <c r="FU4" s="54">
+      <c r="FO4" s="59"/>
+      <c r="FP4" s="59"/>
+      <c r="FQ4" s="59"/>
+      <c r="FR4" s="59"/>
+      <c r="FS4" s="59"/>
+      <c r="FT4" s="59"/>
+      <c r="FU4" s="58">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="55"/>
-      <c r="FW4" s="55"/>
-      <c r="FX4" s="55"/>
-      <c r="FY4" s="55"/>
-      <c r="FZ4" s="55"/>
-      <c r="GA4" s="55"/>
-      <c r="GB4" s="54">
+      <c r="FV4" s="59"/>
+      <c r="FW4" s="59"/>
+      <c r="FX4" s="59"/>
+      <c r="FY4" s="59"/>
+      <c r="FZ4" s="59"/>
+      <c r="GA4" s="59"/>
+      <c r="GB4" s="58">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="55"/>
-      <c r="GD4" s="55"/>
-      <c r="GE4" s="55"/>
-      <c r="GF4" s="55"/>
-      <c r="GG4" s="55"/>
-      <c r="GH4" s="55"/>
-      <c r="GI4" s="54">
+      <c r="GC4" s="59"/>
+      <c r="GD4" s="59"/>
+      <c r="GE4" s="59"/>
+      <c r="GF4" s="59"/>
+      <c r="GG4" s="59"/>
+      <c r="GH4" s="59"/>
+      <c r="GI4" s="58">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="55"/>
-      <c r="GK4" s="55"/>
-      <c r="GL4" s="55"/>
-      <c r="GM4" s="55"/>
-      <c r="GN4" s="55"/>
-      <c r="GO4" s="55"/>
-      <c r="GP4" s="54">
+      <c r="GJ4" s="59"/>
+      <c r="GK4" s="59"/>
+      <c r="GL4" s="59"/>
+      <c r="GM4" s="59"/>
+      <c r="GN4" s="59"/>
+      <c r="GO4" s="59"/>
+      <c r="GP4" s="58">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="55"/>
-      <c r="GR4" s="55"/>
-      <c r="GS4" s="55"/>
-      <c r="GT4" s="55"/>
-      <c r="GU4" s="55"/>
-      <c r="GV4" s="55"/>
-      <c r="GW4" s="54">
+      <c r="GQ4" s="59"/>
+      <c r="GR4" s="59"/>
+      <c r="GS4" s="59"/>
+      <c r="GT4" s="59"/>
+      <c r="GU4" s="59"/>
+      <c r="GV4" s="59"/>
+      <c r="GW4" s="58">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="55"/>
-      <c r="GY4" s="55"/>
-      <c r="GZ4" s="55"/>
-      <c r="HA4" s="55"/>
-      <c r="HB4" s="55"/>
-      <c r="HC4" s="55"/>
-      <c r="HD4" s="54">
+      <c r="GX4" s="59"/>
+      <c r="GY4" s="59"/>
+      <c r="GZ4" s="59"/>
+      <c r="HA4" s="59"/>
+      <c r="HB4" s="59"/>
+      <c r="HC4" s="59"/>
+      <c r="HD4" s="58">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="55"/>
-      <c r="HF4" s="55"/>
-      <c r="HG4" s="55"/>
-      <c r="HH4" s="55"/>
-      <c r="HI4" s="55"/>
-      <c r="HJ4" s="55"/>
-      <c r="HK4" s="54">
+      <c r="HE4" s="59"/>
+      <c r="HF4" s="59"/>
+      <c r="HG4" s="59"/>
+      <c r="HH4" s="59"/>
+      <c r="HI4" s="59"/>
+      <c r="HJ4" s="59"/>
+      <c r="HK4" s="58">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="55"/>
-      <c r="HM4" s="55"/>
-      <c r="HN4" s="55"/>
-      <c r="HO4" s="55"/>
-      <c r="HP4" s="55"/>
-      <c r="HQ4" s="55"/>
-      <c r="HR4" s="54">
+      <c r="HL4" s="59"/>
+      <c r="HM4" s="59"/>
+      <c r="HN4" s="59"/>
+      <c r="HO4" s="59"/>
+      <c r="HP4" s="59"/>
+      <c r="HQ4" s="59"/>
+      <c r="HR4" s="58">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="55"/>
-      <c r="HT4" s="55"/>
-      <c r="HU4" s="55"/>
-      <c r="HV4" s="55"/>
-      <c r="HW4" s="55"/>
-      <c r="HX4" s="55"/>
-      <c r="HY4" s="54">
+      <c r="HS4" s="59"/>
+      <c r="HT4" s="59"/>
+      <c r="HU4" s="59"/>
+      <c r="HV4" s="59"/>
+      <c r="HW4" s="59"/>
+      <c r="HX4" s="59"/>
+      <c r="HY4" s="58">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="55"/>
-      <c r="IA4" s="55"/>
-      <c r="IB4" s="55"/>
-      <c r="IC4" s="55"/>
-      <c r="ID4" s="55"/>
-      <c r="IE4" s="55"/>
-      <c r="IF4" s="54">
+      <c r="HZ4" s="59"/>
+      <c r="IA4" s="59"/>
+      <c r="IB4" s="59"/>
+      <c r="IC4" s="59"/>
+      <c r="ID4" s="59"/>
+      <c r="IE4" s="59"/>
+      <c r="IF4" s="58">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="55"/>
-      <c r="IH4" s="55"/>
-      <c r="II4" s="55"/>
-      <c r="IJ4" s="55"/>
-      <c r="IK4" s="55"/>
-      <c r="IL4" s="55"/>
-      <c r="IM4" s="54">
+      <c r="IG4" s="59"/>
+      <c r="IH4" s="59"/>
+      <c r="II4" s="59"/>
+      <c r="IJ4" s="59"/>
+      <c r="IK4" s="59"/>
+      <c r="IL4" s="59"/>
+      <c r="IM4" s="58">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="55"/>
-      <c r="IO4" s="55"/>
-      <c r="IP4" s="55"/>
-      <c r="IQ4" s="55"/>
-      <c r="IR4" s="55"/>
-      <c r="IS4" s="55"/>
+      <c r="IN4" s="59"/>
+      <c r="IO4" s="59"/>
+      <c r="IP4" s="59"/>
+      <c r="IQ4" s="59"/>
+      <c r="IR4" s="59"/>
+      <c r="IS4" s="59"/>
+      <c r="IT4" s="58">
+        <f>IT5</f>
+        <v>45565</v>
+      </c>
+      <c r="IU4" s="59"/>
+      <c r="IV4" s="59"/>
+      <c r="IW4" s="59"/>
+      <c r="IX4" s="59"/>
+      <c r="IY4" s="59"/>
+      <c r="IZ4" s="59"/>
+      <c r="JA4" s="58">
+        <f>JA5</f>
+        <v>45572</v>
+      </c>
+      <c r="JB4" s="59"/>
+      <c r="JC4" s="59"/>
+      <c r="JD4" s="59"/>
+      <c r="JE4" s="59"/>
+      <c r="JF4" s="59"/>
+      <c r="JG4" s="59"/>
+      <c r="JH4" s="58">
+        <f>JH5</f>
+        <v>45579</v>
+      </c>
+      <c r="JI4" s="59"/>
+      <c r="JJ4" s="59"/>
+      <c r="JK4" s="59"/>
+      <c r="JL4" s="59"/>
+      <c r="JM4" s="59"/>
+      <c r="JN4" s="59"/>
     </row>
-    <row r="5" spans="1:253" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>5</v>
       </c>
@@ -4153,15 +5468,99 @@
         <f t="shared" ref="IS5" si="184">IR5+1</f>
         <v>45564</v>
       </c>
+      <c r="IT5" s="16">
+        <f t="shared" ref="IT5" si="185">IS5+1</f>
+        <v>45565</v>
+      </c>
+      <c r="IU5" s="17">
+        <f t="shared" ref="IU5" si="186">IT5+1</f>
+        <v>45566</v>
+      </c>
+      <c r="IV5" s="17">
+        <f t="shared" ref="IV5" si="187">IU5+1</f>
+        <v>45567</v>
+      </c>
+      <c r="IW5" s="17">
+        <f t="shared" ref="IW5" si="188">IV5+1</f>
+        <v>45568</v>
+      </c>
+      <c r="IX5" s="17">
+        <f t="shared" ref="IX5" si="189">IW5+1</f>
+        <v>45569</v>
+      </c>
+      <c r="IY5" s="17">
+        <f t="shared" ref="IY5" si="190">IX5+1</f>
+        <v>45570</v>
+      </c>
+      <c r="IZ5" s="17">
+        <f t="shared" ref="IZ5" si="191">IY5+1</f>
+        <v>45571</v>
+      </c>
+      <c r="JA5" s="16">
+        <f t="shared" ref="JA5" si="192">IZ5+1</f>
+        <v>45572</v>
+      </c>
+      <c r="JB5" s="17">
+        <f t="shared" ref="JB5" si="193">JA5+1</f>
+        <v>45573</v>
+      </c>
+      <c r="JC5" s="17">
+        <f t="shared" ref="JC5" si="194">JB5+1</f>
+        <v>45574</v>
+      </c>
+      <c r="JD5" s="17">
+        <f t="shared" ref="JD5" si="195">JC5+1</f>
+        <v>45575</v>
+      </c>
+      <c r="JE5" s="17">
+        <f t="shared" ref="JE5" si="196">JD5+1</f>
+        <v>45576</v>
+      </c>
+      <c r="JF5" s="17">
+        <f t="shared" ref="JF5" si="197">JE5+1</f>
+        <v>45577</v>
+      </c>
+      <c r="JG5" s="17">
+        <f t="shared" ref="JG5" si="198">JF5+1</f>
+        <v>45578</v>
+      </c>
+      <c r="JH5" s="16">
+        <f t="shared" ref="JH5" si="199">JG5+1</f>
+        <v>45579</v>
+      </c>
+      <c r="JI5" s="17">
+        <f t="shared" ref="JI5" si="200">JH5+1</f>
+        <v>45580</v>
+      </c>
+      <c r="JJ5" s="17">
+        <f t="shared" ref="JJ5" si="201">JI5+1</f>
+        <v>45581</v>
+      </c>
+      <c r="JK5" s="17">
+        <f t="shared" ref="JK5" si="202">JJ5+1</f>
+        <v>45582</v>
+      </c>
+      <c r="JL5" s="17">
+        <f t="shared" ref="JL5" si="203">JK5+1</f>
+        <v>45583</v>
+      </c>
+      <c r="JM5" s="17">
+        <f t="shared" ref="JM5" si="204">JL5+1</f>
+        <v>45584</v>
+      </c>
+      <c r="JN5" s="17">
+        <f t="shared" ref="JN5" si="205">JM5+1</f>
+        <v>45585</v>
+      </c>
     </row>
-    <row r="6" spans="1:253" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:274" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="64" t="s">
+      <c r="B6" s="74" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="64"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -4176,987 +5575,1071 @@
         <v>11</v>
       </c>
       <c r="I6" s="20" t="str">
-        <f t="shared" ref="I6" si="185">LEFT(TEXT(I5,"ddd"),1)</f>
+        <f t="shared" ref="I6" si="206">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="J6" s="20" t="str">
-        <f t="shared" ref="J6:AQ6" si="186">LEFT(TEXT(J5,"ddd"),1)</f>
+        <f t="shared" ref="J6:AQ6" si="207">LEFT(TEXT(J5,"ddd"),1)</f>
         <v>m</v>
       </c>
       <c r="K6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="L6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>j</v>
       </c>
       <c r="M6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>v</v>
       </c>
       <c r="N6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>s</v>
       </c>
       <c r="O6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>d</v>
       </c>
       <c r="P6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>l</v>
       </c>
       <c r="Q6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="R6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="S6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>j</v>
       </c>
       <c r="T6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>v</v>
       </c>
       <c r="U6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>s</v>
       </c>
       <c r="V6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>d</v>
       </c>
       <c r="W6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>l</v>
       </c>
       <c r="X6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="Y6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="Z6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>j</v>
       </c>
       <c r="AA6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>v</v>
       </c>
       <c r="AB6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>s</v>
       </c>
       <c r="AC6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>d</v>
       </c>
       <c r="AD6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>l</v>
       </c>
       <c r="AE6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="AF6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="AG6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>j</v>
       </c>
       <c r="AH6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>v</v>
       </c>
       <c r="AI6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>s</v>
       </c>
       <c r="AJ6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>d</v>
       </c>
       <c r="AK6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>l</v>
       </c>
       <c r="AL6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="AM6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>m</v>
       </c>
       <c r="AN6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>j</v>
       </c>
       <c r="AO6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>v</v>
       </c>
       <c r="AP6" s="20" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>s</v>
       </c>
       <c r="AQ6" s="21" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" si="207"/>
         <v>d</v>
       </c>
       <c r="AR6" s="20" t="str">
-        <f t="shared" ref="AR6:BL6" si="187">LEFT(TEXT(AR5,"ddd"),1)</f>
+        <f t="shared" ref="AR6:BL6" si="208">LEFT(TEXT(AR5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="AS6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>m</v>
       </c>
       <c r="AT6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>m</v>
       </c>
       <c r="AU6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>j</v>
       </c>
       <c r="AV6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>v</v>
       </c>
       <c r="AW6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>s</v>
       </c>
       <c r="AX6" s="21" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>d</v>
       </c>
       <c r="AY6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>l</v>
       </c>
       <c r="AZ6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>m</v>
       </c>
       <c r="BA6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>m</v>
       </c>
       <c r="BB6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>j</v>
       </c>
       <c r="BC6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>v</v>
       </c>
       <c r="BD6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>s</v>
       </c>
       <c r="BE6" s="21" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>d</v>
       </c>
       <c r="BF6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>l</v>
       </c>
       <c r="BG6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>m</v>
       </c>
       <c r="BH6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>m</v>
       </c>
       <c r="BI6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>j</v>
       </c>
       <c r="BJ6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>v</v>
       </c>
       <c r="BK6" s="20" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>s</v>
       </c>
       <c r="BL6" s="21" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" si="208"/>
         <v>d</v>
       </c>
       <c r="BM6" s="20" t="str">
-        <f t="shared" ref="BM6:DI6" si="188">LEFT(TEXT(BM5,"ddd"),1)</f>
+        <f t="shared" ref="BM6:DI6" si="209">LEFT(TEXT(BM5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="BN6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="BO6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="BP6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="BQ6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="BR6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="BS6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="BT6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>l</v>
       </c>
       <c r="BU6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="BV6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="BW6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="BX6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="BY6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="BZ6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="CA6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>l</v>
       </c>
       <c r="CB6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CC6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CD6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="CE6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="CF6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="CG6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="CH6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>l</v>
       </c>
       <c r="CI6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CJ6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CK6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="CL6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="CM6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="CN6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="CO6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>l</v>
       </c>
       <c r="CP6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CQ6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CR6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="CS6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="CT6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="CU6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="CV6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>l</v>
       </c>
       <c r="CW6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CX6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="CY6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="CZ6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="DA6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="DB6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="DC6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>l</v>
       </c>
       <c r="DD6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="DE6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>m</v>
       </c>
       <c r="DF6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>j</v>
       </c>
       <c r="DG6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>v</v>
       </c>
       <c r="DH6" s="20" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>s</v>
       </c>
       <c r="DI6" s="21" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" si="209"/>
         <v>d</v>
       </c>
       <c r="DJ6" s="20" t="str">
-        <f t="shared" ref="DJ6:DP6" si="189">LEFT(TEXT(DJ5,"ddd"),1)</f>
+        <f t="shared" ref="DJ6:DP6" si="210">LEFT(TEXT(DJ5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="DK6" s="20" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>m</v>
       </c>
       <c r="DL6" s="20" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>m</v>
       </c>
       <c r="DM6" s="20" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>j</v>
       </c>
       <c r="DN6" s="20" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>v</v>
       </c>
       <c r="DO6" s="20" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>s</v>
       </c>
       <c r="DP6" s="21" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" si="210"/>
         <v>d</v>
       </c>
       <c r="DQ6" s="20" t="str">
-        <f t="shared" ref="DQ6:EK6" si="190">LEFT(TEXT(DQ5,"ddd"),1)</f>
+        <f t="shared" ref="DQ6:EK6" si="211">LEFT(TEXT(DQ5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="DR6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>m</v>
       </c>
       <c r="DS6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>m</v>
       </c>
       <c r="DT6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>j</v>
       </c>
       <c r="DU6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>v</v>
       </c>
       <c r="DV6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>s</v>
       </c>
       <c r="DW6" s="21" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>d</v>
       </c>
       <c r="DX6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>l</v>
       </c>
       <c r="DY6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>m</v>
       </c>
       <c r="DZ6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>m</v>
       </c>
       <c r="EA6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>j</v>
       </c>
       <c r="EB6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>v</v>
       </c>
       <c r="EC6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>s</v>
       </c>
       <c r="ED6" s="21" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>d</v>
       </c>
       <c r="EE6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>l</v>
       </c>
       <c r="EF6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>m</v>
       </c>
       <c r="EG6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>m</v>
       </c>
       <c r="EH6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>j</v>
       </c>
       <c r="EI6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>v</v>
       </c>
       <c r="EJ6" s="20" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>s</v>
       </c>
       <c r="EK6" s="21" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" si="211"/>
         <v>d</v>
       </c>
       <c r="EL6" s="20" t="str">
-        <f t="shared" ref="EL6:FF6" si="191">LEFT(TEXT(EL5,"ddd"),1)</f>
+        <f t="shared" ref="EL6:FF6" si="212">LEFT(TEXT(EL5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="EM6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>m</v>
       </c>
       <c r="EN6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>m</v>
       </c>
       <c r="EO6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>j</v>
       </c>
       <c r="EP6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>v</v>
       </c>
       <c r="EQ6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>s</v>
       </c>
       <c r="ER6" s="21" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>d</v>
       </c>
       <c r="ES6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>l</v>
       </c>
       <c r="ET6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>m</v>
       </c>
       <c r="EU6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>m</v>
       </c>
       <c r="EV6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>j</v>
       </c>
       <c r="EW6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>v</v>
       </c>
       <c r="EX6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>s</v>
       </c>
       <c r="EY6" s="21" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>d</v>
       </c>
       <c r="EZ6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>l</v>
       </c>
       <c r="FA6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>m</v>
       </c>
       <c r="FB6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>m</v>
       </c>
       <c r="FC6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>j</v>
       </c>
       <c r="FD6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>v</v>
       </c>
       <c r="FE6" s="20" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>s</v>
       </c>
       <c r="FF6" s="21" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" si="212"/>
         <v>d</v>
       </c>
       <c r="FG6" s="20" t="str">
-        <f t="shared" ref="FG6:FM6" si="192">LEFT(TEXT(FG5,"ddd"),1)</f>
+        <f t="shared" ref="FG6:FM6" si="213">LEFT(TEXT(FG5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="FH6" s="20" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="213"/>
         <v>m</v>
       </c>
       <c r="FI6" s="20" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="213"/>
         <v>m</v>
       </c>
       <c r="FJ6" s="20" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="213"/>
         <v>j</v>
       </c>
       <c r="FK6" s="20" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="213"/>
         <v>v</v>
       </c>
       <c r="FL6" s="20" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="213"/>
         <v>s</v>
       </c>
       <c r="FM6" s="21" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" si="213"/>
         <v>d</v>
       </c>
       <c r="FN6" s="20" t="str">
-        <f t="shared" ref="FN6:FT6" si="193">LEFT(TEXT(FN5,"ddd"),1)</f>
+        <f t="shared" ref="FN6:FT6" si="214">LEFT(TEXT(FN5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="FO6" s="20" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="214"/>
         <v>m</v>
       </c>
       <c r="FP6" s="20" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="214"/>
         <v>m</v>
       </c>
       <c r="FQ6" s="20" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="214"/>
         <v>j</v>
       </c>
       <c r="FR6" s="20" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="214"/>
         <v>v</v>
       </c>
       <c r="FS6" s="20" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="214"/>
         <v>s</v>
       </c>
       <c r="FT6" s="21" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" si="214"/>
         <v>d</v>
       </c>
       <c r="FU6" s="20" t="str">
-        <f t="shared" ref="FU6:IF6" si="194">LEFT(TEXT(FU5,"ddd"),1)</f>
+        <f t="shared" ref="FU6:IF6" si="215">LEFT(TEXT(FU5,"ddd"),1)</f>
         <v>l</v>
       </c>
       <c r="FV6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="FW6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="FX6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="FY6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="FZ6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="GA6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="GB6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="GC6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GD6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GE6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="GF6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="GG6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="GH6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="GI6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="GJ6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GK6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GL6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="GM6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="GN6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="GO6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="GP6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="GQ6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GR6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GS6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="GT6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="GU6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="GV6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="GW6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="GX6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GY6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="GZ6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="HA6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="HB6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="HC6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="HD6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="HE6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="HF6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="HG6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="HH6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="HI6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="HJ6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="HK6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="HL6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="HM6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="HN6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="HO6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="HP6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="HQ6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="HR6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="HS6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="HT6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="HU6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="HV6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="HW6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="HX6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="HY6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="HZ6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="IA6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>m</v>
       </c>
       <c r="IB6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>j</v>
       </c>
       <c r="IC6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>v</v>
       </c>
       <c r="ID6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>s</v>
       </c>
       <c r="IE6" s="21" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>d</v>
       </c>
       <c r="IF6" s="20" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" si="215"/>
         <v>l</v>
       </c>
       <c r="IG6" s="20" t="str">
-        <f t="shared" ref="IG6:IS6" si="195">LEFT(TEXT(IG5,"ddd"),1)</f>
+        <f t="shared" ref="IG6:IS6" si="216">LEFT(TEXT(IG5,"ddd"),1)</f>
         <v>m</v>
       </c>
       <c r="IH6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>m</v>
       </c>
       <c r="II6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>j</v>
       </c>
       <c r="IJ6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>v</v>
       </c>
       <c r="IK6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>s</v>
       </c>
       <c r="IL6" s="21" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>d</v>
       </c>
       <c r="IM6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>l</v>
       </c>
       <c r="IN6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>m</v>
       </c>
       <c r="IO6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>m</v>
       </c>
       <c r="IP6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>j</v>
       </c>
       <c r="IQ6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>v</v>
       </c>
       <c r="IR6" s="20" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>s</v>
       </c>
       <c r="IS6" s="21" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" si="216"/>
         <v>d</v>
       </c>
+      <c r="IT6" s="20" t="str">
+        <f t="shared" ref="IT6:JN6" si="217">LEFT(TEXT(IT5,"ddd"),1)</f>
+        <v>l</v>
+      </c>
+      <c r="IU6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>m</v>
+      </c>
+      <c r="IV6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>m</v>
+      </c>
+      <c r="IW6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>j</v>
+      </c>
+      <c r="IX6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>v</v>
+      </c>
+      <c r="IY6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>s</v>
+      </c>
+      <c r="IZ6" s="21" t="str">
+        <f t="shared" si="217"/>
+        <v>d</v>
+      </c>
+      <c r="JA6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>l</v>
+      </c>
+      <c r="JB6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>m</v>
+      </c>
+      <c r="JC6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>m</v>
+      </c>
+      <c r="JD6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>j</v>
+      </c>
+      <c r="JE6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>v</v>
+      </c>
+      <c r="JF6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>s</v>
+      </c>
+      <c r="JG6" s="21" t="str">
+        <f t="shared" si="217"/>
+        <v>d</v>
+      </c>
+      <c r="JH6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>l</v>
+      </c>
+      <c r="JI6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>m</v>
+      </c>
+      <c r="JJ6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>m</v>
+      </c>
+      <c r="JK6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>j</v>
+      </c>
+      <c r="JL6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>v</v>
+      </c>
+      <c r="JM6" s="20" t="str">
+        <f t="shared" si="217"/>
+        <v>s</v>
+      </c>
+      <c r="JN6" s="21" t="str">
+        <f t="shared" si="217"/>
+        <v>d</v>
+      </c>
     </row>
-    <row r="7" spans="1:253" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:274" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>12</v>
       </c>
@@ -5415,21 +6898,42 @@
       <c r="IQ7" s="23"/>
       <c r="IR7" s="23"/>
       <c r="IS7" s="24"/>
+      <c r="IT7" s="23"/>
+      <c r="IU7" s="23"/>
+      <c r="IV7" s="23"/>
+      <c r="IW7" s="23"/>
+      <c r="IX7" s="23"/>
+      <c r="IY7" s="23"/>
+      <c r="IZ7" s="24"/>
+      <c r="JA7" s="23"/>
+      <c r="JB7" s="23"/>
+      <c r="JC7" s="23"/>
+      <c r="JD7" s="23"/>
+      <c r="JE7" s="23"/>
+      <c r="JF7" s="23"/>
+      <c r="JG7" s="24"/>
+      <c r="JH7" s="23"/>
+      <c r="JI7" s="23"/>
+      <c r="JJ7" s="23"/>
+      <c r="JK7" s="23"/>
+      <c r="JL7" s="23"/>
+      <c r="JM7" s="23"/>
+      <c r="JN7" s="24"/>
     </row>
-    <row r="8" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="68" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="66"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="str">
-        <f t="shared" ref="H8:H42" si="196">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H42" si="218">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -5677,15 +7181,36 @@
       <c r="IQ8" s="23"/>
       <c r="IR8" s="23"/>
       <c r="IS8" s="24"/>
+      <c r="IT8" s="23"/>
+      <c r="IU8" s="23"/>
+      <c r="IV8" s="23"/>
+      <c r="IW8" s="23"/>
+      <c r="IX8" s="23"/>
+      <c r="IY8" s="23"/>
+      <c r="IZ8" s="24"/>
+      <c r="JA8" s="23"/>
+      <c r="JB8" s="23"/>
+      <c r="JC8" s="23"/>
+      <c r="JD8" s="23"/>
+      <c r="JE8" s="23"/>
+      <c r="JF8" s="23"/>
+      <c r="JG8" s="24"/>
+      <c r="JH8" s="23"/>
+      <c r="JI8" s="23"/>
+      <c r="JJ8" s="23"/>
+      <c r="JK8" s="23"/>
+      <c r="JL8" s="23"/>
+      <c r="JM8" s="23"/>
+      <c r="JN8" s="24"/>
     </row>
-    <row r="9" spans="1:253" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:274" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="65" t="s">
+      <c r="B9" s="63" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="65"/>
+      <c r="C9" s="63"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -5699,7 +7224,7 @@
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="I9" s="23"/>
@@ -5947,15 +7472,36 @@
       <c r="IQ9" s="23"/>
       <c r="IR9" s="23"/>
       <c r="IS9" s="24"/>
+      <c r="IT9" s="23"/>
+      <c r="IU9" s="23"/>
+      <c r="IV9" s="23"/>
+      <c r="IW9" s="23"/>
+      <c r="IX9" s="23"/>
+      <c r="IY9" s="23"/>
+      <c r="IZ9" s="24"/>
+      <c r="JA9" s="23"/>
+      <c r="JB9" s="23"/>
+      <c r="JC9" s="23"/>
+      <c r="JD9" s="23"/>
+      <c r="JE9" s="23"/>
+      <c r="JF9" s="23"/>
+      <c r="JG9" s="24"/>
+      <c r="JH9" s="23"/>
+      <c r="JI9" s="23"/>
+      <c r="JJ9" s="23"/>
+      <c r="JK9" s="23"/>
+      <c r="JL9" s="23"/>
+      <c r="JM9" s="23"/>
+      <c r="JN9" s="24"/>
     </row>
-    <row r="10" spans="1:253" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:274" s="3" customFormat="1" ht="30.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="65"/>
+      <c r="C10" s="63"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -5969,7 +7515,7 @@
       </c>
       <c r="G10" s="28"/>
       <c r="H10" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="I10" s="23"/>
@@ -6217,15 +7763,36 @@
       <c r="IQ10" s="23"/>
       <c r="IR10" s="23"/>
       <c r="IS10" s="24"/>
+      <c r="IT10" s="23"/>
+      <c r="IU10" s="23"/>
+      <c r="IV10" s="23"/>
+      <c r="IW10" s="23"/>
+      <c r="IX10" s="23"/>
+      <c r="IY10" s="23"/>
+      <c r="IZ10" s="24"/>
+      <c r="JA10" s="23"/>
+      <c r="JB10" s="23"/>
+      <c r="JC10" s="23"/>
+      <c r="JD10" s="23"/>
+      <c r="JE10" s="23"/>
+      <c r="JF10" s="23"/>
+      <c r="JG10" s="24"/>
+      <c r="JH10" s="23"/>
+      <c r="JI10" s="23"/>
+      <c r="JJ10" s="23"/>
+      <c r="JK10" s="23"/>
+      <c r="JL10" s="23"/>
+      <c r="JM10" s="23"/>
+      <c r="JN10" s="24"/>
     </row>
-    <row r="11" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="65" t="s">
+      <c r="B11" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="65"/>
+      <c r="C11" s="63"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -6238,7 +7805,7 @@
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>15</v>
       </c>
       <c r="I11" s="23"/>
@@ -6486,13 +8053,34 @@
       <c r="IQ11" s="23"/>
       <c r="IR11" s="23"/>
       <c r="IS11" s="24"/>
+      <c r="IT11" s="23"/>
+      <c r="IU11" s="23"/>
+      <c r="IV11" s="23"/>
+      <c r="IW11" s="23"/>
+      <c r="IX11" s="23"/>
+      <c r="IY11" s="23"/>
+      <c r="IZ11" s="24"/>
+      <c r="JA11" s="23"/>
+      <c r="JB11" s="23"/>
+      <c r="JC11" s="23"/>
+      <c r="JD11" s="23"/>
+      <c r="JE11" s="23"/>
+      <c r="JF11" s="23"/>
+      <c r="JG11" s="24"/>
+      <c r="JH11" s="23"/>
+      <c r="JI11" s="23"/>
+      <c r="JJ11" s="23"/>
+      <c r="JK11" s="23"/>
+      <c r="JL11" s="23"/>
+      <c r="JM11" s="23"/>
+      <c r="JN11" s="24"/>
     </row>
-    <row r="12" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="59" t="s">
+      <c r="B12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="59"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -6504,7 +8092,7 @@
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>6</v>
       </c>
       <c r="I12" s="23"/>
@@ -6752,13 +8340,34 @@
       <c r="IQ12" s="23"/>
       <c r="IR12" s="23"/>
       <c r="IS12" s="24"/>
+      <c r="IT12" s="23"/>
+      <c r="IU12" s="23"/>
+      <c r="IV12" s="23"/>
+      <c r="IW12" s="23"/>
+      <c r="IX12" s="23"/>
+      <c r="IY12" s="23"/>
+      <c r="IZ12" s="24"/>
+      <c r="JA12" s="23"/>
+      <c r="JB12" s="23"/>
+      <c r="JC12" s="23"/>
+      <c r="JD12" s="23"/>
+      <c r="JE12" s="23"/>
+      <c r="JF12" s="23"/>
+      <c r="JG12" s="24"/>
+      <c r="JH12" s="23"/>
+      <c r="JI12" s="23"/>
+      <c r="JJ12" s="23"/>
+      <c r="JK12" s="23"/>
+      <c r="JL12" s="23"/>
+      <c r="JM12" s="23"/>
+      <c r="JN12" s="24"/>
     </row>
-    <row r="13" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="59"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -6770,7 +8379,7 @@
       </c>
       <c r="G13" s="28"/>
       <c r="H13" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>7</v>
       </c>
       <c r="I13" s="23"/>
@@ -7018,13 +8627,34 @@
       <c r="IQ13" s="23"/>
       <c r="IR13" s="23"/>
       <c r="IS13" s="24"/>
+      <c r="IT13" s="23"/>
+      <c r="IU13" s="23"/>
+      <c r="IV13" s="23"/>
+      <c r="IW13" s="23"/>
+      <c r="IX13" s="23"/>
+      <c r="IY13" s="23"/>
+      <c r="IZ13" s="24"/>
+      <c r="JA13" s="23"/>
+      <c r="JB13" s="23"/>
+      <c r="JC13" s="23"/>
+      <c r="JD13" s="23"/>
+      <c r="JE13" s="23"/>
+      <c r="JF13" s="23"/>
+      <c r="JG13" s="24"/>
+      <c r="JH13" s="23"/>
+      <c r="JI13" s="23"/>
+      <c r="JJ13" s="23"/>
+      <c r="JK13" s="23"/>
+      <c r="JL13" s="23"/>
+      <c r="JM13" s="23"/>
+      <c r="JN13" s="24"/>
     </row>
-    <row r="14" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="59"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -7280,21 +8910,42 @@
       <c r="IQ14" s="23"/>
       <c r="IR14" s="23"/>
       <c r="IS14" s="24"/>
+      <c r="IT14" s="23"/>
+      <c r="IU14" s="23"/>
+      <c r="IV14" s="23"/>
+      <c r="IW14" s="23"/>
+      <c r="IX14" s="23"/>
+      <c r="IY14" s="23"/>
+      <c r="IZ14" s="24"/>
+      <c r="JA14" s="23"/>
+      <c r="JB14" s="23"/>
+      <c r="JC14" s="23"/>
+      <c r="JD14" s="23"/>
+      <c r="JE14" s="23"/>
+      <c r="JF14" s="23"/>
+      <c r="JG14" s="24"/>
+      <c r="JH14" s="23"/>
+      <c r="JI14" s="23"/>
+      <c r="JJ14" s="23"/>
+      <c r="JK14" s="23"/>
+      <c r="JL14" s="23"/>
+      <c r="JM14" s="23"/>
+      <c r="JN14" s="24"/>
     </row>
-    <row r="15" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="62"/>
+      <c r="C15" s="72"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="I15" s="23"/>
@@ -7542,13 +9193,34 @@
       <c r="IQ15" s="23"/>
       <c r="IR15" s="23"/>
       <c r="IS15" s="24"/>
+      <c r="IT15" s="23"/>
+      <c r="IU15" s="23"/>
+      <c r="IV15" s="23"/>
+      <c r="IW15" s="23"/>
+      <c r="IX15" s="23"/>
+      <c r="IY15" s="23"/>
+      <c r="IZ15" s="24"/>
+      <c r="JA15" s="23"/>
+      <c r="JB15" s="23"/>
+      <c r="JC15" s="23"/>
+      <c r="JD15" s="23"/>
+      <c r="JE15" s="23"/>
+      <c r="JF15" s="23"/>
+      <c r="JG15" s="24"/>
+      <c r="JH15" s="23"/>
+      <c r="JI15" s="23"/>
+      <c r="JJ15" s="23"/>
+      <c r="JK15" s="23"/>
+      <c r="JL15" s="23"/>
+      <c r="JM15" s="23"/>
+      <c r="JN15" s="24"/>
     </row>
-    <row r="16" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="73"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -7560,7 +9232,7 @@
       </c>
       <c r="G16" s="28"/>
       <c r="H16" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>71</v>
       </c>
       <c r="I16" s="23"/>
@@ -7808,13 +9480,34 @@
       <c r="IQ16" s="23"/>
       <c r="IR16" s="23"/>
       <c r="IS16" s="24"/>
+      <c r="IT16" s="23"/>
+      <c r="IU16" s="23"/>
+      <c r="IV16" s="23"/>
+      <c r="IW16" s="23"/>
+      <c r="IX16" s="23"/>
+      <c r="IY16" s="23"/>
+      <c r="IZ16" s="24"/>
+      <c r="JA16" s="23"/>
+      <c r="JB16" s="23"/>
+      <c r="JC16" s="23"/>
+      <c r="JD16" s="23"/>
+      <c r="JE16" s="23"/>
+      <c r="JF16" s="23"/>
+      <c r="JG16" s="24"/>
+      <c r="JH16" s="23"/>
+      <c r="JI16" s="23"/>
+      <c r="JJ16" s="23"/>
+      <c r="JK16" s="23"/>
+      <c r="JL16" s="23"/>
+      <c r="JM16" s="23"/>
+      <c r="JN16" s="24"/>
     </row>
-    <row r="17" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="73"/>
+      <c r="C17" s="55"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8071,13 +9764,34 @@
       <c r="IQ17" s="23"/>
       <c r="IR17" s="23"/>
       <c r="IS17" s="24"/>
+      <c r="IT17" s="23"/>
+      <c r="IU17" s="23"/>
+      <c r="IV17" s="23"/>
+      <c r="IW17" s="23"/>
+      <c r="IX17" s="23"/>
+      <c r="IY17" s="23"/>
+      <c r="IZ17" s="24"/>
+      <c r="JA17" s="23"/>
+      <c r="JB17" s="23"/>
+      <c r="JC17" s="23"/>
+      <c r="JD17" s="23"/>
+      <c r="JE17" s="23"/>
+      <c r="JF17" s="23"/>
+      <c r="JG17" s="24"/>
+      <c r="JH17" s="23"/>
+      <c r="JI17" s="23"/>
+      <c r="JJ17" s="23"/>
+      <c r="JK17" s="23"/>
+      <c r="JL17" s="23"/>
+      <c r="JM17" s="23"/>
+      <c r="JN17" s="24"/>
     </row>
-    <row r="18" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="73"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8334,13 +10048,34 @@
       <c r="IQ18" s="23"/>
       <c r="IR18" s="23"/>
       <c r="IS18" s="24"/>
+      <c r="IT18" s="23"/>
+      <c r="IU18" s="23"/>
+      <c r="IV18" s="23"/>
+      <c r="IW18" s="23"/>
+      <c r="IX18" s="23"/>
+      <c r="IY18" s="23"/>
+      <c r="IZ18" s="24"/>
+      <c r="JA18" s="23"/>
+      <c r="JB18" s="23"/>
+      <c r="JC18" s="23"/>
+      <c r="JD18" s="23"/>
+      <c r="JE18" s="23"/>
+      <c r="JF18" s="23"/>
+      <c r="JG18" s="24"/>
+      <c r="JH18" s="23"/>
+      <c r="JI18" s="23"/>
+      <c r="JJ18" s="23"/>
+      <c r="JK18" s="23"/>
+      <c r="JL18" s="23"/>
+      <c r="JM18" s="23"/>
+      <c r="JN18" s="24"/>
     </row>
-    <row r="19" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="73"/>
+      <c r="C19" s="55"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -8352,7 +10087,7 @@
       </c>
       <c r="G19" s="28"/>
       <c r="H19" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>76</v>
       </c>
       <c r="I19" s="23"/>
@@ -8600,13 +10335,34 @@
       <c r="IQ19" s="23"/>
       <c r="IR19" s="23"/>
       <c r="IS19" s="24"/>
+      <c r="IT19" s="23"/>
+      <c r="IU19" s="23"/>
+      <c r="IV19" s="23"/>
+      <c r="IW19" s="23"/>
+      <c r="IX19" s="23"/>
+      <c r="IY19" s="23"/>
+      <c r="IZ19" s="24"/>
+      <c r="JA19" s="23"/>
+      <c r="JB19" s="23"/>
+      <c r="JC19" s="23"/>
+      <c r="JD19" s="23"/>
+      <c r="JE19" s="23"/>
+      <c r="JF19" s="23"/>
+      <c r="JG19" s="24"/>
+      <c r="JH19" s="23"/>
+      <c r="JI19" s="23"/>
+      <c r="JJ19" s="23"/>
+      <c r="JK19" s="23"/>
+      <c r="JL19" s="23"/>
+      <c r="JM19" s="23"/>
+      <c r="JN19" s="24"/>
     </row>
-    <row r="20" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="73"/>
+      <c r="C20" s="55"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -8618,7 +10374,7 @@
       </c>
       <c r="G20" s="28"/>
       <c r="H20" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>75</v>
       </c>
       <c r="I20" s="23"/>
@@ -8866,13 +10622,34 @@
       <c r="IQ20" s="23"/>
       <c r="IR20" s="23"/>
       <c r="IS20" s="24"/>
+      <c r="IT20" s="23"/>
+      <c r="IU20" s="23"/>
+      <c r="IV20" s="23"/>
+      <c r="IW20" s="23"/>
+      <c r="IX20" s="23"/>
+      <c r="IY20" s="23"/>
+      <c r="IZ20" s="24"/>
+      <c r="JA20" s="23"/>
+      <c r="JB20" s="23"/>
+      <c r="JC20" s="23"/>
+      <c r="JD20" s="23"/>
+      <c r="JE20" s="23"/>
+      <c r="JF20" s="23"/>
+      <c r="JG20" s="24"/>
+      <c r="JH20" s="23"/>
+      <c r="JI20" s="23"/>
+      <c r="JJ20" s="23"/>
+      <c r="JK20" s="23"/>
+      <c r="JL20" s="23"/>
+      <c r="JM20" s="23"/>
+      <c r="JN20" s="24"/>
     </row>
-    <row r="21" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="73"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9129,13 +10906,34 @@
       <c r="IQ21" s="23"/>
       <c r="IR21" s="23"/>
       <c r="IS21" s="24"/>
+      <c r="IT21" s="23"/>
+      <c r="IU21" s="23"/>
+      <c r="IV21" s="23"/>
+      <c r="IW21" s="23"/>
+      <c r="IX21" s="23"/>
+      <c r="IY21" s="23"/>
+      <c r="IZ21" s="24"/>
+      <c r="JA21" s="23"/>
+      <c r="JB21" s="23"/>
+      <c r="JC21" s="23"/>
+      <c r="JD21" s="23"/>
+      <c r="JE21" s="23"/>
+      <c r="JF21" s="23"/>
+      <c r="JG21" s="24"/>
+      <c r="JH21" s="23"/>
+      <c r="JI21" s="23"/>
+      <c r="JJ21" s="23"/>
+      <c r="JK21" s="23"/>
+      <c r="JL21" s="23"/>
+      <c r="JM21" s="23"/>
+      <c r="JN21" s="24"/>
     </row>
-    <row r="22" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="73"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -9392,13 +11190,34 @@
       <c r="IQ22" s="23"/>
       <c r="IR22" s="23"/>
       <c r="IS22" s="24"/>
+      <c r="IT22" s="23"/>
+      <c r="IU22" s="23"/>
+      <c r="IV22" s="23"/>
+      <c r="IW22" s="23"/>
+      <c r="IX22" s="23"/>
+      <c r="IY22" s="23"/>
+      <c r="IZ22" s="24"/>
+      <c r="JA22" s="23"/>
+      <c r="JB22" s="23"/>
+      <c r="JC22" s="23"/>
+      <c r="JD22" s="23"/>
+      <c r="JE22" s="23"/>
+      <c r="JF22" s="23"/>
+      <c r="JG22" s="24"/>
+      <c r="JH22" s="23"/>
+      <c r="JI22" s="23"/>
+      <c r="JJ22" s="23"/>
+      <c r="JK22" s="23"/>
+      <c r="JL22" s="23"/>
+      <c r="JM22" s="23"/>
+      <c r="JN22" s="24"/>
     </row>
-    <row r="23" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="73" t="s">
+      <c r="B23" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="73"/>
+      <c r="C23" s="55"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -9410,7 +11229,7 @@
       </c>
       <c r="G23" s="28"/>
       <c r="H23" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>78</v>
       </c>
       <c r="I23" s="23"/>
@@ -9658,21 +11477,42 @@
       <c r="IQ23" s="23"/>
       <c r="IR23" s="23"/>
       <c r="IS23" s="24"/>
+      <c r="IT23" s="23"/>
+      <c r="IU23" s="23"/>
+      <c r="IV23" s="23"/>
+      <c r="IW23" s="23"/>
+      <c r="IX23" s="23"/>
+      <c r="IY23" s="23"/>
+      <c r="IZ23" s="24"/>
+      <c r="JA23" s="23"/>
+      <c r="JB23" s="23"/>
+      <c r="JC23" s="23"/>
+      <c r="JD23" s="23"/>
+      <c r="JE23" s="23"/>
+      <c r="JF23" s="23"/>
+      <c r="JG23" s="24"/>
+      <c r="JH23" s="23"/>
+      <c r="JI23" s="23"/>
+      <c r="JJ23" s="23"/>
+      <c r="JK23" s="23"/>
+      <c r="JL23" s="23"/>
+      <c r="JM23" s="23"/>
+      <c r="JN23" s="24"/>
     </row>
-    <row r="24" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="63" t="s">
+      <c r="B24" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="63"/>
+      <c r="C24" s="73"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="I24" s="23"/>
@@ -9920,13 +11760,34 @@
       <c r="IQ24" s="23"/>
       <c r="IR24" s="23"/>
       <c r="IS24" s="24"/>
+      <c r="IT24" s="23"/>
+      <c r="IU24" s="23"/>
+      <c r="IV24" s="23"/>
+      <c r="IW24" s="23"/>
+      <c r="IX24" s="23"/>
+      <c r="IY24" s="23"/>
+      <c r="IZ24" s="24"/>
+      <c r="JA24" s="23"/>
+      <c r="JB24" s="23"/>
+      <c r="JC24" s="23"/>
+      <c r="JD24" s="23"/>
+      <c r="JE24" s="23"/>
+      <c r="JF24" s="23"/>
+      <c r="JG24" s="24"/>
+      <c r="JH24" s="23"/>
+      <c r="JI24" s="23"/>
+      <c r="JJ24" s="23"/>
+      <c r="JK24" s="23"/>
+      <c r="JL24" s="23"/>
+      <c r="JM24" s="23"/>
+      <c r="JN24" s="24"/>
     </row>
-    <row r="25" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="61"/>
+      <c r="C25" s="54"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -9938,7 +11799,7 @@
       </c>
       <c r="G25" s="28"/>
       <c r="H25" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>79</v>
       </c>
       <c r="I25" s="23"/>
@@ -10186,13 +12047,34 @@
       <c r="IQ25" s="23"/>
       <c r="IR25" s="23"/>
       <c r="IS25" s="24"/>
+      <c r="IT25" s="23"/>
+      <c r="IU25" s="23"/>
+      <c r="IV25" s="23"/>
+      <c r="IW25" s="23"/>
+      <c r="IX25" s="23"/>
+      <c r="IY25" s="23"/>
+      <c r="IZ25" s="24"/>
+      <c r="JA25" s="23"/>
+      <c r="JB25" s="23"/>
+      <c r="JC25" s="23"/>
+      <c r="JD25" s="23"/>
+      <c r="JE25" s="23"/>
+      <c r="JF25" s="23"/>
+      <c r="JG25" s="24"/>
+      <c r="JH25" s="23"/>
+      <c r="JI25" s="23"/>
+      <c r="JJ25" s="23"/>
+      <c r="JK25" s="23"/>
+      <c r="JL25" s="23"/>
+      <c r="JM25" s="23"/>
+      <c r="JN25" s="24"/>
     </row>
-    <row r="26" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="61"/>
+      <c r="C26" s="54"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -10449,13 +12331,34 @@
       <c r="IQ26" s="23"/>
       <c r="IR26" s="23"/>
       <c r="IS26" s="24"/>
+      <c r="IT26" s="23"/>
+      <c r="IU26" s="23"/>
+      <c r="IV26" s="23"/>
+      <c r="IW26" s="23"/>
+      <c r="IX26" s="23"/>
+      <c r="IY26" s="23"/>
+      <c r="IZ26" s="24"/>
+      <c r="JA26" s="23"/>
+      <c r="JB26" s="23"/>
+      <c r="JC26" s="23"/>
+      <c r="JD26" s="23"/>
+      <c r="JE26" s="23"/>
+      <c r="JF26" s="23"/>
+      <c r="JG26" s="24"/>
+      <c r="JH26" s="23"/>
+      <c r="JI26" s="23"/>
+      <c r="JJ26" s="23"/>
+      <c r="JK26" s="23"/>
+      <c r="JL26" s="23"/>
+      <c r="JM26" s="23"/>
+      <c r="JN26" s="24"/>
     </row>
-    <row r="27" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="61"/>
+      <c r="C27" s="54"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -10712,13 +12615,34 @@
       <c r="IQ27" s="23"/>
       <c r="IR27" s="23"/>
       <c r="IS27" s="24"/>
+      <c r="IT27" s="23"/>
+      <c r="IU27" s="23"/>
+      <c r="IV27" s="23"/>
+      <c r="IW27" s="23"/>
+      <c r="IX27" s="23"/>
+      <c r="IY27" s="23"/>
+      <c r="IZ27" s="24"/>
+      <c r="JA27" s="23"/>
+      <c r="JB27" s="23"/>
+      <c r="JC27" s="23"/>
+      <c r="JD27" s="23"/>
+      <c r="JE27" s="23"/>
+      <c r="JF27" s="23"/>
+      <c r="JG27" s="24"/>
+      <c r="JH27" s="23"/>
+      <c r="JI27" s="23"/>
+      <c r="JJ27" s="23"/>
+      <c r="JK27" s="23"/>
+      <c r="JL27" s="23"/>
+      <c r="JM27" s="23"/>
+      <c r="JN27" s="24"/>
     </row>
-    <row r="28" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="61"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -10730,7 +12654,7 @@
       </c>
       <c r="G28" s="28"/>
       <c r="H28" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>75</v>
       </c>
       <c r="I28" s="23"/>
@@ -10978,13 +12902,34 @@
       <c r="IQ28" s="23"/>
       <c r="IR28" s="23"/>
       <c r="IS28" s="24"/>
+      <c r="IT28" s="23"/>
+      <c r="IU28" s="23"/>
+      <c r="IV28" s="23"/>
+      <c r="IW28" s="23"/>
+      <c r="IX28" s="23"/>
+      <c r="IY28" s="23"/>
+      <c r="IZ28" s="24"/>
+      <c r="JA28" s="23"/>
+      <c r="JB28" s="23"/>
+      <c r="JC28" s="23"/>
+      <c r="JD28" s="23"/>
+      <c r="JE28" s="23"/>
+      <c r="JF28" s="23"/>
+      <c r="JG28" s="24"/>
+      <c r="JH28" s="23"/>
+      <c r="JI28" s="23"/>
+      <c r="JJ28" s="23"/>
+      <c r="JK28" s="23"/>
+      <c r="JL28" s="23"/>
+      <c r="JM28" s="23"/>
+      <c r="JN28" s="24"/>
     </row>
-    <row r="29" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="54" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="61"/>
+      <c r="C29" s="54"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -10996,7 +12941,7 @@
       </c>
       <c r="G29" s="28"/>
       <c r="H29" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>6</v>
       </c>
       <c r="I29" s="23"/>
@@ -11244,13 +13189,34 @@
       <c r="IQ29" s="23"/>
       <c r="IR29" s="23"/>
       <c r="IS29" s="24"/>
+      <c r="IT29" s="23"/>
+      <c r="IU29" s="23"/>
+      <c r="IV29" s="23"/>
+      <c r="IW29" s="23"/>
+      <c r="IX29" s="23"/>
+      <c r="IY29" s="23"/>
+      <c r="IZ29" s="24"/>
+      <c r="JA29" s="23"/>
+      <c r="JB29" s="23"/>
+      <c r="JC29" s="23"/>
+      <c r="JD29" s="23"/>
+      <c r="JE29" s="23"/>
+      <c r="JF29" s="23"/>
+      <c r="JG29" s="24"/>
+      <c r="JH29" s="23"/>
+      <c r="JI29" s="23"/>
+      <c r="JJ29" s="23"/>
+      <c r="JK29" s="23"/>
+      <c r="JL29" s="23"/>
+      <c r="JM29" s="23"/>
+      <c r="JN29" s="24"/>
     </row>
-    <row r="30" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="61"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -11262,7 +13228,7 @@
       </c>
       <c r="G30" s="28"/>
       <c r="H30" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>86</v>
       </c>
       <c r="I30" s="23"/>
@@ -11510,13 +13476,34 @@
       <c r="IQ30" s="23"/>
       <c r="IR30" s="23"/>
       <c r="IS30" s="24"/>
+      <c r="IT30" s="23"/>
+      <c r="IU30" s="23"/>
+      <c r="IV30" s="23"/>
+      <c r="IW30" s="23"/>
+      <c r="IX30" s="23"/>
+      <c r="IY30" s="23"/>
+      <c r="IZ30" s="24"/>
+      <c r="JA30" s="23"/>
+      <c r="JB30" s="23"/>
+      <c r="JC30" s="23"/>
+      <c r="JD30" s="23"/>
+      <c r="JE30" s="23"/>
+      <c r="JF30" s="23"/>
+      <c r="JG30" s="24"/>
+      <c r="JH30" s="23"/>
+      <c r="JI30" s="23"/>
+      <c r="JJ30" s="23"/>
+      <c r="JK30" s="23"/>
+      <c r="JL30" s="23"/>
+      <c r="JM30" s="23"/>
+      <c r="JN30" s="24"/>
     </row>
-    <row r="31" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="61"/>
+      <c r="C31" s="54"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -11528,7 +13515,7 @@
       </c>
       <c r="G31" s="28"/>
       <c r="H31" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>84</v>
       </c>
       <c r="I31" s="23"/>
@@ -11776,13 +13763,34 @@
       <c r="IQ31" s="23"/>
       <c r="IR31" s="23"/>
       <c r="IS31" s="24"/>
+      <c r="IT31" s="23"/>
+      <c r="IU31" s="23"/>
+      <c r="IV31" s="23"/>
+      <c r="IW31" s="23"/>
+      <c r="IX31" s="23"/>
+      <c r="IY31" s="23"/>
+      <c r="IZ31" s="24"/>
+      <c r="JA31" s="23"/>
+      <c r="JB31" s="23"/>
+      <c r="JC31" s="23"/>
+      <c r="JD31" s="23"/>
+      <c r="JE31" s="23"/>
+      <c r="JF31" s="23"/>
+      <c r="JG31" s="24"/>
+      <c r="JH31" s="23"/>
+      <c r="JI31" s="23"/>
+      <c r="JJ31" s="23"/>
+      <c r="JK31" s="23"/>
+      <c r="JL31" s="23"/>
+      <c r="JM31" s="23"/>
+      <c r="JN31" s="24"/>
     </row>
-    <row r="32" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="61"/>
+      <c r="C32" s="54"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -11794,7 +13802,7 @@
       </c>
       <c r="G32" s="28"/>
       <c r="H32" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>80</v>
       </c>
       <c r="I32" s="23"/>
@@ -12042,13 +14050,34 @@
       <c r="IQ32" s="23"/>
       <c r="IR32" s="23"/>
       <c r="IS32" s="24"/>
+      <c r="IT32" s="23"/>
+      <c r="IU32" s="23"/>
+      <c r="IV32" s="23"/>
+      <c r="IW32" s="23"/>
+      <c r="IX32" s="23"/>
+      <c r="IY32" s="23"/>
+      <c r="IZ32" s="24"/>
+      <c r="JA32" s="23"/>
+      <c r="JB32" s="23"/>
+      <c r="JC32" s="23"/>
+      <c r="JD32" s="23"/>
+      <c r="JE32" s="23"/>
+      <c r="JF32" s="23"/>
+      <c r="JG32" s="24"/>
+      <c r="JH32" s="23"/>
+      <c r="JI32" s="23"/>
+      <c r="JJ32" s="23"/>
+      <c r="JK32" s="23"/>
+      <c r="JL32" s="23"/>
+      <c r="JM32" s="23"/>
+      <c r="JN32" s="24"/>
     </row>
-    <row r="33" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="61"/>
+      <c r="C33" s="54"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -12305,13 +14334,34 @@
       <c r="IQ33" s="23"/>
       <c r="IR33" s="23"/>
       <c r="IS33" s="24"/>
+      <c r="IT33" s="23"/>
+      <c r="IU33" s="23"/>
+      <c r="IV33" s="23"/>
+      <c r="IW33" s="23"/>
+      <c r="IX33" s="23"/>
+      <c r="IY33" s="23"/>
+      <c r="IZ33" s="24"/>
+      <c r="JA33" s="23"/>
+      <c r="JB33" s="23"/>
+      <c r="JC33" s="23"/>
+      <c r="JD33" s="23"/>
+      <c r="JE33" s="23"/>
+      <c r="JF33" s="23"/>
+      <c r="JG33" s="24"/>
+      <c r="JH33" s="23"/>
+      <c r="JI33" s="23"/>
+      <c r="JJ33" s="23"/>
+      <c r="JK33" s="23"/>
+      <c r="JL33" s="23"/>
+      <c r="JM33" s="23"/>
+      <c r="JN33" s="24"/>
     </row>
-    <row r="34" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="54" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="61"/>
+      <c r="C34" s="54"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -12568,13 +14618,34 @@
       <c r="IQ34" s="23"/>
       <c r="IR34" s="23"/>
       <c r="IS34" s="24"/>
+      <c r="IT34" s="23"/>
+      <c r="IU34" s="23"/>
+      <c r="IV34" s="23"/>
+      <c r="IW34" s="23"/>
+      <c r="IX34" s="23"/>
+      <c r="IY34" s="23"/>
+      <c r="IZ34" s="24"/>
+      <c r="JA34" s="23"/>
+      <c r="JB34" s="23"/>
+      <c r="JC34" s="23"/>
+      <c r="JD34" s="23"/>
+      <c r="JE34" s="23"/>
+      <c r="JF34" s="23"/>
+      <c r="JG34" s="24"/>
+      <c r="JH34" s="23"/>
+      <c r="JI34" s="23"/>
+      <c r="JJ34" s="23"/>
+      <c r="JK34" s="23"/>
+      <c r="JL34" s="23"/>
+      <c r="JM34" s="23"/>
+      <c r="JN34" s="24"/>
     </row>
-    <row r="35" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="61"/>
+      <c r="C35" s="54"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -12586,7 +14657,7 @@
       </c>
       <c r="G35" s="28"/>
       <c r="H35" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>82</v>
       </c>
       <c r="I35" s="23"/>
@@ -12834,13 +14905,34 @@
       <c r="IQ35" s="23"/>
       <c r="IR35" s="23"/>
       <c r="IS35" s="24"/>
+      <c r="IT35" s="23"/>
+      <c r="IU35" s="23"/>
+      <c r="IV35" s="23"/>
+      <c r="IW35" s="23"/>
+      <c r="IX35" s="23"/>
+      <c r="IY35" s="23"/>
+      <c r="IZ35" s="24"/>
+      <c r="JA35" s="23"/>
+      <c r="JB35" s="23"/>
+      <c r="JC35" s="23"/>
+      <c r="JD35" s="23"/>
+      <c r="JE35" s="23"/>
+      <c r="JF35" s="23"/>
+      <c r="JG35" s="24"/>
+      <c r="JH35" s="23"/>
+      <c r="JI35" s="23"/>
+      <c r="JJ35" s="23"/>
+      <c r="JK35" s="23"/>
+      <c r="JL35" s="23"/>
+      <c r="JM35" s="23"/>
+      <c r="JN35" s="24"/>
     </row>
-    <row r="36" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="54"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -12852,7 +14944,7 @@
       </c>
       <c r="G36" s="28"/>
       <c r="H36" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>99</v>
       </c>
       <c r="I36" s="23"/>
@@ -13100,21 +15192,42 @@
       <c r="IQ36" s="23"/>
       <c r="IR36" s="23"/>
       <c r="IS36" s="24"/>
+      <c r="IT36" s="23"/>
+      <c r="IU36" s="23"/>
+      <c r="IV36" s="23"/>
+      <c r="IW36" s="23"/>
+      <c r="IX36" s="23"/>
+      <c r="IY36" s="23"/>
+      <c r="IZ36" s="24"/>
+      <c r="JA36" s="23"/>
+      <c r="JB36" s="23"/>
+      <c r="JC36" s="23"/>
+      <c r="JD36" s="23"/>
+      <c r="JE36" s="23"/>
+      <c r="JF36" s="23"/>
+      <c r="JG36" s="24"/>
+      <c r="JH36" s="23"/>
+      <c r="JI36" s="23"/>
+      <c r="JJ36" s="23"/>
+      <c r="JK36" s="23"/>
+      <c r="JL36" s="23"/>
+      <c r="JM36" s="23"/>
+      <c r="JN36" s="24"/>
     </row>
-    <row r="37" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="74"/>
+      <c r="C37" s="57"/>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="I37" s="23"/>
@@ -13362,13 +15475,34 @@
       <c r="IQ37" s="23"/>
       <c r="IR37" s="23"/>
       <c r="IS37" s="24"/>
+      <c r="IT37" s="23"/>
+      <c r="IU37" s="23"/>
+      <c r="IV37" s="23"/>
+      <c r="IW37" s="23"/>
+      <c r="IX37" s="23"/>
+      <c r="IY37" s="23"/>
+      <c r="IZ37" s="24"/>
+      <c r="JA37" s="23"/>
+      <c r="JB37" s="23"/>
+      <c r="JC37" s="23"/>
+      <c r="JD37" s="23"/>
+      <c r="JE37" s="23"/>
+      <c r="JF37" s="23"/>
+      <c r="JG37" s="24"/>
+      <c r="JH37" s="23"/>
+      <c r="JI37" s="23"/>
+      <c r="JJ37" s="23"/>
+      <c r="JK37" s="23"/>
+      <c r="JL37" s="23"/>
+      <c r="JM37" s="23"/>
+      <c r="JN37" s="24"/>
     </row>
-    <row r="38" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="60" t="s">
+      <c r="B38" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="60"/>
+      <c r="C38" s="56"/>
       <c r="D38" s="45">
         <v>1</v>
       </c>
@@ -13380,7 +15514,7 @@
       </c>
       <c r="G38" s="28"/>
       <c r="H38" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>86</v>
       </c>
       <c r="I38" s="23"/>
@@ -13628,13 +15762,34 @@
       <c r="IQ38" s="23"/>
       <c r="IR38" s="23"/>
       <c r="IS38" s="24"/>
+      <c r="IT38" s="23"/>
+      <c r="IU38" s="23"/>
+      <c r="IV38" s="23"/>
+      <c r="IW38" s="23"/>
+      <c r="IX38" s="23"/>
+      <c r="IY38" s="23"/>
+      <c r="IZ38" s="24"/>
+      <c r="JA38" s="23"/>
+      <c r="JB38" s="23"/>
+      <c r="JC38" s="23"/>
+      <c r="JD38" s="23"/>
+      <c r="JE38" s="23"/>
+      <c r="JF38" s="23"/>
+      <c r="JG38" s="24"/>
+      <c r="JH38" s="23"/>
+      <c r="JI38" s="23"/>
+      <c r="JJ38" s="23"/>
+      <c r="JK38" s="23"/>
+      <c r="JL38" s="23"/>
+      <c r="JM38" s="23"/>
+      <c r="JN38" s="24"/>
     </row>
-    <row r="39" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="60" t="s">
+      <c r="B39" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="60"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="45">
         <v>1</v>
       </c>
@@ -13646,7 +15801,7 @@
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>87</v>
       </c>
       <c r="I39" s="23"/>
@@ -13894,13 +16049,34 @@
       <c r="IQ39" s="23"/>
       <c r="IR39" s="23"/>
       <c r="IS39" s="24"/>
+      <c r="IT39" s="23"/>
+      <c r="IU39" s="23"/>
+      <c r="IV39" s="23"/>
+      <c r="IW39" s="23"/>
+      <c r="IX39" s="23"/>
+      <c r="IY39" s="23"/>
+      <c r="IZ39" s="24"/>
+      <c r="JA39" s="23"/>
+      <c r="JB39" s="23"/>
+      <c r="JC39" s="23"/>
+      <c r="JD39" s="23"/>
+      <c r="JE39" s="23"/>
+      <c r="JF39" s="23"/>
+      <c r="JG39" s="24"/>
+      <c r="JH39" s="23"/>
+      <c r="JI39" s="23"/>
+      <c r="JJ39" s="23"/>
+      <c r="JK39" s="23"/>
+      <c r="JL39" s="23"/>
+      <c r="JM39" s="23"/>
+      <c r="JN39" s="24"/>
     </row>
-    <row r="40" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="60" t="s">
+      <c r="B40" s="56" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="60"/>
+      <c r="C40" s="56"/>
       <c r="D40" s="45">
         <v>1</v>
       </c>
@@ -13912,7 +16088,7 @@
       </c>
       <c r="G40" s="28"/>
       <c r="H40" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>83</v>
       </c>
       <c r="I40" s="23"/>
@@ -14160,13 +16336,34 @@
       <c r="IQ40" s="23"/>
       <c r="IR40" s="23"/>
       <c r="IS40" s="24"/>
+      <c r="IT40" s="23"/>
+      <c r="IU40" s="23"/>
+      <c r="IV40" s="23"/>
+      <c r="IW40" s="23"/>
+      <c r="IX40" s="23"/>
+      <c r="IY40" s="23"/>
+      <c r="IZ40" s="24"/>
+      <c r="JA40" s="23"/>
+      <c r="JB40" s="23"/>
+      <c r="JC40" s="23"/>
+      <c r="JD40" s="23"/>
+      <c r="JE40" s="23"/>
+      <c r="JF40" s="23"/>
+      <c r="JG40" s="24"/>
+      <c r="JH40" s="23"/>
+      <c r="JI40" s="23"/>
+      <c r="JJ40" s="23"/>
+      <c r="JK40" s="23"/>
+      <c r="JL40" s="23"/>
+      <c r="JM40" s="23"/>
+      <c r="JN40" s="24"/>
     </row>
-    <row r="41" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="60" t="s">
+      <c r="B41" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="60"/>
+      <c r="C41" s="56"/>
       <c r="D41" s="45">
         <v>1</v>
       </c>
@@ -14423,13 +16620,34 @@
       <c r="IQ41" s="23"/>
       <c r="IR41" s="23"/>
       <c r="IS41" s="24"/>
+      <c r="IT41" s="23"/>
+      <c r="IU41" s="23"/>
+      <c r="IV41" s="23"/>
+      <c r="IW41" s="23"/>
+      <c r="IX41" s="23"/>
+      <c r="IY41" s="23"/>
+      <c r="IZ41" s="24"/>
+      <c r="JA41" s="23"/>
+      <c r="JB41" s="23"/>
+      <c r="JC41" s="23"/>
+      <c r="JD41" s="23"/>
+      <c r="JE41" s="23"/>
+      <c r="JF41" s="23"/>
+      <c r="JG41" s="24"/>
+      <c r="JH41" s="23"/>
+      <c r="JI41" s="23"/>
+      <c r="JJ41" s="23"/>
+      <c r="JK41" s="23"/>
+      <c r="JL41" s="23"/>
+      <c r="JM41" s="23"/>
+      <c r="JN41" s="24"/>
     </row>
-    <row r="42" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="60" t="s">
+      <c r="B42" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="60"/>
+      <c r="C42" s="56"/>
       <c r="D42" s="45">
         <v>1</v>
       </c>
@@ -14441,7 +16659,7 @@
       </c>
       <c r="G42" s="28"/>
       <c r="H42" s="28">
-        <f t="shared" si="196"/>
+        <f t="shared" si="218"/>
         <v>90</v>
       </c>
       <c r="I42" s="23"/>
@@ -14689,15 +16907,36 @@
       <c r="IQ42" s="23"/>
       <c r="IR42" s="23"/>
       <c r="IS42" s="24"/>
+      <c r="IT42" s="23"/>
+      <c r="IU42" s="23"/>
+      <c r="IV42" s="23"/>
+      <c r="IW42" s="23"/>
+      <c r="IX42" s="23"/>
+      <c r="IY42" s="23"/>
+      <c r="IZ42" s="24"/>
+      <c r="JA42" s="23"/>
+      <c r="JB42" s="23"/>
+      <c r="JC42" s="23"/>
+      <c r="JD42" s="23"/>
+      <c r="JE42" s="23"/>
+      <c r="JF42" s="23"/>
+      <c r="JG42" s="24"/>
+      <c r="JH42" s="23"/>
+      <c r="JI42" s="23"/>
+      <c r="JJ42" s="23"/>
+      <c r="JK42" s="23"/>
+      <c r="JL42" s="23"/>
+      <c r="JM42" s="23"/>
+      <c r="JN42" s="24"/>
     </row>
-    <row r="43" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="71" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="58"/>
+      <c r="C43" s="71"/>
       <c r="D43" s="49"/>
       <c r="E43" s="50"/>
       <c r="F43" s="51"/>
@@ -14950,13 +17189,34 @@
       <c r="IQ43" s="23"/>
       <c r="IR43" s="23"/>
       <c r="IS43" s="24"/>
+      <c r="IT43" s="23"/>
+      <c r="IU43" s="23"/>
+      <c r="IV43" s="23"/>
+      <c r="IW43" s="23"/>
+      <c r="IX43" s="23"/>
+      <c r="IY43" s="23"/>
+      <c r="IZ43" s="24"/>
+      <c r="JA43" s="23"/>
+      <c r="JB43" s="23"/>
+      <c r="JC43" s="23"/>
+      <c r="JD43" s="23"/>
+      <c r="JE43" s="23"/>
+      <c r="JF43" s="23"/>
+      <c r="JG43" s="24"/>
+      <c r="JH43" s="23"/>
+      <c r="JI43" s="23"/>
+      <c r="JJ43" s="23"/>
+      <c r="JK43" s="23"/>
+      <c r="JL43" s="23"/>
+      <c r="JM43" s="23"/>
+      <c r="JN43" s="24"/>
     </row>
-    <row r="44" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="57"/>
+      <c r="C44" s="70"/>
       <c r="D44" s="52">
         <v>1</v>
       </c>
@@ -15213,13 +17473,34 @@
       <c r="IQ44" s="23"/>
       <c r="IR44" s="23"/>
       <c r="IS44" s="24"/>
+      <c r="IT44" s="23"/>
+      <c r="IU44" s="23"/>
+      <c r="IV44" s="23"/>
+      <c r="IW44" s="23"/>
+      <c r="IX44" s="23"/>
+      <c r="IY44" s="23"/>
+      <c r="IZ44" s="24"/>
+      <c r="JA44" s="23"/>
+      <c r="JB44" s="23"/>
+      <c r="JC44" s="23"/>
+      <c r="JD44" s="23"/>
+      <c r="JE44" s="23"/>
+      <c r="JF44" s="23"/>
+      <c r="JG44" s="24"/>
+      <c r="JH44" s="23"/>
+      <c r="JI44" s="23"/>
+      <c r="JJ44" s="23"/>
+      <c r="JK44" s="23"/>
+      <c r="JL44" s="23"/>
+      <c r="JM44" s="23"/>
+      <c r="JN44" s="24"/>
     </row>
-    <row r="45" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="56" t="s">
+      <c r="B45" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="56"/>
+      <c r="C45" s="69"/>
       <c r="D45" s="52">
         <v>1</v>
       </c>
@@ -15478,13 +17759,34 @@
       <c r="IQ45" s="23"/>
       <c r="IR45" s="23"/>
       <c r="IS45" s="24"/>
+      <c r="IT45" s="23"/>
+      <c r="IU45" s="23"/>
+      <c r="IV45" s="23"/>
+      <c r="IW45" s="23"/>
+      <c r="IX45" s="23"/>
+      <c r="IY45" s="23"/>
+      <c r="IZ45" s="24"/>
+      <c r="JA45" s="23"/>
+      <c r="JB45" s="23"/>
+      <c r="JC45" s="23"/>
+      <c r="JD45" s="23"/>
+      <c r="JE45" s="23"/>
+      <c r="JF45" s="23"/>
+      <c r="JG45" s="24"/>
+      <c r="JH45" s="23"/>
+      <c r="JI45" s="23"/>
+      <c r="JJ45" s="23"/>
+      <c r="JK45" s="23"/>
+      <c r="JL45" s="23"/>
+      <c r="JM45" s="23"/>
+      <c r="JN45" s="24"/>
     </row>
-    <row r="46" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="69" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="56"/>
+      <c r="C46" s="69"/>
       <c r="D46" s="52">
         <v>1</v>
       </c>
@@ -15741,13 +18043,34 @@
       <c r="IQ46" s="23"/>
       <c r="IR46" s="23"/>
       <c r="IS46" s="24"/>
+      <c r="IT46" s="23"/>
+      <c r="IU46" s="23"/>
+      <c r="IV46" s="23"/>
+      <c r="IW46" s="23"/>
+      <c r="IX46" s="23"/>
+      <c r="IY46" s="23"/>
+      <c r="IZ46" s="24"/>
+      <c r="JA46" s="23"/>
+      <c r="JB46" s="23"/>
+      <c r="JC46" s="23"/>
+      <c r="JD46" s="23"/>
+      <c r="JE46" s="23"/>
+      <c r="JF46" s="23"/>
+      <c r="JG46" s="24"/>
+      <c r="JH46" s="23"/>
+      <c r="JI46" s="23"/>
+      <c r="JJ46" s="23"/>
+      <c r="JK46" s="23"/>
+      <c r="JL46" s="23"/>
+      <c r="JM46" s="23"/>
+      <c r="JN46" s="24"/>
     </row>
-    <row r="47" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="56" t="s">
+      <c r="B47" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="56"/>
+      <c r="C47" s="69"/>
       <c r="D47" s="52">
         <v>1</v>
       </c>
@@ -16004,13 +18327,34 @@
       <c r="IQ47" s="23"/>
       <c r="IR47" s="23"/>
       <c r="IS47" s="24"/>
+      <c r="IT47" s="23"/>
+      <c r="IU47" s="23"/>
+      <c r="IV47" s="23"/>
+      <c r="IW47" s="23"/>
+      <c r="IX47" s="23"/>
+      <c r="IY47" s="23"/>
+      <c r="IZ47" s="24"/>
+      <c r="JA47" s="23"/>
+      <c r="JB47" s="23"/>
+      <c r="JC47" s="23"/>
+      <c r="JD47" s="23"/>
+      <c r="JE47" s="23"/>
+      <c r="JF47" s="23"/>
+      <c r="JG47" s="24"/>
+      <c r="JH47" s="23"/>
+      <c r="JI47" s="23"/>
+      <c r="JJ47" s="23"/>
+      <c r="JK47" s="23"/>
+      <c r="JL47" s="23"/>
+      <c r="JM47" s="23"/>
+      <c r="JN47" s="24"/>
     </row>
-    <row r="48" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="69" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="56"/>
+      <c r="C48" s="69"/>
       <c r="D48" s="52">
         <v>1</v>
       </c>
@@ -16267,13 +18611,34 @@
       <c r="IQ48" s="23"/>
       <c r="IR48" s="23"/>
       <c r="IS48" s="24"/>
+      <c r="IT48" s="23"/>
+      <c r="IU48" s="23"/>
+      <c r="IV48" s="23"/>
+      <c r="IW48" s="23"/>
+      <c r="IX48" s="23"/>
+      <c r="IY48" s="23"/>
+      <c r="IZ48" s="24"/>
+      <c r="JA48" s="23"/>
+      <c r="JB48" s="23"/>
+      <c r="JC48" s="23"/>
+      <c r="JD48" s="23"/>
+      <c r="JE48" s="23"/>
+      <c r="JF48" s="23"/>
+      <c r="JG48" s="24"/>
+      <c r="JH48" s="23"/>
+      <c r="JI48" s="23"/>
+      <c r="JJ48" s="23"/>
+      <c r="JK48" s="23"/>
+      <c r="JL48" s="23"/>
+      <c r="JM48" s="23"/>
+      <c r="JN48" s="24"/>
     </row>
-    <row r="49" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="56" t="s">
+      <c r="B49" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="56"/>
+      <c r="C49" s="69"/>
       <c r="D49" s="52">
         <v>1</v>
       </c>
@@ -16530,13 +18895,34 @@
       <c r="IQ49" s="23"/>
       <c r="IR49" s="23"/>
       <c r="IS49" s="24"/>
+      <c r="IT49" s="23"/>
+      <c r="IU49" s="23"/>
+      <c r="IV49" s="23"/>
+      <c r="IW49" s="23"/>
+      <c r="IX49" s="23"/>
+      <c r="IY49" s="23"/>
+      <c r="IZ49" s="24"/>
+      <c r="JA49" s="23"/>
+      <c r="JB49" s="23"/>
+      <c r="JC49" s="23"/>
+      <c r="JD49" s="23"/>
+      <c r="JE49" s="23"/>
+      <c r="JF49" s="23"/>
+      <c r="JG49" s="24"/>
+      <c r="JH49" s="23"/>
+      <c r="JI49" s="23"/>
+      <c r="JJ49" s="23"/>
+      <c r="JK49" s="23"/>
+      <c r="JL49" s="23"/>
+      <c r="JM49" s="23"/>
+      <c r="JN49" s="24"/>
     </row>
-    <row r="50" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="56" t="s">
+      <c r="B50" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="56"/>
+      <c r="C50" s="69"/>
       <c r="D50" s="52">
         <v>1</v>
       </c>
@@ -16547,9 +18933,7 @@
         <v>45525</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="28">
-        <v>87</v>
-      </c>
+      <c r="H50" s="28"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -16795,24 +19179,47 @@
       <c r="IQ50" s="23"/>
       <c r="IR50" s="23"/>
       <c r="IS50" s="24"/>
+      <c r="IT50" s="23"/>
+      <c r="IU50" s="23"/>
+      <c r="IV50" s="23"/>
+      <c r="IW50" s="23"/>
+      <c r="IX50" s="23"/>
+      <c r="IY50" s="23"/>
+      <c r="IZ50" s="24"/>
+      <c r="JA50" s="23"/>
+      <c r="JB50" s="23"/>
+      <c r="JC50" s="23"/>
+      <c r="JD50" s="23"/>
+      <c r="JE50" s="23"/>
+      <c r="JF50" s="23"/>
+      <c r="JG50" s="24"/>
+      <c r="JH50" s="23"/>
+      <c r="JI50" s="23"/>
+      <c r="JJ50" s="23"/>
+      <c r="JK50" s="23"/>
+      <c r="JL50" s="23"/>
+      <c r="JM50" s="23"/>
+      <c r="JN50" s="24"/>
     </row>
-    <row r="51" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="56"/>
+      <c r="B51" s="69" t="s">
+        <v>64</v>
+      </c>
+      <c r="C51" s="69"/>
       <c r="D51" s="52">
         <v>1</v>
       </c>
       <c r="E51" s="53">
-        <v>45525</v>
+        <v>45512</v>
       </c>
       <c r="F51" s="53">
-        <v>45531</v>
+        <v>45558</v>
       </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28">
+        <v>87</v>
+      </c>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
@@ -17058,26 +19465,45 @@
       <c r="IQ51" s="23"/>
       <c r="IR51" s="23"/>
       <c r="IS51" s="24"/>
+      <c r="IT51" s="23"/>
+      <c r="IU51" s="23"/>
+      <c r="IV51" s="23"/>
+      <c r="IW51" s="23"/>
+      <c r="IX51" s="23"/>
+      <c r="IY51" s="23"/>
+      <c r="IZ51" s="24"/>
+      <c r="JA51" s="23"/>
+      <c r="JB51" s="23"/>
+      <c r="JC51" s="23"/>
+      <c r="JD51" s="23"/>
+      <c r="JE51" s="23"/>
+      <c r="JF51" s="23"/>
+      <c r="JG51" s="24"/>
+      <c r="JH51" s="23"/>
+      <c r="JI51" s="23"/>
+      <c r="JJ51" s="23"/>
+      <c r="JK51" s="23"/>
+      <c r="JL51" s="23"/>
+      <c r="JM51" s="23"/>
+      <c r="JN51" s="24"/>
     </row>
-    <row r="52" spans="1:253" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C52" s="56"/>
+      <c r="B52" s="69" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="69"/>
       <c r="D52" s="52">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="E52" s="53">
-        <v>45531</v>
+        <v>45525</v>
       </c>
       <c r="F52" s="53">
-        <v>45550</v>
+        <v>45576</v>
       </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="28">
-        <v>87</v>
-      </c>
+      <c r="H52" s="28"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
@@ -17323,41 +19749,352 @@
       <c r="IQ52" s="23"/>
       <c r="IR52" s="23"/>
       <c r="IS52" s="24"/>
+      <c r="IT52" s="23"/>
+      <c r="IU52" s="23"/>
+      <c r="IV52" s="23"/>
+      <c r="IW52" s="23"/>
+      <c r="IX52" s="23"/>
+      <c r="IY52" s="24"/>
+      <c r="IZ52" s="24"/>
+      <c r="JA52" s="23"/>
+      <c r="JB52" s="23"/>
+      <c r="JC52" s="23"/>
+      <c r="JD52" s="23"/>
+      <c r="JE52" s="23"/>
+      <c r="JF52" s="23"/>
+      <c r="JG52" s="24"/>
+      <c r="JH52" s="23"/>
+      <c r="JI52" s="23"/>
+      <c r="JJ52" s="23"/>
+      <c r="JK52" s="23"/>
+      <c r="JL52" s="23"/>
+      <c r="JM52" s="23"/>
+      <c r="JN52" s="24"/>
+    </row>
+    <row r="53" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" s="69"/>
+      <c r="D53" s="52">
+        <v>0.6</v>
+      </c>
+      <c r="E53" s="53">
+        <v>45531</v>
+      </c>
+      <c r="F53" s="53">
+        <v>45576</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28">
+        <v>87</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23"/>
+      <c r="AU53" s="23"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="24"/>
+      <c r="AY53" s="23"/>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23"/>
+      <c r="BB53" s="23"/>
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="23"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="23"/>
+      <c r="BG53" s="23"/>
+      <c r="BH53" s="23"/>
+      <c r="BI53" s="23"/>
+      <c r="BJ53" s="23"/>
+      <c r="BK53" s="23"/>
+      <c r="BL53" s="24"/>
+      <c r="BM53" s="23"/>
+      <c r="BN53" s="23"/>
+      <c r="BO53" s="23"/>
+      <c r="BP53" s="23"/>
+      <c r="BQ53" s="23"/>
+      <c r="BR53" s="23"/>
+      <c r="BS53" s="24"/>
+      <c r="BT53" s="23"/>
+      <c r="BU53" s="23"/>
+      <c r="BV53" s="23"/>
+      <c r="BW53" s="23"/>
+      <c r="BX53" s="23"/>
+      <c r="BY53" s="23"/>
+      <c r="BZ53" s="24"/>
+      <c r="CA53" s="23"/>
+      <c r="CB53" s="23"/>
+      <c r="CC53" s="23"/>
+      <c r="CD53" s="23"/>
+      <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
+      <c r="CG53" s="24"/>
+      <c r="CH53" s="23"/>
+      <c r="CI53" s="23"/>
+      <c r="CJ53" s="23"/>
+      <c r="CK53" s="23"/>
+      <c r="CL53" s="23"/>
+      <c r="CM53" s="23"/>
+      <c r="CN53" s="24"/>
+      <c r="CO53" s="23"/>
+      <c r="CP53" s="23"/>
+      <c r="CQ53" s="23"/>
+      <c r="CR53" s="23"/>
+      <c r="CS53" s="23"/>
+      <c r="CT53" s="23"/>
+      <c r="CU53" s="24"/>
+      <c r="CV53" s="23"/>
+      <c r="CW53" s="23"/>
+      <c r="CX53" s="23"/>
+      <c r="CY53" s="23"/>
+      <c r="CZ53" s="23"/>
+      <c r="DA53" s="23"/>
+      <c r="DB53" s="24"/>
+      <c r="DC53" s="23"/>
+      <c r="DD53" s="23"/>
+      <c r="DE53" s="23"/>
+      <c r="DF53" s="23"/>
+      <c r="DG53" s="23"/>
+      <c r="DH53" s="23"/>
+      <c r="DI53" s="24"/>
+      <c r="DJ53" s="23"/>
+      <c r="DK53" s="23"/>
+      <c r="DL53" s="23"/>
+      <c r="DM53" s="23"/>
+      <c r="DN53" s="23"/>
+      <c r="DO53" s="23"/>
+      <c r="DP53" s="24"/>
+      <c r="DQ53" s="23"/>
+      <c r="DR53" s="23"/>
+      <c r="DS53" s="23"/>
+      <c r="DT53" s="23"/>
+      <c r="DU53" s="23"/>
+      <c r="DV53" s="23"/>
+      <c r="DW53" s="24"/>
+      <c r="DX53" s="23"/>
+      <c r="DY53" s="23"/>
+      <c r="DZ53" s="23"/>
+      <c r="EA53" s="23"/>
+      <c r="EB53" s="23"/>
+      <c r="EC53" s="23"/>
+      <c r="ED53" s="24"/>
+      <c r="EE53" s="23"/>
+      <c r="EF53" s="23"/>
+      <c r="EG53" s="23"/>
+      <c r="EH53" s="23"/>
+      <c r="EI53" s="23"/>
+      <c r="EJ53" s="23"/>
+      <c r="EK53" s="24"/>
+      <c r="EL53" s="23"/>
+      <c r="EM53" s="23"/>
+      <c r="EN53" s="23"/>
+      <c r="EO53" s="23"/>
+      <c r="EP53" s="23"/>
+      <c r="EQ53" s="23"/>
+      <c r="ER53" s="24"/>
+      <c r="ES53" s="23"/>
+      <c r="ET53" s="23"/>
+      <c r="EU53" s="23"/>
+      <c r="EV53" s="23"/>
+      <c r="EW53" s="23"/>
+      <c r="EX53" s="23"/>
+      <c r="EY53" s="24"/>
+      <c r="EZ53" s="23"/>
+      <c r="FA53" s="23"/>
+      <c r="FB53" s="23"/>
+      <c r="FC53" s="23"/>
+      <c r="FD53" s="23"/>
+      <c r="FE53" s="23"/>
+      <c r="FF53" s="24"/>
+      <c r="FG53" s="23"/>
+      <c r="FH53" s="23"/>
+      <c r="FI53" s="23"/>
+      <c r="FJ53" s="23"/>
+      <c r="FK53" s="23"/>
+      <c r="FL53" s="23"/>
+      <c r="FM53" s="24"/>
+      <c r="FN53" s="23"/>
+      <c r="FO53" s="23"/>
+      <c r="FP53" s="23"/>
+      <c r="FQ53" s="23"/>
+      <c r="FR53" s="23"/>
+      <c r="FS53" s="23"/>
+      <c r="FT53" s="24"/>
+      <c r="FU53" s="23"/>
+      <c r="FV53" s="23"/>
+      <c r="FW53" s="23"/>
+      <c r="FX53" s="23"/>
+      <c r="FY53" s="23"/>
+      <c r="FZ53" s="23"/>
+      <c r="GA53" s="24"/>
+      <c r="GB53" s="23"/>
+      <c r="GC53" s="23"/>
+      <c r="GD53" s="23"/>
+      <c r="GE53" s="23"/>
+      <c r="GF53" s="23"/>
+      <c r="GG53" s="23"/>
+      <c r="GH53" s="24"/>
+      <c r="GI53" s="23"/>
+      <c r="GJ53" s="23"/>
+      <c r="GK53" s="23"/>
+      <c r="GL53" s="23"/>
+      <c r="GM53" s="23"/>
+      <c r="GN53" s="23"/>
+      <c r="GO53" s="24"/>
+      <c r="GP53" s="23"/>
+      <c r="GQ53" s="23"/>
+      <c r="GR53" s="23"/>
+      <c r="GS53" s="23"/>
+      <c r="GT53" s="23"/>
+      <c r="GU53" s="23"/>
+      <c r="GV53" s="24"/>
+      <c r="GW53" s="23"/>
+      <c r="GX53" s="23"/>
+      <c r="GY53" s="23"/>
+      <c r="GZ53" s="23"/>
+      <c r="HA53" s="23"/>
+      <c r="HB53" s="23"/>
+      <c r="HC53" s="24"/>
+      <c r="HD53" s="23"/>
+      <c r="HE53" s="23"/>
+      <c r="HF53" s="23"/>
+      <c r="HG53" s="23"/>
+      <c r="HH53" s="23"/>
+      <c r="HI53" s="23"/>
+      <c r="HJ53" s="24"/>
+      <c r="HK53" s="23"/>
+      <c r="HL53" s="23"/>
+      <c r="HM53" s="23"/>
+      <c r="HN53" s="23"/>
+      <c r="HO53" s="23"/>
+      <c r="HP53" s="23"/>
+      <c r="HQ53" s="23"/>
+      <c r="HR53" s="23"/>
+      <c r="HS53" s="23"/>
+      <c r="HT53" s="23"/>
+      <c r="HU53" s="23"/>
+      <c r="HV53" s="23"/>
+      <c r="HW53" s="23"/>
+      <c r="HX53" s="23"/>
+      <c r="HY53" s="23"/>
+      <c r="HZ53" s="23"/>
+      <c r="IA53" s="23"/>
+      <c r="IB53" s="23"/>
+      <c r="IC53" s="23"/>
+      <c r="ID53" s="23"/>
+      <c r="IE53" s="23"/>
+      <c r="IF53" s="23"/>
+      <c r="IG53" s="23"/>
+      <c r="IH53" s="23"/>
+      <c r="II53" s="23"/>
+      <c r="IJ53" s="23"/>
+      <c r="IK53" s="23"/>
+      <c r="IL53" s="23"/>
+      <c r="IM53" s="23"/>
+      <c r="IN53" s="23"/>
+      <c r="IO53" s="23"/>
+      <c r="IP53" s="23"/>
+      <c r="IQ53" s="23"/>
+      <c r="IR53" s="23"/>
+      <c r="IS53" s="23"/>
+      <c r="IT53" s="23"/>
+      <c r="IU53" s="23"/>
+      <c r="IV53" s="23"/>
+      <c r="IW53" s="23"/>
+      <c r="IX53" s="23"/>
+      <c r="IY53" s="23"/>
+      <c r="IZ53" s="23"/>
+      <c r="JA53" s="23"/>
+      <c r="JB53" s="23"/>
+      <c r="JC53" s="23"/>
+      <c r="JD53" s="23"/>
+      <c r="JE53" s="23"/>
+      <c r="JF53" s="23"/>
+      <c r="JG53" s="24"/>
+      <c r="JH53" s="23"/>
+      <c r="JI53" s="23"/>
+      <c r="JJ53" s="23"/>
+      <c r="JK53" s="23"/>
+      <c r="JL53" s="23"/>
+      <c r="JM53" s="23"/>
+      <c r="JN53" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="85">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CH4:CN4"/>
+  <mergeCells count="89">
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="IT4:IZ4"/>
+    <mergeCell ref="JA4:JG4"/>
+    <mergeCell ref="JH4:JN4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="FN4:FT4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -17374,46 +20111,46 @@
     <mergeCell ref="EL4:ER4"/>
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D52">
-    <cfRule type="dataBar" priority="346">
+  <conditionalFormatting sqref="D7:D53">
+    <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -17426,322 +20163,795 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO52 DQ5:DV52 DX5:EC52 EE5:EJ52 EL5:EQ52 ES5:EX52 EZ5:FE52 FG5:FL52 FN5:FS52">
-    <cfRule type="expression" dxfId="65" priority="113">
+  <conditionalFormatting sqref="I5:DO53 DQ5:DV53 DX5:EC53 EE5:EJ53 EL5:EQ53 ES5:EX53 EZ5:FE53 FG5:FL53 FN5:FS53">
+    <cfRule type="expression" dxfId="190" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO52 DQ7:DV52 DX7:EC52 EE7:EJ52 EL7:EQ52 ES7:EX52 EZ7:FE52 FG7:FL52 FN7:FS52">
-    <cfRule type="expression" dxfId="64" priority="112" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:DO53 DQ7:DV53 DX7:EC53 EE7:EJ53 EL7:EQ53 ES7:EX53 EZ7:FE53 FG7:FL53 FN7:FS53">
+    <cfRule type="expression" dxfId="189" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:HJ51">
-    <cfRule type="expression" dxfId="63" priority="53">
+  <conditionalFormatting sqref="I7:HJ52 IT7:IZ51 IT52:IX52">
+    <cfRule type="expression" dxfId="188" priority="178">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I52:IS52">
-    <cfRule type="expression" dxfId="62" priority="111">
+  <conditionalFormatting sqref="I53:HK53 IP53:JN53">
+    <cfRule type="expression" dxfId="187" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP52 DW5:DW52 ED5:ED52 EK5:EK52 ER5:ER52 EY5:EY52 FF5:FF52">
-    <cfRule type="expression" dxfId="61" priority="367">
+  <conditionalFormatting sqref="DP5:DP53 DW5:DW53 ED5:ED53 EK5:EK53 ER5:ER53 EY5:EY53 FF5:FF53">
+    <cfRule type="expression" dxfId="186" priority="492">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP52 DW7:DW52 ED7:ED52 EK7:EK52 ER7:ER52 EY7:EY52 FF7:FF52">
-    <cfRule type="expression" dxfId="60" priority="371" stopIfTrue="1">
+  <conditionalFormatting sqref="DP7:DP53 DW7:DW53 ED7:ED53 EK7:EK53 ER7:ER53 EY7:EY53 FF7:FF53">
+    <cfRule type="expression" dxfId="185" priority="496" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM5:FM52 FT5:FT52">
-    <cfRule type="expression" dxfId="59" priority="134">
+  <conditionalFormatting sqref="FM5:FM53 FT5:FT53 IZ5:IZ51 IZ53">
+    <cfRule type="expression" dxfId="184" priority="259">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM7:FM52 FT7:FT52">
-    <cfRule type="expression" dxfId="58" priority="135" stopIfTrue="1">
+  <conditionalFormatting sqref="FM7:FM53 FT7:FT53 IZ7:IZ51 IZ53">
+    <cfRule type="expression" dxfId="183" priority="260" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU5:FZ52">
-    <cfRule type="expression" dxfId="57" priority="102">
+  <conditionalFormatting sqref="FU5:FZ53">
+    <cfRule type="expression" dxfId="182" priority="227">
       <formula>AND(TODAY()&gt;=FU$5,TODAY()&lt;FV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU7:FZ52">
-    <cfRule type="expression" dxfId="56" priority="101" stopIfTrue="1">
+  <conditionalFormatting sqref="FU7:FZ53">
+    <cfRule type="expression" dxfId="181" priority="226" stopIfTrue="1">
       <formula>AND(task_end&gt;=FU$5,task_start&lt;FV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA5:GA52">
-    <cfRule type="expression" dxfId="55" priority="107">
+  <conditionalFormatting sqref="GA5:GA53">
+    <cfRule type="expression" dxfId="180" priority="232">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA7:GA52">
-    <cfRule type="expression" dxfId="54" priority="108" stopIfTrue="1">
+  <conditionalFormatting sqref="GA7:GA53">
+    <cfRule type="expression" dxfId="179" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB5:GG52">
-    <cfRule type="expression" dxfId="53" priority="92">
+  <conditionalFormatting sqref="GB5:GG53">
+    <cfRule type="expression" dxfId="178" priority="217">
       <formula>AND(TODAY()&gt;=GB$5,TODAY()&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB7:GG52">
-    <cfRule type="expression" dxfId="52" priority="91" stopIfTrue="1">
+  <conditionalFormatting sqref="GB7:GG53">
+    <cfRule type="expression" dxfId="177" priority="216" stopIfTrue="1">
       <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GH5:GH52">
-    <cfRule type="expression" dxfId="51" priority="97">
+  <conditionalFormatting sqref="GH5:GH53">
+    <cfRule type="expression" dxfId="176" priority="222">
       <formula>AND(TODAY()&gt;=GH$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GH7:GH52">
-    <cfRule type="expression" dxfId="50" priority="98" stopIfTrue="1">
+  <conditionalFormatting sqref="GH7:GH53">
+    <cfRule type="expression" dxfId="175" priority="223" stopIfTrue="1">
       <formula>AND(task_end&gt;=GH$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI5:GN52">
-    <cfRule type="expression" dxfId="49" priority="82">
+  <conditionalFormatting sqref="GI5:GN53">
+    <cfRule type="expression" dxfId="174" priority="207">
       <formula>AND(TODAY()&gt;=GI$5,TODAY()&lt;GJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI7:GN52">
-    <cfRule type="expression" dxfId="48" priority="81" stopIfTrue="1">
+  <conditionalFormatting sqref="GI7:GN53">
+    <cfRule type="expression" dxfId="173" priority="206" stopIfTrue="1">
       <formula>AND(task_end&gt;=GI$5,task_start&lt;GJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GO5:GO52">
-    <cfRule type="expression" dxfId="47" priority="87">
+  <conditionalFormatting sqref="GO5:GO53">
+    <cfRule type="expression" dxfId="172" priority="212">
       <formula>AND(TODAY()&gt;=GO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GO7:GO52">
-    <cfRule type="expression" dxfId="46" priority="88" stopIfTrue="1">
+  <conditionalFormatting sqref="GO7:GO53">
+    <cfRule type="expression" dxfId="171" priority="213" stopIfTrue="1">
       <formula>AND(task_end&gt;=GO$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP5:GU52">
-    <cfRule type="expression" dxfId="45" priority="72">
+  <conditionalFormatting sqref="GP5:GU53">
+    <cfRule type="expression" dxfId="170" priority="197">
       <formula>AND(TODAY()&gt;=GP$5,TODAY()&lt;GQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP7:GU52">
-    <cfRule type="expression" dxfId="44" priority="71" stopIfTrue="1">
+  <conditionalFormatting sqref="GP7:GU53">
+    <cfRule type="expression" dxfId="169" priority="196" stopIfTrue="1">
       <formula>AND(task_end&gt;=GP$5,task_start&lt;GQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GV5:GV52">
-    <cfRule type="expression" dxfId="43" priority="77">
+  <conditionalFormatting sqref="GV5:GV53">
+    <cfRule type="expression" dxfId="168" priority="202">
       <formula>AND(TODAY()&gt;=GV$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GV7:GV52">
-    <cfRule type="expression" dxfId="42" priority="78" stopIfTrue="1">
+  <conditionalFormatting sqref="GV7:GV53">
+    <cfRule type="expression" dxfId="167" priority="203" stopIfTrue="1">
       <formula>AND(task_end&gt;=GV$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW5:HB52">
-    <cfRule type="expression" dxfId="41" priority="62">
+  <conditionalFormatting sqref="GW5:HB53">
+    <cfRule type="expression" dxfId="166" priority="187">
       <formula>AND(TODAY()&gt;=GW$5,TODAY()&lt;GX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW7:HB52">
-    <cfRule type="expression" dxfId="40" priority="61" stopIfTrue="1">
+  <conditionalFormatting sqref="GW7:HB53">
+    <cfRule type="expression" dxfId="165" priority="186" stopIfTrue="1">
       <formula>AND(task_end&gt;=GW$5,task_start&lt;GX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HC5:HC52">
-    <cfRule type="expression" dxfId="39" priority="67">
+  <conditionalFormatting sqref="HC5:HC53">
+    <cfRule type="expression" dxfId="164" priority="192">
       <formula>AND(TODAY()&gt;=HC$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HC7:HC52">
-    <cfRule type="expression" dxfId="38" priority="68" stopIfTrue="1">
+  <conditionalFormatting sqref="HC7:HC53">
+    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
       <formula>AND(task_end&gt;=HC$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI51">
-    <cfRule type="expression" dxfId="37" priority="55">
+  <conditionalFormatting sqref="HD5:HI52">
+    <cfRule type="expression" dxfId="162" priority="180">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI51">
-    <cfRule type="expression" dxfId="36" priority="54" stopIfTrue="1">
+  <conditionalFormatting sqref="HD7:HI52">
+    <cfRule type="expression" dxfId="161" priority="179" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD52:HI52">
-    <cfRule type="expression" dxfId="35" priority="52">
+  <conditionalFormatting sqref="HD53:HI53">
+    <cfRule type="expression" dxfId="160" priority="176" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="159" priority="177">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="34" priority="51" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HJ5:HJ52">
-    <cfRule type="expression" dxfId="33" priority="57">
+  <conditionalFormatting sqref="HJ5:HJ53">
+    <cfRule type="expression" dxfId="158" priority="182">
       <formula>AND(TODAY()&gt;=HJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HJ7:HJ52">
-    <cfRule type="expression" dxfId="32" priority="58" stopIfTrue="1">
+  <conditionalFormatting sqref="HJ7:HJ53">
+    <cfRule type="expression" dxfId="157" priority="183" stopIfTrue="1">
       <formula>AND(task_end&gt;=HJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK5:HP13 HM14:HP14 HK15:HP42">
-    <cfRule type="expression" dxfId="31" priority="275">
+    <cfRule type="expression" dxfId="156" priority="400">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK7:HP13 HM14:HP14 HK15:HP42">
-    <cfRule type="expression" dxfId="30" priority="274" stopIfTrue="1">
+    <cfRule type="expression" dxfId="155" priority="399" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HP51">
-    <cfRule type="expression" dxfId="29" priority="44" stopIfTrue="1">
+  <conditionalFormatting sqref="HK43:HP52">
+    <cfRule type="expression" dxfId="154" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="28" priority="45">
+    <cfRule type="expression" dxfId="153" priority="170">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK52:HP52">
-    <cfRule type="expression" dxfId="27" priority="41" stopIfTrue="1">
+  <conditionalFormatting sqref="HK53">
+    <cfRule type="expression" dxfId="152" priority="166" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="26" priority="42">
+    <cfRule type="expression" dxfId="151" priority="167">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14 HK15:HQ42">
-    <cfRule type="expression" dxfId="25" priority="117">
+    <cfRule type="expression" dxfId="150" priority="242">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HQ51">
-    <cfRule type="expression" dxfId="24" priority="43">
+  <conditionalFormatting sqref="HK43:HQ52">
+    <cfRule type="expression" dxfId="149" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="23" priority="375" stopIfTrue="1">
+    <cfRule type="expression" dxfId="148" priority="498">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="147" priority="500" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="373">
-      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="21" priority="377">
+    <cfRule type="expression" dxfId="146" priority="502">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ5:HQ52">
-    <cfRule type="expression" dxfId="20" priority="47">
+    <cfRule type="expression" dxfId="145" priority="172">
       <formula>AND(TODAY()&gt;=HQ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HQ7:HQ52">
-    <cfRule type="expression" dxfId="19" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="144" priority="173" stopIfTrue="1">
       <formula>AND(task_end&gt;=HQ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR5:HW52">
-    <cfRule type="expression" dxfId="18" priority="32">
+    <cfRule type="expression" dxfId="143" priority="157">
       <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HR7:HW52">
-    <cfRule type="expression" dxfId="17" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="142" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:IS51">
-    <cfRule type="expression" dxfId="16" priority="3">
+  <conditionalFormatting sqref="HR7:IS52">
+    <cfRule type="expression" dxfId="141" priority="128">
       <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HX5:HX52">
-    <cfRule type="expression" dxfId="15" priority="37">
+    <cfRule type="expression" dxfId="140" priority="162">
       <formula>AND(TODAY()&gt;=HX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HX7:HX52">
-    <cfRule type="expression" dxfId="14" priority="38" stopIfTrue="1">
+    <cfRule type="expression" dxfId="139" priority="163" stopIfTrue="1">
       <formula>AND(task_end&gt;=HX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY5:ID52">
-    <cfRule type="expression" dxfId="13" priority="22">
+    <cfRule type="expression" dxfId="138" priority="147">
       <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HY7:ID52">
-    <cfRule type="expression" dxfId="12" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="137" priority="146" stopIfTrue="1">
       <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IE5:IE52">
-    <cfRule type="expression" dxfId="11" priority="27">
+    <cfRule type="expression" dxfId="136" priority="152">
       <formula>AND(TODAY()&gt;=IE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IE7:IE52">
-    <cfRule type="expression" dxfId="10" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
       <formula>AND(task_end&gt;=IE$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF5:IK52">
-    <cfRule type="expression" dxfId="9" priority="12">
+    <cfRule type="expression" dxfId="134" priority="137">
       <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IF7:IK52">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="133" priority="136" stopIfTrue="1">
       <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IL5:IL52">
-    <cfRule type="expression" dxfId="7" priority="17">
+    <cfRule type="expression" dxfId="132" priority="142">
       <formula>AND(TODAY()&gt;=IL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IL7:IL52">
-    <cfRule type="expression" dxfId="6" priority="18" stopIfTrue="1">
+    <cfRule type="expression" dxfId="131" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=IL$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM5:IR51">
-    <cfRule type="expression" dxfId="5" priority="5">
+  <conditionalFormatting sqref="IM5:IR52">
+    <cfRule type="expression" dxfId="130" priority="130">
       <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM7:IR51">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="IM7:IR52">
+    <cfRule type="expression" dxfId="129" priority="129" stopIfTrue="1">
       <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM52:IR52">
-    <cfRule type="expression" dxfId="3" priority="2">
-      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
+  <conditionalFormatting sqref="IP53:IR53">
+    <cfRule type="expression" dxfId="128" priority="126" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IP$5,task_start&lt;IQ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
+    <cfRule type="expression" dxfId="127" priority="127">
+      <formula>AND(TODAY()&gt;=IP$5,TODAY()&lt;IQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS5:IS52">
-    <cfRule type="expression" dxfId="1" priority="7">
+  <conditionalFormatting sqref="IS5:IS53">
+    <cfRule type="expression" dxfId="126" priority="132">
       <formula>AND(TODAY()&gt;=IS$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS7:IS52">
-    <cfRule type="expression" dxfId="0" priority="8" stopIfTrue="1">
+  <conditionalFormatting sqref="IS7:IS53">
+    <cfRule type="expression" dxfId="125" priority="133" stopIfTrue="1">
       <formula>AND(task_end&gt;=IS$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IT5:IY52">
+    <cfRule type="expression" dxfId="124" priority="123">
+      <formula>AND(TODAY()&gt;=IT$5,TODAY()&lt;IU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IT7:IY52">
+    <cfRule type="expression" dxfId="123" priority="122" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IT$5,task_start&lt;IU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IS53:IZ53">
+    <cfRule type="expression" dxfId="122" priority="119" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IS$5,task_start&lt;IT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="121" priority="120">
+      <formula>AND(TODAY()&gt;=IS$5,TODAY()&lt;IT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA7:JG52">
+    <cfRule type="expression" dxfId="120" priority="114">
+      <formula>AND(task_start&lt;=JA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA5:JF52">
+    <cfRule type="expression" dxfId="119" priority="116">
+      <formula>AND(TODAY()&gt;=JA$5,TODAY()&lt;JB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA7:JF52">
+    <cfRule type="expression" dxfId="118" priority="115" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JA$5,task_start&lt;JB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA53:JF53">
+    <cfRule type="expression" dxfId="117" priority="112" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JA$5,task_start&lt;JB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="116" priority="113">
+      <formula>AND(TODAY()&gt;=JA$5,TODAY()&lt;JB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JG5:JG53">
+    <cfRule type="expression" dxfId="115" priority="117">
+      <formula>AND(TODAY()&gt;=JG$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JG7:JG53">
+    <cfRule type="expression" dxfId="114" priority="118" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JG$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JH7:JN52">
+    <cfRule type="expression" dxfId="113" priority="107">
+      <formula>AND(task_start&lt;=JH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JH5:JM52">
+    <cfRule type="expression" dxfId="112" priority="109">
+      <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JH7:JM52">
+    <cfRule type="expression" dxfId="111" priority="108" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JH53:JM53">
+    <cfRule type="expression" dxfId="110" priority="105" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="109" priority="106">
+      <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JN5:JN53">
+    <cfRule type="expression" dxfId="108" priority="110">
+      <formula>AND(TODAY()&gt;=JN$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JN7:JN53">
+    <cfRule type="expression" dxfId="107" priority="111" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JN$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IY52:IZ52">
+    <cfRule type="expression" dxfId="106" priority="504">
+      <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IY52:IZ52">
+    <cfRule type="expression" dxfId="105" priority="506">
+      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IY52:IZ52">
+    <cfRule type="expression" dxfId="104" priority="508" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IZ52">
+    <cfRule type="expression" dxfId="103" priority="104">
+      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IZ52">
+    <cfRule type="expression" dxfId="102" priority="103" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HL53">
+    <cfRule type="expression" dxfId="95" priority="95" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HL$5,task_start&lt;HM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="94" priority="96">
+      <formula>AND(TODAY()&gt;=HL$5,TODAY()&lt;HM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HL53">
+    <cfRule type="expression" dxfId="93" priority="94">
+      <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HM53">
+    <cfRule type="expression" dxfId="92" priority="92" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HM$5,task_start&lt;HN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="91" priority="93">
+      <formula>AND(TODAY()&gt;=HM$5,TODAY()&lt;HN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HM53">
+    <cfRule type="expression" dxfId="90" priority="91">
+      <formula>AND(task_start&lt;=HM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HN53">
+    <cfRule type="expression" dxfId="89" priority="89" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HN$5,task_start&lt;HO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="88" priority="90">
+      <formula>AND(TODAY()&gt;=HN$5,TODAY()&lt;HO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HN53">
+    <cfRule type="expression" dxfId="87" priority="88">
+      <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HO53">
+    <cfRule type="expression" dxfId="86" priority="86" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HO$5,task_start&lt;HP$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="85" priority="87">
+      <formula>AND(TODAY()&gt;=HO$5,TODAY()&lt;HP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HO53">
+    <cfRule type="expression" dxfId="84" priority="85">
+      <formula>AND(task_start&lt;=HO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HQ53">
+    <cfRule type="expression" dxfId="83" priority="83" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HQ$5,task_start&lt;HR$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="82" priority="84">
+      <formula>AND(TODAY()&gt;=HQ$5,TODAY()&lt;HR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HQ53">
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>AND(task_start&lt;=HQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HR53">
+    <cfRule type="expression" dxfId="80" priority="80" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="79" priority="81">
+      <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HR53">
+    <cfRule type="expression" dxfId="78" priority="79">
+      <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HP53">
+    <cfRule type="expression" dxfId="77" priority="77" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HP$5,task_start&lt;HQ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="76" priority="78">
+      <formula>AND(TODAY()&gt;=HP$5,TODAY()&lt;HQ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HP53">
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>AND(task_start&lt;=HP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HS53">
+    <cfRule type="expression" dxfId="74" priority="74" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HS$5,task_start&lt;HT$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="73" priority="75">
+      <formula>AND(TODAY()&gt;=HS$5,TODAY()&lt;HT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HS53">
+    <cfRule type="expression" dxfId="72" priority="73">
+      <formula>AND(task_start&lt;=HS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HS$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HU53">
+    <cfRule type="expression" dxfId="71" priority="71" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HU$5,task_start&lt;HV$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="70" priority="72">
+      <formula>AND(TODAY()&gt;=HU$5,TODAY()&lt;HV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HU53">
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HW53">
+    <cfRule type="expression" dxfId="68" priority="68" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HW$5,task_start&lt;HX$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="67" priority="69">
+      <formula>AND(TODAY()&gt;=HW$5,TODAY()&lt;HX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HW53">
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>AND(task_start&lt;=HW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IL53">
+    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IL$5,task_start&lt;IM$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="64" priority="66">
+      <formula>AND(TODAY()&gt;=IL$5,TODAY()&lt;IM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IL53">
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>AND(task_start&lt;=IL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="II53:IK53">
+    <cfRule type="expression" dxfId="62" priority="62" stopIfTrue="1">
+      <formula>AND(task_end&gt;=II$5,task_start&lt;IJ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="61" priority="63">
+      <formula>AND(TODAY()&gt;=II$5,TODAY()&lt;IJ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="II53:IK53">
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IN53">
+    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IN$5,task_start&lt;IO$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="48">
+      <formula>AND(TODAY()&gt;=IN$5,TODAY()&lt;IO$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IN53">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>AND(task_start&lt;=IN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IH53">
+    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IH$5,task_start&lt;II$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="43" priority="45">
+      <formula>AND(TODAY()&gt;=IH$5,TODAY()&lt;II$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IH53">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>AND(task_start&lt;=IH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IF53">
+    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="40" priority="42">
+      <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IF53">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>AND(task_start&lt;=IF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IE53">
+    <cfRule type="expression" dxfId="38" priority="38" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IE$5,task_start&lt;IF$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="37" priority="39">
+      <formula>AND(TODAY()&gt;=IE$5,TODAY()&lt;IF$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IE53">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>AND(task_start&lt;=IE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ID53">
+    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=ID$5,task_start&lt;IE$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="34" priority="36">
+      <formula>AND(TODAY()&gt;=ID$5,TODAY()&lt;IE$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="ID53">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>AND(task_start&lt;=ID$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=ID$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IA53">
+    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IA$5,task_start&lt;IB$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="31" priority="33">
+      <formula>AND(TODAY()&gt;=IA$5,TODAY()&lt;IB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IA53">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>AND(task_start&lt;=IA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HX53">
+    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HX$5,task_start&lt;HY$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="28" priority="30">
+      <formula>AND(TODAY()&gt;=HX$5,TODAY()&lt;HY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HX53">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>AND(task_start&lt;=HX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HX$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HY53">
+    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="25" priority="27">
+      <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HY53">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>AND(task_start&lt;=HY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HY$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HV53">
+    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HV$5,task_start&lt;HW$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="22" priority="24">
+      <formula>AND(TODAY()&gt;=HV$5,TODAY()&lt;HW$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HV53">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>AND(task_start&lt;=HV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HV$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HT53">
+    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HT$5,task_start&lt;HU$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="19" priority="21">
+      <formula>AND(TODAY()&gt;=HT$5,TODAY()&lt;HU$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HT53">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>AND(task_start&lt;=HT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HT$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HZ53">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HZ$5,task_start&lt;IA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="18">
+      <formula>AND(TODAY()&gt;=HZ$5,TODAY()&lt;IA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HZ53">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>AND(task_start&lt;=HZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HZ$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IB53">
+    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IB$5,task_start&lt;IC$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="15">
+      <formula>AND(TODAY()&gt;=IB$5,TODAY()&lt;IC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IB53">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IC53">
+    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IC$5,task_start&lt;ID$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="10" priority="12">
+      <formula>AND(TODAY()&gt;=IC$5,TODAY()&lt;ID$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IC53">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>AND(task_start&lt;=IC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IC$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IG53">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IG$5,task_start&lt;IH$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="7" priority="9">
+      <formula>AND(TODAY()&gt;=IG$5,TODAY()&lt;IH$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IG53">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>AND(task_start&lt;=IG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IG$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IM53">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IM53">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>AND(task_start&lt;=IM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IM$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IO53">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IO$5,task_start&lt;IP$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND(TODAY()&gt;=IO$5,TODAY()&lt;IP$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IO53">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>AND(task_start&lt;=IO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -17771,7 +20981,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D52</xm:sqref>
+          <xm:sqref>D7:D53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17789,6 +20999,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18076,26 +21306,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -18105,6 +21315,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18123,16 +21345,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF254400-EF62-421D-A464-FEA2D59F73A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B3799-87E6-4C9B-8590-00336F254734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>Experimentación con metodologías extras</t>
+  </si>
+  <si>
+    <t>Actualización comentarios código</t>
+  </si>
+  <si>
+    <t>Resumir documento</t>
   </si>
 </sst>
 </file>
@@ -1222,16 +1228,7 @@
     <xf numFmtId="168" fontId="23" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1240,7 +1237,31 @@
     <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1248,9 +1269,6 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1264,25 +1282,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1342,967 +1348,7 @@
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="200">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
+  <dxfs count="92">
     <dxf>
       <fill>
         <patternFill>
@@ -2327,17 +1373,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2358,18 +1393,6 @@
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2461,28 +1484,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -2497,43 +1498,12 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2578,27 +1548,11 @@
       </fill>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -2644,29 +1598,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -2870,6 +1801,13 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor theme="7"/>
         </patternFill>
       </fill>
@@ -2889,20 +1827,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <border>
@@ -2926,6 +1850,20 @@
         <left/>
         <right/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <border>
@@ -3298,36 +2236,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
@@ -3451,15 +2359,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="199"/>
-      <tableStyleElement type="headerRow" dxfId="198"/>
-      <tableStyleElement type="totalRow" dxfId="197"/>
-      <tableStyleElement type="firstColumn" dxfId="196"/>
-      <tableStyleElement type="lastColumn" dxfId="195"/>
-      <tableStyleElement type="firstRowStripe" dxfId="194"/>
-      <tableStyleElement type="secondRowStripe" dxfId="193"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="192"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="191"/>
+      <tableStyleElement type="wholeTable" dxfId="91"/>
+      <tableStyleElement type="headerRow" dxfId="90"/>
+      <tableStyleElement type="totalRow" dxfId="89"/>
+      <tableStyleElement type="firstColumn" dxfId="88"/>
+      <tableStyleElement type="lastColumn" dxfId="87"/>
+      <tableStyleElement type="firstRowStripe" dxfId="86"/>
+      <tableStyleElement type="secondRowStripe" dxfId="85"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="84"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="83"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3818,11 +2726,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:JN53"/>
+  <dimension ref="A1:JN55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BC75" sqref="BC75"/>
+      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X59" sqref="X59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3909,573 +2817,573 @@
         <v>1</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="61"/>
-      <c r="E3" s="64">
+      <c r="D3" s="66"/>
+      <c r="E3" s="68">
         <v>45323</v>
       </c>
-      <c r="F3" s="64"/>
-      <c r="I3" s="66" t="s">
+      <c r="F3" s="68"/>
+      <c r="I3" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
-      <c r="AK3" s="67"/>
-      <c r="AL3" s="67"/>
-      <c r="AM3" s="67"/>
-      <c r="AN3" s="67"/>
-      <c r="AO3" s="67"/>
-      <c r="AP3" s="67"/>
-      <c r="AQ3" s="67"/>
-      <c r="AR3" s="67"/>
-      <c r="AS3" s="67"/>
-      <c r="AT3" s="67"/>
-      <c r="AU3" s="67"/>
-      <c r="AV3" s="67"/>
-      <c r="AW3" s="67"/>
-      <c r="AX3" s="67"/>
-      <c r="AY3" s="67"/>
-      <c r="AZ3" s="67"/>
-      <c r="BA3" s="67"/>
-      <c r="BB3" s="67"/>
-      <c r="BC3" s="67"/>
-      <c r="BD3" s="67"/>
-      <c r="BE3" s="67"/>
-      <c r="BF3" s="67"/>
-      <c r="BG3" s="67"/>
-      <c r="BH3" s="67"/>
-      <c r="BI3" s="67"/>
-      <c r="BJ3" s="67"/>
-      <c r="BK3" s="67"/>
-      <c r="BL3" s="67"/>
-      <c r="BM3" s="67"/>
-      <c r="BN3" s="67"/>
-      <c r="BO3" s="67"/>
-      <c r="BP3" s="67"/>
-      <c r="BQ3" s="67"/>
-      <c r="BR3" s="67"/>
-      <c r="BS3" s="67"/>
-      <c r="BT3" s="67"/>
-      <c r="BU3" s="67"/>
-      <c r="BV3" s="67"/>
-      <c r="BW3" s="67"/>
-      <c r="BX3" s="67"/>
-      <c r="BY3" s="67"/>
-      <c r="BZ3" s="67"/>
-      <c r="CA3" s="67"/>
-      <c r="CB3" s="67"/>
-      <c r="CC3" s="67"/>
-      <c r="CD3" s="67"/>
-      <c r="CE3" s="67"/>
-      <c r="CF3" s="67"/>
-      <c r="CG3" s="67"/>
-      <c r="CH3" s="67"/>
-      <c r="CI3" s="67"/>
-      <c r="CJ3" s="67"/>
-      <c r="CK3" s="67"/>
-      <c r="CL3" s="67"/>
-      <c r="CM3" s="67"/>
-      <c r="CN3" s="67"/>
-      <c r="CO3" s="67"/>
-      <c r="CP3" s="67"/>
-      <c r="CQ3" s="67"/>
-      <c r="CR3" s="67"/>
-      <c r="CS3" s="67"/>
-      <c r="CT3" s="67"/>
-      <c r="CU3" s="67"/>
-      <c r="CV3" s="67"/>
-      <c r="CW3" s="67"/>
-      <c r="CX3" s="67"/>
-      <c r="CY3" s="67"/>
-      <c r="CZ3" s="67"/>
-      <c r="DA3" s="67"/>
-      <c r="DB3" s="67"/>
-      <c r="DC3" s="67"/>
-      <c r="DD3" s="67"/>
-      <c r="DE3" s="67"/>
-      <c r="DF3" s="67"/>
-      <c r="DG3" s="67"/>
-      <c r="DH3" s="67"/>
-      <c r="DI3" s="67"/>
-      <c r="DJ3" s="67"/>
-      <c r="DK3" s="67"/>
-      <c r="DL3" s="67"/>
-      <c r="DM3" s="67"/>
-      <c r="DN3" s="67"/>
-      <c r="DO3" s="67"/>
-      <c r="DP3" s="67"/>
-      <c r="DQ3" s="67"/>
-      <c r="DR3" s="67"/>
-      <c r="DS3" s="67"/>
-      <c r="DT3" s="67"/>
-      <c r="DU3" s="67"/>
-      <c r="DV3" s="67"/>
-      <c r="DW3" s="67"/>
-      <c r="DX3" s="67"/>
-      <c r="DY3" s="67"/>
-      <c r="DZ3" s="67"/>
-      <c r="EA3" s="67"/>
-      <c r="EB3" s="67"/>
-      <c r="EC3" s="67"/>
-      <c r="ED3" s="67"/>
-      <c r="EE3" s="67"/>
-      <c r="EF3" s="67"/>
-      <c r="EG3" s="67"/>
-      <c r="EH3" s="67"/>
-      <c r="EI3" s="67"/>
-      <c r="EJ3" s="67"/>
-      <c r="EK3" s="67"/>
-      <c r="EL3" s="67"/>
-      <c r="EM3" s="67"/>
-      <c r="EN3" s="67"/>
-      <c r="EO3" s="67"/>
-      <c r="EP3" s="67"/>
-      <c r="EQ3" s="67"/>
-      <c r="ER3" s="67"/>
-      <c r="ES3" s="67"/>
-      <c r="ET3" s="67"/>
-      <c r="EU3" s="67"/>
-      <c r="EV3" s="67"/>
-      <c r="EW3" s="67"/>
-      <c r="EX3" s="67"/>
-      <c r="EY3" s="67"/>
-      <c r="EZ3" s="67"/>
-      <c r="FA3" s="67"/>
-      <c r="FB3" s="67"/>
-      <c r="FC3" s="67"/>
-      <c r="FD3" s="67"/>
-      <c r="FE3" s="67"/>
-      <c r="FF3" s="67"/>
-      <c r="FG3" s="67"/>
-      <c r="FH3" s="67"/>
-      <c r="FI3" s="67"/>
-      <c r="FJ3" s="67"/>
-      <c r="FK3" s="67"/>
-      <c r="FL3" s="67"/>
-      <c r="FM3" s="67"/>
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="71"/>
+      <c r="T3" s="71"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="71"/>
+      <c r="W3" s="71"/>
+      <c r="X3" s="71"/>
+      <c r="Y3" s="71"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="71"/>
+      <c r="AB3" s="71"/>
+      <c r="AC3" s="71"/>
+      <c r="AD3" s="71"/>
+      <c r="AE3" s="71"/>
+      <c r="AF3" s="71"/>
+      <c r="AG3" s="71"/>
+      <c r="AH3" s="71"/>
+      <c r="AI3" s="71"/>
+      <c r="AJ3" s="71"/>
+      <c r="AK3" s="71"/>
+      <c r="AL3" s="71"/>
+      <c r="AM3" s="71"/>
+      <c r="AN3" s="71"/>
+      <c r="AO3" s="71"/>
+      <c r="AP3" s="71"/>
+      <c r="AQ3" s="71"/>
+      <c r="AR3" s="71"/>
+      <c r="AS3" s="71"/>
+      <c r="AT3" s="71"/>
+      <c r="AU3" s="71"/>
+      <c r="AV3" s="71"/>
+      <c r="AW3" s="71"/>
+      <c r="AX3" s="71"/>
+      <c r="AY3" s="71"/>
+      <c r="AZ3" s="71"/>
+      <c r="BA3" s="71"/>
+      <c r="BB3" s="71"/>
+      <c r="BC3" s="71"/>
+      <c r="BD3" s="71"/>
+      <c r="BE3" s="71"/>
+      <c r="BF3" s="71"/>
+      <c r="BG3" s="71"/>
+      <c r="BH3" s="71"/>
+      <c r="BI3" s="71"/>
+      <c r="BJ3" s="71"/>
+      <c r="BK3" s="71"/>
+      <c r="BL3" s="71"/>
+      <c r="BM3" s="71"/>
+      <c r="BN3" s="71"/>
+      <c r="BO3" s="71"/>
+      <c r="BP3" s="71"/>
+      <c r="BQ3" s="71"/>
+      <c r="BR3" s="71"/>
+      <c r="BS3" s="71"/>
+      <c r="BT3" s="71"/>
+      <c r="BU3" s="71"/>
+      <c r="BV3" s="71"/>
+      <c r="BW3" s="71"/>
+      <c r="BX3" s="71"/>
+      <c r="BY3" s="71"/>
+      <c r="BZ3" s="71"/>
+      <c r="CA3" s="71"/>
+      <c r="CB3" s="71"/>
+      <c r="CC3" s="71"/>
+      <c r="CD3" s="71"/>
+      <c r="CE3" s="71"/>
+      <c r="CF3" s="71"/>
+      <c r="CG3" s="71"/>
+      <c r="CH3" s="71"/>
+      <c r="CI3" s="71"/>
+      <c r="CJ3" s="71"/>
+      <c r="CK3" s="71"/>
+      <c r="CL3" s="71"/>
+      <c r="CM3" s="71"/>
+      <c r="CN3" s="71"/>
+      <c r="CO3" s="71"/>
+      <c r="CP3" s="71"/>
+      <c r="CQ3" s="71"/>
+      <c r="CR3" s="71"/>
+      <c r="CS3" s="71"/>
+      <c r="CT3" s="71"/>
+      <c r="CU3" s="71"/>
+      <c r="CV3" s="71"/>
+      <c r="CW3" s="71"/>
+      <c r="CX3" s="71"/>
+      <c r="CY3" s="71"/>
+      <c r="CZ3" s="71"/>
+      <c r="DA3" s="71"/>
+      <c r="DB3" s="71"/>
+      <c r="DC3" s="71"/>
+      <c r="DD3" s="71"/>
+      <c r="DE3" s="71"/>
+      <c r="DF3" s="71"/>
+      <c r="DG3" s="71"/>
+      <c r="DH3" s="71"/>
+      <c r="DI3" s="71"/>
+      <c r="DJ3" s="71"/>
+      <c r="DK3" s="71"/>
+      <c r="DL3" s="71"/>
+      <c r="DM3" s="71"/>
+      <c r="DN3" s="71"/>
+      <c r="DO3" s="71"/>
+      <c r="DP3" s="71"/>
+      <c r="DQ3" s="71"/>
+      <c r="DR3" s="71"/>
+      <c r="DS3" s="71"/>
+      <c r="DT3" s="71"/>
+      <c r="DU3" s="71"/>
+      <c r="DV3" s="71"/>
+      <c r="DW3" s="71"/>
+      <c r="DX3" s="71"/>
+      <c r="DY3" s="71"/>
+      <c r="DZ3" s="71"/>
+      <c r="EA3" s="71"/>
+      <c r="EB3" s="71"/>
+      <c r="EC3" s="71"/>
+      <c r="ED3" s="71"/>
+      <c r="EE3" s="71"/>
+      <c r="EF3" s="71"/>
+      <c r="EG3" s="71"/>
+      <c r="EH3" s="71"/>
+      <c r="EI3" s="71"/>
+      <c r="EJ3" s="71"/>
+      <c r="EK3" s="71"/>
+      <c r="EL3" s="71"/>
+      <c r="EM3" s="71"/>
+      <c r="EN3" s="71"/>
+      <c r="EO3" s="71"/>
+      <c r="EP3" s="71"/>
+      <c r="EQ3" s="71"/>
+      <c r="ER3" s="71"/>
+      <c r="ES3" s="71"/>
+      <c r="ET3" s="71"/>
+      <c r="EU3" s="71"/>
+      <c r="EV3" s="71"/>
+      <c r="EW3" s="71"/>
+      <c r="EX3" s="71"/>
+      <c r="EY3" s="71"/>
+      <c r="EZ3" s="71"/>
+      <c r="FA3" s="71"/>
+      <c r="FB3" s="71"/>
+      <c r="FC3" s="71"/>
+      <c r="FD3" s="71"/>
+      <c r="FE3" s="71"/>
+      <c r="FF3" s="71"/>
+      <c r="FG3" s="71"/>
+      <c r="FH3" s="71"/>
+      <c r="FI3" s="71"/>
+      <c r="FJ3" s="71"/>
+      <c r="FK3" s="71"/>
+      <c r="FL3" s="71"/>
+      <c r="FM3" s="71"/>
     </row>
     <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="47"/>
-      <c r="C4" s="62" t="s">
+      <c r="C4" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="62"/>
+      <c r="D4" s="67"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="58">
+      <c r="I4" s="55">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="58">
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="69"/>
+      <c r="P4" s="55">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="59"/>
-      <c r="U4" s="59"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="58">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="69"/>
+      <c r="W4" s="55">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="59"/>
-      <c r="Y4" s="59"/>
-      <c r="Z4" s="59"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="59"/>
-      <c r="AC4" s="65"/>
-      <c r="AD4" s="58">
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="69"/>
+      <c r="AD4" s="55">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="59"/>
-      <c r="AF4" s="59"/>
-      <c r="AG4" s="59"/>
-      <c r="AH4" s="59"/>
-      <c r="AI4" s="59"/>
-      <c r="AJ4" s="65"/>
-      <c r="AK4" s="58">
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="55">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="59"/>
-      <c r="AM4" s="59"/>
-      <c r="AN4" s="59"/>
-      <c r="AO4" s="59"/>
-      <c r="AP4" s="59"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="58">
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="55">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="59"/>
-      <c r="AT4" s="59"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="59"/>
-      <c r="AW4" s="59"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="58">
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="55">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="59"/>
-      <c r="BA4" s="59"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="59"/>
-      <c r="BE4" s="59"/>
-      <c r="BF4" s="58">
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="55">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="59"/>
-      <c r="BH4" s="59"/>
-      <c r="BI4" s="59"/>
-      <c r="BJ4" s="59"/>
-      <c r="BK4" s="59"/>
-      <c r="BL4" s="59"/>
-      <c r="BM4" s="58">
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="55">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="59"/>
-      <c r="BO4" s="59"/>
-      <c r="BP4" s="59"/>
-      <c r="BQ4" s="59"/>
-      <c r="BR4" s="59"/>
-      <c r="BS4" s="59"/>
-      <c r="BT4" s="58">
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="55">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="59"/>
-      <c r="BV4" s="59"/>
-      <c r="BW4" s="59"/>
-      <c r="BX4" s="59"/>
-      <c r="BY4" s="59"/>
-      <c r="BZ4" s="59"/>
-      <c r="CA4" s="58">
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="56"/>
+      <c r="CA4" s="55">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="59"/>
-      <c r="CC4" s="59"/>
-      <c r="CD4" s="59"/>
-      <c r="CE4" s="59"/>
-      <c r="CF4" s="59"/>
-      <c r="CG4" s="59"/>
-      <c r="CH4" s="58">
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="55">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="59"/>
-      <c r="CJ4" s="59"/>
-      <c r="CK4" s="59"/>
-      <c r="CL4" s="59"/>
-      <c r="CM4" s="59"/>
-      <c r="CN4" s="59"/>
-      <c r="CO4" s="58">
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="56"/>
+      <c r="CN4" s="56"/>
+      <c r="CO4" s="55">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="59"/>
-      <c r="CQ4" s="59"/>
-      <c r="CR4" s="59"/>
-      <c r="CS4" s="59"/>
-      <c r="CT4" s="59"/>
-      <c r="CU4" s="59"/>
-      <c r="CV4" s="58">
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="56"/>
+      <c r="CU4" s="56"/>
+      <c r="CV4" s="55">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="59"/>
-      <c r="CX4" s="59"/>
-      <c r="CY4" s="59"/>
-      <c r="CZ4" s="59"/>
-      <c r="DA4" s="59"/>
-      <c r="DB4" s="59"/>
-      <c r="DC4" s="58">
+      <c r="CW4" s="56"/>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="56"/>
+      <c r="DC4" s="55">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="59"/>
-      <c r="DE4" s="59"/>
-      <c r="DF4" s="59"/>
-      <c r="DG4" s="59"/>
-      <c r="DH4" s="59"/>
-      <c r="DI4" s="59"/>
-      <c r="DJ4" s="58">
+      <c r="DD4" s="56"/>
+      <c r="DE4" s="56"/>
+      <c r="DF4" s="56"/>
+      <c r="DG4" s="56"/>
+      <c r="DH4" s="56"/>
+      <c r="DI4" s="56"/>
+      <c r="DJ4" s="55">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="59"/>
-      <c r="DL4" s="59"/>
-      <c r="DM4" s="59"/>
-      <c r="DN4" s="59"/>
-      <c r="DO4" s="59"/>
-      <c r="DP4" s="59"/>
-      <c r="DQ4" s="58">
+      <c r="DK4" s="56"/>
+      <c r="DL4" s="56"/>
+      <c r="DM4" s="56"/>
+      <c r="DN4" s="56"/>
+      <c r="DO4" s="56"/>
+      <c r="DP4" s="56"/>
+      <c r="DQ4" s="55">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="59"/>
-      <c r="DS4" s="59"/>
-      <c r="DT4" s="59"/>
-      <c r="DU4" s="59"/>
-      <c r="DV4" s="59"/>
-      <c r="DW4" s="59"/>
-      <c r="DX4" s="58">
+      <c r="DR4" s="56"/>
+      <c r="DS4" s="56"/>
+      <c r="DT4" s="56"/>
+      <c r="DU4" s="56"/>
+      <c r="DV4" s="56"/>
+      <c r="DW4" s="56"/>
+      <c r="DX4" s="55">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="59"/>
-      <c r="DZ4" s="59"/>
-      <c r="EA4" s="59"/>
-      <c r="EB4" s="59"/>
-      <c r="EC4" s="59"/>
-      <c r="ED4" s="59"/>
-      <c r="EE4" s="58">
+      <c r="DY4" s="56"/>
+      <c r="DZ4" s="56"/>
+      <c r="EA4" s="56"/>
+      <c r="EB4" s="56"/>
+      <c r="EC4" s="56"/>
+      <c r="ED4" s="56"/>
+      <c r="EE4" s="55">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="59"/>
-      <c r="EG4" s="59"/>
-      <c r="EH4" s="59"/>
-      <c r="EI4" s="59"/>
-      <c r="EJ4" s="59"/>
-      <c r="EK4" s="59"/>
-      <c r="EL4" s="58">
+      <c r="EF4" s="56"/>
+      <c r="EG4" s="56"/>
+      <c r="EH4" s="56"/>
+      <c r="EI4" s="56"/>
+      <c r="EJ4" s="56"/>
+      <c r="EK4" s="56"/>
+      <c r="EL4" s="55">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="59"/>
-      <c r="EN4" s="59"/>
-      <c r="EO4" s="59"/>
-      <c r="EP4" s="59"/>
-      <c r="EQ4" s="59"/>
-      <c r="ER4" s="59"/>
-      <c r="ES4" s="58">
+      <c r="EM4" s="56"/>
+      <c r="EN4" s="56"/>
+      <c r="EO4" s="56"/>
+      <c r="EP4" s="56"/>
+      <c r="EQ4" s="56"/>
+      <c r="ER4" s="56"/>
+      <c r="ES4" s="55">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="59"/>
-      <c r="EU4" s="59"/>
-      <c r="EV4" s="59"/>
-      <c r="EW4" s="59"/>
-      <c r="EX4" s="59"/>
-      <c r="EY4" s="59"/>
-      <c r="EZ4" s="58">
+      <c r="ET4" s="56"/>
+      <c r="EU4" s="56"/>
+      <c r="EV4" s="56"/>
+      <c r="EW4" s="56"/>
+      <c r="EX4" s="56"/>
+      <c r="EY4" s="56"/>
+      <c r="EZ4" s="55">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="59"/>
-      <c r="FB4" s="59"/>
-      <c r="FC4" s="59"/>
-      <c r="FD4" s="59"/>
-      <c r="FE4" s="59"/>
-      <c r="FF4" s="59"/>
-      <c r="FG4" s="58">
+      <c r="FA4" s="56"/>
+      <c r="FB4" s="56"/>
+      <c r="FC4" s="56"/>
+      <c r="FD4" s="56"/>
+      <c r="FE4" s="56"/>
+      <c r="FF4" s="56"/>
+      <c r="FG4" s="55">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="59"/>
-      <c r="FI4" s="59"/>
-      <c r="FJ4" s="59"/>
-      <c r="FK4" s="59"/>
-      <c r="FL4" s="59"/>
-      <c r="FM4" s="59"/>
-      <c r="FN4" s="58">
+      <c r="FH4" s="56"/>
+      <c r="FI4" s="56"/>
+      <c r="FJ4" s="56"/>
+      <c r="FK4" s="56"/>
+      <c r="FL4" s="56"/>
+      <c r="FM4" s="56"/>
+      <c r="FN4" s="55">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="59"/>
-      <c r="FP4" s="59"/>
-      <c r="FQ4" s="59"/>
-      <c r="FR4" s="59"/>
-      <c r="FS4" s="59"/>
-      <c r="FT4" s="59"/>
-      <c r="FU4" s="58">
+      <c r="FO4" s="56"/>
+      <c r="FP4" s="56"/>
+      <c r="FQ4" s="56"/>
+      <c r="FR4" s="56"/>
+      <c r="FS4" s="56"/>
+      <c r="FT4" s="56"/>
+      <c r="FU4" s="55">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="59"/>
-      <c r="FW4" s="59"/>
-      <c r="FX4" s="59"/>
-      <c r="FY4" s="59"/>
-      <c r="FZ4" s="59"/>
-      <c r="GA4" s="59"/>
-      <c r="GB4" s="58">
+      <c r="FV4" s="56"/>
+      <c r="FW4" s="56"/>
+      <c r="FX4" s="56"/>
+      <c r="FY4" s="56"/>
+      <c r="FZ4" s="56"/>
+      <c r="GA4" s="56"/>
+      <c r="GB4" s="55">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="59"/>
-      <c r="GD4" s="59"/>
-      <c r="GE4" s="59"/>
-      <c r="GF4" s="59"/>
-      <c r="GG4" s="59"/>
-      <c r="GH4" s="59"/>
-      <c r="GI4" s="58">
+      <c r="GC4" s="56"/>
+      <c r="GD4" s="56"/>
+      <c r="GE4" s="56"/>
+      <c r="GF4" s="56"/>
+      <c r="GG4" s="56"/>
+      <c r="GH4" s="56"/>
+      <c r="GI4" s="55">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="59"/>
-      <c r="GK4" s="59"/>
-      <c r="GL4" s="59"/>
-      <c r="GM4" s="59"/>
-      <c r="GN4" s="59"/>
-      <c r="GO4" s="59"/>
-      <c r="GP4" s="58">
+      <c r="GJ4" s="56"/>
+      <c r="GK4" s="56"/>
+      <c r="GL4" s="56"/>
+      <c r="GM4" s="56"/>
+      <c r="GN4" s="56"/>
+      <c r="GO4" s="56"/>
+      <c r="GP4" s="55">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="59"/>
-      <c r="GR4" s="59"/>
-      <c r="GS4" s="59"/>
-      <c r="GT4" s="59"/>
-      <c r="GU4" s="59"/>
-      <c r="GV4" s="59"/>
-      <c r="GW4" s="58">
+      <c r="GQ4" s="56"/>
+      <c r="GR4" s="56"/>
+      <c r="GS4" s="56"/>
+      <c r="GT4" s="56"/>
+      <c r="GU4" s="56"/>
+      <c r="GV4" s="56"/>
+      <c r="GW4" s="55">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="59"/>
-      <c r="GY4" s="59"/>
-      <c r="GZ4" s="59"/>
-      <c r="HA4" s="59"/>
-      <c r="HB4" s="59"/>
-      <c r="HC4" s="59"/>
-      <c r="HD4" s="58">
+      <c r="GX4" s="56"/>
+      <c r="GY4" s="56"/>
+      <c r="GZ4" s="56"/>
+      <c r="HA4" s="56"/>
+      <c r="HB4" s="56"/>
+      <c r="HC4" s="56"/>
+      <c r="HD4" s="55">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="59"/>
-      <c r="HF4" s="59"/>
-      <c r="HG4" s="59"/>
-      <c r="HH4" s="59"/>
-      <c r="HI4" s="59"/>
-      <c r="HJ4" s="59"/>
-      <c r="HK4" s="58">
+      <c r="HE4" s="56"/>
+      <c r="HF4" s="56"/>
+      <c r="HG4" s="56"/>
+      <c r="HH4" s="56"/>
+      <c r="HI4" s="56"/>
+      <c r="HJ4" s="56"/>
+      <c r="HK4" s="55">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="59"/>
-      <c r="HM4" s="59"/>
-      <c r="HN4" s="59"/>
-      <c r="HO4" s="59"/>
-      <c r="HP4" s="59"/>
-      <c r="HQ4" s="59"/>
-      <c r="HR4" s="58">
+      <c r="HL4" s="56"/>
+      <c r="HM4" s="56"/>
+      <c r="HN4" s="56"/>
+      <c r="HO4" s="56"/>
+      <c r="HP4" s="56"/>
+      <c r="HQ4" s="56"/>
+      <c r="HR4" s="55">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="59"/>
-      <c r="HT4" s="59"/>
-      <c r="HU4" s="59"/>
-      <c r="HV4" s="59"/>
-      <c r="HW4" s="59"/>
-      <c r="HX4" s="59"/>
-      <c r="HY4" s="58">
+      <c r="HS4" s="56"/>
+      <c r="HT4" s="56"/>
+      <c r="HU4" s="56"/>
+      <c r="HV4" s="56"/>
+      <c r="HW4" s="56"/>
+      <c r="HX4" s="56"/>
+      <c r="HY4" s="55">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="59"/>
-      <c r="IA4" s="59"/>
-      <c r="IB4" s="59"/>
-      <c r="IC4" s="59"/>
-      <c r="ID4" s="59"/>
-      <c r="IE4" s="59"/>
-      <c r="IF4" s="58">
+      <c r="HZ4" s="56"/>
+      <c r="IA4" s="56"/>
+      <c r="IB4" s="56"/>
+      <c r="IC4" s="56"/>
+      <c r="ID4" s="56"/>
+      <c r="IE4" s="56"/>
+      <c r="IF4" s="55">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="59"/>
-      <c r="IH4" s="59"/>
-      <c r="II4" s="59"/>
-      <c r="IJ4" s="59"/>
-      <c r="IK4" s="59"/>
-      <c r="IL4" s="59"/>
-      <c r="IM4" s="58">
+      <c r="IG4" s="56"/>
+      <c r="IH4" s="56"/>
+      <c r="II4" s="56"/>
+      <c r="IJ4" s="56"/>
+      <c r="IK4" s="56"/>
+      <c r="IL4" s="56"/>
+      <c r="IM4" s="55">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="59"/>
-      <c r="IO4" s="59"/>
-      <c r="IP4" s="59"/>
-      <c r="IQ4" s="59"/>
-      <c r="IR4" s="59"/>
-      <c r="IS4" s="59"/>
-      <c r="IT4" s="58">
+      <c r="IN4" s="56"/>
+      <c r="IO4" s="56"/>
+      <c r="IP4" s="56"/>
+      <c r="IQ4" s="56"/>
+      <c r="IR4" s="56"/>
+      <c r="IS4" s="56"/>
+      <c r="IT4" s="55">
         <f>IT5</f>
         <v>45565</v>
       </c>
-      <c r="IU4" s="59"/>
-      <c r="IV4" s="59"/>
-      <c r="IW4" s="59"/>
-      <c r="IX4" s="59"/>
-      <c r="IY4" s="59"/>
-      <c r="IZ4" s="59"/>
-      <c r="JA4" s="58">
+      <c r="IU4" s="56"/>
+      <c r="IV4" s="56"/>
+      <c r="IW4" s="56"/>
+      <c r="IX4" s="56"/>
+      <c r="IY4" s="56"/>
+      <c r="IZ4" s="56"/>
+      <c r="JA4" s="55">
         <f>JA5</f>
         <v>45572</v>
       </c>
-      <c r="JB4" s="59"/>
-      <c r="JC4" s="59"/>
-      <c r="JD4" s="59"/>
-      <c r="JE4" s="59"/>
-      <c r="JF4" s="59"/>
-      <c r="JG4" s="59"/>
-      <c r="JH4" s="58">
+      <c r="JB4" s="56"/>
+      <c r="JC4" s="56"/>
+      <c r="JD4" s="56"/>
+      <c r="JE4" s="56"/>
+      <c r="JF4" s="56"/>
+      <c r="JG4" s="56"/>
+      <c r="JH4" s="55">
         <f>JH5</f>
         <v>45579</v>
       </c>
-      <c r="JI4" s="59"/>
-      <c r="JJ4" s="59"/>
-      <c r="JK4" s="59"/>
-      <c r="JL4" s="59"/>
-      <c r="JM4" s="59"/>
-      <c r="JN4" s="59"/>
+      <c r="JI4" s="56"/>
+      <c r="JJ4" s="56"/>
+      <c r="JK4" s="56"/>
+      <c r="JL4" s="56"/>
+      <c r="JM4" s="56"/>
+      <c r="JN4" s="56"/>
     </row>
     <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -5557,10 +4465,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -6924,10 +5832,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="73"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -7207,10 +6115,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="63"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -7498,10 +6406,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="63"/>
+      <c r="C10" s="61"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -7789,10 +6697,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="63"/>
+      <c r="C11" s="61"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -8077,10 +6985,10 @@
     </row>
     <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -8364,10 +7272,10 @@
     </row>
     <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="64"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -8651,10 +7559,10 @@
     </row>
     <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="64"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -8936,10 +7844,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="72"/>
+      <c r="C15" s="58"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -9217,10 +8125,10 @@
     </row>
     <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="55" t="s">
+      <c r="B16" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="55"/>
+      <c r="C16" s="72"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -9504,10 +8412,10 @@
     </row>
     <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="55"/>
+      <c r="C17" s="72"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -9788,10 +8696,10 @@
     </row>
     <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="72"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -10072,10 +8980,10 @@
     </row>
     <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="55" t="s">
+      <c r="B19" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="C19" s="55"/>
+      <c r="C19" s="72"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -10359,10 +9267,10 @@
     </row>
     <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="55"/>
+      <c r="C20" s="72"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -10646,10 +9554,10 @@
     </row>
     <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="55" t="s">
+      <c r="B21" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="55"/>
+      <c r="C21" s="72"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -10930,10 +9838,10 @@
     </row>
     <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="55" t="s">
+      <c r="B22" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="55"/>
+      <c r="C22" s="72"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -11214,10 +10122,10 @@
     </row>
     <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="55" t="s">
+      <c r="B23" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="C23" s="55"/>
+      <c r="C23" s="72"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -11503,10 +10411,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="73"/>
+      <c r="C24" s="59"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -11784,10 +10692,10 @@
     </row>
     <row r="25" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="54" t="s">
+      <c r="B25" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="54"/>
+      <c r="C25" s="57"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -12071,10 +10979,10 @@
     </row>
     <row r="26" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="54"/>
+      <c r="C26" s="57"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -12355,10 +11263,10 @@
     </row>
     <row r="27" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="C27" s="54"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -12639,10 +11547,10 @@
     </row>
     <row r="28" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="54" t="s">
+      <c r="B28" s="57" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="54"/>
+      <c r="C28" s="57"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -12926,10 +11834,10 @@
     </row>
     <row r="29" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="54"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -13213,10 +12121,10 @@
     </row>
     <row r="30" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="54"/>
+      <c r="C30" s="57"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -13500,10 +12408,10 @@
     </row>
     <row r="31" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="54"/>
+      <c r="C31" s="57"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -13787,10 +12695,10 @@
     </row>
     <row r="32" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C32" s="54"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -14074,10 +12982,10 @@
     </row>
     <row r="33" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C33" s="54"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -14358,10 +13266,10 @@
     </row>
     <row r="34" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="54" t="s">
+      <c r="B34" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="54"/>
+      <c r="C34" s="57"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -14642,10 +13550,10 @@
     </row>
     <row r="35" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="54" t="s">
+      <c r="B35" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="C35" s="54"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -14929,10 +13837,10 @@
     </row>
     <row r="36" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C36" s="54"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -15218,10 +14126,10 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="74" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="57"/>
+      <c r="C37" s="74"/>
       <c r="D37" s="42"/>
       <c r="E37" s="43"/>
       <c r="F37" s="44"/>
@@ -15499,10 +14407,10 @@
     </row>
     <row r="38" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="56" t="s">
+      <c r="B38" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="56"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="45">
         <v>1</v>
       </c>
@@ -15786,10 +14694,10 @@
     </row>
     <row r="39" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="56" t="s">
+      <c r="B39" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="56"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="45">
         <v>1</v>
       </c>
@@ -16073,10 +14981,10 @@
     </row>
     <row r="40" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="C40" s="56"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="45">
         <v>1</v>
       </c>
@@ -16360,10 +15268,10 @@
     </row>
     <row r="41" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="56" t="s">
+      <c r="B41" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="56"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="45">
         <v>1</v>
       </c>
@@ -16644,10 +15552,10 @@
     </row>
     <row r="42" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="65" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="56"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="45">
         <v>1</v>
       </c>
@@ -16933,10 +15841,10 @@
       <c r="A43" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B43" s="71" t="s">
+      <c r="B43" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="71"/>
+      <c r="C43" s="63"/>
       <c r="D43" s="49"/>
       <c r="E43" s="50"/>
       <c r="F43" s="51"/>
@@ -17213,10 +16121,10 @@
     </row>
     <row r="44" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="70" t="s">
+      <c r="B44" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C44" s="70"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="52">
         <v>1</v>
       </c>
@@ -17497,10 +16405,10 @@
     </row>
     <row r="45" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="69" t="s">
+      <c r="B45" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="C45" s="69"/>
+      <c r="C45" s="54"/>
       <c r="D45" s="52">
         <v>1</v>
       </c>
@@ -17783,10 +16691,10 @@
     </row>
     <row r="46" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="69" t="s">
+      <c r="B46" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="C46" s="69"/>
+      <c r="C46" s="54"/>
       <c r="D46" s="52">
         <v>1</v>
       </c>
@@ -18067,10 +16975,10 @@
     </row>
     <row r="47" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="69" t="s">
+      <c r="B47" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C47" s="69"/>
+      <c r="C47" s="54"/>
       <c r="D47" s="52">
         <v>1</v>
       </c>
@@ -18351,10 +17259,10 @@
     </row>
     <row r="48" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="69" t="s">
+      <c r="B48" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="C48" s="69"/>
+      <c r="C48" s="54"/>
       <c r="D48" s="52">
         <v>1</v>
       </c>
@@ -18635,10 +17543,10 @@
     </row>
     <row r="49" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="69" t="s">
+      <c r="B49" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="C49" s="69"/>
+      <c r="C49" s="54"/>
       <c r="D49" s="52">
         <v>1</v>
       </c>
@@ -18919,10 +17827,10 @@
     </row>
     <row r="50" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="69" t="s">
+      <c r="B50" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="69"/>
+      <c r="C50" s="54"/>
       <c r="D50" s="52">
         <v>1</v>
       </c>
@@ -19203,10 +18111,10 @@
     </row>
     <row r="51" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="69" t="s">
+      <c r="B51" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="C51" s="69"/>
+      <c r="C51" s="54"/>
       <c r="D51" s="52">
         <v>1</v>
       </c>
@@ -19489,12 +18397,12 @@
     </row>
     <row r="52" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="69" t="s">
+      <c r="B52" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="C52" s="69"/>
+      <c r="C52" s="54"/>
       <c r="D52" s="52">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E52" s="53">
         <v>45525</v>
@@ -19773,23 +18681,21 @@
     </row>
     <row r="53" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="7"/>
-      <c r="B53" s="69" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" s="69"/>
+      <c r="B53" s="54" t="s">
+        <v>65</v>
+      </c>
+      <c r="C53" s="54"/>
       <c r="D53" s="52">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="E53" s="53">
-        <v>45531</v>
+        <v>45580</v>
       </c>
       <c r="F53" s="53">
-        <v>45576</v>
+        <v>45606</v>
       </c>
       <c r="G53" s="28"/>
-      <c r="H53" s="28">
-        <v>87</v>
-      </c>
+      <c r="H53" s="28"/>
       <c r="I53" s="23"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
@@ -20006,42 +18912,42 @@
       <c r="HN53" s="23"/>
       <c r="HO53" s="23"/>
       <c r="HP53" s="23"/>
-      <c r="HQ53" s="23"/>
+      <c r="HQ53" s="24"/>
       <c r="HR53" s="23"/>
       <c r="HS53" s="23"/>
       <c r="HT53" s="23"/>
       <c r="HU53" s="23"/>
       <c r="HV53" s="23"/>
       <c r="HW53" s="23"/>
-      <c r="HX53" s="23"/>
+      <c r="HX53" s="24"/>
       <c r="HY53" s="23"/>
       <c r="HZ53" s="23"/>
       <c r="IA53" s="23"/>
       <c r="IB53" s="23"/>
       <c r="IC53" s="23"/>
       <c r="ID53" s="23"/>
-      <c r="IE53" s="23"/>
+      <c r="IE53" s="24"/>
       <c r="IF53" s="23"/>
       <c r="IG53" s="23"/>
       <c r="IH53" s="23"/>
       <c r="II53" s="23"/>
       <c r="IJ53" s="23"/>
       <c r="IK53" s="23"/>
-      <c r="IL53" s="23"/>
+      <c r="IL53" s="24"/>
       <c r="IM53" s="23"/>
       <c r="IN53" s="23"/>
       <c r="IO53" s="23"/>
       <c r="IP53" s="23"/>
       <c r="IQ53" s="23"/>
       <c r="IR53" s="23"/>
-      <c r="IS53" s="23"/>
+      <c r="IS53" s="24"/>
       <c r="IT53" s="23"/>
       <c r="IU53" s="23"/>
       <c r="IV53" s="23"/>
       <c r="IW53" s="23"/>
       <c r="IX53" s="23"/>
-      <c r="IY53" s="23"/>
-      <c r="IZ53" s="23"/>
+      <c r="IY53" s="24"/>
+      <c r="IZ53" s="24"/>
       <c r="JA53" s="23"/>
       <c r="JB53" s="23"/>
       <c r="JC53" s="23"/>
@@ -20057,44 +18963,605 @@
       <c r="JM53" s="23"/>
       <c r="JN53" s="24"/>
     </row>
+    <row r="54" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7"/>
+      <c r="B54" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" s="54"/>
+      <c r="D54" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="E54" s="53">
+        <v>45531</v>
+      </c>
+      <c r="F54" s="53">
+        <v>45608</v>
+      </c>
+      <c r="G54" s="28"/>
+      <c r="H54" s="28"/>
+      <c r="I54" s="23"/>
+      <c r="J54" s="23"/>
+      <c r="K54" s="23"/>
+      <c r="L54" s="23"/>
+      <c r="M54" s="23"/>
+      <c r="N54" s="23"/>
+      <c r="O54" s="23"/>
+      <c r="P54" s="23"/>
+      <c r="Q54" s="23"/>
+      <c r="R54" s="23"/>
+      <c r="S54" s="23"/>
+      <c r="T54" s="23"/>
+      <c r="U54" s="23"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
+      <c r="X54" s="23"/>
+      <c r="Y54" s="23"/>
+      <c r="Z54" s="23"/>
+      <c r="AA54" s="23"/>
+      <c r="AB54" s="23"/>
+      <c r="AC54" s="23"/>
+      <c r="AD54" s="23"/>
+      <c r="AE54" s="23"/>
+      <c r="AF54" s="23"/>
+      <c r="AG54" s="23"/>
+      <c r="AH54" s="23"/>
+      <c r="AI54" s="23"/>
+      <c r="AJ54" s="23"/>
+      <c r="AK54" s="23"/>
+      <c r="AL54" s="23"/>
+      <c r="AM54" s="23"/>
+      <c r="AN54" s="23"/>
+      <c r="AO54" s="23"/>
+      <c r="AP54" s="23"/>
+      <c r="AQ54" s="24"/>
+      <c r="AR54" s="23"/>
+      <c r="AS54" s="23"/>
+      <c r="AT54" s="23"/>
+      <c r="AU54" s="23"/>
+      <c r="AV54" s="23"/>
+      <c r="AW54" s="23"/>
+      <c r="AX54" s="24"/>
+      <c r="AY54" s="23"/>
+      <c r="AZ54" s="23"/>
+      <c r="BA54" s="23"/>
+      <c r="BB54" s="23"/>
+      <c r="BC54" s="23"/>
+      <c r="BD54" s="23"/>
+      <c r="BE54" s="24"/>
+      <c r="BF54" s="23"/>
+      <c r="BG54" s="23"/>
+      <c r="BH54" s="23"/>
+      <c r="BI54" s="23"/>
+      <c r="BJ54" s="23"/>
+      <c r="BK54" s="23"/>
+      <c r="BL54" s="24"/>
+      <c r="BM54" s="23"/>
+      <c r="BN54" s="23"/>
+      <c r="BO54" s="23"/>
+      <c r="BP54" s="23"/>
+      <c r="BQ54" s="23"/>
+      <c r="BR54" s="23"/>
+      <c r="BS54" s="24"/>
+      <c r="BT54" s="23"/>
+      <c r="BU54" s="23"/>
+      <c r="BV54" s="23"/>
+      <c r="BW54" s="23"/>
+      <c r="BX54" s="23"/>
+      <c r="BY54" s="23"/>
+      <c r="BZ54" s="24"/>
+      <c r="CA54" s="23"/>
+      <c r="CB54" s="23"/>
+      <c r="CC54" s="23"/>
+      <c r="CD54" s="23"/>
+      <c r="CE54" s="23"/>
+      <c r="CF54" s="23"/>
+      <c r="CG54" s="24"/>
+      <c r="CH54" s="23"/>
+      <c r="CI54" s="23"/>
+      <c r="CJ54" s="23"/>
+      <c r="CK54" s="23"/>
+      <c r="CL54" s="23"/>
+      <c r="CM54" s="23"/>
+      <c r="CN54" s="24"/>
+      <c r="CO54" s="23"/>
+      <c r="CP54" s="23"/>
+      <c r="CQ54" s="23"/>
+      <c r="CR54" s="23"/>
+      <c r="CS54" s="23"/>
+      <c r="CT54" s="23"/>
+      <c r="CU54" s="24"/>
+      <c r="CV54" s="23"/>
+      <c r="CW54" s="23"/>
+      <c r="CX54" s="23"/>
+      <c r="CY54" s="23"/>
+      <c r="CZ54" s="23"/>
+      <c r="DA54" s="23"/>
+      <c r="DB54" s="24"/>
+      <c r="DC54" s="23"/>
+      <c r="DD54" s="23"/>
+      <c r="DE54" s="23"/>
+      <c r="DF54" s="23"/>
+      <c r="DG54" s="23"/>
+      <c r="DH54" s="23"/>
+      <c r="DI54" s="24"/>
+      <c r="DJ54" s="23"/>
+      <c r="DK54" s="23"/>
+      <c r="DL54" s="23"/>
+      <c r="DM54" s="23"/>
+      <c r="DN54" s="23"/>
+      <c r="DO54" s="23"/>
+      <c r="DP54" s="24"/>
+      <c r="DQ54" s="23"/>
+      <c r="DR54" s="23"/>
+      <c r="DS54" s="23"/>
+      <c r="DT54" s="23"/>
+      <c r="DU54" s="23"/>
+      <c r="DV54" s="23"/>
+      <c r="DW54" s="24"/>
+      <c r="DX54" s="23"/>
+      <c r="DY54" s="23"/>
+      <c r="DZ54" s="23"/>
+      <c r="EA54" s="23"/>
+      <c r="EB54" s="23"/>
+      <c r="EC54" s="23"/>
+      <c r="ED54" s="24"/>
+      <c r="EE54" s="23"/>
+      <c r="EF54" s="23"/>
+      <c r="EG54" s="23"/>
+      <c r="EH54" s="23"/>
+      <c r="EI54" s="23"/>
+      <c r="EJ54" s="23"/>
+      <c r="EK54" s="24"/>
+      <c r="EL54" s="23"/>
+      <c r="EM54" s="23"/>
+      <c r="EN54" s="23"/>
+      <c r="EO54" s="23"/>
+      <c r="EP54" s="23"/>
+      <c r="EQ54" s="23"/>
+      <c r="ER54" s="24"/>
+      <c r="ES54" s="23"/>
+      <c r="ET54" s="23"/>
+      <c r="EU54" s="23"/>
+      <c r="EV54" s="23"/>
+      <c r="EW54" s="23"/>
+      <c r="EX54" s="23"/>
+      <c r="EY54" s="24"/>
+      <c r="EZ54" s="23"/>
+      <c r="FA54" s="23"/>
+      <c r="FB54" s="23"/>
+      <c r="FC54" s="23"/>
+      <c r="FD54" s="23"/>
+      <c r="FE54" s="23"/>
+      <c r="FF54" s="24"/>
+      <c r="FG54" s="23"/>
+      <c r="FH54" s="23"/>
+      <c r="FI54" s="23"/>
+      <c r="FJ54" s="23"/>
+      <c r="FK54" s="23"/>
+      <c r="FL54" s="23"/>
+      <c r="FM54" s="24"/>
+      <c r="FN54" s="23"/>
+      <c r="FO54" s="23"/>
+      <c r="FP54" s="23"/>
+      <c r="FQ54" s="23"/>
+      <c r="FR54" s="23"/>
+      <c r="FS54" s="23"/>
+      <c r="FT54" s="24"/>
+      <c r="FU54" s="23"/>
+      <c r="FV54" s="23"/>
+      <c r="FW54" s="23"/>
+      <c r="FX54" s="23"/>
+      <c r="FY54" s="23"/>
+      <c r="FZ54" s="23"/>
+      <c r="GA54" s="24"/>
+      <c r="GB54" s="23"/>
+      <c r="GC54" s="23"/>
+      <c r="GD54" s="23"/>
+      <c r="GE54" s="23"/>
+      <c r="GF54" s="23"/>
+      <c r="GG54" s="23"/>
+      <c r="GH54" s="24"/>
+      <c r="GI54" s="23"/>
+      <c r="GJ54" s="23"/>
+      <c r="GK54" s="23"/>
+      <c r="GL54" s="23"/>
+      <c r="GM54" s="23"/>
+      <c r="GN54" s="23"/>
+      <c r="GO54" s="24"/>
+      <c r="GP54" s="23"/>
+      <c r="GQ54" s="23"/>
+      <c r="GR54" s="23"/>
+      <c r="GS54" s="23"/>
+      <c r="GT54" s="23"/>
+      <c r="GU54" s="23"/>
+      <c r="GV54" s="24"/>
+      <c r="GW54" s="23"/>
+      <c r="GX54" s="23"/>
+      <c r="GY54" s="23"/>
+      <c r="GZ54" s="23"/>
+      <c r="HA54" s="23"/>
+      <c r="HB54" s="23"/>
+      <c r="HC54" s="24"/>
+      <c r="HD54" s="23"/>
+      <c r="HE54" s="23"/>
+      <c r="HF54" s="23"/>
+      <c r="HG54" s="23"/>
+      <c r="HH54" s="23"/>
+      <c r="HI54" s="23"/>
+      <c r="HJ54" s="24"/>
+      <c r="HK54" s="23"/>
+      <c r="HL54" s="23"/>
+      <c r="HM54" s="23"/>
+      <c r="HN54" s="23"/>
+      <c r="HO54" s="23"/>
+      <c r="HP54" s="23"/>
+      <c r="HQ54" s="24"/>
+      <c r="HR54" s="23"/>
+      <c r="HS54" s="23"/>
+      <c r="HT54" s="23"/>
+      <c r="HU54" s="23"/>
+      <c r="HV54" s="23"/>
+      <c r="HW54" s="23"/>
+      <c r="HX54" s="24"/>
+      <c r="HY54" s="23"/>
+      <c r="HZ54" s="23"/>
+      <c r="IA54" s="23"/>
+      <c r="IB54" s="23"/>
+      <c r="IC54" s="23"/>
+      <c r="ID54" s="23"/>
+      <c r="IE54" s="24"/>
+      <c r="IF54" s="23"/>
+      <c r="IG54" s="23"/>
+      <c r="IH54" s="23"/>
+      <c r="II54" s="23"/>
+      <c r="IJ54" s="23"/>
+      <c r="IK54" s="23"/>
+      <c r="IL54" s="24"/>
+      <c r="IM54" s="23"/>
+      <c r="IN54" s="23"/>
+      <c r="IO54" s="23"/>
+      <c r="IP54" s="23"/>
+      <c r="IQ54" s="23"/>
+      <c r="IR54" s="23"/>
+      <c r="IS54" s="24"/>
+      <c r="IT54" s="23"/>
+      <c r="IU54" s="23"/>
+      <c r="IV54" s="23"/>
+      <c r="IW54" s="23"/>
+      <c r="IX54" s="23"/>
+      <c r="IY54" s="24"/>
+      <c r="IZ54" s="24"/>
+      <c r="JA54" s="23"/>
+      <c r="JB54" s="23"/>
+      <c r="JC54" s="23"/>
+      <c r="JD54" s="23"/>
+      <c r="JE54" s="23"/>
+      <c r="JF54" s="23"/>
+      <c r="JG54" s="24"/>
+      <c r="JH54" s="23"/>
+      <c r="JI54" s="23"/>
+      <c r="JJ54" s="23"/>
+      <c r="JK54" s="23"/>
+      <c r="JL54" s="23"/>
+      <c r="JM54" s="23"/>
+      <c r="JN54" s="24"/>
+    </row>
+    <row r="55" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7"/>
+      <c r="B55" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="54"/>
+      <c r="D55" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="E55" s="53">
+        <v>45593</v>
+      </c>
+      <c r="F55" s="53">
+        <v>45613</v>
+      </c>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28">
+        <v>87</v>
+      </c>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
+      <c r="AG55" s="23"/>
+      <c r="AH55" s="23"/>
+      <c r="AI55" s="23"/>
+      <c r="AJ55" s="23"/>
+      <c r="AK55" s="23"/>
+      <c r="AL55" s="23"/>
+      <c r="AM55" s="23"/>
+      <c r="AN55" s="23"/>
+      <c r="AO55" s="23"/>
+      <c r="AP55" s="23"/>
+      <c r="AQ55" s="24"/>
+      <c r="AR55" s="23"/>
+      <c r="AS55" s="23"/>
+      <c r="AT55" s="23"/>
+      <c r="AU55" s="23"/>
+      <c r="AV55" s="23"/>
+      <c r="AW55" s="23"/>
+      <c r="AX55" s="24"/>
+      <c r="AY55" s="23"/>
+      <c r="AZ55" s="23"/>
+      <c r="BA55" s="23"/>
+      <c r="BB55" s="23"/>
+      <c r="BC55" s="23"/>
+      <c r="BD55" s="23"/>
+      <c r="BE55" s="24"/>
+      <c r="BF55" s="23"/>
+      <c r="BG55" s="23"/>
+      <c r="BH55" s="23"/>
+      <c r="BI55" s="23"/>
+      <c r="BJ55" s="23"/>
+      <c r="BK55" s="23"/>
+      <c r="BL55" s="24"/>
+      <c r="BM55" s="23"/>
+      <c r="BN55" s="23"/>
+      <c r="BO55" s="23"/>
+      <c r="BP55" s="23"/>
+      <c r="BQ55" s="23"/>
+      <c r="BR55" s="23"/>
+      <c r="BS55" s="24"/>
+      <c r="BT55" s="23"/>
+      <c r="BU55" s="23"/>
+      <c r="BV55" s="23"/>
+      <c r="BW55" s="23"/>
+      <c r="BX55" s="23"/>
+      <c r="BY55" s="23"/>
+      <c r="BZ55" s="24"/>
+      <c r="CA55" s="23"/>
+      <c r="CB55" s="23"/>
+      <c r="CC55" s="23"/>
+      <c r="CD55" s="23"/>
+      <c r="CE55" s="23"/>
+      <c r="CF55" s="23"/>
+      <c r="CG55" s="24"/>
+      <c r="CH55" s="23"/>
+      <c r="CI55" s="23"/>
+      <c r="CJ55" s="23"/>
+      <c r="CK55" s="23"/>
+      <c r="CL55" s="23"/>
+      <c r="CM55" s="23"/>
+      <c r="CN55" s="24"/>
+      <c r="CO55" s="23"/>
+      <c r="CP55" s="23"/>
+      <c r="CQ55" s="23"/>
+      <c r="CR55" s="23"/>
+      <c r="CS55" s="23"/>
+      <c r="CT55" s="23"/>
+      <c r="CU55" s="24"/>
+      <c r="CV55" s="23"/>
+      <c r="CW55" s="23"/>
+      <c r="CX55" s="23"/>
+      <c r="CY55" s="23"/>
+      <c r="CZ55" s="23"/>
+      <c r="DA55" s="23"/>
+      <c r="DB55" s="24"/>
+      <c r="DC55" s="23"/>
+      <c r="DD55" s="23"/>
+      <c r="DE55" s="23"/>
+      <c r="DF55" s="23"/>
+      <c r="DG55" s="23"/>
+      <c r="DH55" s="23"/>
+      <c r="DI55" s="24"/>
+      <c r="DJ55" s="23"/>
+      <c r="DK55" s="23"/>
+      <c r="DL55" s="23"/>
+      <c r="DM55" s="23"/>
+      <c r="DN55" s="23"/>
+      <c r="DO55" s="23"/>
+      <c r="DP55" s="24"/>
+      <c r="DQ55" s="23"/>
+      <c r="DR55" s="23"/>
+      <c r="DS55" s="23"/>
+      <c r="DT55" s="23"/>
+      <c r="DU55" s="23"/>
+      <c r="DV55" s="23"/>
+      <c r="DW55" s="24"/>
+      <c r="DX55" s="23"/>
+      <c r="DY55" s="23"/>
+      <c r="DZ55" s="23"/>
+      <c r="EA55" s="23"/>
+      <c r="EB55" s="23"/>
+      <c r="EC55" s="23"/>
+      <c r="ED55" s="24"/>
+      <c r="EE55" s="23"/>
+      <c r="EF55" s="23"/>
+      <c r="EG55" s="23"/>
+      <c r="EH55" s="23"/>
+      <c r="EI55" s="23"/>
+      <c r="EJ55" s="23"/>
+      <c r="EK55" s="24"/>
+      <c r="EL55" s="23"/>
+      <c r="EM55" s="23"/>
+      <c r="EN55" s="23"/>
+      <c r="EO55" s="23"/>
+      <c r="EP55" s="23"/>
+      <c r="EQ55" s="23"/>
+      <c r="ER55" s="24"/>
+      <c r="ES55" s="23"/>
+      <c r="ET55" s="23"/>
+      <c r="EU55" s="23"/>
+      <c r="EV55" s="23"/>
+      <c r="EW55" s="23"/>
+      <c r="EX55" s="23"/>
+      <c r="EY55" s="24"/>
+      <c r="EZ55" s="23"/>
+      <c r="FA55" s="23"/>
+      <c r="FB55" s="23"/>
+      <c r="FC55" s="23"/>
+      <c r="FD55" s="23"/>
+      <c r="FE55" s="23"/>
+      <c r="FF55" s="24"/>
+      <c r="FG55" s="23"/>
+      <c r="FH55" s="23"/>
+      <c r="FI55" s="23"/>
+      <c r="FJ55" s="23"/>
+      <c r="FK55" s="23"/>
+      <c r="FL55" s="23"/>
+      <c r="FM55" s="24"/>
+      <c r="FN55" s="23"/>
+      <c r="FO55" s="23"/>
+      <c r="FP55" s="23"/>
+      <c r="FQ55" s="23"/>
+      <c r="FR55" s="23"/>
+      <c r="FS55" s="23"/>
+      <c r="FT55" s="24"/>
+      <c r="FU55" s="23"/>
+      <c r="FV55" s="23"/>
+      <c r="FW55" s="23"/>
+      <c r="FX55" s="23"/>
+      <c r="FY55" s="23"/>
+      <c r="FZ55" s="23"/>
+      <c r="GA55" s="24"/>
+      <c r="GB55" s="23"/>
+      <c r="GC55" s="23"/>
+      <c r="GD55" s="23"/>
+      <c r="GE55" s="23"/>
+      <c r="GF55" s="23"/>
+      <c r="GG55" s="23"/>
+      <c r="GH55" s="24"/>
+      <c r="GI55" s="23"/>
+      <c r="GJ55" s="23"/>
+      <c r="GK55" s="23"/>
+      <c r="GL55" s="23"/>
+      <c r="GM55" s="23"/>
+      <c r="GN55" s="23"/>
+      <c r="GO55" s="24"/>
+      <c r="GP55" s="23"/>
+      <c r="GQ55" s="23"/>
+      <c r="GR55" s="23"/>
+      <c r="GS55" s="23"/>
+      <c r="GT55" s="23"/>
+      <c r="GU55" s="23"/>
+      <c r="GV55" s="24"/>
+      <c r="GW55" s="23"/>
+      <c r="GX55" s="23"/>
+      <c r="GY55" s="23"/>
+      <c r="GZ55" s="23"/>
+      <c r="HA55" s="23"/>
+      <c r="HB55" s="23"/>
+      <c r="HC55" s="24"/>
+      <c r="HD55" s="23"/>
+      <c r="HE55" s="23"/>
+      <c r="HF55" s="23"/>
+      <c r="HG55" s="23"/>
+      <c r="HH55" s="23"/>
+      <c r="HI55" s="23"/>
+      <c r="HJ55" s="24"/>
+      <c r="HK55" s="23"/>
+      <c r="HL55" s="23"/>
+      <c r="HM55" s="23"/>
+      <c r="HN55" s="23"/>
+      <c r="HO55" s="23"/>
+      <c r="HP55" s="23"/>
+      <c r="HQ55" s="23"/>
+      <c r="HR55" s="23"/>
+      <c r="HS55" s="23"/>
+      <c r="HT55" s="23"/>
+      <c r="HU55" s="23"/>
+      <c r="HV55" s="23"/>
+      <c r="HW55" s="23"/>
+      <c r="HX55" s="23"/>
+      <c r="HY55" s="23"/>
+      <c r="HZ55" s="23"/>
+      <c r="IA55" s="23"/>
+      <c r="IB55" s="23"/>
+      <c r="IC55" s="23"/>
+      <c r="ID55" s="23"/>
+      <c r="IE55" s="23"/>
+      <c r="IF55" s="23"/>
+      <c r="IG55" s="23"/>
+      <c r="IH55" s="23"/>
+      <c r="II55" s="23"/>
+      <c r="IJ55" s="23"/>
+      <c r="IK55" s="23"/>
+      <c r="IL55" s="23"/>
+      <c r="IM55" s="23"/>
+      <c r="IN55" s="23"/>
+      <c r="IO55" s="23"/>
+      <c r="IP55" s="23"/>
+      <c r="IQ55" s="23"/>
+      <c r="IR55" s="23"/>
+      <c r="IS55" s="23"/>
+      <c r="IT55" s="23"/>
+      <c r="IU55" s="23"/>
+      <c r="IV55" s="23"/>
+      <c r="IW55" s="23"/>
+      <c r="IX55" s="23"/>
+      <c r="IY55" s="23"/>
+      <c r="IZ55" s="23"/>
+      <c r="JA55" s="23"/>
+      <c r="JB55" s="23"/>
+      <c r="JC55" s="23"/>
+      <c r="JD55" s="23"/>
+      <c r="JE55" s="23"/>
+      <c r="JF55" s="23"/>
+      <c r="JG55" s="24"/>
+      <c r="JH55" s="23"/>
+      <c r="JI55" s="23"/>
+      <c r="JJ55" s="23"/>
+      <c r="JK55" s="23"/>
+      <c r="JL55" s="23"/>
+      <c r="JM55" s="23"/>
+      <c r="JN55" s="24"/>
+    </row>
   </sheetData>
-  <mergeCells count="89">
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="IT4:IZ4"/>
-    <mergeCell ref="JA4:JG4"/>
-    <mergeCell ref="JH4:JN4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
+  <mergeCells count="91">
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="AK4:AQ4"/>
@@ -20111,10 +19578,46 @@
     <mergeCell ref="EL4:ER4"/>
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="DQ4:DW4"/>
     <mergeCell ref="DX4:ED4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="IT4:IZ4"/>
+    <mergeCell ref="JA4:JG4"/>
+    <mergeCell ref="JH4:JN4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="HR4:HX4"/>
     <mergeCell ref="BT4:BZ4"/>
     <mergeCell ref="CH4:CN4"/>
     <mergeCell ref="DJ4:DP4"/>
@@ -20123,33 +19626,8 @@
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D53">
+  <conditionalFormatting sqref="D7:D55">
     <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -20163,795 +19641,401 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO53 DQ5:DV53 DX5:EC53 EE5:EJ53 EL5:EQ53 ES5:EX53 EZ5:FE53 FG5:FL53 FN5:FS53">
-    <cfRule type="expression" dxfId="190" priority="238">
+  <conditionalFormatting sqref="I5:DO55 DQ5:DV55 DX5:EC55 EE5:EJ55 EL5:EQ55 ES5:EX55 EZ5:FE55 FG5:FL55 FN5:FS55">
+    <cfRule type="expression" dxfId="82" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO53 DQ7:DV53 DX7:EC53 EE7:EJ53 EL7:EQ53 ES7:EX53 EZ7:FE53 FG7:FL53 FN7:FS53">
-    <cfRule type="expression" dxfId="189" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:DO55 DQ7:DV55 DX7:EC55 EE7:EJ55 EL7:EQ55 ES7:EX55 EZ7:FE55 FG7:FL55 FN7:FS55">
+    <cfRule type="expression" dxfId="81" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:HJ52 IT7:IZ51 IT52:IX52">
-    <cfRule type="expression" dxfId="188" priority="178">
+  <conditionalFormatting sqref="I55:HK55 IP55:JN55">
+    <cfRule type="expression" dxfId="80" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I53:HK53 IP53:JN53">
-    <cfRule type="expression" dxfId="187" priority="236">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP53 DW5:DW53 ED5:ED53 EK5:EK53 ER5:ER53 EY5:EY53 FF5:FF53">
-    <cfRule type="expression" dxfId="186" priority="492">
+  <conditionalFormatting sqref="DP5:DP55 DW5:DW55 ED5:ED55 EK5:EK55 ER5:ER55 EY5:EY55 FF5:FF55">
+    <cfRule type="expression" dxfId="79" priority="492">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP53 DW7:DW53 ED7:ED53 EK7:EK53 ER7:ER53 EY7:EY53 FF7:FF53">
-    <cfRule type="expression" dxfId="185" priority="496" stopIfTrue="1">
+  <conditionalFormatting sqref="DP7:DP55 DW7:DW55 ED7:ED55 EK7:EK55 ER7:ER55 EY7:EY55 FF7:FF55">
+    <cfRule type="expression" dxfId="78" priority="496" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FM5:FM53 FT5:FT53 IZ5:IZ51 IZ53">
-    <cfRule type="expression" dxfId="184" priority="259">
-      <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FM7:FM53 FT7:FT53 IZ7:IZ51 IZ53">
-    <cfRule type="expression" dxfId="183" priority="260" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU5:FZ53">
-    <cfRule type="expression" dxfId="182" priority="227">
+  <conditionalFormatting sqref="FU5:FZ55">
+    <cfRule type="expression" dxfId="77" priority="227">
       <formula>AND(TODAY()&gt;=FU$5,TODAY()&lt;FV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU7:FZ53">
-    <cfRule type="expression" dxfId="181" priority="226" stopIfTrue="1">
+  <conditionalFormatting sqref="FU7:FZ55">
+    <cfRule type="expression" dxfId="76" priority="226" stopIfTrue="1">
       <formula>AND(task_end&gt;=FU$5,task_start&lt;FV$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA5:GA53">
-    <cfRule type="expression" dxfId="180" priority="232">
+  <conditionalFormatting sqref="GA5:GA55">
+    <cfRule type="expression" dxfId="75" priority="232">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA7:GA53">
-    <cfRule type="expression" dxfId="179" priority="233" stopIfTrue="1">
+  <conditionalFormatting sqref="GA7:GA55">
+    <cfRule type="expression" dxfId="74" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB5:GG53">
-    <cfRule type="expression" dxfId="178" priority="217">
+  <conditionalFormatting sqref="GB5:GG55">
+    <cfRule type="expression" dxfId="73" priority="217">
       <formula>AND(TODAY()&gt;=GB$5,TODAY()&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB7:GG53">
-    <cfRule type="expression" dxfId="177" priority="216" stopIfTrue="1">
+  <conditionalFormatting sqref="GB7:GG55">
+    <cfRule type="expression" dxfId="72" priority="216" stopIfTrue="1">
       <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GH5:GH53">
-    <cfRule type="expression" dxfId="176" priority="222">
+  <conditionalFormatting sqref="GH5:GH55">
+    <cfRule type="expression" dxfId="71" priority="222">
       <formula>AND(TODAY()&gt;=GH$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GH7:GH53">
-    <cfRule type="expression" dxfId="175" priority="223" stopIfTrue="1">
+  <conditionalFormatting sqref="GH7:GH55">
+    <cfRule type="expression" dxfId="70" priority="223" stopIfTrue="1">
       <formula>AND(task_end&gt;=GH$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI5:GN53">
-    <cfRule type="expression" dxfId="174" priority="207">
+  <conditionalFormatting sqref="GI5:GN55">
+    <cfRule type="expression" dxfId="69" priority="207">
       <formula>AND(TODAY()&gt;=GI$5,TODAY()&lt;GJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GI7:GN53">
-    <cfRule type="expression" dxfId="173" priority="206" stopIfTrue="1">
+  <conditionalFormatting sqref="GI7:GN55">
+    <cfRule type="expression" dxfId="68" priority="206" stopIfTrue="1">
       <formula>AND(task_end&gt;=GI$5,task_start&lt;GJ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GO5:GO53">
-    <cfRule type="expression" dxfId="172" priority="212">
+  <conditionalFormatting sqref="GO5:GO55">
+    <cfRule type="expression" dxfId="67" priority="212">
       <formula>AND(TODAY()&gt;=GO$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GO7:GO53">
-    <cfRule type="expression" dxfId="171" priority="213" stopIfTrue="1">
+  <conditionalFormatting sqref="GO7:GO55">
+    <cfRule type="expression" dxfId="66" priority="213" stopIfTrue="1">
       <formula>AND(task_end&gt;=GO$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP5:GU53">
-    <cfRule type="expression" dxfId="170" priority="197">
+  <conditionalFormatting sqref="GP5:GU55">
+    <cfRule type="expression" dxfId="65" priority="197">
       <formula>AND(TODAY()&gt;=GP$5,TODAY()&lt;GQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GP7:GU53">
-    <cfRule type="expression" dxfId="169" priority="196" stopIfTrue="1">
+  <conditionalFormatting sqref="GP7:GU55">
+    <cfRule type="expression" dxfId="64" priority="196" stopIfTrue="1">
       <formula>AND(task_end&gt;=GP$5,task_start&lt;GQ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GV5:GV53">
-    <cfRule type="expression" dxfId="168" priority="202">
+  <conditionalFormatting sqref="GV5:GV55">
+    <cfRule type="expression" dxfId="63" priority="202">
       <formula>AND(TODAY()&gt;=GV$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GV7:GV53">
-    <cfRule type="expression" dxfId="167" priority="203" stopIfTrue="1">
+  <conditionalFormatting sqref="GV7:GV55">
+    <cfRule type="expression" dxfId="62" priority="203" stopIfTrue="1">
       <formula>AND(task_end&gt;=GV$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW5:HB53">
-    <cfRule type="expression" dxfId="166" priority="187">
+  <conditionalFormatting sqref="GW5:HB55">
+    <cfRule type="expression" dxfId="61" priority="187">
       <formula>AND(TODAY()&gt;=GW$5,TODAY()&lt;GX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GW7:HB53">
-    <cfRule type="expression" dxfId="165" priority="186" stopIfTrue="1">
+  <conditionalFormatting sqref="GW7:HB55">
+    <cfRule type="expression" dxfId="60" priority="186" stopIfTrue="1">
       <formula>AND(task_end&gt;=GW$5,task_start&lt;GX$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HC5:HC53">
-    <cfRule type="expression" dxfId="164" priority="192">
+  <conditionalFormatting sqref="HC5:HC55">
+    <cfRule type="expression" dxfId="59" priority="192">
       <formula>AND(TODAY()&gt;=HC$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HC7:HC53">
-    <cfRule type="expression" dxfId="163" priority="193" stopIfTrue="1">
+  <conditionalFormatting sqref="HC7:HC55">
+    <cfRule type="expression" dxfId="58" priority="193" stopIfTrue="1">
       <formula>AND(task_end&gt;=HC$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI52">
-    <cfRule type="expression" dxfId="162" priority="180">
+  <conditionalFormatting sqref="HD5:HI54">
+    <cfRule type="expression" dxfId="57" priority="180">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI52">
-    <cfRule type="expression" dxfId="161" priority="179" stopIfTrue="1">
+  <conditionalFormatting sqref="HD7:HI54">
+    <cfRule type="expression" dxfId="56" priority="179" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD53:HI53">
-    <cfRule type="expression" dxfId="160" priority="176" stopIfTrue="1">
+  <conditionalFormatting sqref="HD55:HI55">
+    <cfRule type="expression" dxfId="55" priority="176" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="159" priority="177">
+    <cfRule type="expression" dxfId="54" priority="177">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HJ5:HJ53">
-    <cfRule type="expression" dxfId="158" priority="182">
+  <conditionalFormatting sqref="HJ5:HJ55">
+    <cfRule type="expression" dxfId="53" priority="182">
       <formula>AND(TODAY()&gt;=HJ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HJ7:HJ53">
-    <cfRule type="expression" dxfId="157" priority="183" stopIfTrue="1">
+  <conditionalFormatting sqref="HJ7:HJ55">
+    <cfRule type="expression" dxfId="52" priority="183" stopIfTrue="1">
       <formula>AND(task_end&gt;=HJ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK5:HP13 HM14:HP14 HK15:HP42">
-    <cfRule type="expression" dxfId="156" priority="400">
+    <cfRule type="expression" dxfId="51" priority="400">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK7:HP13 HM14:HP14 HK15:HP42">
-    <cfRule type="expression" dxfId="155" priority="399" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="399" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HP52">
-    <cfRule type="expression" dxfId="154" priority="169" stopIfTrue="1">
+  <conditionalFormatting sqref="HK43:HP54">
+    <cfRule type="expression" dxfId="49" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="153" priority="170">
-      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK53">
-    <cfRule type="expression" dxfId="152" priority="166" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="151" priority="167">
+    <cfRule type="expression" dxfId="48" priority="170">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14 HK15:HQ42">
-    <cfRule type="expression" dxfId="150" priority="242">
+    <cfRule type="expression" dxfId="47" priority="242">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HQ52">
-    <cfRule type="expression" dxfId="149" priority="168">
+  <conditionalFormatting sqref="HK43:HQ54">
+    <cfRule type="expression" dxfId="46" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="148" priority="498">
+  <conditionalFormatting sqref="HK55:IZ55">
+    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="44" priority="3">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="147" priority="500" stopIfTrue="1">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HL14">
+    <cfRule type="expression" dxfId="43" priority="498">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="42" priority="500" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="146" priority="502">
+    <cfRule type="expression" dxfId="41" priority="502">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ5:HQ52">
-    <cfRule type="expression" dxfId="145" priority="172">
+  <conditionalFormatting sqref="HL55:IO55">
+    <cfRule type="expression" dxfId="40" priority="1">
+      <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HQ5:HQ54">
+    <cfRule type="expression" dxfId="39" priority="172">
       <formula>AND(TODAY()&gt;=HQ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ7:HQ52">
-    <cfRule type="expression" dxfId="144" priority="173" stopIfTrue="1">
+  <conditionalFormatting sqref="HQ7:HQ54">
+    <cfRule type="expression" dxfId="38" priority="173" stopIfTrue="1">
       <formula>AND(task_end&gt;=HQ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR5:HW52">
-    <cfRule type="expression" dxfId="143" priority="157">
+  <conditionalFormatting sqref="HR5:HW54">
+    <cfRule type="expression" dxfId="37" priority="157">
       <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:HW52">
-    <cfRule type="expression" dxfId="142" priority="156" stopIfTrue="1">
+  <conditionalFormatting sqref="HR7:HW54">
+    <cfRule type="expression" dxfId="36" priority="156" stopIfTrue="1">
       <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:IS52">
-    <cfRule type="expression" dxfId="141" priority="128">
+  <conditionalFormatting sqref="HR7:IS54">
+    <cfRule type="expression" dxfId="35" priority="128">
       <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HX5:HX52">
-    <cfRule type="expression" dxfId="140" priority="162">
+  <conditionalFormatting sqref="HX5:HX54">
+    <cfRule type="expression" dxfId="34" priority="162">
       <formula>AND(TODAY()&gt;=HX$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HX7:HX52">
-    <cfRule type="expression" dxfId="139" priority="163" stopIfTrue="1">
+  <conditionalFormatting sqref="HX7:HX54">
+    <cfRule type="expression" dxfId="33" priority="163" stopIfTrue="1">
       <formula>AND(task_end&gt;=HX$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HY5:ID52">
-    <cfRule type="expression" dxfId="138" priority="147">
+  <conditionalFormatting sqref="HY5:ID54">
+    <cfRule type="expression" dxfId="32" priority="147">
       <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HY7:ID52">
-    <cfRule type="expression" dxfId="137" priority="146" stopIfTrue="1">
+  <conditionalFormatting sqref="HY7:ID54">
+    <cfRule type="expression" dxfId="31" priority="146" stopIfTrue="1">
       <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IE5:IE52">
-    <cfRule type="expression" dxfId="136" priority="152">
+  <conditionalFormatting sqref="IE5:IE54">
+    <cfRule type="expression" dxfId="30" priority="152">
       <formula>AND(TODAY()&gt;=IE$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IE7:IE52">
-    <cfRule type="expression" dxfId="135" priority="153" stopIfTrue="1">
+  <conditionalFormatting sqref="IE7:IE54">
+    <cfRule type="expression" dxfId="29" priority="153" stopIfTrue="1">
       <formula>AND(task_end&gt;=IE$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IF5:IK52">
-    <cfRule type="expression" dxfId="134" priority="137">
+  <conditionalFormatting sqref="IF5:IK54">
+    <cfRule type="expression" dxfId="28" priority="137">
       <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IF7:IK52">
-    <cfRule type="expression" dxfId="133" priority="136" stopIfTrue="1">
+  <conditionalFormatting sqref="IF7:IK54">
+    <cfRule type="expression" dxfId="27" priority="136" stopIfTrue="1">
       <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IL5:IL52">
-    <cfRule type="expression" dxfId="132" priority="142">
+  <conditionalFormatting sqref="IL5:IL54">
+    <cfRule type="expression" dxfId="26" priority="142">
       <formula>AND(TODAY()&gt;=IL$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IL7:IL52">
-    <cfRule type="expression" dxfId="131" priority="143" stopIfTrue="1">
+  <conditionalFormatting sqref="IL7:IL54">
+    <cfRule type="expression" dxfId="25" priority="143" stopIfTrue="1">
       <formula>AND(task_end&gt;=IL$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM5:IR52">
-    <cfRule type="expression" dxfId="130" priority="130">
+  <conditionalFormatting sqref="IM5:IR54">
+    <cfRule type="expression" dxfId="24" priority="130">
       <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IM7:IR52">
-    <cfRule type="expression" dxfId="129" priority="129" stopIfTrue="1">
+  <conditionalFormatting sqref="IM7:IR54">
+    <cfRule type="expression" dxfId="23" priority="129" stopIfTrue="1">
       <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IP53:IR53">
-    <cfRule type="expression" dxfId="128" priority="126" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IP$5,task_start&lt;IQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="127" priority="127">
-      <formula>AND(TODAY()&gt;=IP$5,TODAY()&lt;IQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IS5:IS53">
-    <cfRule type="expression" dxfId="126" priority="132">
+  <conditionalFormatting sqref="IS5:IS55">
+    <cfRule type="expression" dxfId="22" priority="132">
       <formula>AND(TODAY()&gt;=IS$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS7:IS53">
-    <cfRule type="expression" dxfId="125" priority="133" stopIfTrue="1">
+  <conditionalFormatting sqref="IS7:IS55">
+    <cfRule type="expression" dxfId="21" priority="133" stopIfTrue="1">
       <formula>AND(task_end&gt;=IS$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IT5:IY52">
-    <cfRule type="expression" dxfId="124" priority="123">
+  <conditionalFormatting sqref="IT5:IY54">
+    <cfRule type="expression" dxfId="20" priority="123">
       <formula>AND(TODAY()&gt;=IT$5,TODAY()&lt;IU$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IT7:IY52">
-    <cfRule type="expression" dxfId="123" priority="122" stopIfTrue="1">
+  <conditionalFormatting sqref="IT7:IY54">
+    <cfRule type="expression" dxfId="19" priority="122" stopIfTrue="1">
       <formula>AND(task_end&gt;=IT$5,task_start&lt;IU$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS53:IZ53">
-    <cfRule type="expression" dxfId="122" priority="119" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IS$5,task_start&lt;IT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="121" priority="120">
-      <formula>AND(TODAY()&gt;=IS$5,TODAY()&lt;IT$5)</formula>
+  <conditionalFormatting sqref="IT7:IZ51 IT52:IX54 I7:HJ54">
+    <cfRule type="expression" dxfId="18" priority="178">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JA7:JG52">
-    <cfRule type="expression" dxfId="120" priority="114">
+  <conditionalFormatting sqref="IY52:IZ54">
+    <cfRule type="expression" dxfId="17" priority="504">
+      <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="16" priority="506">
+      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="508" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IZ7:IZ51 FM7:FM55 FT7:FT55 IZ55">
+    <cfRule type="expression" dxfId="14" priority="260" stopIfTrue="1">
+      <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IZ52:IZ54">
+    <cfRule type="expression" dxfId="13" priority="103" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="104">
+      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IZ55 IZ5:IZ51 FM5:FM55 FT5:FT55">
+    <cfRule type="expression" dxfId="11" priority="259">
+      <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA5:JF55">
+    <cfRule type="expression" dxfId="10" priority="113">
+      <formula>AND(TODAY()&gt;=JA$5,TODAY()&lt;JB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA7:JF55">
+    <cfRule type="expression" dxfId="9" priority="112" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JA$5,task_start&lt;JB$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="JA7:JN54">
+    <cfRule type="expression" dxfId="8" priority="107">
       <formula>AND(task_start&lt;=JA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JA5:JF52">
-    <cfRule type="expression" dxfId="119" priority="116">
-      <formula>AND(TODAY()&gt;=JA$5,TODAY()&lt;JB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JA7:JF52">
-    <cfRule type="expression" dxfId="118" priority="115" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JA$5,task_start&lt;JB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JA53:JF53">
-    <cfRule type="expression" dxfId="117" priority="112" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JA$5,task_start&lt;JB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="116" priority="113">
-      <formula>AND(TODAY()&gt;=JA$5,TODAY()&lt;JB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JG5:JG53">
-    <cfRule type="expression" dxfId="115" priority="117">
+  <conditionalFormatting sqref="JG5:JG55">
+    <cfRule type="expression" dxfId="7" priority="117">
       <formula>AND(TODAY()&gt;=JG$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JG7:JG53">
-    <cfRule type="expression" dxfId="114" priority="118" stopIfTrue="1">
+  <conditionalFormatting sqref="JG7:JG55">
+    <cfRule type="expression" dxfId="6" priority="118" stopIfTrue="1">
       <formula>AND(task_end&gt;=JG$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH7:JN52">
-    <cfRule type="expression" dxfId="113" priority="107">
-      <formula>AND(task_start&lt;=JH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JH5:JM52">
-    <cfRule type="expression" dxfId="112" priority="109">
+  <conditionalFormatting sqref="JH5:JM54">
+    <cfRule type="expression" dxfId="5" priority="109">
       <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH7:JM52">
-    <cfRule type="expression" dxfId="111" priority="108" stopIfTrue="1">
+  <conditionalFormatting sqref="JH7:JM54">
+    <cfRule type="expression" dxfId="4" priority="108" stopIfTrue="1">
       <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH53:JM53">
-    <cfRule type="expression" dxfId="110" priority="105" stopIfTrue="1">
+  <conditionalFormatting sqref="JH55:JM55">
+    <cfRule type="expression" dxfId="3" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="109" priority="106">
+    <cfRule type="expression" dxfId="2" priority="106">
       <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JN5:JN53">
-    <cfRule type="expression" dxfId="108" priority="110">
+  <conditionalFormatting sqref="JN5:JN55">
+    <cfRule type="expression" dxfId="1" priority="110">
       <formula>AND(TODAY()&gt;=JN$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JN7:JN53">
-    <cfRule type="expression" dxfId="107" priority="111" stopIfTrue="1">
+  <conditionalFormatting sqref="JN7:JN55">
+    <cfRule type="expression" dxfId="0" priority="111" stopIfTrue="1">
       <formula>AND(task_end&gt;=JN$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IY52:IZ52">
-    <cfRule type="expression" dxfId="106" priority="504">
-      <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IY52:IZ52">
-    <cfRule type="expression" dxfId="105" priority="506">
-      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IY52:IZ52">
-    <cfRule type="expression" dxfId="104" priority="508" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IZ52">
-    <cfRule type="expression" dxfId="103" priority="104">
-      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IZ52">
-    <cfRule type="expression" dxfId="102" priority="103" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HL53">
-    <cfRule type="expression" dxfId="95" priority="95" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HL$5,task_start&lt;HM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="94" priority="96">
-      <formula>AND(TODAY()&gt;=HL$5,TODAY()&lt;HM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HL53">
-    <cfRule type="expression" dxfId="93" priority="94">
-      <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HM53">
-    <cfRule type="expression" dxfId="92" priority="92" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HM$5,task_start&lt;HN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="91" priority="93">
-      <formula>AND(TODAY()&gt;=HM$5,TODAY()&lt;HN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HM53">
-    <cfRule type="expression" dxfId="90" priority="91">
-      <formula>AND(task_start&lt;=HM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HN53">
-    <cfRule type="expression" dxfId="89" priority="89" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HN$5,task_start&lt;HO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="88" priority="90">
-      <formula>AND(TODAY()&gt;=HN$5,TODAY()&lt;HO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HN53">
-    <cfRule type="expression" dxfId="87" priority="88">
-      <formula>AND(task_start&lt;=HN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HO53">
-    <cfRule type="expression" dxfId="86" priority="86" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HO$5,task_start&lt;HP$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="85" priority="87">
-      <formula>AND(TODAY()&gt;=HO$5,TODAY()&lt;HP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HO53">
-    <cfRule type="expression" dxfId="84" priority="85">
-      <formula>AND(task_start&lt;=HO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HQ53">
-    <cfRule type="expression" dxfId="83" priority="83" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HQ$5,task_start&lt;HR$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="82" priority="84">
-      <formula>AND(TODAY()&gt;=HQ$5,TODAY()&lt;HR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HQ53">
-    <cfRule type="expression" dxfId="81" priority="82">
-      <formula>AND(task_start&lt;=HQ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR53">
-    <cfRule type="expression" dxfId="80" priority="80" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="79" priority="81">
-      <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR53">
-    <cfRule type="expression" dxfId="78" priority="79">
-      <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HP53">
-    <cfRule type="expression" dxfId="77" priority="77" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HP$5,task_start&lt;HQ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="76" priority="78">
-      <formula>AND(TODAY()&gt;=HP$5,TODAY()&lt;HQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HP53">
-    <cfRule type="expression" dxfId="75" priority="76">
-      <formula>AND(task_start&lt;=HP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HS53">
-    <cfRule type="expression" dxfId="74" priority="74" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HS$5,task_start&lt;HT$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="73" priority="75">
-      <formula>AND(TODAY()&gt;=HS$5,TODAY()&lt;HT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HS53">
-    <cfRule type="expression" dxfId="72" priority="73">
-      <formula>AND(task_start&lt;=HS$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HU53">
-    <cfRule type="expression" dxfId="71" priority="71" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HU$5,task_start&lt;HV$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="70" priority="72">
-      <formula>AND(TODAY()&gt;=HU$5,TODAY()&lt;HV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HU53">
-    <cfRule type="expression" dxfId="69" priority="70">
-      <formula>AND(task_start&lt;=HU$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HW53">
-    <cfRule type="expression" dxfId="68" priority="68" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HW$5,task_start&lt;HX$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="67" priority="69">
-      <formula>AND(TODAY()&gt;=HW$5,TODAY()&lt;HX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HW53">
-    <cfRule type="expression" dxfId="66" priority="67">
-      <formula>AND(task_start&lt;=HW$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IL53">
-    <cfRule type="expression" dxfId="65" priority="65" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IL$5,task_start&lt;IM$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="64" priority="66">
-      <formula>AND(TODAY()&gt;=IL$5,TODAY()&lt;IM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IL53">
-    <cfRule type="expression" dxfId="63" priority="64">
-      <formula>AND(task_start&lt;=IL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IL$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="II53:IK53">
-    <cfRule type="expression" dxfId="62" priority="62" stopIfTrue="1">
-      <formula>AND(task_end&gt;=II$5,task_start&lt;IJ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="61" priority="63">
-      <formula>AND(TODAY()&gt;=II$5,TODAY()&lt;IJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="II53:IK53">
-    <cfRule type="expression" dxfId="60" priority="61">
-      <formula>AND(task_start&lt;=II$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=II$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IN53">
-    <cfRule type="expression" dxfId="47" priority="47" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IN$5,task_start&lt;IO$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="48">
-      <formula>AND(TODAY()&gt;=IN$5,TODAY()&lt;IO$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IN53">
-    <cfRule type="expression" dxfId="45" priority="46">
-      <formula>AND(task_start&lt;=IN$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IH53">
-    <cfRule type="expression" dxfId="44" priority="44" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IH$5,task_start&lt;II$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="43" priority="45">
-      <formula>AND(TODAY()&gt;=IH$5,TODAY()&lt;II$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IH53">
-    <cfRule type="expression" dxfId="42" priority="43">
-      <formula>AND(task_start&lt;=IH$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF53">
-    <cfRule type="expression" dxfId="41" priority="41" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="40" priority="42">
-      <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF53">
-    <cfRule type="expression" dxfId="39" priority="40">
-      <formula>AND(task_start&lt;=IF$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IE53">
-    <cfRule type="expression" dxfId="38" priority="38" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IE$5,task_start&lt;IF$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="37" priority="39">
-      <formula>AND(TODAY()&gt;=IE$5,TODAY()&lt;IF$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IE53">
-    <cfRule type="expression" dxfId="36" priority="37">
-      <formula>AND(task_start&lt;=IE$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ID53">
-    <cfRule type="expression" dxfId="35" priority="35" stopIfTrue="1">
-      <formula>AND(task_end&gt;=ID$5,task_start&lt;IE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="34" priority="36">
-      <formula>AND(TODAY()&gt;=ID$5,TODAY()&lt;IE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="ID53">
-    <cfRule type="expression" dxfId="33" priority="34">
-      <formula>AND(task_start&lt;=ID$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=ID$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IA53">
-    <cfRule type="expression" dxfId="32" priority="32" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IA$5,task_start&lt;IB$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="31" priority="33">
-      <formula>AND(TODAY()&gt;=IA$5,TODAY()&lt;IB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IA53">
-    <cfRule type="expression" dxfId="30" priority="31">
-      <formula>AND(task_start&lt;=IA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HX53">
-    <cfRule type="expression" dxfId="29" priority="29" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HX$5,task_start&lt;HY$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="28" priority="30">
-      <formula>AND(TODAY()&gt;=HX$5,TODAY()&lt;HY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HX53">
-    <cfRule type="expression" dxfId="27" priority="28">
-      <formula>AND(task_start&lt;=HX$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY53">
-    <cfRule type="expression" dxfId="26" priority="26" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="25" priority="27">
-      <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY53">
-    <cfRule type="expression" dxfId="24" priority="25">
-      <formula>AND(task_start&lt;=HY$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HY$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HV53">
-    <cfRule type="expression" dxfId="23" priority="23" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HV$5,task_start&lt;HW$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="22" priority="24">
-      <formula>AND(TODAY()&gt;=HV$5,TODAY()&lt;HW$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HV53">
-    <cfRule type="expression" dxfId="21" priority="22">
-      <formula>AND(task_start&lt;=HV$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HT53">
-    <cfRule type="expression" dxfId="20" priority="20" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HT$5,task_start&lt;HU$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="19" priority="21">
-      <formula>AND(TODAY()&gt;=HT$5,TODAY()&lt;HU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HT53">
-    <cfRule type="expression" dxfId="18" priority="19">
-      <formula>AND(task_start&lt;=HT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HT$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HZ53">
-    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HZ$5,task_start&lt;IA$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="16" priority="18">
-      <formula>AND(TODAY()&gt;=HZ$5,TODAY()&lt;IA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HZ53">
-    <cfRule type="expression" dxfId="15" priority="16">
-      <formula>AND(task_start&lt;=HZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IB53">
-    <cfRule type="expression" dxfId="14" priority="14" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IB$5,task_start&lt;IC$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="15">
-      <formula>AND(TODAY()&gt;=IB$5,TODAY()&lt;IC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IB53">
-    <cfRule type="expression" dxfId="12" priority="13">
-      <formula>AND(task_start&lt;=IB$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IC53">
-    <cfRule type="expression" dxfId="11" priority="11" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IC$5,task_start&lt;ID$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="12">
-      <formula>AND(TODAY()&gt;=IC$5,TODAY()&lt;ID$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IC53">
-    <cfRule type="expression" dxfId="9" priority="10">
-      <formula>AND(task_start&lt;=IC$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IG53">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IG$5,task_start&lt;IH$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="7" priority="9">
-      <formula>AND(TODAY()&gt;=IG$5,TODAY()&lt;IH$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IG53">
-    <cfRule type="expression" dxfId="6" priority="7">
-      <formula>AND(task_start&lt;=IG$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM53">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="6">
-      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM53">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>AND(task_start&lt;=IM$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IM$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IO53">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IO$5,task_start&lt;IP$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>AND(TODAY()&gt;=IO$5,TODAY()&lt;IP$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IO53">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>AND(task_start&lt;=IO$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IO$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -20981,7 +20065,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D53</xm:sqref>
+          <xm:sqref>D7:D55</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -20999,26 +20083,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -21306,6 +20370,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -21315,18 +20399,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21345,4 +20417,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8B3799-87E6-4C9B-8590-00336F254734}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490D051-93E5-48FD-A62B-CCE09F62C708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2145" yWindow="495" windowWidth="21600" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -159,9 +159,6 @@
     <t>Desarrollo y creación de modelos unimodales</t>
   </si>
   <si>
-    <t>Desarrollo y creación de modelo multimodal</t>
-  </si>
-  <si>
     <t>Experimentar/optimizar con diferentes parametros</t>
   </si>
   <si>
@@ -222,19 +219,7 @@
     <t>Concadenar datasets textuales</t>
   </si>
   <si>
-    <t>Preprocesamiento para texto</t>
-  </si>
-  <si>
-    <t>Preprocesamiento para imagen</t>
-  </si>
-  <si>
-    <t>Creación modelo multimodal</t>
-  </si>
-  <si>
     <t>Balanceo de datos conjunto de entrenamiento facial</t>
-  </si>
-  <si>
-    <t>Actualización código</t>
   </si>
   <si>
     <t/>
@@ -274,6 +259,9 @@
   </si>
   <si>
     <t>Resumir documento</t>
+  </si>
+  <si>
+    <t>Traducir al ingles</t>
   </si>
 </sst>
 </file>
@@ -503,7 +491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="47">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -519,12 +507,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,12 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,44 +1018,44 @@
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1110,26 +1086,26 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="44" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="25" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="9" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1141,13 +1117,13 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,34 +1138,19 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="25" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="25" fillId="10" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="23" fillId="10" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1201,10 +1162,10 @@
     <xf numFmtId="168" fontId="25" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="9" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="9" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="23" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -1213,55 +1174,40 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="23" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="25" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="25" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="25" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="46" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="168" fontId="23" fillId="44" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="46" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1270,10 +1216,13 @@
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="172" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="23" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1282,13 +1231,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1348,30 +1303,7 @@
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="92">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <border>
         <left style="thin">
@@ -1393,82 +1325,6 @@
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1553,243 +1409,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1912,17 +1531,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1955,236 +1563,6 @@
       <border>
         <left/>
         <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2359,15 +1737,15 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="ListaTareasPendientes" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="91"/>
-      <tableStyleElement type="headerRow" dxfId="90"/>
-      <tableStyleElement type="totalRow" dxfId="89"/>
-      <tableStyleElement type="firstColumn" dxfId="88"/>
-      <tableStyleElement type="lastColumn" dxfId="87"/>
-      <tableStyleElement type="firstRowStripe" dxfId="86"/>
-      <tableStyleElement type="secondRowStripe" dxfId="85"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="84"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="83"/>
+      <tableStyleElement type="wholeTable" dxfId="40"/>
+      <tableStyleElement type="headerRow" dxfId="39"/>
+      <tableStyleElement type="totalRow" dxfId="38"/>
+      <tableStyleElement type="firstColumn" dxfId="37"/>
+      <tableStyleElement type="lastColumn" dxfId="36"/>
+      <tableStyleElement type="firstRowStripe" dxfId="35"/>
+      <tableStyleElement type="secondRowStripe" dxfId="34"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="33"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="32"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2726,11 +2104,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:JN55"/>
+  <dimension ref="A1:JN50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X59" sqref="X59"/>
+      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2816,574 +2194,574 @@
       <c r="A3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="66" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="68">
+      <c r="D3" s="56"/>
+      <c r="E3" s="59">
         <v>45323</v>
       </c>
-      <c r="F3" s="68"/>
-      <c r="I3" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
-      <c r="AH3" s="71"/>
-      <c r="AI3" s="71"/>
-      <c r="AJ3" s="71"/>
-      <c r="AK3" s="71"/>
-      <c r="AL3" s="71"/>
-      <c r="AM3" s="71"/>
-      <c r="AN3" s="71"/>
-      <c r="AO3" s="71"/>
-      <c r="AP3" s="71"/>
-      <c r="AQ3" s="71"/>
-      <c r="AR3" s="71"/>
-      <c r="AS3" s="71"/>
-      <c r="AT3" s="71"/>
-      <c r="AU3" s="71"/>
-      <c r="AV3" s="71"/>
-      <c r="AW3" s="71"/>
-      <c r="AX3" s="71"/>
-      <c r="AY3" s="71"/>
-      <c r="AZ3" s="71"/>
-      <c r="BA3" s="71"/>
-      <c r="BB3" s="71"/>
-      <c r="BC3" s="71"/>
-      <c r="BD3" s="71"/>
-      <c r="BE3" s="71"/>
-      <c r="BF3" s="71"/>
-      <c r="BG3" s="71"/>
-      <c r="BH3" s="71"/>
-      <c r="BI3" s="71"/>
-      <c r="BJ3" s="71"/>
-      <c r="BK3" s="71"/>
-      <c r="BL3" s="71"/>
-      <c r="BM3" s="71"/>
-      <c r="BN3" s="71"/>
-      <c r="BO3" s="71"/>
-      <c r="BP3" s="71"/>
-      <c r="BQ3" s="71"/>
-      <c r="BR3" s="71"/>
-      <c r="BS3" s="71"/>
-      <c r="BT3" s="71"/>
-      <c r="BU3" s="71"/>
-      <c r="BV3" s="71"/>
-      <c r="BW3" s="71"/>
-      <c r="BX3" s="71"/>
-      <c r="BY3" s="71"/>
-      <c r="BZ3" s="71"/>
-      <c r="CA3" s="71"/>
-      <c r="CB3" s="71"/>
-      <c r="CC3" s="71"/>
-      <c r="CD3" s="71"/>
-      <c r="CE3" s="71"/>
-      <c r="CF3" s="71"/>
-      <c r="CG3" s="71"/>
-      <c r="CH3" s="71"/>
-      <c r="CI3" s="71"/>
-      <c r="CJ3" s="71"/>
-      <c r="CK3" s="71"/>
-      <c r="CL3" s="71"/>
-      <c r="CM3" s="71"/>
-      <c r="CN3" s="71"/>
-      <c r="CO3" s="71"/>
-      <c r="CP3" s="71"/>
-      <c r="CQ3" s="71"/>
-      <c r="CR3" s="71"/>
-      <c r="CS3" s="71"/>
-      <c r="CT3" s="71"/>
-      <c r="CU3" s="71"/>
-      <c r="CV3" s="71"/>
-      <c r="CW3" s="71"/>
-      <c r="CX3" s="71"/>
-      <c r="CY3" s="71"/>
-      <c r="CZ3" s="71"/>
-      <c r="DA3" s="71"/>
-      <c r="DB3" s="71"/>
-      <c r="DC3" s="71"/>
-      <c r="DD3" s="71"/>
-      <c r="DE3" s="71"/>
-      <c r="DF3" s="71"/>
-      <c r="DG3" s="71"/>
-      <c r="DH3" s="71"/>
-      <c r="DI3" s="71"/>
-      <c r="DJ3" s="71"/>
-      <c r="DK3" s="71"/>
-      <c r="DL3" s="71"/>
-      <c r="DM3" s="71"/>
-      <c r="DN3" s="71"/>
-      <c r="DO3" s="71"/>
-      <c r="DP3" s="71"/>
-      <c r="DQ3" s="71"/>
-      <c r="DR3" s="71"/>
-      <c r="DS3" s="71"/>
-      <c r="DT3" s="71"/>
-      <c r="DU3" s="71"/>
-      <c r="DV3" s="71"/>
-      <c r="DW3" s="71"/>
-      <c r="DX3" s="71"/>
-      <c r="DY3" s="71"/>
-      <c r="DZ3" s="71"/>
-      <c r="EA3" s="71"/>
-      <c r="EB3" s="71"/>
-      <c r="EC3" s="71"/>
-      <c r="ED3" s="71"/>
-      <c r="EE3" s="71"/>
-      <c r="EF3" s="71"/>
-      <c r="EG3" s="71"/>
-      <c r="EH3" s="71"/>
-      <c r="EI3" s="71"/>
-      <c r="EJ3" s="71"/>
-      <c r="EK3" s="71"/>
-      <c r="EL3" s="71"/>
-      <c r="EM3" s="71"/>
-      <c r="EN3" s="71"/>
-      <c r="EO3" s="71"/>
-      <c r="EP3" s="71"/>
-      <c r="EQ3" s="71"/>
-      <c r="ER3" s="71"/>
-      <c r="ES3" s="71"/>
-      <c r="ET3" s="71"/>
-      <c r="EU3" s="71"/>
-      <c r="EV3" s="71"/>
-      <c r="EW3" s="71"/>
-      <c r="EX3" s="71"/>
-      <c r="EY3" s="71"/>
-      <c r="EZ3" s="71"/>
-      <c r="FA3" s="71"/>
-      <c r="FB3" s="71"/>
-      <c r="FC3" s="71"/>
-      <c r="FD3" s="71"/>
-      <c r="FE3" s="71"/>
-      <c r="FF3" s="71"/>
-      <c r="FG3" s="71"/>
-      <c r="FH3" s="71"/>
-      <c r="FI3" s="71"/>
-      <c r="FJ3" s="71"/>
-      <c r="FK3" s="71"/>
-      <c r="FL3" s="71"/>
-      <c r="FM3" s="71"/>
+      <c r="F3" s="59"/>
+      <c r="I3" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="62"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="62"/>
+      <c r="CD3" s="62"/>
+      <c r="CE3" s="62"/>
+      <c r="CF3" s="62"/>
+      <c r="CG3" s="62"/>
+      <c r="CH3" s="62"/>
+      <c r="CI3" s="62"/>
+      <c r="CJ3" s="62"/>
+      <c r="CK3" s="62"/>
+      <c r="CL3" s="62"/>
+      <c r="CM3" s="62"/>
+      <c r="CN3" s="62"/>
+      <c r="CO3" s="62"/>
+      <c r="CP3" s="62"/>
+      <c r="CQ3" s="62"/>
+      <c r="CR3" s="62"/>
+      <c r="CS3" s="62"/>
+      <c r="CT3" s="62"/>
+      <c r="CU3" s="62"/>
+      <c r="CV3" s="62"/>
+      <c r="CW3" s="62"/>
+      <c r="CX3" s="62"/>
+      <c r="CY3" s="62"/>
+      <c r="CZ3" s="62"/>
+      <c r="DA3" s="62"/>
+      <c r="DB3" s="62"/>
+      <c r="DC3" s="62"/>
+      <c r="DD3" s="62"/>
+      <c r="DE3" s="62"/>
+      <c r="DF3" s="62"/>
+      <c r="DG3" s="62"/>
+      <c r="DH3" s="62"/>
+      <c r="DI3" s="62"/>
+      <c r="DJ3" s="62"/>
+      <c r="DK3" s="62"/>
+      <c r="DL3" s="62"/>
+      <c r="DM3" s="62"/>
+      <c r="DN3" s="62"/>
+      <c r="DO3" s="62"/>
+      <c r="DP3" s="62"/>
+      <c r="DQ3" s="62"/>
+      <c r="DR3" s="62"/>
+      <c r="DS3" s="62"/>
+      <c r="DT3" s="62"/>
+      <c r="DU3" s="62"/>
+      <c r="DV3" s="62"/>
+      <c r="DW3" s="62"/>
+      <c r="DX3" s="62"/>
+      <c r="DY3" s="62"/>
+      <c r="DZ3" s="62"/>
+      <c r="EA3" s="62"/>
+      <c r="EB3" s="62"/>
+      <c r="EC3" s="62"/>
+      <c r="ED3" s="62"/>
+      <c r="EE3" s="62"/>
+      <c r="EF3" s="62"/>
+      <c r="EG3" s="62"/>
+      <c r="EH3" s="62"/>
+      <c r="EI3" s="62"/>
+      <c r="EJ3" s="62"/>
+      <c r="EK3" s="62"/>
+      <c r="EL3" s="62"/>
+      <c r="EM3" s="62"/>
+      <c r="EN3" s="62"/>
+      <c r="EO3" s="62"/>
+      <c r="EP3" s="62"/>
+      <c r="EQ3" s="62"/>
+      <c r="ER3" s="62"/>
+      <c r="ES3" s="62"/>
+      <c r="ET3" s="62"/>
+      <c r="EU3" s="62"/>
+      <c r="EV3" s="62"/>
+      <c r="EW3" s="62"/>
+      <c r="EX3" s="62"/>
+      <c r="EY3" s="62"/>
+      <c r="EZ3" s="62"/>
+      <c r="FA3" s="62"/>
+      <c r="FB3" s="62"/>
+      <c r="FC3" s="62"/>
+      <c r="FD3" s="62"/>
+      <c r="FE3" s="62"/>
+      <c r="FF3" s="62"/>
+      <c r="FG3" s="62"/>
+      <c r="FH3" s="62"/>
+      <c r="FI3" s="62"/>
+      <c r="FJ3" s="62"/>
+      <c r="FK3" s="62"/>
+      <c r="FL3" s="62"/>
+      <c r="FM3" s="62"/>
     </row>
     <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="47"/>
-      <c r="C4" s="67" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="67"/>
+      <c r="D4" s="57"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="55">
+      <c r="I4" s="52">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="69"/>
-      <c r="P4" s="55">
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="52">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="69"/>
-      <c r="W4" s="55">
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="52">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="69"/>
-      <c r="AD4" s="55">
+      <c r="X4" s="53"/>
+      <c r="Y4" s="53"/>
+      <c r="Z4" s="53"/>
+      <c r="AA4" s="53"/>
+      <c r="AB4" s="53"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="52">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="55">
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="53"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="53"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="52">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="55">
+      <c r="AL4" s="53"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="53"/>
+      <c r="AO4" s="53"/>
+      <c r="AP4" s="53"/>
+      <c r="AQ4" s="53"/>
+      <c r="AR4" s="52">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="55">
+      <c r="AS4" s="53"/>
+      <c r="AT4" s="53"/>
+      <c r="AU4" s="53"/>
+      <c r="AV4" s="53"/>
+      <c r="AW4" s="53"/>
+      <c r="AX4" s="53"/>
+      <c r="AY4" s="52">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="55">
+      <c r="AZ4" s="53"/>
+      <c r="BA4" s="53"/>
+      <c r="BB4" s="53"/>
+      <c r="BC4" s="53"/>
+      <c r="BD4" s="53"/>
+      <c r="BE4" s="53"/>
+      <c r="BF4" s="52">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="55">
+      <c r="BG4" s="53"/>
+      <c r="BH4" s="53"/>
+      <c r="BI4" s="53"/>
+      <c r="BJ4" s="53"/>
+      <c r="BK4" s="53"/>
+      <c r="BL4" s="53"/>
+      <c r="BM4" s="52">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="56"/>
-      <c r="BT4" s="55">
+      <c r="BN4" s="53"/>
+      <c r="BO4" s="53"/>
+      <c r="BP4" s="53"/>
+      <c r="BQ4" s="53"/>
+      <c r="BR4" s="53"/>
+      <c r="BS4" s="53"/>
+      <c r="BT4" s="52">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="56"/>
-      <c r="BV4" s="56"/>
-      <c r="BW4" s="56"/>
-      <c r="BX4" s="56"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="56"/>
-      <c r="CA4" s="55">
+      <c r="BU4" s="53"/>
+      <c r="BV4" s="53"/>
+      <c r="BW4" s="53"/>
+      <c r="BX4" s="53"/>
+      <c r="BY4" s="53"/>
+      <c r="BZ4" s="53"/>
+      <c r="CA4" s="52">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="56"/>
-      <c r="CC4" s="56"/>
-      <c r="CD4" s="56"/>
-      <c r="CE4" s="56"/>
-      <c r="CF4" s="56"/>
-      <c r="CG4" s="56"/>
-      <c r="CH4" s="55">
+      <c r="CB4" s="53"/>
+      <c r="CC4" s="53"/>
+      <c r="CD4" s="53"/>
+      <c r="CE4" s="53"/>
+      <c r="CF4" s="53"/>
+      <c r="CG4" s="53"/>
+      <c r="CH4" s="52">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="56"/>
-      <c r="CJ4" s="56"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="56"/>
-      <c r="CM4" s="56"/>
-      <c r="CN4" s="56"/>
-      <c r="CO4" s="55">
+      <c r="CI4" s="53"/>
+      <c r="CJ4" s="53"/>
+      <c r="CK4" s="53"/>
+      <c r="CL4" s="53"/>
+      <c r="CM4" s="53"/>
+      <c r="CN4" s="53"/>
+      <c r="CO4" s="52">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="56"/>
-      <c r="CQ4" s="56"/>
-      <c r="CR4" s="56"/>
-      <c r="CS4" s="56"/>
-      <c r="CT4" s="56"/>
-      <c r="CU4" s="56"/>
-      <c r="CV4" s="55">
+      <c r="CP4" s="53"/>
+      <c r="CQ4" s="53"/>
+      <c r="CR4" s="53"/>
+      <c r="CS4" s="53"/>
+      <c r="CT4" s="53"/>
+      <c r="CU4" s="53"/>
+      <c r="CV4" s="52">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="56"/>
-      <c r="CX4" s="56"/>
-      <c r="CY4" s="56"/>
-      <c r="CZ4" s="56"/>
-      <c r="DA4" s="56"/>
-      <c r="DB4" s="56"/>
-      <c r="DC4" s="55">
+      <c r="CW4" s="53"/>
+      <c r="CX4" s="53"/>
+      <c r="CY4" s="53"/>
+      <c r="CZ4" s="53"/>
+      <c r="DA4" s="53"/>
+      <c r="DB4" s="53"/>
+      <c r="DC4" s="52">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="56"/>
-      <c r="DE4" s="56"/>
-      <c r="DF4" s="56"/>
-      <c r="DG4" s="56"/>
-      <c r="DH4" s="56"/>
-      <c r="DI4" s="56"/>
-      <c r="DJ4" s="55">
+      <c r="DD4" s="53"/>
+      <c r="DE4" s="53"/>
+      <c r="DF4" s="53"/>
+      <c r="DG4" s="53"/>
+      <c r="DH4" s="53"/>
+      <c r="DI4" s="53"/>
+      <c r="DJ4" s="52">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="56"/>
-      <c r="DL4" s="56"/>
-      <c r="DM4" s="56"/>
-      <c r="DN4" s="56"/>
-      <c r="DO4" s="56"/>
-      <c r="DP4" s="56"/>
-      <c r="DQ4" s="55">
+      <c r="DK4" s="53"/>
+      <c r="DL4" s="53"/>
+      <c r="DM4" s="53"/>
+      <c r="DN4" s="53"/>
+      <c r="DO4" s="53"/>
+      <c r="DP4" s="53"/>
+      <c r="DQ4" s="52">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="56"/>
-      <c r="DS4" s="56"/>
-      <c r="DT4" s="56"/>
-      <c r="DU4" s="56"/>
-      <c r="DV4" s="56"/>
-      <c r="DW4" s="56"/>
-      <c r="DX4" s="55">
+      <c r="DR4" s="53"/>
+      <c r="DS4" s="53"/>
+      <c r="DT4" s="53"/>
+      <c r="DU4" s="53"/>
+      <c r="DV4" s="53"/>
+      <c r="DW4" s="53"/>
+      <c r="DX4" s="52">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="56"/>
-      <c r="DZ4" s="56"/>
-      <c r="EA4" s="56"/>
-      <c r="EB4" s="56"/>
-      <c r="EC4" s="56"/>
-      <c r="ED4" s="56"/>
-      <c r="EE4" s="55">
+      <c r="DY4" s="53"/>
+      <c r="DZ4" s="53"/>
+      <c r="EA4" s="53"/>
+      <c r="EB4" s="53"/>
+      <c r="EC4" s="53"/>
+      <c r="ED4" s="53"/>
+      <c r="EE4" s="52">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="56"/>
-      <c r="EG4" s="56"/>
-      <c r="EH4" s="56"/>
-      <c r="EI4" s="56"/>
-      <c r="EJ4" s="56"/>
-      <c r="EK4" s="56"/>
-      <c r="EL4" s="55">
+      <c r="EF4" s="53"/>
+      <c r="EG4" s="53"/>
+      <c r="EH4" s="53"/>
+      <c r="EI4" s="53"/>
+      <c r="EJ4" s="53"/>
+      <c r="EK4" s="53"/>
+      <c r="EL4" s="52">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="56"/>
-      <c r="EN4" s="56"/>
-      <c r="EO4" s="56"/>
-      <c r="EP4" s="56"/>
-      <c r="EQ4" s="56"/>
-      <c r="ER4" s="56"/>
-      <c r="ES4" s="55">
+      <c r="EM4" s="53"/>
+      <c r="EN4" s="53"/>
+      <c r="EO4" s="53"/>
+      <c r="EP4" s="53"/>
+      <c r="EQ4" s="53"/>
+      <c r="ER4" s="53"/>
+      <c r="ES4" s="52">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="56"/>
-      <c r="EU4" s="56"/>
-      <c r="EV4" s="56"/>
-      <c r="EW4" s="56"/>
-      <c r="EX4" s="56"/>
-      <c r="EY4" s="56"/>
-      <c r="EZ4" s="55">
+      <c r="ET4" s="53"/>
+      <c r="EU4" s="53"/>
+      <c r="EV4" s="53"/>
+      <c r="EW4" s="53"/>
+      <c r="EX4" s="53"/>
+      <c r="EY4" s="53"/>
+      <c r="EZ4" s="52">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="56"/>
-      <c r="FB4" s="56"/>
-      <c r="FC4" s="56"/>
-      <c r="FD4" s="56"/>
-      <c r="FE4" s="56"/>
-      <c r="FF4" s="56"/>
-      <c r="FG4" s="55">
+      <c r="FA4" s="53"/>
+      <c r="FB4" s="53"/>
+      <c r="FC4" s="53"/>
+      <c r="FD4" s="53"/>
+      <c r="FE4" s="53"/>
+      <c r="FF4" s="53"/>
+      <c r="FG4" s="52">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="56"/>
-      <c r="FI4" s="56"/>
-      <c r="FJ4" s="56"/>
-      <c r="FK4" s="56"/>
-      <c r="FL4" s="56"/>
-      <c r="FM4" s="56"/>
-      <c r="FN4" s="55">
+      <c r="FH4" s="53"/>
+      <c r="FI4" s="53"/>
+      <c r="FJ4" s="53"/>
+      <c r="FK4" s="53"/>
+      <c r="FL4" s="53"/>
+      <c r="FM4" s="53"/>
+      <c r="FN4" s="52">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="56"/>
-      <c r="FP4" s="56"/>
-      <c r="FQ4" s="56"/>
-      <c r="FR4" s="56"/>
-      <c r="FS4" s="56"/>
-      <c r="FT4" s="56"/>
-      <c r="FU4" s="55">
+      <c r="FO4" s="53"/>
+      <c r="FP4" s="53"/>
+      <c r="FQ4" s="53"/>
+      <c r="FR4" s="53"/>
+      <c r="FS4" s="53"/>
+      <c r="FT4" s="53"/>
+      <c r="FU4" s="52">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="56"/>
-      <c r="FW4" s="56"/>
-      <c r="FX4" s="56"/>
-      <c r="FY4" s="56"/>
-      <c r="FZ4" s="56"/>
-      <c r="GA4" s="56"/>
-      <c r="GB4" s="55">
+      <c r="FV4" s="53"/>
+      <c r="FW4" s="53"/>
+      <c r="FX4" s="53"/>
+      <c r="FY4" s="53"/>
+      <c r="FZ4" s="53"/>
+      <c r="GA4" s="53"/>
+      <c r="GB4" s="52">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="56"/>
-      <c r="GD4" s="56"/>
-      <c r="GE4" s="56"/>
-      <c r="GF4" s="56"/>
-      <c r="GG4" s="56"/>
-      <c r="GH4" s="56"/>
-      <c r="GI4" s="55">
+      <c r="GC4" s="53"/>
+      <c r="GD4" s="53"/>
+      <c r="GE4" s="53"/>
+      <c r="GF4" s="53"/>
+      <c r="GG4" s="53"/>
+      <c r="GH4" s="53"/>
+      <c r="GI4" s="52">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="56"/>
-      <c r="GK4" s="56"/>
-      <c r="GL4" s="56"/>
-      <c r="GM4" s="56"/>
-      <c r="GN4" s="56"/>
-      <c r="GO4" s="56"/>
-      <c r="GP4" s="55">
+      <c r="GJ4" s="53"/>
+      <c r="GK4" s="53"/>
+      <c r="GL4" s="53"/>
+      <c r="GM4" s="53"/>
+      <c r="GN4" s="53"/>
+      <c r="GO4" s="53"/>
+      <c r="GP4" s="52">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="56"/>
-      <c r="GR4" s="56"/>
-      <c r="GS4" s="56"/>
-      <c r="GT4" s="56"/>
-      <c r="GU4" s="56"/>
-      <c r="GV4" s="56"/>
-      <c r="GW4" s="55">
+      <c r="GQ4" s="53"/>
+      <c r="GR4" s="53"/>
+      <c r="GS4" s="53"/>
+      <c r="GT4" s="53"/>
+      <c r="GU4" s="53"/>
+      <c r="GV4" s="53"/>
+      <c r="GW4" s="52">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="56"/>
-      <c r="GY4" s="56"/>
-      <c r="GZ4" s="56"/>
-      <c r="HA4" s="56"/>
-      <c r="HB4" s="56"/>
-      <c r="HC4" s="56"/>
-      <c r="HD4" s="55">
+      <c r="GX4" s="53"/>
+      <c r="GY4" s="53"/>
+      <c r="GZ4" s="53"/>
+      <c r="HA4" s="53"/>
+      <c r="HB4" s="53"/>
+      <c r="HC4" s="53"/>
+      <c r="HD4" s="52">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="56"/>
-      <c r="HF4" s="56"/>
-      <c r="HG4" s="56"/>
-      <c r="HH4" s="56"/>
-      <c r="HI4" s="56"/>
-      <c r="HJ4" s="56"/>
-      <c r="HK4" s="55">
+      <c r="HE4" s="53"/>
+      <c r="HF4" s="53"/>
+      <c r="HG4" s="53"/>
+      <c r="HH4" s="53"/>
+      <c r="HI4" s="53"/>
+      <c r="HJ4" s="53"/>
+      <c r="HK4" s="52">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="56"/>
-      <c r="HM4" s="56"/>
-      <c r="HN4" s="56"/>
-      <c r="HO4" s="56"/>
-      <c r="HP4" s="56"/>
-      <c r="HQ4" s="56"/>
-      <c r="HR4" s="55">
+      <c r="HL4" s="53"/>
+      <c r="HM4" s="53"/>
+      <c r="HN4" s="53"/>
+      <c r="HO4" s="53"/>
+      <c r="HP4" s="53"/>
+      <c r="HQ4" s="53"/>
+      <c r="HR4" s="52">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="56"/>
-      <c r="HT4" s="56"/>
-      <c r="HU4" s="56"/>
-      <c r="HV4" s="56"/>
-      <c r="HW4" s="56"/>
-      <c r="HX4" s="56"/>
-      <c r="HY4" s="55">
+      <c r="HS4" s="53"/>
+      <c r="HT4" s="53"/>
+      <c r="HU4" s="53"/>
+      <c r="HV4" s="53"/>
+      <c r="HW4" s="53"/>
+      <c r="HX4" s="53"/>
+      <c r="HY4" s="52">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="56"/>
-      <c r="IA4" s="56"/>
-      <c r="IB4" s="56"/>
-      <c r="IC4" s="56"/>
-      <c r="ID4" s="56"/>
-      <c r="IE4" s="56"/>
-      <c r="IF4" s="55">
+      <c r="HZ4" s="53"/>
+      <c r="IA4" s="53"/>
+      <c r="IB4" s="53"/>
+      <c r="IC4" s="53"/>
+      <c r="ID4" s="53"/>
+      <c r="IE4" s="53"/>
+      <c r="IF4" s="52">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="56"/>
-      <c r="IH4" s="56"/>
-      <c r="II4" s="56"/>
-      <c r="IJ4" s="56"/>
-      <c r="IK4" s="56"/>
-      <c r="IL4" s="56"/>
-      <c r="IM4" s="55">
+      <c r="IG4" s="53"/>
+      <c r="IH4" s="53"/>
+      <c r="II4" s="53"/>
+      <c r="IJ4" s="53"/>
+      <c r="IK4" s="53"/>
+      <c r="IL4" s="53"/>
+      <c r="IM4" s="52">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="56"/>
-      <c r="IO4" s="56"/>
-      <c r="IP4" s="56"/>
-      <c r="IQ4" s="56"/>
-      <c r="IR4" s="56"/>
-      <c r="IS4" s="56"/>
-      <c r="IT4" s="55">
+      <c r="IN4" s="53"/>
+      <c r="IO4" s="53"/>
+      <c r="IP4" s="53"/>
+      <c r="IQ4" s="53"/>
+      <c r="IR4" s="53"/>
+      <c r="IS4" s="53"/>
+      <c r="IT4" s="52">
         <f>IT5</f>
         <v>45565</v>
       </c>
-      <c r="IU4" s="56"/>
-      <c r="IV4" s="56"/>
-      <c r="IW4" s="56"/>
-      <c r="IX4" s="56"/>
-      <c r="IY4" s="56"/>
-      <c r="IZ4" s="56"/>
-      <c r="JA4" s="55">
+      <c r="IU4" s="53"/>
+      <c r="IV4" s="53"/>
+      <c r="IW4" s="53"/>
+      <c r="IX4" s="53"/>
+      <c r="IY4" s="53"/>
+      <c r="IZ4" s="53"/>
+      <c r="JA4" s="52">
         <f>JA5</f>
         <v>45572</v>
       </c>
-      <c r="JB4" s="56"/>
-      <c r="JC4" s="56"/>
-      <c r="JD4" s="56"/>
-      <c r="JE4" s="56"/>
-      <c r="JF4" s="56"/>
-      <c r="JG4" s="56"/>
-      <c r="JH4" s="55">
+      <c r="JB4" s="53"/>
+      <c r="JC4" s="53"/>
+      <c r="JD4" s="53"/>
+      <c r="JE4" s="53"/>
+      <c r="JF4" s="53"/>
+      <c r="JG4" s="53"/>
+      <c r="JH4" s="52">
         <f>JH5</f>
         <v>45579</v>
       </c>
-      <c r="JI4" s="56"/>
-      <c r="JJ4" s="56"/>
-      <c r="JK4" s="56"/>
-      <c r="JL4" s="56"/>
-      <c r="JM4" s="56"/>
-      <c r="JN4" s="56"/>
+      <c r="JI4" s="53"/>
+      <c r="JJ4" s="53"/>
+      <c r="JK4" s="53"/>
+      <c r="JL4" s="53"/>
+      <c r="JM4" s="53"/>
+      <c r="JN4" s="53"/>
     </row>
     <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -4465,10 +3843,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="60" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -5832,16 +5210,16 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="73"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
       <c r="G8" s="28"/>
       <c r="H8" s="28" t="str">
-        <f t="shared" ref="H8:H42" si="218">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H36" si="218">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="23"/>
@@ -6115,10 +5493,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="61"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -6406,10 +5784,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="61"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -6697,10 +6075,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="61"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -6985,10 +6363,10 @@
     </row>
     <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="64"/>
+      <c r="C12" s="54"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -7272,10 +6650,10 @@
     </row>
     <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="64" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="64"/>
+      <c r="B13" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="54"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -7559,10 +6937,10 @@
     </row>
     <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="64"/>
+      <c r="B14" s="54" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="54"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -7844,10 +7222,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -8125,10 +7503,10 @@
     </row>
     <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="72" t="s">
+      <c r="B16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="72"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -8412,10 +7790,10 @@
     </row>
     <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="72"/>
+      <c r="B17" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="51"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8696,10 +8074,10 @@
     </row>
     <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="72" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="72"/>
+      <c r="B18" s="51" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="51"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8980,10 +8358,10 @@
     </row>
     <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="72"/>
+      <c r="B19" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="C19" s="51"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -9267,10 +8645,10 @@
     </row>
     <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="72" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="72"/>
+      <c r="B20" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="51"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -9554,10 +8932,10 @@
     </row>
     <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="72"/>
+      <c r="B21" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="51"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9838,10 +9216,10 @@
     </row>
     <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="72" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="72"/>
+      <c r="B22" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="51"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -10122,10 +9500,10 @@
     </row>
     <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="72" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="72"/>
+      <c r="B23" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="51"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -10411,10 +9789,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -10692,10 +10070,10 @@
     </row>
     <row r="25" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="57" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="57"/>
+      <c r="B25" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="50"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -10979,10 +10357,10 @@
     </row>
     <row r="26" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="57" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="57"/>
+      <c r="B26" s="50" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="50"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -11263,10 +10641,10 @@
     </row>
     <row r="27" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="57" t="s">
-        <v>39</v>
-      </c>
-      <c r="C27" s="57"/>
+      <c r="B27" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="50"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -11547,10 +10925,10 @@
     </row>
     <row r="28" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="57"/>
+      <c r="B28" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="50"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -11834,10 +11212,10 @@
     </row>
     <row r="29" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="57" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="57"/>
+      <c r="B29" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="50"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -12121,10 +11499,10 @@
     </row>
     <row r="30" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="57" t="s">
+      <c r="B30" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="57"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -12408,10 +11786,10 @@
     </row>
     <row r="31" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="57" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="57"/>
+      <c r="B31" s="50" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="50"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -12695,10 +12073,10 @@
     </row>
     <row r="32" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="57"/>
+      <c r="B32" s="50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="50"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -12982,10 +12360,10 @@
     </row>
     <row r="33" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="57" t="s">
-        <v>46</v>
-      </c>
-      <c r="C33" s="57"/>
+      <c r="B33" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33" s="50"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -13266,10 +12644,10 @@
     </row>
     <row r="34" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="57" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="57"/>
+      <c r="B34" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="50"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -13550,10 +12928,10 @@
     </row>
     <row r="35" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="57"/>
+      <c r="B35" s="50" t="s">
+        <v>31</v>
+      </c>
+      <c r="C35" s="50"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -13837,10 +13215,10 @@
     </row>
     <row r="36" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="57" t="s">
-        <v>30</v>
-      </c>
-      <c r="C36" s="57"/>
+      <c r="B36" s="50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="50"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -14126,17 +13504,16 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="43"/>
-      <c r="F37" s="44"/>
+      <c r="B37" s="64" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="64"/>
+      <c r="D37" s="44"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="46"/>
       <c r="G37" s="28"/>
-      <c r="H37" s="28" t="str">
-        <f t="shared" si="218"/>
-        <v/>
+      <c r="H37" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -14407,24 +13784,21 @@
     </row>
     <row r="38" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="65" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="65"/>
-      <c r="D38" s="45">
+      <c r="B38" s="63" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="63"/>
+      <c r="D38" s="47">
         <v>1</v>
       </c>
-      <c r="E38" s="46">
-        <v>45391</v>
-      </c>
-      <c r="F38" s="46">
-        <v>45476</v>
+      <c r="E38" s="48">
+        <v>45484</v>
+      </c>
+      <c r="F38" s="48">
+        <v>45491</v>
       </c>
       <c r="G38" s="28"/>
-      <c r="H38" s="28">
-        <f t="shared" si="218"/>
-        <v>86</v>
-      </c>
+      <c r="H38" s="28"/>
       <c r="I38" s="23"/>
       <c r="J38" s="23"/>
       <c r="K38" s="23"/>
@@ -14694,23 +14068,22 @@
     </row>
     <row r="39" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="65" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="65"/>
-      <c r="D39" s="45">
+      <c r="B39" s="49" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="49"/>
+      <c r="D39" s="47">
         <v>1</v>
       </c>
-      <c r="E39" s="46">
-        <v>45390</v>
-      </c>
-      <c r="F39" s="46">
-        <v>45476</v>
+      <c r="E39" s="48">
+        <v>45491</v>
+      </c>
+      <c r="F39" s="48">
+        <v>45495</v>
       </c>
       <c r="G39" s="28"/>
       <c r="H39" s="28">
-        <f t="shared" si="218"/>
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I39" s="23"/>
       <c r="J39" s="23"/>
@@ -14981,24 +14354,21 @@
     </row>
     <row r="40" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="65" t="s">
-        <v>51</v>
-      </c>
-      <c r="C40" s="65"/>
-      <c r="D40" s="45">
+      <c r="B40" s="49" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="49"/>
+      <c r="D40" s="47">
         <v>1</v>
       </c>
-      <c r="E40" s="46">
-        <v>45394</v>
-      </c>
-      <c r="F40" s="46">
-        <v>45476</v>
+      <c r="E40" s="48">
+        <v>45495</v>
+      </c>
+      <c r="F40" s="48">
+        <v>45525</v>
       </c>
       <c r="G40" s="28"/>
-      <c r="H40" s="28">
-        <f t="shared" si="218"/>
-        <v>83</v>
-      </c>
+      <c r="H40" s="28"/>
       <c r="I40" s="23"/>
       <c r="J40" s="23"/>
       <c r="K40" s="23"/>
@@ -15268,18 +14638,18 @@
     </row>
     <row r="41" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="45">
+      <c r="B41" s="49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C41" s="49"/>
+      <c r="D41" s="47">
         <v>1</v>
       </c>
-      <c r="E41" s="46">
-        <v>45394</v>
-      </c>
-      <c r="F41" s="46">
-        <v>45482</v>
+      <c r="E41" s="48">
+        <v>45501</v>
+      </c>
+      <c r="F41" s="48">
+        <v>45525</v>
       </c>
       <c r="G41" s="28"/>
       <c r="H41" s="28"/>
@@ -15552,24 +14922,21 @@
     </row>
     <row r="42" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="65" t="s">
-        <v>53</v>
-      </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="45">
+      <c r="B42" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="C42" s="49"/>
+      <c r="D42" s="47">
         <v>1</v>
       </c>
-      <c r="E42" s="46">
-        <v>45394</v>
-      </c>
-      <c r="F42" s="46">
-        <v>45483</v>
+      <c r="E42" s="48">
+        <v>45504</v>
+      </c>
+      <c r="F42" s="48">
+        <v>45506</v>
       </c>
       <c r="G42" s="28"/>
-      <c r="H42" s="28">
-        <f t="shared" si="218"/>
-        <v>90</v>
-      </c>
+      <c r="H42" s="28"/>
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="23"/>
@@ -15838,20 +15205,22 @@
       <c r="JN42" s="24"/>
     </row>
     <row r="43" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="63" t="s">
+      <c r="A43" s="7"/>
+      <c r="B43" s="49" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="63"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="50"/>
-      <c r="F43" s="51"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="47">
+        <v>1</v>
+      </c>
+      <c r="E43" s="48">
+        <v>45506</v>
+      </c>
+      <c r="F43" s="48">
+        <v>45525</v>
+      </c>
       <c r="G43" s="28"/>
-      <c r="H43" s="28" t="s">
-        <v>54</v>
-      </c>
+      <c r="H43" s="28"/>
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
@@ -16121,18 +15490,18 @@
     </row>
     <row r="44" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C44" s="62"/>
-      <c r="D44" s="52">
+      <c r="B44" s="49" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" s="49"/>
+      <c r="D44" s="47">
         <v>1</v>
       </c>
-      <c r="E44" s="53">
-        <v>45484</v>
-      </c>
-      <c r="F44" s="53">
-        <v>45491</v>
+      <c r="E44" s="48">
+        <v>45512</v>
+      </c>
+      <c r="F44" s="48">
+        <v>45525</v>
       </c>
       <c r="G44" s="28"/>
       <c r="H44" s="28"/>
@@ -16405,22 +15774,22 @@
     </row>
     <row r="45" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="54"/>
-      <c r="D45" s="52">
+      <c r="B45" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="49"/>
+      <c r="D45" s="47">
         <v>1</v>
       </c>
-      <c r="E45" s="53">
-        <v>45491</v>
-      </c>
-      <c r="F45" s="53">
-        <v>45495</v>
+      <c r="E45" s="48">
+        <v>45512</v>
+      </c>
+      <c r="F45" s="48">
+        <v>45558</v>
       </c>
       <c r="G45" s="28"/>
       <c r="H45" s="28">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I45" s="23"/>
       <c r="J45" s="23"/>
@@ -16691,18 +16060,18 @@
     </row>
     <row r="46" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="54"/>
-      <c r="D46" s="52">
+      <c r="B46" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" s="49"/>
+      <c r="D46" s="47">
         <v>1</v>
       </c>
-      <c r="E46" s="53">
-        <v>45495</v>
-      </c>
-      <c r="F46" s="53">
+      <c r="E46" s="48">
         <v>45525</v>
+      </c>
+      <c r="F46" s="48">
+        <v>45576</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="28"/>
@@ -16956,7 +16325,7 @@
       <c r="IV46" s="23"/>
       <c r="IW46" s="23"/>
       <c r="IX46" s="23"/>
-      <c r="IY46" s="23"/>
+      <c r="IY46" s="24"/>
       <c r="IZ46" s="24"/>
       <c r="JA46" s="23"/>
       <c r="JB46" s="23"/>
@@ -16975,18 +16344,18 @@
     </row>
     <row r="47" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" s="54"/>
-      <c r="D47" s="52">
-        <v>1</v>
-      </c>
-      <c r="E47" s="53">
-        <v>45501</v>
-      </c>
-      <c r="F47" s="53">
-        <v>45525</v>
+      <c r="B47" s="49" t="s">
+        <v>60</v>
+      </c>
+      <c r="C47" s="49"/>
+      <c r="D47" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E47" s="48">
+        <v>45580</v>
+      </c>
+      <c r="F47" s="48">
+        <v>45611</v>
       </c>
       <c r="G47" s="28"/>
       <c r="H47" s="28"/>
@@ -17240,7 +16609,7 @@
       <c r="IV47" s="23"/>
       <c r="IW47" s="23"/>
       <c r="IX47" s="23"/>
-      <c r="IY47" s="23"/>
+      <c r="IY47" s="24"/>
       <c r="IZ47" s="24"/>
       <c r="JA47" s="23"/>
       <c r="JB47" s="23"/>
@@ -17259,18 +16628,18 @@
     </row>
     <row r="48" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C48" s="54"/>
-      <c r="D48" s="52">
-        <v>1</v>
-      </c>
-      <c r="E48" s="53">
-        <v>45504</v>
-      </c>
-      <c r="F48" s="53">
-        <v>45506</v>
+      <c r="B48" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" s="49"/>
+      <c r="D48" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="E48" s="48">
+        <v>45531</v>
+      </c>
+      <c r="F48" s="48">
+        <v>45613</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -17524,7 +16893,7 @@
       <c r="IV48" s="23"/>
       <c r="IW48" s="23"/>
       <c r="IX48" s="23"/>
-      <c r="IY48" s="23"/>
+      <c r="IY48" s="24"/>
       <c r="IZ48" s="24"/>
       <c r="JA48" s="23"/>
       <c r="JB48" s="23"/>
@@ -17543,18 +16912,18 @@
     </row>
     <row r="49" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C49" s="54"/>
-      <c r="D49" s="52">
-        <v>1</v>
-      </c>
-      <c r="E49" s="53">
-        <v>45506</v>
-      </c>
-      <c r="F49" s="53">
-        <v>45525</v>
+      <c r="B49" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="C49" s="49"/>
+      <c r="D49" s="47">
+        <v>0.9</v>
+      </c>
+      <c r="E49" s="48">
+        <v>45593</v>
+      </c>
+      <c r="F49" s="48">
+        <v>45616</v>
       </c>
       <c r="G49" s="28"/>
       <c r="H49" s="28"/>
@@ -17808,7 +17177,7 @@
       <c r="IV49" s="23"/>
       <c r="IW49" s="23"/>
       <c r="IX49" s="23"/>
-      <c r="IY49" s="23"/>
+      <c r="IY49" s="24"/>
       <c r="IZ49" s="24"/>
       <c r="JA49" s="23"/>
       <c r="JB49" s="23"/>
@@ -17827,21 +17196,23 @@
     </row>
     <row r="50" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="54"/>
-      <c r="D50" s="52">
-        <v>1</v>
-      </c>
-      <c r="E50" s="53">
-        <v>45512</v>
-      </c>
-      <c r="F50" s="53">
-        <v>45525</v>
+      <c r="B50" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="C50" s="49"/>
+      <c r="D50" s="47">
+        <v>0</v>
+      </c>
+      <c r="E50" s="48">
+        <v>45616</v>
+      </c>
+      <c r="F50" s="48">
+        <v>45621</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="28"/>
+      <c r="H50" s="28">
+        <v>87</v>
+      </c>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -18058,42 +17429,42 @@
       <c r="HN50" s="23"/>
       <c r="HO50" s="23"/>
       <c r="HP50" s="23"/>
-      <c r="HQ50" s="24"/>
+      <c r="HQ50" s="23"/>
       <c r="HR50" s="23"/>
       <c r="HS50" s="23"/>
       <c r="HT50" s="23"/>
       <c r="HU50" s="23"/>
       <c r="HV50" s="23"/>
       <c r="HW50" s="23"/>
-      <c r="HX50" s="24"/>
+      <c r="HX50" s="23"/>
       <c r="HY50" s="23"/>
       <c r="HZ50" s="23"/>
       <c r="IA50" s="23"/>
       <c r="IB50" s="23"/>
       <c r="IC50" s="23"/>
       <c r="ID50" s="23"/>
-      <c r="IE50" s="24"/>
+      <c r="IE50" s="23"/>
       <c r="IF50" s="23"/>
       <c r="IG50" s="23"/>
       <c r="IH50" s="23"/>
       <c r="II50" s="23"/>
       <c r="IJ50" s="23"/>
       <c r="IK50" s="23"/>
-      <c r="IL50" s="24"/>
+      <c r="IL50" s="23"/>
       <c r="IM50" s="23"/>
       <c r="IN50" s="23"/>
       <c r="IO50" s="23"/>
       <c r="IP50" s="23"/>
       <c r="IQ50" s="23"/>
       <c r="IR50" s="23"/>
-      <c r="IS50" s="24"/>
+      <c r="IS50" s="23"/>
       <c r="IT50" s="23"/>
       <c r="IU50" s="23"/>
       <c r="IV50" s="23"/>
       <c r="IW50" s="23"/>
       <c r="IX50" s="23"/>
       <c r="IY50" s="23"/>
-      <c r="IZ50" s="24"/>
+      <c r="IZ50" s="23"/>
       <c r="JA50" s="23"/>
       <c r="JB50" s="23"/>
       <c r="JC50" s="23"/>
@@ -18109,1492 +17480,26 @@
       <c r="JM50" s="23"/>
       <c r="JN50" s="24"/>
     </row>
-    <row r="51" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="7"/>
-      <c r="B51" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="C51" s="54"/>
-      <c r="D51" s="52">
-        <v>1</v>
-      </c>
-      <c r="E51" s="53">
-        <v>45512</v>
-      </c>
-      <c r="F51" s="53">
-        <v>45558</v>
-      </c>
-      <c r="G51" s="28"/>
-      <c r="H51" s="28">
-        <v>87</v>
-      </c>
-      <c r="I51" s="23"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="23"/>
-      <c r="L51" s="23"/>
-      <c r="M51" s="23"/>
-      <c r="N51" s="23"/>
-      <c r="O51" s="23"/>
-      <c r="P51" s="23"/>
-      <c r="Q51" s="23"/>
-      <c r="R51" s="23"/>
-      <c r="S51" s="23"/>
-      <c r="T51" s="23"/>
-      <c r="U51" s="23"/>
-      <c r="V51" s="23"/>
-      <c r="W51" s="23"/>
-      <c r="X51" s="23"/>
-      <c r="Y51" s="23"/>
-      <c r="Z51" s="23"/>
-      <c r="AA51" s="23"/>
-      <c r="AB51" s="23"/>
-      <c r="AC51" s="23"/>
-      <c r="AD51" s="23"/>
-      <c r="AE51" s="23"/>
-      <c r="AF51" s="23"/>
-      <c r="AG51" s="23"/>
-      <c r="AH51" s="23"/>
-      <c r="AI51" s="23"/>
-      <c r="AJ51" s="23"/>
-      <c r="AK51" s="23"/>
-      <c r="AL51" s="23"/>
-      <c r="AM51" s="23"/>
-      <c r="AN51" s="23"/>
-      <c r="AO51" s="23"/>
-      <c r="AP51" s="23"/>
-      <c r="AQ51" s="24"/>
-      <c r="AR51" s="23"/>
-      <c r="AS51" s="23"/>
-      <c r="AT51" s="23"/>
-      <c r="AU51" s="23"/>
-      <c r="AV51" s="23"/>
-      <c r="AW51" s="23"/>
-      <c r="AX51" s="24"/>
-      <c r="AY51" s="23"/>
-      <c r="AZ51" s="23"/>
-      <c r="BA51" s="23"/>
-      <c r="BB51" s="23"/>
-      <c r="BC51" s="23"/>
-      <c r="BD51" s="23"/>
-      <c r="BE51" s="24"/>
-      <c r="BF51" s="23"/>
-      <c r="BG51" s="23"/>
-      <c r="BH51" s="23"/>
-      <c r="BI51" s="23"/>
-      <c r="BJ51" s="23"/>
-      <c r="BK51" s="23"/>
-      <c r="BL51" s="24"/>
-      <c r="BM51" s="23"/>
-      <c r="BN51" s="23"/>
-      <c r="BO51" s="23"/>
-      <c r="BP51" s="23"/>
-      <c r="BQ51" s="23"/>
-      <c r="BR51" s="23"/>
-      <c r="BS51" s="24"/>
-      <c r="BT51" s="23"/>
-      <c r="BU51" s="23"/>
-      <c r="BV51" s="23"/>
-      <c r="BW51" s="23"/>
-      <c r="BX51" s="23"/>
-      <c r="BY51" s="23"/>
-      <c r="BZ51" s="24"/>
-      <c r="CA51" s="23"/>
-      <c r="CB51" s="23"/>
-      <c r="CC51" s="23"/>
-      <c r="CD51" s="23"/>
-      <c r="CE51" s="23"/>
-      <c r="CF51" s="23"/>
-      <c r="CG51" s="24"/>
-      <c r="CH51" s="23"/>
-      <c r="CI51" s="23"/>
-      <c r="CJ51" s="23"/>
-      <c r="CK51" s="23"/>
-      <c r="CL51" s="23"/>
-      <c r="CM51" s="23"/>
-      <c r="CN51" s="24"/>
-      <c r="CO51" s="23"/>
-      <c r="CP51" s="23"/>
-      <c r="CQ51" s="23"/>
-      <c r="CR51" s="23"/>
-      <c r="CS51" s="23"/>
-      <c r="CT51" s="23"/>
-      <c r="CU51" s="24"/>
-      <c r="CV51" s="23"/>
-      <c r="CW51" s="23"/>
-      <c r="CX51" s="23"/>
-      <c r="CY51" s="23"/>
-      <c r="CZ51" s="23"/>
-      <c r="DA51" s="23"/>
-      <c r="DB51" s="24"/>
-      <c r="DC51" s="23"/>
-      <c r="DD51" s="23"/>
-      <c r="DE51" s="23"/>
-      <c r="DF51" s="23"/>
-      <c r="DG51" s="23"/>
-      <c r="DH51" s="23"/>
-      <c r="DI51" s="24"/>
-      <c r="DJ51" s="23"/>
-      <c r="DK51" s="23"/>
-      <c r="DL51" s="23"/>
-      <c r="DM51" s="23"/>
-      <c r="DN51" s="23"/>
-      <c r="DO51" s="23"/>
-      <c r="DP51" s="24"/>
-      <c r="DQ51" s="23"/>
-      <c r="DR51" s="23"/>
-      <c r="DS51" s="23"/>
-      <c r="DT51" s="23"/>
-      <c r="DU51" s="23"/>
-      <c r="DV51" s="23"/>
-      <c r="DW51" s="24"/>
-      <c r="DX51" s="23"/>
-      <c r="DY51" s="23"/>
-      <c r="DZ51" s="23"/>
-      <c r="EA51" s="23"/>
-      <c r="EB51" s="23"/>
-      <c r="EC51" s="23"/>
-      <c r="ED51" s="24"/>
-      <c r="EE51" s="23"/>
-      <c r="EF51" s="23"/>
-      <c r="EG51" s="23"/>
-      <c r="EH51" s="23"/>
-      <c r="EI51" s="23"/>
-      <c r="EJ51" s="23"/>
-      <c r="EK51" s="24"/>
-      <c r="EL51" s="23"/>
-      <c r="EM51" s="23"/>
-      <c r="EN51" s="23"/>
-      <c r="EO51" s="23"/>
-      <c r="EP51" s="23"/>
-      <c r="EQ51" s="23"/>
-      <c r="ER51" s="24"/>
-      <c r="ES51" s="23"/>
-      <c r="ET51" s="23"/>
-      <c r="EU51" s="23"/>
-      <c r="EV51" s="23"/>
-      <c r="EW51" s="23"/>
-      <c r="EX51" s="23"/>
-      <c r="EY51" s="24"/>
-      <c r="EZ51" s="23"/>
-      <c r="FA51" s="23"/>
-      <c r="FB51" s="23"/>
-      <c r="FC51" s="23"/>
-      <c r="FD51" s="23"/>
-      <c r="FE51" s="23"/>
-      <c r="FF51" s="24"/>
-      <c r="FG51" s="23"/>
-      <c r="FH51" s="23"/>
-      <c r="FI51" s="23"/>
-      <c r="FJ51" s="23"/>
-      <c r="FK51" s="23"/>
-      <c r="FL51" s="23"/>
-      <c r="FM51" s="24"/>
-      <c r="FN51" s="23"/>
-      <c r="FO51" s="23"/>
-      <c r="FP51" s="23"/>
-      <c r="FQ51" s="23"/>
-      <c r="FR51" s="23"/>
-      <c r="FS51" s="23"/>
-      <c r="FT51" s="24"/>
-      <c r="FU51" s="23"/>
-      <c r="FV51" s="23"/>
-      <c r="FW51" s="23"/>
-      <c r="FX51" s="23"/>
-      <c r="FY51" s="23"/>
-      <c r="FZ51" s="23"/>
-      <c r="GA51" s="24"/>
-      <c r="GB51" s="23"/>
-      <c r="GC51" s="23"/>
-      <c r="GD51" s="23"/>
-      <c r="GE51" s="23"/>
-      <c r="GF51" s="23"/>
-      <c r="GG51" s="23"/>
-      <c r="GH51" s="24"/>
-      <c r="GI51" s="23"/>
-      <c r="GJ51" s="23"/>
-      <c r="GK51" s="23"/>
-      <c r="GL51" s="23"/>
-      <c r="GM51" s="23"/>
-      <c r="GN51" s="23"/>
-      <c r="GO51" s="24"/>
-      <c r="GP51" s="23"/>
-      <c r="GQ51" s="23"/>
-      <c r="GR51" s="23"/>
-      <c r="GS51" s="23"/>
-      <c r="GT51" s="23"/>
-      <c r="GU51" s="23"/>
-      <c r="GV51" s="24"/>
-      <c r="GW51" s="23"/>
-      <c r="GX51" s="23"/>
-      <c r="GY51" s="23"/>
-      <c r="GZ51" s="23"/>
-      <c r="HA51" s="23"/>
-      <c r="HB51" s="23"/>
-      <c r="HC51" s="24"/>
-      <c r="HD51" s="23"/>
-      <c r="HE51" s="23"/>
-      <c r="HF51" s="23"/>
-      <c r="HG51" s="23"/>
-      <c r="HH51" s="23"/>
-      <c r="HI51" s="23"/>
-      <c r="HJ51" s="24"/>
-      <c r="HK51" s="23"/>
-      <c r="HL51" s="23"/>
-      <c r="HM51" s="23"/>
-      <c r="HN51" s="23"/>
-      <c r="HO51" s="23"/>
-      <c r="HP51" s="23"/>
-      <c r="HQ51" s="24"/>
-      <c r="HR51" s="23"/>
-      <c r="HS51" s="23"/>
-      <c r="HT51" s="23"/>
-      <c r="HU51" s="23"/>
-      <c r="HV51" s="23"/>
-      <c r="HW51" s="23"/>
-      <c r="HX51" s="24"/>
-      <c r="HY51" s="23"/>
-      <c r="HZ51" s="23"/>
-      <c r="IA51" s="23"/>
-      <c r="IB51" s="23"/>
-      <c r="IC51" s="23"/>
-      <c r="ID51" s="23"/>
-      <c r="IE51" s="24"/>
-      <c r="IF51" s="23"/>
-      <c r="IG51" s="23"/>
-      <c r="IH51" s="23"/>
-      <c r="II51" s="23"/>
-      <c r="IJ51" s="23"/>
-      <c r="IK51" s="23"/>
-      <c r="IL51" s="24"/>
-      <c r="IM51" s="23"/>
-      <c r="IN51" s="23"/>
-      <c r="IO51" s="23"/>
-      <c r="IP51" s="23"/>
-      <c r="IQ51" s="23"/>
-      <c r="IR51" s="23"/>
-      <c r="IS51" s="24"/>
-      <c r="IT51" s="23"/>
-      <c r="IU51" s="23"/>
-      <c r="IV51" s="23"/>
-      <c r="IW51" s="23"/>
-      <c r="IX51" s="23"/>
-      <c r="IY51" s="23"/>
-      <c r="IZ51" s="24"/>
-      <c r="JA51" s="23"/>
-      <c r="JB51" s="23"/>
-      <c r="JC51" s="23"/>
-      <c r="JD51" s="23"/>
-      <c r="JE51" s="23"/>
-      <c r="JF51" s="23"/>
-      <c r="JG51" s="24"/>
-      <c r="JH51" s="23"/>
-      <c r="JI51" s="23"/>
-      <c r="JJ51" s="23"/>
-      <c r="JK51" s="23"/>
-      <c r="JL51" s="23"/>
-      <c r="JM51" s="23"/>
-      <c r="JN51" s="24"/>
-    </row>
-    <row r="52" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="7"/>
-      <c r="B52" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C52" s="54"/>
-      <c r="D52" s="52">
-        <v>1</v>
-      </c>
-      <c r="E52" s="53">
-        <v>45525</v>
-      </c>
-      <c r="F52" s="53">
-        <v>45576</v>
-      </c>
-      <c r="G52" s="28"/>
-      <c r="H52" s="28"/>
-      <c r="I52" s="23"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="23"/>
-      <c r="L52" s="23"/>
-      <c r="M52" s="23"/>
-      <c r="N52" s="23"/>
-      <c r="O52" s="23"/>
-      <c r="P52" s="23"/>
-      <c r="Q52" s="23"/>
-      <c r="R52" s="23"/>
-      <c r="S52" s="23"/>
-      <c r="T52" s="23"/>
-      <c r="U52" s="23"/>
-      <c r="V52" s="23"/>
-      <c r="W52" s="23"/>
-      <c r="X52" s="23"/>
-      <c r="Y52" s="23"/>
-      <c r="Z52" s="23"/>
-      <c r="AA52" s="23"/>
-      <c r="AB52" s="23"/>
-      <c r="AC52" s="23"/>
-      <c r="AD52" s="23"/>
-      <c r="AE52" s="23"/>
-      <c r="AF52" s="23"/>
-      <c r="AG52" s="23"/>
-      <c r="AH52" s="23"/>
-      <c r="AI52" s="23"/>
-      <c r="AJ52" s="23"/>
-      <c r="AK52" s="23"/>
-      <c r="AL52" s="23"/>
-      <c r="AM52" s="23"/>
-      <c r="AN52" s="23"/>
-      <c r="AO52" s="23"/>
-      <c r="AP52" s="23"/>
-      <c r="AQ52" s="24"/>
-      <c r="AR52" s="23"/>
-      <c r="AS52" s="23"/>
-      <c r="AT52" s="23"/>
-      <c r="AU52" s="23"/>
-      <c r="AV52" s="23"/>
-      <c r="AW52" s="23"/>
-      <c r="AX52" s="24"/>
-      <c r="AY52" s="23"/>
-      <c r="AZ52" s="23"/>
-      <c r="BA52" s="23"/>
-      <c r="BB52" s="23"/>
-      <c r="BC52" s="23"/>
-      <c r="BD52" s="23"/>
-      <c r="BE52" s="24"/>
-      <c r="BF52" s="23"/>
-      <c r="BG52" s="23"/>
-      <c r="BH52" s="23"/>
-      <c r="BI52" s="23"/>
-      <c r="BJ52" s="23"/>
-      <c r="BK52" s="23"/>
-      <c r="BL52" s="24"/>
-      <c r="BM52" s="23"/>
-      <c r="BN52" s="23"/>
-      <c r="BO52" s="23"/>
-      <c r="BP52" s="23"/>
-      <c r="BQ52" s="23"/>
-      <c r="BR52" s="23"/>
-      <c r="BS52" s="24"/>
-      <c r="BT52" s="23"/>
-      <c r="BU52" s="23"/>
-      <c r="BV52" s="23"/>
-      <c r="BW52" s="23"/>
-      <c r="BX52" s="23"/>
-      <c r="BY52" s="23"/>
-      <c r="BZ52" s="24"/>
-      <c r="CA52" s="23"/>
-      <c r="CB52" s="23"/>
-      <c r="CC52" s="23"/>
-      <c r="CD52" s="23"/>
-      <c r="CE52" s="23"/>
-      <c r="CF52" s="23"/>
-      <c r="CG52" s="24"/>
-      <c r="CH52" s="23"/>
-      <c r="CI52" s="23"/>
-      <c r="CJ52" s="23"/>
-      <c r="CK52" s="23"/>
-      <c r="CL52" s="23"/>
-      <c r="CM52" s="23"/>
-      <c r="CN52" s="24"/>
-      <c r="CO52" s="23"/>
-      <c r="CP52" s="23"/>
-      <c r="CQ52" s="23"/>
-      <c r="CR52" s="23"/>
-      <c r="CS52" s="23"/>
-      <c r="CT52" s="23"/>
-      <c r="CU52" s="24"/>
-      <c r="CV52" s="23"/>
-      <c r="CW52" s="23"/>
-      <c r="CX52" s="23"/>
-      <c r="CY52" s="23"/>
-      <c r="CZ52" s="23"/>
-      <c r="DA52" s="23"/>
-      <c r="DB52" s="24"/>
-      <c r="DC52" s="23"/>
-      <c r="DD52" s="23"/>
-      <c r="DE52" s="23"/>
-      <c r="DF52" s="23"/>
-      <c r="DG52" s="23"/>
-      <c r="DH52" s="23"/>
-      <c r="DI52" s="24"/>
-      <c r="DJ52" s="23"/>
-      <c r="DK52" s="23"/>
-      <c r="DL52" s="23"/>
-      <c r="DM52" s="23"/>
-      <c r="DN52" s="23"/>
-      <c r="DO52" s="23"/>
-      <c r="DP52" s="24"/>
-      <c r="DQ52" s="23"/>
-      <c r="DR52" s="23"/>
-      <c r="DS52" s="23"/>
-      <c r="DT52" s="23"/>
-      <c r="DU52" s="23"/>
-      <c r="DV52" s="23"/>
-      <c r="DW52" s="24"/>
-      <c r="DX52" s="23"/>
-      <c r="DY52" s="23"/>
-      <c r="DZ52" s="23"/>
-      <c r="EA52" s="23"/>
-      <c r="EB52" s="23"/>
-      <c r="EC52" s="23"/>
-      <c r="ED52" s="24"/>
-      <c r="EE52" s="23"/>
-      <c r="EF52" s="23"/>
-      <c r="EG52" s="23"/>
-      <c r="EH52" s="23"/>
-      <c r="EI52" s="23"/>
-      <c r="EJ52" s="23"/>
-      <c r="EK52" s="24"/>
-      <c r="EL52" s="23"/>
-      <c r="EM52" s="23"/>
-      <c r="EN52" s="23"/>
-      <c r="EO52" s="23"/>
-      <c r="EP52" s="23"/>
-      <c r="EQ52" s="23"/>
-      <c r="ER52" s="24"/>
-      <c r="ES52" s="23"/>
-      <c r="ET52" s="23"/>
-      <c r="EU52" s="23"/>
-      <c r="EV52" s="23"/>
-      <c r="EW52" s="23"/>
-      <c r="EX52" s="23"/>
-      <c r="EY52" s="24"/>
-      <c r="EZ52" s="23"/>
-      <c r="FA52" s="23"/>
-      <c r="FB52" s="23"/>
-      <c r="FC52" s="23"/>
-      <c r="FD52" s="23"/>
-      <c r="FE52" s="23"/>
-      <c r="FF52" s="24"/>
-      <c r="FG52" s="23"/>
-      <c r="FH52" s="23"/>
-      <c r="FI52" s="23"/>
-      <c r="FJ52" s="23"/>
-      <c r="FK52" s="23"/>
-      <c r="FL52" s="23"/>
-      <c r="FM52" s="24"/>
-      <c r="FN52" s="23"/>
-      <c r="FO52" s="23"/>
-      <c r="FP52" s="23"/>
-      <c r="FQ52" s="23"/>
-      <c r="FR52" s="23"/>
-      <c r="FS52" s="23"/>
-      <c r="FT52" s="24"/>
-      <c r="FU52" s="23"/>
-      <c r="FV52" s="23"/>
-      <c r="FW52" s="23"/>
-      <c r="FX52" s="23"/>
-      <c r="FY52" s="23"/>
-      <c r="FZ52" s="23"/>
-      <c r="GA52" s="24"/>
-      <c r="GB52" s="23"/>
-      <c r="GC52" s="23"/>
-      <c r="GD52" s="23"/>
-      <c r="GE52" s="23"/>
-      <c r="GF52" s="23"/>
-      <c r="GG52" s="23"/>
-      <c r="GH52" s="24"/>
-      <c r="GI52" s="23"/>
-      <c r="GJ52" s="23"/>
-      <c r="GK52" s="23"/>
-      <c r="GL52" s="23"/>
-      <c r="GM52" s="23"/>
-      <c r="GN52" s="23"/>
-      <c r="GO52" s="24"/>
-      <c r="GP52" s="23"/>
-      <c r="GQ52" s="23"/>
-      <c r="GR52" s="23"/>
-      <c r="GS52" s="23"/>
-      <c r="GT52" s="23"/>
-      <c r="GU52" s="23"/>
-      <c r="GV52" s="24"/>
-      <c r="GW52" s="23"/>
-      <c r="GX52" s="23"/>
-      <c r="GY52" s="23"/>
-      <c r="GZ52" s="23"/>
-      <c r="HA52" s="23"/>
-      <c r="HB52" s="23"/>
-      <c r="HC52" s="24"/>
-      <c r="HD52" s="23"/>
-      <c r="HE52" s="23"/>
-      <c r="HF52" s="23"/>
-      <c r="HG52" s="23"/>
-      <c r="HH52" s="23"/>
-      <c r="HI52" s="23"/>
-      <c r="HJ52" s="24"/>
-      <c r="HK52" s="23"/>
-      <c r="HL52" s="23"/>
-      <c r="HM52" s="23"/>
-      <c r="HN52" s="23"/>
-      <c r="HO52" s="23"/>
-      <c r="HP52" s="23"/>
-      <c r="HQ52" s="24"/>
-      <c r="HR52" s="23"/>
-      <c r="HS52" s="23"/>
-      <c r="HT52" s="23"/>
-      <c r="HU52" s="23"/>
-      <c r="HV52" s="23"/>
-      <c r="HW52" s="23"/>
-      <c r="HX52" s="24"/>
-      <c r="HY52" s="23"/>
-      <c r="HZ52" s="23"/>
-      <c r="IA52" s="23"/>
-      <c r="IB52" s="23"/>
-      <c r="IC52" s="23"/>
-      <c r="ID52" s="23"/>
-      <c r="IE52" s="24"/>
-      <c r="IF52" s="23"/>
-      <c r="IG52" s="23"/>
-      <c r="IH52" s="23"/>
-      <c r="II52" s="23"/>
-      <c r="IJ52" s="23"/>
-      <c r="IK52" s="23"/>
-      <c r="IL52" s="24"/>
-      <c r="IM52" s="23"/>
-      <c r="IN52" s="23"/>
-      <c r="IO52" s="23"/>
-      <c r="IP52" s="23"/>
-      <c r="IQ52" s="23"/>
-      <c r="IR52" s="23"/>
-      <c r="IS52" s="24"/>
-      <c r="IT52" s="23"/>
-      <c r="IU52" s="23"/>
-      <c r="IV52" s="23"/>
-      <c r="IW52" s="23"/>
-      <c r="IX52" s="23"/>
-      <c r="IY52" s="24"/>
-      <c r="IZ52" s="24"/>
-      <c r="JA52" s="23"/>
-      <c r="JB52" s="23"/>
-      <c r="JC52" s="23"/>
-      <c r="JD52" s="23"/>
-      <c r="JE52" s="23"/>
-      <c r="JF52" s="23"/>
-      <c r="JG52" s="24"/>
-      <c r="JH52" s="23"/>
-      <c r="JI52" s="23"/>
-      <c r="JJ52" s="23"/>
-      <c r="JK52" s="23"/>
-      <c r="JL52" s="23"/>
-      <c r="JM52" s="23"/>
-      <c r="JN52" s="24"/>
-    </row>
-    <row r="53" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="54" t="s">
-        <v>65</v>
-      </c>
-      <c r="C53" s="54"/>
-      <c r="D53" s="52">
-        <v>0.8</v>
-      </c>
-      <c r="E53" s="53">
-        <v>45580</v>
-      </c>
-      <c r="F53" s="53">
-        <v>45606</v>
-      </c>
-      <c r="G53" s="28"/>
-      <c r="H53" s="28"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="23"/>
-      <c r="M53" s="23"/>
-      <c r="N53" s="23"/>
-      <c r="O53" s="23"/>
-      <c r="P53" s="23"/>
-      <c r="Q53" s="23"/>
-      <c r="R53" s="23"/>
-      <c r="S53" s="23"/>
-      <c r="T53" s="23"/>
-      <c r="U53" s="23"/>
-      <c r="V53" s="23"/>
-      <c r="W53" s="23"/>
-      <c r="X53" s="23"/>
-      <c r="Y53" s="23"/>
-      <c r="Z53" s="23"/>
-      <c r="AA53" s="23"/>
-      <c r="AB53" s="23"/>
-      <c r="AC53" s="23"/>
-      <c r="AD53" s="23"/>
-      <c r="AE53" s="23"/>
-      <c r="AF53" s="23"/>
-      <c r="AG53" s="23"/>
-      <c r="AH53" s="23"/>
-      <c r="AI53" s="23"/>
-      <c r="AJ53" s="23"/>
-      <c r="AK53" s="23"/>
-      <c r="AL53" s="23"/>
-      <c r="AM53" s="23"/>
-      <c r="AN53" s="23"/>
-      <c r="AO53" s="23"/>
-      <c r="AP53" s="23"/>
-      <c r="AQ53" s="24"/>
-      <c r="AR53" s="23"/>
-      <c r="AS53" s="23"/>
-      <c r="AT53" s="23"/>
-      <c r="AU53" s="23"/>
-      <c r="AV53" s="23"/>
-      <c r="AW53" s="23"/>
-      <c r="AX53" s="24"/>
-      <c r="AY53" s="23"/>
-      <c r="AZ53" s="23"/>
-      <c r="BA53" s="23"/>
-      <c r="BB53" s="23"/>
-      <c r="BC53" s="23"/>
-      <c r="BD53" s="23"/>
-      <c r="BE53" s="24"/>
-      <c r="BF53" s="23"/>
-      <c r="BG53" s="23"/>
-      <c r="BH53" s="23"/>
-      <c r="BI53" s="23"/>
-      <c r="BJ53" s="23"/>
-      <c r="BK53" s="23"/>
-      <c r="BL53" s="24"/>
-      <c r="BM53" s="23"/>
-      <c r="BN53" s="23"/>
-      <c r="BO53" s="23"/>
-      <c r="BP53" s="23"/>
-      <c r="BQ53" s="23"/>
-      <c r="BR53" s="23"/>
-      <c r="BS53" s="24"/>
-      <c r="BT53" s="23"/>
-      <c r="BU53" s="23"/>
-      <c r="BV53" s="23"/>
-      <c r="BW53" s="23"/>
-      <c r="BX53" s="23"/>
-      <c r="BY53" s="23"/>
-      <c r="BZ53" s="24"/>
-      <c r="CA53" s="23"/>
-      <c r="CB53" s="23"/>
-      <c r="CC53" s="23"/>
-      <c r="CD53" s="23"/>
-      <c r="CE53" s="23"/>
-      <c r="CF53" s="23"/>
-      <c r="CG53" s="24"/>
-      <c r="CH53" s="23"/>
-      <c r="CI53" s="23"/>
-      <c r="CJ53" s="23"/>
-      <c r="CK53" s="23"/>
-      <c r="CL53" s="23"/>
-      <c r="CM53" s="23"/>
-      <c r="CN53" s="24"/>
-      <c r="CO53" s="23"/>
-      <c r="CP53" s="23"/>
-      <c r="CQ53" s="23"/>
-      <c r="CR53" s="23"/>
-      <c r="CS53" s="23"/>
-      <c r="CT53" s="23"/>
-      <c r="CU53" s="24"/>
-      <c r="CV53" s="23"/>
-      <c r="CW53" s="23"/>
-      <c r="CX53" s="23"/>
-      <c r="CY53" s="23"/>
-      <c r="CZ53" s="23"/>
-      <c r="DA53" s="23"/>
-      <c r="DB53" s="24"/>
-      <c r="DC53" s="23"/>
-      <c r="DD53" s="23"/>
-      <c r="DE53" s="23"/>
-      <c r="DF53" s="23"/>
-      <c r="DG53" s="23"/>
-      <c r="DH53" s="23"/>
-      <c r="DI53" s="24"/>
-      <c r="DJ53" s="23"/>
-      <c r="DK53" s="23"/>
-      <c r="DL53" s="23"/>
-      <c r="DM53" s="23"/>
-      <c r="DN53" s="23"/>
-      <c r="DO53" s="23"/>
-      <c r="DP53" s="24"/>
-      <c r="DQ53" s="23"/>
-      <c r="DR53" s="23"/>
-      <c r="DS53" s="23"/>
-      <c r="DT53" s="23"/>
-      <c r="DU53" s="23"/>
-      <c r="DV53" s="23"/>
-      <c r="DW53" s="24"/>
-      <c r="DX53" s="23"/>
-      <c r="DY53" s="23"/>
-      <c r="DZ53" s="23"/>
-      <c r="EA53" s="23"/>
-      <c r="EB53" s="23"/>
-      <c r="EC53" s="23"/>
-      <c r="ED53" s="24"/>
-      <c r="EE53" s="23"/>
-      <c r="EF53" s="23"/>
-      <c r="EG53" s="23"/>
-      <c r="EH53" s="23"/>
-      <c r="EI53" s="23"/>
-      <c r="EJ53" s="23"/>
-      <c r="EK53" s="24"/>
-      <c r="EL53" s="23"/>
-      <c r="EM53" s="23"/>
-      <c r="EN53" s="23"/>
-      <c r="EO53" s="23"/>
-      <c r="EP53" s="23"/>
-      <c r="EQ53" s="23"/>
-      <c r="ER53" s="24"/>
-      <c r="ES53" s="23"/>
-      <c r="ET53" s="23"/>
-      <c r="EU53" s="23"/>
-      <c r="EV53" s="23"/>
-      <c r="EW53" s="23"/>
-      <c r="EX53" s="23"/>
-      <c r="EY53" s="24"/>
-      <c r="EZ53" s="23"/>
-      <c r="FA53" s="23"/>
-      <c r="FB53" s="23"/>
-      <c r="FC53" s="23"/>
-      <c r="FD53" s="23"/>
-      <c r="FE53" s="23"/>
-      <c r="FF53" s="24"/>
-      <c r="FG53" s="23"/>
-      <c r="FH53" s="23"/>
-      <c r="FI53" s="23"/>
-      <c r="FJ53" s="23"/>
-      <c r="FK53" s="23"/>
-      <c r="FL53" s="23"/>
-      <c r="FM53" s="24"/>
-      <c r="FN53" s="23"/>
-      <c r="FO53" s="23"/>
-      <c r="FP53" s="23"/>
-      <c r="FQ53" s="23"/>
-      <c r="FR53" s="23"/>
-      <c r="FS53" s="23"/>
-      <c r="FT53" s="24"/>
-      <c r="FU53" s="23"/>
-      <c r="FV53" s="23"/>
-      <c r="FW53" s="23"/>
-      <c r="FX53" s="23"/>
-      <c r="FY53" s="23"/>
-      <c r="FZ53" s="23"/>
-      <c r="GA53" s="24"/>
-      <c r="GB53" s="23"/>
-      <c r="GC53" s="23"/>
-      <c r="GD53" s="23"/>
-      <c r="GE53" s="23"/>
-      <c r="GF53" s="23"/>
-      <c r="GG53" s="23"/>
-      <c r="GH53" s="24"/>
-      <c r="GI53" s="23"/>
-      <c r="GJ53" s="23"/>
-      <c r="GK53" s="23"/>
-      <c r="GL53" s="23"/>
-      <c r="GM53" s="23"/>
-      <c r="GN53" s="23"/>
-      <c r="GO53" s="24"/>
-      <c r="GP53" s="23"/>
-      <c r="GQ53" s="23"/>
-      <c r="GR53" s="23"/>
-      <c r="GS53" s="23"/>
-      <c r="GT53" s="23"/>
-      <c r="GU53" s="23"/>
-      <c r="GV53" s="24"/>
-      <c r="GW53" s="23"/>
-      <c r="GX53" s="23"/>
-      <c r="GY53" s="23"/>
-      <c r="GZ53" s="23"/>
-      <c r="HA53" s="23"/>
-      <c r="HB53" s="23"/>
-      <c r="HC53" s="24"/>
-      <c r="HD53" s="23"/>
-      <c r="HE53" s="23"/>
-      <c r="HF53" s="23"/>
-      <c r="HG53" s="23"/>
-      <c r="HH53" s="23"/>
-      <c r="HI53" s="23"/>
-      <c r="HJ53" s="24"/>
-      <c r="HK53" s="23"/>
-      <c r="HL53" s="23"/>
-      <c r="HM53" s="23"/>
-      <c r="HN53" s="23"/>
-      <c r="HO53" s="23"/>
-      <c r="HP53" s="23"/>
-      <c r="HQ53" s="24"/>
-      <c r="HR53" s="23"/>
-      <c r="HS53" s="23"/>
-      <c r="HT53" s="23"/>
-      <c r="HU53" s="23"/>
-      <c r="HV53" s="23"/>
-      <c r="HW53" s="23"/>
-      <c r="HX53" s="24"/>
-      <c r="HY53" s="23"/>
-      <c r="HZ53" s="23"/>
-      <c r="IA53" s="23"/>
-      <c r="IB53" s="23"/>
-      <c r="IC53" s="23"/>
-      <c r="ID53" s="23"/>
-      <c r="IE53" s="24"/>
-      <c r="IF53" s="23"/>
-      <c r="IG53" s="23"/>
-      <c r="IH53" s="23"/>
-      <c r="II53" s="23"/>
-      <c r="IJ53" s="23"/>
-      <c r="IK53" s="23"/>
-      <c r="IL53" s="24"/>
-      <c r="IM53" s="23"/>
-      <c r="IN53" s="23"/>
-      <c r="IO53" s="23"/>
-      <c r="IP53" s="23"/>
-      <c r="IQ53" s="23"/>
-      <c r="IR53" s="23"/>
-      <c r="IS53" s="24"/>
-      <c r="IT53" s="23"/>
-      <c r="IU53" s="23"/>
-      <c r="IV53" s="23"/>
-      <c r="IW53" s="23"/>
-      <c r="IX53" s="23"/>
-      <c r="IY53" s="24"/>
-      <c r="IZ53" s="24"/>
-      <c r="JA53" s="23"/>
-      <c r="JB53" s="23"/>
-      <c r="JC53" s="23"/>
-      <c r="JD53" s="23"/>
-      <c r="JE53" s="23"/>
-      <c r="JF53" s="23"/>
-      <c r="JG53" s="24"/>
-      <c r="JH53" s="23"/>
-      <c r="JI53" s="23"/>
-      <c r="JJ53" s="23"/>
-      <c r="JK53" s="23"/>
-      <c r="JL53" s="23"/>
-      <c r="JM53" s="23"/>
-      <c r="JN53" s="24"/>
-    </row>
-    <row r="54" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="7"/>
-      <c r="B54" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="54"/>
-      <c r="D54" s="52">
-        <v>0.9</v>
-      </c>
-      <c r="E54" s="53">
-        <v>45531</v>
-      </c>
-      <c r="F54" s="53">
-        <v>45608</v>
-      </c>
-      <c r="G54" s="28"/>
-      <c r="H54" s="28"/>
-      <c r="I54" s="23"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="23"/>
-      <c r="L54" s="23"/>
-      <c r="M54" s="23"/>
-      <c r="N54" s="23"/>
-      <c r="O54" s="23"/>
-      <c r="P54" s="23"/>
-      <c r="Q54" s="23"/>
-      <c r="R54" s="23"/>
-      <c r="S54" s="23"/>
-      <c r="T54" s="23"/>
-      <c r="U54" s="23"/>
-      <c r="V54" s="23"/>
-      <c r="W54" s="23"/>
-      <c r="X54" s="23"/>
-      <c r="Y54" s="23"/>
-      <c r="Z54" s="23"/>
-      <c r="AA54" s="23"/>
-      <c r="AB54" s="23"/>
-      <c r="AC54" s="23"/>
-      <c r="AD54" s="23"/>
-      <c r="AE54" s="23"/>
-      <c r="AF54" s="23"/>
-      <c r="AG54" s="23"/>
-      <c r="AH54" s="23"/>
-      <c r="AI54" s="23"/>
-      <c r="AJ54" s="23"/>
-      <c r="AK54" s="23"/>
-      <c r="AL54" s="23"/>
-      <c r="AM54" s="23"/>
-      <c r="AN54" s="23"/>
-      <c r="AO54" s="23"/>
-      <c r="AP54" s="23"/>
-      <c r="AQ54" s="24"/>
-      <c r="AR54" s="23"/>
-      <c r="AS54" s="23"/>
-      <c r="AT54" s="23"/>
-      <c r="AU54" s="23"/>
-      <c r="AV54" s="23"/>
-      <c r="AW54" s="23"/>
-      <c r="AX54" s="24"/>
-      <c r="AY54" s="23"/>
-      <c r="AZ54" s="23"/>
-      <c r="BA54" s="23"/>
-      <c r="BB54" s="23"/>
-      <c r="BC54" s="23"/>
-      <c r="BD54" s="23"/>
-      <c r="BE54" s="24"/>
-      <c r="BF54" s="23"/>
-      <c r="BG54" s="23"/>
-      <c r="BH54" s="23"/>
-      <c r="BI54" s="23"/>
-      <c r="BJ54" s="23"/>
-      <c r="BK54" s="23"/>
-      <c r="BL54" s="24"/>
-      <c r="BM54" s="23"/>
-      <c r="BN54" s="23"/>
-      <c r="BO54" s="23"/>
-      <c r="BP54" s="23"/>
-      <c r="BQ54" s="23"/>
-      <c r="BR54" s="23"/>
-      <c r="BS54" s="24"/>
-      <c r="BT54" s="23"/>
-      <c r="BU54" s="23"/>
-      <c r="BV54" s="23"/>
-      <c r="BW54" s="23"/>
-      <c r="BX54" s="23"/>
-      <c r="BY54" s="23"/>
-      <c r="BZ54" s="24"/>
-      <c r="CA54" s="23"/>
-      <c r="CB54" s="23"/>
-      <c r="CC54" s="23"/>
-      <c r="CD54" s="23"/>
-      <c r="CE54" s="23"/>
-      <c r="CF54" s="23"/>
-      <c r="CG54" s="24"/>
-      <c r="CH54" s="23"/>
-      <c r="CI54" s="23"/>
-      <c r="CJ54" s="23"/>
-      <c r="CK54" s="23"/>
-      <c r="CL54" s="23"/>
-      <c r="CM54" s="23"/>
-      <c r="CN54" s="24"/>
-      <c r="CO54" s="23"/>
-      <c r="CP54" s="23"/>
-      <c r="CQ54" s="23"/>
-      <c r="CR54" s="23"/>
-      <c r="CS54" s="23"/>
-      <c r="CT54" s="23"/>
-      <c r="CU54" s="24"/>
-      <c r="CV54" s="23"/>
-      <c r="CW54" s="23"/>
-      <c r="CX54" s="23"/>
-      <c r="CY54" s="23"/>
-      <c r="CZ54" s="23"/>
-      <c r="DA54" s="23"/>
-      <c r="DB54" s="24"/>
-      <c r="DC54" s="23"/>
-      <c r="DD54" s="23"/>
-      <c r="DE54" s="23"/>
-      <c r="DF54" s="23"/>
-      <c r="DG54" s="23"/>
-      <c r="DH54" s="23"/>
-      <c r="DI54" s="24"/>
-      <c r="DJ54" s="23"/>
-      <c r="DK54" s="23"/>
-      <c r="DL54" s="23"/>
-      <c r="DM54" s="23"/>
-      <c r="DN54" s="23"/>
-      <c r="DO54" s="23"/>
-      <c r="DP54" s="24"/>
-      <c r="DQ54" s="23"/>
-      <c r="DR54" s="23"/>
-      <c r="DS54" s="23"/>
-      <c r="DT54" s="23"/>
-      <c r="DU54" s="23"/>
-      <c r="DV54" s="23"/>
-      <c r="DW54" s="24"/>
-      <c r="DX54" s="23"/>
-      <c r="DY54" s="23"/>
-      <c r="DZ54" s="23"/>
-      <c r="EA54" s="23"/>
-      <c r="EB54" s="23"/>
-      <c r="EC54" s="23"/>
-      <c r="ED54" s="24"/>
-      <c r="EE54" s="23"/>
-      <c r="EF54" s="23"/>
-      <c r="EG54" s="23"/>
-      <c r="EH54" s="23"/>
-      <c r="EI54" s="23"/>
-      <c r="EJ54" s="23"/>
-      <c r="EK54" s="24"/>
-      <c r="EL54" s="23"/>
-      <c r="EM54" s="23"/>
-      <c r="EN54" s="23"/>
-      <c r="EO54" s="23"/>
-      <c r="EP54" s="23"/>
-      <c r="EQ54" s="23"/>
-      <c r="ER54" s="24"/>
-      <c r="ES54" s="23"/>
-      <c r="ET54" s="23"/>
-      <c r="EU54" s="23"/>
-      <c r="EV54" s="23"/>
-      <c r="EW54" s="23"/>
-      <c r="EX54" s="23"/>
-      <c r="EY54" s="24"/>
-      <c r="EZ54" s="23"/>
-      <c r="FA54" s="23"/>
-      <c r="FB54" s="23"/>
-      <c r="FC54" s="23"/>
-      <c r="FD54" s="23"/>
-      <c r="FE54" s="23"/>
-      <c r="FF54" s="24"/>
-      <c r="FG54" s="23"/>
-      <c r="FH54" s="23"/>
-      <c r="FI54" s="23"/>
-      <c r="FJ54" s="23"/>
-      <c r="FK54" s="23"/>
-      <c r="FL54" s="23"/>
-      <c r="FM54" s="24"/>
-      <c r="FN54" s="23"/>
-      <c r="FO54" s="23"/>
-      <c r="FP54" s="23"/>
-      <c r="FQ54" s="23"/>
-      <c r="FR54" s="23"/>
-      <c r="FS54" s="23"/>
-      <c r="FT54" s="24"/>
-      <c r="FU54" s="23"/>
-      <c r="FV54" s="23"/>
-      <c r="FW54" s="23"/>
-      <c r="FX54" s="23"/>
-      <c r="FY54" s="23"/>
-      <c r="FZ54" s="23"/>
-      <c r="GA54" s="24"/>
-      <c r="GB54" s="23"/>
-      <c r="GC54" s="23"/>
-      <c r="GD54" s="23"/>
-      <c r="GE54" s="23"/>
-      <c r="GF54" s="23"/>
-      <c r="GG54" s="23"/>
-      <c r="GH54" s="24"/>
-      <c r="GI54" s="23"/>
-      <c r="GJ54" s="23"/>
-      <c r="GK54" s="23"/>
-      <c r="GL54" s="23"/>
-      <c r="GM54" s="23"/>
-      <c r="GN54" s="23"/>
-      <c r="GO54" s="24"/>
-      <c r="GP54" s="23"/>
-      <c r="GQ54" s="23"/>
-      <c r="GR54" s="23"/>
-      <c r="GS54" s="23"/>
-      <c r="GT54" s="23"/>
-      <c r="GU54" s="23"/>
-      <c r="GV54" s="24"/>
-      <c r="GW54" s="23"/>
-      <c r="GX54" s="23"/>
-      <c r="GY54" s="23"/>
-      <c r="GZ54" s="23"/>
-      <c r="HA54" s="23"/>
-      <c r="HB54" s="23"/>
-      <c r="HC54" s="24"/>
-      <c r="HD54" s="23"/>
-      <c r="HE54" s="23"/>
-      <c r="HF54" s="23"/>
-      <c r="HG54" s="23"/>
-      <c r="HH54" s="23"/>
-      <c r="HI54" s="23"/>
-      <c r="HJ54" s="24"/>
-      <c r="HK54" s="23"/>
-      <c r="HL54" s="23"/>
-      <c r="HM54" s="23"/>
-      <c r="HN54" s="23"/>
-      <c r="HO54" s="23"/>
-      <c r="HP54" s="23"/>
-      <c r="HQ54" s="24"/>
-      <c r="HR54" s="23"/>
-      <c r="HS54" s="23"/>
-      <c r="HT54" s="23"/>
-      <c r="HU54" s="23"/>
-      <c r="HV54" s="23"/>
-      <c r="HW54" s="23"/>
-      <c r="HX54" s="24"/>
-      <c r="HY54" s="23"/>
-      <c r="HZ54" s="23"/>
-      <c r="IA54" s="23"/>
-      <c r="IB54" s="23"/>
-      <c r="IC54" s="23"/>
-      <c r="ID54" s="23"/>
-      <c r="IE54" s="24"/>
-      <c r="IF54" s="23"/>
-      <c r="IG54" s="23"/>
-      <c r="IH54" s="23"/>
-      <c r="II54" s="23"/>
-      <c r="IJ54" s="23"/>
-      <c r="IK54" s="23"/>
-      <c r="IL54" s="24"/>
-      <c r="IM54" s="23"/>
-      <c r="IN54" s="23"/>
-      <c r="IO54" s="23"/>
-      <c r="IP54" s="23"/>
-      <c r="IQ54" s="23"/>
-      <c r="IR54" s="23"/>
-      <c r="IS54" s="24"/>
-      <c r="IT54" s="23"/>
-      <c r="IU54" s="23"/>
-      <c r="IV54" s="23"/>
-      <c r="IW54" s="23"/>
-      <c r="IX54" s="23"/>
-      <c r="IY54" s="24"/>
-      <c r="IZ54" s="24"/>
-      <c r="JA54" s="23"/>
-      <c r="JB54" s="23"/>
-      <c r="JC54" s="23"/>
-      <c r="JD54" s="23"/>
-      <c r="JE54" s="23"/>
-      <c r="JF54" s="23"/>
-      <c r="JG54" s="24"/>
-      <c r="JH54" s="23"/>
-      <c r="JI54" s="23"/>
-      <c r="JJ54" s="23"/>
-      <c r="JK54" s="23"/>
-      <c r="JL54" s="23"/>
-      <c r="JM54" s="23"/>
-      <c r="JN54" s="24"/>
-    </row>
-    <row r="55" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="7"/>
-      <c r="B55" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="C55" s="54"/>
-      <c r="D55" s="52">
-        <v>0.5</v>
-      </c>
-      <c r="E55" s="53">
-        <v>45593</v>
-      </c>
-      <c r="F55" s="53">
-        <v>45613</v>
-      </c>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28">
-        <v>87</v>
-      </c>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
-      <c r="AG55" s="23"/>
-      <c r="AH55" s="23"/>
-      <c r="AI55" s="23"/>
-      <c r="AJ55" s="23"/>
-      <c r="AK55" s="23"/>
-      <c r="AL55" s="23"/>
-      <c r="AM55" s="23"/>
-      <c r="AN55" s="23"/>
-      <c r="AO55" s="23"/>
-      <c r="AP55" s="23"/>
-      <c r="AQ55" s="24"/>
-      <c r="AR55" s="23"/>
-      <c r="AS55" s="23"/>
-      <c r="AT55" s="23"/>
-      <c r="AU55" s="23"/>
-      <c r="AV55" s="23"/>
-      <c r="AW55" s="23"/>
-      <c r="AX55" s="24"/>
-      <c r="AY55" s="23"/>
-      <c r="AZ55" s="23"/>
-      <c r="BA55" s="23"/>
-      <c r="BB55" s="23"/>
-      <c r="BC55" s="23"/>
-      <c r="BD55" s="23"/>
-      <c r="BE55" s="24"/>
-      <c r="BF55" s="23"/>
-      <c r="BG55" s="23"/>
-      <c r="BH55" s="23"/>
-      <c r="BI55" s="23"/>
-      <c r="BJ55" s="23"/>
-      <c r="BK55" s="23"/>
-      <c r="BL55" s="24"/>
-      <c r="BM55" s="23"/>
-      <c r="BN55" s="23"/>
-      <c r="BO55" s="23"/>
-      <c r="BP55" s="23"/>
-      <c r="BQ55" s="23"/>
-      <c r="BR55" s="23"/>
-      <c r="BS55" s="24"/>
-      <c r="BT55" s="23"/>
-      <c r="BU55" s="23"/>
-      <c r="BV55" s="23"/>
-      <c r="BW55" s="23"/>
-      <c r="BX55" s="23"/>
-      <c r="BY55" s="23"/>
-      <c r="BZ55" s="24"/>
-      <c r="CA55" s="23"/>
-      <c r="CB55" s="23"/>
-      <c r="CC55" s="23"/>
-      <c r="CD55" s="23"/>
-      <c r="CE55" s="23"/>
-      <c r="CF55" s="23"/>
-      <c r="CG55" s="24"/>
-      <c r="CH55" s="23"/>
-      <c r="CI55" s="23"/>
-      <c r="CJ55" s="23"/>
-      <c r="CK55" s="23"/>
-      <c r="CL55" s="23"/>
-      <c r="CM55" s="23"/>
-      <c r="CN55" s="24"/>
-      <c r="CO55" s="23"/>
-      <c r="CP55" s="23"/>
-      <c r="CQ55" s="23"/>
-      <c r="CR55" s="23"/>
-      <c r="CS55" s="23"/>
-      <c r="CT55" s="23"/>
-      <c r="CU55" s="24"/>
-      <c r="CV55" s="23"/>
-      <c r="CW55" s="23"/>
-      <c r="CX55" s="23"/>
-      <c r="CY55" s="23"/>
-      <c r="CZ55" s="23"/>
-      <c r="DA55" s="23"/>
-      <c r="DB55" s="24"/>
-      <c r="DC55" s="23"/>
-      <c r="DD55" s="23"/>
-      <c r="DE55" s="23"/>
-      <c r="DF55" s="23"/>
-      <c r="DG55" s="23"/>
-      <c r="DH55" s="23"/>
-      <c r="DI55" s="24"/>
-      <c r="DJ55" s="23"/>
-      <c r="DK55" s="23"/>
-      <c r="DL55" s="23"/>
-      <c r="DM55" s="23"/>
-      <c r="DN55" s="23"/>
-      <c r="DO55" s="23"/>
-      <c r="DP55" s="24"/>
-      <c r="DQ55" s="23"/>
-      <c r="DR55" s="23"/>
-      <c r="DS55" s="23"/>
-      <c r="DT55" s="23"/>
-      <c r="DU55" s="23"/>
-      <c r="DV55" s="23"/>
-      <c r="DW55" s="24"/>
-      <c r="DX55" s="23"/>
-      <c r="DY55" s="23"/>
-      <c r="DZ55" s="23"/>
-      <c r="EA55" s="23"/>
-      <c r="EB55" s="23"/>
-      <c r="EC55" s="23"/>
-      <c r="ED55" s="24"/>
-      <c r="EE55" s="23"/>
-      <c r="EF55" s="23"/>
-      <c r="EG55" s="23"/>
-      <c r="EH55" s="23"/>
-      <c r="EI55" s="23"/>
-      <c r="EJ55" s="23"/>
-      <c r="EK55" s="24"/>
-      <c r="EL55" s="23"/>
-      <c r="EM55" s="23"/>
-      <c r="EN55" s="23"/>
-      <c r="EO55" s="23"/>
-      <c r="EP55" s="23"/>
-      <c r="EQ55" s="23"/>
-      <c r="ER55" s="24"/>
-      <c r="ES55" s="23"/>
-      <c r="ET55" s="23"/>
-      <c r="EU55" s="23"/>
-      <c r="EV55" s="23"/>
-      <c r="EW55" s="23"/>
-      <c r="EX55" s="23"/>
-      <c r="EY55" s="24"/>
-      <c r="EZ55" s="23"/>
-      <c r="FA55" s="23"/>
-      <c r="FB55" s="23"/>
-      <c r="FC55" s="23"/>
-      <c r="FD55" s="23"/>
-      <c r="FE55" s="23"/>
-      <c r="FF55" s="24"/>
-      <c r="FG55" s="23"/>
-      <c r="FH55" s="23"/>
-      <c r="FI55" s="23"/>
-      <c r="FJ55" s="23"/>
-      <c r="FK55" s="23"/>
-      <c r="FL55" s="23"/>
-      <c r="FM55" s="24"/>
-      <c r="FN55" s="23"/>
-      <c r="FO55" s="23"/>
-      <c r="FP55" s="23"/>
-      <c r="FQ55" s="23"/>
-      <c r="FR55" s="23"/>
-      <c r="FS55" s="23"/>
-      <c r="FT55" s="24"/>
-      <c r="FU55" s="23"/>
-      <c r="FV55" s="23"/>
-      <c r="FW55" s="23"/>
-      <c r="FX55" s="23"/>
-      <c r="FY55" s="23"/>
-      <c r="FZ55" s="23"/>
-      <c r="GA55" s="24"/>
-      <c r="GB55" s="23"/>
-      <c r="GC55" s="23"/>
-      <c r="GD55" s="23"/>
-      <c r="GE55" s="23"/>
-      <c r="GF55" s="23"/>
-      <c r="GG55" s="23"/>
-      <c r="GH55" s="24"/>
-      <c r="GI55" s="23"/>
-      <c r="GJ55" s="23"/>
-      <c r="GK55" s="23"/>
-      <c r="GL55" s="23"/>
-      <c r="GM55" s="23"/>
-      <c r="GN55" s="23"/>
-      <c r="GO55" s="24"/>
-      <c r="GP55" s="23"/>
-      <c r="GQ55" s="23"/>
-      <c r="GR55" s="23"/>
-      <c r="GS55" s="23"/>
-      <c r="GT55" s="23"/>
-      <c r="GU55" s="23"/>
-      <c r="GV55" s="24"/>
-      <c r="GW55" s="23"/>
-      <c r="GX55" s="23"/>
-      <c r="GY55" s="23"/>
-      <c r="GZ55" s="23"/>
-      <c r="HA55" s="23"/>
-      <c r="HB55" s="23"/>
-      <c r="HC55" s="24"/>
-      <c r="HD55" s="23"/>
-      <c r="HE55" s="23"/>
-      <c r="HF55" s="23"/>
-      <c r="HG55" s="23"/>
-      <c r="HH55" s="23"/>
-      <c r="HI55" s="23"/>
-      <c r="HJ55" s="24"/>
-      <c r="HK55" s="23"/>
-      <c r="HL55" s="23"/>
-      <c r="HM55" s="23"/>
-      <c r="HN55" s="23"/>
-      <c r="HO55" s="23"/>
-      <c r="HP55" s="23"/>
-      <c r="HQ55" s="23"/>
-      <c r="HR55" s="23"/>
-      <c r="HS55" s="23"/>
-      <c r="HT55" s="23"/>
-      <c r="HU55" s="23"/>
-      <c r="HV55" s="23"/>
-      <c r="HW55" s="23"/>
-      <c r="HX55" s="23"/>
-      <c r="HY55" s="23"/>
-      <c r="HZ55" s="23"/>
-      <c r="IA55" s="23"/>
-      <c r="IB55" s="23"/>
-      <c r="IC55" s="23"/>
-      <c r="ID55" s="23"/>
-      <c r="IE55" s="23"/>
-      <c r="IF55" s="23"/>
-      <c r="IG55" s="23"/>
-      <c r="IH55" s="23"/>
-      <c r="II55" s="23"/>
-      <c r="IJ55" s="23"/>
-      <c r="IK55" s="23"/>
-      <c r="IL55" s="23"/>
-      <c r="IM55" s="23"/>
-      <c r="IN55" s="23"/>
-      <c r="IO55" s="23"/>
-      <c r="IP55" s="23"/>
-      <c r="IQ55" s="23"/>
-      <c r="IR55" s="23"/>
-      <c r="IS55" s="23"/>
-      <c r="IT55" s="23"/>
-      <c r="IU55" s="23"/>
-      <c r="IV55" s="23"/>
-      <c r="IW55" s="23"/>
-      <c r="IX55" s="23"/>
-      <c r="IY55" s="23"/>
-      <c r="IZ55" s="23"/>
-      <c r="JA55" s="23"/>
-      <c r="JB55" s="23"/>
-      <c r="JC55" s="23"/>
-      <c r="JD55" s="23"/>
-      <c r="JE55" s="23"/>
-      <c r="JF55" s="23"/>
-      <c r="JG55" s="24"/>
-      <c r="JH55" s="23"/>
-      <c r="JI55" s="23"/>
-      <c r="JJ55" s="23"/>
-      <c r="JK55" s="23"/>
-      <c r="JL55" s="23"/>
-      <c r="JM55" s="23"/>
-      <c r="JN55" s="24"/>
-    </row>
   </sheetData>
-  <mergeCells count="91">
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B55:C55"/>
+  <mergeCells count="86">
+    <mergeCell ref="B49:C49"/>
     <mergeCell ref="B44:C44"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="IT4:IZ4"/>
+    <mergeCell ref="JA4:JG4"/>
+    <mergeCell ref="JH4:JN4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
     <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="B52:C52"/>
     <mergeCell ref="GP4:GV4"/>
     <mergeCell ref="GW4:HC4"/>
     <mergeCell ref="HD4:HJ4"/>
@@ -19611,23 +17516,60 @@
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="CA4:CG4"/>
     <mergeCell ref="B50:C50"/>
-    <mergeCell ref="IT4:IZ4"/>
-    <mergeCell ref="JA4:JG4"/>
-    <mergeCell ref="JH4:JN4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D55">
+  <conditionalFormatting sqref="D7:D50">
     <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -19641,401 +17583,146 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO55 DQ5:DV55 DX5:EC55 EE5:EJ55 EL5:EQ55 ES5:EX55 EZ5:FE55 FG5:FL55 FN5:FS55">
-    <cfRule type="expression" dxfId="82" priority="238">
+  <conditionalFormatting sqref="I5:DO50 DQ5:DV50 DX5:EC50 EE5:EJ50 EL5:EQ50 ES5:EX50 EZ5:FE50 FG5:FL50 FN5:FS50 FU5:FZ50 GB5:GG50 GI5:GN50 GP5:GU50 GW5:HB50 HD5:HI49 HR5:HW49 HY5:ID49 IF5:IK49 IM5:IR49 IT5:IY49 JA5:JF50 JH5:JM49">
+    <cfRule type="expression" dxfId="31" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO55 DQ7:DV55 DX7:EC55 EE7:EJ55 EL7:EQ55 ES7:EX55 EZ7:FE55 FG7:FL55 FN7:FS55">
-    <cfRule type="expression" dxfId="81" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="I7:DO50 DQ7:DV50 DX7:EC50 EE7:EJ50 EL7:EQ50 ES7:EX50 EZ7:FE50 FG7:FL50 FN7:FS50 FU7:FZ50 GB7:GG50 GI7:GN50 GP7:GU50 GW7:HB50 HD7:HI49 HR7:HW49 HY7:ID49 IF7:IK49 IM7:IR49 IT7:IY49 JA7:JF50 JH7:JM49">
+    <cfRule type="expression" dxfId="30" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I55:HK55 IP55:JN55">
-    <cfRule type="expression" dxfId="80" priority="236">
+  <conditionalFormatting sqref="I50:HK50 IP50:JN50 HR7:IS49 IT7:IZ45 I7:HJ49 JA7:JN49">
+    <cfRule type="expression" dxfId="29" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP55 DW5:DW55 ED5:ED55 EK5:EK55 ER5:ER55 EY5:EY55 FF5:FF55">
-    <cfRule type="expression" dxfId="79" priority="492">
+  <conditionalFormatting sqref="DP5:DP50 DW5:DW50 ED5:ED50 EK5:EK50 ER5:ER50 EY5:EY50 FF5:FF50 HQ5:HQ49 HX5:HX49 JG5:JG50">
+    <cfRule type="expression" dxfId="28" priority="492">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP55 DW7:DW55 ED7:ED55 EK7:EK55 ER7:ER55 EY7:EY55 FF7:FF55">
-    <cfRule type="expression" dxfId="78" priority="496" stopIfTrue="1">
+  <conditionalFormatting sqref="DP7:DP50 DW7:DW50 ED7:ED50 EK7:EK50 ER7:ER50 EY7:EY50 FF7:FF50 HQ7:HQ49 HX7:HX49 JG7:JG50">
+    <cfRule type="expression" dxfId="27" priority="496" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="FU5:FZ55">
-    <cfRule type="expression" dxfId="77" priority="227">
-      <formula>AND(TODAY()&gt;=FU$5,TODAY()&lt;FV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="FU7:FZ55">
-    <cfRule type="expression" dxfId="76" priority="226" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FU$5,task_start&lt;FV$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GA5:GA55">
-    <cfRule type="expression" dxfId="75" priority="232">
+  <conditionalFormatting sqref="GA5:GA50 GH5:GH50 GO5:GO50 GV5:GV50 HC5:HC50 IE5:IE49 IL5:IL49 IS5:IS50">
+    <cfRule type="expression" dxfId="26" priority="232">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GA7:GA55">
-    <cfRule type="expression" dxfId="74" priority="233" stopIfTrue="1">
+  <conditionalFormatting sqref="GA7:GA50 GH7:GH50 GO7:GO50 GV7:GV50 HC7:HC50 HJ7:HJ50 IE7:IE49 IL7:IL49 IS7:IS50 JN7:JN50">
+    <cfRule type="expression" dxfId="25" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="GB5:GG55">
-    <cfRule type="expression" dxfId="73" priority="217">
-      <formula>AND(TODAY()&gt;=GB$5,TODAY()&lt;GC$5)</formula>
+  <conditionalFormatting sqref="HD50:HI50">
+    <cfRule type="expression" dxfId="24" priority="176" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GB7:GG55">
-    <cfRule type="expression" dxfId="72" priority="216" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GB$5,task_start&lt;GC$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GH5:GH55">
-    <cfRule type="expression" dxfId="71" priority="222">
-      <formula>AND(TODAY()&gt;=GH$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GH7:GH55">
-    <cfRule type="expression" dxfId="70" priority="223" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GH$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI5:GN55">
-    <cfRule type="expression" dxfId="69" priority="207">
-      <formula>AND(TODAY()&gt;=GI$5,TODAY()&lt;GJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GI7:GN55">
-    <cfRule type="expression" dxfId="68" priority="206" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GI$5,task_start&lt;GJ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GO5:GO55">
-    <cfRule type="expression" dxfId="67" priority="212">
-      <formula>AND(TODAY()&gt;=GO$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GO7:GO55">
-    <cfRule type="expression" dxfId="66" priority="213" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GO$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP5:GU55">
-    <cfRule type="expression" dxfId="65" priority="197">
-      <formula>AND(TODAY()&gt;=GP$5,TODAY()&lt;GQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GP7:GU55">
-    <cfRule type="expression" dxfId="64" priority="196" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GP$5,task_start&lt;GQ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GV5:GV55">
-    <cfRule type="expression" dxfId="63" priority="202">
-      <formula>AND(TODAY()&gt;=GV$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GV7:GV55">
-    <cfRule type="expression" dxfId="62" priority="203" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GV$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW5:HB55">
-    <cfRule type="expression" dxfId="61" priority="187">
-      <formula>AND(TODAY()&gt;=GW$5,TODAY()&lt;GX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GW7:HB55">
-    <cfRule type="expression" dxfId="60" priority="186" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GW$5,task_start&lt;GX$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HC5:HC55">
-    <cfRule type="expression" dxfId="59" priority="192">
-      <formula>AND(TODAY()&gt;=HC$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HC7:HC55">
-    <cfRule type="expression" dxfId="58" priority="193" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HC$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI54">
-    <cfRule type="expression" dxfId="57" priority="180">
+    <cfRule type="expression" dxfId="23" priority="177">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI54">
-    <cfRule type="expression" dxfId="56" priority="179" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
+  <conditionalFormatting sqref="HJ5:HJ50 IZ5:IZ45 FM5:FM50 FT5:FT50 JN5:JN50">
+    <cfRule type="expression" dxfId="22" priority="182">
+      <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD55:HI55">
-    <cfRule type="expression" dxfId="55" priority="176" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="54" priority="177">
-      <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HJ5:HJ55">
-    <cfRule type="expression" dxfId="53" priority="182">
-      <formula>AND(TODAY()&gt;=HJ$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HJ7:HJ55">
-    <cfRule type="expression" dxfId="52" priority="183" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HJ$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK5:HP13 HM14:HP14 HK15:HP42">
-    <cfRule type="expression" dxfId="51" priority="400">
+  <conditionalFormatting sqref="HK5:HP13 HM14:HP14 HK15:HP36">
+    <cfRule type="expression" dxfId="21" priority="400">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK7:HP13 HM14:HP14 HK15:HP42">
-    <cfRule type="expression" dxfId="50" priority="399" stopIfTrue="1">
+  <conditionalFormatting sqref="HK7:HP13 HM14:HP14 HK15:HP36">
+    <cfRule type="expression" dxfId="20" priority="399" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HP54">
-    <cfRule type="expression" dxfId="49" priority="169" stopIfTrue="1">
+  <conditionalFormatting sqref="HK37:HP49">
+    <cfRule type="expression" dxfId="19" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="48" priority="170">
+    <cfRule type="expression" dxfId="18" priority="170">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14 HK15:HQ42">
-    <cfRule type="expression" dxfId="47" priority="242">
+  <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14 HK15:HQ36">
+    <cfRule type="expression" dxfId="17" priority="242">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK43:HQ54">
-    <cfRule type="expression" dxfId="46" priority="168">
+  <conditionalFormatting sqref="HK37:HQ49">
+    <cfRule type="expression" dxfId="16" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK55:IZ55">
-    <cfRule type="expression" dxfId="45" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="HK50:IZ50">
+    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="44" priority="3">
+    <cfRule type="expression" dxfId="14" priority="3">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="43" priority="498">
+    <cfRule type="expression" dxfId="13" priority="498">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="500" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="502">
+    <cfRule type="expression" dxfId="11" priority="502">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HL55:IO55">
-    <cfRule type="expression" dxfId="40" priority="1">
+  <conditionalFormatting sqref="HL50:IO50">
+    <cfRule type="expression" dxfId="10" priority="1">
       <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ5:HQ54">
-    <cfRule type="expression" dxfId="39" priority="172">
-      <formula>AND(TODAY()&gt;=HQ$5,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="IT46:IX49">
+    <cfRule type="expression" dxfId="9" priority="178">
+      <formula>AND(task_start&lt;=IT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ7:HQ54">
-    <cfRule type="expression" dxfId="38" priority="173" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HQ$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR5:HW54">
-    <cfRule type="expression" dxfId="37" priority="157">
-      <formula>AND(TODAY()&gt;=HR$5,TODAY()&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:HW54">
-    <cfRule type="expression" dxfId="36" priority="156" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HR$5,task_start&lt;HS$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HR7:IS54">
-    <cfRule type="expression" dxfId="35" priority="128">
-      <formula>AND(task_start&lt;=HR$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HR$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HX5:HX54">
-    <cfRule type="expression" dxfId="34" priority="162">
-      <formula>AND(TODAY()&gt;=HX$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HX7:HX54">
-    <cfRule type="expression" dxfId="33" priority="163" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HX$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY5:ID54">
-    <cfRule type="expression" dxfId="32" priority="147">
-      <formula>AND(TODAY()&gt;=HY$5,TODAY()&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HY7:ID54">
-    <cfRule type="expression" dxfId="31" priority="146" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HY$5,task_start&lt;HZ$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IE5:IE54">
-    <cfRule type="expression" dxfId="30" priority="152">
-      <formula>AND(TODAY()&gt;=IE$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IE7:IE54">
-    <cfRule type="expression" dxfId="29" priority="153" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IE$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF5:IK54">
-    <cfRule type="expression" dxfId="28" priority="137">
-      <formula>AND(TODAY()&gt;=IF$5,TODAY()&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IF7:IK54">
-    <cfRule type="expression" dxfId="27" priority="136" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IF$5,task_start&lt;IG$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IL5:IL54">
-    <cfRule type="expression" dxfId="26" priority="142">
-      <formula>AND(TODAY()&gt;=IL$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IL7:IL54">
-    <cfRule type="expression" dxfId="25" priority="143" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IL$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM5:IR54">
-    <cfRule type="expression" dxfId="24" priority="130">
-      <formula>AND(TODAY()&gt;=IM$5,TODAY()&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IM7:IR54">
-    <cfRule type="expression" dxfId="23" priority="129" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IM$5,task_start&lt;IN$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IS5:IS55">
-    <cfRule type="expression" dxfId="22" priority="132">
-      <formula>AND(TODAY()&gt;=IS$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IS7:IS55">
-    <cfRule type="expression" dxfId="21" priority="133" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IS$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IT5:IY54">
-    <cfRule type="expression" dxfId="20" priority="123">
-      <formula>AND(TODAY()&gt;=IT$5,TODAY()&lt;IU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IT7:IY54">
-    <cfRule type="expression" dxfId="19" priority="122" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IT$5,task_start&lt;IU$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IT7:IZ51 IT52:IX54 I7:HJ54">
-    <cfRule type="expression" dxfId="18" priority="178">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="IY52:IZ54">
-    <cfRule type="expression" dxfId="17" priority="504">
+  <conditionalFormatting sqref="IY46:IZ49">
+    <cfRule type="expression" dxfId="8" priority="504">
       <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="506">
+    <cfRule type="expression" dxfId="7" priority="506">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="508" stopIfTrue="1">
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ7:IZ51 FM7:FM55 FT7:FT55 IZ55">
-    <cfRule type="expression" dxfId="14" priority="260" stopIfTrue="1">
+  <conditionalFormatting sqref="IZ50 IZ7:IZ45 FM7:FM50 FT7:FT50">
+    <cfRule type="expression" dxfId="5" priority="260" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ52:IZ54">
-    <cfRule type="expression" dxfId="13" priority="103" stopIfTrue="1">
+  <conditionalFormatting sqref="IZ46:IZ49">
+    <cfRule type="expression" dxfId="4" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="104">
+    <cfRule type="expression" dxfId="3" priority="104">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ55 IZ5:IZ51 FM5:FM55 FT5:FT55">
-    <cfRule type="expression" dxfId="11" priority="259">
-      <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
+  <conditionalFormatting sqref="IZ50">
+    <cfRule type="expression" dxfId="2" priority="259">
+      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JA5:JF55">
-    <cfRule type="expression" dxfId="10" priority="113">
-      <formula>AND(TODAY()&gt;=JA$5,TODAY()&lt;JB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JA7:JF55">
-    <cfRule type="expression" dxfId="9" priority="112" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JA$5,task_start&lt;JB$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JA7:JN54">
-    <cfRule type="expression" dxfId="8" priority="107">
-      <formula>AND(task_start&lt;=JA$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=JA$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JG5:JG55">
-    <cfRule type="expression" dxfId="7" priority="117">
-      <formula>AND(TODAY()&gt;=JG$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JG7:JG55">
-    <cfRule type="expression" dxfId="6" priority="118" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JG$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JH5:JM54">
-    <cfRule type="expression" dxfId="5" priority="109">
-      <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JH7:JM54">
-    <cfRule type="expression" dxfId="4" priority="108" stopIfTrue="1">
+  <conditionalFormatting sqref="JH50:JM50">
+    <cfRule type="expression" dxfId="1" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JH55:JM55">
-    <cfRule type="expression" dxfId="3" priority="105" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="106">
+    <cfRule type="expression" dxfId="0" priority="106">
       <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JN5:JN55">
-    <cfRule type="expression" dxfId="1" priority="110">
-      <formula>AND(TODAY()&gt;=JN$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="JN7:JN55">
-    <cfRule type="expression" dxfId="0" priority="111" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JN$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -20065,7 +17752,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D55</xm:sqref>
+          <xm:sqref>D7:D50</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -20083,6 +17770,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -20370,26 +18077,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -20399,6 +18086,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -20417,16 +18116,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6490D051-93E5-48FD-A62B-CCE09F62C708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FA7D0-FC64-4B3D-AE73-EFBB21310585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="495" windowWidth="21600" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ProjectSchedule" sheetId="11" r:id="rId1"/>
@@ -269,15 +269,15 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="9">
-    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="d\-m\-yy;@"/>
-    <numFmt numFmtId="169" formatCode="d"/>
-    <numFmt numFmtId="170" formatCode="ddd\,\ yyyy\-mm\-dd;@"/>
-    <numFmt numFmtId="171" formatCode="d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
-    <numFmt numFmtId="172" formatCode="dd/mm/yyyy;@"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0\ &quot;€&quot;_-;\-* #,##0\ &quot;€&quot;_-;_-* &quot;-&quot;\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="d\-m\-yy;@"/>
+    <numFmt numFmtId="167" formatCode="d"/>
+    <numFmt numFmtId="168" formatCode="ddd\,\ yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="169" formatCode="d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy"/>
+    <numFmt numFmtId="170" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -992,7 +992,7 @@
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="3" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
@@ -1001,10 +1001,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyProtection="0">
       <alignment horizontal="right" indent="1"/>
     </xf>
-    <xf numFmtId="170" fontId="5" fillId="0" borderId="3">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="3">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="2" applyFill="0">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" applyFill="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyFill="0">
@@ -1014,9 +1014,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1090,13 +1090,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="25" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="25" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1120,10 +1120,10 @@
     <xf numFmtId="9" fontId="25" fillId="6" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1132,7 +1132,7 @@
     <xf numFmtId="9" fontId="25" fillId="2" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="23" fillId="2" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1141,31 +1141,31 @@
     <xf numFmtId="9" fontId="25" fillId="7" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="23" fillId="3" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="8" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="23" fillId="8" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="7" applyAlignment="1">
@@ -1177,64 +1177,31 @@
     <xf numFmtId="9" fontId="25" fillId="43" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="23" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="25" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="25" fillId="43" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="25" fillId="44" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="23" fillId="44" borderId="2" xfId="10" applyFont="1" applyFill="1">
+    <xf numFmtId="166" fontId="23" fillId="44" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="23" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1244,6 +1211,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="23" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1305,18 +1305,6 @@
   </cellStyles>
   <dxfs count="41">
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1374,6 +1362,30 @@
       </border>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1411,18 +1423,27 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
+          <bgColor theme="7"/>
         </patternFill>
       </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -1445,6 +1466,43 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1543,18 +1601,6 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="7"/>
@@ -1591,55 +1637,9 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color rgb="FFC00000"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFC00000"/>
-        </right>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <border>
@@ -2107,8 +2107,8 @@
   <dimension ref="A1:JN50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
+      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2195,573 +2195,573 @@
         <v>1</v>
       </c>
       <c r="B3" s="43"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="56"/>
-      <c r="E3" s="59">
+      <c r="D3" s="65"/>
+      <c r="E3" s="61">
         <v>45323</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="I3" s="61" t="s">
+      <c r="F3" s="61"/>
+      <c r="I3" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="62"/>
-      <c r="CE3" s="62"/>
-      <c r="CF3" s="62"/>
-      <c r="CG3" s="62"/>
-      <c r="CH3" s="62"/>
-      <c r="CI3" s="62"/>
-      <c r="CJ3" s="62"/>
-      <c r="CK3" s="62"/>
-      <c r="CL3" s="62"/>
-      <c r="CM3" s="62"/>
-      <c r="CN3" s="62"/>
-      <c r="CO3" s="62"/>
-      <c r="CP3" s="62"/>
-      <c r="CQ3" s="62"/>
-      <c r="CR3" s="62"/>
-      <c r="CS3" s="62"/>
-      <c r="CT3" s="62"/>
-      <c r="CU3" s="62"/>
-      <c r="CV3" s="62"/>
-      <c r="CW3" s="62"/>
-      <c r="CX3" s="62"/>
-      <c r="CY3" s="62"/>
-      <c r="CZ3" s="62"/>
-      <c r="DA3" s="62"/>
-      <c r="DB3" s="62"/>
-      <c r="DC3" s="62"/>
-      <c r="DD3" s="62"/>
-      <c r="DE3" s="62"/>
-      <c r="DF3" s="62"/>
-      <c r="DG3" s="62"/>
-      <c r="DH3" s="62"/>
-      <c r="DI3" s="62"/>
-      <c r="DJ3" s="62"/>
-      <c r="DK3" s="62"/>
-      <c r="DL3" s="62"/>
-      <c r="DM3" s="62"/>
-      <c r="DN3" s="62"/>
-      <c r="DO3" s="62"/>
-      <c r="DP3" s="62"/>
-      <c r="DQ3" s="62"/>
-      <c r="DR3" s="62"/>
-      <c r="DS3" s="62"/>
-      <c r="DT3" s="62"/>
-      <c r="DU3" s="62"/>
-      <c r="DV3" s="62"/>
-      <c r="DW3" s="62"/>
-      <c r="DX3" s="62"/>
-      <c r="DY3" s="62"/>
-      <c r="DZ3" s="62"/>
-      <c r="EA3" s="62"/>
-      <c r="EB3" s="62"/>
-      <c r="EC3" s="62"/>
-      <c r="ED3" s="62"/>
-      <c r="EE3" s="62"/>
-      <c r="EF3" s="62"/>
-      <c r="EG3" s="62"/>
-      <c r="EH3" s="62"/>
-      <c r="EI3" s="62"/>
-      <c r="EJ3" s="62"/>
-      <c r="EK3" s="62"/>
-      <c r="EL3" s="62"/>
-      <c r="EM3" s="62"/>
-      <c r="EN3" s="62"/>
-      <c r="EO3" s="62"/>
-      <c r="EP3" s="62"/>
-      <c r="EQ3" s="62"/>
-      <c r="ER3" s="62"/>
-      <c r="ES3" s="62"/>
-      <c r="ET3" s="62"/>
-      <c r="EU3" s="62"/>
-      <c r="EV3" s="62"/>
-      <c r="EW3" s="62"/>
-      <c r="EX3" s="62"/>
-      <c r="EY3" s="62"/>
-      <c r="EZ3" s="62"/>
-      <c r="FA3" s="62"/>
-      <c r="FB3" s="62"/>
-      <c r="FC3" s="62"/>
-      <c r="FD3" s="62"/>
-      <c r="FE3" s="62"/>
-      <c r="FF3" s="62"/>
-      <c r="FG3" s="62"/>
-      <c r="FH3" s="62"/>
-      <c r="FI3" s="62"/>
-      <c r="FJ3" s="62"/>
-      <c r="FK3" s="62"/>
-      <c r="FL3" s="62"/>
-      <c r="FM3" s="62"/>
+      <c r="J3" s="64"/>
+      <c r="K3" s="64"/>
+      <c r="L3" s="64"/>
+      <c r="M3" s="64"/>
+      <c r="N3" s="64"/>
+      <c r="O3" s="64"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="64"/>
+      <c r="AP3" s="64"/>
+      <c r="AQ3" s="64"/>
+      <c r="AR3" s="64"/>
+      <c r="AS3" s="64"/>
+      <c r="AT3" s="64"/>
+      <c r="AU3" s="64"/>
+      <c r="AV3" s="64"/>
+      <c r="AW3" s="64"/>
+      <c r="AX3" s="64"/>
+      <c r="AY3" s="64"/>
+      <c r="AZ3" s="64"/>
+      <c r="BA3" s="64"/>
+      <c r="BB3" s="64"/>
+      <c r="BC3" s="64"/>
+      <c r="BD3" s="64"/>
+      <c r="BE3" s="64"/>
+      <c r="BF3" s="64"/>
+      <c r="BG3" s="64"/>
+      <c r="BH3" s="64"/>
+      <c r="BI3" s="64"/>
+      <c r="BJ3" s="64"/>
+      <c r="BK3" s="64"/>
+      <c r="BL3" s="64"/>
+      <c r="BM3" s="64"/>
+      <c r="BN3" s="64"/>
+      <c r="BO3" s="64"/>
+      <c r="BP3" s="64"/>
+      <c r="BQ3" s="64"/>
+      <c r="BR3" s="64"/>
+      <c r="BS3" s="64"/>
+      <c r="BT3" s="64"/>
+      <c r="BU3" s="64"/>
+      <c r="BV3" s="64"/>
+      <c r="BW3" s="64"/>
+      <c r="BX3" s="64"/>
+      <c r="BY3" s="64"/>
+      <c r="BZ3" s="64"/>
+      <c r="CA3" s="64"/>
+      <c r="CB3" s="64"/>
+      <c r="CC3" s="64"/>
+      <c r="CD3" s="64"/>
+      <c r="CE3" s="64"/>
+      <c r="CF3" s="64"/>
+      <c r="CG3" s="64"/>
+      <c r="CH3" s="64"/>
+      <c r="CI3" s="64"/>
+      <c r="CJ3" s="64"/>
+      <c r="CK3" s="64"/>
+      <c r="CL3" s="64"/>
+      <c r="CM3" s="64"/>
+      <c r="CN3" s="64"/>
+      <c r="CO3" s="64"/>
+      <c r="CP3" s="64"/>
+      <c r="CQ3" s="64"/>
+      <c r="CR3" s="64"/>
+      <c r="CS3" s="64"/>
+      <c r="CT3" s="64"/>
+      <c r="CU3" s="64"/>
+      <c r="CV3" s="64"/>
+      <c r="CW3" s="64"/>
+      <c r="CX3" s="64"/>
+      <c r="CY3" s="64"/>
+      <c r="CZ3" s="64"/>
+      <c r="DA3" s="64"/>
+      <c r="DB3" s="64"/>
+      <c r="DC3" s="64"/>
+      <c r="DD3" s="64"/>
+      <c r="DE3" s="64"/>
+      <c r="DF3" s="64"/>
+      <c r="DG3" s="64"/>
+      <c r="DH3" s="64"/>
+      <c r="DI3" s="64"/>
+      <c r="DJ3" s="64"/>
+      <c r="DK3" s="64"/>
+      <c r="DL3" s="64"/>
+      <c r="DM3" s="64"/>
+      <c r="DN3" s="64"/>
+      <c r="DO3" s="64"/>
+      <c r="DP3" s="64"/>
+      <c r="DQ3" s="64"/>
+      <c r="DR3" s="64"/>
+      <c r="DS3" s="64"/>
+      <c r="DT3" s="64"/>
+      <c r="DU3" s="64"/>
+      <c r="DV3" s="64"/>
+      <c r="DW3" s="64"/>
+      <c r="DX3" s="64"/>
+      <c r="DY3" s="64"/>
+      <c r="DZ3" s="64"/>
+      <c r="EA3" s="64"/>
+      <c r="EB3" s="64"/>
+      <c r="EC3" s="64"/>
+      <c r="ED3" s="64"/>
+      <c r="EE3" s="64"/>
+      <c r="EF3" s="64"/>
+      <c r="EG3" s="64"/>
+      <c r="EH3" s="64"/>
+      <c r="EI3" s="64"/>
+      <c r="EJ3" s="64"/>
+      <c r="EK3" s="64"/>
+      <c r="EL3" s="64"/>
+      <c r="EM3" s="64"/>
+      <c r="EN3" s="64"/>
+      <c r="EO3" s="64"/>
+      <c r="EP3" s="64"/>
+      <c r="EQ3" s="64"/>
+      <c r="ER3" s="64"/>
+      <c r="ES3" s="64"/>
+      <c r="ET3" s="64"/>
+      <c r="EU3" s="64"/>
+      <c r="EV3" s="64"/>
+      <c r="EW3" s="64"/>
+      <c r="EX3" s="64"/>
+      <c r="EY3" s="64"/>
+      <c r="EZ3" s="64"/>
+      <c r="FA3" s="64"/>
+      <c r="FB3" s="64"/>
+      <c r="FC3" s="64"/>
+      <c r="FD3" s="64"/>
+      <c r="FE3" s="64"/>
+      <c r="FF3" s="64"/>
+      <c r="FG3" s="64"/>
+      <c r="FH3" s="64"/>
+      <c r="FI3" s="64"/>
+      <c r="FJ3" s="64"/>
+      <c r="FK3" s="64"/>
+      <c r="FL3" s="64"/>
+      <c r="FM3" s="64"/>
     </row>
     <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="66"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="52">
+      <c r="I4" s="50">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="52">
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="50">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="52">
+      <c r="Q4" s="51"/>
+      <c r="R4" s="51"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="51"/>
+      <c r="V4" s="62"/>
+      <c r="W4" s="50">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="53"/>
-      <c r="Y4" s="53"/>
-      <c r="Z4" s="53"/>
-      <c r="AA4" s="53"/>
-      <c r="AB4" s="53"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="52">
+      <c r="X4" s="51"/>
+      <c r="Y4" s="51"/>
+      <c r="Z4" s="51"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="51"/>
+      <c r="AC4" s="62"/>
+      <c r="AD4" s="50">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="53"/>
-      <c r="AF4" s="53"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="53"/>
-      <c r="AI4" s="53"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="52">
+      <c r="AE4" s="51"/>
+      <c r="AF4" s="51"/>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="51"/>
+      <c r="AI4" s="51"/>
+      <c r="AJ4" s="62"/>
+      <c r="AK4" s="50">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="53"/>
-      <c r="AM4" s="53"/>
-      <c r="AN4" s="53"/>
-      <c r="AO4" s="53"/>
-      <c r="AP4" s="53"/>
-      <c r="AQ4" s="53"/>
-      <c r="AR4" s="52">
+      <c r="AL4" s="51"/>
+      <c r="AM4" s="51"/>
+      <c r="AN4" s="51"/>
+      <c r="AO4" s="51"/>
+      <c r="AP4" s="51"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="50">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="53"/>
-      <c r="AT4" s="53"/>
-      <c r="AU4" s="53"/>
-      <c r="AV4" s="53"/>
-      <c r="AW4" s="53"/>
-      <c r="AX4" s="53"/>
-      <c r="AY4" s="52">
+      <c r="AS4" s="51"/>
+      <c r="AT4" s="51"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="51"/>
+      <c r="AW4" s="51"/>
+      <c r="AX4" s="51"/>
+      <c r="AY4" s="50">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="53"/>
-      <c r="BA4" s="53"/>
-      <c r="BB4" s="53"/>
-      <c r="BC4" s="53"/>
-      <c r="BD4" s="53"/>
-      <c r="BE4" s="53"/>
-      <c r="BF4" s="52">
+      <c r="AZ4" s="51"/>
+      <c r="BA4" s="51"/>
+      <c r="BB4" s="51"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="51"/>
+      <c r="BE4" s="51"/>
+      <c r="BF4" s="50">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="53"/>
-      <c r="BH4" s="53"/>
-      <c r="BI4" s="53"/>
-      <c r="BJ4" s="53"/>
-      <c r="BK4" s="53"/>
-      <c r="BL4" s="53"/>
-      <c r="BM4" s="52">
+      <c r="BG4" s="51"/>
+      <c r="BH4" s="51"/>
+      <c r="BI4" s="51"/>
+      <c r="BJ4" s="51"/>
+      <c r="BK4" s="51"/>
+      <c r="BL4" s="51"/>
+      <c r="BM4" s="50">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="53"/>
-      <c r="BO4" s="53"/>
-      <c r="BP4" s="53"/>
-      <c r="BQ4" s="53"/>
-      <c r="BR4" s="53"/>
-      <c r="BS4" s="53"/>
-      <c r="BT4" s="52">
+      <c r="BN4" s="51"/>
+      <c r="BO4" s="51"/>
+      <c r="BP4" s="51"/>
+      <c r="BQ4" s="51"/>
+      <c r="BR4" s="51"/>
+      <c r="BS4" s="51"/>
+      <c r="BT4" s="50">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="53"/>
-      <c r="BV4" s="53"/>
-      <c r="BW4" s="53"/>
-      <c r="BX4" s="53"/>
-      <c r="BY4" s="53"/>
-      <c r="BZ4" s="53"/>
-      <c r="CA4" s="52">
+      <c r="BU4" s="51"/>
+      <c r="BV4" s="51"/>
+      <c r="BW4" s="51"/>
+      <c r="BX4" s="51"/>
+      <c r="BY4" s="51"/>
+      <c r="BZ4" s="51"/>
+      <c r="CA4" s="50">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="53"/>
-      <c r="CC4" s="53"/>
-      <c r="CD4" s="53"/>
-      <c r="CE4" s="53"/>
-      <c r="CF4" s="53"/>
-      <c r="CG4" s="53"/>
-      <c r="CH4" s="52">
+      <c r="CB4" s="51"/>
+      <c r="CC4" s="51"/>
+      <c r="CD4" s="51"/>
+      <c r="CE4" s="51"/>
+      <c r="CF4" s="51"/>
+      <c r="CG4" s="51"/>
+      <c r="CH4" s="50">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="53"/>
-      <c r="CJ4" s="53"/>
-      <c r="CK4" s="53"/>
-      <c r="CL4" s="53"/>
-      <c r="CM4" s="53"/>
-      <c r="CN4" s="53"/>
-      <c r="CO4" s="52">
+      <c r="CI4" s="51"/>
+      <c r="CJ4" s="51"/>
+      <c r="CK4" s="51"/>
+      <c r="CL4" s="51"/>
+      <c r="CM4" s="51"/>
+      <c r="CN4" s="51"/>
+      <c r="CO4" s="50">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="53"/>
-      <c r="CQ4" s="53"/>
-      <c r="CR4" s="53"/>
-      <c r="CS4" s="53"/>
-      <c r="CT4" s="53"/>
-      <c r="CU4" s="53"/>
-      <c r="CV4" s="52">
+      <c r="CP4" s="51"/>
+      <c r="CQ4" s="51"/>
+      <c r="CR4" s="51"/>
+      <c r="CS4" s="51"/>
+      <c r="CT4" s="51"/>
+      <c r="CU4" s="51"/>
+      <c r="CV4" s="50">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="53"/>
-      <c r="CX4" s="53"/>
-      <c r="CY4" s="53"/>
-      <c r="CZ4" s="53"/>
-      <c r="DA4" s="53"/>
-      <c r="DB4" s="53"/>
-      <c r="DC4" s="52">
+      <c r="CW4" s="51"/>
+      <c r="CX4" s="51"/>
+      <c r="CY4" s="51"/>
+      <c r="CZ4" s="51"/>
+      <c r="DA4" s="51"/>
+      <c r="DB4" s="51"/>
+      <c r="DC4" s="50">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="53"/>
-      <c r="DE4" s="53"/>
-      <c r="DF4" s="53"/>
-      <c r="DG4" s="53"/>
-      <c r="DH4" s="53"/>
-      <c r="DI4" s="53"/>
-      <c r="DJ4" s="52">
+      <c r="DD4" s="51"/>
+      <c r="DE4" s="51"/>
+      <c r="DF4" s="51"/>
+      <c r="DG4" s="51"/>
+      <c r="DH4" s="51"/>
+      <c r="DI4" s="51"/>
+      <c r="DJ4" s="50">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="53"/>
-      <c r="DL4" s="53"/>
-      <c r="DM4" s="53"/>
-      <c r="DN4" s="53"/>
-      <c r="DO4" s="53"/>
-      <c r="DP4" s="53"/>
-      <c r="DQ4" s="52">
+      <c r="DK4" s="51"/>
+      <c r="DL4" s="51"/>
+      <c r="DM4" s="51"/>
+      <c r="DN4" s="51"/>
+      <c r="DO4" s="51"/>
+      <c r="DP4" s="51"/>
+      <c r="DQ4" s="50">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="53"/>
-      <c r="DS4" s="53"/>
-      <c r="DT4" s="53"/>
-      <c r="DU4" s="53"/>
-      <c r="DV4" s="53"/>
-      <c r="DW4" s="53"/>
-      <c r="DX4" s="52">
+      <c r="DR4" s="51"/>
+      <c r="DS4" s="51"/>
+      <c r="DT4" s="51"/>
+      <c r="DU4" s="51"/>
+      <c r="DV4" s="51"/>
+      <c r="DW4" s="51"/>
+      <c r="DX4" s="50">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="53"/>
-      <c r="DZ4" s="53"/>
-      <c r="EA4" s="53"/>
-      <c r="EB4" s="53"/>
-      <c r="EC4" s="53"/>
-      <c r="ED4" s="53"/>
-      <c r="EE4" s="52">
+      <c r="DY4" s="51"/>
+      <c r="DZ4" s="51"/>
+      <c r="EA4" s="51"/>
+      <c r="EB4" s="51"/>
+      <c r="EC4" s="51"/>
+      <c r="ED4" s="51"/>
+      <c r="EE4" s="50">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="53"/>
-      <c r="EG4" s="53"/>
-      <c r="EH4" s="53"/>
-      <c r="EI4" s="53"/>
-      <c r="EJ4" s="53"/>
-      <c r="EK4" s="53"/>
-      <c r="EL4" s="52">
+      <c r="EF4" s="51"/>
+      <c r="EG4" s="51"/>
+      <c r="EH4" s="51"/>
+      <c r="EI4" s="51"/>
+      <c r="EJ4" s="51"/>
+      <c r="EK4" s="51"/>
+      <c r="EL4" s="50">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="53"/>
-      <c r="EN4" s="53"/>
-      <c r="EO4" s="53"/>
-      <c r="EP4" s="53"/>
-      <c r="EQ4" s="53"/>
-      <c r="ER4" s="53"/>
-      <c r="ES4" s="52">
+      <c r="EM4" s="51"/>
+      <c r="EN4" s="51"/>
+      <c r="EO4" s="51"/>
+      <c r="EP4" s="51"/>
+      <c r="EQ4" s="51"/>
+      <c r="ER4" s="51"/>
+      <c r="ES4" s="50">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="53"/>
-      <c r="EU4" s="53"/>
-      <c r="EV4" s="53"/>
-      <c r="EW4" s="53"/>
-      <c r="EX4" s="53"/>
-      <c r="EY4" s="53"/>
-      <c r="EZ4" s="52">
+      <c r="ET4" s="51"/>
+      <c r="EU4" s="51"/>
+      <c r="EV4" s="51"/>
+      <c r="EW4" s="51"/>
+      <c r="EX4" s="51"/>
+      <c r="EY4" s="51"/>
+      <c r="EZ4" s="50">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="53"/>
-      <c r="FB4" s="53"/>
-      <c r="FC4" s="53"/>
-      <c r="FD4" s="53"/>
-      <c r="FE4" s="53"/>
-      <c r="FF4" s="53"/>
-      <c r="FG4" s="52">
+      <c r="FA4" s="51"/>
+      <c r="FB4" s="51"/>
+      <c r="FC4" s="51"/>
+      <c r="FD4" s="51"/>
+      <c r="FE4" s="51"/>
+      <c r="FF4" s="51"/>
+      <c r="FG4" s="50">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="53"/>
-      <c r="FI4" s="53"/>
-      <c r="FJ4" s="53"/>
-      <c r="FK4" s="53"/>
-      <c r="FL4" s="53"/>
-      <c r="FM4" s="53"/>
-      <c r="FN4" s="52">
+      <c r="FH4" s="51"/>
+      <c r="FI4" s="51"/>
+      <c r="FJ4" s="51"/>
+      <c r="FK4" s="51"/>
+      <c r="FL4" s="51"/>
+      <c r="FM4" s="51"/>
+      <c r="FN4" s="50">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="53"/>
-      <c r="FP4" s="53"/>
-      <c r="FQ4" s="53"/>
-      <c r="FR4" s="53"/>
-      <c r="FS4" s="53"/>
-      <c r="FT4" s="53"/>
-      <c r="FU4" s="52">
+      <c r="FO4" s="51"/>
+      <c r="FP4" s="51"/>
+      <c r="FQ4" s="51"/>
+      <c r="FR4" s="51"/>
+      <c r="FS4" s="51"/>
+      <c r="FT4" s="51"/>
+      <c r="FU4" s="50">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="53"/>
-      <c r="FW4" s="53"/>
-      <c r="FX4" s="53"/>
-      <c r="FY4" s="53"/>
-      <c r="FZ4" s="53"/>
-      <c r="GA4" s="53"/>
-      <c r="GB4" s="52">
+      <c r="FV4" s="51"/>
+      <c r="FW4" s="51"/>
+      <c r="FX4" s="51"/>
+      <c r="FY4" s="51"/>
+      <c r="FZ4" s="51"/>
+      <c r="GA4" s="51"/>
+      <c r="GB4" s="50">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="53"/>
-      <c r="GD4" s="53"/>
-      <c r="GE4" s="53"/>
-      <c r="GF4" s="53"/>
-      <c r="GG4" s="53"/>
-      <c r="GH4" s="53"/>
-      <c r="GI4" s="52">
+      <c r="GC4" s="51"/>
+      <c r="GD4" s="51"/>
+      <c r="GE4" s="51"/>
+      <c r="GF4" s="51"/>
+      <c r="GG4" s="51"/>
+      <c r="GH4" s="51"/>
+      <c r="GI4" s="50">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="53"/>
-      <c r="GK4" s="53"/>
-      <c r="GL4" s="53"/>
-      <c r="GM4" s="53"/>
-      <c r="GN4" s="53"/>
-      <c r="GO4" s="53"/>
-      <c r="GP4" s="52">
+      <c r="GJ4" s="51"/>
+      <c r="GK4" s="51"/>
+      <c r="GL4" s="51"/>
+      <c r="GM4" s="51"/>
+      <c r="GN4" s="51"/>
+      <c r="GO4" s="51"/>
+      <c r="GP4" s="50">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="53"/>
-      <c r="GR4" s="53"/>
-      <c r="GS4" s="53"/>
-      <c r="GT4" s="53"/>
-      <c r="GU4" s="53"/>
-      <c r="GV4" s="53"/>
-      <c r="GW4" s="52">
+      <c r="GQ4" s="51"/>
+      <c r="GR4" s="51"/>
+      <c r="GS4" s="51"/>
+      <c r="GT4" s="51"/>
+      <c r="GU4" s="51"/>
+      <c r="GV4" s="51"/>
+      <c r="GW4" s="50">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="53"/>
-      <c r="GY4" s="53"/>
-      <c r="GZ4" s="53"/>
-      <c r="HA4" s="53"/>
-      <c r="HB4" s="53"/>
-      <c r="HC4" s="53"/>
-      <c r="HD4" s="52">
+      <c r="GX4" s="51"/>
+      <c r="GY4" s="51"/>
+      <c r="GZ4" s="51"/>
+      <c r="HA4" s="51"/>
+      <c r="HB4" s="51"/>
+      <c r="HC4" s="51"/>
+      <c r="HD4" s="50">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="53"/>
-      <c r="HF4" s="53"/>
-      <c r="HG4" s="53"/>
-      <c r="HH4" s="53"/>
-      <c r="HI4" s="53"/>
-      <c r="HJ4" s="53"/>
-      <c r="HK4" s="52">
+      <c r="HE4" s="51"/>
+      <c r="HF4" s="51"/>
+      <c r="HG4" s="51"/>
+      <c r="HH4" s="51"/>
+      <c r="HI4" s="51"/>
+      <c r="HJ4" s="51"/>
+      <c r="HK4" s="50">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="53"/>
-      <c r="HM4" s="53"/>
-      <c r="HN4" s="53"/>
-      <c r="HO4" s="53"/>
-      <c r="HP4" s="53"/>
-      <c r="HQ4" s="53"/>
-      <c r="HR4" s="52">
+      <c r="HL4" s="51"/>
+      <c r="HM4" s="51"/>
+      <c r="HN4" s="51"/>
+      <c r="HO4" s="51"/>
+      <c r="HP4" s="51"/>
+      <c r="HQ4" s="51"/>
+      <c r="HR4" s="50">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="53"/>
-      <c r="HT4" s="53"/>
-      <c r="HU4" s="53"/>
-      <c r="HV4" s="53"/>
-      <c r="HW4" s="53"/>
-      <c r="HX4" s="53"/>
-      <c r="HY4" s="52">
+      <c r="HS4" s="51"/>
+      <c r="HT4" s="51"/>
+      <c r="HU4" s="51"/>
+      <c r="HV4" s="51"/>
+      <c r="HW4" s="51"/>
+      <c r="HX4" s="51"/>
+      <c r="HY4" s="50">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="53"/>
-      <c r="IA4" s="53"/>
-      <c r="IB4" s="53"/>
-      <c r="IC4" s="53"/>
-      <c r="ID4" s="53"/>
-      <c r="IE4" s="53"/>
-      <c r="IF4" s="52">
+      <c r="HZ4" s="51"/>
+      <c r="IA4" s="51"/>
+      <c r="IB4" s="51"/>
+      <c r="IC4" s="51"/>
+      <c r="ID4" s="51"/>
+      <c r="IE4" s="51"/>
+      <c r="IF4" s="50">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="53"/>
-      <c r="IH4" s="53"/>
-      <c r="II4" s="53"/>
-      <c r="IJ4" s="53"/>
-      <c r="IK4" s="53"/>
-      <c r="IL4" s="53"/>
-      <c r="IM4" s="52">
+      <c r="IG4" s="51"/>
+      <c r="IH4" s="51"/>
+      <c r="II4" s="51"/>
+      <c r="IJ4" s="51"/>
+      <c r="IK4" s="51"/>
+      <c r="IL4" s="51"/>
+      <c r="IM4" s="50">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="53"/>
-      <c r="IO4" s="53"/>
-      <c r="IP4" s="53"/>
-      <c r="IQ4" s="53"/>
-      <c r="IR4" s="53"/>
-      <c r="IS4" s="53"/>
-      <c r="IT4" s="52">
+      <c r="IN4" s="51"/>
+      <c r="IO4" s="51"/>
+      <c r="IP4" s="51"/>
+      <c r="IQ4" s="51"/>
+      <c r="IR4" s="51"/>
+      <c r="IS4" s="51"/>
+      <c r="IT4" s="50">
         <f>IT5</f>
         <v>45565</v>
       </c>
-      <c r="IU4" s="53"/>
-      <c r="IV4" s="53"/>
-      <c r="IW4" s="53"/>
-      <c r="IX4" s="53"/>
-      <c r="IY4" s="53"/>
-      <c r="IZ4" s="53"/>
-      <c r="JA4" s="52">
+      <c r="IU4" s="51"/>
+      <c r="IV4" s="51"/>
+      <c r="IW4" s="51"/>
+      <c r="IX4" s="51"/>
+      <c r="IY4" s="51"/>
+      <c r="IZ4" s="51"/>
+      <c r="JA4" s="50">
         <f>JA5</f>
         <v>45572</v>
       </c>
-      <c r="JB4" s="53"/>
-      <c r="JC4" s="53"/>
-      <c r="JD4" s="53"/>
-      <c r="JE4" s="53"/>
-      <c r="JF4" s="53"/>
-      <c r="JG4" s="53"/>
-      <c r="JH4" s="52">
+      <c r="JB4" s="51"/>
+      <c r="JC4" s="51"/>
+      <c r="JD4" s="51"/>
+      <c r="JE4" s="51"/>
+      <c r="JF4" s="51"/>
+      <c r="JG4" s="51"/>
+      <c r="JH4" s="50">
         <f>JH5</f>
         <v>45579</v>
       </c>
-      <c r="JI4" s="53"/>
-      <c r="JJ4" s="53"/>
-      <c r="JK4" s="53"/>
-      <c r="JL4" s="53"/>
-      <c r="JM4" s="53"/>
-      <c r="JN4" s="53"/>
+      <c r="JI4" s="51"/>
+      <c r="JJ4" s="51"/>
+      <c r="JK4" s="51"/>
+      <c r="JL4" s="51"/>
+      <c r="JM4" s="51"/>
+      <c r="JN4" s="51"/>
     </row>
     <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -3843,10 +3843,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="56"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -5210,10 +5210,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="67"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -5493,10 +5493,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="57"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -5784,10 +5784,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="58" t="s">
+      <c r="B10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="58"/>
+      <c r="C10" s="57"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -6075,10 +6075,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="58" t="s">
+      <c r="B11" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="58"/>
+      <c r="C11" s="57"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -6363,10 +6363,10 @@
     </row>
     <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="54" t="s">
+      <c r="B12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="54"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -6650,10 +6650,10 @@
     </row>
     <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="54" t="s">
+      <c r="B13" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="54"/>
+      <c r="C13" s="60"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -6937,10 +6937,10 @@
     </row>
     <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="54"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -7222,10 +7222,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="54"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -7503,10 +7503,10 @@
     </row>
     <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -7790,10 +7790,10 @@
     </row>
     <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8074,10 +8074,10 @@
     </row>
     <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="52"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8358,10 +8358,10 @@
     </row>
     <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -8932,10 +8932,10 @@
     </row>
     <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9216,10 +9216,10 @@
     </row>
     <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="52" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="52"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -9500,10 +9500,10 @@
     </row>
     <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -9789,10 +9789,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="55" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -10070,10 +10070,10 @@
     </row>
     <row r="25" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="50"/>
+      <c r="C25" s="53"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -10357,10 +10357,10 @@
     </row>
     <row r="26" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="53" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="50"/>
+      <c r="C26" s="53"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -10641,10 +10641,10 @@
     </row>
     <row r="27" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="50"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -10925,10 +10925,10 @@
     </row>
     <row r="28" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="50"/>
+      <c r="C28" s="53"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -11212,10 +11212,10 @@
     </row>
     <row r="29" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="53" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="50"/>
+      <c r="C29" s="53"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -11499,10 +11499,10 @@
     </row>
     <row r="30" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="53"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -11786,10 +11786,10 @@
     </row>
     <row r="31" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="50"/>
+      <c r="C31" s="53"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -12073,10 +12073,10 @@
     </row>
     <row r="32" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="50"/>
+      <c r="C32" s="53"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -12360,10 +12360,10 @@
     </row>
     <row r="33" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="50"/>
+      <c r="C33" s="53"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -12644,10 +12644,10 @@
     </row>
     <row r="34" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="53" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="50"/>
+      <c r="C34" s="53"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -12928,10 +12928,10 @@
     </row>
     <row r="35" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="50"/>
+      <c r="C35" s="53"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -13215,10 +13215,10 @@
     </row>
     <row r="36" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="53" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="50"/>
+      <c r="C36" s="53"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -13504,10 +13504,10 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="64"/>
+      <c r="C37" s="59"/>
       <c r="D37" s="44"/>
       <c r="E37" s="45"/>
       <c r="F37" s="46"/>
@@ -13784,10 +13784,10 @@
     </row>
     <row r="38" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="63" t="s">
+      <c r="B38" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="63"/>
+      <c r="C38" s="58"/>
       <c r="D38" s="47">
         <v>1</v>
       </c>
@@ -16349,7 +16349,7 @@
       </c>
       <c r="C47" s="49"/>
       <c r="D47" s="47">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E47" s="48">
         <v>45580</v>
@@ -16639,7 +16639,7 @@
         <v>45531</v>
       </c>
       <c r="F48" s="48">
-        <v>45613</v>
+        <v>45620</v>
       </c>
       <c r="G48" s="28"/>
       <c r="H48" s="28"/>
@@ -16917,7 +16917,7 @@
       </c>
       <c r="C49" s="49"/>
       <c r="D49" s="47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E49" s="48">
         <v>45593</v>
@@ -17201,7 +17201,7 @@
       </c>
       <c r="C50" s="49"/>
       <c r="D50" s="47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="48">
         <v>45616</v>
@@ -17482,6 +17482,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="B16:C16"/>
     <mergeCell ref="B49:C49"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="IT4:IZ4"/>
@@ -17498,76 +17568,6 @@
     <mergeCell ref="DC4:DI4"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D50">
     <cfRule type="dataBar" priority="471">
@@ -17583,133 +17583,133 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:DO50 DQ5:DV50 DX5:EC50 EE5:EJ50 EL5:EQ50 ES5:EX50 EZ5:FE50 FG5:FL50 FN5:FS50 FU5:FZ50 GB5:GG50 GI5:GN50 GP5:GU50 GW5:HB50 HD5:HI49 HR5:HW49 HY5:ID49 IF5:IK49 IM5:IR49 IT5:IY49 JA5:JF50 JH5:JM49">
-    <cfRule type="expression" dxfId="31" priority="238">
+  <conditionalFormatting sqref="I7:HJ49 HR7:IS49 JA7:JN49 I50:HK50 IP50:JN50 IT7:IZ45">
+    <cfRule type="expression" dxfId="31" priority="236">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HD5:HI49 HR5:HW49 HY5:ID49 IF5:IK49 IM5:IR49 IT5:IY49 JH5:JM49 I5:DO50 DQ5:DV50 DX5:EC50 EE5:EJ50 EL5:EQ50 ES5:EX50 EZ5:FE50 FG5:FL50 FN5:FS50 FU5:FZ50 GB5:GG50 GI5:GN50 GP5:GU50 GW5:HB50 JA5:JF50">
+    <cfRule type="expression" dxfId="30" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:DO50 DQ7:DV50 DX7:EC50 EE7:EJ50 EL7:EQ50 ES7:EX50 EZ7:FE50 FG7:FL50 FN7:FS50 FU7:FZ50 GB7:GG50 GI7:GN50 GP7:GU50 GW7:HB50 HD7:HI49 HR7:HW49 HY7:ID49 IF7:IK49 IM7:IR49 IT7:IY49 JA7:JF50 JH7:JM49">
-    <cfRule type="expression" dxfId="30" priority="237" stopIfTrue="1">
+  <conditionalFormatting sqref="HD7:HI49 HR7:HW49 HY7:ID49 IF7:IK49 IM7:IR49 IT7:IY49 JH7:JM49 I7:DO50 DQ7:DV50 DX7:EC50 EE7:EJ50 EL7:EQ50 ES7:EX50 EZ7:FE50 FG7:FL50 FN7:FS50 FU7:FZ50 GB7:GG50 GI7:GN50 GP7:GU50 GW7:HB50 JA7:JF50">
+    <cfRule type="expression" dxfId="29" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I50:HK50 IP50:JN50 HR7:IS49 IT7:IZ45 I7:HJ49 JA7:JN49">
-    <cfRule type="expression" dxfId="29" priority="236">
-      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DP5:DP50 DW5:DW50 ED5:ED50 EK5:EK50 ER5:ER50 EY5:EY50 FF5:FF50 HQ5:HQ49 HX5:HX49 JG5:JG50">
-    <cfRule type="expression" dxfId="28" priority="492">
-      <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="DP7:DP50 DW7:DW50 ED7:ED50 EK7:EK50 ER7:ER50 EY7:EY50 FF7:FF50 HQ7:HQ49 HX7:HX49 JG7:JG50">
-    <cfRule type="expression" dxfId="27" priority="496" stopIfTrue="1">
-      <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GA5:GA50 GH5:GH50 GO5:GO50 GV5:GV50 HC5:HC50 IE5:IE49 IL5:IL49 IS5:IS50">
-    <cfRule type="expression" dxfId="26" priority="232">
-      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="GA7:GA50 GH7:GH50 GO7:GO50 GV7:GV50 HC7:HC50 HJ7:HJ50 IE7:IE49 IL7:IL49 IS7:IS50 JN7:JN50">
-    <cfRule type="expression" dxfId="25" priority="233" stopIfTrue="1">
-      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="HD50:HI50">
-    <cfRule type="expression" dxfId="24" priority="176" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="176" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="177">
+    <cfRule type="expression" dxfId="27" priority="177">
       <formula>AND(TODAY()&gt;=HD$5,TODAY()&lt;HE$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HJ5:HJ50 IZ5:IZ45 FM5:FM50 FT5:FT50 JN5:JN50">
-    <cfRule type="expression" dxfId="22" priority="182">
-      <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="HK5:HP13 HM14:HP14 HK15:HP36">
-    <cfRule type="expression" dxfId="21" priority="400">
+  <conditionalFormatting sqref="HK5:HP13 HM14:HP14">
+    <cfRule type="expression" dxfId="26" priority="400">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK7:HP13 HM14:HP14 HK15:HP36">
-    <cfRule type="expression" dxfId="20" priority="399" stopIfTrue="1">
+  <conditionalFormatting sqref="HK7:HP13 HM14:HP14">
+    <cfRule type="expression" dxfId="25" priority="399" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK37:HP49">
-    <cfRule type="expression" dxfId="19" priority="169" stopIfTrue="1">
+  <conditionalFormatting sqref="HK15:HP49">
+    <cfRule type="expression" dxfId="24" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="170">
+    <cfRule type="expression" dxfId="23" priority="170">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14 HK15:HQ36">
-    <cfRule type="expression" dxfId="17" priority="242">
+  <conditionalFormatting sqref="HK7:HQ13 HM14:HQ14">
+    <cfRule type="expression" dxfId="22" priority="242">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK37:HQ49">
-    <cfRule type="expression" dxfId="16" priority="168">
+  <conditionalFormatting sqref="HK15:HQ49">
+    <cfRule type="expression" dxfId="21" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HK50:IZ50">
-    <cfRule type="expression" dxfId="15" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="3">
+    <cfRule type="expression" dxfId="19" priority="3">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="13" priority="498">
+    <cfRule type="expression" dxfId="18" priority="500" stopIfTrue="1">
+      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="498">
       <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="500" stopIfTrue="1">
-      <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="11" priority="502">
+    <cfRule type="expression" dxfId="16" priority="502">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL50:IO50">
-    <cfRule type="expression" dxfId="10" priority="1">
+    <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="HQ5:HQ49 HX5:HX49 DP5:DP50 DW5:DW50 ED5:ED50 EK5:EK50 ER5:ER50 EY5:EY50 FF5:FF50 JG5:JG50">
+    <cfRule type="expression" dxfId="14" priority="492">
+      <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="HQ7:HQ49 HX7:HX49 DP7:DP50 DW7:DW50 ED7:ED50 EK7:EK50 ER7:ER50 EY7:EY50 FF7:FF50 JG7:JG50">
+    <cfRule type="expression" dxfId="13" priority="496" stopIfTrue="1">
+      <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IE7:IE49 IL7:IL49 GA7:GA50 GH7:GH50 GO7:GO50 GV7:GV50 HC7:HC50 IS7:IS50 HJ7:HJ50 JN7:JN50">
+    <cfRule type="expression" dxfId="12" priority="233" stopIfTrue="1">
+      <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IS5:IS50 IE5:IE49 IL5:IL49 GA5:GA50 GH5:GH50 GO5:GO50 GV5:GV50 HC5:HC50">
+    <cfRule type="expression" dxfId="11" priority="232">
+      <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="IT46:IX49">
-    <cfRule type="expression" dxfId="9" priority="178">
+    <cfRule type="expression" dxfId="10" priority="178">
       <formula>AND(task_start&lt;=IT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IT$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IY46:IZ49">
-    <cfRule type="expression" dxfId="8" priority="504">
+    <cfRule type="expression" dxfId="9" priority="504">
       <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="7" priority="506">
+    <cfRule type="expression" dxfId="8" priority="506">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="508" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="508" stopIfTrue="1">
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ50 IZ7:IZ45 FM7:FM50 FT7:FT50">
-    <cfRule type="expression" dxfId="5" priority="260" stopIfTrue="1">
-      <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
+  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM50 FT5:FT50 HJ5:HJ50 JN5:JN50">
+    <cfRule type="expression" dxfId="6" priority="182">
+      <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ46:IZ49">
+    <cfRule type="expression" dxfId="5" priority="104">
+      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
+    </cfRule>
     <cfRule type="expression" dxfId="4" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="104">
-      <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="IZ50 IZ7:IZ45 FM7:FM50 FT7:FT50">
+    <cfRule type="expression" dxfId="3" priority="260" stopIfTrue="1">
+      <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="IZ50">
@@ -17718,11 +17718,11 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="JH50:JM50">
-    <cfRule type="expression" dxfId="1" priority="105" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="106">
+      <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="106">
-      <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -17770,26 +17770,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18077,6 +18057,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -18086,18 +18086,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18116,4 +18104,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14FA7D0-FC64-4B3D-AE73-EFBB21310585}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF87BF-20D9-4C8A-B235-51671B5C0D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,11 +13,11 @@
   <definedNames>
     <definedName name="hoy" localSheetId="0">TODAY()</definedName>
     <definedName name="Inicio_del_proyecto">ProjectSchedule!$E$3</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
     <definedName name="Semana_para_mostrar">ProjectSchedule!$E$4</definedName>
     <definedName name="task_end" localSheetId="0">ProjectSchedule!$F1</definedName>
     <definedName name="task_progress" localSheetId="0">ProjectSchedule!$D1</definedName>
     <definedName name="task_start" localSheetId="0">ProjectSchedule!$E1</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">ProjectSchedule!$4:$6</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -262,6 +262,9 @@
   </si>
   <si>
     <t>Traducir al ingles</t>
+  </si>
+  <si>
+    <t>Revisión de documentos</t>
   </si>
 </sst>
 </file>
@@ -744,7 +747,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -983,6 +986,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1055,7 +1067,7 @@
     <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1192,37 +1204,31 @@
     <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="169" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="169" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="170" fontId="5" fillId="0" borderId="19" xfId="9" applyNumberFormat="1" applyBorder="1">
@@ -1237,84 +1243,82 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
-    <cellStyle name="20% - Énfasis1" xfId="31" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="35" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="39" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="43" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="47" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="51" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="32" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="36" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="40" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="44" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="48" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="52" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="33" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="37" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="41" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="45" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="49" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="18" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="23" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="25" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="24" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="6" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="17" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="30" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="34" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="38" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="42" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="46" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="50" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="21" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="31" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="43" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="47" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="51" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="32" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="36" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="40" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="44" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="48" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="52" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="41" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="45" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="49" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="53" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="30" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="42" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="46" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="50" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="23" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="25" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="14" builtinId="6" customBuiltin="1"/>
+    <cellStyle name="Currency" xfId="15" builtinId="4" customBuiltin="1"/>
+    <cellStyle name="Currency [0]" xfId="16" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Fecha" xfId="10" xr:uid="{229918B6-DD13-4F5A-97B9-305F7E002AA3}"/>
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="13" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="Incorrecto" xfId="19" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="18" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="6" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="7" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="17" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" customBuiltin="1"/>
     <cellStyle name="Inicio del proyecto" xfId="9" xr:uid="{8EB8A09A-C31C-40A3-B2C1-9449520178B8}"/>
-    <cellStyle name="Millares" xfId="4" builtinId="3" customBuiltin="1"/>
-    <cellStyle name="Millares [0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="Moneda" xfId="15" builtinId="4" customBuiltin="1"/>
-    <cellStyle name="Moneda [0]" xfId="16" builtinId="7" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="21" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Nombre" xfId="11" xr:uid="{B2D3C1EE-6B41-4801-AAFC-C2274E49E503}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Notas" xfId="27" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Porcentaje" xfId="2" builtinId="5" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Note" xfId="27" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="22" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="Tarea" xfId="12" xr:uid="{6391D789-272B-4DD2-9BF3-2CDCF610FA41}"/>
-    <cellStyle name="Texto de advertencia" xfId="26" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="28" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="5" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="7" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="8" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="Total" xfId="29" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="26" builtinId="11" customBuiltin="1"/>
     <cellStyle name="zTextoOculto" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
     <dxf>
       <border>
         <left style="thin">
@@ -1325,6 +1329,17 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1351,17 +1366,6 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-      </border>
-    </dxf>
-    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1371,6 +1375,17 @@
         </right>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
       </border>
     </dxf>
     <dxf>
@@ -1483,6 +1498,17 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <left style="thin">
           <color rgb="FFC00000"/>
@@ -1492,17 +1518,6 @@
         </right>
         <vertical/>
         <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
       </border>
     </dxf>
     <dxf>
@@ -2104,14 +2119,14 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:JN50"/>
+  <dimension ref="A1:JN52"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.7109375" style="7" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
@@ -2195,573 +2210,573 @@
         <v>1</v>
       </c>
       <c r="B3" s="43"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="61">
+      <c r="D3" s="52"/>
+      <c r="E3" s="59">
         <v>45323</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="I3" s="63" t="s">
+      <c r="F3" s="59"/>
+      <c r="I3" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="64"/>
-      <c r="K3" s="64"/>
-      <c r="L3" s="64"/>
-      <c r="M3" s="64"/>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="P3" s="64"/>
-      <c r="Q3" s="64"/>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="64"/>
-      <c r="AP3" s="64"/>
-      <c r="AQ3" s="64"/>
-      <c r="AR3" s="64"/>
-      <c r="AS3" s="64"/>
-      <c r="AT3" s="64"/>
-      <c r="AU3" s="64"/>
-      <c r="AV3" s="64"/>
-      <c r="AW3" s="64"/>
-      <c r="AX3" s="64"/>
-      <c r="AY3" s="64"/>
-      <c r="AZ3" s="64"/>
-      <c r="BA3" s="64"/>
-      <c r="BB3" s="64"/>
-      <c r="BC3" s="64"/>
-      <c r="BD3" s="64"/>
-      <c r="BE3" s="64"/>
-      <c r="BF3" s="64"/>
-      <c r="BG3" s="64"/>
-      <c r="BH3" s="64"/>
-      <c r="BI3" s="64"/>
-      <c r="BJ3" s="64"/>
-      <c r="BK3" s="64"/>
-      <c r="BL3" s="64"/>
-      <c r="BM3" s="64"/>
-      <c r="BN3" s="64"/>
-      <c r="BO3" s="64"/>
-      <c r="BP3" s="64"/>
-      <c r="BQ3" s="64"/>
-      <c r="BR3" s="64"/>
-      <c r="BS3" s="64"/>
-      <c r="BT3" s="64"/>
-      <c r="BU3" s="64"/>
-      <c r="BV3" s="64"/>
-      <c r="BW3" s="64"/>
-      <c r="BX3" s="64"/>
-      <c r="BY3" s="64"/>
-      <c r="BZ3" s="64"/>
-      <c r="CA3" s="64"/>
-      <c r="CB3" s="64"/>
-      <c r="CC3" s="64"/>
-      <c r="CD3" s="64"/>
-      <c r="CE3" s="64"/>
-      <c r="CF3" s="64"/>
-      <c r="CG3" s="64"/>
-      <c r="CH3" s="64"/>
-      <c r="CI3" s="64"/>
-      <c r="CJ3" s="64"/>
-      <c r="CK3" s="64"/>
-      <c r="CL3" s="64"/>
-      <c r="CM3" s="64"/>
-      <c r="CN3" s="64"/>
-      <c r="CO3" s="64"/>
-      <c r="CP3" s="64"/>
-      <c r="CQ3" s="64"/>
-      <c r="CR3" s="64"/>
-      <c r="CS3" s="64"/>
-      <c r="CT3" s="64"/>
-      <c r="CU3" s="64"/>
-      <c r="CV3" s="64"/>
-      <c r="CW3" s="64"/>
-      <c r="CX3" s="64"/>
-      <c r="CY3" s="64"/>
-      <c r="CZ3" s="64"/>
-      <c r="DA3" s="64"/>
-      <c r="DB3" s="64"/>
-      <c r="DC3" s="64"/>
-      <c r="DD3" s="64"/>
-      <c r="DE3" s="64"/>
-      <c r="DF3" s="64"/>
-      <c r="DG3" s="64"/>
-      <c r="DH3" s="64"/>
-      <c r="DI3" s="64"/>
-      <c r="DJ3" s="64"/>
-      <c r="DK3" s="64"/>
-      <c r="DL3" s="64"/>
-      <c r="DM3" s="64"/>
-      <c r="DN3" s="64"/>
-      <c r="DO3" s="64"/>
-      <c r="DP3" s="64"/>
-      <c r="DQ3" s="64"/>
-      <c r="DR3" s="64"/>
-      <c r="DS3" s="64"/>
-      <c r="DT3" s="64"/>
-      <c r="DU3" s="64"/>
-      <c r="DV3" s="64"/>
-      <c r="DW3" s="64"/>
-      <c r="DX3" s="64"/>
-      <c r="DY3" s="64"/>
-      <c r="DZ3" s="64"/>
-      <c r="EA3" s="64"/>
-      <c r="EB3" s="64"/>
-      <c r="EC3" s="64"/>
-      <c r="ED3" s="64"/>
-      <c r="EE3" s="64"/>
-      <c r="EF3" s="64"/>
-      <c r="EG3" s="64"/>
-      <c r="EH3" s="64"/>
-      <c r="EI3" s="64"/>
-      <c r="EJ3" s="64"/>
-      <c r="EK3" s="64"/>
-      <c r="EL3" s="64"/>
-      <c r="EM3" s="64"/>
-      <c r="EN3" s="64"/>
-      <c r="EO3" s="64"/>
-      <c r="EP3" s="64"/>
-      <c r="EQ3" s="64"/>
-      <c r="ER3" s="64"/>
-      <c r="ES3" s="64"/>
-      <c r="ET3" s="64"/>
-      <c r="EU3" s="64"/>
-      <c r="EV3" s="64"/>
-      <c r="EW3" s="64"/>
-      <c r="EX3" s="64"/>
-      <c r="EY3" s="64"/>
-      <c r="EZ3" s="64"/>
-      <c r="FA3" s="64"/>
-      <c r="FB3" s="64"/>
-      <c r="FC3" s="64"/>
-      <c r="FD3" s="64"/>
-      <c r="FE3" s="64"/>
-      <c r="FF3" s="64"/>
-      <c r="FG3" s="64"/>
-      <c r="FH3" s="64"/>
-      <c r="FI3" s="64"/>
-      <c r="FJ3" s="64"/>
-      <c r="FK3" s="64"/>
-      <c r="FL3" s="64"/>
-      <c r="FM3" s="64"/>
+      <c r="J3" s="62"/>
+      <c r="K3" s="62"/>
+      <c r="L3" s="62"/>
+      <c r="M3" s="62"/>
+      <c r="N3" s="62"/>
+      <c r="O3" s="62"/>
+      <c r="P3" s="62"/>
+      <c r="Q3" s="62"/>
+      <c r="R3" s="62"/>
+      <c r="S3" s="62"/>
+      <c r="T3" s="62"/>
+      <c r="U3" s="62"/>
+      <c r="V3" s="62"/>
+      <c r="W3" s="62"/>
+      <c r="X3" s="62"/>
+      <c r="Y3" s="62"/>
+      <c r="Z3" s="62"/>
+      <c r="AA3" s="62"/>
+      <c r="AB3" s="62"/>
+      <c r="AC3" s="62"/>
+      <c r="AD3" s="62"/>
+      <c r="AE3" s="62"/>
+      <c r="AF3" s="62"/>
+      <c r="AG3" s="62"/>
+      <c r="AH3" s="62"/>
+      <c r="AI3" s="62"/>
+      <c r="AJ3" s="62"/>
+      <c r="AK3" s="62"/>
+      <c r="AL3" s="62"/>
+      <c r="AM3" s="62"/>
+      <c r="AN3" s="62"/>
+      <c r="AO3" s="62"/>
+      <c r="AP3" s="62"/>
+      <c r="AQ3" s="62"/>
+      <c r="AR3" s="62"/>
+      <c r="AS3" s="62"/>
+      <c r="AT3" s="62"/>
+      <c r="AU3" s="62"/>
+      <c r="AV3" s="62"/>
+      <c r="AW3" s="62"/>
+      <c r="AX3" s="62"/>
+      <c r="AY3" s="62"/>
+      <c r="AZ3" s="62"/>
+      <c r="BA3" s="62"/>
+      <c r="BB3" s="62"/>
+      <c r="BC3" s="62"/>
+      <c r="BD3" s="62"/>
+      <c r="BE3" s="62"/>
+      <c r="BF3" s="62"/>
+      <c r="BG3" s="62"/>
+      <c r="BH3" s="62"/>
+      <c r="BI3" s="62"/>
+      <c r="BJ3" s="62"/>
+      <c r="BK3" s="62"/>
+      <c r="BL3" s="62"/>
+      <c r="BM3" s="62"/>
+      <c r="BN3" s="62"/>
+      <c r="BO3" s="62"/>
+      <c r="BP3" s="62"/>
+      <c r="BQ3" s="62"/>
+      <c r="BR3" s="62"/>
+      <c r="BS3" s="62"/>
+      <c r="BT3" s="62"/>
+      <c r="BU3" s="62"/>
+      <c r="BV3" s="62"/>
+      <c r="BW3" s="62"/>
+      <c r="BX3" s="62"/>
+      <c r="BY3" s="62"/>
+      <c r="BZ3" s="62"/>
+      <c r="CA3" s="62"/>
+      <c r="CB3" s="62"/>
+      <c r="CC3" s="62"/>
+      <c r="CD3" s="62"/>
+      <c r="CE3" s="62"/>
+      <c r="CF3" s="62"/>
+      <c r="CG3" s="62"/>
+      <c r="CH3" s="62"/>
+      <c r="CI3" s="62"/>
+      <c r="CJ3" s="62"/>
+      <c r="CK3" s="62"/>
+      <c r="CL3" s="62"/>
+      <c r="CM3" s="62"/>
+      <c r="CN3" s="62"/>
+      <c r="CO3" s="62"/>
+      <c r="CP3" s="62"/>
+      <c r="CQ3" s="62"/>
+      <c r="CR3" s="62"/>
+      <c r="CS3" s="62"/>
+      <c r="CT3" s="62"/>
+      <c r="CU3" s="62"/>
+      <c r="CV3" s="62"/>
+      <c r="CW3" s="62"/>
+      <c r="CX3" s="62"/>
+      <c r="CY3" s="62"/>
+      <c r="CZ3" s="62"/>
+      <c r="DA3" s="62"/>
+      <c r="DB3" s="62"/>
+      <c r="DC3" s="62"/>
+      <c r="DD3" s="62"/>
+      <c r="DE3" s="62"/>
+      <c r="DF3" s="62"/>
+      <c r="DG3" s="62"/>
+      <c r="DH3" s="62"/>
+      <c r="DI3" s="62"/>
+      <c r="DJ3" s="62"/>
+      <c r="DK3" s="62"/>
+      <c r="DL3" s="62"/>
+      <c r="DM3" s="62"/>
+      <c r="DN3" s="62"/>
+      <c r="DO3" s="62"/>
+      <c r="DP3" s="62"/>
+      <c r="DQ3" s="62"/>
+      <c r="DR3" s="62"/>
+      <c r="DS3" s="62"/>
+      <c r="DT3" s="62"/>
+      <c r="DU3" s="62"/>
+      <c r="DV3" s="62"/>
+      <c r="DW3" s="62"/>
+      <c r="DX3" s="62"/>
+      <c r="DY3" s="62"/>
+      <c r="DZ3" s="62"/>
+      <c r="EA3" s="62"/>
+      <c r="EB3" s="62"/>
+      <c r="EC3" s="62"/>
+      <c r="ED3" s="62"/>
+      <c r="EE3" s="62"/>
+      <c r="EF3" s="62"/>
+      <c r="EG3" s="62"/>
+      <c r="EH3" s="62"/>
+      <c r="EI3" s="62"/>
+      <c r="EJ3" s="62"/>
+      <c r="EK3" s="62"/>
+      <c r="EL3" s="62"/>
+      <c r="EM3" s="62"/>
+      <c r="EN3" s="62"/>
+      <c r="EO3" s="62"/>
+      <c r="EP3" s="62"/>
+      <c r="EQ3" s="62"/>
+      <c r="ER3" s="62"/>
+      <c r="ES3" s="62"/>
+      <c r="ET3" s="62"/>
+      <c r="EU3" s="62"/>
+      <c r="EV3" s="62"/>
+      <c r="EW3" s="62"/>
+      <c r="EX3" s="62"/>
+      <c r="EY3" s="62"/>
+      <c r="EZ3" s="62"/>
+      <c r="FA3" s="62"/>
+      <c r="FB3" s="62"/>
+      <c r="FC3" s="62"/>
+      <c r="FD3" s="62"/>
+      <c r="FE3" s="62"/>
+      <c r="FF3" s="62"/>
+      <c r="FG3" s="62"/>
+      <c r="FH3" s="62"/>
+      <c r="FI3" s="62"/>
+      <c r="FJ3" s="62"/>
+      <c r="FK3" s="62"/>
+      <c r="FL3" s="62"/>
+      <c r="FM3" s="62"/>
     </row>
     <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="66"/>
+      <c r="D4" s="53"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="50">
+      <c r="I4" s="55">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="51"/>
-      <c r="K4" s="51"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="51"/>
-      <c r="N4" s="51"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="50">
+      <c r="J4" s="56"/>
+      <c r="K4" s="56"/>
+      <c r="L4" s="56"/>
+      <c r="M4" s="56"/>
+      <c r="N4" s="56"/>
+      <c r="O4" s="60"/>
+      <c r="P4" s="55">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="51"/>
-      <c r="R4" s="51"/>
-      <c r="S4" s="51"/>
-      <c r="T4" s="51"/>
-      <c r="U4" s="51"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="50">
+      <c r="Q4" s="56"/>
+      <c r="R4" s="56"/>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="60"/>
+      <c r="W4" s="55">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="51"/>
-      <c r="Y4" s="51"/>
-      <c r="Z4" s="51"/>
-      <c r="AA4" s="51"/>
-      <c r="AB4" s="51"/>
-      <c r="AC4" s="62"/>
-      <c r="AD4" s="50">
+      <c r="X4" s="56"/>
+      <c r="Y4" s="56"/>
+      <c r="Z4" s="56"/>
+      <c r="AA4" s="56"/>
+      <c r="AB4" s="56"/>
+      <c r="AC4" s="60"/>
+      <c r="AD4" s="55">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="51"/>
-      <c r="AF4" s="51"/>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="51"/>
-      <c r="AI4" s="51"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="50">
+      <c r="AE4" s="56"/>
+      <c r="AF4" s="56"/>
+      <c r="AG4" s="56"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="55">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="51"/>
-      <c r="AM4" s="51"/>
-      <c r="AN4" s="51"/>
-      <c r="AO4" s="51"/>
-      <c r="AP4" s="51"/>
-      <c r="AQ4" s="51"/>
-      <c r="AR4" s="50">
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="55">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="51"/>
-      <c r="AT4" s="51"/>
-      <c r="AU4" s="51"/>
-      <c r="AV4" s="51"/>
-      <c r="AW4" s="51"/>
-      <c r="AX4" s="51"/>
-      <c r="AY4" s="50">
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="56"/>
+      <c r="AU4" s="56"/>
+      <c r="AV4" s="56"/>
+      <c r="AW4" s="56"/>
+      <c r="AX4" s="56"/>
+      <c r="AY4" s="55">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="51"/>
-      <c r="BA4" s="51"/>
-      <c r="BB4" s="51"/>
-      <c r="BC4" s="51"/>
-      <c r="BD4" s="51"/>
-      <c r="BE4" s="51"/>
-      <c r="BF4" s="50">
+      <c r="AZ4" s="56"/>
+      <c r="BA4" s="56"/>
+      <c r="BB4" s="56"/>
+      <c r="BC4" s="56"/>
+      <c r="BD4" s="56"/>
+      <c r="BE4" s="56"/>
+      <c r="BF4" s="55">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="51"/>
-      <c r="BH4" s="51"/>
-      <c r="BI4" s="51"/>
-      <c r="BJ4" s="51"/>
-      <c r="BK4" s="51"/>
-      <c r="BL4" s="51"/>
-      <c r="BM4" s="50">
+      <c r="BG4" s="56"/>
+      <c r="BH4" s="56"/>
+      <c r="BI4" s="56"/>
+      <c r="BJ4" s="56"/>
+      <c r="BK4" s="56"/>
+      <c r="BL4" s="56"/>
+      <c r="BM4" s="55">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="51"/>
-      <c r="BO4" s="51"/>
-      <c r="BP4" s="51"/>
-      <c r="BQ4" s="51"/>
-      <c r="BR4" s="51"/>
-      <c r="BS4" s="51"/>
-      <c r="BT4" s="50">
+      <c r="BN4" s="56"/>
+      <c r="BO4" s="56"/>
+      <c r="BP4" s="56"/>
+      <c r="BQ4" s="56"/>
+      <c r="BR4" s="56"/>
+      <c r="BS4" s="56"/>
+      <c r="BT4" s="55">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="51"/>
-      <c r="BV4" s="51"/>
-      <c r="BW4" s="51"/>
-      <c r="BX4" s="51"/>
-      <c r="BY4" s="51"/>
-      <c r="BZ4" s="51"/>
-      <c r="CA4" s="50">
+      <c r="BU4" s="56"/>
+      <c r="BV4" s="56"/>
+      <c r="BW4" s="56"/>
+      <c r="BX4" s="56"/>
+      <c r="BY4" s="56"/>
+      <c r="BZ4" s="56"/>
+      <c r="CA4" s="55">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="51"/>
-      <c r="CC4" s="51"/>
-      <c r="CD4" s="51"/>
-      <c r="CE4" s="51"/>
-      <c r="CF4" s="51"/>
-      <c r="CG4" s="51"/>
-      <c r="CH4" s="50">
+      <c r="CB4" s="56"/>
+      <c r="CC4" s="56"/>
+      <c r="CD4" s="56"/>
+      <c r="CE4" s="56"/>
+      <c r="CF4" s="56"/>
+      <c r="CG4" s="56"/>
+      <c r="CH4" s="55">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="51"/>
-      <c r="CJ4" s="51"/>
-      <c r="CK4" s="51"/>
-      <c r="CL4" s="51"/>
-      <c r="CM4" s="51"/>
-      <c r="CN4" s="51"/>
-      <c r="CO4" s="50">
+      <c r="CI4" s="56"/>
+      <c r="CJ4" s="56"/>
+      <c r="CK4" s="56"/>
+      <c r="CL4" s="56"/>
+      <c r="CM4" s="56"/>
+      <c r="CN4" s="56"/>
+      <c r="CO4" s="55">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="51"/>
-      <c r="CQ4" s="51"/>
-      <c r="CR4" s="51"/>
-      <c r="CS4" s="51"/>
-      <c r="CT4" s="51"/>
-      <c r="CU4" s="51"/>
-      <c r="CV4" s="50">
+      <c r="CP4" s="56"/>
+      <c r="CQ4" s="56"/>
+      <c r="CR4" s="56"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="56"/>
+      <c r="CU4" s="56"/>
+      <c r="CV4" s="55">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="51"/>
-      <c r="CX4" s="51"/>
-      <c r="CY4" s="51"/>
-      <c r="CZ4" s="51"/>
-      <c r="DA4" s="51"/>
-      <c r="DB4" s="51"/>
-      <c r="DC4" s="50">
+      <c r="CW4" s="56"/>
+      <c r="CX4" s="56"/>
+      <c r="CY4" s="56"/>
+      <c r="CZ4" s="56"/>
+      <c r="DA4" s="56"/>
+      <c r="DB4" s="56"/>
+      <c r="DC4" s="55">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="51"/>
-      <c r="DE4" s="51"/>
-      <c r="DF4" s="51"/>
-      <c r="DG4" s="51"/>
-      <c r="DH4" s="51"/>
-      <c r="DI4" s="51"/>
-      <c r="DJ4" s="50">
+      <c r="DD4" s="56"/>
+      <c r="DE4" s="56"/>
+      <c r="DF4" s="56"/>
+      <c r="DG4" s="56"/>
+      <c r="DH4" s="56"/>
+      <c r="DI4" s="56"/>
+      <c r="DJ4" s="55">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="51"/>
-      <c r="DL4" s="51"/>
-      <c r="DM4" s="51"/>
-      <c r="DN4" s="51"/>
-      <c r="DO4" s="51"/>
-      <c r="DP4" s="51"/>
-      <c r="DQ4" s="50">
+      <c r="DK4" s="56"/>
+      <c r="DL4" s="56"/>
+      <c r="DM4" s="56"/>
+      <c r="DN4" s="56"/>
+      <c r="DO4" s="56"/>
+      <c r="DP4" s="56"/>
+      <c r="DQ4" s="55">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="51"/>
-      <c r="DS4" s="51"/>
-      <c r="DT4" s="51"/>
-      <c r="DU4" s="51"/>
-      <c r="DV4" s="51"/>
-      <c r="DW4" s="51"/>
-      <c r="DX4" s="50">
+      <c r="DR4" s="56"/>
+      <c r="DS4" s="56"/>
+      <c r="DT4" s="56"/>
+      <c r="DU4" s="56"/>
+      <c r="DV4" s="56"/>
+      <c r="DW4" s="56"/>
+      <c r="DX4" s="55">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="51"/>
-      <c r="DZ4" s="51"/>
-      <c r="EA4" s="51"/>
-      <c r="EB4" s="51"/>
-      <c r="EC4" s="51"/>
-      <c r="ED4" s="51"/>
-      <c r="EE4" s="50">
+      <c r="DY4" s="56"/>
+      <c r="DZ4" s="56"/>
+      <c r="EA4" s="56"/>
+      <c r="EB4" s="56"/>
+      <c r="EC4" s="56"/>
+      <c r="ED4" s="56"/>
+      <c r="EE4" s="55">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="51"/>
-      <c r="EG4" s="51"/>
-      <c r="EH4" s="51"/>
-      <c r="EI4" s="51"/>
-      <c r="EJ4" s="51"/>
-      <c r="EK4" s="51"/>
-      <c r="EL4" s="50">
+      <c r="EF4" s="56"/>
+      <c r="EG4" s="56"/>
+      <c r="EH4" s="56"/>
+      <c r="EI4" s="56"/>
+      <c r="EJ4" s="56"/>
+      <c r="EK4" s="56"/>
+      <c r="EL4" s="55">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="51"/>
-      <c r="EN4" s="51"/>
-      <c r="EO4" s="51"/>
-      <c r="EP4" s="51"/>
-      <c r="EQ4" s="51"/>
-      <c r="ER4" s="51"/>
-      <c r="ES4" s="50">
+      <c r="EM4" s="56"/>
+      <c r="EN4" s="56"/>
+      <c r="EO4" s="56"/>
+      <c r="EP4" s="56"/>
+      <c r="EQ4" s="56"/>
+      <c r="ER4" s="56"/>
+      <c r="ES4" s="55">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="51"/>
-      <c r="EU4" s="51"/>
-      <c r="EV4" s="51"/>
-      <c r="EW4" s="51"/>
-      <c r="EX4" s="51"/>
-      <c r="EY4" s="51"/>
-      <c r="EZ4" s="50">
+      <c r="ET4" s="56"/>
+      <c r="EU4" s="56"/>
+      <c r="EV4" s="56"/>
+      <c r="EW4" s="56"/>
+      <c r="EX4" s="56"/>
+      <c r="EY4" s="56"/>
+      <c r="EZ4" s="55">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="51"/>
-      <c r="FB4" s="51"/>
-      <c r="FC4" s="51"/>
-      <c r="FD4" s="51"/>
-      <c r="FE4" s="51"/>
-      <c r="FF4" s="51"/>
-      <c r="FG4" s="50">
+      <c r="FA4" s="56"/>
+      <c r="FB4" s="56"/>
+      <c r="FC4" s="56"/>
+      <c r="FD4" s="56"/>
+      <c r="FE4" s="56"/>
+      <c r="FF4" s="56"/>
+      <c r="FG4" s="55">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="51"/>
-      <c r="FI4" s="51"/>
-      <c r="FJ4" s="51"/>
-      <c r="FK4" s="51"/>
-      <c r="FL4" s="51"/>
-      <c r="FM4" s="51"/>
-      <c r="FN4" s="50">
+      <c r="FH4" s="56"/>
+      <c r="FI4" s="56"/>
+      <c r="FJ4" s="56"/>
+      <c r="FK4" s="56"/>
+      <c r="FL4" s="56"/>
+      <c r="FM4" s="56"/>
+      <c r="FN4" s="55">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="51"/>
-      <c r="FP4" s="51"/>
-      <c r="FQ4" s="51"/>
-      <c r="FR4" s="51"/>
-      <c r="FS4" s="51"/>
-      <c r="FT4" s="51"/>
-      <c r="FU4" s="50">
+      <c r="FO4" s="56"/>
+      <c r="FP4" s="56"/>
+      <c r="FQ4" s="56"/>
+      <c r="FR4" s="56"/>
+      <c r="FS4" s="56"/>
+      <c r="FT4" s="56"/>
+      <c r="FU4" s="55">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="51"/>
-      <c r="FW4" s="51"/>
-      <c r="FX4" s="51"/>
-      <c r="FY4" s="51"/>
-      <c r="FZ4" s="51"/>
-      <c r="GA4" s="51"/>
-      <c r="GB4" s="50">
+      <c r="FV4" s="56"/>
+      <c r="FW4" s="56"/>
+      <c r="FX4" s="56"/>
+      <c r="FY4" s="56"/>
+      <c r="FZ4" s="56"/>
+      <c r="GA4" s="56"/>
+      <c r="GB4" s="55">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="51"/>
-      <c r="GD4" s="51"/>
-      <c r="GE4" s="51"/>
-      <c r="GF4" s="51"/>
-      <c r="GG4" s="51"/>
-      <c r="GH4" s="51"/>
-      <c r="GI4" s="50">
+      <c r="GC4" s="56"/>
+      <c r="GD4" s="56"/>
+      <c r="GE4" s="56"/>
+      <c r="GF4" s="56"/>
+      <c r="GG4" s="56"/>
+      <c r="GH4" s="56"/>
+      <c r="GI4" s="55">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="51"/>
-      <c r="GK4" s="51"/>
-      <c r="GL4" s="51"/>
-      <c r="GM4" s="51"/>
-      <c r="GN4" s="51"/>
-      <c r="GO4" s="51"/>
-      <c r="GP4" s="50">
+      <c r="GJ4" s="56"/>
+      <c r="GK4" s="56"/>
+      <c r="GL4" s="56"/>
+      <c r="GM4" s="56"/>
+      <c r="GN4" s="56"/>
+      <c r="GO4" s="56"/>
+      <c r="GP4" s="55">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="51"/>
-      <c r="GR4" s="51"/>
-      <c r="GS4" s="51"/>
-      <c r="GT4" s="51"/>
-      <c r="GU4" s="51"/>
-      <c r="GV4" s="51"/>
-      <c r="GW4" s="50">
+      <c r="GQ4" s="56"/>
+      <c r="GR4" s="56"/>
+      <c r="GS4" s="56"/>
+      <c r="GT4" s="56"/>
+      <c r="GU4" s="56"/>
+      <c r="GV4" s="56"/>
+      <c r="GW4" s="55">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="51"/>
-      <c r="GY4" s="51"/>
-      <c r="GZ4" s="51"/>
-      <c r="HA4" s="51"/>
-      <c r="HB4" s="51"/>
-      <c r="HC4" s="51"/>
-      <c r="HD4" s="50">
+      <c r="GX4" s="56"/>
+      <c r="GY4" s="56"/>
+      <c r="GZ4" s="56"/>
+      <c r="HA4" s="56"/>
+      <c r="HB4" s="56"/>
+      <c r="HC4" s="56"/>
+      <c r="HD4" s="55">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="51"/>
-      <c r="HF4" s="51"/>
-      <c r="HG4" s="51"/>
-      <c r="HH4" s="51"/>
-      <c r="HI4" s="51"/>
-      <c r="HJ4" s="51"/>
-      <c r="HK4" s="50">
+      <c r="HE4" s="56"/>
+      <c r="HF4" s="56"/>
+      <c r="HG4" s="56"/>
+      <c r="HH4" s="56"/>
+      <c r="HI4" s="56"/>
+      <c r="HJ4" s="56"/>
+      <c r="HK4" s="55">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="51"/>
-      <c r="HM4" s="51"/>
-      <c r="HN4" s="51"/>
-      <c r="HO4" s="51"/>
-      <c r="HP4" s="51"/>
-      <c r="HQ4" s="51"/>
-      <c r="HR4" s="50">
+      <c r="HL4" s="56"/>
+      <c r="HM4" s="56"/>
+      <c r="HN4" s="56"/>
+      <c r="HO4" s="56"/>
+      <c r="HP4" s="56"/>
+      <c r="HQ4" s="56"/>
+      <c r="HR4" s="55">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="51"/>
-      <c r="HT4" s="51"/>
-      <c r="HU4" s="51"/>
-      <c r="HV4" s="51"/>
-      <c r="HW4" s="51"/>
-      <c r="HX4" s="51"/>
-      <c r="HY4" s="50">
+      <c r="HS4" s="56"/>
+      <c r="HT4" s="56"/>
+      <c r="HU4" s="56"/>
+      <c r="HV4" s="56"/>
+      <c r="HW4" s="56"/>
+      <c r="HX4" s="56"/>
+      <c r="HY4" s="55">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="51"/>
-      <c r="IA4" s="51"/>
-      <c r="IB4" s="51"/>
-      <c r="IC4" s="51"/>
-      <c r="ID4" s="51"/>
-      <c r="IE4" s="51"/>
-      <c r="IF4" s="50">
+      <c r="HZ4" s="56"/>
+      <c r="IA4" s="56"/>
+      <c r="IB4" s="56"/>
+      <c r="IC4" s="56"/>
+      <c r="ID4" s="56"/>
+      <c r="IE4" s="56"/>
+      <c r="IF4" s="55">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="51"/>
-      <c r="IH4" s="51"/>
-      <c r="II4" s="51"/>
-      <c r="IJ4" s="51"/>
-      <c r="IK4" s="51"/>
-      <c r="IL4" s="51"/>
-      <c r="IM4" s="50">
+      <c r="IG4" s="56"/>
+      <c r="IH4" s="56"/>
+      <c r="II4" s="56"/>
+      <c r="IJ4" s="56"/>
+      <c r="IK4" s="56"/>
+      <c r="IL4" s="56"/>
+      <c r="IM4" s="55">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="51"/>
-      <c r="IO4" s="51"/>
-      <c r="IP4" s="51"/>
-      <c r="IQ4" s="51"/>
-      <c r="IR4" s="51"/>
-      <c r="IS4" s="51"/>
-      <c r="IT4" s="50">
+      <c r="IN4" s="56"/>
+      <c r="IO4" s="56"/>
+      <c r="IP4" s="56"/>
+      <c r="IQ4" s="56"/>
+      <c r="IR4" s="56"/>
+      <c r="IS4" s="56"/>
+      <c r="IT4" s="55">
         <f>IT5</f>
         <v>45565</v>
       </c>
-      <c r="IU4" s="51"/>
-      <c r="IV4" s="51"/>
-      <c r="IW4" s="51"/>
-      <c r="IX4" s="51"/>
-      <c r="IY4" s="51"/>
-      <c r="IZ4" s="51"/>
-      <c r="JA4" s="50">
+      <c r="IU4" s="56"/>
+      <c r="IV4" s="56"/>
+      <c r="IW4" s="56"/>
+      <c r="IX4" s="56"/>
+      <c r="IY4" s="56"/>
+      <c r="IZ4" s="56"/>
+      <c r="JA4" s="55">
         <f>JA5</f>
         <v>45572</v>
       </c>
-      <c r="JB4" s="51"/>
-      <c r="JC4" s="51"/>
-      <c r="JD4" s="51"/>
-      <c r="JE4" s="51"/>
-      <c r="JF4" s="51"/>
-      <c r="JG4" s="51"/>
-      <c r="JH4" s="50">
+      <c r="JB4" s="56"/>
+      <c r="JC4" s="56"/>
+      <c r="JD4" s="56"/>
+      <c r="JE4" s="56"/>
+      <c r="JF4" s="56"/>
+      <c r="JG4" s="56"/>
+      <c r="JH4" s="55">
         <f>JH5</f>
         <v>45579</v>
       </c>
-      <c r="JI4" s="51"/>
-      <c r="JJ4" s="51"/>
-      <c r="JK4" s="51"/>
-      <c r="JL4" s="51"/>
-      <c r="JM4" s="51"/>
-      <c r="JN4" s="51"/>
+      <c r="JI4" s="56"/>
+      <c r="JJ4" s="56"/>
+      <c r="JK4" s="56"/>
+      <c r="JL4" s="56"/>
+      <c r="JM4" s="56"/>
+      <c r="JN4" s="56"/>
     </row>
     <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -3843,10 +3858,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="67" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="56"/>
+      <c r="C6" s="67"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -3862,1067 +3877,1067 @@
       </c>
       <c r="I6" s="20" t="str">
         <f t="shared" ref="I6" si="206">LEFT(TEXT(I5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="J6" s="20" t="str">
         <f t="shared" ref="J6:AQ6" si="207">LEFT(TEXT(J5,"ddd"),1)</f>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="K6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="L6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="M6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="N6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="O6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="P6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="Q6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="R6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="S6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="T6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="U6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="V6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="W6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="X6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="Y6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="Z6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AA6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AB6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AC6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AD6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AE6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="AF6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="AG6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AH6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AI6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AJ6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AK6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AL6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="AM6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="AN6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AO6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AP6" s="20" t="str">
         <f t="shared" si="207"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AQ6" s="21" t="str">
         <f t="shared" si="207"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AR6" s="20" t="str">
         <f t="shared" ref="AR6:BL6" si="208">LEFT(TEXT(AR5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AS6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="AT6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="AU6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="AV6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="AW6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="AX6" s="21" t="str">
         <f t="shared" si="208"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="AY6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="AZ6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="BA6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="BB6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="BC6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BD6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BE6" s="21" t="str">
         <f t="shared" si="208"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BF6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="BG6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="BH6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="BI6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="BJ6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BK6" s="20" t="str">
         <f t="shared" si="208"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BL6" s="21" t="str">
         <f t="shared" si="208"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BM6" s="20" t="str">
         <f t="shared" ref="BM6:DI6" si="209">LEFT(TEXT(BM5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="BN6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="BO6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="BP6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="BQ6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BR6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BS6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="BT6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="BU6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="BV6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="BW6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="BX6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="BY6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="BZ6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="CA6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="CB6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="CC6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="CD6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="CE6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CF6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CG6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="CH6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="CI6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="CJ6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="CK6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="CL6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CM6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CN6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="CO6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="CP6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="CQ6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="CR6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="CS6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="CT6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="CU6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="CV6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="CW6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="CX6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="CY6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="CZ6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DA6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DB6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="DC6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="DD6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="DE6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="DF6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="DG6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DH6" s="20" t="str">
         <f t="shared" si="209"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DI6" s="21" t="str">
         <f t="shared" si="209"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="DJ6" s="20" t="str">
         <f t="shared" ref="DJ6:DP6" si="210">LEFT(TEXT(DJ5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="DK6" s="20" t="str">
         <f t="shared" si="210"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="DL6" s="20" t="str">
         <f t="shared" si="210"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="DM6" s="20" t="str">
         <f t="shared" si="210"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="DN6" s="20" t="str">
         <f t="shared" si="210"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DO6" s="20" t="str">
         <f t="shared" si="210"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DP6" s="21" t="str">
         <f t="shared" si="210"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="DQ6" s="20" t="str">
         <f t="shared" ref="DQ6:EK6" si="211">LEFT(TEXT(DQ5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="DR6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="DS6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="DT6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="DU6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="DV6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="DW6" s="21" t="str">
         <f t="shared" si="211"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="DX6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="DY6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="DZ6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="EA6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="EB6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EC6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="ED6" s="21" t="str">
         <f t="shared" si="211"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="EE6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="EF6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="EG6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="EH6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="EI6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EJ6" s="20" t="str">
         <f t="shared" si="211"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="EK6" s="21" t="str">
         <f t="shared" si="211"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="EL6" s="20" t="str">
         <f t="shared" ref="EL6:FF6" si="212">LEFT(TEXT(EL5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="EM6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="EN6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="EO6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="EP6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EQ6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="ER6" s="21" t="str">
         <f t="shared" si="212"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="ES6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="ET6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="EU6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="EV6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="EW6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="EX6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="EY6" s="21" t="str">
         <f t="shared" si="212"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="EZ6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="FA6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="FB6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="FC6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="FD6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FE6" s="20" t="str">
         <f t="shared" si="212"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="FF6" s="21" t="str">
         <f t="shared" si="212"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="FG6" s="20" t="str">
         <f t="shared" ref="FG6:FM6" si="213">LEFT(TEXT(FG5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="FH6" s="20" t="str">
         <f t="shared" si="213"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="FI6" s="20" t="str">
         <f t="shared" si="213"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="FJ6" s="20" t="str">
         <f t="shared" si="213"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="FK6" s="20" t="str">
         <f t="shared" si="213"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FL6" s="20" t="str">
         <f t="shared" si="213"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="FM6" s="21" t="str">
         <f t="shared" si="213"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="FN6" s="20" t="str">
         <f t="shared" ref="FN6:FT6" si="214">LEFT(TEXT(FN5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="FO6" s="20" t="str">
         <f t="shared" si="214"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="FP6" s="20" t="str">
         <f t="shared" si="214"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="FQ6" s="20" t="str">
         <f t="shared" si="214"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="FR6" s="20" t="str">
         <f t="shared" si="214"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FS6" s="20" t="str">
         <f t="shared" si="214"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="FT6" s="21" t="str">
         <f t="shared" si="214"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="FU6" s="20" t="str">
         <f t="shared" ref="FU6:IF6" si="215">LEFT(TEXT(FU5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="FV6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="FW6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="FX6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="FY6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="FZ6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GA6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="GB6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="GC6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="GD6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="GE6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="GF6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="GG6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GH6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="GI6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="GJ6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="GK6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="GL6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="GM6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="GN6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GO6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="GP6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="GQ6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="GR6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="GS6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="GT6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="GU6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="GV6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="GW6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="GX6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="GY6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="GZ6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="HA6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="HB6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HC6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="HD6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="HE6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="HF6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="HG6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="HH6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="HI6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HJ6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="HK6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="HL6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="HM6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="HN6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="HO6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="HP6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HQ6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="HR6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="HS6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="HT6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="HU6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="HV6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="HW6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="HX6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="HY6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="HZ6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="IA6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="IB6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="IC6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="ID6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IE6" s="21" t="str">
         <f t="shared" si="215"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="IF6" s="20" t="str">
         <f t="shared" si="215"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="IG6" s="20" t="str">
         <f t="shared" ref="IG6:IS6" si="216">LEFT(TEXT(IG5,"ddd"),1)</f>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="IH6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="II6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="IJ6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="IK6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IL6" s="21" t="str">
         <f t="shared" si="216"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="IM6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="IN6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="IO6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="IP6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="IQ6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="IR6" s="20" t="str">
         <f t="shared" si="216"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IS6" s="21" t="str">
         <f t="shared" si="216"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="IT6" s="20" t="str">
         <f t="shared" ref="IT6:JN6" si="217">LEFT(TEXT(IT5,"ddd"),1)</f>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="IU6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="IV6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="IW6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="IX6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="IY6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="IZ6" s="21" t="str">
         <f t="shared" si="217"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="JA6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="JB6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="JC6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="JD6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="JE6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="JF6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="JG6" s="21" t="str">
         <f t="shared" si="217"/>
-        <v>d</v>
+        <v>S</v>
       </c>
       <c r="JH6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>l</v>
+        <v>M</v>
       </c>
       <c r="JI6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>m</v>
+        <v>T</v>
       </c>
       <c r="JJ6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>m</v>
+        <v>W</v>
       </c>
       <c r="JK6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>j</v>
+        <v>T</v>
       </c>
       <c r="JL6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>v</v>
+        <v>F</v>
       </c>
       <c r="JM6" s="20" t="str">
         <f t="shared" si="217"/>
-        <v>s</v>
+        <v>S</v>
       </c>
       <c r="JN6" s="21" t="str">
         <f t="shared" si="217"/>
-        <v>d</v>
+        <v>S</v>
       </c>
     </row>
     <row r="7" spans="1:274" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -5210,10 +5225,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="67" t="s">
+      <c r="B8" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="67"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -5493,10 +5508,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="57"/>
+      <c r="C9" s="54"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -5784,10 +5799,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="57" t="s">
+      <c r="B10" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="57"/>
+      <c r="C10" s="54"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -6075,10 +6090,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="57"/>
+      <c r="C11" s="54"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -6363,10 +6378,10 @@
     </row>
     <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="60" t="s">
+      <c r="B12" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="60"/>
+      <c r="C12" s="57"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -6650,10 +6665,10 @@
     </row>
     <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="60" t="s">
+      <c r="B13" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="60"/>
+      <c r="C13" s="57"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -6937,10 +6952,10 @@
     </row>
     <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="60" t="s">
+      <c r="B14" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="60"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -7222,10 +7237,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="54"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -7503,10 +7518,10 @@
     </row>
     <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="52"/>
+      <c r="C16" s="51"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -7790,10 +7805,10 @@
     </row>
     <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="52"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8074,10 +8089,10 @@
     </row>
     <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="52"/>
+      <c r="C18" s="51"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8358,10 +8373,10 @@
     </row>
     <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="51"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -8645,10 +8660,10 @@
     </row>
     <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="52"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -8932,10 +8947,10 @@
     </row>
     <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="52"/>
+      <c r="C21" s="51"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9216,10 +9231,10 @@
     </row>
     <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="52"/>
+      <c r="C22" s="51"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -9500,10 +9515,10 @@
     </row>
     <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="52"/>
+      <c r="C23" s="51"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -9789,10 +9804,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="55" t="s">
+      <c r="B24" s="66" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="55"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -10070,10 +10085,10 @@
     </row>
     <row r="25" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="C25" s="53"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -10357,10 +10372,10 @@
     </row>
     <row r="26" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="53" t="s">
+      <c r="B26" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="53"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -10641,10 +10656,10 @@
     </row>
     <row r="27" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="C27" s="53"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -10925,10 +10940,10 @@
     </row>
     <row r="28" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -11212,10 +11227,10 @@
     </row>
     <row r="29" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="C29" s="53"/>
+      <c r="C29" s="50"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -11499,10 +11514,10 @@
     </row>
     <row r="30" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="53"/>
+      <c r="C30" s="50"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -11786,10 +11801,10 @@
     </row>
     <row r="31" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="53" t="s">
+      <c r="B31" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="C31" s="53"/>
+      <c r="C31" s="50"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -12073,10 +12088,10 @@
     </row>
     <row r="32" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="50"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -12360,10 +12375,10 @@
     </row>
     <row r="33" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="53" t="s">
+      <c r="B33" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C33" s="53"/>
+      <c r="C33" s="50"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -12644,10 +12659,10 @@
     </row>
     <row r="34" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -12928,10 +12943,10 @@
     </row>
     <row r="35" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="53" t="s">
+      <c r="B35" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="C35" s="53"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -13215,10 +13230,10 @@
     </row>
     <row r="36" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="53"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -13504,10 +13519,10 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="59"/>
+      <c r="C37" s="64"/>
       <c r="D37" s="44"/>
       <c r="E37" s="45"/>
       <c r="F37" s="46"/>
@@ -13784,10 +13799,10 @@
     </row>
     <row r="38" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="58" t="s">
+      <c r="B38" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="C38" s="58"/>
+      <c r="C38" s="63"/>
       <c r="D38" s="47">
         <v>1</v>
       </c>
@@ -16633,7 +16648,7 @@
       </c>
       <c r="C48" s="49"/>
       <c r="D48" s="47">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E48" s="48">
         <v>45531</v>
@@ -17210,9 +17225,7 @@
         <v>45621</v>
       </c>
       <c r="G50" s="28"/>
-      <c r="H50" s="28">
-        <v>87</v>
-      </c>
+      <c r="H50" s="28"/>
       <c r="I50" s="23"/>
       <c r="J50" s="23"/>
       <c r="K50" s="23"/>
@@ -17429,42 +17442,42 @@
       <c r="HN50" s="23"/>
       <c r="HO50" s="23"/>
       <c r="HP50" s="23"/>
-      <c r="HQ50" s="23"/>
+      <c r="HQ50" s="24"/>
       <c r="HR50" s="23"/>
       <c r="HS50" s="23"/>
       <c r="HT50" s="23"/>
       <c r="HU50" s="23"/>
       <c r="HV50" s="23"/>
       <c r="HW50" s="23"/>
-      <c r="HX50" s="23"/>
+      <c r="HX50" s="24"/>
       <c r="HY50" s="23"/>
       <c r="HZ50" s="23"/>
       <c r="IA50" s="23"/>
       <c r="IB50" s="23"/>
       <c r="IC50" s="23"/>
       <c r="ID50" s="23"/>
-      <c r="IE50" s="23"/>
+      <c r="IE50" s="24"/>
       <c r="IF50" s="23"/>
       <c r="IG50" s="23"/>
       <c r="IH50" s="23"/>
       <c r="II50" s="23"/>
       <c r="IJ50" s="23"/>
       <c r="IK50" s="23"/>
-      <c r="IL50" s="23"/>
+      <c r="IL50" s="24"/>
       <c r="IM50" s="23"/>
       <c r="IN50" s="23"/>
       <c r="IO50" s="23"/>
       <c r="IP50" s="23"/>
       <c r="IQ50" s="23"/>
       <c r="IR50" s="23"/>
-      <c r="IS50" s="23"/>
+      <c r="IS50" s="24"/>
       <c r="IT50" s="23"/>
       <c r="IU50" s="23"/>
       <c r="IV50" s="23"/>
       <c r="IW50" s="23"/>
       <c r="IX50" s="23"/>
-      <c r="IY50" s="23"/>
-      <c r="IZ50" s="23"/>
+      <c r="IY50" s="24"/>
+      <c r="IZ50" s="24"/>
       <c r="JA50" s="23"/>
       <c r="JB50" s="23"/>
       <c r="JC50" s="23"/>
@@ -17480,20 +17493,358 @@
       <c r="JM50" s="23"/>
       <c r="JN50" s="24"/>
     </row>
+    <row r="51" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7"/>
+      <c r="B51" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C51" s="49"/>
+      <c r="D51" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="E51" s="48">
+        <v>45621</v>
+      </c>
+      <c r="F51" s="48">
+        <v>45625</v>
+      </c>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28">
+        <v>87</v>
+      </c>
+      <c r="I51" s="23"/>
+      <c r="J51" s="23"/>
+      <c r="K51" s="23"/>
+      <c r="L51" s="23"/>
+      <c r="M51" s="23"/>
+      <c r="N51" s="23"/>
+      <c r="O51" s="23"/>
+      <c r="P51" s="23"/>
+      <c r="Q51" s="23"/>
+      <c r="R51" s="23"/>
+      <c r="S51" s="23"/>
+      <c r="T51" s="23"/>
+      <c r="U51" s="23"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
+      <c r="X51" s="23"/>
+      <c r="Y51" s="23"/>
+      <c r="Z51" s="23"/>
+      <c r="AA51" s="23"/>
+      <c r="AB51" s="23"/>
+      <c r="AC51" s="23"/>
+      <c r="AD51" s="23"/>
+      <c r="AE51" s="23"/>
+      <c r="AF51" s="23"/>
+      <c r="AG51" s="23"/>
+      <c r="AH51" s="23"/>
+      <c r="AI51" s="23"/>
+      <c r="AJ51" s="23"/>
+      <c r="AK51" s="23"/>
+      <c r="AL51" s="23"/>
+      <c r="AM51" s="23"/>
+      <c r="AN51" s="23"/>
+      <c r="AO51" s="23"/>
+      <c r="AP51" s="23"/>
+      <c r="AQ51" s="24"/>
+      <c r="AR51" s="23"/>
+      <c r="AS51" s="23"/>
+      <c r="AT51" s="23"/>
+      <c r="AU51" s="23"/>
+      <c r="AV51" s="23"/>
+      <c r="AW51" s="23"/>
+      <c r="AX51" s="24"/>
+      <c r="AY51" s="23"/>
+      <c r="AZ51" s="23"/>
+      <c r="BA51" s="23"/>
+      <c r="BB51" s="23"/>
+      <c r="BC51" s="23"/>
+      <c r="BD51" s="23"/>
+      <c r="BE51" s="24"/>
+      <c r="BF51" s="23"/>
+      <c r="BG51" s="23"/>
+      <c r="BH51" s="23"/>
+      <c r="BI51" s="23"/>
+      <c r="BJ51" s="23"/>
+      <c r="BK51" s="23"/>
+      <c r="BL51" s="24"/>
+      <c r="BM51" s="23"/>
+      <c r="BN51" s="23"/>
+      <c r="BO51" s="23"/>
+      <c r="BP51" s="23"/>
+      <c r="BQ51" s="23"/>
+      <c r="BR51" s="23"/>
+      <c r="BS51" s="24"/>
+      <c r="BT51" s="23"/>
+      <c r="BU51" s="23"/>
+      <c r="BV51" s="23"/>
+      <c r="BW51" s="23"/>
+      <c r="BX51" s="23"/>
+      <c r="BY51" s="23"/>
+      <c r="BZ51" s="24"/>
+      <c r="CA51" s="23"/>
+      <c r="CB51" s="23"/>
+      <c r="CC51" s="23"/>
+      <c r="CD51" s="23"/>
+      <c r="CE51" s="23"/>
+      <c r="CF51" s="23"/>
+      <c r="CG51" s="24"/>
+      <c r="CH51" s="23"/>
+      <c r="CI51" s="23"/>
+      <c r="CJ51" s="23"/>
+      <c r="CK51" s="23"/>
+      <c r="CL51" s="23"/>
+      <c r="CM51" s="23"/>
+      <c r="CN51" s="24"/>
+      <c r="CO51" s="23"/>
+      <c r="CP51" s="23"/>
+      <c r="CQ51" s="23"/>
+      <c r="CR51" s="23"/>
+      <c r="CS51" s="23"/>
+      <c r="CT51" s="23"/>
+      <c r="CU51" s="24"/>
+      <c r="CV51" s="23"/>
+      <c r="CW51" s="23"/>
+      <c r="CX51" s="23"/>
+      <c r="CY51" s="23"/>
+      <c r="CZ51" s="23"/>
+      <c r="DA51" s="23"/>
+      <c r="DB51" s="24"/>
+      <c r="DC51" s="23"/>
+      <c r="DD51" s="23"/>
+      <c r="DE51" s="23"/>
+      <c r="DF51" s="23"/>
+      <c r="DG51" s="23"/>
+      <c r="DH51" s="23"/>
+      <c r="DI51" s="24"/>
+      <c r="DJ51" s="23"/>
+      <c r="DK51" s="23"/>
+      <c r="DL51" s="23"/>
+      <c r="DM51" s="23"/>
+      <c r="DN51" s="23"/>
+      <c r="DO51" s="23"/>
+      <c r="DP51" s="24"/>
+      <c r="DQ51" s="23"/>
+      <c r="DR51" s="23"/>
+      <c r="DS51" s="23"/>
+      <c r="DT51" s="23"/>
+      <c r="DU51" s="23"/>
+      <c r="DV51" s="23"/>
+      <c r="DW51" s="24"/>
+      <c r="DX51" s="23"/>
+      <c r="DY51" s="23"/>
+      <c r="DZ51" s="23"/>
+      <c r="EA51" s="23"/>
+      <c r="EB51" s="23"/>
+      <c r="EC51" s="23"/>
+      <c r="ED51" s="24"/>
+      <c r="EE51" s="23"/>
+      <c r="EF51" s="23"/>
+      <c r="EG51" s="23"/>
+      <c r="EH51" s="23"/>
+      <c r="EI51" s="23"/>
+      <c r="EJ51" s="23"/>
+      <c r="EK51" s="24"/>
+      <c r="EL51" s="23"/>
+      <c r="EM51" s="23"/>
+      <c r="EN51" s="23"/>
+      <c r="EO51" s="23"/>
+      <c r="EP51" s="23"/>
+      <c r="EQ51" s="23"/>
+      <c r="ER51" s="24"/>
+      <c r="ES51" s="23"/>
+      <c r="ET51" s="23"/>
+      <c r="EU51" s="23"/>
+      <c r="EV51" s="23"/>
+      <c r="EW51" s="23"/>
+      <c r="EX51" s="23"/>
+      <c r="EY51" s="24"/>
+      <c r="EZ51" s="23"/>
+      <c r="FA51" s="23"/>
+      <c r="FB51" s="23"/>
+      <c r="FC51" s="23"/>
+      <c r="FD51" s="23"/>
+      <c r="FE51" s="23"/>
+      <c r="FF51" s="24"/>
+      <c r="FG51" s="23"/>
+      <c r="FH51" s="23"/>
+      <c r="FI51" s="23"/>
+      <c r="FJ51" s="23"/>
+      <c r="FK51" s="23"/>
+      <c r="FL51" s="23"/>
+      <c r="FM51" s="24"/>
+      <c r="FN51" s="23"/>
+      <c r="FO51" s="23"/>
+      <c r="FP51" s="23"/>
+      <c r="FQ51" s="23"/>
+      <c r="FR51" s="23"/>
+      <c r="FS51" s="23"/>
+      <c r="FT51" s="24"/>
+      <c r="FU51" s="23"/>
+      <c r="FV51" s="23"/>
+      <c r="FW51" s="23"/>
+      <c r="FX51" s="23"/>
+      <c r="FY51" s="23"/>
+      <c r="FZ51" s="23"/>
+      <c r="GA51" s="24"/>
+      <c r="GB51" s="23"/>
+      <c r="GC51" s="23"/>
+      <c r="GD51" s="23"/>
+      <c r="GE51" s="23"/>
+      <c r="GF51" s="23"/>
+      <c r="GG51" s="23"/>
+      <c r="GH51" s="24"/>
+      <c r="GI51" s="23"/>
+      <c r="GJ51" s="23"/>
+      <c r="GK51" s="23"/>
+      <c r="GL51" s="23"/>
+      <c r="GM51" s="23"/>
+      <c r="GN51" s="23"/>
+      <c r="GO51" s="24"/>
+      <c r="GP51" s="23"/>
+      <c r="GQ51" s="23"/>
+      <c r="GR51" s="23"/>
+      <c r="GS51" s="23"/>
+      <c r="GT51" s="23"/>
+      <c r="GU51" s="23"/>
+      <c r="GV51" s="24"/>
+      <c r="GW51" s="23"/>
+      <c r="GX51" s="23"/>
+      <c r="GY51" s="23"/>
+      <c r="GZ51" s="23"/>
+      <c r="HA51" s="23"/>
+      <c r="HB51" s="23"/>
+      <c r="HC51" s="24"/>
+      <c r="HD51" s="23"/>
+      <c r="HE51" s="23"/>
+      <c r="HF51" s="23"/>
+      <c r="HG51" s="23"/>
+      <c r="HH51" s="23"/>
+      <c r="HI51" s="23"/>
+      <c r="HJ51" s="24"/>
+      <c r="HK51" s="23"/>
+      <c r="HL51" s="23"/>
+      <c r="HM51" s="23"/>
+      <c r="HN51" s="23"/>
+      <c r="HO51" s="23"/>
+      <c r="HP51" s="23"/>
+      <c r="HQ51" s="23"/>
+      <c r="HR51" s="23"/>
+      <c r="HS51" s="23"/>
+      <c r="HT51" s="23"/>
+      <c r="HU51" s="23"/>
+      <c r="HV51" s="23"/>
+      <c r="HW51" s="23"/>
+      <c r="HX51" s="23"/>
+      <c r="HY51" s="23"/>
+      <c r="HZ51" s="23"/>
+      <c r="IA51" s="23"/>
+      <c r="IB51" s="23"/>
+      <c r="IC51" s="23"/>
+      <c r="ID51" s="23"/>
+      <c r="IE51" s="23"/>
+      <c r="IF51" s="23"/>
+      <c r="IG51" s="23"/>
+      <c r="IH51" s="23"/>
+      <c r="II51" s="23"/>
+      <c r="IJ51" s="23"/>
+      <c r="IK51" s="23"/>
+      <c r="IL51" s="23"/>
+      <c r="IM51" s="23"/>
+      <c r="IN51" s="23"/>
+      <c r="IO51" s="23"/>
+      <c r="IP51" s="23"/>
+      <c r="IQ51" s="23"/>
+      <c r="IR51" s="23"/>
+      <c r="IS51" s="23"/>
+      <c r="IT51" s="23"/>
+      <c r="IU51" s="23"/>
+      <c r="IV51" s="23"/>
+      <c r="IW51" s="23"/>
+      <c r="IX51" s="23"/>
+      <c r="IY51" s="23"/>
+      <c r="IZ51" s="23"/>
+      <c r="JA51" s="23"/>
+      <c r="JB51" s="23"/>
+      <c r="JC51" s="23"/>
+      <c r="JD51" s="23"/>
+      <c r="JE51" s="23"/>
+      <c r="JF51" s="23"/>
+      <c r="JG51" s="24"/>
+      <c r="JH51" s="23"/>
+      <c r="JI51" s="23"/>
+      <c r="JJ51" s="23"/>
+      <c r="JK51" s="23"/>
+      <c r="JL51" s="23"/>
+      <c r="JM51" s="23"/>
+      <c r="JN51" s="24"/>
+    </row>
+    <row r="52" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="68"/>
+      <c r="C52" s="68"/>
+    </row>
   </sheetData>
-  <mergeCells count="86">
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
+  <mergeCells count="88">
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="IT4:IZ4"/>
+    <mergeCell ref="JA4:JG4"/>
+    <mergeCell ref="JH4:JN4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="CO4:CU4"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="BF4:BL4"/>
+    <mergeCell ref="CA4:CG4"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B11:C11"/>
@@ -17510,66 +17861,20 @@
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="I3:FM3"/>
     <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="CO4:CU4"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="BF4:BL4"/>
-    <mergeCell ref="CA4:CG4"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="IT4:IZ4"/>
-    <mergeCell ref="JA4:JG4"/>
-    <mergeCell ref="JH4:JN4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D50">
+  <conditionalFormatting sqref="D7:D51">
     <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17583,22 +17888,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:HJ49 HR7:IS49 JA7:JN49 I50:HK50 IP50:JN50 IT7:IZ45">
+  <conditionalFormatting sqref="I7:HJ50 HR7:IS50 JA7:JN50 I51:HK51 IP51:JN51 IT7:IZ45">
     <cfRule type="expression" dxfId="31" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI49 HR5:HW49 HY5:ID49 IF5:IK49 IM5:IR49 IT5:IY49 JH5:JM49 I5:DO50 DQ5:DV50 DX5:EC50 EE5:EJ50 EL5:EQ50 ES5:EX50 EZ5:FE50 FG5:FL50 FN5:FS50 FU5:FZ50 GB5:GG50 GI5:GN50 GP5:GU50 GW5:HB50 JA5:JF50">
+  <conditionalFormatting sqref="HD5:HI50 HR5:HW50 HY5:ID50 IF5:IK50 IM5:IR50 IT5:IY50 JH5:JM50 I5:DO51 DQ5:DV51 DX5:EC51 EE5:EJ51 EL5:EQ51 ES5:EX51 EZ5:FE51 FG5:FL51 FN5:FS51 FU5:FZ51 GB5:GG51 GI5:GN51 GP5:GU51 GW5:HB51 JA5:JF51">
     <cfRule type="expression" dxfId="30" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI49 HR7:HW49 HY7:ID49 IF7:IK49 IM7:IR49 IT7:IY49 JH7:JM49 I7:DO50 DQ7:DV50 DX7:EC50 EE7:EJ50 EL7:EQ50 ES7:EX50 EZ7:FE50 FG7:FL50 FN7:FS50 FU7:FZ50 GB7:GG50 GI7:GN50 GP7:GU50 GW7:HB50 JA7:JF50">
+  <conditionalFormatting sqref="HD7:HI50 HR7:HW50 HY7:ID50 IF7:IK50 IM7:IR50 IT7:IY50 JH7:JM50 I7:DO51 DQ7:DV51 DX7:EC51 EE7:EJ51 EL7:EQ51 ES7:EX51 EZ7:FE51 FG7:FL51 FN7:FS51 FU7:FZ51 GB7:GG51 GI7:GN51 GP7:GU51 GW7:HB51 JA7:JF51">
     <cfRule type="expression" dxfId="29" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD50:HI50">
+  <conditionalFormatting sqref="HD51:HI51">
     <cfRule type="expression" dxfId="28" priority="176" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
@@ -17616,7 +17921,7 @@
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK15:HP49">
+  <conditionalFormatting sqref="HK15:HP50">
     <cfRule type="expression" dxfId="24" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
@@ -17629,12 +17934,12 @@
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK15:HQ49">
+  <conditionalFormatting sqref="HK15:HQ50">
     <cfRule type="expression" dxfId="21" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK50:IZ50">
+  <conditionalFormatting sqref="HK51:IZ51">
     <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
@@ -17643,47 +17948,47 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="HL14">
-    <cfRule type="expression" dxfId="18" priority="500" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="498">
+      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="17" priority="500" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="17" priority="498">
-      <formula>AND(TODAY()&gt;=HK$5,TODAY()&lt;HL$5)</formula>
     </cfRule>
     <cfRule type="expression" dxfId="16" priority="502">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HL50:IO50">
+  <conditionalFormatting sqref="HL51:IO51">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ5:HQ49 HX5:HX49 DP5:DP50 DW5:DW50 ED5:ED50 EK5:EK50 ER5:ER50 EY5:EY50 FF5:FF50 JG5:JG50">
+  <conditionalFormatting sqref="HQ5:HQ50 HX5:HX50 DP5:DP51 DW5:DW51 ED5:ED51 EK5:EK51 ER5:ER51 EY5:EY51 FF5:FF51 JG5:JG51">
     <cfRule type="expression" dxfId="14" priority="492">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ7:HQ49 HX7:HX49 DP7:DP50 DW7:DW50 ED7:ED50 EK7:EK50 ER7:ER50 EY7:EY50 FF7:FF50 JG7:JG50">
+  <conditionalFormatting sqref="HQ7:HQ50 HX7:HX50 DP7:DP51 DW7:DW51 ED7:ED51 EK7:EK51 ER7:ER51 EY7:EY51 FF7:FF51 JG7:JG51">
     <cfRule type="expression" dxfId="13" priority="496" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IE7:IE49 IL7:IL49 GA7:GA50 GH7:GH50 GO7:GO50 GV7:GV50 HC7:HC50 IS7:IS50 HJ7:HJ50 JN7:JN50">
+  <conditionalFormatting sqref="IE7:IE50 IL7:IL50 GA7:GA51 GH7:GH51 GO7:GO51 GV7:GV51 HC7:HC51 IS7:IS51 HJ7:HJ51 JN7:JN51">
     <cfRule type="expression" dxfId="12" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS5:IS50 IE5:IE49 IL5:IL49 GA5:GA50 GH5:GH50 GO5:GO50 GV5:GV50 HC5:HC50">
+  <conditionalFormatting sqref="IS5:IS51 IE5:IE50 IL5:IL50 GA5:GA51 GH5:GH51 GO5:GO51 GV5:GV51 HC5:HC51">
     <cfRule type="expression" dxfId="11" priority="232">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IT46:IX49">
+  <conditionalFormatting sqref="IT46:IX50">
     <cfRule type="expression" dxfId="10" priority="178">
       <formula>AND(task_start&lt;=IT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IY46:IZ49">
+  <conditionalFormatting sqref="IY46:IZ50">
     <cfRule type="expression" dxfId="9" priority="504">
       <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
     </cfRule>
@@ -17694,35 +17999,35 @@
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM50 FT5:FT50 HJ5:HJ50 JN5:JN50">
+  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM51 FT5:FT51 HJ5:HJ51 JN5:JN51">
     <cfRule type="expression" dxfId="6" priority="182">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ46:IZ49">
-    <cfRule type="expression" dxfId="5" priority="104">
+  <conditionalFormatting sqref="IZ46:IZ50">
+    <cfRule type="expression" dxfId="5" priority="103" stopIfTrue="1">
+      <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="104">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="103" stopIfTrue="1">
-      <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ50 IZ7:IZ45 FM7:FM50 FT7:FT50">
+  <conditionalFormatting sqref="IZ51 IZ7:IZ45 FM7:FM51 FT7:FT51">
     <cfRule type="expression" dxfId="3" priority="260" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ50">
+  <conditionalFormatting sqref="IZ51">
     <cfRule type="expression" dxfId="2" priority="259">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH50:JM50">
-    <cfRule type="expression" dxfId="1" priority="106">
+  <conditionalFormatting sqref="JH51:JM51">
+    <cfRule type="expression" dxfId="1" priority="105" stopIfTrue="1">
+      <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="106">
       <formula>AND(TODAY()&gt;=JH$5,TODAY()&lt;JI$5)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="105" stopIfTrue="1">
-      <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -17752,7 +18057,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D50</xm:sqref>
+          <xm:sqref>D7:D51</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -17770,6 +18075,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18057,26 +18382,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -18086,6 +18391,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18104,16 +18421,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EF87BF-20D9-4C8A-B235-51671B5C0D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEDDF2-C573-4A1A-B13B-D3026F619349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -264,7 +264,10 @@
     <t>Traducir al ingles</t>
   </si>
   <si>
-    <t>Revisión de documentos</t>
+    <t>Revisión de documento en español</t>
+  </si>
+  <si>
+    <t>Revisión de documento en ingles</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1204,10 @@
     <xf numFmtId="166" fontId="23" fillId="44" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
@@ -1241,6 +1241,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2119,11 +2122,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:JN52"/>
+  <dimension ref="A1:JN53"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G53" sqref="G53"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2210,573 +2213,573 @@
         <v>1</v>
       </c>
       <c r="B3" s="43"/>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="52"/>
-      <c r="E3" s="59">
+      <c r="D3" s="51"/>
+      <c r="E3" s="58">
         <v>45323</v>
       </c>
-      <c r="F3" s="59"/>
-      <c r="I3" s="61" t="s">
+      <c r="F3" s="58"/>
+      <c r="I3" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="62"/>
-      <c r="K3" s="62"/>
-      <c r="L3" s="62"/>
-      <c r="M3" s="62"/>
-      <c r="N3" s="62"/>
-      <c r="O3" s="62"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="62"/>
-      <c r="T3" s="62"/>
-      <c r="U3" s="62"/>
-      <c r="V3" s="62"/>
-      <c r="W3" s="62"/>
-      <c r="X3" s="62"/>
-      <c r="Y3" s="62"/>
-      <c r="Z3" s="62"/>
-      <c r="AA3" s="62"/>
-      <c r="AB3" s="62"/>
-      <c r="AC3" s="62"/>
-      <c r="AD3" s="62"/>
-      <c r="AE3" s="62"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="62"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="62"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="62"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="62"/>
-      <c r="AV3" s="62"/>
-      <c r="AW3" s="62"/>
-      <c r="AX3" s="62"/>
-      <c r="AY3" s="62"/>
-      <c r="AZ3" s="62"/>
-      <c r="BA3" s="62"/>
-      <c r="BB3" s="62"/>
-      <c r="BC3" s="62"/>
-      <c r="BD3" s="62"/>
-      <c r="BE3" s="62"/>
-      <c r="BF3" s="62"/>
-      <c r="BG3" s="62"/>
-      <c r="BH3" s="62"/>
-      <c r="BI3" s="62"/>
-      <c r="BJ3" s="62"/>
-      <c r="BK3" s="62"/>
-      <c r="BL3" s="62"/>
-      <c r="BM3" s="62"/>
-      <c r="BN3" s="62"/>
-      <c r="BO3" s="62"/>
-      <c r="BP3" s="62"/>
-      <c r="BQ3" s="62"/>
-      <c r="BR3" s="62"/>
-      <c r="BS3" s="62"/>
-      <c r="BT3" s="62"/>
-      <c r="BU3" s="62"/>
-      <c r="BV3" s="62"/>
-      <c r="BW3" s="62"/>
-      <c r="BX3" s="62"/>
-      <c r="BY3" s="62"/>
-      <c r="BZ3" s="62"/>
-      <c r="CA3" s="62"/>
-      <c r="CB3" s="62"/>
-      <c r="CC3" s="62"/>
-      <c r="CD3" s="62"/>
-      <c r="CE3" s="62"/>
-      <c r="CF3" s="62"/>
-      <c r="CG3" s="62"/>
-      <c r="CH3" s="62"/>
-      <c r="CI3" s="62"/>
-      <c r="CJ3" s="62"/>
-      <c r="CK3" s="62"/>
-      <c r="CL3" s="62"/>
-      <c r="CM3" s="62"/>
-      <c r="CN3" s="62"/>
-      <c r="CO3" s="62"/>
-      <c r="CP3" s="62"/>
-      <c r="CQ3" s="62"/>
-      <c r="CR3" s="62"/>
-      <c r="CS3" s="62"/>
-      <c r="CT3" s="62"/>
-      <c r="CU3" s="62"/>
-      <c r="CV3" s="62"/>
-      <c r="CW3" s="62"/>
-      <c r="CX3" s="62"/>
-      <c r="CY3" s="62"/>
-      <c r="CZ3" s="62"/>
-      <c r="DA3" s="62"/>
-      <c r="DB3" s="62"/>
-      <c r="DC3" s="62"/>
-      <c r="DD3" s="62"/>
-      <c r="DE3" s="62"/>
-      <c r="DF3" s="62"/>
-      <c r="DG3" s="62"/>
-      <c r="DH3" s="62"/>
-      <c r="DI3" s="62"/>
-      <c r="DJ3" s="62"/>
-      <c r="DK3" s="62"/>
-      <c r="DL3" s="62"/>
-      <c r="DM3" s="62"/>
-      <c r="DN3" s="62"/>
-      <c r="DO3" s="62"/>
-      <c r="DP3" s="62"/>
-      <c r="DQ3" s="62"/>
-      <c r="DR3" s="62"/>
-      <c r="DS3" s="62"/>
-      <c r="DT3" s="62"/>
-      <c r="DU3" s="62"/>
-      <c r="DV3" s="62"/>
-      <c r="DW3" s="62"/>
-      <c r="DX3" s="62"/>
-      <c r="DY3" s="62"/>
-      <c r="DZ3" s="62"/>
-      <c r="EA3" s="62"/>
-      <c r="EB3" s="62"/>
-      <c r="EC3" s="62"/>
-      <c r="ED3" s="62"/>
-      <c r="EE3" s="62"/>
-      <c r="EF3" s="62"/>
-      <c r="EG3" s="62"/>
-      <c r="EH3" s="62"/>
-      <c r="EI3" s="62"/>
-      <c r="EJ3" s="62"/>
-      <c r="EK3" s="62"/>
-      <c r="EL3" s="62"/>
-      <c r="EM3" s="62"/>
-      <c r="EN3" s="62"/>
-      <c r="EO3" s="62"/>
-      <c r="EP3" s="62"/>
-      <c r="EQ3" s="62"/>
-      <c r="ER3" s="62"/>
-      <c r="ES3" s="62"/>
-      <c r="ET3" s="62"/>
-      <c r="EU3" s="62"/>
-      <c r="EV3" s="62"/>
-      <c r="EW3" s="62"/>
-      <c r="EX3" s="62"/>
-      <c r="EY3" s="62"/>
-      <c r="EZ3" s="62"/>
-      <c r="FA3" s="62"/>
-      <c r="FB3" s="62"/>
-      <c r="FC3" s="62"/>
-      <c r="FD3" s="62"/>
-      <c r="FE3" s="62"/>
-      <c r="FF3" s="62"/>
-      <c r="FG3" s="62"/>
-      <c r="FH3" s="62"/>
-      <c r="FI3" s="62"/>
-      <c r="FJ3" s="62"/>
-      <c r="FK3" s="62"/>
-      <c r="FL3" s="62"/>
-      <c r="FM3" s="62"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
+      <c r="AB3" s="61"/>
+      <c r="AC3" s="61"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="61"/>
+      <c r="AF3" s="61"/>
+      <c r="AG3" s="61"/>
+      <c r="AH3" s="61"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="61"/>
+      <c r="AL3" s="61"/>
+      <c r="AM3" s="61"/>
+      <c r="AN3" s="61"/>
+      <c r="AO3" s="61"/>
+      <c r="AP3" s="61"/>
+      <c r="AQ3" s="61"/>
+      <c r="AR3" s="61"/>
+      <c r="AS3" s="61"/>
+      <c r="AT3" s="61"/>
+      <c r="AU3" s="61"/>
+      <c r="AV3" s="61"/>
+      <c r="AW3" s="61"/>
+      <c r="AX3" s="61"/>
+      <c r="AY3" s="61"/>
+      <c r="AZ3" s="61"/>
+      <c r="BA3" s="61"/>
+      <c r="BB3" s="61"/>
+      <c r="BC3" s="61"/>
+      <c r="BD3" s="61"/>
+      <c r="BE3" s="61"/>
+      <c r="BF3" s="61"/>
+      <c r="BG3" s="61"/>
+      <c r="BH3" s="61"/>
+      <c r="BI3" s="61"/>
+      <c r="BJ3" s="61"/>
+      <c r="BK3" s="61"/>
+      <c r="BL3" s="61"/>
+      <c r="BM3" s="61"/>
+      <c r="BN3" s="61"/>
+      <c r="BO3" s="61"/>
+      <c r="BP3" s="61"/>
+      <c r="BQ3" s="61"/>
+      <c r="BR3" s="61"/>
+      <c r="BS3" s="61"/>
+      <c r="BT3" s="61"/>
+      <c r="BU3" s="61"/>
+      <c r="BV3" s="61"/>
+      <c r="BW3" s="61"/>
+      <c r="BX3" s="61"/>
+      <c r="BY3" s="61"/>
+      <c r="BZ3" s="61"/>
+      <c r="CA3" s="61"/>
+      <c r="CB3" s="61"/>
+      <c r="CC3" s="61"/>
+      <c r="CD3" s="61"/>
+      <c r="CE3" s="61"/>
+      <c r="CF3" s="61"/>
+      <c r="CG3" s="61"/>
+      <c r="CH3" s="61"/>
+      <c r="CI3" s="61"/>
+      <c r="CJ3" s="61"/>
+      <c r="CK3" s="61"/>
+      <c r="CL3" s="61"/>
+      <c r="CM3" s="61"/>
+      <c r="CN3" s="61"/>
+      <c r="CO3" s="61"/>
+      <c r="CP3" s="61"/>
+      <c r="CQ3" s="61"/>
+      <c r="CR3" s="61"/>
+      <c r="CS3" s="61"/>
+      <c r="CT3" s="61"/>
+      <c r="CU3" s="61"/>
+      <c r="CV3" s="61"/>
+      <c r="CW3" s="61"/>
+      <c r="CX3" s="61"/>
+      <c r="CY3" s="61"/>
+      <c r="CZ3" s="61"/>
+      <c r="DA3" s="61"/>
+      <c r="DB3" s="61"/>
+      <c r="DC3" s="61"/>
+      <c r="DD3" s="61"/>
+      <c r="DE3" s="61"/>
+      <c r="DF3" s="61"/>
+      <c r="DG3" s="61"/>
+      <c r="DH3" s="61"/>
+      <c r="DI3" s="61"/>
+      <c r="DJ3" s="61"/>
+      <c r="DK3" s="61"/>
+      <c r="DL3" s="61"/>
+      <c r="DM3" s="61"/>
+      <c r="DN3" s="61"/>
+      <c r="DO3" s="61"/>
+      <c r="DP3" s="61"/>
+      <c r="DQ3" s="61"/>
+      <c r="DR3" s="61"/>
+      <c r="DS3" s="61"/>
+      <c r="DT3" s="61"/>
+      <c r="DU3" s="61"/>
+      <c r="DV3" s="61"/>
+      <c r="DW3" s="61"/>
+      <c r="DX3" s="61"/>
+      <c r="DY3" s="61"/>
+      <c r="DZ3" s="61"/>
+      <c r="EA3" s="61"/>
+      <c r="EB3" s="61"/>
+      <c r="EC3" s="61"/>
+      <c r="ED3" s="61"/>
+      <c r="EE3" s="61"/>
+      <c r="EF3" s="61"/>
+      <c r="EG3" s="61"/>
+      <c r="EH3" s="61"/>
+      <c r="EI3" s="61"/>
+      <c r="EJ3" s="61"/>
+      <c r="EK3" s="61"/>
+      <c r="EL3" s="61"/>
+      <c r="EM3" s="61"/>
+      <c r="EN3" s="61"/>
+      <c r="EO3" s="61"/>
+      <c r="EP3" s="61"/>
+      <c r="EQ3" s="61"/>
+      <c r="ER3" s="61"/>
+      <c r="ES3" s="61"/>
+      <c r="ET3" s="61"/>
+      <c r="EU3" s="61"/>
+      <c r="EV3" s="61"/>
+      <c r="EW3" s="61"/>
+      <c r="EX3" s="61"/>
+      <c r="EY3" s="61"/>
+      <c r="EZ3" s="61"/>
+      <c r="FA3" s="61"/>
+      <c r="FB3" s="61"/>
+      <c r="FC3" s="61"/>
+      <c r="FD3" s="61"/>
+      <c r="FE3" s="61"/>
+      <c r="FF3" s="61"/>
+      <c r="FG3" s="61"/>
+      <c r="FH3" s="61"/>
+      <c r="FI3" s="61"/>
+      <c r="FJ3" s="61"/>
+      <c r="FK3" s="61"/>
+      <c r="FL3" s="61"/>
+      <c r="FM3" s="61"/>
     </row>
     <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="53"/>
+      <c r="D4" s="52"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="55">
+      <c r="I4" s="54">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="56"/>
-      <c r="K4" s="56"/>
-      <c r="L4" s="56"/>
-      <c r="M4" s="56"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="60"/>
-      <c r="P4" s="55">
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="54">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="56"/>
-      <c r="R4" s="56"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="56"/>
-      <c r="U4" s="56"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="55">
+      <c r="Q4" s="55"/>
+      <c r="R4" s="55"/>
+      <c r="S4" s="55"/>
+      <c r="T4" s="55"/>
+      <c r="U4" s="55"/>
+      <c r="V4" s="59"/>
+      <c r="W4" s="54">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="56"/>
-      <c r="Y4" s="56"/>
-      <c r="Z4" s="56"/>
-      <c r="AA4" s="56"/>
-      <c r="AB4" s="56"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="55">
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="55"/>
+      <c r="AC4" s="59"/>
+      <c r="AD4" s="54">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="56"/>
-      <c r="AF4" s="56"/>
-      <c r="AG4" s="56"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="55">
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="55"/>
+      <c r="AJ4" s="59"/>
+      <c r="AK4" s="54">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="55">
+      <c r="AL4" s="55"/>
+      <c r="AM4" s="55"/>
+      <c r="AN4" s="55"/>
+      <c r="AO4" s="55"/>
+      <c r="AP4" s="55"/>
+      <c r="AQ4" s="55"/>
+      <c r="AR4" s="54">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="56"/>
-      <c r="AU4" s="56"/>
-      <c r="AV4" s="56"/>
-      <c r="AW4" s="56"/>
-      <c r="AX4" s="56"/>
-      <c r="AY4" s="55">
+      <c r="AS4" s="55"/>
+      <c r="AT4" s="55"/>
+      <c r="AU4" s="55"/>
+      <c r="AV4" s="55"/>
+      <c r="AW4" s="55"/>
+      <c r="AX4" s="55"/>
+      <c r="AY4" s="54">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="56"/>
-      <c r="BA4" s="56"/>
-      <c r="BB4" s="56"/>
-      <c r="BC4" s="56"/>
-      <c r="BD4" s="56"/>
-      <c r="BE4" s="56"/>
-      <c r="BF4" s="55">
+      <c r="AZ4" s="55"/>
+      <c r="BA4" s="55"/>
+      <c r="BB4" s="55"/>
+      <c r="BC4" s="55"/>
+      <c r="BD4" s="55"/>
+      <c r="BE4" s="55"/>
+      <c r="BF4" s="54">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="56"/>
-      <c r="BH4" s="56"/>
-      <c r="BI4" s="56"/>
-      <c r="BJ4" s="56"/>
-      <c r="BK4" s="56"/>
-      <c r="BL4" s="56"/>
-      <c r="BM4" s="55">
+      <c r="BG4" s="55"/>
+      <c r="BH4" s="55"/>
+      <c r="BI4" s="55"/>
+      <c r="BJ4" s="55"/>
+      <c r="BK4" s="55"/>
+      <c r="BL4" s="55"/>
+      <c r="BM4" s="54">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="56"/>
-      <c r="BO4" s="56"/>
-      <c r="BP4" s="56"/>
-      <c r="BQ4" s="56"/>
-      <c r="BR4" s="56"/>
-      <c r="BS4" s="56"/>
-      <c r="BT4" s="55">
+      <c r="BN4" s="55"/>
+      <c r="BO4" s="55"/>
+      <c r="BP4" s="55"/>
+      <c r="BQ4" s="55"/>
+      <c r="BR4" s="55"/>
+      <c r="BS4" s="55"/>
+      <c r="BT4" s="54">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="56"/>
-      <c r="BV4" s="56"/>
-      <c r="BW4" s="56"/>
-      <c r="BX4" s="56"/>
-      <c r="BY4" s="56"/>
-      <c r="BZ4" s="56"/>
-      <c r="CA4" s="55">
+      <c r="BU4" s="55"/>
+      <c r="BV4" s="55"/>
+      <c r="BW4" s="55"/>
+      <c r="BX4" s="55"/>
+      <c r="BY4" s="55"/>
+      <c r="BZ4" s="55"/>
+      <c r="CA4" s="54">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="56"/>
-      <c r="CC4" s="56"/>
-      <c r="CD4" s="56"/>
-      <c r="CE4" s="56"/>
-      <c r="CF4" s="56"/>
-      <c r="CG4" s="56"/>
-      <c r="CH4" s="55">
+      <c r="CB4" s="55"/>
+      <c r="CC4" s="55"/>
+      <c r="CD4" s="55"/>
+      <c r="CE4" s="55"/>
+      <c r="CF4" s="55"/>
+      <c r="CG4" s="55"/>
+      <c r="CH4" s="54">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="56"/>
-      <c r="CJ4" s="56"/>
-      <c r="CK4" s="56"/>
-      <c r="CL4" s="56"/>
-      <c r="CM4" s="56"/>
-      <c r="CN4" s="56"/>
-      <c r="CO4" s="55">
+      <c r="CI4" s="55"/>
+      <c r="CJ4" s="55"/>
+      <c r="CK4" s="55"/>
+      <c r="CL4" s="55"/>
+      <c r="CM4" s="55"/>
+      <c r="CN4" s="55"/>
+      <c r="CO4" s="54">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="56"/>
-      <c r="CQ4" s="56"/>
-      <c r="CR4" s="56"/>
-      <c r="CS4" s="56"/>
-      <c r="CT4" s="56"/>
-      <c r="CU4" s="56"/>
-      <c r="CV4" s="55">
+      <c r="CP4" s="55"/>
+      <c r="CQ4" s="55"/>
+      <c r="CR4" s="55"/>
+      <c r="CS4" s="55"/>
+      <c r="CT4" s="55"/>
+      <c r="CU4" s="55"/>
+      <c r="CV4" s="54">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="56"/>
-      <c r="CX4" s="56"/>
-      <c r="CY4" s="56"/>
-      <c r="CZ4" s="56"/>
-      <c r="DA4" s="56"/>
-      <c r="DB4" s="56"/>
-      <c r="DC4" s="55">
+      <c r="CW4" s="55"/>
+      <c r="CX4" s="55"/>
+      <c r="CY4" s="55"/>
+      <c r="CZ4" s="55"/>
+      <c r="DA4" s="55"/>
+      <c r="DB4" s="55"/>
+      <c r="DC4" s="54">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="56"/>
-      <c r="DE4" s="56"/>
-      <c r="DF4" s="56"/>
-      <c r="DG4" s="56"/>
-      <c r="DH4" s="56"/>
-      <c r="DI4" s="56"/>
-      <c r="DJ4" s="55">
+      <c r="DD4" s="55"/>
+      <c r="DE4" s="55"/>
+      <c r="DF4" s="55"/>
+      <c r="DG4" s="55"/>
+      <c r="DH4" s="55"/>
+      <c r="DI4" s="55"/>
+      <c r="DJ4" s="54">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="56"/>
-      <c r="DL4" s="56"/>
-      <c r="DM4" s="56"/>
-      <c r="DN4" s="56"/>
-      <c r="DO4" s="56"/>
-      <c r="DP4" s="56"/>
-      <c r="DQ4" s="55">
+      <c r="DK4" s="55"/>
+      <c r="DL4" s="55"/>
+      <c r="DM4" s="55"/>
+      <c r="DN4" s="55"/>
+      <c r="DO4" s="55"/>
+      <c r="DP4" s="55"/>
+      <c r="DQ4" s="54">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="56"/>
-      <c r="DS4" s="56"/>
-      <c r="DT4" s="56"/>
-      <c r="DU4" s="56"/>
-      <c r="DV4" s="56"/>
-      <c r="DW4" s="56"/>
-      <c r="DX4" s="55">
+      <c r="DR4" s="55"/>
+      <c r="DS4" s="55"/>
+      <c r="DT4" s="55"/>
+      <c r="DU4" s="55"/>
+      <c r="DV4" s="55"/>
+      <c r="DW4" s="55"/>
+      <c r="DX4" s="54">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="56"/>
-      <c r="DZ4" s="56"/>
-      <c r="EA4" s="56"/>
-      <c r="EB4" s="56"/>
-      <c r="EC4" s="56"/>
-      <c r="ED4" s="56"/>
-      <c r="EE4" s="55">
+      <c r="DY4" s="55"/>
+      <c r="DZ4" s="55"/>
+      <c r="EA4" s="55"/>
+      <c r="EB4" s="55"/>
+      <c r="EC4" s="55"/>
+      <c r="ED4" s="55"/>
+      <c r="EE4" s="54">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="56"/>
-      <c r="EG4" s="56"/>
-      <c r="EH4" s="56"/>
-      <c r="EI4" s="56"/>
-      <c r="EJ4" s="56"/>
-      <c r="EK4" s="56"/>
-      <c r="EL4" s="55">
+      <c r="EF4" s="55"/>
+      <c r="EG4" s="55"/>
+      <c r="EH4" s="55"/>
+      <c r="EI4" s="55"/>
+      <c r="EJ4" s="55"/>
+      <c r="EK4" s="55"/>
+      <c r="EL4" s="54">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="56"/>
-      <c r="EN4" s="56"/>
-      <c r="EO4" s="56"/>
-      <c r="EP4" s="56"/>
-      <c r="EQ4" s="56"/>
-      <c r="ER4" s="56"/>
-      <c r="ES4" s="55">
+      <c r="EM4" s="55"/>
+      <c r="EN4" s="55"/>
+      <c r="EO4" s="55"/>
+      <c r="EP4" s="55"/>
+      <c r="EQ4" s="55"/>
+      <c r="ER4" s="55"/>
+      <c r="ES4" s="54">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="56"/>
-      <c r="EU4" s="56"/>
-      <c r="EV4" s="56"/>
-      <c r="EW4" s="56"/>
-      <c r="EX4" s="56"/>
-      <c r="EY4" s="56"/>
-      <c r="EZ4" s="55">
+      <c r="ET4" s="55"/>
+      <c r="EU4" s="55"/>
+      <c r="EV4" s="55"/>
+      <c r="EW4" s="55"/>
+      <c r="EX4" s="55"/>
+      <c r="EY4" s="55"/>
+      <c r="EZ4" s="54">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="56"/>
-      <c r="FB4" s="56"/>
-      <c r="FC4" s="56"/>
-      <c r="FD4" s="56"/>
-      <c r="FE4" s="56"/>
-      <c r="FF4" s="56"/>
-      <c r="FG4" s="55">
+      <c r="FA4" s="55"/>
+      <c r="FB4" s="55"/>
+      <c r="FC4" s="55"/>
+      <c r="FD4" s="55"/>
+      <c r="FE4" s="55"/>
+      <c r="FF4" s="55"/>
+      <c r="FG4" s="54">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="56"/>
-      <c r="FI4" s="56"/>
-      <c r="FJ4" s="56"/>
-      <c r="FK4" s="56"/>
-      <c r="FL4" s="56"/>
-      <c r="FM4" s="56"/>
-      <c r="FN4" s="55">
+      <c r="FH4" s="55"/>
+      <c r="FI4" s="55"/>
+      <c r="FJ4" s="55"/>
+      <c r="FK4" s="55"/>
+      <c r="FL4" s="55"/>
+      <c r="FM4" s="55"/>
+      <c r="FN4" s="54">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="56"/>
-      <c r="FP4" s="56"/>
-      <c r="FQ4" s="56"/>
-      <c r="FR4" s="56"/>
-      <c r="FS4" s="56"/>
-      <c r="FT4" s="56"/>
-      <c r="FU4" s="55">
+      <c r="FO4" s="55"/>
+      <c r="FP4" s="55"/>
+      <c r="FQ4" s="55"/>
+      <c r="FR4" s="55"/>
+      <c r="FS4" s="55"/>
+      <c r="FT4" s="55"/>
+      <c r="FU4" s="54">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="56"/>
-      <c r="FW4" s="56"/>
-      <c r="FX4" s="56"/>
-      <c r="FY4" s="56"/>
-      <c r="FZ4" s="56"/>
-      <c r="GA4" s="56"/>
-      <c r="GB4" s="55">
+      <c r="FV4" s="55"/>
+      <c r="FW4" s="55"/>
+      <c r="FX4" s="55"/>
+      <c r="FY4" s="55"/>
+      <c r="FZ4" s="55"/>
+      <c r="GA4" s="55"/>
+      <c r="GB4" s="54">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="56"/>
-      <c r="GD4" s="56"/>
-      <c r="GE4" s="56"/>
-      <c r="GF4" s="56"/>
-      <c r="GG4" s="56"/>
-      <c r="GH4" s="56"/>
-      <c r="GI4" s="55">
+      <c r="GC4" s="55"/>
+      <c r="GD4" s="55"/>
+      <c r="GE4" s="55"/>
+      <c r="GF4" s="55"/>
+      <c r="GG4" s="55"/>
+      <c r="GH4" s="55"/>
+      <c r="GI4" s="54">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="56"/>
-      <c r="GK4" s="56"/>
-      <c r="GL4" s="56"/>
-      <c r="GM4" s="56"/>
-      <c r="GN4" s="56"/>
-      <c r="GO4" s="56"/>
-      <c r="GP4" s="55">
+      <c r="GJ4" s="55"/>
+      <c r="GK4" s="55"/>
+      <c r="GL4" s="55"/>
+      <c r="GM4" s="55"/>
+      <c r="GN4" s="55"/>
+      <c r="GO4" s="55"/>
+      <c r="GP4" s="54">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="56"/>
-      <c r="GR4" s="56"/>
-      <c r="GS4" s="56"/>
-      <c r="GT4" s="56"/>
-      <c r="GU4" s="56"/>
-      <c r="GV4" s="56"/>
-      <c r="GW4" s="55">
+      <c r="GQ4" s="55"/>
+      <c r="GR4" s="55"/>
+      <c r="GS4" s="55"/>
+      <c r="GT4" s="55"/>
+      <c r="GU4" s="55"/>
+      <c r="GV4" s="55"/>
+      <c r="GW4" s="54">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="56"/>
-      <c r="GY4" s="56"/>
-      <c r="GZ4" s="56"/>
-      <c r="HA4" s="56"/>
-      <c r="HB4" s="56"/>
-      <c r="HC4" s="56"/>
-      <c r="HD4" s="55">
+      <c r="GX4" s="55"/>
+      <c r="GY4" s="55"/>
+      <c r="GZ4" s="55"/>
+      <c r="HA4" s="55"/>
+      <c r="HB4" s="55"/>
+      <c r="HC4" s="55"/>
+      <c r="HD4" s="54">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="56"/>
-      <c r="HF4" s="56"/>
-      <c r="HG4" s="56"/>
-      <c r="HH4" s="56"/>
-      <c r="HI4" s="56"/>
-      <c r="HJ4" s="56"/>
-      <c r="HK4" s="55">
+      <c r="HE4" s="55"/>
+      <c r="HF4" s="55"/>
+      <c r="HG4" s="55"/>
+      <c r="HH4" s="55"/>
+      <c r="HI4" s="55"/>
+      <c r="HJ4" s="55"/>
+      <c r="HK4" s="54">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="56"/>
-      <c r="HM4" s="56"/>
-      <c r="HN4" s="56"/>
-      <c r="HO4" s="56"/>
-      <c r="HP4" s="56"/>
-      <c r="HQ4" s="56"/>
-      <c r="HR4" s="55">
+      <c r="HL4" s="55"/>
+      <c r="HM4" s="55"/>
+      <c r="HN4" s="55"/>
+      <c r="HO4" s="55"/>
+      <c r="HP4" s="55"/>
+      <c r="HQ4" s="55"/>
+      <c r="HR4" s="54">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="56"/>
-      <c r="HT4" s="56"/>
-      <c r="HU4" s="56"/>
-      <c r="HV4" s="56"/>
-      <c r="HW4" s="56"/>
-      <c r="HX4" s="56"/>
-      <c r="HY4" s="55">
+      <c r="HS4" s="55"/>
+      <c r="HT4" s="55"/>
+      <c r="HU4" s="55"/>
+      <c r="HV4" s="55"/>
+      <c r="HW4" s="55"/>
+      <c r="HX4" s="55"/>
+      <c r="HY4" s="54">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="56"/>
-      <c r="IA4" s="56"/>
-      <c r="IB4" s="56"/>
-      <c r="IC4" s="56"/>
-      <c r="ID4" s="56"/>
-      <c r="IE4" s="56"/>
-      <c r="IF4" s="55">
+      <c r="HZ4" s="55"/>
+      <c r="IA4" s="55"/>
+      <c r="IB4" s="55"/>
+      <c r="IC4" s="55"/>
+      <c r="ID4" s="55"/>
+      <c r="IE4" s="55"/>
+      <c r="IF4" s="54">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="56"/>
-      <c r="IH4" s="56"/>
-      <c r="II4" s="56"/>
-      <c r="IJ4" s="56"/>
-      <c r="IK4" s="56"/>
-      <c r="IL4" s="56"/>
-      <c r="IM4" s="55">
+      <c r="IG4" s="55"/>
+      <c r="IH4" s="55"/>
+      <c r="II4" s="55"/>
+      <c r="IJ4" s="55"/>
+      <c r="IK4" s="55"/>
+      <c r="IL4" s="55"/>
+      <c r="IM4" s="54">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="56"/>
-      <c r="IO4" s="56"/>
-      <c r="IP4" s="56"/>
-      <c r="IQ4" s="56"/>
-      <c r="IR4" s="56"/>
-      <c r="IS4" s="56"/>
-      <c r="IT4" s="55">
+      <c r="IN4" s="55"/>
+      <c r="IO4" s="55"/>
+      <c r="IP4" s="55"/>
+      <c r="IQ4" s="55"/>
+      <c r="IR4" s="55"/>
+      <c r="IS4" s="55"/>
+      <c r="IT4" s="54">
         <f>IT5</f>
         <v>45565</v>
       </c>
-      <c r="IU4" s="56"/>
-      <c r="IV4" s="56"/>
-      <c r="IW4" s="56"/>
-      <c r="IX4" s="56"/>
-      <c r="IY4" s="56"/>
-      <c r="IZ4" s="56"/>
-      <c r="JA4" s="55">
+      <c r="IU4" s="55"/>
+      <c r="IV4" s="55"/>
+      <c r="IW4" s="55"/>
+      <c r="IX4" s="55"/>
+      <c r="IY4" s="55"/>
+      <c r="IZ4" s="55"/>
+      <c r="JA4" s="54">
         <f>JA5</f>
         <v>45572</v>
       </c>
-      <c r="JB4" s="56"/>
-      <c r="JC4" s="56"/>
-      <c r="JD4" s="56"/>
-      <c r="JE4" s="56"/>
-      <c r="JF4" s="56"/>
-      <c r="JG4" s="56"/>
-      <c r="JH4" s="55">
+      <c r="JB4" s="55"/>
+      <c r="JC4" s="55"/>
+      <c r="JD4" s="55"/>
+      <c r="JE4" s="55"/>
+      <c r="JF4" s="55"/>
+      <c r="JG4" s="55"/>
+      <c r="JH4" s="54">
         <f>JH5</f>
         <v>45579</v>
       </c>
-      <c r="JI4" s="56"/>
-      <c r="JJ4" s="56"/>
-      <c r="JK4" s="56"/>
-      <c r="JL4" s="56"/>
-      <c r="JM4" s="56"/>
-      <c r="JN4" s="56"/>
+      <c r="JI4" s="55"/>
+      <c r="JJ4" s="55"/>
+      <c r="JK4" s="55"/>
+      <c r="JL4" s="55"/>
+      <c r="JM4" s="55"/>
+      <c r="JN4" s="55"/>
     </row>
     <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -5225,10 +5228,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="57"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -5508,10 +5511,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="54"/>
+      <c r="C9" s="53"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -5799,10 +5802,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="54" t="s">
+      <c r="B10" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="54"/>
+      <c r="C10" s="53"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -6090,10 +6093,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="54" t="s">
+      <c r="B11" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="54"/>
+      <c r="C11" s="53"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -6378,10 +6381,10 @@
     </row>
     <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="57"/>
+      <c r="C12" s="56"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -6665,10 +6668,10 @@
     </row>
     <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="57" t="s">
+      <c r="B13" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="57"/>
+      <c r="C13" s="56"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -6952,10 +6955,10 @@
     </row>
     <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="57" t="s">
+      <c r="B14" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="57"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -7518,10 +7521,10 @@
     </row>
     <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="51" t="s">
+      <c r="B16" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="51"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -7805,10 +7808,10 @@
     </row>
     <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="51"/>
+      <c r="C17" s="49"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8089,10 +8092,10 @@
     </row>
     <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="51"/>
+      <c r="C18" s="49"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8373,10 +8376,10 @@
     </row>
     <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="51" t="s">
+      <c r="B19" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="C19" s="51"/>
+      <c r="C19" s="49"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -8660,10 +8663,10 @@
     </row>
     <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="51"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -8947,10 +8950,10 @@
     </row>
     <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="51" t="s">
+      <c r="B21" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="51"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9231,10 +9234,10 @@
     </row>
     <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="51"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -9515,10 +9518,10 @@
     </row>
     <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="51" t="s">
+      <c r="B23" s="49" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="51"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -14083,10 +14086,10 @@
     </row>
     <row r="39" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="49" t="s">
+      <c r="B39" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="49"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="47">
         <v>1</v>
       </c>
@@ -14369,10 +14372,10 @@
     </row>
     <row r="40" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="49" t="s">
+      <c r="B40" s="62" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="49"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="47">
         <v>1</v>
       </c>
@@ -14653,10 +14656,10 @@
     </row>
     <row r="41" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="49" t="s">
+      <c r="B41" s="62" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="49"/>
+      <c r="C41" s="62"/>
       <c r="D41" s="47">
         <v>1</v>
       </c>
@@ -14937,10 +14940,10 @@
     </row>
     <row r="42" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="49" t="s">
+      <c r="B42" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="C42" s="49"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="47">
         <v>1</v>
       </c>
@@ -15221,10 +15224,10 @@
     </row>
     <row r="43" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="49" t="s">
+      <c r="B43" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="C43" s="49"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="47">
         <v>1</v>
       </c>
@@ -15505,10 +15508,10 @@
     </row>
     <row r="44" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="49" t="s">
+      <c r="B44" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="C44" s="49"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="47">
         <v>1</v>
       </c>
@@ -15789,10 +15792,10 @@
     </row>
     <row r="45" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="49" t="s">
+      <c r="B45" s="62" t="s">
         <v>59</v>
       </c>
-      <c r="C45" s="49"/>
+      <c r="C45" s="62"/>
       <c r="D45" s="47">
         <v>1</v>
       </c>
@@ -16075,10 +16078,10 @@
     </row>
     <row r="46" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="62" t="s">
         <v>58</v>
       </c>
-      <c r="C46" s="49"/>
+      <c r="C46" s="62"/>
       <c r="D46" s="47">
         <v>1</v>
       </c>
@@ -16359,10 +16362,10 @@
     </row>
     <row r="47" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="49" t="s">
+      <c r="B47" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="C47" s="49"/>
+      <c r="C47" s="62"/>
       <c r="D47" s="47">
         <v>1</v>
       </c>
@@ -16643,10 +16646,10 @@
     </row>
     <row r="48" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="49" t="s">
+      <c r="B48" s="62" t="s">
         <v>29</v>
       </c>
-      <c r="C48" s="49"/>
+      <c r="C48" s="62"/>
       <c r="D48" s="47">
         <v>1</v>
       </c>
@@ -16927,10 +16930,10 @@
     </row>
     <row r="49" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="49" t="s">
+      <c r="B49" s="62" t="s">
         <v>61</v>
       </c>
-      <c r="C49" s="49"/>
+      <c r="C49" s="62"/>
       <c r="D49" s="47">
         <v>1</v>
       </c>
@@ -17211,10 +17214,10 @@
     </row>
     <row r="50" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="49" t="s">
+      <c r="B50" s="62" t="s">
         <v>62</v>
       </c>
-      <c r="C50" s="49"/>
+      <c r="C50" s="62"/>
       <c r="D50" s="47">
         <v>1</v>
       </c>
@@ -17495,23 +17498,21 @@
     </row>
     <row r="51" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="49" t="s">
+      <c r="B51" s="62" t="s">
         <v>63</v>
       </c>
-      <c r="C51" s="49"/>
+      <c r="C51" s="62"/>
       <c r="D51" s="47">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E51" s="48">
         <v>45621</v>
       </c>
       <c r="F51" s="48">
-        <v>45625</v>
+        <v>45627</v>
       </c>
       <c r="G51" s="28"/>
-      <c r="H51" s="28">
-        <v>87</v>
-      </c>
+      <c r="H51" s="28"/>
       <c r="I51" s="23"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
@@ -17728,42 +17729,42 @@
       <c r="HN51" s="23"/>
       <c r="HO51" s="23"/>
       <c r="HP51" s="23"/>
-      <c r="HQ51" s="23"/>
+      <c r="HQ51" s="24"/>
       <c r="HR51" s="23"/>
       <c r="HS51" s="23"/>
       <c r="HT51" s="23"/>
       <c r="HU51" s="23"/>
       <c r="HV51" s="23"/>
       <c r="HW51" s="23"/>
-      <c r="HX51" s="23"/>
+      <c r="HX51" s="24"/>
       <c r="HY51" s="23"/>
       <c r="HZ51" s="23"/>
       <c r="IA51" s="23"/>
       <c r="IB51" s="23"/>
       <c r="IC51" s="23"/>
       <c r="ID51" s="23"/>
-      <c r="IE51" s="23"/>
+      <c r="IE51" s="24"/>
       <c r="IF51" s="23"/>
       <c r="IG51" s="23"/>
       <c r="IH51" s="23"/>
       <c r="II51" s="23"/>
       <c r="IJ51" s="23"/>
       <c r="IK51" s="23"/>
-      <c r="IL51" s="23"/>
+      <c r="IL51" s="24"/>
       <c r="IM51" s="23"/>
       <c r="IN51" s="23"/>
       <c r="IO51" s="23"/>
       <c r="IP51" s="23"/>
       <c r="IQ51" s="23"/>
       <c r="IR51" s="23"/>
-      <c r="IS51" s="23"/>
+      <c r="IS51" s="24"/>
       <c r="IT51" s="23"/>
       <c r="IU51" s="23"/>
       <c r="IV51" s="23"/>
       <c r="IW51" s="23"/>
       <c r="IX51" s="23"/>
-      <c r="IY51" s="23"/>
-      <c r="IZ51" s="23"/>
+      <c r="IY51" s="24"/>
+      <c r="IZ51" s="24"/>
       <c r="JA51" s="23"/>
       <c r="JB51" s="23"/>
       <c r="JC51" s="23"/>
@@ -17779,13 +17780,299 @@
       <c r="JM51" s="23"/>
       <c r="JN51" s="24"/>
     </row>
-    <row r="52" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="68"/>
-      <c r="C52" s="68"/>
+    <row r="52" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7"/>
+      <c r="B52" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C52" s="62"/>
+      <c r="D52" s="47">
+        <v>0.8</v>
+      </c>
+      <c r="E52" s="48">
+        <v>45621</v>
+      </c>
+      <c r="F52" s="48">
+        <v>45629</v>
+      </c>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28">
+        <v>87</v>
+      </c>
+      <c r="I52" s="23"/>
+      <c r="J52" s="23"/>
+      <c r="K52" s="23"/>
+      <c r="L52" s="23"/>
+      <c r="M52" s="23"/>
+      <c r="N52" s="23"/>
+      <c r="O52" s="23"/>
+      <c r="P52" s="23"/>
+      <c r="Q52" s="23"/>
+      <c r="R52" s="23"/>
+      <c r="S52" s="23"/>
+      <c r="T52" s="23"/>
+      <c r="U52" s="23"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
+      <c r="X52" s="23"/>
+      <c r="Y52" s="23"/>
+      <c r="Z52" s="23"/>
+      <c r="AA52" s="23"/>
+      <c r="AB52" s="23"/>
+      <c r="AC52" s="23"/>
+      <c r="AD52" s="23"/>
+      <c r="AE52" s="23"/>
+      <c r="AF52" s="23"/>
+      <c r="AG52" s="23"/>
+      <c r="AH52" s="23"/>
+      <c r="AI52" s="23"/>
+      <c r="AJ52" s="23"/>
+      <c r="AK52" s="23"/>
+      <c r="AL52" s="23"/>
+      <c r="AM52" s="23"/>
+      <c r="AN52" s="23"/>
+      <c r="AO52" s="23"/>
+      <c r="AP52" s="23"/>
+      <c r="AQ52" s="24"/>
+      <c r="AR52" s="23"/>
+      <c r="AS52" s="23"/>
+      <c r="AT52" s="23"/>
+      <c r="AU52" s="23"/>
+      <c r="AV52" s="23"/>
+      <c r="AW52" s="23"/>
+      <c r="AX52" s="24"/>
+      <c r="AY52" s="23"/>
+      <c r="AZ52" s="23"/>
+      <c r="BA52" s="23"/>
+      <c r="BB52" s="23"/>
+      <c r="BC52" s="23"/>
+      <c r="BD52" s="23"/>
+      <c r="BE52" s="24"/>
+      <c r="BF52" s="23"/>
+      <c r="BG52" s="23"/>
+      <c r="BH52" s="23"/>
+      <c r="BI52" s="23"/>
+      <c r="BJ52" s="23"/>
+      <c r="BK52" s="23"/>
+      <c r="BL52" s="24"/>
+      <c r="BM52" s="23"/>
+      <c r="BN52" s="23"/>
+      <c r="BO52" s="23"/>
+      <c r="BP52" s="23"/>
+      <c r="BQ52" s="23"/>
+      <c r="BR52" s="23"/>
+      <c r="BS52" s="24"/>
+      <c r="BT52" s="23"/>
+      <c r="BU52" s="23"/>
+      <c r="BV52" s="23"/>
+      <c r="BW52" s="23"/>
+      <c r="BX52" s="23"/>
+      <c r="BY52" s="23"/>
+      <c r="BZ52" s="24"/>
+      <c r="CA52" s="23"/>
+      <c r="CB52" s="23"/>
+      <c r="CC52" s="23"/>
+      <c r="CD52" s="23"/>
+      <c r="CE52" s="23"/>
+      <c r="CF52" s="23"/>
+      <c r="CG52" s="24"/>
+      <c r="CH52" s="23"/>
+      <c r="CI52" s="23"/>
+      <c r="CJ52" s="23"/>
+      <c r="CK52" s="23"/>
+      <c r="CL52" s="23"/>
+      <c r="CM52" s="23"/>
+      <c r="CN52" s="24"/>
+      <c r="CO52" s="23"/>
+      <c r="CP52" s="23"/>
+      <c r="CQ52" s="23"/>
+      <c r="CR52" s="23"/>
+      <c r="CS52" s="23"/>
+      <c r="CT52" s="23"/>
+      <c r="CU52" s="24"/>
+      <c r="CV52" s="23"/>
+      <c r="CW52" s="23"/>
+      <c r="CX52" s="23"/>
+      <c r="CY52" s="23"/>
+      <c r="CZ52" s="23"/>
+      <c r="DA52" s="23"/>
+      <c r="DB52" s="24"/>
+      <c r="DC52" s="23"/>
+      <c r="DD52" s="23"/>
+      <c r="DE52" s="23"/>
+      <c r="DF52" s="23"/>
+      <c r="DG52" s="23"/>
+      <c r="DH52" s="23"/>
+      <c r="DI52" s="24"/>
+      <c r="DJ52" s="23"/>
+      <c r="DK52" s="23"/>
+      <c r="DL52" s="23"/>
+      <c r="DM52" s="23"/>
+      <c r="DN52" s="23"/>
+      <c r="DO52" s="23"/>
+      <c r="DP52" s="24"/>
+      <c r="DQ52" s="23"/>
+      <c r="DR52" s="23"/>
+      <c r="DS52" s="23"/>
+      <c r="DT52" s="23"/>
+      <c r="DU52" s="23"/>
+      <c r="DV52" s="23"/>
+      <c r="DW52" s="24"/>
+      <c r="DX52" s="23"/>
+      <c r="DY52" s="23"/>
+      <c r="DZ52" s="23"/>
+      <c r="EA52" s="23"/>
+      <c r="EB52" s="23"/>
+      <c r="EC52" s="23"/>
+      <c r="ED52" s="24"/>
+      <c r="EE52" s="23"/>
+      <c r="EF52" s="23"/>
+      <c r="EG52" s="23"/>
+      <c r="EH52" s="23"/>
+      <c r="EI52" s="23"/>
+      <c r="EJ52" s="23"/>
+      <c r="EK52" s="24"/>
+      <c r="EL52" s="23"/>
+      <c r="EM52" s="23"/>
+      <c r="EN52" s="23"/>
+      <c r="EO52" s="23"/>
+      <c r="EP52" s="23"/>
+      <c r="EQ52" s="23"/>
+      <c r="ER52" s="24"/>
+      <c r="ES52" s="23"/>
+      <c r="ET52" s="23"/>
+      <c r="EU52" s="23"/>
+      <c r="EV52" s="23"/>
+      <c r="EW52" s="23"/>
+      <c r="EX52" s="23"/>
+      <c r="EY52" s="24"/>
+      <c r="EZ52" s="23"/>
+      <c r="FA52" s="23"/>
+      <c r="FB52" s="23"/>
+      <c r="FC52" s="23"/>
+      <c r="FD52" s="23"/>
+      <c r="FE52" s="23"/>
+      <c r="FF52" s="24"/>
+      <c r="FG52" s="23"/>
+      <c r="FH52" s="23"/>
+      <c r="FI52" s="23"/>
+      <c r="FJ52" s="23"/>
+      <c r="FK52" s="23"/>
+      <c r="FL52" s="23"/>
+      <c r="FM52" s="24"/>
+      <c r="FN52" s="23"/>
+      <c r="FO52" s="23"/>
+      <c r="FP52" s="23"/>
+      <c r="FQ52" s="23"/>
+      <c r="FR52" s="23"/>
+      <c r="FS52" s="23"/>
+      <c r="FT52" s="24"/>
+      <c r="FU52" s="23"/>
+      <c r="FV52" s="23"/>
+      <c r="FW52" s="23"/>
+      <c r="FX52" s="23"/>
+      <c r="FY52" s="23"/>
+      <c r="FZ52" s="23"/>
+      <c r="GA52" s="24"/>
+      <c r="GB52" s="23"/>
+      <c r="GC52" s="23"/>
+      <c r="GD52" s="23"/>
+      <c r="GE52" s="23"/>
+      <c r="GF52" s="23"/>
+      <c r="GG52" s="23"/>
+      <c r="GH52" s="24"/>
+      <c r="GI52" s="23"/>
+      <c r="GJ52" s="23"/>
+      <c r="GK52" s="23"/>
+      <c r="GL52" s="23"/>
+      <c r="GM52" s="23"/>
+      <c r="GN52" s="23"/>
+      <c r="GO52" s="24"/>
+      <c r="GP52" s="23"/>
+      <c r="GQ52" s="23"/>
+      <c r="GR52" s="23"/>
+      <c r="GS52" s="23"/>
+      <c r="GT52" s="23"/>
+      <c r="GU52" s="23"/>
+      <c r="GV52" s="24"/>
+      <c r="GW52" s="23"/>
+      <c r="GX52" s="23"/>
+      <c r="GY52" s="23"/>
+      <c r="GZ52" s="23"/>
+      <c r="HA52" s="23"/>
+      <c r="HB52" s="23"/>
+      <c r="HC52" s="24"/>
+      <c r="HD52" s="23"/>
+      <c r="HE52" s="23"/>
+      <c r="HF52" s="23"/>
+      <c r="HG52" s="23"/>
+      <c r="HH52" s="23"/>
+      <c r="HI52" s="23"/>
+      <c r="HJ52" s="24"/>
+      <c r="HK52" s="23"/>
+      <c r="HL52" s="23"/>
+      <c r="HM52" s="23"/>
+      <c r="HN52" s="23"/>
+      <c r="HO52" s="23"/>
+      <c r="HP52" s="23"/>
+      <c r="HQ52" s="23"/>
+      <c r="HR52" s="23"/>
+      <c r="HS52" s="23"/>
+      <c r="HT52" s="23"/>
+      <c r="HU52" s="23"/>
+      <c r="HV52" s="23"/>
+      <c r="HW52" s="23"/>
+      <c r="HX52" s="23"/>
+      <c r="HY52" s="23"/>
+      <c r="HZ52" s="23"/>
+      <c r="IA52" s="23"/>
+      <c r="IB52" s="23"/>
+      <c r="IC52" s="23"/>
+      <c r="ID52" s="23"/>
+      <c r="IE52" s="23"/>
+      <c r="IF52" s="23"/>
+      <c r="IG52" s="23"/>
+      <c r="IH52" s="23"/>
+      <c r="II52" s="23"/>
+      <c r="IJ52" s="23"/>
+      <c r="IK52" s="23"/>
+      <c r="IL52" s="23"/>
+      <c r="IM52" s="23"/>
+      <c r="IN52" s="23"/>
+      <c r="IO52" s="23"/>
+      <c r="IP52" s="23"/>
+      <c r="IQ52" s="23"/>
+      <c r="IR52" s="23"/>
+      <c r="IS52" s="23"/>
+      <c r="IT52" s="23"/>
+      <c r="IU52" s="23"/>
+      <c r="IV52" s="23"/>
+      <c r="IW52" s="23"/>
+      <c r="IX52" s="23"/>
+      <c r="IY52" s="23"/>
+      <c r="IZ52" s="23"/>
+      <c r="JA52" s="23"/>
+      <c r="JB52" s="23"/>
+      <c r="JC52" s="23"/>
+      <c r="JD52" s="23"/>
+      <c r="JE52" s="23"/>
+      <c r="JF52" s="23"/>
+      <c r="JG52" s="24"/>
+      <c r="JH52" s="23"/>
+      <c r="JI52" s="23"/>
+      <c r="JJ52" s="23"/>
+      <c r="JK52" s="23"/>
+      <c r="JL52" s="23"/>
+      <c r="JM52" s="23"/>
+      <c r="JN52" s="24"/>
+    </row>
+    <row r="53" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="68"/>
+      <c r="C53" s="68"/>
     </row>
   </sheetData>
-  <mergeCells count="88">
-    <mergeCell ref="B52:C52"/>
+  <mergeCells count="89">
+    <mergeCell ref="B53:C53"/>
     <mergeCell ref="B50:C50"/>
     <mergeCell ref="HR4:HX4"/>
     <mergeCell ref="BT4:BZ4"/>
@@ -17793,12 +18080,6 @@
     <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="IT4:IZ4"/>
-    <mergeCell ref="JA4:JG4"/>
-    <mergeCell ref="JH4:JN4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
     <mergeCell ref="GP4:GV4"/>
     <mergeCell ref="GW4:HC4"/>
     <mergeCell ref="HD4:HJ4"/>
@@ -17807,6 +18088,12 @@
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="BM4:BS4"/>
     <mergeCell ref="B19:C19"/>
+    <mergeCell ref="IT4:IZ4"/>
+    <mergeCell ref="JA4:JG4"/>
+    <mergeCell ref="JH4:JN4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
     <mergeCell ref="HK4:HQ4"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="B28:C28"/>
@@ -17837,7 +18124,9 @@
     <mergeCell ref="EL4:ER4"/>
     <mergeCell ref="ES4:EY4"/>
     <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B52:C52"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="B40:C40"/>
@@ -17845,6 +18134,9 @@
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="B11:C11"/>
@@ -17861,10 +18153,6 @@
     <mergeCell ref="AD4:AJ4"/>
     <mergeCell ref="I3:FM3"/>
     <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B32:C32"/>
@@ -17874,7 +18162,7 @@
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B29:C29"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D51">
+  <conditionalFormatting sqref="D7:D52">
     <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -17888,22 +18176,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:HJ50 HR7:IS50 JA7:JN50 I51:HK51 IP51:JN51 IT7:IZ45">
+  <conditionalFormatting sqref="I7:HJ51 HR7:IS51 JA7:JN51 I52:HK52 IP52:JN52 IT7:IZ45">
     <cfRule type="expression" dxfId="31" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI50 HR5:HW50 HY5:ID50 IF5:IK50 IM5:IR50 IT5:IY50 JH5:JM50 I5:DO51 DQ5:DV51 DX5:EC51 EE5:EJ51 EL5:EQ51 ES5:EX51 EZ5:FE51 FG5:FL51 FN5:FS51 FU5:FZ51 GB5:GG51 GI5:GN51 GP5:GU51 GW5:HB51 JA5:JF51">
+  <conditionalFormatting sqref="HD5:HI51 HR5:HW51 HY5:ID51 IF5:IK51 IM5:IR51 IT5:IY51 JH5:JM51 I5:DO52 DQ5:DV52 DX5:EC52 EE5:EJ52 EL5:EQ52 ES5:EX52 EZ5:FE52 FG5:FL52 FN5:FS52 FU5:FZ52 GB5:GG52 GI5:GN52 GP5:GU52 GW5:HB52 JA5:JF52">
     <cfRule type="expression" dxfId="30" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI50 HR7:HW50 HY7:ID50 IF7:IK50 IM7:IR50 IT7:IY50 JH7:JM50 I7:DO51 DQ7:DV51 DX7:EC51 EE7:EJ51 EL7:EQ51 ES7:EX51 EZ7:FE51 FG7:FL51 FN7:FS51 FU7:FZ51 GB7:GG51 GI7:GN51 GP7:GU51 GW7:HB51 JA7:JF51">
+  <conditionalFormatting sqref="HD7:HI51 HR7:HW51 HY7:ID51 IF7:IK51 IM7:IR51 IT7:IY51 JH7:JM51 I7:DO52 DQ7:DV52 DX7:EC52 EE7:EJ52 EL7:EQ52 ES7:EX52 EZ7:FE52 FG7:FL52 FN7:FS52 FU7:FZ52 GB7:GG52 GI7:GN52 GP7:GU52 GW7:HB52 JA7:JF52">
     <cfRule type="expression" dxfId="29" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD51:HI51">
+  <conditionalFormatting sqref="HD52:HI52">
     <cfRule type="expression" dxfId="28" priority="176" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
@@ -17921,7 +18209,7 @@
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK15:HP50">
+  <conditionalFormatting sqref="HK15:HP51">
     <cfRule type="expression" dxfId="24" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
@@ -17934,12 +18222,12 @@
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK15:HQ50">
+  <conditionalFormatting sqref="HK15:HQ51">
     <cfRule type="expression" dxfId="21" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK51:IZ51">
+  <conditionalFormatting sqref="HK52:IZ52">
     <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
@@ -17958,37 +18246,37 @@
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HL51:IO51">
+  <conditionalFormatting sqref="HL52:IO52">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ5:HQ50 HX5:HX50 DP5:DP51 DW5:DW51 ED5:ED51 EK5:EK51 ER5:ER51 EY5:EY51 FF5:FF51 JG5:JG51">
+  <conditionalFormatting sqref="HQ5:HQ51 HX5:HX51 DP5:DP52 DW5:DW52 ED5:ED52 EK5:EK52 ER5:ER52 EY5:EY52 FF5:FF52 JG5:JG52">
     <cfRule type="expression" dxfId="14" priority="492">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ7:HQ50 HX7:HX50 DP7:DP51 DW7:DW51 ED7:ED51 EK7:EK51 ER7:ER51 EY7:EY51 FF7:FF51 JG7:JG51">
+  <conditionalFormatting sqref="HQ7:HQ51 HX7:HX51 DP7:DP52 DW7:DW52 ED7:ED52 EK7:EK52 ER7:ER52 EY7:EY52 FF7:FF52 JG7:JG52">
     <cfRule type="expression" dxfId="13" priority="496" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IE7:IE50 IL7:IL50 GA7:GA51 GH7:GH51 GO7:GO51 GV7:GV51 HC7:HC51 IS7:IS51 HJ7:HJ51 JN7:JN51">
+  <conditionalFormatting sqref="IE7:IE51 IL7:IL51 GA7:GA52 GH7:GH52 GO7:GO52 GV7:GV52 HC7:HC52 IS7:IS52 HJ7:HJ52 JN7:JN52">
     <cfRule type="expression" dxfId="12" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS5:IS51 IE5:IE50 IL5:IL50 GA5:GA51 GH5:GH51 GO5:GO51 GV5:GV51 HC5:HC51">
+  <conditionalFormatting sqref="IS5:IS52 IE5:IE51 IL5:IL51 GA5:GA52 GH5:GH52 GO5:GO52 GV5:GV52 HC5:HC52">
     <cfRule type="expression" dxfId="11" priority="232">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IT46:IX50">
+  <conditionalFormatting sqref="IT46:IX51">
     <cfRule type="expression" dxfId="10" priority="178">
       <formula>AND(task_start&lt;=IT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IY46:IZ50">
+  <conditionalFormatting sqref="IY46:IZ51">
     <cfRule type="expression" dxfId="9" priority="504">
       <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
     </cfRule>
@@ -17999,12 +18287,12 @@
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM51 FT5:FT51 HJ5:HJ51 JN5:JN51">
+  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM52 FT5:FT52 HJ5:HJ52 JN5:JN52">
     <cfRule type="expression" dxfId="6" priority="182">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ46:IZ50">
+  <conditionalFormatting sqref="IZ46:IZ51">
     <cfRule type="expression" dxfId="5" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
     </cfRule>
@@ -18012,17 +18300,17 @@
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ51 IZ7:IZ45 FM7:FM51 FT7:FT51">
+  <conditionalFormatting sqref="IZ52 IZ7:IZ45 FM7:FM52 FT7:FT52">
     <cfRule type="expression" dxfId="3" priority="260" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ51">
+  <conditionalFormatting sqref="IZ52">
     <cfRule type="expression" dxfId="2" priority="259">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH51:JM51">
+  <conditionalFormatting sqref="JH52:JM52">
     <cfRule type="expression" dxfId="1" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
     </cfRule>
@@ -18057,7 +18345,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D51</xm:sqref>
+          <xm:sqref>D7:D52</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/Carta Gantt.xlsx
+++ b/Carta Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CEDDF2-C573-4A1A-B13B-D3026F619349}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0309CC1-C3FB-4836-8E2A-D683216E7212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="66">
   <si>
     <t>Cree una programación para un proyecto en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -159,16 +159,10 @@
     <t>Desarrollo y creación de modelos unimodales</t>
   </si>
   <si>
-    <t>Experimentar/optimizar con diferentes parametros</t>
-  </si>
-  <si>
     <t>Actualización de documentación</t>
   </si>
   <si>
     <t>Aplicación de transformaciones de los datos</t>
-  </si>
-  <si>
-    <t>Analisis de resultados en ambas modalidades</t>
   </si>
   <si>
     <t>Entrenamiento de modelo ensemble facial</t>
@@ -183,40 +177,13 @@
     <t>Análisis y actualización de Papers año 2024 en documentación</t>
   </si>
   <si>
-    <t>Experimentar/optimizar modelo facial con diferentes parametros</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replicación modelos facial de revisiones bibliograficas </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Replicación modelos de texto de revisiones bibliograficas </t>
-  </si>
-  <si>
     <t>División y creación de los conjuntos train, validation y test facial</t>
-  </si>
-  <si>
-    <t>División y creación de los conjuntos train, validation y test texto</t>
   </si>
   <si>
     <t>Preparación para la limpieza de datos de texto</t>
   </si>
   <si>
     <t>Creación de data augmentation textual</t>
-  </si>
-  <si>
-    <t>Aplicación de padding y obtención de tokens para modelos pre-entrenados</t>
-  </si>
-  <si>
-    <t>Creación de entrada para modelos pre-entrenados Bert and RoBERTa</t>
-  </si>
-  <si>
-    <t>Creación modelos pre-entrenados textuales</t>
-  </si>
-  <si>
-    <t>Busqueda y optimización de modelos textuales</t>
-  </si>
-  <si>
-    <t>Concadenar datasets textuales</t>
   </si>
   <si>
     <t>Balanceo de datos conjunto de entrenamiento facial</t>
@@ -229,9 +196,6 @@
   </si>
   <si>
     <t>Preprocesamiento de 2 datasets en la modalidad facial</t>
-  </si>
-  <si>
-    <t>Experimentación y ajustes de modelos con 2 datasets</t>
   </si>
   <si>
     <t>Análisis de resultados para 2 datasets facial</t>
@@ -261,13 +225,52 @@
     <t>Resumir documento</t>
   </si>
   <si>
-    <t>Traducir al ingles</t>
-  </si>
-  <si>
     <t>Revisión de documento en español</t>
   </si>
   <si>
-    <t>Revisión de documento en ingles</t>
+    <t>Transferencia a documento de publicación</t>
+  </si>
+  <si>
+    <t>Concatenar datasets textuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicación modelos facial de revisiones bibliográficas </t>
+  </si>
+  <si>
+    <t>Experimentar/optimizar modelo facial con diferentes parámetros</t>
+  </si>
+  <si>
+    <t>Experimentar/optimizar con diferentes parámetros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Replicación modelos de texto de revisiones bibliográficas </t>
+  </si>
+  <si>
+    <t>Búsqueda y optimización de modelos textuales</t>
+  </si>
+  <si>
+    <t>Análisis de resultados en ambas modalidades</t>
+  </si>
+  <si>
+    <t>Traducir al inglés</t>
+  </si>
+  <si>
+    <t>Revisión de documento en inglés</t>
+  </si>
+  <si>
+    <t>Aplicación de padding y obtención de tokens para modelos preentrenados</t>
+  </si>
+  <si>
+    <t>División y creación de los conjuntos train, validation y test, textuales</t>
+  </si>
+  <si>
+    <t>Creación de entrada para modelos preentrenados Bert y RoBERTa</t>
+  </si>
+  <si>
+    <t>Creación modelos preentrenados textuales</t>
+  </si>
+  <si>
+    <t>Experimentación y ajustes de modelos con 2 datasets (FER2013 + CK+48)</t>
   </si>
 </sst>
 </file>
@@ -1204,19 +1207,10 @@
     <xf numFmtId="166" fontId="23" fillId="44" borderId="2" xfId="10" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="169" fontId="23" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1225,8 +1219,38 @@
     <xf numFmtId="169" fontId="23" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="11" applyFont="1" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1">
+      <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1242,27 +1266,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="12" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="43" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2122,11 +2125,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:JN53"/>
+  <dimension ref="A1:JN54"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2213,573 +2216,573 @@
         <v>1</v>
       </c>
       <c r="B3" s="43"/>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="58">
+      <c r="D3" s="62"/>
+      <c r="E3" s="65">
         <v>45323</v>
       </c>
-      <c r="F3" s="58"/>
-      <c r="I3" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
-      <c r="AB3" s="61"/>
-      <c r="AC3" s="61"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="61"/>
-      <c r="AG3" s="61"/>
-      <c r="AH3" s="61"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="61"/>
-      <c r="AK3" s="61"/>
-      <c r="AL3" s="61"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="61"/>
-      <c r="AO3" s="61"/>
-      <c r="AP3" s="61"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="61"/>
-      <c r="AS3" s="61"/>
-      <c r="AT3" s="61"/>
-      <c r="AU3" s="61"/>
-      <c r="AV3" s="61"/>
-      <c r="AW3" s="61"/>
-      <c r="AX3" s="61"/>
-      <c r="AY3" s="61"/>
-      <c r="AZ3" s="61"/>
-      <c r="BA3" s="61"/>
-      <c r="BB3" s="61"/>
-      <c r="BC3" s="61"/>
-      <c r="BD3" s="61"/>
-      <c r="BE3" s="61"/>
-      <c r="BF3" s="61"/>
-      <c r="BG3" s="61"/>
-      <c r="BH3" s="61"/>
-      <c r="BI3" s="61"/>
-      <c r="BJ3" s="61"/>
-      <c r="BK3" s="61"/>
-      <c r="BL3" s="61"/>
-      <c r="BM3" s="61"/>
-      <c r="BN3" s="61"/>
-      <c r="BO3" s="61"/>
-      <c r="BP3" s="61"/>
-      <c r="BQ3" s="61"/>
-      <c r="BR3" s="61"/>
-      <c r="BS3" s="61"/>
-      <c r="BT3" s="61"/>
-      <c r="BU3" s="61"/>
-      <c r="BV3" s="61"/>
-      <c r="BW3" s="61"/>
-      <c r="BX3" s="61"/>
-      <c r="BY3" s="61"/>
-      <c r="BZ3" s="61"/>
-      <c r="CA3" s="61"/>
-      <c r="CB3" s="61"/>
-      <c r="CC3" s="61"/>
-      <c r="CD3" s="61"/>
-      <c r="CE3" s="61"/>
-      <c r="CF3" s="61"/>
-      <c r="CG3" s="61"/>
-      <c r="CH3" s="61"/>
-      <c r="CI3" s="61"/>
-      <c r="CJ3" s="61"/>
-      <c r="CK3" s="61"/>
-      <c r="CL3" s="61"/>
-      <c r="CM3" s="61"/>
-      <c r="CN3" s="61"/>
-      <c r="CO3" s="61"/>
-      <c r="CP3" s="61"/>
-      <c r="CQ3" s="61"/>
-      <c r="CR3" s="61"/>
-      <c r="CS3" s="61"/>
-      <c r="CT3" s="61"/>
-      <c r="CU3" s="61"/>
-      <c r="CV3" s="61"/>
-      <c r="CW3" s="61"/>
-      <c r="CX3" s="61"/>
-      <c r="CY3" s="61"/>
-      <c r="CZ3" s="61"/>
-      <c r="DA3" s="61"/>
-      <c r="DB3" s="61"/>
-      <c r="DC3" s="61"/>
-      <c r="DD3" s="61"/>
-      <c r="DE3" s="61"/>
-      <c r="DF3" s="61"/>
-      <c r="DG3" s="61"/>
-      <c r="DH3" s="61"/>
-      <c r="DI3" s="61"/>
-      <c r="DJ3" s="61"/>
-      <c r="DK3" s="61"/>
-      <c r="DL3" s="61"/>
-      <c r="DM3" s="61"/>
-      <c r="DN3" s="61"/>
-      <c r="DO3" s="61"/>
-      <c r="DP3" s="61"/>
-      <c r="DQ3" s="61"/>
-      <c r="DR3" s="61"/>
-      <c r="DS3" s="61"/>
-      <c r="DT3" s="61"/>
-      <c r="DU3" s="61"/>
-      <c r="DV3" s="61"/>
-      <c r="DW3" s="61"/>
-      <c r="DX3" s="61"/>
-      <c r="DY3" s="61"/>
-      <c r="DZ3" s="61"/>
-      <c r="EA3" s="61"/>
-      <c r="EB3" s="61"/>
-      <c r="EC3" s="61"/>
-      <c r="ED3" s="61"/>
-      <c r="EE3" s="61"/>
-      <c r="EF3" s="61"/>
-      <c r="EG3" s="61"/>
-      <c r="EH3" s="61"/>
-      <c r="EI3" s="61"/>
-      <c r="EJ3" s="61"/>
-      <c r="EK3" s="61"/>
-      <c r="EL3" s="61"/>
-      <c r="EM3" s="61"/>
-      <c r="EN3" s="61"/>
-      <c r="EO3" s="61"/>
-      <c r="EP3" s="61"/>
-      <c r="EQ3" s="61"/>
-      <c r="ER3" s="61"/>
-      <c r="ES3" s="61"/>
-      <c r="ET3" s="61"/>
-      <c r="EU3" s="61"/>
-      <c r="EV3" s="61"/>
-      <c r="EW3" s="61"/>
-      <c r="EX3" s="61"/>
-      <c r="EY3" s="61"/>
-      <c r="EZ3" s="61"/>
-      <c r="FA3" s="61"/>
-      <c r="FB3" s="61"/>
-      <c r="FC3" s="61"/>
-      <c r="FD3" s="61"/>
-      <c r="FE3" s="61"/>
-      <c r="FF3" s="61"/>
-      <c r="FG3" s="61"/>
-      <c r="FH3" s="61"/>
-      <c r="FI3" s="61"/>
-      <c r="FJ3" s="61"/>
-      <c r="FK3" s="61"/>
-      <c r="FL3" s="61"/>
-      <c r="FM3" s="61"/>
+      <c r="F3" s="65"/>
+      <c r="I3" s="67" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
+      <c r="AO3" s="68"/>
+      <c r="AP3" s="68"/>
+      <c r="AQ3" s="68"/>
+      <c r="AR3" s="68"/>
+      <c r="AS3" s="68"/>
+      <c r="AT3" s="68"/>
+      <c r="AU3" s="68"/>
+      <c r="AV3" s="68"/>
+      <c r="AW3" s="68"/>
+      <c r="AX3" s="68"/>
+      <c r="AY3" s="68"/>
+      <c r="AZ3" s="68"/>
+      <c r="BA3" s="68"/>
+      <c r="BB3" s="68"/>
+      <c r="BC3" s="68"/>
+      <c r="BD3" s="68"/>
+      <c r="BE3" s="68"/>
+      <c r="BF3" s="68"/>
+      <c r="BG3" s="68"/>
+      <c r="BH3" s="68"/>
+      <c r="BI3" s="68"/>
+      <c r="BJ3" s="68"/>
+      <c r="BK3" s="68"/>
+      <c r="BL3" s="68"/>
+      <c r="BM3" s="68"/>
+      <c r="BN3" s="68"/>
+      <c r="BO3" s="68"/>
+      <c r="BP3" s="68"/>
+      <c r="BQ3" s="68"/>
+      <c r="BR3" s="68"/>
+      <c r="BS3" s="68"/>
+      <c r="BT3" s="68"/>
+      <c r="BU3" s="68"/>
+      <c r="BV3" s="68"/>
+      <c r="BW3" s="68"/>
+      <c r="BX3" s="68"/>
+      <c r="BY3" s="68"/>
+      <c r="BZ3" s="68"/>
+      <c r="CA3" s="68"/>
+      <c r="CB3" s="68"/>
+      <c r="CC3" s="68"/>
+      <c r="CD3" s="68"/>
+      <c r="CE3" s="68"/>
+      <c r="CF3" s="68"/>
+      <c r="CG3" s="68"/>
+      <c r="CH3" s="68"/>
+      <c r="CI3" s="68"/>
+      <c r="CJ3" s="68"/>
+      <c r="CK3" s="68"/>
+      <c r="CL3" s="68"/>
+      <c r="CM3" s="68"/>
+      <c r="CN3" s="68"/>
+      <c r="CO3" s="68"/>
+      <c r="CP3" s="68"/>
+      <c r="CQ3" s="68"/>
+      <c r="CR3" s="68"/>
+      <c r="CS3" s="68"/>
+      <c r="CT3" s="68"/>
+      <c r="CU3" s="68"/>
+      <c r="CV3" s="68"/>
+      <c r="CW3" s="68"/>
+      <c r="CX3" s="68"/>
+      <c r="CY3" s="68"/>
+      <c r="CZ3" s="68"/>
+      <c r="DA3" s="68"/>
+      <c r="DB3" s="68"/>
+      <c r="DC3" s="68"/>
+      <c r="DD3" s="68"/>
+      <c r="DE3" s="68"/>
+      <c r="DF3" s="68"/>
+      <c r="DG3" s="68"/>
+      <c r="DH3" s="68"/>
+      <c r="DI3" s="68"/>
+      <c r="DJ3" s="68"/>
+      <c r="DK3" s="68"/>
+      <c r="DL3" s="68"/>
+      <c r="DM3" s="68"/>
+      <c r="DN3" s="68"/>
+      <c r="DO3" s="68"/>
+      <c r="DP3" s="68"/>
+      <c r="DQ3" s="68"/>
+      <c r="DR3" s="68"/>
+      <c r="DS3" s="68"/>
+      <c r="DT3" s="68"/>
+      <c r="DU3" s="68"/>
+      <c r="DV3" s="68"/>
+      <c r="DW3" s="68"/>
+      <c r="DX3" s="68"/>
+      <c r="DY3" s="68"/>
+      <c r="DZ3" s="68"/>
+      <c r="EA3" s="68"/>
+      <c r="EB3" s="68"/>
+      <c r="EC3" s="68"/>
+      <c r="ED3" s="68"/>
+      <c r="EE3" s="68"/>
+      <c r="EF3" s="68"/>
+      <c r="EG3" s="68"/>
+      <c r="EH3" s="68"/>
+      <c r="EI3" s="68"/>
+      <c r="EJ3" s="68"/>
+      <c r="EK3" s="68"/>
+      <c r="EL3" s="68"/>
+      <c r="EM3" s="68"/>
+      <c r="EN3" s="68"/>
+      <c r="EO3" s="68"/>
+      <c r="EP3" s="68"/>
+      <c r="EQ3" s="68"/>
+      <c r="ER3" s="68"/>
+      <c r="ES3" s="68"/>
+      <c r="ET3" s="68"/>
+      <c r="EU3" s="68"/>
+      <c r="EV3" s="68"/>
+      <c r="EW3" s="68"/>
+      <c r="EX3" s="68"/>
+      <c r="EY3" s="68"/>
+      <c r="EZ3" s="68"/>
+      <c r="FA3" s="68"/>
+      <c r="FB3" s="68"/>
+      <c r="FC3" s="68"/>
+      <c r="FD3" s="68"/>
+      <c r="FE3" s="68"/>
+      <c r="FF3" s="68"/>
+      <c r="FG3" s="68"/>
+      <c r="FH3" s="68"/>
+      <c r="FI3" s="68"/>
+      <c r="FJ3" s="68"/>
+      <c r="FK3" s="68"/>
+      <c r="FL3" s="68"/>
+      <c r="FM3" s="68"/>
     </row>
     <row r="4" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="42"/>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="63"/>
       <c r="E4" s="14">
         <v>1</v>
       </c>
       <c r="F4" s="13"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
-      <c r="I4" s="54">
+      <c r="I4" s="51">
         <f>I5</f>
         <v>45320</v>
       </c>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="55"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="54">
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="51">
         <f>P5</f>
         <v>45327</v>
       </c>
-      <c r="Q4" s="55"/>
-      <c r="R4" s="55"/>
-      <c r="S4" s="55"/>
-      <c r="T4" s="55"/>
-      <c r="U4" s="55"/>
-      <c r="V4" s="59"/>
-      <c r="W4" s="54">
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="51">
         <f>W5</f>
         <v>45334</v>
       </c>
-      <c r="X4" s="55"/>
-      <c r="Y4" s="55"/>
-      <c r="Z4" s="55"/>
-      <c r="AA4" s="55"/>
-      <c r="AB4" s="55"/>
-      <c r="AC4" s="59"/>
-      <c r="AD4" s="54">
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="52"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="51">
         <f>AD5</f>
         <v>45341</v>
       </c>
-      <c r="AE4" s="55"/>
-      <c r="AF4" s="55"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="55"/>
-      <c r="AI4" s="55"/>
-      <c r="AJ4" s="59"/>
-      <c r="AK4" s="54">
+      <c r="AE4" s="52"/>
+      <c r="AF4" s="52"/>
+      <c r="AG4" s="52"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="51">
         <f>AK5</f>
         <v>45348</v>
       </c>
-      <c r="AL4" s="55"/>
-      <c r="AM4" s="55"/>
-      <c r="AN4" s="55"/>
-      <c r="AO4" s="55"/>
-      <c r="AP4" s="55"/>
-      <c r="AQ4" s="55"/>
-      <c r="AR4" s="54">
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="51">
         <f>AR5</f>
         <v>45355</v>
       </c>
-      <c r="AS4" s="55"/>
-      <c r="AT4" s="55"/>
-      <c r="AU4" s="55"/>
-      <c r="AV4" s="55"/>
-      <c r="AW4" s="55"/>
-      <c r="AX4" s="55"/>
-      <c r="AY4" s="54">
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="52"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="51">
         <f>AY5</f>
         <v>45362</v>
       </c>
-      <c r="AZ4" s="55"/>
-      <c r="BA4" s="55"/>
-      <c r="BB4" s="55"/>
-      <c r="BC4" s="55"/>
-      <c r="BD4" s="55"/>
-      <c r="BE4" s="55"/>
-      <c r="BF4" s="54">
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="52"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="51">
         <f>BF5</f>
         <v>45369</v>
       </c>
-      <c r="BG4" s="55"/>
-      <c r="BH4" s="55"/>
-      <c r="BI4" s="55"/>
-      <c r="BJ4" s="55"/>
-      <c r="BK4" s="55"/>
-      <c r="BL4" s="55"/>
-      <c r="BM4" s="54">
+      <c r="BG4" s="52"/>
+      <c r="BH4" s="52"/>
+      <c r="BI4" s="52"/>
+      <c r="BJ4" s="52"/>
+      <c r="BK4" s="52"/>
+      <c r="BL4" s="52"/>
+      <c r="BM4" s="51">
         <f>BM5</f>
         <v>45376</v>
       </c>
-      <c r="BN4" s="55"/>
-      <c r="BO4" s="55"/>
-      <c r="BP4" s="55"/>
-      <c r="BQ4" s="55"/>
-      <c r="BR4" s="55"/>
-      <c r="BS4" s="55"/>
-      <c r="BT4" s="54">
+      <c r="BN4" s="52"/>
+      <c r="BO4" s="52"/>
+      <c r="BP4" s="52"/>
+      <c r="BQ4" s="52"/>
+      <c r="BR4" s="52"/>
+      <c r="BS4" s="52"/>
+      <c r="BT4" s="51">
         <f>BT5</f>
         <v>45383</v>
       </c>
-      <c r="BU4" s="55"/>
-      <c r="BV4" s="55"/>
-      <c r="BW4" s="55"/>
-      <c r="BX4" s="55"/>
-      <c r="BY4" s="55"/>
-      <c r="BZ4" s="55"/>
-      <c r="CA4" s="54">
+      <c r="BU4" s="52"/>
+      <c r="BV4" s="52"/>
+      <c r="BW4" s="52"/>
+      <c r="BX4" s="52"/>
+      <c r="BY4" s="52"/>
+      <c r="BZ4" s="52"/>
+      <c r="CA4" s="51">
         <f>CA5</f>
         <v>45390</v>
       </c>
-      <c r="CB4" s="55"/>
-      <c r="CC4" s="55"/>
-      <c r="CD4" s="55"/>
-      <c r="CE4" s="55"/>
-      <c r="CF4" s="55"/>
-      <c r="CG4" s="55"/>
-      <c r="CH4" s="54">
+      <c r="CB4" s="52"/>
+      <c r="CC4" s="52"/>
+      <c r="CD4" s="52"/>
+      <c r="CE4" s="52"/>
+      <c r="CF4" s="52"/>
+      <c r="CG4" s="52"/>
+      <c r="CH4" s="51">
         <f>CH5</f>
         <v>45397</v>
       </c>
-      <c r="CI4" s="55"/>
-      <c r="CJ4" s="55"/>
-      <c r="CK4" s="55"/>
-      <c r="CL4" s="55"/>
-      <c r="CM4" s="55"/>
-      <c r="CN4" s="55"/>
-      <c r="CO4" s="54">
+      <c r="CI4" s="52"/>
+      <c r="CJ4" s="52"/>
+      <c r="CK4" s="52"/>
+      <c r="CL4" s="52"/>
+      <c r="CM4" s="52"/>
+      <c r="CN4" s="52"/>
+      <c r="CO4" s="51">
         <f>CO5</f>
         <v>45404</v>
       </c>
-      <c r="CP4" s="55"/>
-      <c r="CQ4" s="55"/>
-      <c r="CR4" s="55"/>
-      <c r="CS4" s="55"/>
-      <c r="CT4" s="55"/>
-      <c r="CU4" s="55"/>
-      <c r="CV4" s="54">
+      <c r="CP4" s="52"/>
+      <c r="CQ4" s="52"/>
+      <c r="CR4" s="52"/>
+      <c r="CS4" s="52"/>
+      <c r="CT4" s="52"/>
+      <c r="CU4" s="52"/>
+      <c r="CV4" s="51">
         <f>CV5</f>
         <v>45411</v>
       </c>
-      <c r="CW4" s="55"/>
-      <c r="CX4" s="55"/>
-      <c r="CY4" s="55"/>
-      <c r="CZ4" s="55"/>
-      <c r="DA4" s="55"/>
-      <c r="DB4" s="55"/>
-      <c r="DC4" s="54">
+      <c r="CW4" s="52"/>
+      <c r="CX4" s="52"/>
+      <c r="CY4" s="52"/>
+      <c r="CZ4" s="52"/>
+      <c r="DA4" s="52"/>
+      <c r="DB4" s="52"/>
+      <c r="DC4" s="51">
         <f>DC5</f>
         <v>45418</v>
       </c>
-      <c r="DD4" s="55"/>
-      <c r="DE4" s="55"/>
-      <c r="DF4" s="55"/>
-      <c r="DG4" s="55"/>
-      <c r="DH4" s="55"/>
-      <c r="DI4" s="55"/>
-      <c r="DJ4" s="54">
+      <c r="DD4" s="52"/>
+      <c r="DE4" s="52"/>
+      <c r="DF4" s="52"/>
+      <c r="DG4" s="52"/>
+      <c r="DH4" s="52"/>
+      <c r="DI4" s="52"/>
+      <c r="DJ4" s="51">
         <f>DJ5</f>
         <v>45425</v>
       </c>
-      <c r="DK4" s="55"/>
-      <c r="DL4" s="55"/>
-      <c r="DM4" s="55"/>
-      <c r="DN4" s="55"/>
-      <c r="DO4" s="55"/>
-      <c r="DP4" s="55"/>
-      <c r="DQ4" s="54">
+      <c r="DK4" s="52"/>
+      <c r="DL4" s="52"/>
+      <c r="DM4" s="52"/>
+      <c r="DN4" s="52"/>
+      <c r="DO4" s="52"/>
+      <c r="DP4" s="52"/>
+      <c r="DQ4" s="51">
         <f>DQ5</f>
         <v>45432</v>
       </c>
-      <c r="DR4" s="55"/>
-      <c r="DS4" s="55"/>
-      <c r="DT4" s="55"/>
-      <c r="DU4" s="55"/>
-      <c r="DV4" s="55"/>
-      <c r="DW4" s="55"/>
-      <c r="DX4" s="54">
+      <c r="DR4" s="52"/>
+      <c r="DS4" s="52"/>
+      <c r="DT4" s="52"/>
+      <c r="DU4" s="52"/>
+      <c r="DV4" s="52"/>
+      <c r="DW4" s="52"/>
+      <c r="DX4" s="51">
         <f>DX5</f>
         <v>45439</v>
       </c>
-      <c r="DY4" s="55"/>
-      <c r="DZ4" s="55"/>
-      <c r="EA4" s="55"/>
-      <c r="EB4" s="55"/>
-      <c r="EC4" s="55"/>
-      <c r="ED4" s="55"/>
-      <c r="EE4" s="54">
+      <c r="DY4" s="52"/>
+      <c r="DZ4" s="52"/>
+      <c r="EA4" s="52"/>
+      <c r="EB4" s="52"/>
+      <c r="EC4" s="52"/>
+      <c r="ED4" s="52"/>
+      <c r="EE4" s="51">
         <f>EE5</f>
         <v>45446</v>
       </c>
-      <c r="EF4" s="55"/>
-      <c r="EG4" s="55"/>
-      <c r="EH4" s="55"/>
-      <c r="EI4" s="55"/>
-      <c r="EJ4" s="55"/>
-      <c r="EK4" s="55"/>
-      <c r="EL4" s="54">
+      <c r="EF4" s="52"/>
+      <c r="EG4" s="52"/>
+      <c r="EH4" s="52"/>
+      <c r="EI4" s="52"/>
+      <c r="EJ4" s="52"/>
+      <c r="EK4" s="52"/>
+      <c r="EL4" s="51">
         <f>EL5</f>
         <v>45453</v>
       </c>
-      <c r="EM4" s="55"/>
-      <c r="EN4" s="55"/>
-      <c r="EO4" s="55"/>
-      <c r="EP4" s="55"/>
-      <c r="EQ4" s="55"/>
-      <c r="ER4" s="55"/>
-      <c r="ES4" s="54">
+      <c r="EM4" s="52"/>
+      <c r="EN4" s="52"/>
+      <c r="EO4" s="52"/>
+      <c r="EP4" s="52"/>
+      <c r="EQ4" s="52"/>
+      <c r="ER4" s="52"/>
+      <c r="ES4" s="51">
         <f>ES5</f>
         <v>45460</v>
       </c>
-      <c r="ET4" s="55"/>
-      <c r="EU4" s="55"/>
-      <c r="EV4" s="55"/>
-      <c r="EW4" s="55"/>
-      <c r="EX4" s="55"/>
-      <c r="EY4" s="55"/>
-      <c r="EZ4" s="54">
+      <c r="ET4" s="52"/>
+      <c r="EU4" s="52"/>
+      <c r="EV4" s="52"/>
+      <c r="EW4" s="52"/>
+      <c r="EX4" s="52"/>
+      <c r="EY4" s="52"/>
+      <c r="EZ4" s="51">
         <f>EZ5</f>
         <v>45467</v>
       </c>
-      <c r="FA4" s="55"/>
-      <c r="FB4" s="55"/>
-      <c r="FC4" s="55"/>
-      <c r="FD4" s="55"/>
-      <c r="FE4" s="55"/>
-      <c r="FF4" s="55"/>
-      <c r="FG4" s="54">
+      <c r="FA4" s="52"/>
+      <c r="FB4" s="52"/>
+      <c r="FC4" s="52"/>
+      <c r="FD4" s="52"/>
+      <c r="FE4" s="52"/>
+      <c r="FF4" s="52"/>
+      <c r="FG4" s="51">
         <f>FG5</f>
         <v>45474</v>
       </c>
-      <c r="FH4" s="55"/>
-      <c r="FI4" s="55"/>
-      <c r="FJ4" s="55"/>
-      <c r="FK4" s="55"/>
-      <c r="FL4" s="55"/>
-      <c r="FM4" s="55"/>
-      <c r="FN4" s="54">
+      <c r="FH4" s="52"/>
+      <c r="FI4" s="52"/>
+      <c r="FJ4" s="52"/>
+      <c r="FK4" s="52"/>
+      <c r="FL4" s="52"/>
+      <c r="FM4" s="52"/>
+      <c r="FN4" s="51">
         <f>FN5</f>
         <v>45481</v>
       </c>
-      <c r="FO4" s="55"/>
-      <c r="FP4" s="55"/>
-      <c r="FQ4" s="55"/>
-      <c r="FR4" s="55"/>
-      <c r="FS4" s="55"/>
-      <c r="FT4" s="55"/>
-      <c r="FU4" s="54">
+      <c r="FO4" s="52"/>
+      <c r="FP4" s="52"/>
+      <c r="FQ4" s="52"/>
+      <c r="FR4" s="52"/>
+      <c r="FS4" s="52"/>
+      <c r="FT4" s="52"/>
+      <c r="FU4" s="51">
         <f>FU5</f>
         <v>45488</v>
       </c>
-      <c r="FV4" s="55"/>
-      <c r="FW4" s="55"/>
-      <c r="FX4" s="55"/>
-      <c r="FY4" s="55"/>
-      <c r="FZ4" s="55"/>
-      <c r="GA4" s="55"/>
-      <c r="GB4" s="54">
+      <c r="FV4" s="52"/>
+      <c r="FW4" s="52"/>
+      <c r="FX4" s="52"/>
+      <c r="FY4" s="52"/>
+      <c r="FZ4" s="52"/>
+      <c r="GA4" s="52"/>
+      <c r="GB4" s="51">
         <f>GB5</f>
         <v>45495</v>
       </c>
-      <c r="GC4" s="55"/>
-      <c r="GD4" s="55"/>
-      <c r="GE4" s="55"/>
-      <c r="GF4" s="55"/>
-      <c r="GG4" s="55"/>
-      <c r="GH4" s="55"/>
-      <c r="GI4" s="54">
+      <c r="GC4" s="52"/>
+      <c r="GD4" s="52"/>
+      <c r="GE4" s="52"/>
+      <c r="GF4" s="52"/>
+      <c r="GG4" s="52"/>
+      <c r="GH4" s="52"/>
+      <c r="GI4" s="51">
         <f>GI5</f>
         <v>45502</v>
       </c>
-      <c r="GJ4" s="55"/>
-      <c r="GK4" s="55"/>
-      <c r="GL4" s="55"/>
-      <c r="GM4" s="55"/>
-      <c r="GN4" s="55"/>
-      <c r="GO4" s="55"/>
-      <c r="GP4" s="54">
+      <c r="GJ4" s="52"/>
+      <c r="GK4" s="52"/>
+      <c r="GL4" s="52"/>
+      <c r="GM4" s="52"/>
+      <c r="GN4" s="52"/>
+      <c r="GO4" s="52"/>
+      <c r="GP4" s="51">
         <f>GP5</f>
         <v>45509</v>
       </c>
-      <c r="GQ4" s="55"/>
-      <c r="GR4" s="55"/>
-      <c r="GS4" s="55"/>
-      <c r="GT4" s="55"/>
-      <c r="GU4" s="55"/>
-      <c r="GV4" s="55"/>
-      <c r="GW4" s="54">
+      <c r="GQ4" s="52"/>
+      <c r="GR4" s="52"/>
+      <c r="GS4" s="52"/>
+      <c r="GT4" s="52"/>
+      <c r="GU4" s="52"/>
+      <c r="GV4" s="52"/>
+      <c r="GW4" s="51">
         <f>GW5</f>
         <v>45516</v>
       </c>
-      <c r="GX4" s="55"/>
-      <c r="GY4" s="55"/>
-      <c r="GZ4" s="55"/>
-      <c r="HA4" s="55"/>
-      <c r="HB4" s="55"/>
-      <c r="HC4" s="55"/>
-      <c r="HD4" s="54">
+      <c r="GX4" s="52"/>
+      <c r="GY4" s="52"/>
+      <c r="GZ4" s="52"/>
+      <c r="HA4" s="52"/>
+      <c r="HB4" s="52"/>
+      <c r="HC4" s="52"/>
+      <c r="HD4" s="51">
         <f>HD5</f>
         <v>45523</v>
       </c>
-      <c r="HE4" s="55"/>
-      <c r="HF4" s="55"/>
-      <c r="HG4" s="55"/>
-      <c r="HH4" s="55"/>
-      <c r="HI4" s="55"/>
-      <c r="HJ4" s="55"/>
-      <c r="HK4" s="54">
+      <c r="HE4" s="52"/>
+      <c r="HF4" s="52"/>
+      <c r="HG4" s="52"/>
+      <c r="HH4" s="52"/>
+      <c r="HI4" s="52"/>
+      <c r="HJ4" s="52"/>
+      <c r="HK4" s="51">
         <f>HK5</f>
         <v>45530</v>
       </c>
-      <c r="HL4" s="55"/>
-      <c r="HM4" s="55"/>
-      <c r="HN4" s="55"/>
-      <c r="HO4" s="55"/>
-      <c r="HP4" s="55"/>
-      <c r="HQ4" s="55"/>
-      <c r="HR4" s="54">
+      <c r="HL4" s="52"/>
+      <c r="HM4" s="52"/>
+      <c r="HN4" s="52"/>
+      <c r="HO4" s="52"/>
+      <c r="HP4" s="52"/>
+      <c r="HQ4" s="52"/>
+      <c r="HR4" s="51">
         <f>HR5</f>
         <v>45537</v>
       </c>
-      <c r="HS4" s="55"/>
-      <c r="HT4" s="55"/>
-      <c r="HU4" s="55"/>
-      <c r="HV4" s="55"/>
-      <c r="HW4" s="55"/>
-      <c r="HX4" s="55"/>
-      <c r="HY4" s="54">
+      <c r="HS4" s="52"/>
+      <c r="HT4" s="52"/>
+      <c r="HU4" s="52"/>
+      <c r="HV4" s="52"/>
+      <c r="HW4" s="52"/>
+      <c r="HX4" s="52"/>
+      <c r="HY4" s="51">
         <f>HY5</f>
         <v>45544</v>
       </c>
-      <c r="HZ4" s="55"/>
-      <c r="IA4" s="55"/>
-      <c r="IB4" s="55"/>
-      <c r="IC4" s="55"/>
-      <c r="ID4" s="55"/>
-      <c r="IE4" s="55"/>
-      <c r="IF4" s="54">
+      <c r="HZ4" s="52"/>
+      <c r="IA4" s="52"/>
+      <c r="IB4" s="52"/>
+      <c r="IC4" s="52"/>
+      <c r="ID4" s="52"/>
+      <c r="IE4" s="52"/>
+      <c r="IF4" s="51">
         <f>IF5</f>
         <v>45551</v>
       </c>
-      <c r="IG4" s="55"/>
-      <c r="IH4" s="55"/>
-      <c r="II4" s="55"/>
-      <c r="IJ4" s="55"/>
-      <c r="IK4" s="55"/>
-      <c r="IL4" s="55"/>
-      <c r="IM4" s="54">
+      <c r="IG4" s="52"/>
+      <c r="IH4" s="52"/>
+      <c r="II4" s="52"/>
+      <c r="IJ4" s="52"/>
+      <c r="IK4" s="52"/>
+      <c r="IL4" s="52"/>
+      <c r="IM4" s="51">
         <f>IM5</f>
         <v>45558</v>
       </c>
-      <c r="IN4" s="55"/>
-      <c r="IO4" s="55"/>
-      <c r="IP4" s="55"/>
-      <c r="IQ4" s="55"/>
-      <c r="IR4" s="55"/>
-      <c r="IS4" s="55"/>
-      <c r="IT4" s="54">
+      <c r="IN4" s="52"/>
+      <c r="IO4" s="52"/>
+      <c r="IP4" s="52"/>
+      <c r="IQ4" s="52"/>
+      <c r="IR4" s="52"/>
+      <c r="IS4" s="52"/>
+      <c r="IT4" s="51">
         <f>IT5</f>
         <v>45565</v>
       </c>
-      <c r="IU4" s="55"/>
-      <c r="IV4" s="55"/>
-      <c r="IW4" s="55"/>
-      <c r="IX4" s="55"/>
-      <c r="IY4" s="55"/>
-      <c r="IZ4" s="55"/>
-      <c r="JA4" s="54">
+      <c r="IU4" s="52"/>
+      <c r="IV4" s="52"/>
+      <c r="IW4" s="52"/>
+      <c r="IX4" s="52"/>
+      <c r="IY4" s="52"/>
+      <c r="IZ4" s="52"/>
+      <c r="JA4" s="51">
         <f>JA5</f>
         <v>45572</v>
       </c>
-      <c r="JB4" s="55"/>
-      <c r="JC4" s="55"/>
-      <c r="JD4" s="55"/>
-      <c r="JE4" s="55"/>
-      <c r="JF4" s="55"/>
-      <c r="JG4" s="55"/>
-      <c r="JH4" s="54">
+      <c r="JB4" s="52"/>
+      <c r="JC4" s="52"/>
+      <c r="JD4" s="52"/>
+      <c r="JE4" s="52"/>
+      <c r="JF4" s="52"/>
+      <c r="JG4" s="52"/>
+      <c r="JH4" s="51">
         <f>JH5</f>
         <v>45579</v>
       </c>
-      <c r="JI4" s="55"/>
-      <c r="JJ4" s="55"/>
-      <c r="JK4" s="55"/>
-      <c r="JL4" s="55"/>
-      <c r="JM4" s="55"/>
-      <c r="JN4" s="55"/>
+      <c r="JI4" s="52"/>
+      <c r="JJ4" s="52"/>
+      <c r="JK4" s="52"/>
+      <c r="JL4" s="52"/>
+      <c r="JM4" s="52"/>
+      <c r="JN4" s="52"/>
     </row>
     <row r="5" spans="1:274" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
@@ -3861,10 +3864,10 @@
       <c r="A6" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="67"/>
+      <c r="C6" s="57"/>
       <c r="D6" s="19" t="s">
         <v>8</v>
       </c>
@@ -5228,10 +5231,10 @@
       <c r="A8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="57"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="25"/>
       <c r="E8" s="26"/>
       <c r="F8" s="27"/>
@@ -5511,10 +5514,10 @@
       <c r="A9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="53"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="29">
         <v>1</v>
       </c>
@@ -5802,10 +5805,10 @@
       <c r="A10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="53"/>
+      <c r="C10" s="58"/>
       <c r="D10" s="29">
         <v>1</v>
       </c>
@@ -6093,10 +6096,10 @@
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="58" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="53"/>
+      <c r="C11" s="58"/>
       <c r="D11" s="29">
         <v>1</v>
       </c>
@@ -6381,10 +6384,10 @@
     </row>
     <row r="12" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7"/>
-      <c r="B12" s="56" t="s">
+      <c r="B12" s="60" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="56"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="29">
         <v>1</v>
       </c>
@@ -6668,10 +6671,10 @@
     </row>
     <row r="13" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7"/>
-      <c r="B13" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" s="56"/>
+      <c r="B13" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="60"/>
       <c r="D13" s="29">
         <v>1</v>
       </c>
@@ -6955,10 +6958,10 @@
     </row>
     <row r="14" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7"/>
-      <c r="B14" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="C14" s="56"/>
+      <c r="B14" s="60" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="60"/>
       <c r="D14" s="29">
         <v>1</v>
       </c>
@@ -7240,10 +7243,10 @@
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="65" t="s">
+      <c r="B15" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="65"/>
+      <c r="C15" s="55"/>
       <c r="D15" s="32"/>
       <c r="E15" s="33"/>
       <c r="F15" s="34"/>
@@ -7521,10 +7524,10 @@
     </row>
     <row r="16" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8"/>
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="49"/>
+      <c r="C16" s="53"/>
       <c r="D16" s="35">
         <v>1</v>
       </c>
@@ -7808,10 +7811,10 @@
     </row>
     <row r="17" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="B17" s="49" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="49"/>
+      <c r="B17" s="53" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="53"/>
       <c r="D17" s="35">
         <v>1</v>
       </c>
@@ -8092,10 +8095,10 @@
     </row>
     <row r="18" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8"/>
-      <c r="B18" s="49" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="49"/>
+      <c r="B18" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="53"/>
       <c r="D18" s="35">
         <v>1</v>
       </c>
@@ -8376,10 +8379,10 @@
     </row>
     <row r="19" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7"/>
-      <c r="B19" s="49" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="49"/>
+      <c r="B19" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="53"/>
       <c r="D19" s="35">
         <v>1</v>
       </c>
@@ -8663,10 +8666,10 @@
     </row>
     <row r="20" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7"/>
-      <c r="B20" s="49" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="49"/>
+      <c r="B20" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="53"/>
       <c r="D20" s="35">
         <v>1</v>
       </c>
@@ -8950,10 +8953,10 @@
     </row>
     <row r="21" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7"/>
-      <c r="B21" s="49" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="49"/>
+      <c r="B21" s="53" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="53"/>
       <c r="D21" s="35">
         <v>1</v>
       </c>
@@ -9234,10 +9237,10 @@
     </row>
     <row r="22" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7"/>
-      <c r="B22" s="49" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="49"/>
+      <c r="B22" s="53" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="53"/>
       <c r="D22" s="35">
         <v>1</v>
       </c>
@@ -9518,10 +9521,10 @@
     </row>
     <row r="23" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7"/>
-      <c r="B23" s="49" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="49"/>
+      <c r="B23" s="53" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="53"/>
       <c r="D23" s="35">
         <v>1</v>
       </c>
@@ -9807,10 +9810,10 @@
       <c r="A24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="56" t="s">
         <v>27</v>
       </c>
-      <c r="C24" s="66"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="37"/>
       <c r="E24" s="38"/>
       <c r="F24" s="39"/>
@@ -10088,10 +10091,10 @@
     </row>
     <row r="25" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7"/>
-      <c r="B25" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="50"/>
+      <c r="B25" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="54"/>
       <c r="D25" s="40">
         <v>1</v>
       </c>
@@ -10375,10 +10378,10 @@
     </row>
     <row r="26" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7"/>
-      <c r="B26" s="50" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="50"/>
+      <c r="B26" s="54" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="54"/>
       <c r="D26" s="40">
         <v>1</v>
       </c>
@@ -10659,10 +10662,10 @@
     </row>
     <row r="27" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7"/>
-      <c r="B27" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="50"/>
+      <c r="B27" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="54"/>
       <c r="D27" s="40">
         <v>1</v>
       </c>
@@ -10943,10 +10946,10 @@
     </row>
     <row r="28" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7"/>
-      <c r="B28" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="50"/>
+      <c r="B28" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="54"/>
       <c r="D28" s="40">
         <v>1</v>
       </c>
@@ -11230,10 +11233,10 @@
     </row>
     <row r="29" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7"/>
-      <c r="B29" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="50"/>
+      <c r="B29" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="54"/>
       <c r="D29" s="40">
         <v>1</v>
       </c>
@@ -11517,10 +11520,10 @@
     </row>
     <row r="30" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="54" t="s">
         <v>26</v>
       </c>
-      <c r="C30" s="50"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="40">
         <v>1</v>
       </c>
@@ -11804,10 +11807,10 @@
     </row>
     <row r="31" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7"/>
-      <c r="B31" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" s="50"/>
+      <c r="B31" s="54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="54"/>
       <c r="D31" s="40">
         <v>1</v>
       </c>
@@ -12091,10 +12094,10 @@
     </row>
     <row r="32" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7"/>
-      <c r="B32" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="50"/>
+      <c r="B32" s="54" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32" s="54"/>
       <c r="D32" s="40">
         <v>1</v>
       </c>
@@ -12378,10 +12381,10 @@
     </row>
     <row r="33" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7"/>
-      <c r="B33" s="50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="50"/>
+      <c r="B33" s="54" t="s">
+        <v>64</v>
+      </c>
+      <c r="C33" s="54"/>
       <c r="D33" s="40">
         <v>1</v>
       </c>
@@ -12662,10 +12665,10 @@
     </row>
     <row r="34" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7"/>
-      <c r="B34" s="50" t="s">
-        <v>46</v>
-      </c>
-      <c r="C34" s="50"/>
+      <c r="B34" s="54" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="54"/>
       <c r="D34" s="40">
         <v>1</v>
       </c>
@@ -12946,10 +12949,10 @@
     </row>
     <row r="35" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7"/>
-      <c r="B35" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="C35" s="50"/>
+      <c r="B35" s="54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="54"/>
       <c r="D35" s="40">
         <v>1</v>
       </c>
@@ -13233,10 +13236,10 @@
     </row>
     <row r="36" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7"/>
-      <c r="B36" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" s="50"/>
+      <c r="B36" s="54" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="54"/>
       <c r="D36" s="40">
         <v>1</v>
       </c>
@@ -13522,16 +13525,16 @@
       <c r="A37" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="64" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" s="64"/>
+      <c r="B37" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="59"/>
       <c r="D37" s="44"/>
       <c r="E37" s="45"/>
       <c r="F37" s="46"/>
       <c r="G37" s="28"/>
       <c r="H37" s="28" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="I37" s="23"/>
       <c r="J37" s="23"/>
@@ -13802,10 +13805,10 @@
     </row>
     <row r="38" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7"/>
-      <c r="B38" s="63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C38" s="63"/>
+      <c r="B38" s="61" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="61"/>
       <c r="D38" s="47">
         <v>1</v>
       </c>
@@ -14086,10 +14089,10 @@
     </row>
     <row r="39" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7"/>
-      <c r="B39" s="62" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="62"/>
+      <c r="B39" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="50"/>
       <c r="D39" s="47">
         <v>1</v>
       </c>
@@ -14372,10 +14375,10 @@
     </row>
     <row r="40" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7"/>
-      <c r="B40" s="62" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="62"/>
+      <c r="B40" s="50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C40" s="50"/>
       <c r="D40" s="47">
         <v>1</v>
       </c>
@@ -14656,10 +14659,10 @@
     </row>
     <row r="41" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
-      <c r="B41" s="62" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="62"/>
+      <c r="B41" s="50" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" s="50"/>
       <c r="D41" s="47">
         <v>1</v>
       </c>
@@ -14940,10 +14943,10 @@
     </row>
     <row r="42" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7"/>
-      <c r="B42" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="C42" s="62"/>
+      <c r="B42" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="50"/>
       <c r="D42" s="47">
         <v>1</v>
       </c>
@@ -15224,10 +15227,10 @@
     </row>
     <row r="43" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7"/>
-      <c r="B43" s="62" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="62"/>
+      <c r="B43" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" s="50"/>
       <c r="D43" s="47">
         <v>1</v>
       </c>
@@ -15508,10 +15511,10 @@
     </row>
     <row r="44" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7"/>
-      <c r="B44" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="C44" s="62"/>
+      <c r="B44" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="50"/>
       <c r="D44" s="47">
         <v>1</v>
       </c>
@@ -15792,10 +15795,10 @@
     </row>
     <row r="45" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7"/>
-      <c r="B45" s="62" t="s">
-        <v>59</v>
-      </c>
-      <c r="C45" s="62"/>
+      <c r="B45" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="50"/>
       <c r="D45" s="47">
         <v>1</v>
       </c>
@@ -16078,10 +16081,10 @@
     </row>
     <row r="46" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7"/>
-      <c r="B46" s="62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C46" s="62"/>
+      <c r="B46" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="50"/>
       <c r="D46" s="47">
         <v>1</v>
       </c>
@@ -16362,10 +16365,10 @@
     </row>
     <row r="47" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="7"/>
-      <c r="B47" s="62" t="s">
-        <v>60</v>
-      </c>
-      <c r="C47" s="62"/>
+      <c r="B47" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="50"/>
       <c r="D47" s="47">
         <v>1</v>
       </c>
@@ -16646,10 +16649,10 @@
     </row>
     <row r="48" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="7"/>
-      <c r="B48" s="62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" s="62"/>
+      <c r="B48" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="C48" s="50"/>
       <c r="D48" s="47">
         <v>1</v>
       </c>
@@ -16930,10 +16933,10 @@
     </row>
     <row r="49" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="7"/>
-      <c r="B49" s="62" t="s">
-        <v>61</v>
-      </c>
-      <c r="C49" s="62"/>
+      <c r="B49" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" s="50"/>
       <c r="D49" s="47">
         <v>1</v>
       </c>
@@ -17214,10 +17217,10 @@
     </row>
     <row r="50" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="7"/>
-      <c r="B50" s="62" t="s">
-        <v>62</v>
-      </c>
-      <c r="C50" s="62"/>
+      <c r="B50" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="C50" s="50"/>
       <c r="D50" s="47">
         <v>1</v>
       </c>
@@ -17498,10 +17501,10 @@
     </row>
     <row r="51" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7"/>
-      <c r="B51" s="62" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="62"/>
+      <c r="B51" s="50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C51" s="50"/>
       <c r="D51" s="47">
         <v>1</v>
       </c>
@@ -17782,23 +17785,21 @@
     </row>
     <row r="52" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="7"/>
-      <c r="B52" s="62" t="s">
-        <v>64</v>
-      </c>
-      <c r="C52" s="62"/>
+      <c r="B52" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="C52" s="50"/>
       <c r="D52" s="47">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="E52" s="48">
         <v>45621</v>
       </c>
       <c r="F52" s="48">
-        <v>45629</v>
+        <v>45642</v>
       </c>
       <c r="G52" s="28"/>
-      <c r="H52" s="28">
-        <v>87</v>
-      </c>
+      <c r="H52" s="28"/>
       <c r="I52" s="23"/>
       <c r="J52" s="23"/>
       <c r="K52" s="23"/>
@@ -18015,42 +18016,42 @@
       <c r="HN52" s="23"/>
       <c r="HO52" s="23"/>
       <c r="HP52" s="23"/>
-      <c r="HQ52" s="23"/>
+      <c r="HQ52" s="24"/>
       <c r="HR52" s="23"/>
       <c r="HS52" s="23"/>
       <c r="HT52" s="23"/>
       <c r="HU52" s="23"/>
       <c r="HV52" s="23"/>
       <c r="HW52" s="23"/>
-      <c r="HX52" s="23"/>
+      <c r="HX52" s="24"/>
       <c r="HY52" s="23"/>
       <c r="HZ52" s="23"/>
       <c r="IA52" s="23"/>
       <c r="IB52" s="23"/>
       <c r="IC52" s="23"/>
       <c r="ID52" s="23"/>
-      <c r="IE52" s="23"/>
+      <c r="IE52" s="24"/>
       <c r="IF52" s="23"/>
       <c r="IG52" s="23"/>
       <c r="IH52" s="23"/>
       <c r="II52" s="23"/>
       <c r="IJ52" s="23"/>
       <c r="IK52" s="23"/>
-      <c r="IL52" s="23"/>
+      <c r="IL52" s="24"/>
       <c r="IM52" s="23"/>
       <c r="IN52" s="23"/>
       <c r="IO52" s="23"/>
       <c r="IP52" s="23"/>
       <c r="IQ52" s="23"/>
       <c r="IR52" s="23"/>
-      <c r="IS52" s="23"/>
+      <c r="IS52" s="24"/>
       <c r="IT52" s="23"/>
       <c r="IU52" s="23"/>
       <c r="IV52" s="23"/>
       <c r="IW52" s="23"/>
       <c r="IX52" s="23"/>
-      <c r="IY52" s="23"/>
-      <c r="IZ52" s="23"/>
+      <c r="IY52" s="24"/>
+      <c r="IZ52" s="24"/>
       <c r="JA52" s="23"/>
       <c r="JB52" s="23"/>
       <c r="JC52" s="23"/>
@@ -18066,34 +18067,350 @@
       <c r="JM52" s="23"/>
       <c r="JN52" s="24"/>
     </row>
-    <row r="53" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="68"/>
-      <c r="C53" s="68"/>
+    <row r="53" spans="1:274" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7"/>
+      <c r="B53" s="50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C53" s="50"/>
+      <c r="D53" s="47">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="48">
+        <v>45634</v>
+      </c>
+      <c r="F53" s="48">
+        <v>45642</v>
+      </c>
+      <c r="G53" s="28"/>
+      <c r="H53" s="28">
+        <v>87</v>
+      </c>
+      <c r="I53" s="23"/>
+      <c r="J53" s="23"/>
+      <c r="K53" s="23"/>
+      <c r="L53" s="23"/>
+      <c r="M53" s="23"/>
+      <c r="N53" s="23"/>
+      <c r="O53" s="23"/>
+      <c r="P53" s="23"/>
+      <c r="Q53" s="23"/>
+      <c r="R53" s="23"/>
+      <c r="S53" s="23"/>
+      <c r="T53" s="23"/>
+      <c r="U53" s="23"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
+      <c r="X53" s="23"/>
+      <c r="Y53" s="23"/>
+      <c r="Z53" s="23"/>
+      <c r="AA53" s="23"/>
+      <c r="AB53" s="23"/>
+      <c r="AC53" s="23"/>
+      <c r="AD53" s="23"/>
+      <c r="AE53" s="23"/>
+      <c r="AF53" s="23"/>
+      <c r="AG53" s="23"/>
+      <c r="AH53" s="23"/>
+      <c r="AI53" s="23"/>
+      <c r="AJ53" s="23"/>
+      <c r="AK53" s="23"/>
+      <c r="AL53" s="23"/>
+      <c r="AM53" s="23"/>
+      <c r="AN53" s="23"/>
+      <c r="AO53" s="23"/>
+      <c r="AP53" s="23"/>
+      <c r="AQ53" s="24"/>
+      <c r="AR53" s="23"/>
+      <c r="AS53" s="23"/>
+      <c r="AT53" s="23"/>
+      <c r="AU53" s="23"/>
+      <c r="AV53" s="23"/>
+      <c r="AW53" s="23"/>
+      <c r="AX53" s="24"/>
+      <c r="AY53" s="23"/>
+      <c r="AZ53" s="23"/>
+      <c r="BA53" s="23"/>
+      <c r="BB53" s="23"/>
+      <c r="BC53" s="23"/>
+      <c r="BD53" s="23"/>
+      <c r="BE53" s="24"/>
+      <c r="BF53" s="23"/>
+      <c r="BG53" s="23"/>
+      <c r="BH53" s="23"/>
+      <c r="BI53" s="23"/>
+      <c r="BJ53" s="23"/>
+      <c r="BK53" s="23"/>
+      <c r="BL53" s="24"/>
+      <c r="BM53" s="23"/>
+      <c r="BN53" s="23"/>
+      <c r="BO53" s="23"/>
+      <c r="BP53" s="23"/>
+      <c r="BQ53" s="23"/>
+      <c r="BR53" s="23"/>
+      <c r="BS53" s="24"/>
+      <c r="BT53" s="23"/>
+      <c r="BU53" s="23"/>
+      <c r="BV53" s="23"/>
+      <c r="BW53" s="23"/>
+      <c r="BX53" s="23"/>
+      <c r="BY53" s="23"/>
+      <c r="BZ53" s="24"/>
+      <c r="CA53" s="23"/>
+      <c r="CB53" s="23"/>
+      <c r="CC53" s="23"/>
+      <c r="CD53" s="23"/>
+      <c r="CE53" s="23"/>
+      <c r="CF53" s="23"/>
+      <c r="CG53" s="24"/>
+      <c r="CH53" s="23"/>
+      <c r="CI53" s="23"/>
+      <c r="CJ53" s="23"/>
+      <c r="CK53" s="23"/>
+      <c r="CL53" s="23"/>
+      <c r="CM53" s="23"/>
+      <c r="CN53" s="24"/>
+      <c r="CO53" s="23"/>
+      <c r="CP53" s="23"/>
+      <c r="CQ53" s="23"/>
+      <c r="CR53" s="23"/>
+      <c r="CS53" s="23"/>
+      <c r="CT53" s="23"/>
+      <c r="CU53" s="24"/>
+      <c r="CV53" s="23"/>
+      <c r="CW53" s="23"/>
+      <c r="CX53" s="23"/>
+      <c r="CY53" s="23"/>
+      <c r="CZ53" s="23"/>
+      <c r="DA53" s="23"/>
+      <c r="DB53" s="24"/>
+      <c r="DC53" s="23"/>
+      <c r="DD53" s="23"/>
+      <c r="DE53" s="23"/>
+      <c r="DF53" s="23"/>
+      <c r="DG53" s="23"/>
+      <c r="DH53" s="23"/>
+      <c r="DI53" s="24"/>
+      <c r="DJ53" s="23"/>
+      <c r="DK53" s="23"/>
+      <c r="DL53" s="23"/>
+      <c r="DM53" s="23"/>
+      <c r="DN53" s="23"/>
+      <c r="DO53" s="23"/>
+      <c r="DP53" s="24"/>
+      <c r="DQ53" s="23"/>
+      <c r="DR53" s="23"/>
+      <c r="DS53" s="23"/>
+      <c r="DT53" s="23"/>
+      <c r="DU53" s="23"/>
+      <c r="DV53" s="23"/>
+      <c r="DW53" s="24"/>
+      <c r="DX53" s="23"/>
+      <c r="DY53" s="23"/>
+      <c r="DZ53" s="23"/>
+      <c r="EA53" s="23"/>
+      <c r="EB53" s="23"/>
+      <c r="EC53" s="23"/>
+      <c r="ED53" s="24"/>
+      <c r="EE53" s="23"/>
+      <c r="EF53" s="23"/>
+      <c r="EG53" s="23"/>
+      <c r="EH53" s="23"/>
+      <c r="EI53" s="23"/>
+      <c r="EJ53" s="23"/>
+      <c r="EK53" s="24"/>
+      <c r="EL53" s="23"/>
+      <c r="EM53" s="23"/>
+      <c r="EN53" s="23"/>
+      <c r="EO53" s="23"/>
+      <c r="EP53" s="23"/>
+      <c r="EQ53" s="23"/>
+      <c r="ER53" s="24"/>
+      <c r="ES53" s="23"/>
+      <c r="ET53" s="23"/>
+      <c r="EU53" s="23"/>
+      <c r="EV53" s="23"/>
+      <c r="EW53" s="23"/>
+      <c r="EX53" s="23"/>
+      <c r="EY53" s="24"/>
+      <c r="EZ53" s="23"/>
+      <c r="FA53" s="23"/>
+      <c r="FB53" s="23"/>
+      <c r="FC53" s="23"/>
+      <c r="FD53" s="23"/>
+      <c r="FE53" s="23"/>
+      <c r="FF53" s="24"/>
+      <c r="FG53" s="23"/>
+      <c r="FH53" s="23"/>
+      <c r="FI53" s="23"/>
+      <c r="FJ53" s="23"/>
+      <c r="FK53" s="23"/>
+      <c r="FL53" s="23"/>
+      <c r="FM53" s="24"/>
+      <c r="FN53" s="23"/>
+      <c r="FO53" s="23"/>
+      <c r="FP53" s="23"/>
+      <c r="FQ53" s="23"/>
+      <c r="FR53" s="23"/>
+      <c r="FS53" s="23"/>
+      <c r="FT53" s="24"/>
+      <c r="FU53" s="23"/>
+      <c r="FV53" s="23"/>
+      <c r="FW53" s="23"/>
+      <c r="FX53" s="23"/>
+      <c r="FY53" s="23"/>
+      <c r="FZ53" s="23"/>
+      <c r="GA53" s="24"/>
+      <c r="GB53" s="23"/>
+      <c r="GC53" s="23"/>
+      <c r="GD53" s="23"/>
+      <c r="GE53" s="23"/>
+      <c r="GF53" s="23"/>
+      <c r="GG53" s="23"/>
+      <c r="GH53" s="24"/>
+      <c r="GI53" s="23"/>
+      <c r="GJ53" s="23"/>
+      <c r="GK53" s="23"/>
+      <c r="GL53" s="23"/>
+      <c r="GM53" s="23"/>
+      <c r="GN53" s="23"/>
+      <c r="GO53" s="24"/>
+      <c r="GP53" s="23"/>
+      <c r="GQ53" s="23"/>
+      <c r="GR53" s="23"/>
+      <c r="GS53" s="23"/>
+      <c r="GT53" s="23"/>
+      <c r="GU53" s="23"/>
+      <c r="GV53" s="24"/>
+      <c r="GW53" s="23"/>
+      <c r="GX53" s="23"/>
+      <c r="GY53" s="23"/>
+      <c r="GZ53" s="23"/>
+      <c r="HA53" s="23"/>
+      <c r="HB53" s="23"/>
+      <c r="HC53" s="24"/>
+      <c r="HD53" s="23"/>
+      <c r="HE53" s="23"/>
+      <c r="HF53" s="23"/>
+      <c r="HG53" s="23"/>
+      <c r="HH53" s="23"/>
+      <c r="HI53" s="23"/>
+      <c r="HJ53" s="24"/>
+      <c r="HK53" s="23"/>
+      <c r="HL53" s="23"/>
+      <c r="HM53" s="23"/>
+      <c r="HN53" s="23"/>
+      <c r="HO53" s="23"/>
+      <c r="HP53" s="23"/>
+      <c r="HQ53" s="23"/>
+      <c r="HR53" s="23"/>
+      <c r="HS53" s="23"/>
+      <c r="HT53" s="23"/>
+      <c r="HU53" s="23"/>
+      <c r="HV53" s="23"/>
+      <c r="HW53" s="23"/>
+      <c r="HX53" s="23"/>
+      <c r="HY53" s="23"/>
+      <c r="HZ53" s="23"/>
+      <c r="IA53" s="23"/>
+      <c r="IB53" s="23"/>
+      <c r="IC53" s="23"/>
+      <c r="ID53" s="23"/>
+      <c r="IE53" s="23"/>
+      <c r="IF53" s="23"/>
+      <c r="IG53" s="23"/>
+      <c r="IH53" s="23"/>
+      <c r="II53" s="23"/>
+      <c r="IJ53" s="23"/>
+      <c r="IK53" s="23"/>
+      <c r="IL53" s="23"/>
+      <c r="IM53" s="23"/>
+      <c r="IN53" s="23"/>
+      <c r="IO53" s="23"/>
+      <c r="IP53" s="23"/>
+      <c r="IQ53" s="23"/>
+      <c r="IR53" s="23"/>
+      <c r="IS53" s="23"/>
+      <c r="IT53" s="23"/>
+      <c r="IU53" s="23"/>
+      <c r="IV53" s="23"/>
+      <c r="IW53" s="23"/>
+      <c r="IX53" s="23"/>
+      <c r="IY53" s="23"/>
+      <c r="IZ53" s="23"/>
+      <c r="JA53" s="23"/>
+      <c r="JB53" s="23"/>
+      <c r="JC53" s="23"/>
+      <c r="JD53" s="23"/>
+      <c r="JE53" s="23"/>
+      <c r="JF53" s="23"/>
+      <c r="JG53" s="24"/>
+      <c r="JH53" s="23"/>
+      <c r="JI53" s="23"/>
+      <c r="JJ53" s="23"/>
+      <c r="JK53" s="23"/>
+      <c r="JL53" s="23"/>
+      <c r="JM53" s="23"/>
+      <c r="JN53" s="24"/>
+    </row>
+    <row r="54" spans="1:274" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
     </row>
   </sheetData>
-  <mergeCells count="89">
+  <mergeCells count="90">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="I3:FM3"/>
+    <mergeCell ref="FG4:FM4"/>
     <mergeCell ref="B53:C53"/>
-    <mergeCell ref="B50:C50"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="BT4:BZ4"/>
-    <mergeCell ref="CH4:CN4"/>
-    <mergeCell ref="DJ4:DP4"/>
-    <mergeCell ref="CV4:DB4"/>
-    <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="BM4:BS4"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="IT4:IZ4"/>
-    <mergeCell ref="JA4:JG4"/>
-    <mergeCell ref="JH4:JN4"/>
-    <mergeCell ref="HY4:IE4"/>
-    <mergeCell ref="IF4:IL4"/>
-    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B33:C33"/>
     <mergeCell ref="HK4:HQ4"/>
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="B28:C28"/>
@@ -18110,59 +18427,30 @@
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B45:C45"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="I3:FM3"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="IT4:IZ4"/>
+    <mergeCell ref="JA4:JG4"/>
+    <mergeCell ref="JH4:JN4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="IF4:IL4"/>
+    <mergeCell ref="IM4:IS4"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="BT4:BZ4"/>
+    <mergeCell ref="CH4:CN4"/>
+    <mergeCell ref="DJ4:DP4"/>
+    <mergeCell ref="CV4:DB4"/>
+    <mergeCell ref="DC4:DI4"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="BM4:BS4"/>
+    <mergeCell ref="B19:C19"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D52">
+  <conditionalFormatting sqref="D7:D53">
     <cfRule type="dataBar" priority="471">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -18176,22 +18464,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:HJ51 HR7:IS51 JA7:JN51 I52:HK52 IP52:JN52 IT7:IZ45">
+  <conditionalFormatting sqref="I7:HJ52 HR7:IS52 JA7:JN52 I53:HK53 IP53:JN53 IT7:IZ45">
     <cfRule type="expression" dxfId="31" priority="236">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD5:HI51 HR5:HW51 HY5:ID51 IF5:IK51 IM5:IR51 IT5:IY51 JH5:JM51 I5:DO52 DQ5:DV52 DX5:EC52 EE5:EJ52 EL5:EQ52 ES5:EX52 EZ5:FE52 FG5:FL52 FN5:FS52 FU5:FZ52 GB5:GG52 GI5:GN52 GP5:GU52 GW5:HB52 JA5:JF52">
+  <conditionalFormatting sqref="HD5:HI52 HR5:HW52 HY5:ID52 IF5:IK52 IM5:IR52 IT5:IY52 JH5:JM52 I5:DO53 DQ5:DV53 DX5:EC53 EE5:EJ53 EL5:EQ53 ES5:EX53 EZ5:FE53 FG5:FL53 FN5:FS53 FU5:FZ53 GB5:GG53 GI5:GN53 GP5:GU53 GW5:HB53 JA5:JF53">
     <cfRule type="expression" dxfId="30" priority="238">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD7:HI51 HR7:HW51 HY7:ID51 IF7:IK51 IM7:IR51 IT7:IY51 JH7:JM51 I7:DO52 DQ7:DV52 DX7:EC52 EE7:EJ52 EL7:EQ52 ES7:EX52 EZ7:FE52 FG7:FL52 FN7:FS52 FU7:FZ52 GB7:GG52 GI7:GN52 GP7:GU52 GW7:HB52 JA7:JF52">
+  <conditionalFormatting sqref="HD7:HI52 HR7:HW52 HY7:ID52 IF7:IK52 IM7:IR52 IT7:IY52 JH7:JM52 I7:DO53 DQ7:DV53 DX7:EC53 EE7:EJ53 EL7:EQ53 ES7:EX53 EZ7:FE53 FG7:FL53 FN7:FS53 FU7:FZ53 GB7:GG53 GI7:GN53 GP7:GU53 GW7:HB53 JA7:JF53">
     <cfRule type="expression" dxfId="29" priority="237" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HD52:HI52">
+  <conditionalFormatting sqref="HD53:HI53">
     <cfRule type="expression" dxfId="28" priority="176" stopIfTrue="1">
       <formula>AND(task_end&gt;=HD$5,task_start&lt;HE$5)</formula>
     </cfRule>
@@ -18209,7 +18497,7 @@
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK15:HP51">
+  <conditionalFormatting sqref="HK15:HP52">
     <cfRule type="expression" dxfId="24" priority="169" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
@@ -18222,12 +18510,12 @@
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK15:HQ51">
+  <conditionalFormatting sqref="HK15:HQ52">
     <cfRule type="expression" dxfId="21" priority="168">
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HK52:IZ52">
+  <conditionalFormatting sqref="HK53:IZ53">
     <cfRule type="expression" dxfId="20" priority="2" stopIfTrue="1">
       <formula>AND(task_end&gt;=HK$5,task_start&lt;HL$5)</formula>
     </cfRule>
@@ -18246,37 +18534,37 @@
       <formula>AND(task_start&lt;=HK$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HK$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HL52:IO52">
+  <conditionalFormatting sqref="HL53:IO53">
     <cfRule type="expression" dxfId="15" priority="1">
       <formula>AND(task_start&lt;=HL$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=HL$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ5:HQ51 HX5:HX51 DP5:DP52 DW5:DW52 ED5:ED52 EK5:EK52 ER5:ER52 EY5:EY52 FF5:FF52 JG5:JG52">
+  <conditionalFormatting sqref="HQ5:HQ52 HX5:HX52 DP5:DP53 DW5:DW53 ED5:ED53 EK5:EK53 ER5:ER53 EY5:EY53 FF5:FF53 JG5:JG53">
     <cfRule type="expression" dxfId="14" priority="492">
       <formula>AND(TODAY()&gt;=DP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="HQ7:HQ51 HX7:HX51 DP7:DP52 DW7:DW52 ED7:ED52 EK7:EK52 ER7:ER52 EY7:EY52 FF7:FF52 JG7:JG52">
+  <conditionalFormatting sqref="HQ7:HQ52 HX7:HX52 DP7:DP53 DW7:DW53 ED7:ED53 EK7:EK53 ER7:ER53 EY7:EY53 FF7:FF53 JG7:JG53">
     <cfRule type="expression" dxfId="13" priority="496" stopIfTrue="1">
       <formula>AND(task_end&gt;=DP$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IE7:IE51 IL7:IL51 GA7:GA52 GH7:GH52 GO7:GO52 GV7:GV52 HC7:HC52 IS7:IS52 HJ7:HJ52 JN7:JN52">
+  <conditionalFormatting sqref="IE7:IE52 IL7:IL52 GA7:GA53 GH7:GH53 GO7:GO53 GV7:GV53 HC7:HC53 IS7:IS53 HJ7:HJ53 JN7:JN53">
     <cfRule type="expression" dxfId="12" priority="233" stopIfTrue="1">
       <formula>AND(task_end&gt;=GA$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IS5:IS52 IE5:IE51 IL5:IL51 GA5:GA52 GH5:GH52 GO5:GO52 GV5:GV52 HC5:HC52">
+  <conditionalFormatting sqref="IS5:IS53 IE5:IE52 IL5:IL52 GA5:GA53 GH5:GH53 GO5:GO53 GV5:GV53 HC5:HC53">
     <cfRule type="expression" dxfId="11" priority="232">
       <formula>AND(TODAY()&gt;=GA$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IT46:IX51">
+  <conditionalFormatting sqref="IT46:IX52">
     <cfRule type="expression" dxfId="10" priority="178">
       <formula>AND(task_start&lt;=IT$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IT$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IY46:IZ51">
+  <conditionalFormatting sqref="IY46:IZ52">
     <cfRule type="expression" dxfId="9" priority="504">
       <formula>AND(task_start&lt;=IZ$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=IZ$5)</formula>
     </cfRule>
@@ -18287,12 +18575,12 @@
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM52 FT5:FT52 HJ5:HJ52 JN5:JN52">
+  <conditionalFormatting sqref="IZ5:IZ45 FM5:FM53 FT5:FT53 HJ5:HJ53 JN5:JN53">
     <cfRule type="expression" dxfId="6" priority="182">
       <formula>AND(TODAY()&gt;=FM$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ46:IZ51">
+  <conditionalFormatting sqref="IZ46:IZ52">
     <cfRule type="expression" dxfId="5" priority="103" stopIfTrue="1">
       <formula>AND(task_end&gt;=IZ$5,task_start&lt;JA$5)</formula>
     </cfRule>
@@ -18300,17 +18588,17 @@
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;JA$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ52 IZ7:IZ45 FM7:FM52 FT7:FT52">
+  <conditionalFormatting sqref="IZ53 IZ7:IZ45 FM7:FM53 FT7:FT53">
     <cfRule type="expression" dxfId="3" priority="260" stopIfTrue="1">
       <formula>AND(task_end&gt;=FM$5,task_start&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="IZ52">
+  <conditionalFormatting sqref="IZ53">
     <cfRule type="expression" dxfId="2" priority="259">
       <formula>AND(TODAY()&gt;=IZ$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="JH52:JM52">
+  <conditionalFormatting sqref="JH53:JM53">
     <cfRule type="expression" dxfId="1" priority="105" stopIfTrue="1">
       <formula>AND(task_end&gt;=JH$5,task_start&lt;JI$5)</formula>
     </cfRule>
@@ -18345,7 +18633,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D52</xm:sqref>
+          <xm:sqref>D7:D53</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -18363,26 +18651,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -18670,6 +18938,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}">
   <ds:schemaRefs>
@@ -18679,18 +18967,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18709,4 +18985,16 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>